--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -34,6 +34,15 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>{"inputs":[{"name":"Gamma Ray"}],"parameters":[{"name":"GR clean","type":"number","value":10},{"name":"GR clay","type":"number","value":120},{"name":"Method","type":"select","choices":[{"name":"Linear","value":1},{"name":"Clavier","value":2},{"name":"Larionov Tertiary rocks","value":3},{"name":"Larionov older rocks","value":4},{"name":"Stieber variation I","value":5},{"name":"Stieber - Miocene and Pliocene","value":6},{"name":"Stieber variation II","value":7}]}],"outputs":[{"name":"VCL_GR","family":"Clay Volume"}],"function":"calVCLfromGR"}</t>
   </si>
 </sst>
 </file>
@@ -351,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,6 +392,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>{"inputs":[{"name":"Gamma Ray"}],"parameters":[{"name":"GR clean","type":"number","value":10},{"name":"GR clay","type":"number","value":120},{"name":"Method","type":"select","choices":[{"name":"Linear","value":1},{"name":"Clavier","value":2},{"name":"Larionov Tertiary rocks","value":3},{"name":"Larionov older rocks","value":4},{"name":"Stieber variation I","value":5},{"name":"Stieber - Miocene and Pliocene","value":6},{"name":"Stieber variation II","value":7}]}],"outputs":[{"name":"VCL_GR","family":"Clay Volume"}],"function":"calVCLfromGR"}</t>
+  </si>
+  <si>
+    <t>Example 2</t>
+  </si>
+  <si>
+    <t>{"inputs":[{"name":"Bulk Density"},{"name":"Clay Volume"}],"parameters":[{"name":"Bulk Density clean","type":"number","value":2.65},{"name":"Bulk Density fluid","type":"number","value":1},{"name":"Bulk Density clay","type":"number","value":2.3}],"outputs":[{"name":"PHIT_D","family":"Total Porosity"},{"name":"PHIE_D","family":"Effective Porosity"}],"function":"calPorosityFromDensity"}</t>
   </si>
 </sst>
 </file>
@@ -360,17 +366,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.85546875" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -409,6 +415,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -368,8 +368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>name</t>
   </si>
@@ -36,19 +36,28 @@
     <t>id</t>
   </si>
   <si>
-    <t>Example</t>
-  </si>
-  <si>
     <t>hi</t>
   </si>
   <si>
     <t>{"inputs":[{"name":"Gamma Ray"}],"parameters":[{"name":"GR clean","type":"number","value":10},{"name":"GR clay","type":"number","value":120},{"name":"Method","type":"select","choices":[{"name":"Linear","value":1},{"name":"Clavier","value":2},{"name":"Larionov Tertiary rocks","value":3},{"name":"Larionov older rocks","value":4},{"name":"Stieber variation I","value":5},{"name":"Stieber - Miocene and Pliocene","value":6},{"name":"Stieber variation II","value":7}]}],"outputs":[{"name":"VCL_GR","family":"Clay Volume"}],"function":"calVCLfromGR"}</t>
   </si>
   <si>
-    <t>Example 2</t>
-  </si>
-  <si>
     <t>{"inputs":[{"name":"Bulk Density"},{"name":"Clay Volume"}],"parameters":[{"name":"Bulk Density clean","type":"number","value":2.65},{"name":"Bulk Density fluid","type":"number","value":1},{"name":"Bulk Density clay","type":"number","value":2.3}],"outputs":[{"name":"PHIT_D","family":"Total Porosity"},{"name":"PHIE_D","family":"Effective Porosity"}],"function":"calPorosityFromDensity"}</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>Gamma Ray</t>
+  </si>
+  <si>
+    <t>Clay Volume</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Porosity</t>
   </si>
 </sst>
 </file>
@@ -366,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -376,12 +385,13 @@
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="69.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -389,46 +399,55 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
     </row>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308"/>
   </bookViews>
   <sheets>
     <sheet name="task-spec" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>name</t>
   </si>
@@ -39,12 +39,6 @@
     <t>hi</t>
   </si>
   <si>
-    <t>{"inputs":[{"name":"Gamma Ray"}],"parameters":[{"name":"GR clean","type":"number","value":10},{"name":"GR clay","type":"number","value":120},{"name":"Method","type":"select","choices":[{"name":"Linear","value":1},{"name":"Clavier","value":2},{"name":"Larionov Tertiary rocks","value":3},{"name":"Larionov older rocks","value":4},{"name":"Stieber variation I","value":5},{"name":"Stieber - Miocene and Pliocene","value":6},{"name":"Stieber variation II","value":7}]}],"outputs":[{"name":"VCL_GR","family":"Clay Volume"}],"function":"calVCLfromGR"}</t>
-  </si>
-  <si>
-    <t>{"inputs":[{"name":"Bulk Density"},{"name":"Clay Volume"}],"parameters":[{"name":"Bulk Density clean","type":"number","value":2.65},{"name":"Bulk Density fluid","type":"number","value":1},{"name":"Bulk Density clay","type":"number","value":2.3}],"outputs":[{"name":"PHIT_D","family":"Total Porosity"},{"name":"PHIE_D","family":"Effective Porosity"}],"function":"calPorosityFromDensity"}</t>
-  </si>
-  <si>
     <t>group</t>
   </si>
   <si>
@@ -58,6 +52,75 @@
   </si>
   <si>
     <t>Porosity</t>
+  </si>
+  <si>
+    <t>Neutron-Density</t>
+  </si>
+  <si>
+    <t>Neutron-Sonic</t>
+  </si>
+  <si>
+    <t>Density-Sonic</t>
+  </si>
+  <si>
+    <t>Resistivity</t>
+  </si>
+  <si>
+    <t>Spontaneous potential</t>
+  </si>
+  <si>
+    <t>Thermal Neutron</t>
+  </si>
+  <si>
+    <t>Potassium</t>
+  </si>
+  <si>
+    <t>Thorium</t>
+  </si>
+  <si>
+    <t>Water Saturation</t>
+  </si>
+  <si>
+    <t>Summation</t>
+  </si>
+  <si>
+    <t>Archie</t>
+  </si>
+  <si>
+    <t>{"inputs":[{"name":"Gamma Ray"}],"parameters":[{"name":"GR clean","type":"number","value":10,"color":"red"},{"name":"GR clay","type":"number","value":120,"color":"green"},{"name":"Method","type":"select","value":"Linear","choices":["Linear","Clavier","Larionov Tertiary rocks","Larionov older rocks","Stieber variation I","Stieber - Miocene and Pliocene","Stieber variation II"]}],"outputs":[{"name":"VCL_GR","family":"Clay Volume","unit":"v/v"}],"function":"calVCLfromGR"}</t>
+  </si>
+  <si>
+    <t>{"inputs":[{"name":"Neutron porosity"},{"name":"Bulk density"}],"parameters":[{"name":"NPHI_clean_2","type":"number","value":0.25},{"name":"NHPI_clay","type":"number","value":0.4,"color":"green"},{"name":"NHPI_matrix","type":"number","value":-0.01},{"name":"RHOB_clean_2","type":"number","value":1},{"name":"RHOB_clay","type":"number","value":2.4,"color":"red"},{"name":"RHOB_matrix","type":"number","value":2.2}],"outputs":[{"name":"VCL_ND","family":"Clay Volume","unit":"v/v"}],"function":"calVCLfromND"}</t>
+  </si>
+  <si>
+    <t>{"inputs":[{"name":"Neutron porosity"},{"name":"Compressional slowness"}],"parameters":[{"name":"NPHI_clean_2","type":"number","value":0.25},{"name":"NHPI_clay","type":"number","value":0.4,"color":"green"},{"name":"NHPI_clean_1","type":"number","value":-0.01},{"name":"DT_clean_2","type":"number","value":90},{"name":"DT_clay","type":"number","value":100,"color":"pink"},{"name":"DT_clean_1","type":"number","value":50}],"outputs":[{"name":"VCL_NS","family":"Clay Volume","unit":"v/v"}],"function":"calVCLfromNS"}</t>
+  </si>
+  <si>
+    <t>{"inputs":[{"name":"Bulk density"},{"name":"Compressional slowness"}],"parameters":[{"name":"RHOB_clean_2","type":"number","value":2.2},{"name":"RHOB_clay","type":"number","value":2.4,"color":"pink"},{"name":"RHOB_clean_1","type":"number","value":2.65},{"name":"DT_clean_2","type":"number","value":90},{"name":"DT_clay","type":"number","value":100,"color":"red"},{"name":"DT_clean_1","type":"number","value":50}],"outputs":[{"name":"VCL_SD","family":"Clay Volume","unit":"v/v"}],"function":"calVCLfromSD"}</t>
+  </si>
+  <si>
+    <t>{"inputs":[{"name":"Resistivity"}],"parameters":[{"name":"Resistivity_clean","type":"number","value":10,"color":"red"},{"name":"Resistivity_clay","type":"number","value":120,"color":"green"},{"name":"Equation","type":"select","value":"Resistivity Log","choices":["Resistivity Log","Gaymard"]}],"outputs":[{"name":"VCL_RES","family":"Clay Volume","unit":"v/v"}],"function":"calVCLfromRES"}</t>
+  </si>
+  <si>
+    <t>{"inputs":[{"name":"Spontaneous potential"}],"parameters":[{"name":"SP_clean","type":"number","value":0,"color":"red"},{"name":"SP_clay","type":"number","value":100,"color":"green"}],"outputs":[{"name":"VCL_SP","family":"Clay Volume","unit":"v/v"}],"function":"calVCLfromSP"}</t>
+  </si>
+  <si>
+    <t>{"inputs":[{"name":"Thermal Neutron"}],"parameters":[{"name":"Neutron_clean","type":"number","value":0.1,"color":"red"},{"name":"Neutron_clay","type":"number","value":0.3,"color":"green"}],"outputs":[{"name":"VCL_NEU","family":"Clay Volume","unit":"v/v"}],"function":"calVCLfromNEU"}</t>
+  </si>
+  <si>
+    <t>{"inputs":[{"name":"Potassium"}],"parameters":[{"name":"POTA matrix","type":"number","value":0,"color":"red"},{"name":"POTA shale","type":"number","value":0,"color":"green"},{"name":"POTA method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]}],"outputs":[{"name":"VCL_POTA","family":"Clay Volume","unit":"v/v"}],"function":"calVCLfromPOTA"}</t>
+  </si>
+  <si>
+    <t>{"inputs":[{"name":"Thorium"}],"parameters":[{"name":"Thorium matrix","type":"number","value":0,"color":"red"},{"name":"Thorium shale","type":"number","value":0,"color":"green"},{"name":"TH method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]}],"outputs":[{"name":"VCL_Thori","family":"Clay Volume","unit":"v/v"}],"function":"calVCLfromThori"}</t>
+  </si>
+  <si>
+    <t>{"inputs":[{"name":"Bulk Density"},{"name":"Clay Volume"}],"parameters":[{"name":"Bulk Density clean","type":"number","value":2.65,"color":"red"},{"name":"Bulk Density fluid","type":"number","value":1},{"name":"Bulk Density clay","type":"number","value":2.3,"color":"green"}],"outputs":[{"name":"PHIT_D","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_D","family":"Effective Porosity","unit":"v/v"}],"function":"calPorosityFromDensity"}</t>
+  </si>
+  <si>
+    <t>{"inputs":[{"name":"Formation Resistivity"},{"name":"Porosity"}],"parameters":[{"name":"Tortuosity factor","type":"number","value":1},{"name":"Cementation exponent","type":"number","value":2},{"name":"Saturation exponent","type":"number","value":2},{"name":"Rw","type":"number","value":0.03}],"outputs":[{"name":"SW_AR","family":"Water Saturation","unit":"v/v"},{"name":"SH_AR","family":"Hydrocarbon Saturation","unit":"v/v"},{"name":"SW_AR_UNCL","family":"Water Saturation Unclipped","unit":"v/v"},{"name":"BVW_AR","family":"Bulk Water Volume XO","unit":"v/v"}],"function":"calSaturationArchie"}</t>
+  </si>
+  <si>
+    <t>{"inputs":[{"name":"Clay Volume"},{"name":"Porosity"},{"name":"Water Saturation"}],"parameters":[{"name":"Vclay Cut","type":"number","value":0.35},{"name":"Phi Cut","type":"number","value":0.15},{"name":"SW Cut","type":"number","value":0.6}],"outputs":[{"name":"NetRes","family":"Net Reservoir Flag"},{"name":"Netpay","family":"Net Pay Flag"}],"function":"calCutoffSummation"}</t>
   </si>
 </sst>
 </file>
@@ -375,23 +438,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="69.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" customWidth="1"/>
+    <col min="2" max="2" width="20.9296875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="105.19921875" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -399,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -411,18 +474,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -431,7 +494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -439,19 +502,220 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20719"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_785A67DB09042B393A10C7C4FA50CFB0958C9597" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{A7A31502-5CC8-4F33-8265-BDB4C21C8E5C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task-spec" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179020"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,11 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+  <si>
+    <t>id</t>
+  </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>group</t>
+  </si>
+  <si>
     <t>content</t>
   </si>
   <si>
@@ -33,19 +40,61 @@
     <t>type</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>hi</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
     <t>Gamma Ray</t>
   </si>
   <si>
-    <t>Clay Volume</t>
+    <t>Shale Volume</t>
+  </si>
+  <si>
+    <t>{"inputs":[{"name":"Gamma Ray"}],"parameters":[{"name":"GR clean","type":"number","value":10,"color":"red"},{"name":"GR shale","type":"number","value":120,"color":"green"},{"name":"Method","type":"select","value":"Linear","choices":["Linear","Clavier","Larionov Tertiary rocks","Larionov older rocks","Stieber variation I","Stieber - Miocene and Pliocene","Stieber variation II"]}],"outputs":[{"name":"VCL_GR","family":"Shale Volume","unit":"v/v"}],"function":"calVCLfromGR"}</t>
+  </si>
+  <si>
+    <t>Neutron-Density</t>
+  </si>
+  <si>
+    <t>{"inputs":[{"name":"Neutron porosity"},{"name":"Bulk density"}],"parameters":[{"name":"NPHI_clean_2","type":"number","value":0.25},{"name":"NHPI_shale","type":"number","value":0.4,"color":"green"},{"name":"NHPI_matrix","type":"number","value":-0.01},{"name":"RHOB_clean_2","type":"number","value":1},{"name":"RHOB_shale","type":"number","value":2.4,"color":"red"},{"name":"RHOB_matrix","type":"number","value":2.2}],"outputs":[{"name":"VCL_ND","family":"Shale Volume","unit":"v/v"}],"function":"calVCLfromND"}</t>
+  </si>
+  <si>
+    <t>Neutron-Sonic</t>
+  </si>
+  <si>
+    <t>{"inputs":[{"name":"Neutron porosity"},{"name":"Compressional slowness"}],"parameters":[{"name":"NPHI_clean_2","type":"number","value":0.25},{"name":"NHPI_shale","type":"number","value":0.4,"color":"green"},{"name":"NHPI_clean_1","type":"number","value":-0.01},{"name":"DT_clean_2","type":"number","value":90},{"name":"DT_shale","type":"number","value":100,"color":"pink"},{"name":"DT_clean_1","type":"number","value":50}],"outputs":[{"name":"VCL_NS","family":"Shale Volume","unit":"v/v"}],"function":"calVCLfromNS"}</t>
+  </si>
+  <si>
+    <t>Density-Sonic</t>
+  </si>
+  <si>
+    <t>{"inputs":[{"name":"Bulk density"},{"name":"Compressional slowness"}],"parameters":[{"name":"RHOB_clean_2","type":"number","value":2.2},{"name":"RHOB_shale","type":"number","value":2.4,"color":"pink"},{"name":"RHOB_clean_1","type":"number","value":2.65},{"name":"DT_clean_2","type":"number","value":90},{"name":"DT_shale","type":"number","value":100,"color":"red"},{"name":"DT_clean_1","type":"number","value":50}],"outputs":[{"name":"VCL_SD","family":"Shale Volume","unit":"v/v"}],"function":"calVCLfromSD"}</t>
+  </si>
+  <si>
+    <t>Resistivity</t>
+  </si>
+  <si>
+    <t>{"inputs":[{"name":"Resistivity"}],"parameters":[{"name":"Resistivity_clean","type":"number","value":10,"color":"red"},{"name":"Resistivity_shale","type":"number","value":120,"color":"green"},{"name":"Equation","type":"select","value":"Resistivity Log","choices":["Resistivity Log","Gaymard"]}],"outputs":[{"name":"VCL_RES","family":"Shale Volume","unit":"v/v"}],"function":"calVCLfromRES"}</t>
+  </si>
+  <si>
+    <t>Spontaneous potential</t>
+  </si>
+  <si>
+    <t>{"inputs":[{"name":"Spontaneous potential"}],"parameters":[{"name":"SP_clean","type":"number","value":0,"color":"red"},{"name":"SP_shale","type":"number","value":100,"color":"green"}],"outputs":[{"name":"VCL_SP","family":"Shale Volume","unit":"v/v"}],"function":"calVCLfromSP"}</t>
+  </si>
+  <si>
+    <t>Thermal Neutron</t>
+  </si>
+  <si>
+    <t>{"inputs":[{"name":"Thermal Neutron"}],"parameters":[{"name":"Neutron_clean","type":"number","value":0.1,"color":"red"},{"name":"Neutron_shale","type":"number","value":0.3,"color":"green"}],"outputs":[{"name":"VCL_NEU","family":"Shale Volume","unit":"v/v"}],"function":"calVCLfromNEU"}</t>
+  </si>
+  <si>
+    <t>Potassium</t>
+  </si>
+  <si>
+    <t>{"inputs":[{"name":"Potassium"}],"parameters":[{"name":"POTA matrix","type":"number","value":0,"color":"red"},{"name":"POTA shale","type":"number","value":0,"color":"green"},{"name":"POTA method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]}],"outputs":[{"name":"VCL_POTA","family":"Shale Volume","unit":"v/v"}],"function":"calVCLfromPOTA"}</t>
+  </si>
+  <si>
+    <t>Thorium</t>
+  </si>
+  <si>
+    <t>{"inputs":[{"name":"Thorium"}],"parameters":[{"name":"Thorium matrix","type":"number","value":0,"color":"red"},{"name":"Thorium shale","type":"number","value":0,"color":"green"},{"name":"TH method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]}],"outputs":[{"name":"VCL_Thori","family":"Shale Volume","unit":"v/v"}],"function":"calVCLfromThori"}</t>
   </si>
   <si>
     <t>Density</t>
@@ -54,80 +103,47 @@
     <t>Porosity</t>
   </si>
   <si>
-    <t>Neutron-Density</t>
-  </si>
-  <si>
-    <t>Neutron-Sonic</t>
-  </si>
-  <si>
-    <t>Density-Sonic</t>
-  </si>
-  <si>
-    <t>Resistivity</t>
-  </si>
-  <si>
-    <t>Spontaneous potential</t>
-  </si>
-  <si>
-    <t>Thermal Neutron</t>
-  </si>
-  <si>
-    <t>Potassium</t>
-  </si>
-  <si>
-    <t>Thorium</t>
+    <t>{"inputs":[{"name":"Density","family":"Bulk Density","unit":"g/cm3"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Density Matrix","type":"number","value":2.65,"color":"red"},{"name":"Density Fluid","type":"number","value":1},{"name":"Density Shale","type":"number","value":2.4,"color":"green"}],"outputs":[{"name":"PHIT_D","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_D","family":"Effective Porosity","unit":"v/v"},{"name":"RHO_MA","family":"Apparent Matrix Density","unit":"v/v"}],"function":"calPorosityFromDensity"}</t>
+  </si>
+  <si>
+    <t>Neutron</t>
+  </si>
+  <si>
+    <t>{"inputs":[{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Neutron Matrix","type":"number","value":-0.01,"color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991},{"name":"Neutron Shale","type":"number","value":0.4,"color":"green"}],"outputs":[{"name":"PHIT_N","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_N","family":"Effective Porosity","unit":"v/v"},{"name":"PHI_matrix","family":"Apparent Matrix Neutron","unit":"v/v"}],"function":"calPorosityFromNeutron"}</t>
+  </si>
+  <si>
+    <t>Sonic</t>
+  </si>
+  <si>
+    <t>{"inputs":[{"name":"Sonic","family":"Compressional Slowness","unit":"us/ft"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Sonic Matrix","type":"number","value":55,"color":"red"},{"name":"Sonic Fluid","type":"number","value":189},{"name":"Sonic Shale","type":"number","value":110,"color":"green"},{"name":"Sonic Method","type":"select","value":"Wyliie","choices":["Wyliie","Raymer-Hunt-Gardner"]},{"name":"Cp","type":"number","value":1}],"outputs":[{"name":"PHIT_S","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_S","family":"Effective Porosity","unit":"v/v"},{"name":"DT_MA","family":"Apparent Matrix Compressional Slowness","unit":"us/ft"}],"function":"calPorosityFromSonic"}</t>
+  </si>
+  <si>
+    <t>{"inputs":[{"name":"Sonic","family":"Compressional Slowness","unit":"us/ft"},{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Sonic Matrix","type":"number","value":55,"color":"red"},{"name":"Sonic Fluid","type":"number","value":189},{"name":"Sonic Shale","type":"number","value":110,"color":"green"},{"name":"Neutron Matrix","type":"number","value":-0.01,"color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991},{"name":"Neutron Shale","type":"number","value":0.4,"color":"green"},{"name":"Sonic Method","type":"select","value":"Wyliie","choices":["Wyliie","Raymer-Hunt-Gardner"]},{"name":"Cp","type":"number","value":1}],"outputs":[{"name":"PHIT_NS","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_NS","family":"Effective Porosity","unit":"v/v"},{"name":"DT_MA","family":"Apparent Matrix Compressional Slowness","unit":"us/ft"}],"function":"calPorosityFromNeutronSonic"}</t>
+  </si>
+  <si>
+    <t>Density-Neutron</t>
+  </si>
+  <si>
+    <t>Archie</t>
   </si>
   <si>
     <t>Water Saturation</t>
   </si>
   <si>
+    <t>{"inputs":[{"name":"Formation Resistivity"},{"name":"Porosity"}],"parameters":[{"name":"Tortuosity factor","type":"number","value":1},{"name":"Cementation exponent","type":"number","value":2},{"name":"Saturation exponent","type":"number","value":2},{"name":"Rw","type":"number","value":0.03}],"outputs":[{"name":"SW_AR","family":"Water Saturation","unit":"v/v"},{"name":"SH_AR","family":"Hydrocarbon Saturation","unit":"v/v"},{"name":"SW_AR_UNCL","family":"Water Saturation Unclipped","unit":"v/v"},{"name":"BVW_AR","family":"Bulk Water Volume XO","unit":"v/v"}],"function":"calSaturationArchie"}</t>
+  </si>
+  <si>
     <t>Summation</t>
   </si>
   <si>
-    <t>Archie</t>
-  </si>
-  <si>
-    <t>{"inputs":[{"name":"Gamma Ray"}],"parameters":[{"name":"GR clean","type":"number","value":10,"color":"red"},{"name":"GR clay","type":"number","value":120,"color":"green"},{"name":"Method","type":"select","value":"Linear","choices":["Linear","Clavier","Larionov Tertiary rocks","Larionov older rocks","Stieber variation I","Stieber - Miocene and Pliocene","Stieber variation II"]}],"outputs":[{"name":"VCL_GR","family":"Clay Volume","unit":"v/v"}],"function":"calVCLfromGR"}</t>
-  </si>
-  <si>
-    <t>{"inputs":[{"name":"Neutron porosity"},{"name":"Bulk density"}],"parameters":[{"name":"NPHI_clean_2","type":"number","value":0.25},{"name":"NHPI_clay","type":"number","value":0.4,"color":"green"},{"name":"NHPI_matrix","type":"number","value":-0.01},{"name":"RHOB_clean_2","type":"number","value":1},{"name":"RHOB_clay","type":"number","value":2.4,"color":"red"},{"name":"RHOB_matrix","type":"number","value":2.2}],"outputs":[{"name":"VCL_ND","family":"Clay Volume","unit":"v/v"}],"function":"calVCLfromND"}</t>
-  </si>
-  <si>
-    <t>{"inputs":[{"name":"Neutron porosity"},{"name":"Compressional slowness"}],"parameters":[{"name":"NPHI_clean_2","type":"number","value":0.25},{"name":"NHPI_clay","type":"number","value":0.4,"color":"green"},{"name":"NHPI_clean_1","type":"number","value":-0.01},{"name":"DT_clean_2","type":"number","value":90},{"name":"DT_clay","type":"number","value":100,"color":"pink"},{"name":"DT_clean_1","type":"number","value":50}],"outputs":[{"name":"VCL_NS","family":"Clay Volume","unit":"v/v"}],"function":"calVCLfromNS"}</t>
-  </si>
-  <si>
-    <t>{"inputs":[{"name":"Bulk density"},{"name":"Compressional slowness"}],"parameters":[{"name":"RHOB_clean_2","type":"number","value":2.2},{"name":"RHOB_clay","type":"number","value":2.4,"color":"pink"},{"name":"RHOB_clean_1","type":"number","value":2.65},{"name":"DT_clean_2","type":"number","value":90},{"name":"DT_clay","type":"number","value":100,"color":"red"},{"name":"DT_clean_1","type":"number","value":50}],"outputs":[{"name":"VCL_SD","family":"Clay Volume","unit":"v/v"}],"function":"calVCLfromSD"}</t>
-  </si>
-  <si>
-    <t>{"inputs":[{"name":"Resistivity"}],"parameters":[{"name":"Resistivity_clean","type":"number","value":10,"color":"red"},{"name":"Resistivity_clay","type":"number","value":120,"color":"green"},{"name":"Equation","type":"select","value":"Resistivity Log","choices":["Resistivity Log","Gaymard"]}],"outputs":[{"name":"VCL_RES","family":"Clay Volume","unit":"v/v"}],"function":"calVCLfromRES"}</t>
-  </si>
-  <si>
-    <t>{"inputs":[{"name":"Spontaneous potential"}],"parameters":[{"name":"SP_clean","type":"number","value":0,"color":"red"},{"name":"SP_clay","type":"number","value":100,"color":"green"}],"outputs":[{"name":"VCL_SP","family":"Clay Volume","unit":"v/v"}],"function":"calVCLfromSP"}</t>
-  </si>
-  <si>
-    <t>{"inputs":[{"name":"Thermal Neutron"}],"parameters":[{"name":"Neutron_clean","type":"number","value":0.1,"color":"red"},{"name":"Neutron_clay","type":"number","value":0.3,"color":"green"}],"outputs":[{"name":"VCL_NEU","family":"Clay Volume","unit":"v/v"}],"function":"calVCLfromNEU"}</t>
-  </si>
-  <si>
-    <t>{"inputs":[{"name":"Potassium"}],"parameters":[{"name":"POTA matrix","type":"number","value":0,"color":"red"},{"name":"POTA shale","type":"number","value":0,"color":"green"},{"name":"POTA method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]}],"outputs":[{"name":"VCL_POTA","family":"Clay Volume","unit":"v/v"}],"function":"calVCLfromPOTA"}</t>
-  </si>
-  <si>
-    <t>{"inputs":[{"name":"Thorium"}],"parameters":[{"name":"Thorium matrix","type":"number","value":0,"color":"red"},{"name":"Thorium shale","type":"number","value":0,"color":"green"},{"name":"TH method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]}],"outputs":[{"name":"VCL_Thori","family":"Clay Volume","unit":"v/v"}],"function":"calVCLfromThori"}</t>
-  </si>
-  <si>
-    <t>{"inputs":[{"name":"Bulk Density"},{"name":"Clay Volume"}],"parameters":[{"name":"Bulk Density clean","type":"number","value":2.65,"color":"red"},{"name":"Bulk Density fluid","type":"number","value":1},{"name":"Bulk Density clay","type":"number","value":2.3,"color":"green"}],"outputs":[{"name":"PHIT_D","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_D","family":"Effective Porosity","unit":"v/v"}],"function":"calPorosityFromDensity"}</t>
-  </si>
-  <si>
-    <t>{"inputs":[{"name":"Formation Resistivity"},{"name":"Porosity"}],"parameters":[{"name":"Tortuosity factor","type":"number","value":1},{"name":"Cementation exponent","type":"number","value":2},{"name":"Saturation exponent","type":"number","value":2},{"name":"Rw","type":"number","value":0.03}],"outputs":[{"name":"SW_AR","family":"Water Saturation","unit":"v/v"},{"name":"SH_AR","family":"Hydrocarbon Saturation","unit":"v/v"},{"name":"SW_AR_UNCL","family":"Water Saturation Unclipped","unit":"v/v"},{"name":"BVW_AR","family":"Bulk Water Volume XO","unit":"v/v"}],"function":"calSaturationArchie"}</t>
-  </si>
-  <si>
-    <t>{"inputs":[{"name":"Clay Volume"},{"name":"Porosity"},{"name":"Water Saturation"}],"parameters":[{"name":"Vclay Cut","type":"number","value":0.35},{"name":"Phi Cut","type":"number","value":0.15},{"name":"SW Cut","type":"number","value":0.6}],"outputs":[{"name":"NetRes","family":"Net Reservoir Flag"},{"name":"Netpay","family":"Net Pay Flag"}],"function":"calCutoffSummation"}</t>
+    <t>{"inputs":[{"name":"Shale Volume"},{"name":"Porosity"},{"name":"Water Saturation"}],"parameters":[{"name":"Vshale Cut","type":"number","value":0.35},{"name":"Phi Cut","type":"number","value":0.15},{"name":"SW Cut","type":"number","value":0.6}],"outputs":[{"name":"NetRes","family":"Net Reservoir Flag"},{"name":"Netpay","family":"Net Pay Flag"}],"function":"calCutoffSummation"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,7 +176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -437,104 +453,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" customWidth="1"/>
-    <col min="2" max="2" width="20.9296875" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="105.19921875" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="105.140625" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
       <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -542,176 +540,178 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20719"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_785A67DB09042B393A10C7C4FA50CFB0958C9597" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{A7A31502-5CC8-4F33-8265-BDB4C21C8E5C}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_785A67DB09042B393A10C7C4FA50CFB0958C9597" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{1E78CE50-E0B6-4F06-B20E-0625841E4117}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -503,6 +503,9 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20719"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_785A67DB09042B393A10C7C4FA50CFB0958C9597" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{1E78CE50-E0B6-4F06-B20E-0625841E4117}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="11_785A67DB09042B393A10C7C4FA50CFB0958C9597" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{C63B360D-1EF2-489F-B3B3-5BB933B71452}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -46,55 +46,55 @@
     <t>Shale Volume</t>
   </si>
   <si>
-    <t>{"inputs":[{"name":"Gamma Ray"}],"parameters":[{"name":"GR clean","type":"number","value":10,"color":"red"},{"name":"GR shale","type":"number","value":120,"color":"green"},{"name":"Method","type":"select","value":"Linear","choices":["Linear","Clavier","Larionov Tertiary rocks","Larionov older rocks","Stieber variation I","Stieber - Miocene and Pliocene","Stieber variation II"]}],"outputs":[{"name":"VCL_GR","family":"Shale Volume","unit":"v/v"}],"function":"calVCLfromGR"}</t>
+    <t>{"function":"calVSHfromGR","inputs":[{"name":"Gamma Ray"}],"parameters":[{"name":"GR clean","type":"number","value":10,"color":"red"},{"name":"GR shale","type":"number","value":120,"color":"green"},{"name":"Method","type":"select","value":"Linear","choices":["Linear","Clavier","Larionov Tertiary rocks","Larionov older rocks","Stieber variation I","Stieber - Miocene and Pliocene","Stieber variation II"]}],"outputs":[{"name":"VSH_GR","family":"Shale Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Neutron-Density</t>
   </si>
   <si>
-    <t>{"inputs":[{"name":"Neutron porosity"},{"name":"Bulk density"}],"parameters":[{"name":"NPHI_clean_2","type":"number","value":0.25},{"name":"NHPI_shale","type":"number","value":0.4,"color":"green"},{"name":"NHPI_matrix","type":"number","value":-0.01},{"name":"RHOB_clean_2","type":"number","value":1},{"name":"RHOB_shale","type":"number","value":2.4,"color":"red"},{"name":"RHOB_matrix","type":"number","value":2.2}],"outputs":[{"name":"VCL_ND","family":"Shale Volume","unit":"v/v"}],"function":"calVCLfromND"}</t>
+    <t>{"function":"calVSHfromND","inputs":[{"name":"Neutron porosity"},{"name":"Bulk density"}],"parameters":[{"name":"NPHI_clean_2","type":"number","value":0.25},{"name":"NHPI_shale","type":"number","value":0.4,"color":"green"},{"name":"NHPI_matrix","type":"number","value":-0.01},{"name":"RHOB_clean_2","type":"number","value":1},{"name":"RHOB_shale","type":"number","value":2.4,"color":"red"},{"name":"RHOB_matrix","type":"number","value":2.2}],"outputs":[{"name":"VSH_ND","family":"Shale Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Neutron-Sonic</t>
   </si>
   <si>
-    <t>{"inputs":[{"name":"Neutron porosity"},{"name":"Compressional slowness"}],"parameters":[{"name":"NPHI_clean_2","type":"number","value":0.25},{"name":"NHPI_shale","type":"number","value":0.4,"color":"green"},{"name":"NHPI_clean_1","type":"number","value":-0.01},{"name":"DT_clean_2","type":"number","value":90},{"name":"DT_shale","type":"number","value":100,"color":"pink"},{"name":"DT_clean_1","type":"number","value":50}],"outputs":[{"name":"VCL_NS","family":"Shale Volume","unit":"v/v"}],"function":"calVCLfromNS"}</t>
+    <t>{"function":"calVSHfromNS","inputs":[{"name":"Neutron porosity"},{"name":"Compressional slowness"}],"parameters":[{"name":"NPHI_clean_2","type":"number","value":0.25},{"name":"NHPI_shale","type":"number","value":0.4,"color":"green"},{"name":"NHPI_clean_1","type":"number","value":-0.01},{"name":"DT_clean_2","type":"number","value":90},{"name":"DT_shale","type":"number","value":100,"color":"pink"},{"name":"DT_clean_1","type":"number","value":50}],"outputs":[{"name":"VSH_NS","family":"Shale Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Density-Sonic</t>
   </si>
   <si>
-    <t>{"inputs":[{"name":"Bulk density"},{"name":"Compressional slowness"}],"parameters":[{"name":"RHOB_clean_2","type":"number","value":2.2},{"name":"RHOB_shale","type":"number","value":2.4,"color":"pink"},{"name":"RHOB_clean_1","type":"number","value":2.65},{"name":"DT_clean_2","type":"number","value":90},{"name":"DT_shale","type":"number","value":100,"color":"red"},{"name":"DT_clean_1","type":"number","value":50}],"outputs":[{"name":"VCL_SD","family":"Shale Volume","unit":"v/v"}],"function":"calVCLfromSD"}</t>
+    <t>{"function":"calVSHfromSD","inputs":[{"name":"Bulk density"},{"name":"Compressional slowness"}],"parameters":[{"name":"RHOB_clean_2","type":"number","value":2.2},{"name":"RHOB_shale","type":"number","value":2.4,"color":"pink"},{"name":"RHOB_clean_1","type":"number","value":2.65},{"name":"DT_clean_2","type":"number","value":90},{"name":"DT_shale","type":"number","value":100,"color":"red"},{"name":"DT_clean_1","type":"number","value":50}],"outputs":[{"name":"VSH_SD","family":"Shale Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Resistivity</t>
   </si>
   <si>
-    <t>{"inputs":[{"name":"Resistivity"}],"parameters":[{"name":"Resistivity_clean","type":"number","value":10,"color":"red"},{"name":"Resistivity_shale","type":"number","value":120,"color":"green"},{"name":"Equation","type":"select","value":"Resistivity Log","choices":["Resistivity Log","Gaymard"]}],"outputs":[{"name":"VCL_RES","family":"Shale Volume","unit":"v/v"}],"function":"calVCLfromRES"}</t>
+    <t>{"function":"calVSHfromRES","inputs":[{"name":"Resistivity"}],"parameters":[{"name":"Resistivity_clean","type":"number","value":10,"color":"red"},{"name":"Resistivity_shale","type":"number","value":120,"color":"green"},{"name":"Equation","type":"select","value":"Resistivity Log","choices":["Resistivity Log","Gaymard"]}],"outputs":[{"name":"VSH_RES","family":"Shale Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Spontaneous potential</t>
   </si>
   <si>
-    <t>{"inputs":[{"name":"Spontaneous potential"}],"parameters":[{"name":"SP_clean","type":"number","value":0,"color":"red"},{"name":"SP_shale","type":"number","value":100,"color":"green"}],"outputs":[{"name":"VCL_SP","family":"Shale Volume","unit":"v/v"}],"function":"calVCLfromSP"}</t>
+    <t>{"function":"calVSHfromSP","inputs":[{"name":"Spontaneous potential"}],"parameters":[{"name":"SP_clean","type":"number","value":0,"color":"red"},{"name":"SP_shale","type":"number","value":100,"color":"green"}],"outputs":[{"name":"VSH_SP","family":"Shale Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Thermal Neutron</t>
   </si>
   <si>
-    <t>{"inputs":[{"name":"Thermal Neutron"}],"parameters":[{"name":"Neutron_clean","type":"number","value":0.1,"color":"red"},{"name":"Neutron_shale","type":"number","value":0.3,"color":"green"}],"outputs":[{"name":"VCL_NEU","family":"Shale Volume","unit":"v/v"}],"function":"calVCLfromNEU"}</t>
+    <t>{"function":"calVSHfromNEU","inputs":[{"name":"Thermal Neutron"}],"parameters":[{"name":"Neutron_clean","type":"number","value":0.1,"color":"red"},{"name":"Neutron_shale","type":"number","value":0.3,"color":"green"}],"outputs":[{"name":"VSH_NEU","family":"Shale Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Potassium</t>
   </si>
   <si>
-    <t>{"inputs":[{"name":"Potassium"}],"parameters":[{"name":"POTA matrix","type":"number","value":0,"color":"red"},{"name":"POTA shale","type":"number","value":0,"color":"green"},{"name":"POTA method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]}],"outputs":[{"name":"VCL_POTA","family":"Shale Volume","unit":"v/v"}],"function":"calVCLfromPOTA"}</t>
+    <t>{"function":"calVSHfromPOTA","inputs":[{"name":"Potassium"}],"parameters":[{"name":"POTA matrix","type":"number","value":0,"color":"red"},{"name":"POTA shale","type":"number","value":0,"color":"green"},{"name":"POTA method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]}],"outputs":[{"name":"VSH_POTA","family":"Shale Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Thorium</t>
   </si>
   <si>
-    <t>{"inputs":[{"name":"Thorium"}],"parameters":[{"name":"Thorium matrix","type":"number","value":0,"color":"red"},{"name":"Thorium shale","type":"number","value":0,"color":"green"},{"name":"TH method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]}],"outputs":[{"name":"VCL_Thori","family":"Shale Volume","unit":"v/v"}],"function":"calVCLfromThori"}</t>
+    <t>{"function":"calVSHfromThori","inputs":[{"name":"Thorium"}],"parameters":[{"name":"Thorium matrix","type":"number","value":0,"color":"red"},{"name":"Thorium shale","type":"number","value":0,"color":"green"},{"name":"TH method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]}],"outputs":[{"name":"VSH_Thori","family":"Shale Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Density</t>
@@ -103,22 +103,22 @@
     <t>Porosity</t>
   </si>
   <si>
-    <t>{"inputs":[{"name":"Density","family":"Bulk Density","unit":"g/cm3"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Density Matrix","type":"number","value":2.65,"color":"red"},{"name":"Density Fluid","type":"number","value":1},{"name":"Density Shale","type":"number","value":2.4,"color":"green"}],"outputs":[{"name":"PHIT_D","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_D","family":"Effective Porosity","unit":"v/v"},{"name":"RHO_MA","family":"Apparent Matrix Density","unit":"v/v"}],"function":"calPorosityFromDensity"}</t>
+    <t>{"function":"calPorosityFromDensity","inputs":[{"name":"Density","family":"Bulk Density","unit":"g/cm3"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Density Matrix","type":"number","value":2.65,"color":"red"},{"name":"Density Fluid","type":"number","value":1},{"name":"Density Shale","type":"number","value":2.4,"color":"green"}],"outputs":[{"name":"PHIT_D","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_D","family":"Effective Porosity","unit":"v/v"},{"name":"RHOMMA","family":"Apparent Matrix Density","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Neutron</t>
   </si>
   <si>
-    <t>{"inputs":[{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Neutron Matrix","type":"number","value":-0.01,"color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991},{"name":"Neutron Shale","type":"number","value":0.4,"color":"green"}],"outputs":[{"name":"PHIT_N","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_N","family":"Effective Porosity","unit":"v/v"},{"name":"PHI_matrix","family":"Apparent Matrix Neutron","unit":"v/v"}],"function":"calPorosityFromNeutron"}</t>
+    <t>{"function":"calPorosityFromNeutron","inputs":[{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Neutron Matrix","type":"number","value":-0.01,"color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991},{"name":"Neutron Shale","type":"number","value":0.4,"color":"green"}],"outputs":[{"name":"PHIT_N","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_N","family":"Effective Porosity","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Sonic</t>
   </si>
   <si>
-    <t>{"inputs":[{"name":"Sonic","family":"Compressional Slowness","unit":"us/ft"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Sonic Matrix","type":"number","value":55,"color":"red"},{"name":"Sonic Fluid","type":"number","value":189},{"name":"Sonic Shale","type":"number","value":110,"color":"green"},{"name":"Sonic Method","type":"select","value":"Wyliie","choices":["Wyliie","Raymer-Hunt-Gardner"]},{"name":"Cp","type":"number","value":1}],"outputs":[{"name":"PHIT_S","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_S","family":"Effective Porosity","unit":"v/v"},{"name":"DT_MA","family":"Apparent Matrix Compressional Slowness","unit":"us/ft"}],"function":"calPorosityFromSonic"}</t>
-  </si>
-  <si>
-    <t>{"inputs":[{"name":"Sonic","family":"Compressional Slowness","unit":"us/ft"},{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Sonic Matrix","type":"number","value":55,"color":"red"},{"name":"Sonic Fluid","type":"number","value":189},{"name":"Sonic Shale","type":"number","value":110,"color":"green"},{"name":"Neutron Matrix","type":"number","value":-0.01,"color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991},{"name":"Neutron Shale","type":"number","value":0.4,"color":"green"},{"name":"Sonic Method","type":"select","value":"Wyliie","choices":["Wyliie","Raymer-Hunt-Gardner"]},{"name":"Cp","type":"number","value":1}],"outputs":[{"name":"PHIT_NS","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_NS","family":"Effective Porosity","unit":"v/v"},{"name":"DT_MA","family":"Apparent Matrix Compressional Slowness","unit":"us/ft"}],"function":"calPorosityFromNeutronSonic"}</t>
+    <t>{"function":"calPorosityFromSonic","inputs":[{"name":"Sonic","family":"Compressional Slowness","unit":"us/ft"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Sonic Matrix","type":"number","value":55,"color":"red"},{"name":"Sonic Fluid","type":"number","value":189},{"name":"Sonic Shale","type":"number","value":110,"color":"green"},{"name":"Sonic Method","type":"select","value":"Wyliie","choices":["Wyliie","Raymer-Hunt-Gardner"]},{"name":"Cp","type":"number","value":1}],"outputs":[{"name":"PHIT_S","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_S","family":"Effective Porosity","unit":"v/v"},{"name":"DTMMA","family":"Apparent Matrix Compressional Slowness","unit":"us/ft"}]}</t>
+  </si>
+  <si>
+    <t>{"function":"calPorosityFromNeutronSonic","inputs":[{"name":"Sonic","family":"Compressional Slowness","unit":"us/ft"},{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Sonic Matrix","type":"number","value":55,"color":"red"},{"name":"Sonic Fluid","type":"number","value":189},{"name":"Sonic Shale","type":"number","value":110,"color":"green"},{"name":"Neutron Matrix","type":"number","value":-0.01,"color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991},{"name":"Neutron Shale","type":"number","value":0.4,"color":"green"},{"name":"Sonic Method","type":"select","value":"Wyliie","choices":["Wyliie","Raymer-Hunt-Gardner"]},{"name":"Cp","type":"number","value":1}],"outputs":[{"name":"PHIT_NS","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_NS","family":"Effective Porosity","unit":"v/v"},{"name":"DTMMA","family":"Apparent Matrix Compressional Slowness","unit":"us/ft"}]}</t>
   </si>
   <si>
     <t>Density-Neutron</t>
@@ -130,13 +130,58 @@
     <t>Water Saturation</t>
   </si>
   <si>
-    <t>{"inputs":[{"name":"Formation Resistivity"},{"name":"Porosity"}],"parameters":[{"name":"Tortuosity factor","type":"number","value":1},{"name":"Cementation exponent","type":"number","value":2},{"name":"Saturation exponent","type":"number","value":2},{"name":"Rw","type":"number","value":0.03}],"outputs":[{"name":"SW_AR","family":"Water Saturation","unit":"v/v"},{"name":"SH_AR","family":"Hydrocarbon Saturation","unit":"v/v"},{"name":"SW_AR_UNCL","family":"Water Saturation Unclipped","unit":"v/v"},{"name":"BVW_AR","family":"Bulk Water Volume XO","unit":"v/v"}],"function":"calSaturationArchie"}</t>
+    <t>{"function":"calSaturationArchie","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"Tortuosity factor","type":"number","value":1},{"name":"Cementation exponent","type":"number","value":2},{"name":"Saturation exponent","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rmf","type":"number","value":0.1}],"outputs":[{"name":"Sw_Ar","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Ar","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Ar","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Ar","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>{"function":"calSaturationIndonesia","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"Tortuosity factor","type":"number","value":1},{"name":"Cementation exponent","type":"number","value":2},{"name":"Saturation exponent","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rsh","type":"number","value":4.5},{"name":"Rmf","type":"number","value":0.1}],"outputs":[{"name":"Sw_Ind","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Ind","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Ind","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Ind","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>Modified Indonesia</t>
+  </si>
+  <si>
+    <t>Simandoux</t>
+  </si>
+  <si>
+    <t>{"function":"calSaturationSimandoux","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"Tortuosity factor","type":"number","value":1},{"name":"Cementation exponent","type":"number","value":2},{"name":"Saturation exponent","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rsh","type":"number","value":4.5},{"name":"Rmf","type":"number","value":0.1}],"outputs":[{"name":"Sw_Sim","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Sim","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Sim","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Sim","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>Modified Simandoux</t>
+  </si>
+  <si>
+    <t>{"function":"calSaturationModifiedSimandoux","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"Tortuosity factor","type":"number","value":1},{"name":"Cementation exponent","type":"number","value":2},{"name":"Saturation exponent","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rsh","type":"number","value":4.5},{"name":"Rmf","type":"number","value":0.1}],"outputs":[{"name":"Sw_Smo","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Smo","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Smo","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Smo","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>Juhasz</t>
+  </si>
+  <si>
+    <t>{"function":"calSaturationJuhasz","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"Tortuosity factor","type":"number","value":1},{"name":"Cementation exponent","type":"number","value":2},{"name":"Saturation exponent","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rsh","type":"number","value":4.5},{"name":"Rmf","type":"number","value":0.1},{"name":"PHITsh","type":"number","value":0.35}],"outputs":[{"name":"Sw_Juh","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Juh","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Juh","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Juh","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"Qvn","family":"Normalised Qv","unit":"eq/L"}]}</t>
+  </si>
+  <si>
+    <t>Waxman-Smits</t>
+  </si>
+  <si>
+    <t>{"function":"calSaturationWaxmanSmits","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"},{"name":"Formation Temperature","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"Cementation exponent","type":"number","value":2},{"name":"Saturation exponent","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"B","type":"number","value":4},{"name":"Qv","type":"number","value":1}],"outputs":[{"name":"Sw_Wax","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Wax","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Wax","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Wax","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>Dual Water</t>
+  </si>
+  <si>
+    <t>{"function":"calSaturationDualWater","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"},{"name":"Total Porosity","family":"Total Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Tortuosity factor","type":"number","value":1},{"name":"Cementation exponent","type":"number","value":2},{"name":"Saturation exponent","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rmf","type":"number","value":0.125},{"name":"Rshale","type":"number","value":4.5},{"name":"PHITsh","type":"number","value":0.35}],"outputs":[{"name":"Sw_Dua","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Dua","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Dua","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Dua","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"Qv","family":"Volumetrix CEC","unit":"eq/L"}]}</t>
+  </si>
+  <si>
+    <t>Effective Water Saturation</t>
+  </si>
+  <si>
+    <t>{"function":"calSaturationEffective","inputs":[{"name":"Total Porosity","family":"Total Porosity","unit":"v/v"},{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},{"name":"Total Saturation","unit":"v/v"}],"parameters":[],"outputs":[{"name":"Sw_E","family":"Water Saturation","unit":"v/v"},{"name":"Bvw_E","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Summation</t>
   </si>
   <si>
-    <t>{"inputs":[{"name":"Shale Volume"},{"name":"Porosity"},{"name":"Water Saturation"}],"parameters":[{"name":"Vshale Cut","type":"number","value":0.35},{"name":"Phi Cut","type":"number","value":0.15},{"name":"SW Cut","type":"number","value":0.6}],"outputs":[{"name":"NetRes","family":"Net Reservoir Flag"},{"name":"Netpay","family":"Net Pay Flag"}],"function":"calCutoffSummation"}</t>
+    <t>{"function":"calCutoffSummation","inputs":[{"name":"Shale Volume"},{"name":"Porosity"},{"name":"Water Saturation"}],"parameters":[{"name":"Vshale Cut","type":"number","value":0.35},{"name":"Phi Cut","type":"number","value":0.15},{"name":"SW Cut","type":"number","value":0.6}],"outputs":[{"name":"NetRes","family":"Net Reservoir Flag"},{"name":"Netpay","family":"Net Pay Flag"}]}</t>
   </si>
 </sst>
 </file>
@@ -454,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -503,9 +548,6 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
@@ -711,10 +753,122 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20719"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="126" documentId="11_785A67DB09042B393A10C7C4FA50CFB0958C9597" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{C63B360D-1EF2-489F-B3B3-5BB933B71452}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="11_785A67DB09042B393A10C7C4FA50CFB0958C9597" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{43F0E226-F758-4AE8-ACAD-C7CEFFC1B820}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -103,27 +103,30 @@
     <t>Porosity</t>
   </si>
   <si>
+    <t>{"function":"calPorosityFromDensity","inputs":[{"name":"Density","family":"Bulk Density","unit":"g/cm3"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Density Matrix","type":"number","value":2.65,"color":"red"},{"name":"Density Fluid","type":"number","value":1},{"name":"Density Shale","type":"number","value":2.4,"color":"green"}],"outputs":[{"name":"PHIT_D","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_D","family":"Effective Porosity","unit":"v/v"},{"name":"RHOMMA","family":"Apparent Matrix Density","unit":"g/cm3"}]}</t>
+  </si>
+  <si>
+    <t>Neutron</t>
+  </si>
+  <si>
+    <t>{"function":"calPorosityFromNeutron","inputs":[{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Neutron Matrix","type":"number","value":-0.01,"color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991},{"name":"Neutron Shale","type":"number","value":0.4,"color":"green"}],"outputs":[{"name":"PHIT_N","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_N","family":"Effective Porosity","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>Sonic</t>
+  </si>
+  <si>
+    <t>{"function":"calPorosityFromSonic","inputs":[{"name":"Sonic","family":"Compressional Slowness","unit":"us/ft"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Sonic Matrix","type":"number","value":55,"color":"red"},{"name":"Sonic Fluid","type":"number","value":189},{"name":"Sonic Shale","type":"number","value":110,"color":"green"},{"name":"Sonic Method","type":"select","value":"Wyliie","choices":["Wyliie","Raymer-Hunt-Gardner"]},{"name":"Cp","type":"number","value":1}],"outputs":[{"name":"PHIT_S","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_S","family":"Effective Porosity","unit":"v/v"},{"name":"DTMMA","family":"Apparent Matrix Compressional Slowness","unit":"us/ft"}]}</t>
+  </si>
+  <si>
+    <t>{"function":"calPorosityFromNeutronSonic","inputs":[{"name":"Sonic","family":"Compressional Slowness","unit":"us/ft"},{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Sonic Matrix","type":"number","value":55,"color":"red"},{"name":"Sonic Fluid","type":"number","value":189},{"name":"Sonic Shale","type":"number","value":110,"color":"green"},{"name":"Neutron Matrix","type":"number","value":-0.01,"color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991},{"name":"Neutron Shale","type":"number","value":0.4,"color":"green"},{"name":"Sonic Method","type":"select","value":"Wyliie","choices":["Wyliie","Raymer-Hunt-Gardner"]},{"name":"Cp","type":"number","value":1}],"outputs":[{"name":"PHIT_NS","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_NS","family":"Effective Porosity","unit":"v/v"},{"name":"DTMMA","family":"Apparent Matrix Compressional Slowness","unit":"us/ft"}]}</t>
+  </si>
+  <si>
+    <t>Density-Neutron</t>
+  </si>
+  <si>
     <t>{"function":"calPorosityFromDensity","inputs":[{"name":"Density","family":"Bulk Density","unit":"g/cm3"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Density Matrix","type":"number","value":2.65,"color":"red"},{"name":"Density Fluid","type":"number","value":1},{"name":"Density Shale","type":"number","value":2.4,"color":"green"}],"outputs":[{"name":"PHIT_D","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_D","family":"Effective Porosity","unit":"v/v"},{"name":"RHOMMA","family":"Apparent Matrix Density","unit":"v/v"}]}</t>
   </si>
   <si>
-    <t>Neutron</t>
-  </si>
-  <si>
-    <t>{"function":"calPorosityFromNeutron","inputs":[{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Neutron Matrix","type":"number","value":-0.01,"color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991},{"name":"Neutron Shale","type":"number","value":0.4,"color":"green"}],"outputs":[{"name":"PHIT_N","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_N","family":"Effective Porosity","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>Sonic</t>
-  </si>
-  <si>
-    <t>{"function":"calPorosityFromSonic","inputs":[{"name":"Sonic","family":"Compressional Slowness","unit":"us/ft"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Sonic Matrix","type":"number","value":55,"color":"red"},{"name":"Sonic Fluid","type":"number","value":189},{"name":"Sonic Shale","type":"number","value":110,"color":"green"},{"name":"Sonic Method","type":"select","value":"Wyliie","choices":["Wyliie","Raymer-Hunt-Gardner"]},{"name":"Cp","type":"number","value":1}],"outputs":[{"name":"PHIT_S","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_S","family":"Effective Porosity","unit":"v/v"},{"name":"DTMMA","family":"Apparent Matrix Compressional Slowness","unit":"us/ft"}]}</t>
-  </si>
-  <si>
-    <t>{"function":"calPorosityFromNeutronSonic","inputs":[{"name":"Sonic","family":"Compressional Slowness","unit":"us/ft"},{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Sonic Matrix","type":"number","value":55,"color":"red"},{"name":"Sonic Fluid","type":"number","value":189},{"name":"Sonic Shale","type":"number","value":110,"color":"green"},{"name":"Neutron Matrix","type":"number","value":-0.01,"color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991},{"name":"Neutron Shale","type":"number","value":0.4,"color":"green"},{"name":"Sonic Method","type":"select","value":"Wyliie","choices":["Wyliie","Raymer-Hunt-Gardner"]},{"name":"Cp","type":"number","value":1}],"outputs":[{"name":"PHIT_NS","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_NS","family":"Effective Porosity","unit":"v/v"},{"name":"DTMMA","family":"Apparent Matrix Compressional Slowness","unit":"us/ft"}]}</t>
-  </si>
-  <si>
-    <t>Density-Neutron</t>
-  </si>
-  <si>
     <t>Archie</t>
   </si>
   <si>
@@ -163,7 +166,7 @@
     <t>Waxman-Smits</t>
   </si>
   <si>
-    <t>{"function":"calSaturationWaxmanSmits","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"},{"name":"Formation Temperature","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"Cementation exponent","type":"number","value":2},{"name":"Saturation exponent","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"B","type":"number","value":4},{"name":"Qv","type":"number","value":1}],"outputs":[{"name":"Sw_Wax","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Wax","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Wax","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Wax","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calSaturationWaxmanSmits","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"},{"name":"Formation Temperature","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"Cementation exponent","type":"number","value":2},{"name":"Saturation exponent","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rmf","type":"number","value":0.1},{"name":"B","type":"number","value":4},{"name":"Qv","type":"number","value":1}],"outputs":[{"name":"Sw_Wax","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Wax","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Wax","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Wax","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Dual Water</t>
@@ -502,7 +505,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -728,7 +731,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -736,13 +739,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -750,13 +753,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -764,13 +767,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
         <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -778,13 +781,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -792,13 +795,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -806,13 +809,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -820,13 +823,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -834,13 +837,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -848,13 +851,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -862,13 +865,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20725"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="128" documentId="11_785A67DB09042B393A10C7C4FA50CFB0958C9597" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{43F0E226-F758-4AE8-ACAD-C7CEFFC1B820}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="11_785A67DB09042B393A10C7C4FA50CFB0958C9597" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{DD0614FA-DD91-45DB-BFE9-8C0BF75898CF}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,13 +133,13 @@
     <t>Water Saturation</t>
   </si>
   <si>
-    <t>{"function":"calSaturationArchie","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"Tortuosity factor","type":"number","value":1},{"name":"Cementation exponent","type":"number","value":2},{"name":"Saturation exponent","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rmf","type":"number","value":0.1}],"outputs":[{"name":"Sw_Ar","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Ar","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Ar","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Ar","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calSaturationArchie","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m","type":"number","value":2},{"name":"n","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rmf","type":"number","value":0.1}],"outputs":[{"name":"Sw_Ar","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Ar","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Ar","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Ar","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>{"function":"calSaturationIndonesia","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"Tortuosity factor","type":"number","value":1},{"name":"Cementation exponent","type":"number","value":2},{"name":"Saturation exponent","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rsh","type":"number","value":4.5},{"name":"Rmf","type":"number","value":0.1}],"outputs":[{"name":"Sw_Ind","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Ind","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Ind","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Ind","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calSaturationIndonesia","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m","type":"number","value":2},{"name":"n","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rsh","type":"number","value":4.5},{"name":"Rmf","type":"number","value":0.1}],"outputs":[{"name":"Sw_Ind","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Ind","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Ind","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Ind","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Modified Indonesia</t>
@@ -148,31 +148,31 @@
     <t>Simandoux</t>
   </si>
   <si>
-    <t>{"function":"calSaturationSimandoux","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"Tortuosity factor","type":"number","value":1},{"name":"Cementation exponent","type":"number","value":2},{"name":"Saturation exponent","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rsh","type":"number","value":4.5},{"name":"Rmf","type":"number","value":0.1}],"outputs":[{"name":"Sw_Sim","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Sim","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Sim","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Sim","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calSaturationSimandoux","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m","type":"number","value":2},{"name":"n","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rsh","type":"number","value":4.5},{"name":"Rmf","type":"number","value":0.1}],"outputs":[{"name":"Sw_Sim","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Sim","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Sim","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Sim","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Modified Simandoux</t>
   </si>
   <si>
-    <t>{"function":"calSaturationModifiedSimandoux","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"Tortuosity factor","type":"number","value":1},{"name":"Cementation exponent","type":"number","value":2},{"name":"Saturation exponent","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rsh","type":"number","value":4.5},{"name":"Rmf","type":"number","value":0.1}],"outputs":[{"name":"Sw_Smo","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Smo","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Smo","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Smo","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calSaturationModifiedSimandoux","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m","type":"number","value":2},{"name":"n","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rsh","type":"number","value":4.5},{"name":"Rmf","type":"number","value":0.1}],"outputs":[{"name":"Sw_Smo","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Smo","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Smo","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Smo","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Juhasz</t>
   </si>
   <si>
-    <t>{"function":"calSaturationJuhasz","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"Tortuosity factor","type":"number","value":1},{"name":"Cementation exponent","type":"number","value":2},{"name":"Saturation exponent","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rsh","type":"number","value":4.5},{"name":"Rmf","type":"number","value":0.1},{"name":"PHITsh","type":"number","value":0.35}],"outputs":[{"name":"Sw_Juh","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Juh","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Juh","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Juh","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"Qvn","family":"Normalised Qv","unit":"eq/L"}]}</t>
+    <t>{"function":"calSaturationJuhasz","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m*","type":"number","value":2},{"name":"n*","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rsh","type":"number","value":4.5},{"name":"Rmf","type":"number","value":0.1},{"name":"PHITsh","type":"number","value":0.35}],"outputs":[{"name":"Sw_Juh","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Juh","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Juh","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Juh","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"Qvn","family":"Normalised Qv","unit":"eq/L"}]}</t>
   </si>
   <si>
     <t>Waxman-Smits</t>
   </si>
   <si>
-    <t>{"function":"calSaturationWaxmanSmits","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"},{"name":"Formation Temperature","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"Cementation exponent","type":"number","value":2},{"name":"Saturation exponent","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rmf","type":"number","value":0.1},{"name":"B","type":"number","value":4},{"name":"Qv","type":"number","value":1}],"outputs":[{"name":"Sw_Wax","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Wax","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Wax","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Wax","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calSaturationWaxmanSmits","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"},{"name":"Formation Temperature","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"m*","type":"number","value":2},{"name":"n*","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rmf","type":"number","value":0.1},{"name":"B","type":"number","value":4},{"name":"Qv","type":"number","value":1}],"outputs":[{"name":"Sw_Wax","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Wax","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Wax","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Wax","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Dual Water</t>
   </si>
   <si>
-    <t>{"function":"calSaturationDualWater","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"},{"name":"Total Porosity","family":"Total Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Tortuosity factor","type":"number","value":1},{"name":"Cementation exponent","type":"number","value":2},{"name":"Saturation exponent","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rmf","type":"number","value":0.125},{"name":"Rshale","type":"number","value":4.5},{"name":"PHITsh","type":"number","value":0.35}],"outputs":[{"name":"Sw_Dua","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Dua","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Dua","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Dua","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"Qv","family":"Volumetrix CEC","unit":"eq/L"}]}</t>
+    <t>{"function":"calSaturationDualWater","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"},{"name":"Total Porosity","family":"Total Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m*","type":"number","value":2},{"name":"n*","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rmf","type":"number","value":0.125},{"name":"Rshale","type":"number","value":4.5},{"name":"PHITsh","type":"number","value":0.35}],"outputs":[{"name":"Sw_Dua","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Dua","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Dua","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Dua","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"Qv","family":"Volumetrix CEC","unit":"eq/L"}]}</t>
   </si>
   <si>
     <t>Effective Water Saturation</t>
@@ -505,7 +505,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20725"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="134" documentId="11_785A67DB09042B393A10C7C4FA50CFB0958C9597" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{DD0614FA-DD91-45DB-BFE9-8C0BF75898CF}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="11_785A67DB09042B393A10C7C4FA50CFB0958C9597" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B3760FC5-7965-46C9-9CD3-C2DE07F3D268}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,7 +172,7 @@
     <t>Dual Water</t>
   </si>
   <si>
-    <t>{"function":"calSaturationDualWater","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"},{"name":"Total Porosity","family":"Total Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m*","type":"number","value":2},{"name":"n*","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rmf","type":"number","value":0.125},{"name":"Rshale","type":"number","value":4.5},{"name":"PHITsh","type":"number","value":0.35}],"outputs":[{"name":"Sw_Dua","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Dua","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Dua","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Dua","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"Qv","family":"Volumetrix CEC","unit":"eq/L"}]}</t>
+    <t>{"function":"calSaturationDualWater","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"},{"name":"Total Porosity","family":"Total Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m*","type":"number","value":2},{"name":"n*","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rmf","type":"number","value":0.125},{"name":"Rsh","type":"number","value":4.5},{"name":"PHITsh","type":"number","value":0.35}],"outputs":[{"name":"Sw_Dua","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Dua","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Dua","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Dua","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"Qv","family":"Volumetrix CEC","unit":"eq/L"}]}</t>
   </si>
   <si>
     <t>Effective Water Saturation</t>
@@ -505,7 +505,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20806"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="135" documentId="11_785A67DB09042B393A10C7C4FA50CFB0958C9597" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B3760FC5-7965-46C9-9CD3-C2DE07F3D268}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="11_785A67DB09042B393A10C7C4FA50CFB0958C9597" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{AAB0898E-5DA7-4C83-B8DF-69ECE4D8905E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Modified Indonesia</t>
+  </si>
+  <si>
+    <t>{"function":"calSaturationModifiedIndonesia","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m","type":"number","value":2},{"name":"n","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rsh","type":"number","value":4.5},{"name":"Rmf","type":"number","value":0.1}],"outputs":[{"name":"Sw_Imo","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Imo","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Imo","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Imo","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Simandoux</t>
@@ -505,7 +508,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -773,7 +776,7 @@
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -781,13 +784,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -795,13 +798,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -809,13 +812,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -823,13 +826,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -837,13 +840,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -851,13 +854,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -865,13 +868,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20806"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="137" documentId="11_785A67DB09042B393A10C7C4FA50CFB0958C9597" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{AAB0898E-5DA7-4C83-B8DF-69ECE4D8905E}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="11_785A67DB09042B393A10C7C4FA50CFB0958C9597" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B18C4DFC-8772-4B5E-A23C-E69B2EC79DD5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
     <t>Neutron-Density</t>
   </si>
   <si>
-    <t>{"function":"calVSHfromND","inputs":[{"name":"Neutron porosity"},{"name":"Bulk density"}],"parameters":[{"name":"NPHI_clean_2","type":"number","value":0.25},{"name":"NHPI_shale","type":"number","value":0.4,"color":"green"},{"name":"NHPI_matrix","type":"number","value":-0.01},{"name":"RHOB_clean_2","type":"number","value":1},{"name":"RHOB_shale","type":"number","value":2.4,"color":"red"},{"name":"RHOB_matrix","type":"number","value":2.2}],"outputs":[{"name":"VSH_ND","family":"Shale Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calVSHfromND","inputs":[{"name":"Neutron porosity"},{"name":"Bulk density"}],"parameters":[{"name":"NPHI_clean_2","type":"number","value":0.25},{"name":"NHPI_shale","type":"number","value":0.4,"color":"green"},{"name":"NHPI_clean_1","type":"number","value":-0.01},{"name":"RHOB_clean_2","type":"number","value":1},{"name":"RHOB_shale","type":"number","value":2.4,"color":"red"},{"name":"RHOB_clean_1","type":"number","value":2.2}],"outputs":[{"name":"VSH_ND","family":"Shale Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Neutron-Sonic</t>
@@ -64,13 +64,13 @@
     <t>Density-Sonic</t>
   </si>
   <si>
-    <t>{"function":"calVSHfromSD","inputs":[{"name":"Bulk density"},{"name":"Compressional slowness"}],"parameters":[{"name":"RHOB_clean_2","type":"number","value":2.2},{"name":"RHOB_shale","type":"number","value":2.4,"color":"pink"},{"name":"RHOB_clean_1","type":"number","value":2.65},{"name":"DT_clean_2","type":"number","value":90},{"name":"DT_shale","type":"number","value":100,"color":"red"},{"name":"DT_clean_1","type":"number","value":50}],"outputs":[{"name":"VSH_SD","family":"Shale Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calVSHfromDS","inputs":[{"name":"Bulk density"},{"name":"Compressional slowness"}],"parameters":[{"name":"RHOB_clean_2","type":"number","value":2.2},{"name":"RHOB_shale","type":"number","value":2.4,"color":"pink"},{"name":"RHOB_clean_1","type":"number","value":2.65},{"name":"DT_clean_2","type":"number","value":90},{"name":"DT_shale","type":"number","value":100,"color":"red"},{"name":"DT_clean_1","type":"number","value":50}],"outputs":[{"name":"VSH_SD","family":"Shale Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Resistivity</t>
   </si>
   <si>
-    <t>{"function":"calVSHfromRES","inputs":[{"name":"Resistivity"}],"parameters":[{"name":"Resistivity_clean","type":"number","value":10,"color":"red"},{"name":"Resistivity_shale","type":"number","value":120,"color":"green"},{"name":"Equation","type":"select","value":"Resistivity Log","choices":["Resistivity Log","Gaymard"]}],"outputs":[{"name":"VSH_RES","family":"Shale Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calVSHfromR","inputs":[{"name":"Resistivity"}],"parameters":[{"name":"Resistivity_clean","type":"number","value":10,"color":"red"},{"name":"Resistivity_shale","type":"number","value":120,"color":"green"},{"name":"Equation","type":"select","value":"Resistivity Log","choices":["Resistivity Log","Gaymard"]}],"outputs":[{"name":"VSH_RES","family":"Shale Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Spontaneous potential</t>
@@ -88,13 +88,13 @@
     <t>Potassium</t>
   </si>
   <si>
-    <t>{"function":"calVSHfromPOTA","inputs":[{"name":"Potassium"}],"parameters":[{"name":"POTA matrix","type":"number","value":0,"color":"red"},{"name":"POTA shale","type":"number","value":0,"color":"green"},{"name":"POTA method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]}],"outputs":[{"name":"VSH_POTA","family":"Shale Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calVSHfromPOTA","inputs":[{"name":"Potassium"}],"parameters":[{"name":"POTA matrix","type":"number","value":10,"color":"red"},{"name":"POTA shale","type":"number","value":100,"color":"green"},{"name":"POTA method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]}],"outputs":[{"name":"VSH_POTA","family":"Shale Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Thorium</t>
   </si>
   <si>
-    <t>{"function":"calVSHfromThori","inputs":[{"name":"Thorium"}],"parameters":[{"name":"Thorium matrix","type":"number","value":0,"color":"red"},{"name":"Thorium shale","type":"number","value":0,"color":"green"},{"name":"TH method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]}],"outputs":[{"name":"VSH_Thori","family":"Shale Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calVSHfromThori","inputs":[{"name":"Thorium"}],"parameters":[{"name":"Thorium matrix","type":"number","value":10,"color":"red"},{"name":"Thorium shale","type":"number","value":100,"color":"green"},{"name":"TH method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]}],"outputs":[{"name":"VSH_Thori","family":"Shale Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Density</t>
@@ -124,7 +124,7 @@
     <t>Density-Neutron</t>
   </si>
   <si>
-    <t>{"function":"calPorosityFromDensity","inputs":[{"name":"Density","family":"Bulk Density","unit":"g/cm3"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Density Matrix","type":"number","value":2.65,"color":"red"},{"name":"Density Fluid","type":"number","value":1},{"name":"Density Shale","type":"number","value":2.4,"color":"green"}],"outputs":[{"name":"PHIT_D","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_D","family":"Effective Porosity","unit":"v/v"},{"name":"RHOMMA","family":"Apparent Matrix Density","unit":"v/v"}]}</t>
+    <t>{"function":"calPorosityFromDensityNeutron","inputs":[{"name":"Density","family":"Bulk Density","unit":"g/cm3"},{"name":"Neutron","family":"Neutron Porosity","unit":"g/cm3"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Density Matrix","type":"number","value":2.65,"color":"red"},{"name":"Density Fluid","type":"number","value":1},{"name":"Density Shale","type":"number","value":2.4,"color":"green"},{"name":"Neutron Matrix","type":"number","value":-0.01,"color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991},{"name":"Neutron Shale","type":"number","value":0.4,"color":"green"}],"outputs":[{"name":"PHIT_ND","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_ND","family":"Effective Porosity","unit":"v/v"},{"name":"RHOMMA","family":"Apparent Matrix Density","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Archie</t>
@@ -163,7 +163,7 @@
     <t>Juhasz</t>
   </si>
   <si>
-    <t>{"function":"calSaturationJuhasz","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m*","type":"number","value":2},{"name":"n*","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rsh","type":"number","value":4.5},{"name":"Rmf","type":"number","value":0.1},{"name":"PHITsh","type":"number","value":0.35}],"outputs":[{"name":"Sw_Juh","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Juh","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Juh","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Juh","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"Qvn","family":"Normalised Qv","unit":"eq/L"}]}</t>
+    <t>{"function":"calSaturationJuhasz","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m*","type":"number","value":2},{"name":"n*","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rsh","type":"number","value":4.5},{"name":"Rmf","type":"number","value":0.1},{"name":"PHITsh","type":"number","value":0.35}],"outputs":[{"name":"Sw_Juh","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Juh","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Juh","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Juh","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"Qvn","family":"Volumetric CEC","unit":"eq/L"}]}</t>
   </si>
   <si>
     <t>Waxman-Smits</t>
@@ -175,7 +175,7 @@
     <t>Dual Water</t>
   </si>
   <si>
-    <t>{"function":"calSaturationDualWater","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"},{"name":"Total Porosity","family":"Total Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m*","type":"number","value":2},{"name":"n*","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rmf","type":"number","value":0.125},{"name":"Rsh","type":"number","value":4.5},{"name":"PHITsh","type":"number","value":0.35}],"outputs":[{"name":"Sw_Dua","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Dua","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Dua","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Dua","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"Qv","family":"Volumetrix CEC","unit":"eq/L"}]}</t>
+    <t>{"function":"calSaturationDualWater","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"},{"name":"Total Porosity","family":"Total Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m*","type":"number","value":2},{"name":"n*","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rmf","type":"number","value":0.125},{"name":"Rsh","type":"number","value":4.5},{"name":"PHITsh","type":"number","value":0.35}],"outputs":[{"name":"Sw_Dua","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Dua","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Dua","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Dua","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"Qv","family":"Volumetric CEC","unit":"eq/L"}]}</t>
   </si>
   <si>
     <t>Effective Water Saturation</t>
@@ -508,7 +508,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20806"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="153" documentId="11_785A67DB09042B393A10C7C4FA50CFB0958C9597" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B18C4DFC-8772-4B5E-A23C-E69B2EC79DD5}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="11_785A67DB09042B393A10C7C4FA50CFB0958C9597" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C3D4792C-D020-46E0-928F-8BEAD073C11E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,55 +46,55 @@
     <t>Shale Volume</t>
   </si>
   <si>
-    <t>{"function":"calVSHfromGR","inputs":[{"name":"Gamma Ray"}],"parameters":[{"name":"GR clean","type":"number","value":10,"color":"red"},{"name":"GR shale","type":"number","value":120,"color":"green"},{"name":"Method","type":"select","value":"Linear","choices":["Linear","Clavier","Larionov Tertiary rocks","Larionov older rocks","Stieber variation I","Stieber - Miocene and Pliocene","Stieber variation II"]}],"outputs":[{"name":"VSH_GR","family":"Shale Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calVSHfromGR","inputs":[{"name":"Gamma Ray"}],"parameters":[{"name":"GR clean","type":"number","value":10,"unit":"gAPI","color":"red"},{"name":"GR shale","type":"number","value":120,"unit":"gAPI",","color":"green"},{"name":"Method","type":"select","value":"Linear","choices":["Linear","Clavier","Larionov Tertiary rocks","Larionov older rocks","Stieber variation I","Stieber - Miocene and Pliocene","Stieber variation II"]}],"outputs":[{"name":"VSH_GR","family":"Shale Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Neutron-Density</t>
   </si>
   <si>
-    <t>{"function":"calVSHfromND","inputs":[{"name":"Neutron porosity"},{"name":"Bulk density"}],"parameters":[{"name":"NPHI_clean_2","type":"number","value":0.25},{"name":"NHPI_shale","type":"number","value":0.4,"color":"green"},{"name":"NHPI_clean_1","type":"number","value":-0.01},{"name":"RHOB_clean_2","type":"number","value":1},{"name":"RHOB_shale","type":"number","value":2.4,"color":"red"},{"name":"RHOB_clean_1","type":"number","value":2.2}],"outputs":[{"name":"VSH_ND","family":"Shale Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calVSHfromND","inputs":[{"name":"Neutron porosity"},{"name":"Bulk density"}],"parameters":[{"name":"NPHI_clean_2","type":"number","value":0.25,"unit":"v/v"},{"name":"NHPI_shale","type":"number","value":0.4,"unit":"v/v","color":"green"},{"name":"NHPI_clean_1","type":"number","value":-0.01,"unit":"v/v"},{"name":"RHOB_clean_2","type":"number","value":2.2,"unit":"g/cm3"},{"name":"RHOB_shale","type":"number","value":2.4,"unit":"g/cm3","color":"red"},{"name":"RHOB_clean_1","type":"number","value":2.65,"unit":"g/cm3"}],"outputs":[{"name":"VSH_ND","family":"Shale Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Neutron-Sonic</t>
   </si>
   <si>
-    <t>{"function":"calVSHfromNS","inputs":[{"name":"Neutron porosity"},{"name":"Compressional slowness"}],"parameters":[{"name":"NPHI_clean_2","type":"number","value":0.25},{"name":"NHPI_shale","type":"number","value":0.4,"color":"green"},{"name":"NHPI_clean_1","type":"number","value":-0.01},{"name":"DT_clean_2","type":"number","value":90},{"name":"DT_shale","type":"number","value":100,"color":"pink"},{"name":"DT_clean_1","type":"number","value":50}],"outputs":[{"name":"VSH_NS","family":"Shale Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calVSHfromNS","inputs":[{"name":"Neutron porosity"},{"name":"Compressional slowness"}],"parameters":[{"name":"NPHI_clean_2","type":"number","value":0.25,"unit":"v/v"},{"name":"NHPI_shale","type":"number","value":0.4,"unit":"v/v","color":"green"},{"name":"NHPI_clean_1","type":"number","unit":"v/v","value":-0.01},{"name":"DT_clean_2","type":"number","value":90,"unit":"g/cm3"},{"name":"DT_shale","type":"number","value":100,"unit":"g/cm3","color":"pink"},{"name":"DT_clean_1","type":"number","value":55,"unit":"g/cm3"}],"outputs":[{"name":"VSH_NS","family":"Shale Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Density-Sonic</t>
   </si>
   <si>
-    <t>{"function":"calVSHfromDS","inputs":[{"name":"Bulk density"},{"name":"Compressional slowness"}],"parameters":[{"name":"RHOB_clean_2","type":"number","value":2.2},{"name":"RHOB_shale","type":"number","value":2.4,"color":"pink"},{"name":"RHOB_clean_1","type":"number","value":2.65},{"name":"DT_clean_2","type":"number","value":90},{"name":"DT_shale","type":"number","value":100,"color":"red"},{"name":"DT_clean_1","type":"number","value":50}],"outputs":[{"name":"VSH_SD","family":"Shale Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calVSHfromDS","inputs":[{"name":"Bulk density"},{"name":"Compressional slowness"}],"parameters":[{"name":"RHOB_clean_2","type":"number","value":2.2,"unit":"g/cm3"},{"name":"RHOB_shale","type":"number","value":2.4,"unit":"g/cm3","color":"pink"},{"name":"RHOB_clean_1","type":"number","value":2.65,"unit":"g/cm3"},{"name":"DT_clean_2","type":"number","value":90,"unit":"us/ft"},{"name":"DT_shale","type":"number","value":100,"unit":"us/ft","color":"red"},{"name":"DT_clean_1","type":"number","value":50,"unit":"us/ft"}],"outputs":[{"name":"VSH_SD","family":"Shale Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Resistivity</t>
   </si>
   <si>
-    <t>{"function":"calVSHfromR","inputs":[{"name":"Resistivity"}],"parameters":[{"name":"Resistivity_clean","type":"number","value":10,"color":"red"},{"name":"Resistivity_shale","type":"number","value":120,"color":"green"},{"name":"Equation","type":"select","value":"Resistivity Log","choices":["Resistivity Log","Gaymard"]}],"outputs":[{"name":"VSH_RES","family":"Shale Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calVSHfromR","inputs":[{"name":"Resistivity"}],"parameters":[{"name":"Resistivity_clean","type":"number","value":10,"unit":"ohm.m","color":"red"},{"name":"Resistivity_shale","type":"number","value":120,"unit":"ohm.m","color":"green"},{"name":"Equation","type":"select","value":"Resistivity Log","choices":["Resistivity Log","Gaymard"]}],"outputs":[{"name":"VSH_RES","family":"Shale Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Spontaneous potential</t>
   </si>
   <si>
-    <t>{"function":"calVSHfromSP","inputs":[{"name":"Spontaneous potential"}],"parameters":[{"name":"SP_clean","type":"number","value":0,"color":"red"},{"name":"SP_shale","type":"number","value":100,"color":"green"}],"outputs":[{"name":"VSH_SP","family":"Shale Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calVSHfromSP","inputs":[{"name":"Spontaneous potential"}],"parameters":[{"name":"SP_clean","type":"number","value":0,"unit":"mV","color":"red"},{"name":"SP_shale","type":"number","value":100,"unit":"mV","color":"green"}],"outputs":[{"name":"VSH_SP","family":"Shale Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Thermal Neutron</t>
   </si>
   <si>
-    <t>{"function":"calVSHfromNEU","inputs":[{"name":"Thermal Neutron"}],"parameters":[{"name":"Neutron_clean","type":"number","value":0.1,"color":"red"},{"name":"Neutron_shale","type":"number","value":0.3,"color":"green"}],"outputs":[{"name":"VSH_NEU","family":"Shale Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calVSHfromNEU","inputs":[{"name":"Thermal Neutron"}],"parameters":[{"name":"Neutron_clean","type":"number","value":0.1,"unit":"v/v","color":"red"},{"name":"Neutron_shale","type":"number","value":0.3,"unit":"v/v","color":"green"}],"outputs":[{"name":"VSH_NEU","family":"Shale Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Potassium</t>
   </si>
   <si>
-    <t>{"function":"calVSHfromPOTA","inputs":[{"name":"Potassium"}],"parameters":[{"name":"POTA matrix","type":"number","value":10,"color":"red"},{"name":"POTA shale","type":"number","value":100,"color":"green"},{"name":"POTA method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]}],"outputs":[{"name":"VSH_POTA","family":"Shale Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calVSHfromPOTA","inputs":[{"name":"Potassium"}],"parameters":[{"name":"POTA matrix","type":"number","value":10,"unit":"%","color":"red"},{"name":"POTA shale","type":"number","value":100,"unit":"%","color":"green"},{"name":"POTA method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]}],"outputs":[{"name":"VSH_POTA","family":"Shale Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Thorium</t>
   </si>
   <si>
-    <t>{"function":"calVSHfromThori","inputs":[{"name":"Thorium"}],"parameters":[{"name":"Thorium matrix","type":"number","value":10,"color":"red"},{"name":"Thorium shale","type":"number","value":100,"color":"green"},{"name":"TH method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]}],"outputs":[{"name":"VSH_Thori","family":"Shale Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calVSHfromThori","inputs":[{"name":"Thorium"}],"parameters":[{"name":"Thorium matrix","type":"number","value":10,"unit":"ppm","color":"red"},{"name":"Thorium shale","type":"number","value":100,"unit":"ppm","color":"green"},{"name":"TH method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]}],"outputs":[{"name":"VSH_Thori","family":"Shale Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Density</t>
@@ -103,28 +103,28 @@
     <t>Porosity</t>
   </si>
   <si>
-    <t>{"function":"calPorosityFromDensity","inputs":[{"name":"Density","family":"Bulk Density","unit":"g/cm3"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Density Matrix","type":"number","value":2.65,"color":"red"},{"name":"Density Fluid","type":"number","value":1},{"name":"Density Shale","type":"number","value":2.4,"color":"green"}],"outputs":[{"name":"PHIT_D","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_D","family":"Effective Porosity","unit":"v/v"},{"name":"RHOMMA","family":"Apparent Matrix Density","unit":"g/cm3"}]}</t>
+    <t>{"function":"calPorosityFromDensity","inputs":[{"name":"Density","family":"Bulk Density","unit":"g/cm3"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Density Matrix","type":"number","value":2.65,"unit":"g/cm3","color":"red"},{"name":"Density Fluid","type":"number","value":1,"unit":"g/cm3"},{"name":"Density Shale","type":"number","value":2.4,"unit":"d/cm3","color":"green"}],"outputs":[{"name":"PHIT_D","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_D","family":"Effective Porosity","unit":"v/v"},{"name":"RHOMMA","family":"Apparent Matrix Density","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Neutron</t>
   </si>
   <si>
-    <t>{"function":"calPorosityFromNeutron","inputs":[{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Neutron Matrix","type":"number","value":-0.01,"color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991},{"name":"Neutron Shale","type":"number","value":0.4,"color":"green"}],"outputs":[{"name":"PHIT_N","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_N","family":"Effective Porosity","unit":"v/v"}]}</t>
+    <t>{"function":"calPorosityFromNeutron","inputs":[{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"}],"outputs":[{"name":"PHIT_N","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_N","family":"Effective Porosity","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Sonic</t>
   </si>
   <si>
-    <t>{"function":"calPorosityFromSonic","inputs":[{"name":"Sonic","family":"Compressional Slowness","unit":"us/ft"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Sonic Matrix","type":"number","value":55,"color":"red"},{"name":"Sonic Fluid","type":"number","value":189},{"name":"Sonic Shale","type":"number","value":110,"color":"green"},{"name":"Sonic Method","type":"select","value":"Wyliie","choices":["Wyliie","Raymer-Hunt-Gardner"]},{"name":"Cp","type":"number","value":1}],"outputs":[{"name":"PHIT_S","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_S","family":"Effective Porosity","unit":"v/v"},{"name":"DTMMA","family":"Apparent Matrix Compressional Slowness","unit":"us/ft"}]}</t>
-  </si>
-  <si>
-    <t>{"function":"calPorosityFromNeutronSonic","inputs":[{"name":"Sonic","family":"Compressional Slowness","unit":"us/ft"},{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Sonic Matrix","type":"number","value":55,"color":"red"},{"name":"Sonic Fluid","type":"number","value":189},{"name":"Sonic Shale","type":"number","value":110,"color":"green"},{"name":"Neutron Matrix","type":"number","value":-0.01,"color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991},{"name":"Neutron Shale","type":"number","value":0.4,"color":"green"},{"name":"Sonic Method","type":"select","value":"Wyliie","choices":["Wyliie","Raymer-Hunt-Gardner"]},{"name":"Cp","type":"number","value":1}],"outputs":[{"name":"PHIT_NS","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_NS","family":"Effective Porosity","unit":"v/v"},{"name":"DTMMA","family":"Apparent Matrix Compressional Slowness","unit":"us/ft"}]}</t>
+    <t>{"function":"calPorosityFromSonic","inputs":[{"name":"Sonic","family":"Compressional Slowness","unit":"us/ft"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Sonic Matrix","type":"number","value":55,"unit":"us/ft","color":"red"},{"name":"Sonic Fluid","type":"number","value":189,"unit":"us/ft"},{"name":"Sonic Shale","type":"number","value":110,"unit":"us/ft","color":"green"},{"name":"Sonic Method","type":"select","value":"Wyliie","choices":["Wyliie","Raymer-Hunt-Gardner"]},{"name":"Cp","type":"number","value":1}],"outputs":[{"name":"PHIT_S","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_S","family":"Effective Porosity","unit":"v/v"},{"name":"DTMMA","family":"Apparent Matrix Compressional Slowness","unit":"us/ft"}]}</t>
+  </si>
+  <si>
+    <t>{"function":"calPorosityFromNeutronSonic","inputs":[{"name":"Sonic","family":"Compressional Slowness","unit":"us/ft"},{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Sonic Matrix","type":"number","value":55,"unit":"us/ft","color":"red"},{"name":"Sonic Fluid","type":"number","value":189,"unit":"us/ft"},{"name":"Sonic Shale","type":"number","value":110,"unit":"us/ft","color":"green"},{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"},{"name":"Sonic Method","type":"select","value":"Wyliie","choices":["Wyliie","Raymer-Hunt-Gardner"]},{"name":"Cp","type":"number","value":1}],"outputs":[{"name":"PHIT_NS","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_NS","family":"Effective Porosity","unit":"v/v"},{"name":"DTMMA","family":"Apparent Matrix Compressional Slowness","unit":"us/ft"}]}</t>
   </si>
   <si>
     <t>Density-Neutron</t>
   </si>
   <si>
-    <t>{"function":"calPorosityFromDensityNeutron","inputs":[{"name":"Density","family":"Bulk Density","unit":"g/cm3"},{"name":"Neutron","family":"Neutron Porosity","unit":"g/cm3"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Density Matrix","type":"number","value":2.65,"color":"red"},{"name":"Density Fluid","type":"number","value":1},{"name":"Density Shale","type":"number","value":2.4,"color":"green"},{"name":"Neutron Matrix","type":"number","value":-0.01,"color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991},{"name":"Neutron Shale","type":"number","value":0.4,"color":"green"}],"outputs":[{"name":"PHIT_ND","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_ND","family":"Effective Porosity","unit":"v/v"},{"name":"RHOMMA","family":"Apparent Matrix Density","unit":"v/v"}]}</t>
+    <t>{"function":"calPorosityFromDensityNeutron","inputs":[{"name":"Density","family":"Bulk Density","unit":"g/cm3"},{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Density Matrix","type":"number","value":2.65,"unit":"g/cm3","color":"red"},{"name":"Density Fluid","type":"number","value":1,"unit":"g/cm3"},{"name":"Density Shale","type":"number","value":2.4,"unit":"g/cm3","color":"green"},{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"}],"outputs":[{"name":"PHIT_ND","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_ND","family":"Effective Porosity","unit":"v/v"},{"name":"RHOMMA","family":"Apparent Matrix Density","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Archie</t>
@@ -133,49 +133,49 @@
     <t>Water Saturation</t>
   </si>
   <si>
-    <t>{"function":"calSaturationArchie","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m","type":"number","value":2},{"name":"n","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rmf","type":"number","value":0.1}],"outputs":[{"name":"Sw_Ar","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Ar","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Ar","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Ar","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calSaturationArchie","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m","type":"number","value":2},{"name":"n","type":"number","value":2},{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"}],"outputs":[{"name":"Sw_Ar","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Ar","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Ar","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Ar","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>{"function":"calSaturationIndonesia","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m","type":"number","value":2},{"name":"n","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rsh","type":"number","value":4.5},{"name":"Rmf","type":"number","value":0.1}],"outputs":[{"name":"Sw_Ind","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Ind","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Ind","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Ind","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calSaturationIndonesia","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m","type":"number","value":2},{"name":"n","type":"number","value":2},{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"}],"outputs":[{"name":"Sw_Ind","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Ind","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Ind","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Ind","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Modified Indonesia</t>
   </si>
   <si>
-    <t>{"function":"calSaturationModifiedIndonesia","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m","type":"number","value":2},{"name":"n","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rsh","type":"number","value":4.5},{"name":"Rmf","type":"number","value":0.1}],"outputs":[{"name":"Sw_Imo","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Imo","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Imo","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Imo","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calSaturationModifiedIndonesia","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m","type":"number","value":2},{"name":"n","type":"number","value":2},{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"}],"outputs":[{"name":"Sw_Imo","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Imo","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Imo","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Imo","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Simandoux</t>
   </si>
   <si>
-    <t>{"function":"calSaturationSimandoux","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m","type":"number","value":2},{"name":"n","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rsh","type":"number","value":4.5},{"name":"Rmf","type":"number","value":0.1}],"outputs":[{"name":"Sw_Sim","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Sim","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Sim","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Sim","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calSaturationSimandoux","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m","type":"number","value":2},{"name":"n","type":"number","value":2},{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"}],"outputs":[{"name":"Sw_Sim","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Sim","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Sim","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Sim","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Modified Simandoux</t>
   </si>
   <si>
-    <t>{"function":"calSaturationModifiedSimandoux","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m","type":"number","value":2},{"name":"n","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rsh","type":"number","value":4.5},{"name":"Rmf","type":"number","value":0.1}],"outputs":[{"name":"Sw_Smo","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Smo","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Smo","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Smo","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calSaturationModifiedSimandoux","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m","type":"number","value":2},{"name":"n","type":"number","value":2},{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"}],"outputs":[{"name":"Sw_Smo","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Smo","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Smo","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Smo","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Juhasz</t>
   </si>
   <si>
-    <t>{"function":"calSaturationJuhasz","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m*","type":"number","value":2},{"name":"n*","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rsh","type":"number","value":4.5},{"name":"Rmf","type":"number","value":0.1},{"name":"PHITsh","type":"number","value":0.35}],"outputs":[{"name":"Sw_Juh","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Juh","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Juh","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Juh","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"Qvn","family":"Volumetric CEC","unit":"eq/L"}]}</t>
+    <t>{"function":"calSaturationJuhasz","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m*","type":"number","value":2},{"name":"n*","type":"number","value":2},{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"},{"name":"PHITsh","type":"number","value":0.35,"unit":"v/v"}],"outputs":[{"name":"Sw_Juh","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Juh","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Juh","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Juh","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"Qvn","family":"Volumetric CEC","unit":"eq/L"}]}</t>
   </si>
   <si>
     <t>Waxman-Smits</t>
   </si>
   <si>
-    <t>{"function":"calSaturationWaxmanSmits","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"},{"name":"Formation Temperature","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"m*","type":"number","value":2},{"name":"n*","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rmf","type":"number","value":0.1},{"name":"B","type":"number","value":4},{"name":"Qv","type":"number","value":1}],"outputs":[{"name":"Sw_Wax","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Wax","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Wax","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Wax","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calSaturationWaxmanSmits","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"},{"name":"Formation Temperature","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"m*","type":"number","value":2},{"name":"n*","type":"number","value":2},{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"},{"name":"B","type":"number","value":4,"unit":"L.S/eq.m"},{"name":"Qv","type":"number","value":1,"unit":"eq/L"}],"outputs":[{"name":"Sw_Wax","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Wax","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Wax","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Wax","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Dual Water</t>
   </si>
   <si>
-    <t>{"function":"calSaturationDualWater","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"},{"name":"Total Porosity","family":"Total Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m*","type":"number","value":2},{"name":"n*","type":"number","value":2},{"name":"Rw","type":"number","value":0.03},{"name":"Rmf","type":"number","value":0.125},{"name":"Rsh","type":"number","value":4.5},{"name":"PHITsh","type":"number","value":0.35}],"outputs":[{"name":"Sw_Dua","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Dua","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Dua","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Dua","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"Qv","family":"Volumetric CEC","unit":"eq/L"}]}</t>
+    <t>{"function":"calSaturationDualWater","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"},{"name":"Total Porosity","family":"Total Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m*","type":"number","value":2},{"name":"n*","type":"number","value":2},{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},{"name":"Rmf","type":"number","value":0.125,"unit":"ohm.m"},{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},{"name":"PHITsh","type":"number","value":0.35,"unit":"v/v"}],"outputs":[{"name":"Sw_Dua","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Dua","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Dua","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Dua","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"Qv","family":"Volumetric CEC","unit":"eq/L"}]}</t>
   </si>
   <si>
     <t>Effective Water Saturation</t>
@@ -508,7 +508,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="P33" sqref="P33"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20806"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="176" documentId="11_785A67DB09042B393A10C7C4FA50CFB0958C9597" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C3D4792C-D020-46E0-928F-8BEAD073C11E}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="11_785A67DB09042B393A10C7C4FA50CFB0958C9597" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9429D8BA-DC79-4C9B-B30C-B90FC7B2B48C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
     <t>Shale Volume</t>
   </si>
   <si>
-    <t>{"function":"calVSHfromGR","inputs":[{"name":"Gamma Ray"}],"parameters":[{"name":"GR clean","type":"number","value":10,"unit":"gAPI","color":"red"},{"name":"GR shale","type":"number","value":120,"unit":"gAPI",","color":"green"},{"name":"Method","type":"select","value":"Linear","choices":["Linear","Clavier","Larionov Tertiary rocks","Larionov older rocks","Stieber variation I","Stieber - Miocene and Pliocene","Stieber variation II"]}],"outputs":[{"name":"VSH_GR","family":"Shale Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calVSHfromGR","inputs":[{"name":"Gamma Ray"}],"parameters":[{"name":"GR clean","type":"number","value":10,"unit":"gAPI","color":"red"},{"name":"GR shale","type":"number","value":120,"unit":"gAPI","color":"green"},{"name":"Method","type":"select","value":"Linear","choices":["Linear","Clavier","Larionov Tertiary rocks","Larionov older rocks","Stieber variation I","Stieber - Miocene and Pliocene","Stieber variation II"]}],"outputs":[{"name":"VSH_GR","family":"Shale Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Neutron-Density</t>
@@ -508,7 +508,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20811"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="177" documentId="11_785A67DB09042B393A10C7C4FA50CFB0958C9597" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9429D8BA-DC79-4C9B-B30C-B90FC7B2B48C}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308"/>
   </bookViews>
   <sheets>
     <sheet name="task-spec" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -188,13 +187,19 @@
   </si>
   <si>
     <t>{"function":"calCutoffSummation","inputs":[{"name":"Shale Volume"},{"name":"Porosity"},{"name":"Water Saturation"}],"parameters":[{"name":"Vshale Cut","type":"number","value":0.35},{"name":"Phi Cut","type":"number","value":0.15},{"name":"SW Cut","type":"number","value":0.6}],"outputs":[{"name":"NetRes","family":"Net Reservoir Flag"},{"name":"Netpay","family":"Net Pay Flag"}]}</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>{ "function": "calVSHFinal", "inputs": [{ "name": "Shale Volume" }], "parameters": [ { "name": "Merge Method", "type": "select", "value": "Minimum", "choices": [ "Minimum", "Average", "Arthmetic mean", "Geometric mean", "Harmonic mean", "Median", "Maximum", "Sum" ] } ], "outputs": [{ "name": "VSH_Final", "family": "Shale Volume", "unit": "v/v" }] }</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,11 +228,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -504,24 +512,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="105.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.73046875" customWidth="1"/>
+    <col min="4" max="4" width="105.1328125" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +539,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -541,7 +549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -555,7 +563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -569,7 +577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -583,7 +591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -597,7 +605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -611,7 +619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -625,7 +633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -639,7 +647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -653,7 +661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -667,213 +675,227 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>54</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>55</v>
       </c>
     </row>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20814"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{6E9653AC-C86F-4CF9-8148-D2C74764F1D3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task-spec" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179020"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,6 +97,12 @@
     <t>{"function":"calVSHfromThori","inputs":[{"name":"Thorium"}],"parameters":[{"name":"Thorium matrix","type":"number","value":10,"unit":"ppm","color":"red"},{"name":"Thorium shale","type":"number","value":100,"unit":"ppm","color":"green"},{"name":"TH method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]}],"outputs":[{"name":"VSH_Thori","family":"Shale Volume","unit":"v/v"}]}</t>
   </si>
   <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>{ "function": "calVSHFinal", "multiple": true, "flag": {}, "inputs": [ { "name": "Shale Volume" } ,{ "name": "Shale Volume" } ], "parameters": [ { "name": "Merge Method", "type": "select", "value": "Minimum", "choices": [ "Minimum", "Average", "Arthmetic mean", "Geometric mean", "Harmonic mean", "Median", "Maximum", "Sum" ] } ], "outputs": [ { "name": "VSH_Final", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_MIN", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_AVG", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+  </si>
+  <si>
     <t>Density</t>
   </si>
   <si>
@@ -187,19 +194,13 @@
   </si>
   <si>
     <t>{"function":"calCutoffSummation","inputs":[{"name":"Shale Volume"},{"name":"Porosity"},{"name":"Water Saturation"}],"parameters":[{"name":"Vshale Cut","type":"number","value":0.35},{"name":"Phi Cut","type":"number","value":0.15},{"name":"SW Cut","type":"number","value":0.6}],"outputs":[{"name":"NetRes","family":"Net Reservoir Flag"},{"name":"Netpay","family":"Net Pay Flag"}]}</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>{ "function": "calVSHFinal", "inputs": [{ "name": "Shale Volume" }], "parameters": [ { "name": "Merge Method", "type": "select", "value": "Minimum", "choices": [ "Minimum", "Average", "Arthmetic mean", "Geometric mean", "Harmonic mean", "Median", "Maximum", "Sum" ] } ], "outputs": [{ "name": "VSH_Final", "family": "Shale Volume", "unit": "v/v" }] }</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,24 +513,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="16.73046875" customWidth="1"/>
-    <col min="4" max="4" width="105.1328125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="105.140625" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -563,7 +564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -577,7 +578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -591,7 +592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -605,7 +606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -619,7 +620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -633,7 +634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -647,7 +648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -661,7 +662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -675,63 +676,63 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -739,164 +740,164 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
       <c r="D18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20814"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{6E9653AC-C86F-4CF9-8148-D2C74764F1D3}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{4D6EF9D9-F0B9-4DE9-A7FE-F88A3317E6ED}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
     <t>Final</t>
   </si>
   <si>
-    <t>{ "function": "calVSHFinal", "multiple": true, "flag": {}, "inputs": [ { "name": "Shale Volume" } ,{ "name": "Shale Volume" } ], "parameters": [ { "name": "Merge Method", "type": "select", "value": "Minimum", "choices": [ "Minimum", "Average", "Arthmetic mean", "Geometric mean", "Harmonic mean", "Median", "Maximum", "Sum" ] } ], "outputs": [ { "name": "VSH_Final", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_MIN", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_AVG", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{ "function": "calVSHFinal", "multiple": true, "options": [{name:"Flag"}], "inputs": [ { "name": "Shale Volume" } ,{ "name": "Shale Volume" } ], "parameters": [ { "name": "Merge Method", "type": "select", "value": "Minimum", "choices": [ "Minimum", "Average", "Arthmetic mean", "Geometric mean", "Harmonic mean", "Median", "Maximum", "Sum" ] } ], "outputs": [ { "name": "VSH_Final", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_MIN", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_AVG", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Density</t>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20814"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{4D6EF9D9-F0B9-4DE9-A7FE-F88A3317E6ED}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{0C197343-AAB9-435E-BE39-E759205DA30E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
     <t>Final</t>
   </si>
   <si>
-    <t>{ "function": "calVSHFinal", "multiple": true, "options": [{name:"Flag"}], "inputs": [ { "name": "Shale Volume" } ,{ "name": "Shale Volume" } ], "parameters": [ { "name": "Merge Method", "type": "select", "value": "Minimum", "choices": [ "Minimum", "Average", "Arthmetic mean", "Geometric mean", "Harmonic mean", "Median", "Maximum", "Sum" ] } ], "outputs": [ { "name": "VSH_Final", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_MIN", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_AVG", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{ "function": "calVSHFinal", "multiple": true, "options": [{"name":"Flag"}], "inputs": [ { "name": "Shale Volume" } ,{ "name": "Shale Volume" } ], "parameters": [ { "name": "Merge Method", "type": "select", "value": "Minimum", "choices": [ "Minimum", "Average", "Arthmetic mean", "Geometric mean", "Harmonic mean", "Median", "Maximum", "Sum" ] } ], "outputs": [ { "name": "VSH_Final", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_MIN", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_AVG", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Density</t>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20826"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{0C197343-AAB9-435E-BE39-E759205DA30E}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{E34FD806-41C7-44DE-8579-A4303DC3CB6A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -100,7 +100,7 @@
     <t>Final</t>
   </si>
   <si>
-    <t>{ "function": "calVSHFinal", "multiple": true, "options": [{"name":"Flag"}], "inputs": [ { "name": "Shale Volume" } ,{ "name": "Shale Volume" } ], "parameters": [ { "name": "Merge Method", "type": "select", "value": "Minimum", "choices": [ "Minimum", "Average", "Arthmetic mean", "Geometric mean", "Harmonic mean", "Median", "Maximum", "Sum" ] } ], "outputs": [ { "name": "VSH_Final", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_MIN", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_AVG", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{ "function": "calVSHFinal", "multiple": true,"use_inputs":"multiple", "options": [{"name":"Bad Hole"}], "inputs": [ { "name": "Shale Volume" } ,{ "name": "Shale Volume" } ], "parameters": [ { "name": "Merge Method", "type": "select", "value": "Minimum", "choices": [ "Minimum", "Average", "Arithmetic mean", "Geometric mean", "Harmonic mean", "Median", "Maximum", "Sum" ] } ], "outputs": [ { "name": "VSH_Final", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_MIN", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_AVG", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Density</t>
@@ -193,7 +193,16 @@
     <t>Summation</t>
   </si>
   <si>
-    <t>{"function":"calCutoffSummation","inputs":[{"name":"Shale Volume"},{"name":"Porosity"},{"name":"Water Saturation"}],"parameters":[{"name":"Vshale Cut","type":"number","value":0.35},{"name":"Phi Cut","type":"number","value":0.15},{"name":"SW Cut","type":"number","value":0.6}],"outputs":[{"name":"NetRes","family":"Net Reservoir Flag"},{"name":"Netpay","family":"Net Pay Flag"}]}</t>
+    <t>Clastic</t>
+  </si>
+  <si>
+    <t>{"function":"calClasticfSummation","inputs":[{"name":"Shale Volume"},{"name":"Porosity"},{"name":"Water Saturation"}],"parameters":[{"name":"Vshale Cut","type":"number","value":0.35},{"name":"Phi Cut","type":"number","value":0.15},{"name":"SW Cut","type":"number","value":0.6}],"outputs":[{"name":"NetRes","family":"Net Reservoir Flag"},{"name":"Netpay","family":"Net Pay Flag"}]}</t>
+  </si>
+  <si>
+    <t>Multi-Mineral Solver</t>
+  </si>
+  <si>
+    <t>{"function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"outputFromModel":true,"outputs":[],"outputConfig":{"family":"Mineral Volume","unit":"v/v","suffix":"V"}}</t>
   </si>
 </sst>
 </file>
@@ -236,7 +245,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -514,10 +523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -525,7 +535,7 @@
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="105.140625" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -894,10 +904,21 @@
         <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20826"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{E34FD806-41C7-44DE-8579-A4303DC3CB6A}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{F7D076BB-8C50-4561-9A06-334F4C0D7904}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -133,6 +133,18 @@
     <t>{"function":"calPorosityFromDensityNeutron","inputs":[{"name":"Density","family":"Bulk Density","unit":"g/cm3"},{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Density Matrix","type":"number","value":2.65,"unit":"g/cm3","color":"red"},{"name":"Density Fluid","type":"number","value":1,"unit":"g/cm3"},{"name":"Density Shale","type":"number","value":2.4,"unit":"g/cm3","color":"green"},{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"}],"outputs":[{"name":"PHIT_ND","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_ND","family":"Effective Porosity","unit":"v/v"},{"name":"RHOMMA","family":"Apparent Matrix Density","unit":"v/v"}]}</t>
   </si>
   <si>
+    <t>Total Final</t>
+  </si>
+  <si>
+    <t>{ "function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [{ "name": "Bad Hole" }], "inputs": [{ "name": "Total Porosity" }, { "name": "Total Porosity" }], "parameters": [ ], "outputs": [ { "name": "PHIT_Final", "family": "Total Porosity", "unit": "v/v" } ] }</t>
+  </si>
+  <si>
+    <t>Effective Final</t>
+  </si>
+  <si>
+    <t>{ "function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [{ "name": "Bad Hole" }], "inputs": [{ "name": "Effective Porosity" }, { "name": "Effective Porosity" }], "parameters": [ ], "outputs": [ { "name": "PHIE_Final", "family": "Effective Porosity", "unit": "v/v" } ] }</t>
+  </si>
+  <si>
     <t>Archie</t>
   </si>
   <si>
@@ -196,13 +208,13 @@
     <t>Clastic</t>
   </si>
   <si>
-    <t>{"function":"calClasticfSummation","inputs":[{"name":"Shale Volume"},{"name":"Porosity"},{"name":"Water Saturation"}],"parameters":[{"name":"Vshale Cut","type":"number","value":0.35},{"name":"Phi Cut","type":"number","value":0.15},{"name":"SW Cut","type":"number","value":0.6}],"outputs":[{"name":"NetRes","family":"Net Reservoir Flag"},{"name":"Netpay","family":"Net Pay Flag"}]}</t>
+    <t>{"function":"calClasticfSummation","inputs":[{"name":"Shale Volume"},{"name":"Porosity"},{"name":"Water Saturation"}],"parameters":[{"name":"Vshale Cut","type":"number","value":0.35},{"name":"Phi Cut","type":"number","value":0.15},{"name":"SW Cut","type":"number","value":0.6}],"outputs":[{"name":"NetRes","family":"Net Reservoir Flag", "unit": "UNITLESS"},{"name":"Netpay","family":"Net Pay Flag", "unit": "UNITLESS"}]}</t>
   </si>
   <si>
     <t>Multi-Mineral Solver</t>
   </si>
   <si>
-    <t>{"function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"outputFromModel":true,"outputs":[],"outputConfig":{"family":"Mineral Volume","unit":"v/v","suffix":"V"}}</t>
+    <t>{"function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"":"PAI","Peak Slowness":"DT","Peak Travel Time":"DT","Travel Time":"DT","Compressional Slowness":"DT","Bulk Density":"RHOB","Bulk Density Correction":"RHOB","Bulk Density Hydrocarbon Corrected":"RHOB","Corrected ZDL Density":"RHOB","Gamma Ray":"GR","Gamma Ray 1":"GR","Gamma Ray Normalised":"GR","Gamma Ray Shale":"GR","Gamma Ray Squared":"GR","Russian Gamma Ray":"GR","PLT Gamma Ray":"GR","Thermal Neutron Near Far Ratio":"NPHI","Compensated Neutron Porosity":"NPHI","Epithermal Neutron Porosity":"NPHI","Neutron Porosity":"NPHI","Neutron Porosity Correction":"NPHI","Neutron Porosity Hydrocarbon Corrected":"NPHI","Neutron Porosity Lime":"NPHI","Neutron Porosity Sand":"NPHI","Russian Thermal Neutron Porosity":"NPHI","Thermal Neutron Porosity":"NPHI","Potassium Capture Relative Yield":"POT","Potassium Concentration":"POT","Potassium Radio Nuclide Activity":"POT","Thorium Concentration":"THOR","Thorium Radio Nuclide Activity":"THOR","Uranium Concentration":"URAN","Uranium Radio Nuclide Activity":"URAN"},"outputFromModel":true,"outputs":[],"outputConfig":{"family":"Mineral Volume","unit":"v/v","suffix":"V"}}</t>
   </si>
 </sst>
 </file>
@@ -245,7 +257,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -523,11 +535,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A27"/>
+      <pane ySplit="1" topLeftCell="D2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -770,7 +782,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="13.5" customHeight="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -778,35 +790,35 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
         <v>38</v>
       </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
         <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
       </c>
       <c r="D19" t="s">
         <v>43</v>
@@ -814,13 +826,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
         <v>45</v>
@@ -828,13 +840,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
         <v>47</v>
@@ -842,13 +854,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
         <v>49</v>
@@ -856,13 +868,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
         <v>51</v>
@@ -870,13 +882,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
         <v>53</v>
@@ -884,13 +896,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
         <v>55</v>
@@ -898,27 +910,55 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>56</v>
       </c>
       <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
         <v>57</v>
-      </c>
-      <c r="D26" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" t="s">
-        <v>60</v>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20826"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="48" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{F7D076BB-8C50-4561-9A06-334F4C0D7904}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{208F5355-CD09-4A81-A15D-E5BE1DBBF848}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,7 +214,7 @@
     <t>Multi-Mineral Solver</t>
   </si>
   <si>
-    <t>{"function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"":"PAI","Peak Slowness":"DT","Peak Travel Time":"DT","Travel Time":"DT","Compressional Slowness":"DT","Bulk Density":"RHOB","Bulk Density Correction":"RHOB","Bulk Density Hydrocarbon Corrected":"RHOB","Corrected ZDL Density":"RHOB","Gamma Ray":"GR","Gamma Ray 1":"GR","Gamma Ray Normalised":"GR","Gamma Ray Shale":"GR","Gamma Ray Squared":"GR","Russian Gamma Ray":"GR","PLT Gamma Ray":"GR","Thermal Neutron Near Far Ratio":"NPHI","Compensated Neutron Porosity":"NPHI","Epithermal Neutron Porosity":"NPHI","Neutron Porosity":"NPHI","Neutron Porosity Correction":"NPHI","Neutron Porosity Hydrocarbon Corrected":"NPHI","Neutron Porosity Lime":"NPHI","Neutron Porosity Sand":"NPHI","Russian Thermal Neutron Porosity":"NPHI","Thermal Neutron Porosity":"NPHI","Potassium Capture Relative Yield":"POT","Potassium Concentration":"POT","Potassium Radio Nuclide Activity":"POT","Thorium Concentration":"THOR","Thorium Radio Nuclide Activity":"THOR","Uranium Concentration":"URAN","Uranium Radio Nuclide Activity":"URAN"},"outputFromModel":true,"outputs":[],"outputConfig":{"family":"Mineral Volume","unit":"v/v","suffix":"V"}}</t>
+    <t>{"function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"DT":["Peak Slowness","Peak Travel Time","Travel Time","Compressional Slowness","DTC.*","DT","SON.*","AC","DTTP.*","Acoustic"],"RHOB":["Bulk Density","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Corrected ZDL Density","DEN.*","RHOB","RHOZ","ZDEN.*","RHOZ","LDEN","Density"],"GR":["Gamma Ray","Gamma Ray 1","Gamma Ray Normalised","Gamma Ray Shale","Gamma Ray Squared","Russian Gamma Ray","PLT Gamma Ray","GR.*","ECGR.*","SGRC.*","GAM.*","HGR","EGR","SGR"],"NPHI":["Thermal Neutron Near Far Ratio","Compensated Neutron Porosity","Epithermal Neutron Porosity","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Russian Thermal Neutron Porosity","Thermal Neutron Porosity","NEU.*","TNP.*","NPHI.*","CNL.*","CNT.*","Porosity"],"POT":["Potassium Capture Relative Yield","Potassium Concentration","Potassium Radio Nuclide Activity","POT.*","Weight Fraction - Element"],"THOR":["Thorium Concentration","Thorium Radio Nuclide Activity","THOR.*"],"URAN":["Uranium Concentration","Uranium Radio Nuclide Activity","URA.*"],"PAI":["/.*/"]},"outputFromParameter":true,"outputs":[],"outputConfig":{"family":"Mineral Volume","unit":"v/v","suffix":"V","use":true}}</t>
   </si>
 </sst>
 </file>
@@ -257,7 +257,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -538,8 +538,8 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="D2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="C18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -538,8 +538,8 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="C18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20826"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="51" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{208F5355-CD09-4A81-A15D-E5BE1DBBF848}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{1C591DE6-707A-44AD-91CF-BD81E0655675}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,7 +214,7 @@
     <t>Multi-Mineral Solver</t>
   </si>
   <si>
-    <t>{"function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"DT":["Peak Slowness","Peak Travel Time","Travel Time","Compressional Slowness","DTC.*","DT","SON.*","AC","DTTP.*","Acoustic"],"RHOB":["Bulk Density","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Corrected ZDL Density","DEN.*","RHOB","RHOZ","ZDEN.*","RHOZ","LDEN","Density"],"GR":["Gamma Ray","Gamma Ray 1","Gamma Ray Normalised","Gamma Ray Shale","Gamma Ray Squared","Russian Gamma Ray","PLT Gamma Ray","GR.*","ECGR.*","SGRC.*","GAM.*","HGR","EGR","SGR"],"NPHI":["Thermal Neutron Near Far Ratio","Compensated Neutron Porosity","Epithermal Neutron Porosity","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Russian Thermal Neutron Porosity","Thermal Neutron Porosity","NEU.*","TNP.*","NPHI.*","CNL.*","CNT.*","Porosity"],"POT":["Potassium Capture Relative Yield","Potassium Concentration","Potassium Radio Nuclide Activity","POT.*","Weight Fraction - Element"],"THOR":["Thorium Concentration","Thorium Radio Nuclide Activity","THOR.*"],"URAN":["Uranium Concentration","Uranium Radio Nuclide Activity","URA.*"],"PAI":["/.*/"]},"outputFromParameter":true,"outputs":[],"outputConfig":{"family":"Mineral Volume","unit":"v/v","suffix":"V","use":true}}</t>
+    <t>{"function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"DT":["Peak Slowness","Peak Travel Time","Travel Time","Compressional Slowness","DTC.*","DT","SON.*","AC","DTTP.*","Acoustic"],"RHOB":["Bulk Density","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Corrected ZDL Density","DEN.*","RHOB","RHOZ","ZDEN.*","RHOZ","LDEN","Density"],"GR":["Gamma Ray","Gamma Ray 1","Gamma Ray Normalised","Gamma Ray Shale","Gamma Ray Squared","Russian Gamma Ray","PLT Gamma Ray","GR.*","ECGR.*","SGRC.*","GAM.*","HGR","EGR","SGR"],"NPHI":["Thermal Neutron Near Far Ratio","Compensated Neutron Porosity","Epithermal Neutron Porosity","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Russian Thermal Neutron Porosity","Thermal Neutron Porosity","NEU.*","TNP.*","NPHI.*","CNL.*","CNT.*","Porosity"],"POT":["Potassium Capture Relative Yield","Potassium Concentration","Potassium Radio Nuclide Activity","POT.*","Weight Fraction - Element"],"THOR":["Thorium Concentration","Thorium Radio Nuclide Activity","THOR.*"],"URAN":["Uranium Concentration","Uranium Radio Nuclide Activity","URA.*"],"PAI":[".*"]},"outputFromParameter":true,"outputs":[],"outputConfig":{"family":"Mineral Volume","unit":"v/v","prefix":"V_","use":true}}</t>
   </si>
 </sst>
 </file>
@@ -538,8 +538,8 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="C10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20826"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20829"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{1C591DE6-707A-44AD-91CF-BD81E0655675}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{10092350-472C-43D1-8735-F1615785C2C2}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
     <t>Resistivity</t>
   </si>
   <si>
-    <t>{"function":"calVSHfromR","inputs":[{"name":"Resistivity"}],"parameters":[{"name":"Resistivity_clean","type":"number","value":10,"unit":"ohm.m","color":"red"},{"name":"Resistivity_shale","type":"number","value":120,"unit":"ohm.m","color":"green"},{"name":"Equation","type":"select","value":"Resistivity Log","choices":["Resistivity Log","Gaymard"]}],"outputs":[{"name":"VSH_RES","family":"Shale Volume","unit":"v/v"}]}</t>
+    <t>{ "function": "calVSHfromR", "inputs": [{ "name": "Resistivity" }], "parameters": [ { "name": "Resistivity_clean", "type": "number", "value": 10, "unit": "ohm.m", "color": "red" }, { "name": "Resistivity_shale", "type": "number", "value": 120, "unit": "ohm.m", "color": "green" }, { "name": "B exponent", "type": "number", "value": 1 }, { "name": "Equation", "type": "select", "value": "Resistivity Log", "choices": ["Resistivity Log", "Gaymard"] } ], "outputs": [{ "name": "VSH_RES", "family": "Shale Volume", "unit": "v/v" }] }</t>
   </si>
   <si>
     <t>Spontaneous potential</t>
@@ -151,49 +151,49 @@
     <t>Water Saturation</t>
   </si>
   <si>
-    <t>{"function":"calSaturationArchie","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m","type":"number","value":2},{"name":"n","type":"number","value":2},{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"}],"outputs":[{"name":"Sw_Ar","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Ar","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Ar","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Ar","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+    <t>{ "function": "calSaturationArchie", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Ar", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Ar", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Ar", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Ar", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
   </si>
   <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>{"function":"calSaturationIndonesia","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m","type":"number","value":2},{"name":"n","type":"number","value":2},{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"}],"outputs":[{"name":"Sw_Ind","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Ind","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Ind","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Ind","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+    <t>{ "function": "calSaturationIndonesia", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Ind", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Ind", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Ind", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Ind", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
   </si>
   <si>
     <t>Modified Indonesia</t>
   </si>
   <si>
-    <t>{"function":"calSaturationModifiedIndonesia","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m","type":"number","value":2},{"name":"n","type":"number","value":2},{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"}],"outputs":[{"name":"Sw_Imo","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Imo","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Imo","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Imo","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+    <t>{ "function": "calSaturationModifiedIndonesia", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Imo", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Imo", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Imo", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Imo", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
   </si>
   <si>
     <t>Simandoux</t>
   </si>
   <si>
-    <t>{"function":"calSaturationSimandoux","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m","type":"number","value":2},{"name":"n","type":"number","value":2},{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"}],"outputs":[{"name":"Sw_Sim","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Sim","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Sim","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Sim","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+    <t>{ "function": "calSaturationSimandoux", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Sim", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Sim", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Sim", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Sim", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
   </si>
   <si>
     <t>Modified Simandoux</t>
   </si>
   <si>
-    <t>{"function":"calSaturationModifiedSimandoux","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m","type":"number","value":2},{"name":"n","type":"number","value":2},{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"}],"outputs":[{"name":"Sw_Smo","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Smo","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Smo","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Smo","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+    <t>{ "function": "calSaturationModifiedSimandoux", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Smo", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Smo", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Smo", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Smo", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
   </si>
   <si>
     <t>Juhasz</t>
   </si>
   <si>
-    <t>{"function":"calSaturationJuhasz","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m*","type":"number","value":2},{"name":"n*","type":"number","value":2},{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"},{"name":"PHITsh","type":"number","value":0.35,"unit":"v/v"}],"outputs":[{"name":"Sw_Juh","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Juh","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Juh","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Juh","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"Qvn","family":"Volumetric CEC","unit":"eq/L"}]}</t>
+    <t>{ "function": "calSaturationJuhasz", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Juh", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Juh", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qvn", "family": "Volumetric CEC", "unit": "eq/L" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
   </si>
   <si>
     <t>Waxman-Smits</t>
   </si>
   <si>
-    <t>{"function":"calSaturationWaxmanSmits","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"},{"name":"Formation Temperature","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"m*","type":"number","value":2},{"name":"n*","type":"number","value":2},{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"},{"name":"B","type":"number","value":4,"unit":"L.S/eq.m"},{"name":"Qv","type":"number","value":1,"unit":"eq/L"}],"outputs":[{"name":"Sw_Wax","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Wax","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Wax","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Wax","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+    <t>{ "function": "calSaturationWaxmanSmits", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ], "parameters": [ { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "B", "type": "number", "value": 4, "unit": "L.S/eq.m" }, { "name": "Qv", "type": "number", "value": 1, "unit": "eq/L" } ], "outputs": [ { "name": "Sw_Wax", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Wax", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Formation Temperature", "family": "Formation Temperature", "unit": "degC" } ] }</t>
   </si>
   <si>
     <t>Dual Water</t>
   </si>
   <si>
-    <t>{"function":"calSaturationDualWater","inputs":[{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m"},{"name":"Total Porosity","family":"Total Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"a","type":"number","value":1},{"name":"m*","type":"number","value":2},{"name":"n*","type":"number","value":2},{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},{"name":"Rmf","type":"number","value":0.125,"unit":"ohm.m"},{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},{"name":"PHITsh","type":"number","value":0.35,"unit":"v/v"}],"outputs":[{"name":"Sw_Dua","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Dua","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Dua","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Dua","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"Qv","family":"Volumetric CEC","unit":"eq/L"}]}</t>
+    <t>{ "function": "calSaturationDualWater", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Total Porosity", "family": "Total Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.125, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Dua", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Dua", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Dua", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Dua", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qv", "family": "Volumetric CEC", "unit": "eq/L" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
   </si>
   <si>
     <t>Effective Water Saturation</t>
@@ -257,7 +257,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -538,8 +538,8 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="C10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -812,7 +812,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>41</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>44</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>48</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>56</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20829"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20830"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{10092350-472C-43D1-8735-F1615785C2C2}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{B5ADD66B-2576-4B62-A7DC-FD9AB227AAE7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,61 +46,61 @@
     <t>Shale Volume</t>
   </si>
   <si>
-    <t>{"function":"calVSHfromGR","inputs":[{"name":"Gamma Ray"}],"parameters":[{"name":"GR clean","type":"number","value":10,"unit":"gAPI","color":"red"},{"name":"GR shale","type":"number","value":120,"unit":"gAPI","color":"green"},{"name":"Method","type":"select","value":"Linear","choices":["Linear","Clavier","Larionov Tertiary rocks","Larionov older rocks","Stieber variation I","Stieber - Miocene and Pliocene","Stieber variation II"]}],"outputs":[{"name":"VSH_GR","family":"Shale Volume","unit":"v/v"}]}</t>
+    <t>{"function":"calVSHfromGR","inputs":[{"name":"Gamma Ray","unit":"gAPI"}],"parameters":[{"name":"GR clean","type":"number","value":10,"unit":"gAPI","color":"red"},{"name":"GR shale","type":"number","value":120,"unit":"gAPI","color":"green"},{"name":"Method","type":"select","value":"Linear","choices":["Linear","Clavier","Larionov Tertiary rocks","Larionov older rocks","Stieber variation I","Stieber - Miocene and Pliocene","Stieber variation II"]}],"outputs":[{"name":"VSH_GR","family":"Shale Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Neutron-Density</t>
   </si>
   <si>
-    <t>{"function":"calVSHfromND","inputs":[{"name":"Neutron porosity"},{"name":"Bulk density"}],"parameters":[{"name":"NPHI_clean_2","type":"number","value":0.25,"unit":"v/v"},{"name":"NHPI_shale","type":"number","value":0.4,"unit":"v/v","color":"green"},{"name":"NHPI_clean_1","type":"number","value":-0.01,"unit":"v/v"},{"name":"RHOB_clean_2","type":"number","value":2.2,"unit":"g/cm3"},{"name":"RHOB_shale","type":"number","value":2.4,"unit":"g/cm3","color":"red"},{"name":"RHOB_clean_1","type":"number","value":2.65,"unit":"g/cm3"}],"outputs":[{"name":"VSH_ND","family":"Shale Volume","unit":"v/v"}]}</t>
+    <t>{ "function": "calVSHfromND", "inputs": [ { "name": "Neutron porosity", "unit": "v/v" }, { "name": "Bulk density", "unit": "g/cm3" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "value": -0.01, "unit": "v/v" }, { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "red" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_ND", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Neutron-Sonic</t>
   </si>
   <si>
-    <t>{"function":"calVSHfromNS","inputs":[{"name":"Neutron porosity"},{"name":"Compressional slowness"}],"parameters":[{"name":"NPHI_clean_2","type":"number","value":0.25,"unit":"v/v"},{"name":"NHPI_shale","type":"number","value":0.4,"unit":"v/v","color":"green"},{"name":"NHPI_clean_1","type":"number","unit":"v/v","value":-0.01},{"name":"DT_clean_2","type":"number","value":90,"unit":"g/cm3"},{"name":"DT_shale","type":"number","value":100,"unit":"g/cm3","color":"pink"},{"name":"DT_clean_1","type":"number","value":55,"unit":"g/cm3"}],"outputs":[{"name":"VSH_NS","family":"Shale Volume","unit":"v/v"}]}</t>
+    <t>{ "function": "calVSHfromNS", "inputs": [ { "name": "Neutron porosity", "unit": "v/v" }, { "name": "Compressional slowness", "unit": "us/ft" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "unit": "v/v", "value": -0.01 }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "g/cm3" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "g/cm3", "color": "pink" }, { "name": "DT_clean_1", "type": "number", "value": 55, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_NS", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Density-Sonic</t>
   </si>
   <si>
-    <t>{"function":"calVSHfromDS","inputs":[{"name":"Bulk density"},{"name":"Compressional slowness"}],"parameters":[{"name":"RHOB_clean_2","type":"number","value":2.2,"unit":"g/cm3"},{"name":"RHOB_shale","type":"number","value":2.4,"unit":"g/cm3","color":"pink"},{"name":"RHOB_clean_1","type":"number","value":2.65,"unit":"g/cm3"},{"name":"DT_clean_2","type":"number","value":90,"unit":"us/ft"},{"name":"DT_shale","type":"number","value":100,"unit":"us/ft","color":"red"},{"name":"DT_clean_1","type":"number","value":50,"unit":"us/ft"}],"outputs":[{"name":"VSH_SD","family":"Shale Volume","unit":"v/v"}]}</t>
+    <t>{ "function": "calVSHfromDS", "inputs": [ { "name": "Sonic", "unit": "v/v" }, { "name": "Compressional slowness", "unit": "us/ft" } ], "parameters": [ { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "pink" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "us/ft" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "us/ft", "color": "red" }, { "name": "DT_clean_1", "type": "number", "value": 50, "unit": "us/ft" } ], "outputs": [ { "name": "VSH_SD", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Resistivity</t>
   </si>
   <si>
-    <t>{ "function": "calVSHfromR", "inputs": [{ "name": "Resistivity" }], "parameters": [ { "name": "Resistivity_clean", "type": "number", "value": 10, "unit": "ohm.m", "color": "red" }, { "name": "Resistivity_shale", "type": "number", "value": 120, "unit": "ohm.m", "color": "green" }, { "name": "B exponent", "type": "number", "value": 1 }, { "name": "Equation", "type": "select", "value": "Resistivity Log", "choices": ["Resistivity Log", "Gaymard"] } ], "outputs": [{ "name": "VSH_RES", "family": "Shale Volume", "unit": "v/v" }] }</t>
+    <t>{ "function": "calVSHfromR", "inputs": [ { "name": "Resistivity", "unit": "ohm.m" } ], "parameters": [ { "name": "Resistivity_clean", "type": "number", "value": 10, "unit": "ohm.m", "color": "red" }, { "name": "Resistivity_shale", "type": "number", "value": 120, "unit": "ohm.m", "color": "green" }, { "name": "B exponent", "type": "number", "value": 1 }, { "name": "Equation", "type": "select", "value": "Resistivity Log", "choices": [ "Resistivity Log", "Gaymard" ] } ], "outputs": [ { "name": "VSH_RES", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Spontaneous potential</t>
   </si>
   <si>
-    <t>{"function":"calVSHfromSP","inputs":[{"name":"Spontaneous potential"}],"parameters":[{"name":"SP_clean","type":"number","value":0,"unit":"mV","color":"red"},{"name":"SP_shale","type":"number","value":100,"unit":"mV","color":"green"}],"outputs":[{"name":"VSH_SP","family":"Shale Volume","unit":"v/v"}]}</t>
+    <t>{ "function": "calVSHfromSP", "inputs": [ { "name": "Spontaneous potential", "unit": "mV" } ], "parameters": [ { "name": "SP_clean", "type": "number", "value": 0, "unit": "mV", "color": "red" }, { "name": "SP_shale", "type": "number", "value": 100, "unit": "mV", "color": "green" } ], "outputs": [ { "name": "VSH_SP", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Thermal Neutron</t>
   </si>
   <si>
-    <t>{"function":"calVSHfromNEU","inputs":[{"name":"Thermal Neutron"}],"parameters":[{"name":"Neutron_clean","type":"number","value":0.1,"unit":"v/v","color":"red"},{"name":"Neutron_shale","type":"number","value":0.3,"unit":"v/v","color":"green"}],"outputs":[{"name":"VSH_NEU","family":"Shale Volume","unit":"v/v"}]}</t>
+    <t>{ "function": "calVSHfromNEU", "inputs": [ { "name": "Thermal Neutron", "unit": "v/v" } ], "parameters": [ { "name": "Neutron_clean", "type": "number", "value": 0.1, "unit": "v/v", "color": "red" }, { "name": "Neutron_shale", "type": "number", "value": 0.3, "unit": "v/v", "color": "green" } ], "outputs": [ { "name": "VSH_NEU", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Potassium</t>
   </si>
   <si>
-    <t>{"function":"calVSHfromPOTA","inputs":[{"name":"Potassium"}],"parameters":[{"name":"POTA matrix","type":"number","value":10,"unit":"%","color":"red"},{"name":"POTA shale","type":"number","value":100,"unit":"%","color":"green"},{"name":"POTA method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]}],"outputs":[{"name":"VSH_POTA","family":"Shale Volume","unit":"v/v"}]}</t>
+    <t>{ "function": "calVSHfromPOTA", "inputs": [ { "name": "Potassium", "unit": "%" } ], "parameters": [ { "name": "POTA matrix", "type": "number", "value": 10, "unit": "%", "color": "red" }, { "name": "POTA shale", "type": "number", "value": 100, "unit": "%", "color": "green" }, { "name": "POTA method", "type": "select", "value": "Linear", "choices": [ "Linear", "Larionov Tertiary rocks", "Larionov older rocks" ] } ], "outputs": [ { "name": "VSH_POTA", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Thorium</t>
   </si>
   <si>
-    <t>{"function":"calVSHfromThori","inputs":[{"name":"Thorium"}],"parameters":[{"name":"Thorium matrix","type":"number","value":10,"unit":"ppm","color":"red"},{"name":"Thorium shale","type":"number","value":100,"unit":"ppm","color":"green"},{"name":"TH method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]}],"outputs":[{"name":"VSH_Thori","family":"Shale Volume","unit":"v/v"}]}</t>
+    <t>{ "function": "calVSHfromThori", "inputs": [ { "name": "Thorium", "unit": "ppm" } ], "parameters": [ { "name": "Thorium matrix", "type": "number", "value": 10, "unit": "ppm", "color": "red" }, { "name": "Thorium shale", "type": "number", "value": 100, "unit": "ppm", "color": "green" }, { "name": "TH method", "type": "select", "value": "Linear", "choices": [ "Linear", "Larionov Tertiary rocks", "Larionov older rocks" ] } ], "outputs": [ { "name": "VSH_Thori", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Final</t>
   </si>
   <si>
-    <t>{ "function": "calVSHFinal", "multiple": true,"use_inputs":"multiple", "options": [{"name":"Bad Hole"}], "inputs": [ { "name": "Shale Volume" } ,{ "name": "Shale Volume" } ], "parameters": [ { "name": "Merge Method", "type": "select", "value": "Minimum", "choices": [ "Minimum", "Average", "Arithmetic mean", "Geometric mean", "Harmonic mean", "Median", "Maximum", "Sum" ] } ], "outputs": [ { "name": "VSH_Final", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_MIN", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_AVG", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{ "function": "calVSHFinal", "multiple": true, "use_inputs": "multiple", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Shale Volume", "unit": "v/v" }, { "name": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "Merge Method", "type": "select", "value": "Minimum", "choices": [ "Minimum", "Average", "Arithmetic mean", "Geometric mean", "Harmonic mean", "Median", "Maximum", "Sum" ] } ], "outputs": [ { "name": "VSH_Final", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_MIN", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_AVG", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Density</t>
@@ -136,13 +136,13 @@
     <t>Total Final</t>
   </si>
   <si>
-    <t>{ "function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [{ "name": "Bad Hole" }], "inputs": [{ "name": "Total Porosity" }, { "name": "Total Porosity" }], "parameters": [ ], "outputs": [ { "name": "PHIT_Final", "family": "Total Porosity", "unit": "v/v" } ] }</t>
+    <t>{ "function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Total Porosity", "unit": "v/v" }, { "name": "Total Porosity", "unit": "v/v" } ], "parameters": [], "outputs": [ { "name": "PHIT_Final", "family": "Total Porosity", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Effective Final</t>
   </si>
   <si>
-    <t>{ "function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [{ "name": "Bad Hole" }], "inputs": [{ "name": "Effective Porosity" }, { "name": "Effective Porosity" }], "parameters": [ ], "outputs": [ { "name": "PHIE_Final", "family": "Effective Porosity", "unit": "v/v" } ] }</t>
+    <t>{ "function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Effective Porosity", "unit": "v/v" }, { "name": "Effective Porosity", "unit": "v/v" } ], "parameters": [], "outputs": [ { "name": "PHIE_Final", "family": "Effective Porosity", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Archie</t>
@@ -187,7 +187,7 @@
     <t>Waxman-Smits</t>
   </si>
   <si>
-    <t>{ "function": "calSaturationWaxmanSmits", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ], "parameters": [ { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "B", "type": "number", "value": 4, "unit": "L.S/eq.m" }, { "name": "Qv", "type": "number", "value": 1, "unit": "eq/L" } ], "outputs": [ { "name": "Sw_Wax", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Wax", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Formation Temperature", "family": "Formation Temperature", "unit": "degC" } ] }</t>
+    <t>{ "function": "calSaturationWaxmanSmits", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Formation Temperature", "family": "Formation Temperature", "unit": "degC" } ], "parameters": [ { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "B", "type": "number", "value": 4, "unit": "L.S/eq.m" }, { "name": "Qv", "type": "number", "value": 1, "unit": "eq/L" } ], "outputs": [ { "name": "Sw_Wax", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Wax", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
   </si>
   <si>
     <t>Dual Water</t>
@@ -208,7 +208,7 @@
     <t>Clastic</t>
   </si>
   <si>
-    <t>{"function":"calClasticfSummation","inputs":[{"name":"Shale Volume"},{"name":"Porosity"},{"name":"Water Saturation"}],"parameters":[{"name":"Vshale Cut","type":"number","value":0.35},{"name":"Phi Cut","type":"number","value":0.15},{"name":"SW Cut","type":"number","value":0.6}],"outputs":[{"name":"NetRes","family":"Net Reservoir Flag", "unit": "UNITLESS"},{"name":"Netpay","family":"Net Pay Flag", "unit": "UNITLESS"}]}</t>
+    <t>{ "function": "calClasticfSummation", "inputs": [ { "name": "Shale Volume", "unit": "v/v" }, { "name": "Porosity", "unit": "v/v" }, { "name": "Water Saturation", "unit": "v/v" } ], "parameters": [ { "name": "Vshale Cut", "type": "number", "value": 0.35 }, { "name": "Phi Cut", "type": "number", "value": 0.15 }, { "name": "SW Cut", "type": "number", "value": 0.6 } ], "outputs": [ { "name": "NetRes", "family": "Net Reservoir Flag", "unit": "UNITLESS" }, { "name": "Netpay", "family": "Net Pay Flag", "unit": "UNITLESS" } ] }</t>
   </si>
   <si>
     <t>Multi-Mineral Solver</t>
@@ -257,7 +257,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -538,8 +538,8 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20830"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="86" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{B5ADD66B-2576-4B62-A7DC-FD9AB227AAE7}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{BD1CEDA4-B4AD-4170-8A32-A995DF4F16D4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,7 +181,7 @@
     <t>Juhasz</t>
   </si>
   <si>
-    <t>{ "function": "calSaturationJuhasz", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Juh", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Juh", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qvn", "family": "Volumetric CEC", "unit": "eq/L" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
+    <t>{ "function": "calSaturationJuhasz", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Juh", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Juh", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qvn", "family": "Volumetric CEC", "unit": "eq/L" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
   </si>
   <si>
     <t>Waxman-Smits</t>
@@ -538,8 +538,8 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="1" topLeftCell="C11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20904"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="87" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{BD1CEDA4-B4AD-4170-8A32-A995DF4F16D4}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{B0053235-684B-4998-A783-036810BE0641}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,61 +46,61 @@
     <t>Shale Volume</t>
   </si>
   <si>
-    <t>{"function":"calVSHfromGR","inputs":[{"name":"Gamma Ray","unit":"gAPI"}],"parameters":[{"name":"GR clean","type":"number","value":10,"unit":"gAPI","color":"red"},{"name":"GR shale","type":"number","value":120,"unit":"gAPI","color":"green"},{"name":"Method","type":"select","value":"Linear","choices":["Linear","Clavier","Larionov Tertiary rocks","Larionov older rocks","Stieber variation I","Stieber - Miocene and Pliocene","Stieber variation II"]}],"outputs":[{"name":"VSH_GR","family":"Shale Volume","unit":"v/v"}]}</t>
+    <t>{ "icon": "clay-volume-16x16", "function": "calVSHfromGR", "inputs": [{ "name": "Gamma Ray", "unit": "gAPI" }], "parameters": [ { "name": "GR clean", "type": "number", "value": 10, "unit": "gAPI", "color": "red" }, { "name": "GR shale", "type": "number", "value": 120, "unit": "gAPI", "color": "green" }, { "name": "Method", "type": "select", "value": "Linear", "choices": [ "Linear", "Clavier", "Larionov Tertiary rocks", "Larionov older rocks", "Stieber variation I", "Stieber - Miocene and Pliocene", "Stieber variation II" ] } ], "outputs": [{ "name": "VSH_GR", "family": "Shale Volume", "unit": "v/v" }] }</t>
   </si>
   <si>
     <t>Neutron-Density</t>
   </si>
   <si>
-    <t>{ "function": "calVSHfromND", "inputs": [ { "name": "Neutron porosity", "unit": "v/v" }, { "name": "Bulk density", "unit": "g/cm3" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "value": -0.01, "unit": "v/v" }, { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "red" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_ND", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{ "icon": "clay-volume-16x16", "function": "calVSHfromND", "inputs": [ { "name": "Neutron porosity", "unit": "v/v" }, { "name": "Bulk density", "unit": "g/cm3" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "value": -0.01, "unit": "v/v" }, { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "red" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_ND", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Neutron-Sonic</t>
   </si>
   <si>
-    <t>{ "function": "calVSHfromNS", "inputs": [ { "name": "Neutron porosity", "unit": "v/v" }, { "name": "Compressional slowness", "unit": "us/ft" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "unit": "v/v", "value": -0.01 }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "g/cm3" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "g/cm3", "color": "pink" }, { "name": "DT_clean_1", "type": "number", "value": 55, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_NS", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "clay-volume-16x16",  "function": "calVSHfromNS", "inputs": [ { "name": "Neutron porosity", "unit": "v/v" }, { "name": "Compressional slowness", "unit": "us/ft" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "unit": "v/v", "value": -0.01 }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "g/cm3" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "g/cm3", "color": "pink" }, { "name": "DT_clean_1", "type": "number", "value": 55, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_NS", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Density-Sonic</t>
   </si>
   <si>
-    <t>{ "function": "calVSHfromDS", "inputs": [ { "name": "Sonic", "unit": "v/v" }, { "name": "Compressional slowness", "unit": "us/ft" } ], "parameters": [ { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "pink" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "us/ft" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "us/ft", "color": "red" }, { "name": "DT_clean_1", "type": "number", "value": 50, "unit": "us/ft" } ], "outputs": [ { "name": "VSH_SD", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "clay-volume-16x16",  "function": "calVSHfromDS", "inputs": [ { "name": "Bulk Density", "unit": "v/v" }, { "name": "Compressional slowness", "unit": "us/ft" } ], "parameters": [ { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "pink" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "us/ft" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "us/ft", "color": "red" }, { "name": "DT_clean_1", "type": "number", "value": 50, "unit": "us/ft" } ], "outputs": [ { "name": "VSH_SD", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Resistivity</t>
   </si>
   <si>
-    <t>{ "function": "calVSHfromR", "inputs": [ { "name": "Resistivity", "unit": "ohm.m" } ], "parameters": [ { "name": "Resistivity_clean", "type": "number", "value": 10, "unit": "ohm.m", "color": "red" }, { "name": "Resistivity_shale", "type": "number", "value": 120, "unit": "ohm.m", "color": "green" }, { "name": "B exponent", "type": "number", "value": 1 }, { "name": "Equation", "type": "select", "value": "Resistivity Log", "choices": [ "Resistivity Log", "Gaymard" ] } ], "outputs": [ { "name": "VSH_RES", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "clay-volume-16x16",  "function": "calVSHfromR", "inputs": [ { "name": "Resistivity", "unit": "ohm.m" } ], "parameters": [ { "name": "Resistivity_clean", "type": "number", "value": 10, "unit": "ohm.m", "color": "red" }, { "name": "Resistivity_shale", "type": "number", "value": 120, "unit": "ohm.m", "color": "green" }, { "name": "B exponent", "type": "number", "value": 1 }, { "name": "Equation", "type": "select", "value": "Resistivity Log", "choices": [ "Resistivity Log", "Gaymard" ] } ], "outputs": [ { "name": "VSH_RES", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Spontaneous potential</t>
   </si>
   <si>
-    <t>{ "function": "calVSHfromSP", "inputs": [ { "name": "Spontaneous potential", "unit": "mV" } ], "parameters": [ { "name": "SP_clean", "type": "number", "value": 0, "unit": "mV", "color": "red" }, { "name": "SP_shale", "type": "number", "value": 100, "unit": "mV", "color": "green" } ], "outputs": [ { "name": "VSH_SP", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "clay-volume-16x16",   "function": "calVSHfromSP", "inputs": [ { "name": "Spontaneous potential", "unit": "mV" } ], "parameters": [ { "name": "SP_clean", "type": "number", "value": 0, "unit": "mV", "color": "red" }, { "name": "SP_shale", "type": "number", "value": 100, "unit": "mV", "color": "green" } ], "outputs": [ { "name": "VSH_SP", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Thermal Neutron</t>
   </si>
   <si>
-    <t>{ "function": "calVSHfromNEU", "inputs": [ { "name": "Thermal Neutron", "unit": "v/v" } ], "parameters": [ { "name": "Neutron_clean", "type": "number", "value": 0.1, "unit": "v/v", "color": "red" }, { "name": "Neutron_shale", "type": "number", "value": 0.3, "unit": "v/v", "color": "green" } ], "outputs": [ { "name": "VSH_NEU", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "clay-volume-16x16",  "function": "calVSHfromNEU", "inputs": [ { "name": "Thermal Neutron", "unit": "v/v" } ], "parameters": [ { "name": "Neutron_clean", "type": "number", "value": 0.1, "unit": "v/v", "color": "red" }, { "name": "Neutron_shale", "type": "number", "value": 0.3, "unit": "v/v", "color": "green" } ], "outputs": [ { "name": "VSH_NEU", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Potassium</t>
   </si>
   <si>
-    <t>{ "function": "calVSHfromPOTA", "inputs": [ { "name": "Potassium", "unit": "%" } ], "parameters": [ { "name": "POTA matrix", "type": "number", "value": 10, "unit": "%", "color": "red" }, { "name": "POTA shale", "type": "number", "value": 100, "unit": "%", "color": "green" }, { "name": "POTA method", "type": "select", "value": "Linear", "choices": [ "Linear", "Larionov Tertiary rocks", "Larionov older rocks" ] } ], "outputs": [ { "name": "VSH_POTA", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "clay-volume-16x16",  "function": "calVSHfromPOTA", "inputs": [ { "name": "Potassium", "unit": "%" } ], "parameters": [ { "name": "POTA matrix", "type": "number", "value": 10, "unit": "%", "color": "red" }, { "name": "POTA shale", "type": "number", "value": 100, "unit": "%", "color": "green" }, { "name": "POTA method", "type": "select", "value": "Linear", "choices": [ "Linear", "Larionov Tertiary rocks", "Larionov older rocks" ] } ], "outputs": [ { "name": "VSH_POTA", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Thorium</t>
   </si>
   <si>
-    <t>{ "function": "calVSHfromThori", "inputs": [ { "name": "Thorium", "unit": "ppm" } ], "parameters": [ { "name": "Thorium matrix", "type": "number", "value": 10, "unit": "ppm", "color": "red" }, { "name": "Thorium shale", "type": "number", "value": 100, "unit": "ppm", "color": "green" }, { "name": "TH method", "type": "select", "value": "Linear", "choices": [ "Linear", "Larionov Tertiary rocks", "Larionov older rocks" ] } ], "outputs": [ { "name": "VSH_Thori", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "clay-volume-16x16",  "function": "calVSHfromThori", "inputs": [ { "name": "Thorium", "unit": "ppm" } ], "parameters": [ { "name": "Thorium matrix", "type": "number", "value": 10, "unit": "ppm", "color": "red" }, { "name": "Thorium shale", "type": "number", "value": 100, "unit": "ppm", "color": "green" }, { "name": "TH method", "type": "select", "value": "Linear", "choices": [ "Linear", "Larionov Tertiary rocks", "Larionov older rocks" ] } ], "outputs": [ { "name": "VSH_Thori", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Final</t>
   </si>
   <si>
-    <t>{ "function": "calVSHFinal", "multiple": true, "use_inputs": "multiple", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Shale Volume", "unit": "v/v" }, { "name": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "Merge Method", "type": "select", "value": "Minimum", "choices": [ "Minimum", "Average", "Arithmetic mean", "Geometric mean", "Harmonic mean", "Median", "Maximum", "Sum" ] } ], "outputs": [ { "name": "VSH_Final", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_MIN", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_AVG", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "clay-volume-16x16",  "function": "calVSHFinal", "multiple": true, "use_inputs": "multiple", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Shale Volume", "unit": "v/v" }, { "name": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "Merge Method", "type": "select", "value": "Minimum", "choices": [ "Minimum", "Average", "Arithmetic mean", "Geometric mean", "Harmonic mean", "Median", "Maximum", "Sum" ] } ], "outputs": [ { "name": "VSH_Final", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_MIN", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_AVG", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Density</t>
@@ -109,40 +109,40 @@
     <t>Porosity</t>
   </si>
   <si>
-    <t>{"function":"calPorosityFromDensity","inputs":[{"name":"Density","family":"Bulk Density","unit":"g/cm3"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Density Matrix","type":"number","value":2.65,"unit":"g/cm3","color":"red"},{"name":"Density Fluid","type":"number","value":1,"unit":"g/cm3"},{"name":"Density Shale","type":"number","value":2.4,"unit":"d/cm3","color":"green"}],"outputs":[{"name":"PHIT_D","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_D","family":"Effective Porosity","unit":"v/v"},{"name":"RHOMMA","family":"Apparent Matrix Density","unit":"v/v"}]}</t>
+    <t>{"icon":"calculate-open-porosity-16x16","function":"calPorosityFromDensity","inputs":[{"name":"Density","family":"Bulk Density","unit":"g/cm3"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Density Matrix","type":"number","value":2.65,"unit":"g/cm3","color":"red"},{"name":"Density Fluid","type":"number","value":1,"unit":"g/cm3"},{"name":"Density Shale","type":"number","value":2.4,"unit":"d/cm3","color":"green"}],"outputs":[{"name":"PHIT_D","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_D","family":"Effective Porosity","unit":"v/v"},{"name":"RHOMMA","family":"Apparent Matrix Density","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Neutron</t>
   </si>
   <si>
-    <t>{"function":"calPorosityFromNeutron","inputs":[{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"}],"outputs":[{"name":"PHIT_N","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_N","family":"Effective Porosity","unit":"v/v"}]}</t>
+    <t>{"icon":"calculate-open-porosity-16x16","function":"calPorosityFromNeutron","inputs":[{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"}],"outputs":[{"name":"PHIT_N","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_N","family":"Effective Porosity","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Sonic</t>
   </si>
   <si>
-    <t>{"function":"calPorosityFromSonic","inputs":[{"name":"Sonic","family":"Compressional Slowness","unit":"us/ft"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Sonic Matrix","type":"number","value":55,"unit":"us/ft","color":"red"},{"name":"Sonic Fluid","type":"number","value":189,"unit":"us/ft"},{"name":"Sonic Shale","type":"number","value":110,"unit":"us/ft","color":"green"},{"name":"Sonic Method","type":"select","value":"Wyliie","choices":["Wyliie","Raymer-Hunt-Gardner"]},{"name":"Cp","type":"number","value":1}],"outputs":[{"name":"PHIT_S","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_S","family":"Effective Porosity","unit":"v/v"},{"name":"DTMMA","family":"Apparent Matrix Compressional Slowness","unit":"us/ft"}]}</t>
-  </si>
-  <si>
-    <t>{"function":"calPorosityFromNeutronSonic","inputs":[{"name":"Sonic","family":"Compressional Slowness","unit":"us/ft"},{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Sonic Matrix","type":"number","value":55,"unit":"us/ft","color":"red"},{"name":"Sonic Fluid","type":"number","value":189,"unit":"us/ft"},{"name":"Sonic Shale","type":"number","value":110,"unit":"us/ft","color":"green"},{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"},{"name":"Sonic Method","type":"select","value":"Wyliie","choices":["Wyliie","Raymer-Hunt-Gardner"]},{"name":"Cp","type":"number","value":1}],"outputs":[{"name":"PHIT_NS","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_NS","family":"Effective Porosity","unit":"v/v"},{"name":"DTMMA","family":"Apparent Matrix Compressional Slowness","unit":"us/ft"}]}</t>
+    <t>{"icon":"calculate-open-porosity-16x16","function":"calPorosityFromSonic","inputs":[{"name":"Sonic","family":"Compressional Slowness","unit":"us/ft"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Sonic Matrix","type":"number","value":55,"unit":"us/ft","color":"red"},{"name":"Sonic Fluid","type":"number","value":189,"unit":"us/ft"},{"name":"Sonic Shale","type":"number","value":110,"unit":"us/ft","color":"green"},{"name":"Sonic Method","type":"select","value":"Wyliie","choices":["Wyliie","Raymer-Hunt-Gardner"]},{"name":"Cp","type":"number","value":1}],"outputs":[{"name":"PHIT_S","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_S","family":"Effective Porosity","unit":"v/v"},{"name":"DTMMA","family":"Apparent Matrix Compressional Slowness","unit":"us/ft"}]}</t>
+  </si>
+  <si>
+    <t>{"icon":"calculate-open-porosity-16x16","function":"calPorosityFromNeutronSonic","inputs":[{"name":"Sonic","family":"Compressional Slowness","unit":"us/ft"},{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Sonic Matrix","type":"number","value":55,"unit":"us/ft","color":"red"},{"name":"Sonic Fluid","type":"number","value":189,"unit":"us/ft"},{"name":"Sonic Shale","type":"number","value":110,"unit":"us/ft","color":"green"},{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"},{"name":"Sonic Method","type":"select","value":"Wyliie","choices":["Wyliie","Raymer-Hunt-Gardner"]},{"name":"Cp","type":"number","value":1}],"outputs":[{"name":"PHIT_NS","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_NS","family":"Effective Porosity","unit":"v/v"},{"name":"DTMMA","family":"Apparent Matrix Compressional Slowness","unit":"us/ft"}]}</t>
   </si>
   <si>
     <t>Density-Neutron</t>
   </si>
   <si>
-    <t>{"function":"calPorosityFromDensityNeutron","inputs":[{"name":"Density","family":"Bulk Density","unit":"g/cm3"},{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Density Matrix","type":"number","value":2.65,"unit":"g/cm3","color":"red"},{"name":"Density Fluid","type":"number","value":1,"unit":"g/cm3"},{"name":"Density Shale","type":"number","value":2.4,"unit":"g/cm3","color":"green"},{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"}],"outputs":[{"name":"PHIT_ND","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_ND","family":"Effective Porosity","unit":"v/v"},{"name":"RHOMMA","family":"Apparent Matrix Density","unit":"v/v"}]}</t>
+    <t>{"icon":"calculate-open-porosity-16x16","function":"calPorosityFromDensityNeutron","inputs":[{"name":"Density","family":"Bulk Density","unit":"g/cm3"},{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Density Matrix","type":"number","value":2.65,"unit":"g/cm3","color":"red"},{"name":"Density Fluid","type":"number","value":1,"unit":"g/cm3"},{"name":"Density Shale","type":"number","value":2.4,"unit":"g/cm3","color":"green"},{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"}],"outputs":[{"name":"PHIT_ND","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_ND","family":"Effective Porosity","unit":"v/v"},{"name":"RHOMMA","family":"Apparent Matrix Density","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Total Final</t>
   </si>
   <si>
-    <t>{ "function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Total Porosity", "unit": "v/v" }, { "name": "Total Porosity", "unit": "v/v" } ], "parameters": [], "outputs": [ { "name": "PHIT_Final", "family": "Total Porosity", "unit": "v/v" } ] }</t>
+    <t>{"icon":"calculate-open-porosity-16x16", "function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Total Porosity", "unit": "v/v" }, { "name": "Total Porosity", "unit": "v/v" } ], "parameters": [], "outputs": [ { "name": "PHIT_Final", "family": "Total Porosity", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Effective Final</t>
   </si>
   <si>
-    <t>{ "function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Effective Porosity", "unit": "v/v" }, { "name": "Effective Porosity", "unit": "v/v" } ], "parameters": [], "outputs": [ { "name": "PHIE_Final", "family": "Effective Porosity", "unit": "v/v" } ] }</t>
+    <t>{"icon":"calculate-open-porosity-16x16", "function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Effective Porosity", "unit": "v/v" }, { "name": "Effective Porosity", "unit": "v/v" } ], "parameters": [], "outputs": [ { "name": "PHIE_Final", "family": "Effective Porosity", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Archie</t>
@@ -151,55 +151,55 @@
     <t>Water Saturation</t>
   </si>
   <si>
-    <t>{ "function": "calSaturationArchie", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Ar", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Ar", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Ar", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Ar", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
+    <t>{ "icon": "water-saturation-16x16","function": "calSaturationArchie", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Ar", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Ar", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Ar", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Ar", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
   </si>
   <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>{ "function": "calSaturationIndonesia", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Ind", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Ind", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Ind", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Ind", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
+    <t>{"icon": "water-saturation-16x16", "function": "calSaturationIndonesia", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Ind", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Ind", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Ind", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Ind", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
   </si>
   <si>
     <t>Modified Indonesia</t>
   </si>
   <si>
-    <t>{ "function": "calSaturationModifiedIndonesia", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Imo", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Imo", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Imo", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Imo", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
+    <t>{"icon": "water-saturation-16x16", "function": "calSaturationModifiedIndonesia", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Imo", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Imo", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Imo", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Imo", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
   </si>
   <si>
     <t>Simandoux</t>
   </si>
   <si>
-    <t>{ "function": "calSaturationSimandoux", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Sim", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Sim", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Sim", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Sim", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
+    <t>{ "icon": "water-saturation-16x16","function": "calSaturationSimandoux", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Sim", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Sim", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Sim", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Sim", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
   </si>
   <si>
     <t>Modified Simandoux</t>
   </si>
   <si>
-    <t>{ "function": "calSaturationModifiedSimandoux", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Smo", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Smo", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Smo", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Smo", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
+    <t>{"icon": "water-saturation-16x16", "function": "calSaturationModifiedSimandoux", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Smo", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Smo", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Smo", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Smo", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
   </si>
   <si>
     <t>Juhasz</t>
   </si>
   <si>
-    <t>{ "function": "calSaturationJuhasz", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Juh", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Juh", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qvn", "family": "Volumetric CEC", "unit": "eq/L" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
+    <t>{"icon": "water-saturation-16x16", "function": "calSaturationJuhasz", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Juh", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Juh", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qvn", "family": "Volumetric CEC", "unit": "eq/L" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
   </si>
   <si>
     <t>Waxman-Smits</t>
   </si>
   <si>
-    <t>{ "function": "calSaturationWaxmanSmits", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Formation Temperature", "family": "Formation Temperature", "unit": "degC" } ], "parameters": [ { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "B", "type": "number", "value": 4, "unit": "L.S/eq.m" }, { "name": "Qv", "type": "number", "value": 1, "unit": "eq/L" } ], "outputs": [ { "name": "Sw_Wax", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Wax", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
+    <t>{"icon": "water-saturation-16x16", "function": "calSaturationWaxmanSmits", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Formation Temperature", "family": "Formation Temperature", "unit": "degC" } ], "parameters": [ { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "B", "type": "number", "value": 4, "unit": "L.S/eq.m" }, { "name": "Qv", "type": "number", "value": 1, "unit": "eq/L" } ], "outputs": [ { "name": "Sw_Wax", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Wax", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
   </si>
   <si>
     <t>Dual Water</t>
   </si>
   <si>
-    <t>{ "function": "calSaturationDualWater", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Total Porosity", "family": "Total Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.125, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Dua", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Dua", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Dua", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Dua", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qv", "family": "Volumetric CEC", "unit": "eq/L" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
+    <t>{"icon": "water-saturation-16x16", "function": "calSaturationDualWater", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Total Porosity", "family": "Total Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.125, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Dua", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Dua", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Dua", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Dua", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qv", "family": "Volumetric CEC", "unit": "eq/L" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
   </si>
   <si>
     <t>Effective Water Saturation</t>
   </si>
   <si>
-    <t>{"function":"calSaturationEffective","inputs":[{"name":"Total Porosity","family":"Total Porosity","unit":"v/v"},{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},{"name":"Total Saturation","unit":"v/v"}],"parameters":[],"outputs":[{"name":"Sw_E","family":"Water Saturation","unit":"v/v"},{"name":"Bvw_E","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+    <t>{"icon": "water-saturation-16x16","function":"calSaturationEffective","inputs":[{"name":"Total Porosity","family":"Total Porosity","unit":"v/v"},{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},{"name":"Total Saturation","unit":"v/v"}],"parameters":[],"outputs":[{"name":"Sw_E","family":"Water Saturation","unit":"v/v"},{"name":"Bvw_E","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Summation</t>
@@ -208,13 +208,13 @@
     <t>Clastic</t>
   </si>
   <si>
-    <t>{ "function": "calClasticfSummation", "inputs": [ { "name": "Shale Volume", "unit": "v/v" }, { "name": "Porosity", "unit": "v/v" }, { "name": "Water Saturation", "unit": "v/v" } ], "parameters": [ { "name": "Vshale Cut", "type": "number", "value": 0.35 }, { "name": "Phi Cut", "type": "number", "value": 0.15 }, { "name": "SW Cut", "type": "number", "value": 0.6 } ], "outputs": [ { "name": "NetRes", "family": "Net Reservoir Flag", "unit": "UNITLESS" }, { "name": "Netpay", "family": "Net Pay Flag", "unit": "UNITLESS" } ] }</t>
+    <t>{"icon": "summation-16x16", "function": "calClasticfSummation", "inputs": [ { "name": "Shale Volume", "unit": "v/v" }, { "name": "Porosity", "unit": "v/v" }, { "name": "Water Saturation", "unit": "v/v" } ], "parameters": [ { "name": "Vshale Cut", "type": "number", "value": 0.35 }, { "name": "Phi Cut", "type": "number", "value": 0.15 }, { "name": "SW Cut", "type": "number", "value": 0.6 } ], "outputs": [ { "name": "NetRes", "family": "Net Reservoir Flag", "unit": "UNITLESS" }, { "name": "Netpay", "family": "Net Pay Flag", "unit": "UNITLESS" } ] }</t>
   </si>
   <si>
     <t>Multi-Mineral Solver</t>
   </si>
   <si>
-    <t>{"function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"DT":["Peak Slowness","Peak Travel Time","Travel Time","Compressional Slowness","DTC.*","DT","SON.*","AC","DTTP.*","Acoustic"],"RHOB":["Bulk Density","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Corrected ZDL Density","DEN.*","RHOB","RHOZ","ZDEN.*","RHOZ","LDEN","Density"],"GR":["Gamma Ray","Gamma Ray 1","Gamma Ray Normalised","Gamma Ray Shale","Gamma Ray Squared","Russian Gamma Ray","PLT Gamma Ray","GR.*","ECGR.*","SGRC.*","GAM.*","HGR","EGR","SGR"],"NPHI":["Thermal Neutron Near Far Ratio","Compensated Neutron Porosity","Epithermal Neutron Porosity","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Russian Thermal Neutron Porosity","Thermal Neutron Porosity","NEU.*","TNP.*","NPHI.*","CNL.*","CNT.*","Porosity"],"POT":["Potassium Capture Relative Yield","Potassium Concentration","Potassium Radio Nuclide Activity","POT.*","Weight Fraction - Element"],"THOR":["Thorium Concentration","Thorium Radio Nuclide Activity","THOR.*"],"URAN":["Uranium Concentration","Uranium Radio Nuclide Activity","URA.*"],"PAI":[".*"]},"outputFromParameter":true,"outputs":[],"outputConfig":{"family":"Mineral Volume","unit":"v/v","prefix":"V_","use":true}}</t>
+    <t>{"icon": "multi-mineral-solver-16x16","function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"DT":["Peak Slowness","Peak Travel Time","Travel Time","Compressional Slowness","DTC.*","DT","SON.*","AC","DTTP.*","Acoustic"],"RHOB":["Bulk Density","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Corrected ZDL Density","DEN.*","RHOB","RHOZ","ZDEN.*","RHOZ","LDEN","Density"],"GR":["Gamma Ray","Gamma Ray 1","Gamma Ray Normalised","Gamma Ray Shale","Gamma Ray Squared","Russian Gamma Ray","PLT Gamma Ray","GR.*","ECGR.*","SGRC.*","GAM.*","HGR","EGR","SGR"],"NPHI":["Thermal Neutron Near Far Ratio","Compensated Neutron Porosity","Epithermal Neutron Porosity","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Russian Thermal Neutron Porosity","Thermal Neutron Porosity","NEU.*","TNP.*","NPHI.*","CNL.*","CNT.*","Porosity"],"POT":["Potassium Capture Relative Yield","Potassium Concentration","Potassium Radio Nuclide Activity","POT.*","Weight Fraction - Element"],"THOR":["Thorium Concentration","Thorium Radio Nuclide Activity","THOR.*"],"URAN":["Uranium Concentration","Uranium Radio Nuclide Activity","URA.*"],"PAI":[".*"]},"outputFromParameter":true,"outputs":[],"outputConfig":{"family":"Mineral Volume","unit":"v/v","prefix":"V_","use":true}}</t>
   </si>
 </sst>
 </file>
@@ -257,7 +257,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -538,8 +538,8 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="C11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20904"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="119" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{B0053235-684B-4998-A783-036810BE0641}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{340EA64B-F4D5-43EC-9716-D0653C93233D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,13 +58,13 @@
     <t>Neutron-Sonic</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16",  "function": "calVSHfromNS", "inputs": [ { "name": "Neutron porosity", "unit": "v/v" }, { "name": "Compressional slowness", "unit": "us/ft" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "unit": "v/v", "value": -0.01 }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "g/cm3" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "g/cm3", "color": "pink" }, { "name": "DT_clean_1", "type": "number", "value": 55, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_NS", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "clay-volume-16x16",  "function": "calVSHfromNS", "inputs": [ { "name": "Neutron porosity", "unit": "v/v" }, { "name": "Compressional slowness", "unit": "us/ft" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "unit": "v/v", "value": -0.01 }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "g/cm3" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "g/cm3", "color": "pink" }, { "name": "DT_clean_1", "type": "number", "value": 55, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_NS", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Density-Sonic</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16",  "function": "calVSHfromDS", "inputs": [ { "name": "Bulk Density", "unit": "v/v" }, { "name": "Compressional slowness", "unit": "us/ft" } ], "parameters": [ { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "pink" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "us/ft" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "us/ft", "color": "red" }, { "name": "DT_clean_1", "type": "number", "value": 50, "unit": "us/ft" } ], "outputs": [ { "name": "VSH_SD", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{ "icon": "clay-volume-16x16", "function": "calVSHfromDS", "inputs": [ { "name": "Bulk Density", "unit": "v/v" }, { "name": "Compressional slowness", "unit": "us/ft" } ], "parameters": [ { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "pink" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "us/ft" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "us/ft", "color": "red" }, { "name": "DT_clean_1", "type": "number", "value": 50, "unit": "us/ft" } ], "outputs": [ { "name": "VSH_SD", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Resistivity</t>
@@ -257,7 +257,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -539,7 +539,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20904"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="122" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{340EA64B-F4D5-43EC-9716-D0653C93233D}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{5CC9F196-21CF-4CB4-8747-F9A0CD682804}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,61 +46,61 @@
     <t>Shale Volume</t>
   </si>
   <si>
-    <t>{ "icon": "clay-volume-16x16", "function": "calVSHfromGR", "inputs": [{ "name": "Gamma Ray", "unit": "gAPI" }], "parameters": [ { "name": "GR clean", "type": "number", "value": 10, "unit": "gAPI", "color": "red" }, { "name": "GR shale", "type": "number", "value": 120, "unit": "gAPI", "color": "green" }, { "name": "Method", "type": "select", "value": "Linear", "choices": [ "Linear", "Clavier", "Larionov Tertiary rocks", "Larionov older rocks", "Stieber variation I", "Stieber - Miocene and Pliocene", "Stieber variation II" ] } ], "outputs": [{ "name": "VSH_GR", "family": "Shale Volume", "unit": "v/v" }] }</t>
+    <t>{ "icon": "clay-volume-16x16","function": "calVSHfromGR", "inputs": [ { "name": "Gamma Ray", "unit": "gAPI" } ], "parameters": [ { "name": "GR clean", "type": "number", "value": 10, "unit": "gAPI", "color": "red" }, { "name": "GR shale", "type": "number", "value": 120, "unit": "gAPI", "color": "green" }, { "name": "Method", "type": "select", "value": "Linear", "choices": [ "Linear", "Clavier", "Larionov Tertiary rocks", "Larionov older rocks", "Stieber variation I", "Stieber - Miocene and Pliocene", "Stieber variation II" ] } ], "outputs": [ { "name": "VSH_GR", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Neutron-Density</t>
   </si>
   <si>
-    <t>{ "icon": "clay-volume-16x16", "function": "calVSHfromND", "inputs": [ { "name": "Neutron porosity", "unit": "v/v" }, { "name": "Bulk density", "unit": "g/cm3" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "value": -0.01, "unit": "v/v" }, { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "red" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_ND", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{ "icon": "clay-volume-16x16","function": "calVSHfromND", "inputs": [ { "name": "Neutron porosity", "unit": "v/v" }, { "name": "Bulk density", "unit": "g/cm3" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "value": -0.01, "unit": "v/v" }, { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "red" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_ND", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Neutron-Sonic</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16",  "function": "calVSHfromNS", "inputs": [ { "name": "Neutron porosity", "unit": "v/v" }, { "name": "Compressional slowness", "unit": "us/ft" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "unit": "v/v", "value": -0.01 }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "g/cm3" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "g/cm3", "color": "pink" }, { "name": "DT_clean_1", "type": "number", "value": 55, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_NS", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "clay-volume-16x16","function": "calVSHfromNS", "inputs": [ { "name": "Neutron porosity", "unit": "v/v" }, { "name": "Compressional slowness", "unit": "us/ft" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "unit": "v/v", "value": -0.01 }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "g/cm3" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "g/cm3", "color": "pink" }, { "name": "DT_clean_1", "type": "number", "value": 55, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_NS", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Density-Sonic</t>
   </si>
   <si>
-    <t>{ "icon": "clay-volume-16x16", "function": "calVSHfromDS", "inputs": [ { "name": "Bulk Density", "unit": "v/v" }, { "name": "Compressional slowness", "unit": "us/ft" } ], "parameters": [ { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "pink" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "us/ft" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "us/ft", "color": "red" }, { "name": "DT_clean_1", "type": "number", "value": 50, "unit": "us/ft" } ], "outputs": [ { "name": "VSH_SD", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{ "icon": "clay-volume-16x16","function": "calVSHfromDS", "inputs": [ { "name": "Bulk Density", "unit": "v/v" }, { "name": "Compressional slowness", "unit": "us/ft" } ], "parameters": [ { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "pink" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "us/ft" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "us/ft", "color": "red" }, { "name": "DT_clean_1", "type": "number", "value": 50, "unit": "us/ft" } ], "outputs": [ { "name": "VSH_SD", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Resistivity</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16",  "function": "calVSHfromR", "inputs": [ { "name": "Resistivity", "unit": "ohm.m" } ], "parameters": [ { "name": "Resistivity_clean", "type": "number", "value": 10, "unit": "ohm.m", "color": "red" }, { "name": "Resistivity_shale", "type": "number", "value": 120, "unit": "ohm.m", "color": "green" }, { "name": "B exponent", "type": "number", "value": 1 }, { "name": "Equation", "type": "select", "value": "Resistivity Log", "choices": [ "Resistivity Log", "Gaymard" ] } ], "outputs": [ { "name": "VSH_RES", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "clay-volume-16x16","function": "calVSHfromR", "inputs": [ { "name": "Resistivity", "unit": "ohm.m" } ], "parameters": [ { "name": "Resistivity_clean", "type": "number", "value": 10, "unit": "ohm.m", "color": "red" }, { "name": "Resistivity_shale", "type": "number", "value": 120, "unit": "ohm.m", "color": "green" }, { "name": "B exponent", "type": "number", "value": 1 }, { "name": "Equation", "type": "select", "value": "Resistivity Log", "choices": [ "Resistivity Log", "Gaymard" ] } ], "outputs": [ { "name": "VSH_RES", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Spontaneous potential</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16",   "function": "calVSHfromSP", "inputs": [ { "name": "Spontaneous potential", "unit": "mV" } ], "parameters": [ { "name": "SP_clean", "type": "number", "value": 0, "unit": "mV", "color": "red" }, { "name": "SP_shale", "type": "number", "value": 100, "unit": "mV", "color": "green" } ], "outputs": [ { "name": "VSH_SP", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "clay-volume-16x16","function": "calVSHfromSP", "inputs": [ { "name": "Spontaneous potential", "unit": "mV" } ], "parameters": [ { "name": "SP_clean", "type": "number", "value": 0, "unit": "mV", "color": "red" }, { "name": "SP_shale", "type": "number", "value": 100, "unit": "mV", "color": "green" } ], "outputs": [ { "name": "VSH_SP", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Thermal Neutron</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16",  "function": "calVSHfromNEU", "inputs": [ { "name": "Thermal Neutron", "unit": "v/v" } ], "parameters": [ { "name": "Neutron_clean", "type": "number", "value": 0.1, "unit": "v/v", "color": "red" }, { "name": "Neutron_shale", "type": "number", "value": 0.3, "unit": "v/v", "color": "green" } ], "outputs": [ { "name": "VSH_NEU", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "clay-volume-16x16","function": "calVSHfromNEU", "inputs": [ { "name": "Thermal Neutron", "unit": "v/v" } ], "parameters": [ { "name": "Neutron_clean", "type": "number", "value": 0.1, "unit": "v/v", "color": "red" }, { "name": "Neutron_shale", "type": "number", "value": 0.3, "unit": "v/v", "color": "green" } ], "outputs": [ { "name": "VSH_NEU", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Potassium</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16",  "function": "calVSHfromPOTA", "inputs": [ { "name": "Potassium", "unit": "%" } ], "parameters": [ { "name": "POTA matrix", "type": "number", "value": 10, "unit": "%", "color": "red" }, { "name": "POTA shale", "type": "number", "value": 100, "unit": "%", "color": "green" }, { "name": "POTA method", "type": "select", "value": "Linear", "choices": [ "Linear", "Larionov Tertiary rocks", "Larionov older rocks" ] } ], "outputs": [ { "name": "VSH_POTA", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "clay-volume-16x16","function": "calVSHfromPOTA", "inputs": [ { "name": "Potassium", "unit": "%" } ], "parameters": [ { "name": "POTA matrix", "type": "number", "value": 10, "unit": "%", "color": "red" }, { "name": "POTA shale", "type": "number", "value": 100, "unit": "%", "color": "green" }, { "name": "POTA method", "type": "select", "value": "Linear", "choices": [ "Linear", "Larionov Tertiary rocks", "Larionov older rocks" ] } ], "outputs": [ { "name": "VSH_POTA", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Thorium</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16",  "function": "calVSHfromThori", "inputs": [ { "name": "Thorium", "unit": "ppm" } ], "parameters": [ { "name": "Thorium matrix", "type": "number", "value": 10, "unit": "ppm", "color": "red" }, { "name": "Thorium shale", "type": "number", "value": 100, "unit": "ppm", "color": "green" }, { "name": "TH method", "type": "select", "value": "Linear", "choices": [ "Linear", "Larionov Tertiary rocks", "Larionov older rocks" ] } ], "outputs": [ { "name": "VSH_Thori", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "clay-volume-16x16","function": "calVSHfromThori", "inputs": [ { "name": "Thorium", "unit": "ppm" } ], "parameters": [ { "name": "Thorium matrix", "type": "number", "value": 10, "unit": "ppm", "color": "red" }, { "name": "Thorium shale", "type": "number", "value": 100, "unit": "ppm", "color": "green" }, { "name": "TH method", "type": "select", "value": "Linear", "choices": [ "Linear", "Larionov Tertiary rocks", "Larionov older rocks" ] } ], "outputs": [ { "name": "VSH_Thori", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Final</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16",  "function": "calVSHFinal", "multiple": true, "use_inputs": "multiple", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Shale Volume", "unit": "v/v" }, { "name": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "Merge Method", "type": "select", "value": "Minimum", "choices": [ "Minimum", "Average", "Arithmetic mean", "Geometric mean", "Harmonic mean", "Median", "Maximum", "Sum" ] } ], "outputs": [ { "name": "VSH_Final", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_MIN", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_AVG", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "clay-volume-16x16","function": "calVSHFinal", "multiple": true, "use_inputs": "multiple", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Shale Volume", "unit": "v/v" }, { "name": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "Merge Method", "type": "select", "value": "Minimum", "choices": [ "Minimum", "Average", "Arithmetic mean", "Geometric mean", "Harmonic mean", "Median", "Maximum", "Sum" ] } ], "outputs": [ { "name": "VSH_Final", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_MIN", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_AVG", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Density</t>
@@ -136,13 +136,13 @@
     <t>Total Final</t>
   </si>
   <si>
-    <t>{"icon":"calculate-open-porosity-16x16", "function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Total Porosity", "unit": "v/v" }, { "name": "Total Porosity", "unit": "v/v" } ], "parameters": [], "outputs": [ { "name": "PHIT_Final", "family": "Total Porosity", "unit": "v/v" } ] }</t>
+    <t>{"icon":"calculate-open-porosity-16x16","function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Total Porosity", "unit": "v/v" }, { "name": "Total Porosity", "unit": "v/v" } ], "parameters": [], "outputs": [ { "name": "PHIT_Final", "family": "Total Porosity", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Effective Final</t>
   </si>
   <si>
-    <t>{"icon":"calculate-open-porosity-16x16", "function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Effective Porosity", "unit": "v/v" }, { "name": "Effective Porosity", "unit": "v/v" } ], "parameters": [], "outputs": [ { "name": "PHIE_Final", "family": "Effective Porosity", "unit": "v/v" } ] }</t>
+    <t>{"icon":"calculate-open-porosity-16x16","function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Effective Porosity", "unit": "v/v" }, { "name": "Effective Porosity", "unit": "v/v" } ], "parameters": [], "outputs": [ { "name": "PHIE_Final", "family": "Effective Porosity", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Archie</t>
@@ -157,13 +157,13 @@
     <t>Indonesia</t>
   </si>
   <si>
-    <t>{"icon": "water-saturation-16x16", "function": "calSaturationIndonesia", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Ind", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Ind", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Ind", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Ind", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
+    <t>{"icon": "water-saturation-16x16","function": "calSaturationIndonesia", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Ind", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Ind", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Ind", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Ind", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
   </si>
   <si>
     <t>Modified Indonesia</t>
   </si>
   <si>
-    <t>{"icon": "water-saturation-16x16", "function": "calSaturationModifiedIndonesia", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Imo", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Imo", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Imo", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Imo", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
+    <t>{"icon": "water-saturation-16x16","function": "calSaturationModifiedIndonesia", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Imo", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Imo", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Imo", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Imo", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
   </si>
   <si>
     <t>Simandoux</t>
@@ -175,25 +175,25 @@
     <t>Modified Simandoux</t>
   </si>
   <si>
-    <t>{"icon": "water-saturation-16x16", "function": "calSaturationModifiedSimandoux", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Smo", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Smo", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Smo", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Smo", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
+    <t>{"icon": "water-saturation-16x16","function": "calSaturationModifiedSimandoux", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Smo", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Smo", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Smo", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Smo", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
   </si>
   <si>
     <t>Juhasz</t>
   </si>
   <si>
-    <t>{"icon": "water-saturation-16x16", "function": "calSaturationJuhasz", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Juh", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Juh", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qvn", "family": "Volumetric CEC", "unit": "eq/L" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
+    <t>{"icon": "water-saturation-16x16","function": "calSaturationJuhasz", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Juh", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Juh", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qvn", "family": "Volumetric CEC", "unit": "eq/L" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
   </si>
   <si>
     <t>Waxman-Smits</t>
   </si>
   <si>
-    <t>{"icon": "water-saturation-16x16", "function": "calSaturationWaxmanSmits", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Formation Temperature", "family": "Formation Temperature", "unit": "degC" } ], "parameters": [ { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "B", "type": "number", "value": 4, "unit": "L.S/eq.m" }, { "name": "Qv", "type": "number", "value": 1, "unit": "eq/L" } ], "outputs": [ { "name": "Sw_Wax", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Wax", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
+    <t>{"icon": "water-saturation-16x16","function": "calSaturationWaxmanSmits", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Formation Temperature", "family": "Formation Temperature", "unit": "degC" } ], "parameters": [ { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "B", "type": "number", "value": 4, "unit": "L.S/eq.m" }, { "name": "Qv", "type": "number", "value": 1, "unit": "eq/L" } ], "outputs": [ { "name": "Sw_Wax", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Wax", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
   </si>
   <si>
     <t>Dual Water</t>
   </si>
   <si>
-    <t>{"icon": "water-saturation-16x16", "function": "calSaturationDualWater", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Total Porosity", "family": "Total Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.125, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Dua", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Dua", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Dua", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Dua", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qv", "family": "Volumetric CEC", "unit": "eq/L" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
+    <t>{"icon": "water-saturation-16x16","function": "calSaturationDualWater", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Total Porosity", "family": "Total Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.125, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Dua", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Dua", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Dua", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Dua", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qv", "family": "Volumetric CEC", "unit": "eq/L" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
   </si>
   <si>
     <t>Effective Water Saturation</t>
@@ -208,7 +208,7 @@
     <t>Clastic</t>
   </si>
   <si>
-    <t>{"icon": "summation-16x16", "function": "calClasticfSummation", "inputs": [ { "name": "Shale Volume", "unit": "v/v" }, { "name": "Porosity", "unit": "v/v" }, { "name": "Water Saturation", "unit": "v/v" } ], "parameters": [ { "name": "Vshale Cut", "type": "number", "value": 0.35 }, { "name": "Phi Cut", "type": "number", "value": 0.15 }, { "name": "SW Cut", "type": "number", "value": 0.6 } ], "outputs": [ { "name": "NetRes", "family": "Net Reservoir Flag", "unit": "UNITLESS" }, { "name": "Netpay", "family": "Net Pay Flag", "unit": "UNITLESS" } ] }</t>
+    <t>{"icon": "summation-16x16","function": "calClasticfSummation", "inputs": [ { "name": "Shale Volume", "unit": "v/v" }, { "name": "Porosity", "unit": "v/v" }, { "name": "Water Saturation", "unit": "v/v" } ], "parameters": [ { "name": "Vshale Cut", "type": "number", "value": 0.35 }, { "name": "Phi Cut", "type": "number", "value": 0.15 }, { "name": "SW Cut", "type": "number", "value": 0.6 } ], "outputs": [ { "name": "NetRes", "family": "Net Reservoir Flag", "unit": "UNITLESS" }, { "name": "Netpay", "family": "Net Pay Flag", "unit": "UNITLESS" } ] }</t>
   </si>
   <si>
     <t>Multi-Mineral Solver</t>
@@ -539,7 +539,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20904"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="143" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{5CC9F196-21CF-4CB4-8747-F9A0CD682804}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{839F79AE-7D5F-4DF6-9EF2-672191C8D3A7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,61 +46,61 @@
     <t>Shale Volume</t>
   </si>
   <si>
-    <t>{ "icon": "clay-volume-16x16","function": "calVSHfromGR", "inputs": [ { "name": "Gamma Ray", "unit": "gAPI" } ], "parameters": [ { "name": "GR clean", "type": "number", "value": 10, "unit": "gAPI", "color": "red" }, { "name": "GR shale", "type": "number", "value": 120, "unit": "gAPI", "color": "green" }, { "name": "Method", "type": "select", "value": "Linear", "choices": [ "Linear", "Clavier", "Larionov Tertiary rocks", "Larionov older rocks", "Stieber variation I", "Stieber - Miocene and Pliocene", "Stieber variation II" ] } ], "outputs": [ { "name": "VSH_GR", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{ "icon": "clay-volume-16x16","function": "calVSHfromGR", "inputs": [ { "name": "Gamma Ray", "unit": "gAPI","family": "Gamma Ray" } ], "parameters": [ { "name": "GR clean", "type": "number", "value": 10, "unit": "gAPI", "color": "red" }, { "name": "GR shale", "type": "number", "value": 120, "unit": "gAPI", "color": "green" }, { "name": "Method", "type": "select", "value": "Linear", "choices": [ "Linear", "Clavier", "Larionov Tertiary rocks", "Larionov older rocks", "Stieber variation I", "Stieber - Miocene and Pliocene", "Stieber variation II" ] } ], "outputs": [ { "name": "VSH_GR", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Neutron-Density</t>
   </si>
   <si>
-    <t>{ "icon": "clay-volume-16x16","function": "calVSHfromND", "inputs": [ { "name": "Neutron porosity", "unit": "v/v" }, { "name": "Bulk density", "unit": "g/cm3" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "value": -0.01, "unit": "v/v" }, { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "red" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_ND", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{ "icon": "clay-volume-16x16","function": "calVSHfromND", "inputs": [ { "name": "Neutron Porosity", "unit": "v/v","family": "Neutron Porosity" }, { "name": "Bulk Density", "unit": "g/cm3", "family": "Bulk Density" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "value": -0.01, "unit": "v/v" }, { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "red" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_ND", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Neutron-Sonic</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16","function": "calVSHfromNS", "inputs": [ { "name": "Neutron porosity", "unit": "v/v" }, { "name": "Compressional slowness", "unit": "us/ft" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "unit": "v/v", "value": -0.01 }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "g/cm3" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "g/cm3", "color": "pink" }, { "name": "DT_clean_1", "type": "number", "value": 55, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_NS", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "clay-volume-16x16","function": "calVSHfromNS", "inputs": [ { "name": "Neutron Porosity", "unit": "v/v", "family": "Neutron Porosity" }, { "name": "Compressional Slowness", "unit": "us/ft", "family": "Compressional Slowness" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "unit": "v/v", "value": -0.01 }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "g/cm3" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "g/cm3", "color": "pink" }, { "name": "DT_clean_1", "type": "number", "value": 55, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_NS", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Density-Sonic</t>
   </si>
   <si>
-    <t>{ "icon": "clay-volume-16x16","function": "calVSHfromDS", "inputs": [ { "name": "Bulk Density", "unit": "v/v" }, { "name": "Compressional slowness", "unit": "us/ft" } ], "parameters": [ { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "pink" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "us/ft" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "us/ft", "color": "red" }, { "name": "DT_clean_1", "type": "number", "value": 50, "unit": "us/ft" } ], "outputs": [ { "name": "VSH_SD", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{ "icon": "clay-volume-16x16","function": "calVSHfromDS", "inputs": [ { "name": "Bulk Density", "unit": "v/v", "family": "Bulk Density" }, { "name": "Compressional Slowness", "unit": "us/ft", "family": "Compressional Slowness" } ], "parameters": [ { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "pink" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "us/ft" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "us/ft", "color": "red" }, { "name": "DT_clean_1", "type": "number", "value": 50, "unit": "us/ft" } ], "outputs": [ { "name": "VSH_SD", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Resistivity</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16","function": "calVSHfromR", "inputs": [ { "name": "Resistivity", "unit": "ohm.m" } ], "parameters": [ { "name": "Resistivity_clean", "type": "number", "value": 10, "unit": "ohm.m", "color": "red" }, { "name": "Resistivity_shale", "type": "number", "value": 120, "unit": "ohm.m", "color": "green" }, { "name": "B exponent", "type": "number", "value": 1 }, { "name": "Equation", "type": "select", "value": "Resistivity Log", "choices": [ "Resistivity Log", "Gaymard" ] } ], "outputs": [ { "name": "VSH_RES", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "clay-volume-16x16","function": "calVSHfromR", "inputs": [ { "name": "Resistivity", "unit": "ohm.m", "family": "Resistivity" } ], "parameters": [ { "name": "Resistivity_clean", "type": "number", "value": 10, "unit": "ohm.m", "color": "red" }, { "name": "Resistivity_shale", "type": "number", "value": 120, "unit": "ohm.m", "color": "green" }, { "name": "B exponent", "type": "number", "value": 1 }, { "name": "Equation", "type": "select", "value": "Resistivity Log", "choices": [ "Resistivity Log", "Gaymard" ] } ], "outputs": [ { "name": "VSH_RES", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Spontaneous potential</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16","function": "calVSHfromSP", "inputs": [ { "name": "Spontaneous potential", "unit": "mV" } ], "parameters": [ { "name": "SP_clean", "type": "number", "value": 0, "unit": "mV", "color": "red" }, { "name": "SP_shale", "type": "number", "value": 100, "unit": "mV", "color": "green" } ], "outputs": [ { "name": "VSH_SP", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "clay-volume-16x16","function": "calVSHfromSP", "inputs": [ { "name": "Spontaneous Potential", "unit": "mV", "family": "Spontaneous Potential" } ], "parameters": [ { "name": "SP_clean", "type": "number", "value": 0, "unit": "mV", "color": "red" }, { "name": "SP_shale", "type": "number", "value": 100, "unit": "mV", "color": "green" } ], "outputs": [ { "name": "VSH_SP", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Thermal Neutron</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16","function": "calVSHfromNEU", "inputs": [ { "name": "Thermal Neutron", "unit": "v/v" } ], "parameters": [ { "name": "Neutron_clean", "type": "number", "value": 0.1, "unit": "v/v", "color": "red" }, { "name": "Neutron_shale", "type": "number", "value": 0.3, "unit": "v/v", "color": "green" } ], "outputs": [ { "name": "VSH_NEU", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "clay-volume-16x16","function": "calVSHfromNEU", "inputs": [ { "name": "Thermal Neutron", "unit": "v/v", "family": "Thermal Neutron Porosity" } ], "parameters": [ { "name": "Neutron_clean", "type": "number", "value": 0.1, "unit": "v/v", "color": "red" }, { "name": "Neutron_shale", "type": "number", "value": 0.3, "unit": "v/v", "color": "green" } ], "outputs": [ { "name": "VSH_NEU", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Potassium</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16","function": "calVSHfromPOTA", "inputs": [ { "name": "Potassium", "unit": "%" } ], "parameters": [ { "name": "POTA matrix", "type": "number", "value": 10, "unit": "%", "color": "red" }, { "name": "POTA shale", "type": "number", "value": 100, "unit": "%", "color": "green" }, { "name": "POTA method", "type": "select", "value": "Linear", "choices": [ "Linear", "Larionov Tertiary rocks", "Larionov older rocks" ] } ], "outputs": [ { "name": "VSH_POTA", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "clay-volume-16x16","function": "calVSHfromPOTA", "inputs": [ { "name": "Potassium", "unit": "%", "family": "Potassium Concentration" } ], "parameters": [ { "name": "POTA matrix", "type": "number", "value": 10, "unit": "%", "color": "red" }, { "name": "POTA shale", "type": "number", "value": 100, "unit": "%", "color": "green" }, { "name": "POTA method", "type": "select", "value": "Linear", "choices": [ "Linear", "Larionov Tertiary rocks", "Larionov older rocks" ] } ], "outputs": [ { "name": "VSH_POTA", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Thorium</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16","function": "calVSHfromThori", "inputs": [ { "name": "Thorium", "unit": "ppm" } ], "parameters": [ { "name": "Thorium matrix", "type": "number", "value": 10, "unit": "ppm", "color": "red" }, { "name": "Thorium shale", "type": "number", "value": 100, "unit": "ppm", "color": "green" }, { "name": "TH method", "type": "select", "value": "Linear", "choices": [ "Linear", "Larionov Tertiary rocks", "Larionov older rocks" ] } ], "outputs": [ { "name": "VSH_Thori", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "clay-volume-16x16","function": "calVSHfromThori", "inputs": [ { "name": "Thorium", "unit": "ppm", "family": "Thorium Concentration" } ], "parameters": [ { "name": "Thorium matrix", "type": "number", "value": 10, "unit": "ppm", "color": "red" }, { "name": "Thorium shale", "type": "number", "value": 100, "unit": "ppm", "color": "green" }, { "name": "TH method", "type": "select", "value": "Linear", "choices": [ "Linear", "Larionov Tertiary rocks", "Larionov older rocks" ] } ], "outputs": [ { "name": "VSH_Thori", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Final</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16","function": "calVSHFinal", "multiple": true, "use_inputs": "multiple", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Shale Volume", "unit": "v/v" }, { "name": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "Merge Method", "type": "select", "value": "Minimum", "choices": [ "Minimum", "Average", "Arithmetic mean", "Geometric mean", "Harmonic mean", "Median", "Maximum", "Sum" ] } ], "outputs": [ { "name": "VSH_Final", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_MIN", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_AVG", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "clay-volume-16x16","function": "calVSHFinal", "multiple": true, "use_inputs": "multiple", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Shale Volume", "unit": "v/v", "family": "Shale Volume" }, { "name": "Shale Volume", "unit": "v/v", "family": "Shale Volume" } ], "parameters": [ { "name": "Merge Method", "type": "select", "value": "Minimum", "choices": [ "Minimum", "Average", "Arithmetic mean", "Geometric mean", "Harmonic mean", "Median", "Maximum", "Sum" ] } ], "outputs": [ { "name": "VSH_Final", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_MIN", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_AVG", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Density</t>
@@ -109,7 +109,7 @@
     <t>Porosity</t>
   </si>
   <si>
-    <t>{"icon":"calculate-open-porosity-16x16","function":"calPorosityFromDensity","inputs":[{"name":"Density","family":"Bulk Density","unit":"g/cm3"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Density Matrix","type":"number","value":2.65,"unit":"g/cm3","color":"red"},{"name":"Density Fluid","type":"number","value":1,"unit":"g/cm3"},{"name":"Density Shale","type":"number","value":2.4,"unit":"d/cm3","color":"green"}],"outputs":[{"name":"PHIT_D","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_D","family":"Effective Porosity","unit":"v/v"},{"name":"RHOMMA","family":"Apparent Matrix Density","unit":"v/v"}]}</t>
+    <t>{"icon":"calculate-open-porosity-16x16","function":"calPorosityFromDensity","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Density Matrix","type":"number","value":2.65,"unit":"g/cm3","color":"red"},{"name":"Density Fluid","type":"number","value":1,"unit":"g/cm3"},{"name":"Density Shale","type":"number","value":2.4,"unit":"d/cm3","color":"green"}],"outputs":[{"name":"PHIT_D","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_D","family":"Effective Porosity","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Neutron</t>
@@ -121,28 +121,28 @@
     <t>Sonic</t>
   </si>
   <si>
-    <t>{"icon":"calculate-open-porosity-16x16","function":"calPorosityFromSonic","inputs":[{"name":"Sonic","family":"Compressional Slowness","unit":"us/ft"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Sonic Matrix","type":"number","value":55,"unit":"us/ft","color":"red"},{"name":"Sonic Fluid","type":"number","value":189,"unit":"us/ft"},{"name":"Sonic Shale","type":"number","value":110,"unit":"us/ft","color":"green"},{"name":"Sonic Method","type":"select","value":"Wyliie","choices":["Wyliie","Raymer-Hunt-Gardner"]},{"name":"Cp","type":"number","value":1}],"outputs":[{"name":"PHIT_S","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_S","family":"Effective Porosity","unit":"v/v"},{"name":"DTMMA","family":"Apparent Matrix Compressional Slowness","unit":"us/ft"}]}</t>
-  </si>
-  <si>
-    <t>{"icon":"calculate-open-porosity-16x16","function":"calPorosityFromNeutronSonic","inputs":[{"name":"Sonic","family":"Compressional Slowness","unit":"us/ft"},{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Sonic Matrix","type":"number","value":55,"unit":"us/ft","color":"red"},{"name":"Sonic Fluid","type":"number","value":189,"unit":"us/ft"},{"name":"Sonic Shale","type":"number","value":110,"unit":"us/ft","color":"green"},{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"},{"name":"Sonic Method","type":"select","value":"Wyliie","choices":["Wyliie","Raymer-Hunt-Gardner"]},{"name":"Cp","type":"number","value":1}],"outputs":[{"name":"PHIT_NS","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_NS","family":"Effective Porosity","unit":"v/v"},{"name":"DTMMA","family":"Apparent Matrix Compressional Slowness","unit":"us/ft"}]}</t>
+    <t>{ "icon": "calculate-open-porosity-16x16", "function": "calPorosityFromSonic", "inputs": [ { "name": "Compressional Slowness", "family": "Compressional Slowness", "unit": "us/ft" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "Sonic Matrix", "type": "number", "value": 55, "unit": "us/ft", "color": "red" }, { "name": "Sonic Fluid", "type": "number", "value": 189, "unit": "us/ft" }, { "name": "Sonic Shale", "type": "number", "value": 110, "unit": "us/ft", "color": "green" }, { "name": "Sonic Method", "type": "select", "value": "Wyliie", "choices": [ "Wyliie", "Raymer-Hunt-Gardner" ] }, { "name": "Cp", "type": "number", "value": 1 } ], "outputs": [ { "name": "PHIT_S", "family": "Total Porosity", "unit": "v/v" }, { "name": "PHIE_S", "family": "Effective Porosity", "unit": "v/v" } ] }</t>
+  </si>
+  <si>
+    <t>{ "icon": "calculate-open-porosity-16x16", "function": "calPorosityFromNeutronSonic", "inputs": [ { "name": "Compressional Slowness", "family": "Compressional Slowness", "unit": "us/ft" }, { "name": "Neutron", "family": "Neutron Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "Sonic Matrix", "type": "number", "value": 55, "unit": "us/ft", "color": "red" }, { "name": "Sonic Fluid", "type": "number", "value": 189, "unit": "us/ft" }, { "name": "Sonic Shale", "type": "number", "value": 110, "unit": "us/ft", "color": "green" }, { "name": "Neutron Matrix", "type": "number", "value": -0.01, "unit": "v/v", "color": "red" }, { "name": "Neutron Fluid", "type": "number", "value": 0.991, "unit": "v/v" }, { "name": "Neutron Shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "Sonic Method", "type": "select", "value": "Wyliie", "choices": [ "Wyliie", "Raymer-Hunt-Gardner" ] }, { "name": "Cp", "type": "number", "value": 1 } ], "outputs": [ { "name": "PHIT_NS", "family": "Total Porosity", "unit": "v/v" }, { "name": "PHIE_NS", "family": "Effective Porosity", "unit": "v/v" }, { "name": "DTMAA", "family": "Apparent Matrix Compressional Slowness", "unit": "us/ft" } ] }</t>
   </si>
   <si>
     <t>Density-Neutron</t>
   </si>
   <si>
-    <t>{"icon":"calculate-open-porosity-16x16","function":"calPorosityFromDensityNeutron","inputs":[{"name":"Density","family":"Bulk Density","unit":"g/cm3"},{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Density Matrix","type":"number","value":2.65,"unit":"g/cm3","color":"red"},{"name":"Density Fluid","type":"number","value":1,"unit":"g/cm3"},{"name":"Density Shale","type":"number","value":2.4,"unit":"g/cm3","color":"green"},{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"}],"outputs":[{"name":"PHIT_ND","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_ND","family":"Effective Porosity","unit":"v/v"},{"name":"RHOMMA","family":"Apparent Matrix Density","unit":"v/v"}]}</t>
+    <t>{"icon":"calculate-open-porosity-16x16","function":"calPorosityFromDensityNeutron","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3"},{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Density Matrix","type":"number","value":2.65,"unit":"g/cm3","color":"red"},{"name":"Density Fluid","type":"number","value":1,"unit":"g/cm3"},{"name":"Density Shale","type":"number","value":2.4,"unit":"g/cm3","color":"green"},{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"}],"outputs":[{"name":"PHIT_ND","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_ND","family":"Effective Porosity","unit":"v/v"},{"name":"RHOMMA","family":"Apparent Matrix Density","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Total Final</t>
   </si>
   <si>
-    <t>{"icon":"calculate-open-porosity-16x16","function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Total Porosity", "unit": "v/v" }, { "name": "Total Porosity", "unit": "v/v" } ], "parameters": [], "outputs": [ { "name": "PHIT_Final", "family": "Total Porosity", "unit": "v/v" } ] }</t>
+    <t>{"icon":"calculate-open-porosity-16x16","function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Total Porosity", "unit": "v/v", "family": "Total Porosity" }, { "name": "Total Porosity", "unit": "v/v", "family": "Total Porosity" } ], "parameters": [], "outputs": [ { "name": "PHIT_Final", "family": "Total Porosity", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Effective Final</t>
   </si>
   <si>
-    <t>{"icon":"calculate-open-porosity-16x16","function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Effective Porosity", "unit": "v/v" }, { "name": "Effective Porosity", "unit": "v/v" } ], "parameters": [], "outputs": [ { "name": "PHIE_Final", "family": "Effective Porosity", "unit": "v/v" } ] }</t>
+    <t>{"icon":"calculate-open-porosity-16x16","function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Effective Porosity", "unit": "v/v", "family": "Effective Porosity" }, { "name": "Effective Porosity", "unit": "v/v", "family": "Effective Porosity" } ], "parameters": [], "outputs": [ { "name": "PHIE_Final", "family": "Effective Porosity", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Archie</t>
@@ -208,7 +208,7 @@
     <t>Clastic</t>
   </si>
   <si>
-    <t>{"icon": "summation-16x16","function": "calClasticfSummation", "inputs": [ { "name": "Shale Volume", "unit": "v/v" }, { "name": "Porosity", "unit": "v/v" }, { "name": "Water Saturation", "unit": "v/v" } ], "parameters": [ { "name": "Vshale Cut", "type": "number", "value": 0.35 }, { "name": "Phi Cut", "type": "number", "value": 0.15 }, { "name": "SW Cut", "type": "number", "value": 0.6 } ], "outputs": [ { "name": "NetRes", "family": "Net Reservoir Flag", "unit": "UNITLESS" }, { "name": "Netpay", "family": "Net Pay Flag", "unit": "UNITLESS" } ] }</t>
+    <t>{"icon": "summation-16x16","function": "calClasticfSummation", "inputs": [ { "name": "Shale Volume", "unit": "v/v","family":"Shale Volume" }, { "name": "Porosity", "unit": "v/v", "family": "Porosity" }, { "name": "Water Saturation", "unit": "v/v", "family":"Water Saturation" } ], "parameters": [ { "name": "Vshale Cut", "type": "number", "value": 0.35 }, { "name": "Phi Cut", "type": "number", "value": 0.15 }, { "name": "SW Cut", "type": "number", "value": 0.6 } ], "outputs": [ { "name": "NetRes", "family": "Net Reservoir Flag", "unit": "UNITLESS" }, { "name": "Netpay", "family": "Net Pay Flag", "unit": "UNITLESS" } ] }</t>
   </si>
   <si>
     <t>Multi-Mineral Solver</t>
@@ -257,7 +257,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -538,8 +538,8 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20904"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="164" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{839F79AE-7D5F-4DF6-9EF2-672191C8D3A7}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{FF6DDE3B-A260-478C-91DD-5FB14CC922D8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="106">
   <si>
     <t>id</t>
   </si>
@@ -130,7 +130,7 @@
     <t>Density-Neutron</t>
   </si>
   <si>
-    <t>{"icon":"calculate-open-porosity-16x16","function":"calPorosityFromDensityNeutron","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3"},{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Density Matrix","type":"number","value":2.65,"unit":"g/cm3","color":"red"},{"name":"Density Fluid","type":"number","value":1,"unit":"g/cm3"},{"name":"Density Shale","type":"number","value":2.4,"unit":"g/cm3","color":"green"},{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"}],"outputs":[{"name":"PHIT_ND","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_ND","family":"Effective Porosity","unit":"v/v"},{"name":"RHOMMA","family":"Apparent Matrix Density","unit":"v/v"}]}</t>
+    <t>{"icon":"calculate-open-porosity-16x16","function":"calPorosityFromDensityNeutron","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3"},{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Density Matrix","type":"number","value":2.65,"unit":"g/cm3","color":"red"},{"name":"Density Fluid","type":"number","value":1,"unit":"g/cm3"},{"name":"Density Shale","type":"number","value":2.4,"unit":"g/cm3","color":"green"},{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"}],"outputs":[{"name":"PHIT_ND","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_ND","family":"Effective Porosity","unit":"v/v"},{"name":"RHOMAA","family":"Apparent Matrix Density","unit":"v/v"}]}</t>
   </si>
   <si>
     <t>Total Final</t>
@@ -214,7 +214,130 @@
     <t>Multi-Mineral Solver</t>
   </si>
   <si>
-    <t>{"icon": "multi-mineral-solver-16x16","function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"DT":["Peak Slowness","Peak Travel Time","Travel Time","Compressional Slowness","DTC.*","DT","SON.*","AC","DTTP.*","Acoustic"],"RHOB":["Bulk Density","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Corrected ZDL Density","DEN.*","RHOB","RHOZ","ZDEN.*","RHOZ","LDEN","Density"],"GR":["Gamma Ray","Gamma Ray 1","Gamma Ray Normalised","Gamma Ray Shale","Gamma Ray Squared","Russian Gamma Ray","PLT Gamma Ray","GR.*","ECGR.*","SGRC.*","GAM.*","HGR","EGR","SGR"],"NPHI":["Thermal Neutron Near Far Ratio","Compensated Neutron Porosity","Epithermal Neutron Porosity","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Russian Thermal Neutron Porosity","Thermal Neutron Porosity","NEU.*","TNP.*","NPHI.*","CNL.*","CNT.*","Porosity"],"POT":["Potassium Capture Relative Yield","Potassium Concentration","Potassium Radio Nuclide Activity","POT.*","Weight Fraction - Element"],"THOR":["Thorium Concentration","Thorium Radio Nuclide Activity","THOR.*"],"URAN":["Uranium Concentration","Uranium Radio Nuclide Activity","URA.*"],"PAI":[".*"]},"outputFromParameter":true,"outputs":[],"outputConfig":{"family":"Mineral Volume","unit":"v/v","prefix":"V_","use":true}}</t>
+    <t>{"icon":"multi-mineral-solver-16x16","function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":189,"NPHI":0.991,"RHOB":1.03,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.3,"min":0}},{"name":"Fluid","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"DT":["Peak Slowness","Peak Travel Time","Travel Time","Compressional Slowness","DTC.*","DT","SON.*","AC","DTTP.*","Acoustic"],"RHOB":["Bulk Density","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Corrected ZDL Density","DEN.*","RHOB","RHOZ","ZDEN.*","RHOZ","LDEN","Density"],"GR":["Gamma Ray","Gamma Ray 1","Gamma Ray Normalised","Gamma Ray Shale","Gamma Ray Squared","Russian Gamma Ray","PLT Gamma Ray","GR.*","ECGR.*","SGRC.*","GAM.*","HGR","EGR","SGR"],"NPHI":["Thermal Neutron Near Far Ratio","Compensated Neutron Porosity","Epithermal Neutron Porosity","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Russian Thermal Neutron Porosity","Thermal Neutron Porosity","NEU.*","TNP.*","NPHI.*","CNL.*","CNT.*","Porosity"],"POT":["Potassium Capture Relative Yield","Potassium Concentration","Potassium Radio Nuclide Activity","POT.*","Weight Fraction - Element"],"THOR":["Thorium Concentration","Thorium Radio Nuclide Activity","THOR.*"],"URAN":["Uranium Concentration","Uranium Radio Nuclide Activity","URA.*"],"PAI":[".*"]},"outputFromParameter":true,"outputs":[],"outputConfig":{"family":"Mineral Volume","unit":"v/v","prefix":"V_","use":true}}</t>
+  </si>
+  <si>
+    <t>Gradient FTemp</t>
+  </si>
+  <si>
+    <t>Formation Temperature</t>
+  </si>
+  <si>
+    <t>{"icon":"formation-resistivity-16x16","function":"gradientFTemp","inputs":[{"name":"Depth","family":"Measured Depth"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"Local Temperature Gradient","type":"number","value":0,"unit":"degC/m"},{"name":"Top Log Interval","type":"number","value":0,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":0,"unit":"degC"}]}</t>
+  </si>
+  <si>
+    <t>Log Interval FTemp</t>
+  </si>
+  <si>
+    <t>{"icon":"formation-resistivity-16x16","function":"logIntervalFTemp","inputs":[{"name":"Depth","family":"Measured Depth"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"Top Log Interval","type":"number","value":0,"unit":"m"},{"name":"Bottom Log Interval","type":"number","value":1,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":0,"unit":"degC"},{"name":"Bottom Log Temperature","type":"number","value":1,"unit":"degC"}]}</t>
+  </si>
+  <si>
+    <t>Gradient FPress</t>
+  </si>
+  <si>
+    <t>Formation Pressure</t>
+  </si>
+  <si>
+    <t>{"icon":"formation-resistivity-16x16","function":"gradientFPress","inputs":[{"name":"Depth","family":"Measured Depth"}],"outputs":[{"name":"FPRESS","family":"Formation Pressure","unit":"kPa"}],"parameters":[{"name":"Pressure Gradient","type":"number","value":9.792,"unit":"kPa/m"}]}</t>
+  </si>
+  <si>
+    <t>Mud Density FPress</t>
+  </si>
+  <si>
+    <t>{"icon":"formation-resistivity-16x16","function":"mudDensityFPress","inputs":[{"name":"Depth","family":"Measured Depth"}],"outputs":[{"name":"FPRESS","family":"Formation Pressure","unit":"kPa"}],"parameters":[{"name":"Drilling Fluid Density","type":"number","value":1,"unit":"g/cm3"}]}</t>
+  </si>
+  <si>
+    <t>Normalize Qv</t>
+  </si>
+  <si>
+    <t>Qv Function</t>
+  </si>
+  <si>
+    <t>{"icon":"formation-resistivity-16x16","function":"normalizeQv","inputs":[{"name":"Porosity","family":"Porosity"},{"name":"Shale Volume","family":"Shale Volume"}],"outputs":[{"name":"QVn","family":"Normalised Qv","unit":"v/v"}],"parameters":[{"name":"Porosity Shale","type":"number","value":0.4,"unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>CEC Qv</t>
+  </si>
+  <si>
+    <t>{"icon":"formation-resistivity-16x16","function":"cecQv","inputs":[{"name":"Porosity","family":"Porosity"},{"name":"CEC","family":"Volumetric CEC"},{"name":"Grain Density","family":"Grain Density"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"}],"parameters":[]}</t>
+  </si>
+  <si>
+    <t>Qv Water Bearing Shaly Sands</t>
+  </si>
+  <si>
+    <t>{"icon":"formation-resistivity-16x16","function":"qvWaterBearingShalySands","inputs":[{"name":"Porosity","family":"Porosity"},{"name":"Resistivity","family":"Resistivity"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"},{"name":"B","family":"Waxman B","unit":"L.S/eq.m"},{"name":"BQv","family":"Waxman BQv","unit":"S/m"}],"parameters":[{"name":"Temperature","type":"number","value":0,"unit":"degF"},{"name":"Water Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"a*","type":"number","value":0},{"name":"m*","type":"number","value":0}]}</t>
+  </si>
+  <si>
+    <t>RW from SAL and FTemp</t>
+  </si>
+  <si>
+    <t>Fluid/Water Property</t>
+  </si>
+  <si>
+    <t>{"icon":"formation-resistivity-16x16","function":"RWfromSALandFTemp","inputs":[{"name":"Formation Temperature","family":"Formation Temperature"},{"name":"Salinity","family":"Salinity"}],"outputs":[{"name":"RwX","family":"Formation Water Resistivity","unit":"ohm.m"}],"parameters":[]}</t>
+  </si>
+  <si>
+    <t>U from Salinity</t>
+  </si>
+  <si>
+    <t>{"icon":"formation-resistivity-16x16","function":"UfromSalinity","inputs":[{"name":"Salinity","family":"Salinity"}],"outputs":[{"name":"U","family":"Volumetric Photoelectric Effect","unit":"barns/cm3"}],"parameters":[]}</t>
+  </si>
+  <si>
+    <t>Saturated Salinity Concentration from FTemp</t>
+  </si>
+  <si>
+    <t>{"icon":"formation-resistivity-16x16","function":"saturatedSalinityConcentrationfromFTemp","inputs":[{"name":"Formation Temperature","family":"Formation Temperature"}],"outputs":[{"name":"SAL_SAT","family":"Formation Water Salinity","unit":"ppk"}],"parameters":[]}</t>
+  </si>
+  <si>
+    <t>Mud Salinity and Resistivity</t>
+  </si>
+  <si>
+    <t>{"icon":"formation-resistivity-16x16","function":"mudSalinityAndResistivity","inputs":[{"name":"Formation Temperature","family":"Formation Temperature"}],"outputs":[{"name":"RM","family":"Mud Resistivity","unit":"ohm.m"},{"name":"RMF","family":"Mud Filtrate Resistivity","unit":"ohm.m"},{"name":"RMC","family":"Mudcake Resistivity","unit":"ohm.m"},{"name":"SALM","family":"Mud Salinity","unit":"ppm"},{"name":"SALMF","family":"Mud Filtrate Salinity","unit":"ppm"}],"parameters":[{"name":"Mud Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mud Sample Temperature","type":"number","value":0,"unit":"degC"},{"name":"Mud Filtrate Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mud Filtrate Sample Temperature","type":"number","value":0,"unit":"degC"},{"name":"Mudcake Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mudcake Sample Temperature","type":"number","value":0,"unit":"degC"}]}</t>
+  </si>
+  <si>
+    <t>Bad Hole From Caliper</t>
+  </si>
+  <si>
+    <t>Bad Hole</t>
+  </si>
+  <si>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"badHoleFromCaliper","inputs":[{"name":"Caliper","family":"Caliper"}],"outputs":[{"name":"BH_FL_BS","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Cutoff","type":"number","value":0,"unit":"in"},{"name":"Bit Size","type":"number","value":0,"unit":"in"}],"options":[{"name":"Bit Size"}]}</t>
+  </si>
+  <si>
+    <t>Bad Hole From DRHO</t>
+  </si>
+  <si>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"badHoleFromDRHO","inputs":[{"name":"DENC","family":"Bulk Density Correction"}],"outputs":[{"name":"BH_FL_DRHO","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Correction Min","type":"number","value":0,"unit":"g/cm3"},{"name":"Bulk Density Correction Max","type":"number","value":1,"unit":"g/cm3"}]}</t>
+  </si>
+  <si>
+    <t>Coal Flag</t>
+  </si>
+  <si>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"coalFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density"},{"name":"Neutron Porosity","family":"Neutron Porosity"},{"name":"Compressional Slowness","family":"Compressional Slowness"},{"name":"Photoelectric Factor","family":"Photoelectric Factor"},{"name":"Resistivity","family":"Resistivity"}],"outputs":[{"name":"COAL_FL","family":"Coal Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Min COAL_FL","type":"number","value":1.2,"unit":"g/cm3"},{"name":"Bulk Density Max COAL_FL","type":"number","value":2.2,"unit":"g/cm3"},{"name":"Bulk Density Method COAL_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]},{"name":"Neutron Porosity Min COAL_FL","type":"number","value":0.3,"unit":"v/v"},{"name":"Neutron Porosity Max COAL_FL","type":"number","value":0.6,"unit":"v/v"},{"name":"Neutron Porosity Method COAL_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]},{"name":"Compressional Slowness Min COAL_FL","type":"number","value":90,"unit":"US/FT"},{"name":"Compressional Slowness Max COAL_FL","type":"number","value":150,"unit":"US/FT"},{"name":"Compressional Slowness Method COAL_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]},{"name":"Photoelectric Factor Min COAL_FL","type":"number","value":0.16,"unit":"UNITLESS"},{"name":"Photoelectric Factor Max COAL_FL","type":"number","value":0.2,"unit":"UNITLESS"},{"name":"Photoelectric Factor Method COAL_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]},{"name":"Resistivity Min COAL_FL","type":"number","value":900,"unit":"ohm.m"},{"name":"Resistivity Max COAL_FL","type":"number","value":1000,"unit":"ohm.m"},{"name":"Resistivity Method COAL_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]}]}</t>
+  </si>
+  <si>
+    <t>Carbonate Flag</t>
+  </si>
+  <si>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"carbonateFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density"},{"name":"Neutron Porosity","family":"Neutron Porosity"},{"name":"Compressional Slowness","family":"Compressional Slowness"},{"name":"Photoelectric Factor","family":"Photoelectric Factor"}],"outputs":[{"name":"CARBONATE_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Min CARBONATE_FL","type":"number","value":2.85,"unit":"g/cm3"},{"name":"Bulk Density Max CARBONATE_FL","type":"number","value":3,"unit":"g/cm3"},{"name":"Bulk Density Method CARBONATE_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]},{"name":"Neutron Porosity Min CARBONATE_FL","type":"number","value":0,"unit":"v/v"},{"name":"Neutron Porosity Max CARBONATE_FL","type":"number","value":1,"unit":"v/v"},{"name":"Neutron Porosity Method CARBONATE_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]},{"name":"Compressional Slowness Min CARBONATE_FL","type":"number","value":45,"unit":"US/FT"},{"name":"Compressional Slowness Max CARBONATE_FL","type":"number","value":55,"unit":"US/FT"},{"name":"Compressional Slowness Method CARBONATE_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]},{"name":"Photoelectric Factor Min CARBONATE_FL","type":"number","value":5,"unit":"UNITLESS"},{"name":"Photoelectric Factor Max CARBONATE_FL","type":"number","value":7,"unit":"UNITLESS"},{"name":"Photoelectric Factor Method CARBONATE_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]}]}</t>
+  </si>
+  <si>
+    <t>Halite Flag</t>
+  </si>
+  <si>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"haliteFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density"},{"name":"Resistivity","family":"Resistivity"},{"name":"Compressional Slowness","family":"Compressional Slowness"},{"name":"Photoelectric Factor","family":"Photoelectric Factor"}],"outputs":[{"name":"HALITE_FL","family":"Halite Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Min HALITE_FL","type":"number","value":2.05,"unit":"g/cm3"},{"name":"Bulk Density Max HALITE_FL","type":"number","value":2.15,"unit":"g/cm3"},{"name":"Bulk Density Method HALITE_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]},{"name":"Resistivity Min HALITE_FL","type":"number","value":10000,"unit":"ohm.m"},{"name":"Resistivity Max HALITE_FL","type":"number","value":100000,"unit":"ohm.m"},{"name":"Resistivity Method HALITE_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]},{"name":"Compressional Slowness Min HALITE_FL","type":"number","value":60,"unit":"US/FT"},{"name":"Compressional Slowness Max HALITE_FL","type":"number","value":70,"unit":"US/FT"},{"name":"Compressional Slowness Method HALITE_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]},{"name":"Photoelectric Factor Min HALITE_FL","type":"number","value":4.5,"unit":"UNITLESS"},{"name":"Photoelectric Factor Max HALITE_FL","type":"number","value":5,"unit":"UNITLESS"},{"name":"Photoelectric Factor Method HALITE_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]}]}</t>
+  </si>
+  <si>
+    <t>Anhydrite Flag</t>
+  </si>
+  <si>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"anhydriteFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density"},{"name":"Resistivity","family":"Resistivity"},{"name":"Compressional Slowness","family":"Compressional Slowness"},{"name":"Photoelectric Factor","family":"Photoelectric Factor"}],"outputs":[{"name":"ANHYDRITE_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Min ANHYDRITE_FL","type":"number","value":2.85,"unit":"g/cm3"},{"name":"Bulk Density Max ANHYDRITE_FL","type":"number","value":3,"unit":"g/cm3"},{"name":"Bulk Density Method ANHYDRITE_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]},{"name":"Resistivity Min ANHYDRITE_FL","type":"number","value":10000,"unit":"ohm.m"},{"name":"Resistivity Max ANHYDRITE_FL","type":"number","value":100000,"unit":"ohm.m"},{"name":"Resistivity Method ANHYDRITE_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]},{"name":"Compressional Slowness Min ANHYDRITE_FL","type":"number","value":55,"unit":"US/FT"},{"name":"Compressional Slowness Max ANHYDRITE_FL","type":"number","value":60,"unit":"US/FT"},{"name":"Compressional Slowness Method ANHYDRITE_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]},{"name":"Photoelectric Factor Min ANHYDRITE_FL","type":"number","value":4.5,"unit":"UNITLESS"},{"name":"Photoelectric Factor Max ANHYDRITE_FL","type":"number","value":5,"unit":"UNITLESS"},{"name":"Photoelectric Factor Method ANHYDRITE_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]}]}</t>
+  </si>
+  <si>
+    <t>Custom Flag</t>
+  </si>
+  <si>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"customFlag","inputs":[{"name":"Curve Input"}],"outputs":[{"name":"CUSTOM_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":[{"name":"Curve Input Min CUSTOM_FL","type":"number","value":0,"unit":"g/cm3"},{"name":"Curve Input Max CUSTOM_FL","type":"number","value":1,"unit":"g/cm3"},{"name":"Curve Input Method CUSTOM_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]}]}</t>
   </si>
 </sst>
 </file>
@@ -535,18 +658,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="1" topLeftCell="C19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
@@ -961,6 +1084,240 @@
         <v>64</v>
       </c>
     </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20919"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="222" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{FF6DDE3B-A260-478C-91DD-5FB14CC922D8}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{E5673EA3-1D2B-4187-BE95-60B00E136C5A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
     <t>Density-Neutron</t>
   </si>
   <si>
-    <t>{"icon":"calculate-open-porosity-16x16","function":"calPorosityFromDensityNeutron","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3"},{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Density Matrix","type":"number","value":2.65,"unit":"g/cm3","color":"red"},{"name":"Density Fluid","type":"number","value":1,"unit":"g/cm3"},{"name":"Density Shale","type":"number","value":2.4,"unit":"g/cm3","color":"green"},{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"}],"outputs":[{"name":"PHIT_ND","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_ND","family":"Effective Porosity","unit":"v/v"},{"name":"RHOMAA","family":"Apparent Matrix Density","unit":"v/v"}]}</t>
+    <t>{ "icon": "calculate-open-porosity-16x16", "function": "calPorosityFromDensityNeutron", "inputs": [ { "name": "Bulk Density", "family": "Bulk Density", "unit": "g/cm3" }, { "name": "Neutron", "family": "Neutron Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "Density Matrix", "type": "number", "value": 2.65, "unit": "g/cm3", "color": "red" }, { "name": "Density Fluid", "type": "number", "value": 1, "unit": "g/cm3" }, { "name": "Density Shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "green" }, { "name": "Neutron Matrix", "type": "number", "value": -0.01, "unit": "v/v", "color": "red" }, { "name": "Neutron Fluid", "type": "number", "value": 0.991, "unit": "v/v" }, { "name": "Neutron Shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" } ], "outputs": [ { "name": "PHIT_ND", "family": "Total Porosity", "unit": "v/v" }, { "name": "PHIE_ND", "family": "Effective Porosity", "unit": "v/v" }, { "name": "RHOMAA", "family": "Apparent Matrix Density", "unit": "g/cm3" } ] }</t>
   </si>
   <si>
     <t>Total Final</t>
@@ -313,31 +313,31 @@
     <t>Coal Flag</t>
   </si>
   <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"coalFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density"},{"name":"Neutron Porosity","family":"Neutron Porosity"},{"name":"Compressional Slowness","family":"Compressional Slowness"},{"name":"Photoelectric Factor","family":"Photoelectric Factor"},{"name":"Resistivity","family":"Resistivity"}],"outputs":[{"name":"COAL_FL","family":"Coal Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Min COAL_FL","type":"number","value":1.2,"unit":"g/cm3"},{"name":"Bulk Density Max COAL_FL","type":"number","value":2.2,"unit":"g/cm3"},{"name":"Bulk Density Method COAL_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]},{"name":"Neutron Porosity Min COAL_FL","type":"number","value":0.3,"unit":"v/v"},{"name":"Neutron Porosity Max COAL_FL","type":"number","value":0.6,"unit":"v/v"},{"name":"Neutron Porosity Method COAL_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]},{"name":"Compressional Slowness Min COAL_FL","type":"number","value":90,"unit":"US/FT"},{"name":"Compressional Slowness Max COAL_FL","type":"number","value":150,"unit":"US/FT"},{"name":"Compressional Slowness Method COAL_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]},{"name":"Photoelectric Factor Min COAL_FL","type":"number","value":0.16,"unit":"UNITLESS"},{"name":"Photoelectric Factor Max COAL_FL","type":"number","value":0.2,"unit":"UNITLESS"},{"name":"Photoelectric Factor Method COAL_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]},{"name":"Resistivity Min COAL_FL","type":"number","value":900,"unit":"ohm.m"},{"name":"Resistivity Max COAL_FL","type":"number","value":1000,"unit":"ohm.m"},{"name":"Resistivity Method COAL_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]}]}</t>
+    <t>{ "icon": "badhole-coal-salt-16x16", "function": "coalFlag", "inputs": [ { "name": "Bulk Density", "family": "Bulk Density", "allowNull": true }, { "name": "Neutron Porosity", "family": "Neutron Porosity", "allowNull": true }, { "name": "Compressional Slowness", "family": "Compressional Slowness", "allowNull": true }, { "name": "Photoelectric Factor", "family": "Photoelectric Factor", "allowNull": true }, { "name": "Resistivity", "family": "Resistivity", "allowNull": true } ], "outputs": [{ "name": "COAL_FL", "family": "Coal Flag", "unit": "UNITLESS" }], "parameters": [ { "name": "Bulk Density Min", "type": "number", "value": 1.2, "unit": "g/cm3" }, { "name": "Bulk Density Max", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "Bulk Density Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] }, { "name": "Neutron Porosity Min", "type": "number", "value": 0.3, "unit": "v/v" }, { "name": "Neutron Porosity Max", "type": "number", "value": 0.6, "unit": "v/v" }, { "name": "Neutron Porosity Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] }, { "name": "Compressional Slowness Min", "type": "number", "value": 90, "unit": "US/FT" }, { "name": "Compressional Slowness Max", "type": "number", "value": 150, "unit": "US/FT" }, { "name": "Compressional Slowness Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] }, { "name": "Photoelectric Factor Min", "type": "number", "value": 0.16, "unit": "UNITLESS" }, { "name": "Photoelectric Factor Max", "type": "number", "value": 0.2, "unit": "UNITLESS" }, { "name": "Photoelectric Factor Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] }, { "name": "Resistivity Min", "type": "number", "value": 900, "unit": "ohm.m" }, { "name": "Resistivity Max", "type": "number", "value": 1000, "unit": "ohm.m" }, { "name": "Resistivity Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] } ] }</t>
   </si>
   <si>
     <t>Carbonate Flag</t>
   </si>
   <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"carbonateFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density"},{"name":"Neutron Porosity","family":"Neutron Porosity"},{"name":"Compressional Slowness","family":"Compressional Slowness"},{"name":"Photoelectric Factor","family":"Photoelectric Factor"}],"outputs":[{"name":"CARBONATE_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Min CARBONATE_FL","type":"number","value":2.85,"unit":"g/cm3"},{"name":"Bulk Density Max CARBONATE_FL","type":"number","value":3,"unit":"g/cm3"},{"name":"Bulk Density Method CARBONATE_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]},{"name":"Neutron Porosity Min CARBONATE_FL","type":"number","value":0,"unit":"v/v"},{"name":"Neutron Porosity Max CARBONATE_FL","type":"number","value":1,"unit":"v/v"},{"name":"Neutron Porosity Method CARBONATE_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]},{"name":"Compressional Slowness Min CARBONATE_FL","type":"number","value":45,"unit":"US/FT"},{"name":"Compressional Slowness Max CARBONATE_FL","type":"number","value":55,"unit":"US/FT"},{"name":"Compressional Slowness Method CARBONATE_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]},{"name":"Photoelectric Factor Min CARBONATE_FL","type":"number","value":5,"unit":"UNITLESS"},{"name":"Photoelectric Factor Max CARBONATE_FL","type":"number","value":7,"unit":"UNITLESS"},{"name":"Photoelectric Factor Method CARBONATE_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]}]}</t>
+    <t>{ "icon": "badhole-coal-salt-16x16", "function": "carbonateFlag", "inputs": [ { "name": "Bulk Density", "family": "Bulk Density", "allowNull": true }, { "name": "Neutron Porosity", "family": "Neutron Porosity", "allowNull": true }, { "name": "Compressional Slowness", "family": "Compressional Slowness", "allowNull": true }, { "name": "Photoelectric Factor", "family": "Photoelectric Factor", "allowNull": true } ], "outputs": [ { "name": "CARBONATE_FL", "family": "General Flag", "unit": "UNITLESS" } ], "parameters": [ { "name": "Bulk Density Min", "type": "number", "value": 2.85, "unit": "g/cm3" }, { "name": "Bulk Density Max", "type": "number", "value": 3, "unit": "g/cm3" }, { "name": "Bulk Density Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] }, { "name": "Neutron Porosity Min", "type": "number", "value": 0, "unit": "v/v" }, { "name": "Neutron Porosity Max", "type": "number", "value": 1, "unit": "v/v" }, { "name": "Neutron Porosity Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] }, { "name": "Compressional Slowness Min", "type": "number", "value": 45, "unit": "US/FT" }, { "name": "Compressional Slowness Max", "type": "number", "value": 55, "unit": "US/FT" }, { "name": "Compressional Slowness Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] }, { "name": "Photoelectric Factor Min", "type": "number", "value": 5, "unit": "UNITLESS" }, { "name": "Photoelectric Factor Max", "type": "number", "value": 7, "unit": "UNITLESS" }, { "name": "Photoelectric Factor Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] } ] }</t>
   </si>
   <si>
     <t>Halite Flag</t>
   </si>
   <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"haliteFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density"},{"name":"Resistivity","family":"Resistivity"},{"name":"Compressional Slowness","family":"Compressional Slowness"},{"name":"Photoelectric Factor","family":"Photoelectric Factor"}],"outputs":[{"name":"HALITE_FL","family":"Halite Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Min HALITE_FL","type":"number","value":2.05,"unit":"g/cm3"},{"name":"Bulk Density Max HALITE_FL","type":"number","value":2.15,"unit":"g/cm3"},{"name":"Bulk Density Method HALITE_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]},{"name":"Resistivity Min HALITE_FL","type":"number","value":10000,"unit":"ohm.m"},{"name":"Resistivity Max HALITE_FL","type":"number","value":100000,"unit":"ohm.m"},{"name":"Resistivity Method HALITE_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]},{"name":"Compressional Slowness Min HALITE_FL","type":"number","value":60,"unit":"US/FT"},{"name":"Compressional Slowness Max HALITE_FL","type":"number","value":70,"unit":"US/FT"},{"name":"Compressional Slowness Method HALITE_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]},{"name":"Photoelectric Factor Min HALITE_FL","type":"number","value":4.5,"unit":"UNITLESS"},{"name":"Photoelectric Factor Max HALITE_FL","type":"number","value":5,"unit":"UNITLESS"},{"name":"Photoelectric Factor Method HALITE_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]}]}</t>
+    <t>{ "icon": "badhole-coal-salt-16x16", "function": "haliteFlag", "inputs": [ { "name": "Bulk Density", "family": "Bulk Density", "allowNull": true }, { "name": "Resistivity", "family": "Resistivity", "allowNull": true }, { "name": "Compressional Slowness", "family": "Compressional Slowness", "allowNull": true }, { "name": "Photoelectric Factor", "family": "Photoelectric Factor", "allowNull": true } ], "outputs": [ { "name": "HALITE_FL", "family": "Halite Flag", "unit": "UNITLESS" } ], "parameters": [ { "name": "Bulk Density Min", "type": "number", "value": 2.05, "unit": "g/cm3" }, { "name": "Bulk Density Max", "type": "number", "value": 2.15, "unit": "g/cm3" }, { "name": "Bulk Density Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] }, { "name": "Resistivity Min", "type": "number", "value": 10000, "unit": "ohm.m" }, { "name": "Resistivity Max", "type": "number", "value": 100000, "unit": "ohm.m" }, { "name": "Resistivity Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] }, { "name": "Compressional Slowness Min", "type": "number", "value": 60, "unit": "US/FT" }, { "name": "Compressional Slowness Max", "type": "number", "value": 70, "unit": "US/FT" }, { "name": "Compressional Slowness Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] }, { "name": "Photoelectric Factor Min", "type": "number", "value": 4.5, "unit": "UNITLESS" }, { "name": "Photoelectric Factor Max", "type": "number", "value": 5, "unit": "UNITLESS" }, { "name": "Photoelectric Factor Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] } ] }</t>
   </si>
   <si>
     <t>Anhydrite Flag</t>
   </si>
   <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"anhydriteFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density"},{"name":"Resistivity","family":"Resistivity"},{"name":"Compressional Slowness","family":"Compressional Slowness"},{"name":"Photoelectric Factor","family":"Photoelectric Factor"}],"outputs":[{"name":"ANHYDRITE_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Min ANHYDRITE_FL","type":"number","value":2.85,"unit":"g/cm3"},{"name":"Bulk Density Max ANHYDRITE_FL","type":"number","value":3,"unit":"g/cm3"},{"name":"Bulk Density Method ANHYDRITE_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]},{"name":"Resistivity Min ANHYDRITE_FL","type":"number","value":10000,"unit":"ohm.m"},{"name":"Resistivity Max ANHYDRITE_FL","type":"number","value":100000,"unit":"ohm.m"},{"name":"Resistivity Method ANHYDRITE_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]},{"name":"Compressional Slowness Min ANHYDRITE_FL","type":"number","value":55,"unit":"US/FT"},{"name":"Compressional Slowness Max ANHYDRITE_FL","type":"number","value":60,"unit":"US/FT"},{"name":"Compressional Slowness Method ANHYDRITE_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]},{"name":"Photoelectric Factor Min ANHYDRITE_FL","type":"number","value":4.5,"unit":"UNITLESS"},{"name":"Photoelectric Factor Max ANHYDRITE_FL","type":"number","value":5,"unit":"UNITLESS"},{"name":"Photoelectric Factor Method ANHYDRITE_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]}]}</t>
+    <t>{ "icon": "badhole-coal-salt-16x16", "function": "anhydriteFlag", "inputs": [ { "name": "Bulk Density", "family": "Bulk Density", "allowNull": true }, { "name": "Resistivity", "family": "Resistivity", "allowNull": true }, { "name": "Compressional Slowness", "family": "Compressional Slowness", "allowNull": true }, { "name": "Photoelectric Factor", "family": "Photoelectric Factor", "allowNull": true } ], "outputs": [ { "name": "ANHYDRITE_FL", "family": "General Flag", "unit": "UNITLESS" } ], "parameters": [ { "name": "Bulk Density Min", "type": "number", "value": 2.85, "unit": "g/cm3" }, { "name": "Bulk Density Max", "type": "number", "value": 3, "unit": "g/cm3" }, { "name": "Bulk Density Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] }, { "name": "Resistivity Min", "type": "number", "value": 10000, "unit": "ohm.m" }, { "name": "Resistivity Max", "type": "number", "value": 100000, "unit": "ohm.m" }, { "name": "Resistivity Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] }, { "name": "Compressional Slowness Min", "type": "number", "value": 55, "unit": "US/FT" }, { "name": "Compressional Slowness Max", "type": "number", "value": 60, "unit": "US/FT" }, { "name": "Compressional Slowness Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] }, { "name": "Photoelectric Factor Min", "type": "number", "value": 4.5, "unit": "UNITLESS" }, { "name": "Photoelectric Factor Max", "type": "number", "value": 5, "unit": "UNITLESS" }, { "name": "Photoelectric Factor Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] } ] }</t>
   </si>
   <si>
     <t>Custom Flag</t>
   </si>
   <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"customFlag","inputs":[{"name":"Curve Input"}],"outputs":[{"name":"CUSTOM_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":[{"name":"Curve Input Min CUSTOM_FL","type":"number","value":0,"unit":"g/cm3"},{"name":"Curve Input Max CUSTOM_FL","type":"number","value":1,"unit":"g/cm3"},{"name":"Curve Input Method CUSTOM_FL","type":"select","value":"Min &lt;= Value &lt; Max","choices":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"]}]}</t>
+    <t>{ "icon": "badhole-coal-salt-16x16", "function": "customFlag", "inputs": [{ "name": "Curve Input" }], "outputs": [ { "name": "CUSTOM_FL", "family": "General Flag", "unit": "UNITLESS" } ], "parameters": [ { "name": "Curve Input Min", "type": "number", "value": 0, "unit": "g/cm3" }, { "name": "Curve Input Max", "type": "number", "value": 1, "unit": "g/cm3" }, { "name": "Curve Input Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] } ] }</t>
   </si>
 </sst>
 </file>
@@ -661,8 +661,8 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="C19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20919"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="232" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{E5673EA3-1D2B-4187-BE95-60B00E136C5A}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{5957672F-2355-4FB7-BEA1-7264DD0F9693}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,55 +151,55 @@
     <t>Water Saturation</t>
   </si>
   <si>
-    <t>{ "icon": "water-saturation-16x16","function": "calSaturationArchie", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Ar", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Ar", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Ar", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Ar", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationArchie", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Ar", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Ar", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Ar", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Ar", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>{"icon": "water-saturation-16x16","function": "calSaturationIndonesia", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Ind", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Ind", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Ind", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Ind", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationIndonesia", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Ind", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Ind", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Ind", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Ind", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Modified Indonesia</t>
   </si>
   <si>
-    <t>{"icon": "water-saturation-16x16","function": "calSaturationModifiedIndonesia", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Imo", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Imo", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Imo", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Imo", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationModifiedIndonesia", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Imo", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Imo", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Imo", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Imo", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Simandoux</t>
   </si>
   <si>
-    <t>{ "icon": "water-saturation-16x16","function": "calSaturationSimandoux", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Sim", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Sim", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Sim", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Sim", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationSimandoux", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Sim", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Sim", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Sim", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Sim", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Modified Simandoux</t>
   </si>
   <si>
-    <t>{"icon": "water-saturation-16x16","function": "calSaturationModifiedSimandoux", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Smo", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Smo", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Smo", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Smo", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationModifiedSimandoux", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Smo", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Smo", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Smo", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Smo", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Juhasz</t>
   </si>
   <si>
-    <t>{"icon": "water-saturation-16x16","function": "calSaturationJuhasz", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Juh", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Juh", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qvn", "family": "Volumetric CEC", "unit": "eq/L" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationJuhasz", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Juh", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Juh", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qvn", "family": "Volumetric CEC", "unit": "eq/L" } ] }</t>
   </si>
   <si>
     <t>Waxman-Smits</t>
   </si>
   <si>
-    <t>{"icon": "water-saturation-16x16","function": "calSaturationWaxmanSmits", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Formation Temperature", "family": "Formation Temperature", "unit": "degC" } ], "parameters": [ { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "B", "type": "number", "value": 4, "unit": "L.S/eq.m" }, { "name": "Qv", "type": "number", "value": 1, "unit": "eq/L" } ], "outputs": [ { "name": "Sw_Wax", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Wax", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationWaxmanSmits", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Formation Temperature", "family": "Formation Temperature", "unit": "degC" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "B", "type": "number", "value": 4, "unit": "L.S/eq.m" }, { "name": "Qv", "type": "number", "value": 1, "unit": "eq/L" } ], "outputs": [ { "name": "Sw_Wax", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Wax", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Dual Water</t>
   </si>
   <si>
-    <t>{"icon": "water-saturation-16x16","function": "calSaturationDualWater", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Total Porosity", "family": "Total Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.125, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Dua", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Dua", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Dua", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Dua", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qv", "family": "Volumetric CEC", "unit": "eq/L" } ], "options": [ { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m" } ] }</t>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationDualWater", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Total Porosity", "family": "Total Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.125, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Dua", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Dua", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Dua", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Dua", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qv", "family": "Volumetric CEC", "unit": "eq/L" } ] }</t>
   </si>
   <si>
     <t>Effective Water Saturation</t>
   </si>
   <si>
-    <t>{"icon": "water-saturation-16x16","function":"calSaturationEffective","inputs":[{"name":"Total Porosity","family":"Total Porosity","unit":"v/v"},{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},{"name":"Total Saturation","unit":"v/v"}],"parameters":[],"outputs":[{"name":"Sw_E","family":"Water Saturation","unit":"v/v"},{"name":"Bvw_E","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationEffective", "inputs": [ { "name": "Total Porosity", "family": "Total Porosity", "unit": "v/v" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Total Saturation", "family": "Water Saturation", "unit": "v/v" } ], "parameters": [], "outputs": [ { "name": "Sw_E", "family": "Water Saturation", "unit": "v/v" }, { "name": "Bvw_E", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Summation</t>
@@ -214,7 +214,7 @@
     <t>Multi-Mineral Solver</t>
   </si>
   <si>
-    <t>{"icon":"multi-mineral-solver-16x16","function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":189,"NPHI":0.991,"RHOB":1.03,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.3,"min":0}},{"name":"Fluid","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"DT":["Peak Slowness","Peak Travel Time","Travel Time","Compressional Slowness","DTC.*","DT","SON.*","AC","DTTP.*","Acoustic"],"RHOB":["Bulk Density","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Corrected ZDL Density","DEN.*","RHOB","RHOZ","ZDEN.*","RHOZ","LDEN","Density"],"GR":["Gamma Ray","Gamma Ray 1","Gamma Ray Normalised","Gamma Ray Shale","Gamma Ray Squared","Russian Gamma Ray","PLT Gamma Ray","GR.*","ECGR.*","SGRC.*","GAM.*","HGR","EGR","SGR"],"NPHI":["Thermal Neutron Near Far Ratio","Compensated Neutron Porosity","Epithermal Neutron Porosity","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Russian Thermal Neutron Porosity","Thermal Neutron Porosity","NEU.*","TNP.*","NPHI.*","CNL.*","CNT.*","Porosity"],"POT":["Potassium Capture Relative Yield","Potassium Concentration","Potassium Radio Nuclide Activity","POT.*","Weight Fraction - Element"],"THOR":["Thorium Concentration","Thorium Radio Nuclide Activity","THOR.*"],"URAN":["Uranium Concentration","Uranium Radio Nuclide Activity","URA.*"],"PAI":[".*"]},"outputFromParameter":true,"outputs":[],"outputConfig":{"family":"Mineral Volume","unit":"v/v","prefix":"V_","use":true}}</t>
+    <t>{"icon":"multi-mineral-solver-16x16","function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":189,"NPHI":0.991,"RHOB":1.03,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.3,"min":0}},{"name":"Fluid","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"DT":["Peak Slowness","Peak Travel Time","Travel Time","Compressional Slowness","DTC.*","DT","SON.*","AC","DTTP.*","Acoustic"],"RHOB":["Bulk Density","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Corrected ZDL Density","DEN.*","RHOB","RHOZ","ZDEN.*","RHOZ","LDEN","Density"],"GR":["Gamma Ray","Gamma Ray 1","Gamma Ray Normalised","Gamma Ray Shale","Gamma Ray Squared","Russian Gamma Ray","PLT Gamma Ray","GR.*","ECGR.*","SGRC.*","GAM.*","HGR","EGR","SGR"],"NPHI":["Thermal Neutron Near Far Ratio","Compensated Neutron Porosity","Epithermal Neutron Porosity","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Russian Thermal Neutron Porosity","Thermal Neutron Porosity","NEU.*","TNP.*","NPHI.*","CNL.*","CNT.*","Porosity"],"POT":["Potassium Capture Relative Yield","Potassium Concentration","Potassium Radio Nuclide Activity","POT.*","Weight Fraction - Element"],"THOR":["Thorium Concentration","Thorium Radio Nuclide Activity","THOR.*"],"URAN":["Uranium Concentration","Uranium Radio Nuclide Activity","URA.*"],"PAI":[".*"]},"outputFromParameter":true,"outputs":[],"outputConfigs":[{"name":"Minerals","family":"Mineral Volume","unit":"v/v","prefix":"V_","use":true},{"name":"Synthetic Curves","suffix":"_SYN","use":true}]}</t>
   </si>
   <si>
     <t>Gradient FTemp</t>
@@ -661,8 +661,8 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20919"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="242" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{5957672F-2355-4FB7-BEA1-7264DD0F9693}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{9383D1D3-F00A-4EEB-A6A5-EDC5C35CAC65}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,49 +151,49 @@
     <t>Water Saturation</t>
   </si>
   <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationArchie", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Ar", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Ar", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Ar", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Ar", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationArchie", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1, "unit": "unitless" }, { "name": "m", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Ar", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Ar", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Ar", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Ar", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationIndonesia", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Ind", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Ind", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Ind", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Ind", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationIndonesia", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1, "unit": "unitless" }, { "name": "m", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Ind", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Ind", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Ind", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Ind", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Modified Indonesia</t>
   </si>
   <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationModifiedIndonesia", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Imo", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Imo", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Imo", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Imo", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationModifiedIndonesia", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1, "unit": "unitless" }, { "name": "m", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Imo", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Imo", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Imo", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Imo", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Simandoux</t>
   </si>
   <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationSimandoux", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Sim", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Sim", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Sim", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Sim", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationSimandoux", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1, "unit": "unitless" }, { "name": "m", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Sim", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Sim", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Sim", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Sim", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Modified Simandoux</t>
   </si>
   <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationModifiedSimandoux", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m", "type": "number", "value": 2 }, { "name": "n", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Smo", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Smo", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Smo", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Smo", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationModifiedSimandoux", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1, "unit": "unitless" }, { "name": "m", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Smo", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Smo", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Smo", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Smo", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Juhasz</t>
   </si>
   <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationJuhasz", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Juh", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Juh", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qvn", "family": "Volumetric CEC", "unit": "eq/L" } ] }</t>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationJuhasz", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "m*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Juh", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Juh", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qvn", "family": "Volumetric CEC", "unit": "eq/L" } ] }</t>
   </si>
   <si>
     <t>Waxman-Smits</t>
   </si>
   <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationWaxmanSmits", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Formation Temperature", "family": "Formation Temperature", "unit": "degC" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "B", "type": "number", "value": 4, "unit": "L.S/eq.m" }, { "name": "Qv", "type": "number", "value": 1, "unit": "eq/L" } ], "outputs": [ { "name": "Sw_Wax", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Wax", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationWaxmanSmits", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Formation Temperature", "family": "Formation Temperature", "unit": "degC" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "m*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "B", "type": "number", "value": 4, "unit": "L.S/eq.m" }, { "name": "Qv", "type": "number", "value": 1, "unit": "eq/L" } ], "outputs": [ { "name": "Sw_Wax", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Wax", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Dual Water</t>
   </si>
   <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationDualWater", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Total Porosity", "family": "Total Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1 }, { "name": "m*", "type": "number", "value": 2 }, { "name": "n*", "type": "number", "value": 2 }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.125, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Dua", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Dua", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Dua", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Dua", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qv", "family": "Volumetric CEC", "unit": "eq/L" } ] }</t>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationDualWater", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Total Porosity", "family": "Total Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1, "unit": "unitless"}, { "name": "m*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.125, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Dua", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Dua", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Dua", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Dua", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qv", "family": "Volumetric CEC", "unit": "eq/L" } ] }</t>
   </si>
   <si>
     <t>Effective Water Saturation</t>
@@ -214,7 +214,7 @@
     <t>Multi-Mineral Solver</t>
   </si>
   <si>
-    <t>{"icon":"multi-mineral-solver-16x16","function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":189,"NPHI":0.991,"RHOB":1.03,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.3,"min":0}},{"name":"Fluid","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"DT":["Peak Slowness","Peak Travel Time","Travel Time","Compressional Slowness","DTC.*","DT","SON.*","AC","DTTP.*","Acoustic"],"RHOB":["Bulk Density","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Corrected ZDL Density","DEN.*","RHOB","RHOZ","ZDEN.*","RHOZ","LDEN","Density"],"GR":["Gamma Ray","Gamma Ray 1","Gamma Ray Normalised","Gamma Ray Shale","Gamma Ray Squared","Russian Gamma Ray","PLT Gamma Ray","GR.*","ECGR.*","SGRC.*","GAM.*","HGR","EGR","SGR"],"NPHI":["Thermal Neutron Near Far Ratio","Compensated Neutron Porosity","Epithermal Neutron Porosity","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Russian Thermal Neutron Porosity","Thermal Neutron Porosity","NEU.*","TNP.*","NPHI.*","CNL.*","CNT.*","Porosity"],"POT":["Potassium Capture Relative Yield","Potassium Concentration","Potassium Radio Nuclide Activity","POT.*","Weight Fraction - Element"],"THOR":["Thorium Concentration","Thorium Radio Nuclide Activity","THOR.*"],"URAN":["Uranium Concentration","Uranium Radio Nuclide Activity","URA.*"],"PAI":[".*"]},"outputFromParameter":true,"outputs":[],"outputConfigs":[{"name":"Minerals","family":"Mineral Volume","unit":"v/v","prefix":"V_","use":true},{"name":"Synthetic Curves","suffix":"_SYN","use":true}]}</t>
+    <t>{"icon":"multi-mineral-solver-16x16","function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":189,"NPHI":0.991,"RHOB":1.03,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.3,"min":0}},{"name":"Fluid","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"DT":["Peak Slowness","Peak Travel Time","Travel Time","Compressional Slowness","DTC.*","DT","SON.*","AC","DTTP.*","Acoustic"],"RHOB":["Bulk Density","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Corrected ZDL Density","DEN.*","RHOB","RHOZ","ZDEN.*","RHOZ","LDEN","Density"],"GR":["Gamma Ray","Gamma Ray 1","Gamma Ray Normalised","Gamma Ray Shale","Gamma Ray Squared","Russian Gamma Ray","PLT Gamma Ray","GR.*","ECGR.*","SGRC.*","GAM.*","HGR","EGR","SGR"],"NPHI":["Thermal Neutron Near Far Ratio","Compensated Neutron Porosity","Epithermal Neutron Porosity","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Russian Thermal Neutron Porosity","Thermal Neutron Porosity","NEU.*","TNP.*","NPHI.*","CNL.*","CNT.*","Porosity"],"POT":["Potassium Capture Relative Yield","Potassium Concentration","Potassium Radio Nuclide Activity","POT.*","Weight Fraction - Element"],"THOR":["Thorium Concentration","Thorium Radio Nuclide Activity","THOR.*"],"URAN":["Uranium Concentration","Uranium Radio Nuclide Activity","URA.*"],"PAI":[".*"]},"outputs":[],"outputConfigs":[{"name":"Minerals","family":"Mineral Volume","unit":"v/v","prefix":"V_","use":true},{"name":"Synthetic Curves","suffix":"_SYN","use":true,"disableEditing":["family","unit"]}]}</t>
   </si>
   <si>
     <t>Gradient FTemp</t>
@@ -301,13 +301,13 @@
     <t>Bad Hole</t>
   </si>
   <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"badHoleFromCaliper","inputs":[{"name":"Caliper","family":"Caliper"}],"outputs":[{"name":"BH_FL_BS","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Cutoff","type":"number","value":0,"unit":"in"},{"name":"Bit Size","type":"number","value":0,"unit":"in"}],"options":[{"name":"Bit Size"}]}</t>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"badHoleFromCaliper","inputs":[{"name":"Caliper","family":"Caliper"}],"outputs":[{"name":"BH_FL_BS","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Cutoff","type":"number","value":0,"unit":"in","color":"red"},{"name":"Bit Size","type":"number","value":0,"unit":"in","color":"green"}],"options":[{"name":"Bit Size"}]}</t>
   </si>
   <si>
     <t>Bad Hole From DRHO</t>
   </si>
   <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"badHoleFromDRHO","inputs":[{"name":"DENC","family":"Bulk Density Correction"}],"outputs":[{"name":"BH_FL_DRHO","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Correction Min","type":"number","value":0,"unit":"g/cm3"},{"name":"Bulk Density Correction Max","type":"number","value":1,"unit":"g/cm3"}]}</t>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"badHoleFromDRHO","inputs":[{"name":"DENC","family":"Bulk Density Correction"}],"outputs":[{"name":"BH_FL_DRHO","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Correction Min","type":"number","value":0,"unit":"g/cm3","color":"red"},{"name":"Bulk Density Correction Max","type":"number","value":1,"unit":"g/cm3","color":"green"}]}</t>
   </si>
   <si>
     <t>Coal Flag</t>
@@ -661,8 +661,8 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <pane ySplit="1" topLeftCell="D33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21002"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="256" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{9383D1D3-F00A-4EEB-A6A5-EDC5C35CAC65}"/>
+  <xr:revisionPtr revIDLastSave="259" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{520B6628-A8E4-4AA2-B94A-2F64DE65142A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,7 +214,7 @@
     <t>Multi-Mineral Solver</t>
   </si>
   <si>
-    <t>{"icon":"multi-mineral-solver-16x16","function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":189,"NPHI":0.991,"RHOB":1.03,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.3,"min":0}},{"name":"Fluid","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"DT":["Peak Slowness","Peak Travel Time","Travel Time","Compressional Slowness","DTC.*","DT","SON.*","AC","DTTP.*","Acoustic"],"RHOB":["Bulk Density","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Corrected ZDL Density","DEN.*","RHOB","RHOZ","ZDEN.*","RHOZ","LDEN","Density"],"GR":["Gamma Ray","Gamma Ray 1","Gamma Ray Normalised","Gamma Ray Shale","Gamma Ray Squared","Russian Gamma Ray","PLT Gamma Ray","GR.*","ECGR.*","SGRC.*","GAM.*","HGR","EGR","SGR"],"NPHI":["Thermal Neutron Near Far Ratio","Compensated Neutron Porosity","Epithermal Neutron Porosity","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Russian Thermal Neutron Porosity","Thermal Neutron Porosity","NEU.*","TNP.*","NPHI.*","CNL.*","CNT.*","Porosity"],"POT":["Potassium Capture Relative Yield","Potassium Concentration","Potassium Radio Nuclide Activity","POT.*","Weight Fraction - Element"],"THOR":["Thorium Concentration","Thorium Radio Nuclide Activity","THOR.*"],"URAN":["Uranium Concentration","Uranium Radio Nuclide Activity","URA.*"],"PAI":[".*"]},"outputs":[],"outputConfigs":[{"name":"Minerals","family":"Mineral Volume","unit":"v/v","prefix":"V_","use":true},{"name":"Synthetic Curves","suffix":"_SYN","use":true,"disableEditing":["family","unit"]}]}</t>
+    <t>{"icon":"multi-mineral-solver-16x16","function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":189,"NPHI":0.991,"RHOB":1.03,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.3,"min":0}},{"name":"Fluid","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"DT":["Peak Slowness","Peak Travel Time","Travel Time","Compressional Slowness","DTC.*","DT","SON.*","AC","DTTP.*","Acoustic"],"RHOB":["Bulk Density","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Corrected ZDL Density","DEN.*","RHOB","RHOZ","ZDEN.*","RHOZ","LDEN","Density"],"GR":["Gamma Ray","Gamma Ray 1","Gamma Ray Normalised","Gamma Ray Shale","Gamma Ray Squared","Russian Gamma Ray","PLT Gamma Ray","GR.*","ECGR.*","SGRC.*","GAM.*","HGR","EGR","SGR"],"NPHI":["Thermal Neutron Near Far Ratio","Compensated Neutron Porosity","Epithermal Neutron Porosity","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Russian Thermal Neutron Porosity","Thermal Neutron Porosity","NEU.*","TNP.*","NPHI.*","CNL.*","CNT.*","Porosity"],"POT":["Potassium Capture Relative Yield","Potassium Concentration","Potassium Radio Nuclide Activity","POT.*","Weight Fraction - Element"],"THOR":["Thorium Concentration","Thorium Radio Nuclide Activity","THOR.*"],"URAN":["Uranium Concentration","Uranium Radio Nuclide Activity","URA.*"],"PAI":[".*"]},"outputs":[],"outputConfigs":[{"name":"Minerals","family":"Mineral Volume","unit":"v/v","prefix":"V_"},{"name":"Synthetic Curves","suffix":"_SYN"}]}</t>
   </si>
   <si>
     <t>Gradient FTemp</t>
@@ -337,7 +337,7 @@
     <t>Custom Flag</t>
   </si>
   <si>
-    <t>{ "icon": "badhole-coal-salt-16x16", "function": "customFlag", "inputs": [{ "name": "Curve Input" }], "outputs": [ { "name": "CUSTOM_FL", "family": "General Flag", "unit": "UNITLESS" } ], "parameters": [ { "name": "Curve Input Min", "type": "number", "value": 0, "unit": "g/cm3" }, { "name": "Curve Input Max", "type": "number", "value": 1, "unit": "g/cm3" }, { "name": "Curve Input Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] } ] }</t>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"customFlag","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"outputs":[{"name":"CUSTOM_FL_1","family":"General Flag","unit":"UNITLESS","parameters":[]}],"outputTemplate":{"name":"CUSTOM_FL","family":"General Flag","unit":"UNITLESS","parameters":[]},"outputsMultiple":true,"outputFromParameters":true,"parameters":[{"id":"Condition 1","name":"Condition 1","type":"handsontable","tableType":"condition","removeable":false}],"paramMultiple":true,"parameterActions":[{"name":"addParam","icon":"ti-plus","label":"Add parameter"}]}</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -661,8 +661,8 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="D33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <pane ySplit="1" topLeftCell="C28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21002"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="259" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{520B6628-A8E4-4AA2-B94A-2F64DE65142A}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{49CDF5A3-32AA-4F83-8D73-7E0C785C31EE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,11 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -337,7 +342,7 @@
     <t>Custom Flag</t>
   </si>
   <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"customFlag","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"outputs":[{"name":"CUSTOM_FL_1","family":"General Flag","unit":"UNITLESS","parameters":[]}],"outputTemplate":{"name":"CUSTOM_FL","family":"General Flag","unit":"UNITLESS","parameters":[]},"outputsMultiple":true,"outputFromParameters":true,"parameters":[{"id":"Condition 1","name":"Condition 1","type":"handsontable","tableType":"condition","removeable":false}],"paramMultiple":true,"parameterActions":[{"name":"addParam","icon":"ti-plus","label":"Add parameter"}]}</t>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"customFlag","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"outputs":[{"name":"CUSTOM_FL_1","family":"General Flag","unit":"UNITLESS","parameters":[]}],"outputTemplate":{"name":"CUSTOM_FL","family":"General Flag","unit":"UNITLESS","parameters":[]},"outputsMultiple":true,"outputFromParameters":true,"parameters":[{"id":"Condition 1","name":"Condition 1","type":"handsontable","tableType":"condition"}],"addParamFlag":true}</t>
   </si>
 </sst>
 </file>
@@ -662,7 +667,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <pane ySplit="1" topLeftCell="C28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21006"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="262" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{49CDF5A3-32AA-4F83-8D73-7E0C785C31EE}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{31E8EEF9-125F-4C1E-804F-F2BB6DF470C8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,7 +342,7 @@
     <t>Custom Flag</t>
   </si>
   <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"customFlag","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"outputs":[{"name":"CUSTOM_FL_1","family":"General Flag","unit":"UNITLESS","parameters":[]}],"outputTemplate":{"name":"CUSTOM_FL","family":"General Flag","unit":"UNITLESS","parameters":[]},"outputsMultiple":true,"outputFromParameters":true,"parameters":[{"id":"Condition 1","name":"Condition 1","type":"handsontable","tableType":"condition"}],"addParamFlag":true}</t>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"customFlag","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"outputs":[{"name":"CUSTOM_FL_1","family":"General Flag","unit":"UNITLESS","parameters":[]}],"outputTemplate":{"name":"CUSTOM_FL","family":"General Flag","unit":"UNITLESS","parameters":[]},"outputsMultiple":true,"outputFromParameters":true,"parameters":[{"id":"Condition 1","name":"Condition 1","type":"handsontable","tableType":"condition","value":[{}],"methods":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"],"nameEditable":true}],"addParamFlag":true}</t>
   </si>
 </sst>
 </file>
@@ -667,7 +667,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <pane ySplit="1" topLeftCell="C28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21006"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21009"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="264" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{31E8EEF9-125F-4C1E-804F-F2BB6DF470C8}"/>
+  <xr:revisionPtr revIDLastSave="301" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{090A10C0-68AF-4584-85DB-9CF7C5EC66BA}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,7 +192,7 @@
     <t>Waxman-Smits</t>
   </si>
   <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationWaxmanSmits", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Formation Temperature", "family": "Formation Temperature", "unit": "degC" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "m*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "B", "type": "number", "value": 4, "unit": "L.S/eq.m" }, { "name": "Qv", "type": "number", "value": 1, "unit": "eq/L" } ], "outputs": [ { "name": "Sw_Wax", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Wax", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationWaxmanSmits", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Formation Temperature", "family": "Formation Temperature", "unit": "degF", "allowNull": true }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "m*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "B", "type": "number", "value": 4, "unit": "L.S/eq.m" }, { "name": "Qv", "type": "number", "value": 1, "unit": "eq/L" } ], "outputs": [ { "name": "Sw_Wax", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Wax", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Dual Water</t>
@@ -207,13 +207,13 @@
     <t>{ "icon": "water-saturation-16x16", "function": "calSaturationEffective", "inputs": [ { "name": "Total Porosity", "family": "Total Porosity", "unit": "v/v" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Total Saturation", "family": "Water Saturation", "unit": "v/v" } ], "parameters": [], "outputs": [ { "name": "Sw_E", "family": "Water Saturation", "unit": "v/v" }, { "name": "Bvw_E", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
-    <t>Summation</t>
+    <t>Cutoff and Summation</t>
   </si>
   <si>
     <t>Clastic</t>
   </si>
   <si>
-    <t>{"icon": "summation-16x16","function": "calClasticfSummation", "inputs": [ { "name": "Shale Volume", "unit": "v/v","family":"Shale Volume" }, { "name": "Porosity", "unit": "v/v", "family": "Porosity" }, { "name": "Water Saturation", "unit": "v/v", "family":"Water Saturation" } ], "parameters": [ { "name": "Vshale Cut", "type": "number", "value": 0.35 }, { "name": "Phi Cut", "type": "number", "value": 0.15 }, { "name": "SW Cut", "type": "number", "value": 0.6 } ], "outputs": [ { "name": "NetRes", "family": "Net Reservoir Flag", "unit": "UNITLESS" }, { "name": "Netpay", "family": "Net Pay Flag", "unit": "UNITLESS" } ] }</t>
+    <t>{ "icon": "summation-16x16", "function": "calClasticfSummation", "summation": true, "multiple": true, "addParamFlag": true, "inputs": [ { "name": "Shale Volume", "unit": "v/v", "family": "Shale Volume" }, { "name": "Porosity", "unit": "v/v", "family": "Porosity" }, { "name": "Water Saturation", "unit": "v/v", "family": "Water Saturation" } ], "inputTemplate": { "name": "Curve", "allowNull": true }, "parameters": [ { "id": "Vshale Cutoff", "name": "Vshale Cutoff", "type": "handsontable", "tableType": "condition", "value": [{ "method": "Value &lt;= Min", "min": 0.35 }] }, { "id": "Phi Cutoff", "name": "Phi Cutoff", "type": "handsontable", "tableType": "condition", "value": [{ "method": "Value &lt;= Min", "min": 0.15 }] }, { "id": "SW Cutoff", "name": "SW Cutoff", "type": "handsontable", "tableType": "condition", "value": [{ "method": "Value &lt;= Min", "min": 0.6 }] } ], "paramTemplate": { "name": "Custom Cutoff 4", "type": "handsontable", "tableType": "condition", "value": [{ "method": "Value &lt;= Min", "min": 0.5 }], "nameEditable":true }, "outputsMultiple": true, "outputFromParameters": true, "outputs": [ { "name": "ROCK", "family": "Net Flag", "unit": "UNITLESS", "parameters": [ { "id": "Vshale Cutoff" } ], "shading": "yellow" }, { "name": "RES", "family": "Net Flag", "unit": "UNITLESS", "parameters": [ { "id": "Vshale Cutoff" }, { "id": "Phi Cutoff" } ], "shading": "green" }, { "name": "PAY", "family": "Net Flag", "unit": "UNITLESS", "parameters": [ { "id": "Vshale Cutoff" }, { "id": "Phi Cutoff" }, { "id": "SW Cutoff" } ], "shading": "red" } ], "outputTemplate": { "name": "CUSTOM_FL", "family": "Net Flag", "unit": "UNITLESS", "parameters": [], "shading": "red" } }</t>
   </si>
   <si>
     <t>Multi-Mineral Solver</t>
@@ -228,13 +228,13 @@
     <t>Formation Temperature</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"gradientFTemp","inputs":[{"name":"Depth","family":"Measured Depth"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"Local Temperature Gradient","type":"number","value":0,"unit":"degC/m"},{"name":"Top Log Interval","type":"number","value":0,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":0,"unit":"degC"}]}</t>
+    <t>{"icon":"formation-resistivity-16x16","function":"gradientFTemp","inputs":[{"name":"Depth","family":"Measured Depth","unit": "m"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"Local Temperature Gradient","type":"number","value":0,"unit":"degC/m"},{"name":"Top Log Interval","type":"number","value":0,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":0,"unit":"degC"}]}</t>
   </si>
   <si>
     <t>Log Interval FTemp</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"logIntervalFTemp","inputs":[{"name":"Depth","family":"Measured Depth"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"Top Log Interval","type":"number","value":0,"unit":"m"},{"name":"Bottom Log Interval","type":"number","value":1,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":0,"unit":"degC"},{"name":"Bottom Log Temperature","type":"number","value":1,"unit":"degC"}]}</t>
+    <t>{"icon":"formation-resistivity-16x16","function":"logIntervalFTemp","inputs":[{"name":"Depth","family":"Measured Depth","unit": "m"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"Top Log Interval","type":"number","value":0,"unit":"m"},{"name":"Bottom Log Interval","type":"number","value":1,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":0,"unit":"degC"},{"name":"Bottom Log Temperature","type":"number","value":1,"unit":"degC"}]}</t>
   </si>
   <si>
     <t>Gradient FPress</t>
@@ -243,13 +243,13 @@
     <t>Formation Pressure</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"gradientFPress","inputs":[{"name":"Depth","family":"Measured Depth"}],"outputs":[{"name":"FPRESS","family":"Formation Pressure","unit":"kPa"}],"parameters":[{"name":"Pressure Gradient","type":"number","value":9.792,"unit":"kPa/m"}]}</t>
+    <t>{"icon":"formation-resistivity-16x16","function":"gradientFPress","inputs":[{"name":"Depth","family":"Measured Depth","unit": "m"}],"outputs":[{"name":"FPRESS","family":"Formation Pressure","unit":"kPa"}],"parameters":[{"name":"Pressure Gradient","type":"number","value":9.792,"unit":"kPa/m"}]}</t>
   </si>
   <si>
     <t>Mud Density FPress</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"mudDensityFPress","inputs":[{"name":"Depth","family":"Measured Depth"}],"outputs":[{"name":"FPRESS","family":"Formation Pressure","unit":"kPa"}],"parameters":[{"name":"Drilling Fluid Density","type":"number","value":1,"unit":"g/cm3"}]}</t>
+    <t>{"icon":"formation-resistivity-16x16","function":"mudDensityFPress","inputs":[{"name":"Depth","family":"Measured Depth","unit": "m"}],"outputs":[{"name":"FPRESS","family":"Formation Pressure","unit":"kPa"}],"parameters":[{"name":"Drilling Fluid Density","type":"number","value":1,"unit":"g/cm3"}]}</t>
   </si>
   <si>
     <t>Normalize Qv</t>
@@ -258,19 +258,19 @@
     <t>Qv Function</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"normalizeQv","inputs":[{"name":"Porosity","family":"Porosity"},{"name":"Shale Volume","family":"Shale Volume"}],"outputs":[{"name":"QVn","family":"Normalised Qv","unit":"v/v"}],"parameters":[{"name":"Porosity Shale","type":"number","value":0.4,"unit":"v/v"}]}</t>
+    <t>{"icon":"formation-resistivity-16x16","function":"normalizeQv","inputs":[{"name":"Porosity","family":"Porosity","unit": "v/v"},{"name":"Shale Volume","family":"Shale Volume","unit": "v/v"}],"outputs":[{"name":"QVn","family":"Normalised Qv","unit":"v/v"}],"parameters":[{"name":"Porosity Shale","type":"number","value":0.4,"unit":"v/v"}]}</t>
   </si>
   <si>
     <t>CEC Qv</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"cecQv","inputs":[{"name":"Porosity","family":"Porosity"},{"name":"CEC","family":"Volumetric CEC"},{"name":"Grain Density","family":"Grain Density"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"}],"parameters":[]}</t>
+    <t>{"icon":"formation-resistivity-16x16","function":"cecQv","inputs":[{"name":"Porosity","family":"Porosity","unit": "v/v"},{"name":"CEC","family":"Volumetric CEC","unit": "meq/g"},{"name":"Grain Density","family":"Grain Density","unit": "g/cm3"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"}],"parameters":[]}</t>
   </si>
   <si>
     <t>Qv Water Bearing Shaly Sands</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"qvWaterBearingShalySands","inputs":[{"name":"Porosity","family":"Porosity"},{"name":"Resistivity","family":"Resistivity"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"},{"name":"B","family":"Waxman B","unit":"L.S/eq.m"},{"name":"BQv","family":"Waxman BQv","unit":"S/m"}],"parameters":[{"name":"Temperature","type":"number","value":0,"unit":"degF"},{"name":"Water Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"a*","type":"number","value":0},{"name":"m*","type":"number","value":0}]}</t>
+    <t>{"icon":"formation-resistivity-16x16","function":"qvWaterBearingShalySands","inputs":[{"name":"Porosity","family":"Porosity","unit": "v/v"},{"name":"Resistivity","family":"Resistivity","unit": "ohm.m"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"},{"name":"B","family":"Waxman B","unit":"L.S/eq.m"},{"name":"BQv","family":"Waxman BQv","unit":"S/m"}],"parameters":[{"name":"Temperature","type":"number","value":0,"unit":"degF"},{"name":"Water Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"a*","type":"number","value":0},{"name":"m*","type":"number","value":0}]}</t>
   </si>
   <si>
     <t>RW from SAL and FTemp</t>
@@ -279,25 +279,25 @@
     <t>Fluid/Water Property</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"RWfromSALandFTemp","inputs":[{"name":"Formation Temperature","family":"Formation Temperature"},{"name":"Salinity","family":"Salinity"}],"outputs":[{"name":"RwX","family":"Formation Water Resistivity","unit":"ohm.m"}],"parameters":[]}</t>
+    <t>{"icon":"formation-resistivity-16x16","function":"RWfromSALandFTemp","inputs":[{"name":"Formation Temperature","family":"Formation Temperature","unit": "degF"},{"name":"Salinity","family":"Salinity","unit": "ppk"}],"outputs":[{"name":"RwX","family":"Formation Water Resistivity","unit":"ohm.m"}],"parameters":[]}</t>
   </si>
   <si>
     <t>U from Salinity</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"UfromSalinity","inputs":[{"name":"Salinity","family":"Salinity"}],"outputs":[{"name":"U","family":"Volumetric Photoelectric Effect","unit":"barns/cm3"}],"parameters":[]}</t>
+    <t>{"icon":"formation-resistivity-16x16","function":"UfromSalinity","inputs":[{"name":"Salinity","family":"Salinity","unit": "ppk"}],"outputs":[{"name":"U","family":"Volumetric Photoelectric Effect","unit":"barns/cm3"}],"parameters":[]}</t>
   </si>
   <si>
     <t>Saturated Salinity Concentration from FTemp</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"saturatedSalinityConcentrationfromFTemp","inputs":[{"name":"Formation Temperature","family":"Formation Temperature"}],"outputs":[{"name":"SAL_SAT","family":"Formation Water Salinity","unit":"ppk"}],"parameters":[]}</t>
+    <t>{"icon":"formation-resistivity-16x16","function":"saturatedSalinityConcentrationfromFTemp","inputs":[{"name":"Formation Temperature","family":"Formation Temperature","unit": "degF"}],"outputs":[{"name":"SAL_SAT","family":"Formation Water Salinity","unit":"ppk"}],"parameters":[]}</t>
   </si>
   <si>
     <t>Mud Salinity and Resistivity</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"mudSalinityAndResistivity","inputs":[{"name":"Formation Temperature","family":"Formation Temperature"}],"outputs":[{"name":"RM","family":"Mud Resistivity","unit":"ohm.m"},{"name":"RMF","family":"Mud Filtrate Resistivity","unit":"ohm.m"},{"name":"RMC","family":"Mudcake Resistivity","unit":"ohm.m"},{"name":"SALM","family":"Mud Salinity","unit":"ppm"},{"name":"SALMF","family":"Mud Filtrate Salinity","unit":"ppm"}],"parameters":[{"name":"Mud Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mud Sample Temperature","type":"number","value":0,"unit":"degC"},{"name":"Mud Filtrate Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mud Filtrate Sample Temperature","type":"number","value":0,"unit":"degC"},{"name":"Mudcake Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mudcake Sample Temperature","type":"number","value":0,"unit":"degC"}]}</t>
+    <t>{"icon":"formation-resistivity-16x16","function":"mudSalinityAndResistivity","inputs":[{"name":"Formation Temperature","family":"Formation Temperature","unit": "degC"}],"outputs":[{"name":"RM","family":"Mud Resistivity","unit":"ohm.m"},{"name":"RMF","family":"Mud Filtrate Resistivity","unit":"ohm.m"},{"name":"RMC","family":"Mudcake Resistivity","unit":"ohm.m"},{"name":"SALM","family":"Mud Salinity","unit":"ppm"},{"name":"SALMF","family":"Mud Filtrate Salinity","unit":"ppm"}],"parameters":[{"name":"Mud Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mud Sample Temperature","type":"number","value":0,"unit":"degC"},{"name":"Mud Filtrate Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mud Filtrate Sample Temperature","type":"number","value":0,"unit":"degC"},{"name":"Mudcake Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mudcake Sample Temperature","type":"number","value":0,"unit":"degC"}]}</t>
   </si>
   <si>
     <t>Bad Hole From Caliper</t>
@@ -306,43 +306,43 @@
     <t>Bad Hole</t>
   </si>
   <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"badHoleFromCaliper","inputs":[{"name":"Caliper","family":"Caliper"}],"outputs":[{"name":"BH_FL_BS","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Cutoff","type":"number","value":0,"unit":"in","color":"red"},{"name":"Bit Size","type":"number","value":0,"unit":"in","color":"green"}],"options":[{"name":"Bit Size"}]}</t>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"badHoleFromCaliper","inputs":[{"name":"Caliper","family":"Caliper","unit": "in"}],"outputs":[{"name":"BH_FL_BS","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Cutoff","type":"number","value":0,"unit":"in","color":"red"},{"name":"Bit Size","type":"number","value":0,"unit":"in","color":"green"}],"options":[{"name":"Bit Size"}]}</t>
   </si>
   <si>
     <t>Bad Hole From DRHO</t>
   </si>
   <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"badHoleFromDRHO","inputs":[{"name":"DENC","family":"Bulk Density Correction"}],"outputs":[{"name":"BH_FL_DRHO","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Correction Min","type":"number","value":0,"unit":"g/cm3","color":"red"},{"name":"Bulk Density Correction Max","type":"number","value":1,"unit":"g/cm3","color":"green"}]}</t>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"badHoleFromDRHO","inputs":[{"name":"DENC","family":"Bulk Density Correction","unit": "g/cm3"}],"outputs":[{"name":"BH_FL_DRHO","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Correction Min","type":"number","value":0,"unit":"g/cm3","color":"red"},{"name":"Bulk Density Correction Max","type":"number","value":1,"unit":"g/cm3","color":"green"}]}</t>
   </si>
   <si>
     <t>Coal Flag</t>
   </si>
   <si>
-    <t>{ "icon": "badhole-coal-salt-16x16", "function": "coalFlag", "inputs": [ { "name": "Bulk Density", "family": "Bulk Density", "allowNull": true }, { "name": "Neutron Porosity", "family": "Neutron Porosity", "allowNull": true }, { "name": "Compressional Slowness", "family": "Compressional Slowness", "allowNull": true }, { "name": "Photoelectric Factor", "family": "Photoelectric Factor", "allowNull": true }, { "name": "Resistivity", "family": "Resistivity", "allowNull": true } ], "outputs": [{ "name": "COAL_FL", "family": "Coal Flag", "unit": "UNITLESS" }], "parameters": [ { "name": "Bulk Density Min", "type": "number", "value": 1.2, "unit": "g/cm3" }, { "name": "Bulk Density Max", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "Bulk Density Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] }, { "name": "Neutron Porosity Min", "type": "number", "value": 0.3, "unit": "v/v" }, { "name": "Neutron Porosity Max", "type": "number", "value": 0.6, "unit": "v/v" }, { "name": "Neutron Porosity Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] }, { "name": "Compressional Slowness Min", "type": "number", "value": 90, "unit": "US/FT" }, { "name": "Compressional Slowness Max", "type": "number", "value": 150, "unit": "US/FT" }, { "name": "Compressional Slowness Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] }, { "name": "Photoelectric Factor Min", "type": "number", "value": 0.16, "unit": "UNITLESS" }, { "name": "Photoelectric Factor Max", "type": "number", "value": 0.2, "unit": "UNITLESS" }, { "name": "Photoelectric Factor Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] }, { "name": "Resistivity Min", "type": "number", "value": 900, "unit": "ohm.m" }, { "name": "Resistivity Max", "type": "number", "value": 1000, "unit": "ohm.m" }, { "name": "Resistivity Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] } ] }</t>
+    <t>{ "icon": "badhole-coal-salt-16x16", "function": "coalFlag", "inputs": [ { "name": "Bulk Density", "family": "Bulk Density", "unit": "g/cm3", "allowNull": true }, { "name": "Neutron Porosity", "family": "Neutron Porosity", "unit": "v/v", "allowNull": true }, { "name": "Compressional Slowness", "family": "Compressional Slowness", "unit": "US/FT", "allowNull": true }, { "name": "Photoelectric Factor", "family": "Photoelectric Factor","unit": "UNITLESS", "allowNull": true }, { "name": "Resistivity", "family": "Resistivity", "allowNull": true } ], "outputs": [ { "name": "COAL_FL", "family": "Coal Flag", "unit": "UNITLESS" } ], "parameters": [ { "name": "Bulk Density Cutoff", "id": "Bulk Density Cutoff", "type": "handsontable", "tableType": "condition", "value": [ { "method": "Min &lt;= Value &lt; Max", "min": 1.2, "max": 2.2 } ] }, { "name": "Neutron Porosity Cutoff", "id": "Neutron Porosity Cutoff", "type": "handsontable", "tableType": "condition", "value": [ { "method": "Min &lt;= Value &lt; Max", "min": 0.3, "max": 0.6 } ] }, { "name": "Compressional Slowness Cutoff", "id": "Compressional Slowness Cutoff", "type": "handsontable", "tableType": "condition", "value": [{ "method": "Min &lt;= Value &lt; Max", "min": 90, "max": 150 }] }, { "name": "Photoelectric Factor Cutoff", "id": "Photoelectric Factor Cutoff", "type": "handsontable", "tableType": "condition", "value": [ { "method": "Min &lt;= Value &lt; Max", "min": 0.16, "max": 0.2 } ] }, { "name": "Resistivity Cutoff", "id": "Resistivity Cutoff", "type": "handsontable", "tableType": "condition", "value": [ { "method": "Min &lt;= Value &lt; Max", "min": 900, "max": 1000 } ] } ] }</t>
   </si>
   <si>
     <t>Carbonate Flag</t>
   </si>
   <si>
-    <t>{ "icon": "badhole-coal-salt-16x16", "function": "carbonateFlag", "inputs": [ { "name": "Bulk Density", "family": "Bulk Density", "allowNull": true }, { "name": "Neutron Porosity", "family": "Neutron Porosity", "allowNull": true }, { "name": "Compressional Slowness", "family": "Compressional Slowness", "allowNull": true }, { "name": "Photoelectric Factor", "family": "Photoelectric Factor", "allowNull": true } ], "outputs": [ { "name": "CARBONATE_FL", "family": "General Flag", "unit": "UNITLESS" } ], "parameters": [ { "name": "Bulk Density Min", "type": "number", "value": 2.85, "unit": "g/cm3" }, { "name": "Bulk Density Max", "type": "number", "value": 3, "unit": "g/cm3" }, { "name": "Bulk Density Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] }, { "name": "Neutron Porosity Min", "type": "number", "value": 0, "unit": "v/v" }, { "name": "Neutron Porosity Max", "type": "number", "value": 1, "unit": "v/v" }, { "name": "Neutron Porosity Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] }, { "name": "Compressional Slowness Min", "type": "number", "value": 45, "unit": "US/FT" }, { "name": "Compressional Slowness Max", "type": "number", "value": 55, "unit": "US/FT" }, { "name": "Compressional Slowness Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] }, { "name": "Photoelectric Factor Min", "type": "number", "value": 5, "unit": "UNITLESS" }, { "name": "Photoelectric Factor Max", "type": "number", "value": 7, "unit": "UNITLESS" }, { "name": "Photoelectric Factor Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] } ] }</t>
+    <t>{ "icon": "badhole-coal-salt-16x16", "function": "carbonateFlag", "inputs": [ { "name": "Bulk Density", "family": "Bulk Density", "unit": "g/cm3", "allowNull": true }, { "name": "Neutron Porosity", "family": "Neutron Porosity", "unit": "v/v", "allowNull": true }, { "name": "Compressional Slowness", "family": "Compressional Slowness", "unit": "US/FT", "allowNull": true }, { "name": "Photoelectric Factor", "family": "Photoelectric Factor", "unit": "UNITLESS", "allowNull": true } ], "outputs": [ { "name": "CARBONATE_FL", "family": "General Flag", "unit": "UNITLESS" } ], "parameters": [ { "name": "Bulk Density Cutoff", "id": "Bulk Density Cutoff", "type": "handsontable", "tableType": "condition", "value": [{ "method": "Min &lt;= Value &lt; Max", "min": 2.85, "max": 3 }] }, { "name": "Neutron Porosity Cutoff", "id": "Neutron Porosity Cutoff", "type": "handsontable", "tableType": "condition", "value": [{ "method": "Min &lt;= Value &lt; Max", "min": 0, "max": 1 }] }, { "name": "Compressional Slowness Cutoff", "id": "Compressional Slowness Cutoff", "type": "handsontable", "tableType": "condition", "value": [{ "method": "Min &lt;= Value &lt; Max", "min": 45, "max": 55 }] }, { "name": "Photoelectric Factor Cutoff", "id": "Photoelectric Factor Cutoff", "type": "handsontable", "tableType": "condition", "value": [{ "method": "Min &lt;= Value &lt; Max", "min": 5, "max": 7 }] } ] }</t>
   </si>
   <si>
     <t>Halite Flag</t>
   </si>
   <si>
-    <t>{ "icon": "badhole-coal-salt-16x16", "function": "haliteFlag", "inputs": [ { "name": "Bulk Density", "family": "Bulk Density", "allowNull": true }, { "name": "Resistivity", "family": "Resistivity", "allowNull": true }, { "name": "Compressional Slowness", "family": "Compressional Slowness", "allowNull": true }, { "name": "Photoelectric Factor", "family": "Photoelectric Factor", "allowNull": true } ], "outputs": [ { "name": "HALITE_FL", "family": "Halite Flag", "unit": "UNITLESS" } ], "parameters": [ { "name": "Bulk Density Min", "type": "number", "value": 2.05, "unit": "g/cm3" }, { "name": "Bulk Density Max", "type": "number", "value": 2.15, "unit": "g/cm3" }, { "name": "Bulk Density Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] }, { "name": "Resistivity Min", "type": "number", "value": 10000, "unit": "ohm.m" }, { "name": "Resistivity Max", "type": "number", "value": 100000, "unit": "ohm.m" }, { "name": "Resistivity Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] }, { "name": "Compressional Slowness Min", "type": "number", "value": 60, "unit": "US/FT" }, { "name": "Compressional Slowness Max", "type": "number", "value": 70, "unit": "US/FT" }, { "name": "Compressional Slowness Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] }, { "name": "Photoelectric Factor Min", "type": "number", "value": 4.5, "unit": "UNITLESS" }, { "name": "Photoelectric Factor Max", "type": "number", "value": 5, "unit": "UNITLESS" }, { "name": "Photoelectric Factor Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] } ] }</t>
+    <t>{ "icon": "badhole-coal-salt-16x16", "function": "haliteFlag", "inputs": [ { "name": "Bulk Density", "family": "Bulk Density", "unit": "g/cm3", "allowNull": true }, { "name": "Resistivity", "family": "Resistivity", "unit": "ohm.m", "allowNull": true }, { "name": "Compressional Slowness", "family": "Compressional Slowness", "unit": "US/FT", "allowNull": true }, { "name": "Photoelectric Factor", "family": "Photoelectric Factor", "unit": "UNITLESS", "allowNull": true } ], "outputs": [ { "name": "HALITE_FL", "family": "Halite Flag", "unit": "UNITLESS" } ], "parameters": [ { "name": "Bulk Density Cutoff", "id": "Bulk Density Cutoff", "type": "handsontable", "tableType": "condition", "value": [ { "method": "Min &lt;= Value &lt; Max", "min": 2.05, "max": 2.15 } ] }, { "name": "Resistivity Cutoff", "id": "Resistivity Cutoff", "type": "handsontable", "tableType": "condition", "value": [ { "method": "Min &lt;= Value &lt; Max", "min": 10000, "max": 100000 } ] }, { "name": "Compressional Slowness Cutoff", "id": "Compressional Slowness Cutoff", "type": "handsontable", "tableType": "condition", "value": [ { "method": "Min &lt;= Value &lt; Max", "min": 60, "max": 70 } ] }, { "name": "Photoelectric Factor Cutoff", "id": "Photoelectric Factor Cutoff", "type": "handsontable", "tableType": "condition", "value": [ { "method": "Min &lt;= Value &lt; Max", "min": 4.5, "max": 5 } ] } ] }</t>
   </si>
   <si>
     <t>Anhydrite Flag</t>
   </si>
   <si>
-    <t>{ "icon": "badhole-coal-salt-16x16", "function": "anhydriteFlag", "inputs": [ { "name": "Bulk Density", "family": "Bulk Density", "allowNull": true }, { "name": "Resistivity", "family": "Resistivity", "allowNull": true }, { "name": "Compressional Slowness", "family": "Compressional Slowness", "allowNull": true }, { "name": "Photoelectric Factor", "family": "Photoelectric Factor", "allowNull": true } ], "outputs": [ { "name": "ANHYDRITE_FL", "family": "General Flag", "unit": "UNITLESS" } ], "parameters": [ { "name": "Bulk Density Min", "type": "number", "value": 2.85, "unit": "g/cm3" }, { "name": "Bulk Density Max", "type": "number", "value": 3, "unit": "g/cm3" }, { "name": "Bulk Density Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] }, { "name": "Resistivity Min", "type": "number", "value": 10000, "unit": "ohm.m" }, { "name": "Resistivity Max", "type": "number", "value": 100000, "unit": "ohm.m" }, { "name": "Resistivity Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] }, { "name": "Compressional Slowness Min", "type": "number", "value": 55, "unit": "US/FT" }, { "name": "Compressional Slowness Max", "type": "number", "value": 60, "unit": "US/FT" }, { "name": "Compressional Slowness Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] }, { "name": "Photoelectric Factor Min", "type": "number", "value": 4.5, "unit": "UNITLESS" }, { "name": "Photoelectric Factor Max", "type": "number", "value": 5, "unit": "UNITLESS" }, { "name": "Photoelectric Factor Method", "type": "select", "value": "Min &lt;= Value &lt; Max", "choices": [ "Min &lt;= Value &lt; Max", "Min &lt; Value &lt;= Max", "Min &lt; Value &lt; Max", "Min &lt;= Value &lt;= Max", "Value &lt; Min or Value &gt; Max", "Value &lt;= Min or Value &gt; Max", "Value &lt; Min or Value &gt;= Max", "Value &lt;= Min or Value &gt;= Max", "Value &lt;= Min", "Value &gt;= Max" ] } ] }</t>
+    <t>{ "icon": "badhole-coal-salt-16x16", "function": "anhydriteFlag", "inputs": [ { "name": "Bulk Density", "family": "Bulk Density", "unit": "g/cm3", "allowNull": true }, { "name": "Resistivity", "family": "Resistivity", "unit": "ohm.m", "allowNull": true }, { "name": "Compressional Slowness", "family": "Compressional Slowness", "unit": "US/FT", "allowNull": true }, { "name": "Photoelectric Factor", "family": "Photoelectric Factor", "unit": "UNITLESS", "allowNull": true } ], "outputs": [ { "name": "ANHYDRITE_FL", "family": "General Flag", "unit": "UNITLESS" } ], "parameters": [ { "name": "Bulk Density Cutoff", "id": "Bulk Density Cutoff", "type": "handsontable", "tableType": "condition", "value": [{ "method":"Min &lt;= Value &lt; Max", "min": 2.85, "max": 3}] }, { "name": "Resistivity Cutoff", "id": "Resistivity Cutoff", "type": "handsontable", "tableType": "condition", "value": [{ "method":"Min &lt;= Value &lt; Max", "min": 10000, "max": 100000}] }, { "name": "Compressional Slowness Cutoff", "id": "Compressional Slowness Cutoff", "type": "handsontable", "tableType": "condition", "value": [{ "method":"Min &lt;= Value &lt; Max", "min": 55, "max": 60}] }, { "name": "Photoelectric Factor Cutoff", "id": "Photoelectric Factor Cutoff", "type": "handsontable", "tableType": "condition", "value": [{ "method":"Min &lt;= Value &lt; Max", "min": 4.5, "max": 5}] } ] }</t>
   </si>
   <si>
     <t>Custom Flag</t>
   </si>
   <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"customFlag","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"outputs":[{"name":"CUSTOM_FL_1","family":"General Flag","unit":"UNITLESS","parameters":[]}],"outputTemplate":{"name":"CUSTOM_FL","family":"General Flag","unit":"UNITLESS","parameters":[]},"outputsMultiple":true,"outputFromParameters":true,"parameters":[{"id":"Condition 1","name":"Condition 1","type":"handsontable","tableType":"condition","value":[{}],"methods":["Min &lt;= Value &lt; Max","Min &lt; Value &lt;= Max","Min &lt; Value &lt; Max","Min &lt;= Value &lt;= Max","Value &lt; Min or Value &gt; Max","Value &lt;= Min or Value &gt; Max","Value &lt; Min or Value &gt;= Max","Value &lt;= Min or Value &gt;= Max","Value &lt;= Min","Value &gt;= Max"],"nameEditable":true}],"addParamFlag":true}</t>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"customFlag","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"outputs":[{"name":"CUSTOM_FL_1","family":"General Flag","unit":"UNITLESS","parameters":[{"id":"Condition 1"}]}],"outputTemplate":{"name":"CUSTOM_FL","family":"General Flag","unit":"UNITLESS","parameters":[]},"outputsMultiple":true,"outputFromParameters":true,"parameters":[{"id":"Condition 1","name":"Condition 1","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt;= Value &lt; Max"}],"nameEditable":true}],"addParamFlag":true}</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -666,8 +666,8 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="C28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <pane ySplit="1" topLeftCell="C17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="301" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{090A10C0-68AF-4584-85DB-9CF7C5EC66BA}"/>
+  <xr:revisionPtr revIDLastSave="304" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{EECF6C54-7F10-4692-BB06-58DCBF4F3457}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -270,7 +270,7 @@
     <t>Qv Water Bearing Shaly Sands</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"qvWaterBearingShalySands","inputs":[{"name":"Porosity","family":"Porosity","unit": "v/v"},{"name":"Resistivity","family":"Resistivity","unit": "ohm.m"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"},{"name":"B","family":"Waxman B","unit":"L.S/eq.m"},{"name":"BQv","family":"Waxman BQv","unit":"S/m"}],"parameters":[{"name":"Temperature","type":"number","value":0,"unit":"degF"},{"name":"Water Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"a*","type":"number","value":0},{"name":"m*","type":"number","value":0}]}</t>
+    <t>{"icon":"formation-resistivity-16x16","function":"qvWaterBearingShalySands","inputs":[{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"},{"name":"B","family":"Waxman B","unit":"L.S/eq.m"},{"name":"BQv","family":"Waxman BQv","unit":"S/m"}],"parameters":[{"name":"B method","type":"select","value":"Use B from formula","choices":["Use B from formula","Use B value"]},{"name":"B value","type":"number","value":0,"unit":"degF"},{"name":"Temperature","type":"number","value":0,"unit":"degF"},{"name":"Water Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"a*","type":"number","value":0},{"name":"m*","type":"number","value":0}]}</t>
   </si>
   <si>
     <t>RW from SAL and FTemp</t>
@@ -385,7 +385,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -666,8 +666,8 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="C17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <pane ySplit="1" topLeftCell="C18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="304" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{EECF6C54-7F10-4692-BB06-58DCBF4F3457}"/>
+  <xr:revisionPtr revIDLastSave="319" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{D6AB1A7D-FFF9-4F48-B737-AFC21D604DE2}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task-spec" sheetId="1" r:id="rId1"/>
+    <sheet name="Trang_tính1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179020"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="107">
   <si>
     <t>id</t>
   </si>
@@ -228,13 +229,13 @@
     <t>Formation Temperature</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"gradientFTemp","inputs":[{"name":"Depth","family":"Measured Depth","unit": "m"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"Local Temperature Gradient","type":"number","value":0,"unit":"degC/m"},{"name":"Top Log Interval","type":"number","value":0,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":0,"unit":"degC"}]}</t>
+    <t>{"icon":"formation-resistivity-16x16","function":"gradientFTemp","inputs":[{"name":"Depth","family":"Measured Depth","unit":"m"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"Temperature Gradient","type":"number","value":3,"unit":"degC/m"},{"name":"TLI","type":"number","value":0,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"}]}</t>
   </si>
   <si>
     <t>Log Interval FTemp</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"logIntervalFTemp","inputs":[{"name":"Depth","family":"Measured Depth","unit": "m"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"Top Log Interval","type":"number","value":0,"unit":"m"},{"name":"Bottom Log Interval","type":"number","value":1,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":0,"unit":"degC"},{"name":"Bottom Log Temperature","type":"number","value":1,"unit":"degC"}]}</t>
+    <t>{"icon":"formation-resistivity-16x16","function":"logIntervalFTemp","inputs":[{"name":"Depth","family":"Measured Depth","unit":"m"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"TLI","type":"number","value":0,"unit":"m"},{"name":"BLI","type":"number","value":0,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"},{"name":"Bottom Log Temperature","type":"number","value":120,"unit":"degC"}]}</t>
   </si>
   <si>
     <t>Gradient FPress</t>
@@ -312,7 +313,7 @@
     <t>Bad Hole From DRHO</t>
   </si>
   <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"badHoleFromDRHO","inputs":[{"name":"DENC","family":"Bulk Density Correction","unit": "g/cm3"}],"outputs":[{"name":"BH_FL_DRHO","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Correction Min","type":"number","value":0,"unit":"g/cm3","color":"red"},{"name":"Bulk Density Correction Max","type":"number","value":1,"unit":"g/cm3","color":"green"}]}</t>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"badHoleFromDRHO","inputs":[{"name":"DENC","family":"Bulk Density Correction","unit":"g/cm3"}],"outputs":[{"name":"BH_FL_DRHO","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Correction Min","type":"number","value":0.1,"unit":"g/cm3","color":"red"},{"name":"Bulk Density Correction Max","type":"number","value":0.6,"unit":"g/cm3","color":"green"}]}</t>
   </si>
   <si>
     <t>Coal Flag</t>
@@ -343,6 +344,9 @@
   </si>
   <si>
     <t>{"icon":"badhole-coal-salt-16x16","function":"customFlag","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"outputs":[{"name":"CUSTOM_FL_1","family":"General Flag","unit":"UNITLESS","parameters":[{"id":"Condition 1"}]}],"outputTemplate":{"name":"CUSTOM_FL","family":"General Flag","unit":"UNITLESS","parameters":[]},"outputsMultiple":true,"outputFromParameters":true,"parameters":[{"id":"Condition 1","name":"Condition 1","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt;= Value &lt; Max"}],"nameEditable":true}],"addParamFlag":true}</t>
+  </si>
+  <si>
+    <t>update</t>
   </si>
 </sst>
 </file>
@@ -666,8 +670,8 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="C18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="1" topLeftCell="C25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1327,4 +1331,44 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527770E9-A67F-41C5-8874-9050F541FE81}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" xr3:uid="{A0EC88C7-20CC-5964-AA6B-D565D2EB5D70}">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="319" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{D6AB1A7D-FFF9-4F48-B737-AFC21D604DE2}"/>
+  <xr:revisionPtr revIDLastSave="328" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{E29349B1-64A5-4C22-BD7A-0FCD7046E2DF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task-spec" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="109">
   <si>
     <t>id</t>
   </si>
@@ -344,6 +344,12 @@
   </si>
   <si>
     <t>{"icon":"badhole-coal-salt-16x16","function":"customFlag","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"outputs":[{"name":"CUSTOM_FL_1","family":"General Flag","unit":"UNITLESS","parameters":[{"id":"Condition 1"}]}],"outputTemplate":{"name":"CUSTOM_FL","family":"General Flag","unit":"UNITLESS","parameters":[]},"outputsMultiple":true,"outputFromParameters":true,"parameters":[{"id":"Condition 1","name":"Condition 1","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt;= Value &lt; Max"}],"nameEditable":true}],"addParamFlag":true}</t>
+  </si>
+  <si>
+    <t>TVD Conversion</t>
+  </si>
+  <si>
+    <t>{"icon":"true-vertical-depth-16x16","function":"tvdConvserion","allowZone":false,"inputs":[{"name":"Deviation","family":"Hole Deviation","unit":"Deg"},{"name":"Azimuth","family":"Hole Azimuth","unit":"Deg"}],"outputs":[{"name":"TVD","family":"True Vertical Depth","unit":"m"},{"name":"TVDSS","family":"True Vertical Depth Sub Sea","unit":"m"},{"name":"X_OFFSET","family":"X Offset","unit":"m"},{"name":"Y_OFFSET","family":"Y Offset","unit":"m"}],"parameters":[{"name":"TVD Mode","type":"select","choices":["On Shore","Off Shore"],"value":"Off Shore"},{"name":"Elevator","type":"number","value":0},{"name":"X reference at","type":"number","value":0},{"name":"Y reference at","type":"number","value":0},{"name":"Method","type":"select","choices":["Average Angle","Balanced Tangential","Radius Curvature","Minimum Curvature"],"value":"Minimum Curvature"}]}</t>
   </si>
   <si>
     <t>update</t>
@@ -389,7 +395,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -667,11 +673,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="C25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1327,6 +1333,17 @@
         <v>105</v>
       </c>
     </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1335,37 +1352,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527770E9-A67F-41C5-8874-9050F541FE81}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{A0EC88C7-20CC-5964-AA6B-D565D2EB5D70}">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{A0EC88C7-20CC-5964-AA6B-D565D2EB5D70}">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="328" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{E29349B1-64A5-4C22-BD7A-0FCD7046E2DF}"/>
+  <xr:revisionPtr revIDLastSave="335" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{34E7A9B7-1FB0-49C2-B177-EB814AE157A0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,7 +244,7 @@
     <t>Formation Pressure</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"gradientFPress","inputs":[{"name":"Depth","family":"Measured Depth","unit": "m"}],"outputs":[{"name":"FPRESS","family":"Formation Pressure","unit":"kPa"}],"parameters":[{"name":"Pressure Gradient","type":"number","value":9.792,"unit":"kPa/m"}]}</t>
+    <t>{"icon":"formation-resistivity-16x16","function":"gradientFTemp","inputs":[{"name":"Depth","family":"Measured Depth","unit":"m"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"Temperature Gradient","type":"number","value":0.03,"unit":"degC/m"},{"name":"TLI","type":"number","value":0,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"}]}</t>
   </si>
   <si>
     <t>Mud Density FPress</t>
@@ -395,7 +395,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -676,8 +676,8 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1352,10 +1352,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527770E9-A67F-41C5-8874-9050F541FE81}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{A0EC88C7-20CC-5964-AA6B-D565D2EB5D70}">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1365,9 +1365,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>47</v>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="335" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{34E7A9B7-1FB0-49C2-B177-EB814AE157A0}"/>
+  <xr:revisionPtr revIDLastSave="346" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{57575A7B-107F-4198-9B20-18D15BBFD2BB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="111">
   <si>
     <t>id</t>
   </si>
@@ -229,7 +229,7 @@
     <t>Formation Temperature</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"gradientFTemp","inputs":[{"name":"Depth","family":"Measured Depth","unit":"m"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"Temperature Gradient","type":"number","value":3,"unit":"degC/m"},{"name":"TLI","type":"number","value":0,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"}]}</t>
+    <t>{"icon":"formation-resistivity-16x16","function":"gradientFTemp","inputs":[{"name":"Depth","family":"Measured Depth","unit":"m"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"Temperature Gradient","type":"number","value":0.03,"unit":"degC/m"},{"name":"TLI","type":"number","value":0,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"}]}</t>
   </si>
   <si>
     <t>Log Interval FTemp</t>
@@ -244,7 +244,7 @@
     <t>Formation Pressure</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"gradientFTemp","inputs":[{"name":"Depth","family":"Measured Depth","unit":"m"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"Temperature Gradient","type":"number","value":0.03,"unit":"degC/m"},{"name":"TLI","type":"number","value":0,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"}]}</t>
+    <t>{"icon":"formation-resistivity-16x16","function":"gradientFPress","inputs":[{"name":"Depth","family":"Measured Depth","unit": "m"}],"outputs":[{"name":"FPRESS","family":"Formation Pressure","unit":"kPa"}],"parameters":[{"name":"Pressure Gradient","type":"number","value":9.792,"unit":"kPa/m"}]}</t>
   </si>
   <si>
     <t>Mud Density FPress</t>
@@ -353,6 +353,12 @@
   </si>
   <si>
     <t>update</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>delete</t>
   </si>
 </sst>
 </file>
@@ -676,8 +682,8 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1352,20 +1358,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527770E9-A67F-41C5-8874-9050F541FE81}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{A0EC88C7-20CC-5964-AA6B-D565D2EB5D70}">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>31</v>
       </c>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="346" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{57575A7B-107F-4198-9B20-18D15BBFD2BB}"/>
+  <xr:revisionPtr revIDLastSave="364" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{4205459E-73C8-4663-9F2E-ED1A9BF7D4C0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,9 @@
     <sheet name="task-spec" sheetId="1" r:id="rId1"/>
     <sheet name="Trang_tính1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Trang_tính1!$A:$C</definedName>
+  </definedNames>
   <calcPr calcId="179020"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -214,7 +217,7 @@
     <t>Clastic</t>
   </si>
   <si>
-    <t>{ "icon": "summation-16x16", "function": "calClasticfSummation", "summation": true, "multiple": true, "addParamFlag": true, "inputs": [ { "name": "Shale Volume", "unit": "v/v", "family": "Shale Volume" }, { "name": "Porosity", "unit": "v/v", "family": "Porosity" }, { "name": "Water Saturation", "unit": "v/v", "family": "Water Saturation" } ], "inputTemplate": { "name": "Curve", "allowNull": true }, "parameters": [ { "id": "Vshale Cutoff", "name": "Vshale Cutoff", "type": "handsontable", "tableType": "condition", "value": [{ "method": "Value &lt;= Min", "min": 0.35 }] }, { "id": "Phi Cutoff", "name": "Phi Cutoff", "type": "handsontable", "tableType": "condition", "value": [{ "method": "Value &lt;= Min", "min": 0.15 }] }, { "id": "SW Cutoff", "name": "SW Cutoff", "type": "handsontable", "tableType": "condition", "value": [{ "method": "Value &lt;= Min", "min": 0.6 }] } ], "paramTemplate": { "name": "Custom Cutoff 4", "type": "handsontable", "tableType": "condition", "value": [{ "method": "Value &lt;= Min", "min": 0.5 }], "nameEditable":true }, "outputsMultiple": true, "outputFromParameters": true, "outputs": [ { "name": "ROCK", "family": "Net Flag", "unit": "UNITLESS", "parameters": [ { "id": "Vshale Cutoff" } ], "shading": "yellow" }, { "name": "RES", "family": "Net Flag", "unit": "UNITLESS", "parameters": [ { "id": "Vshale Cutoff" }, { "id": "Phi Cutoff" } ], "shading": "green" }, { "name": "PAY", "family": "Net Flag", "unit": "UNITLESS", "parameters": [ { "id": "Vshale Cutoff" }, { "id": "Phi Cutoff" }, { "id": "SW Cutoff" } ], "shading": "red" } ], "outputTemplate": { "name": "CUSTOM_FL", "family": "Net Flag", "unit": "UNITLESS", "parameters": [], "shading": "red" } }</t>
+    <t>{"icon":"summation-16x16","function":"calClasticfSummation","summation":true,"multiple":true,"addParamFlag":true,"inputs":[{"name":"Shale Volume","unit":"v/v","family":"Shale Volume"},{"name":"Porosity","unit":"v/v","family":"Porosity"},{"name":"Water Saturation","unit":"v/v","family":"Water Saturation"}],"inputTemplate":{"name":"Curve","allowNull":true},"parameters":[{"id":"Vshale Cutoff","name":"Vshale Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt; Value &lt;= Max","min":0,"max":0.4}]},{"id":"Phi Cutoff","name":"Phi Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Value &lt; Min or Value &gt;= Max","min":0,"max":0.15}]},{"id":"SW Cutoff","name":"SW Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt; Value &lt;= Max","min":0,"max":0.6}]}],"paramTemplate":{"name":"Custom Cutoff 4","type":"handsontable","tableType":"condition","value":[{"method":"Value &lt;= Min","min":0.5}],"nameEditable":true},"outputsMultiple":true,"outputFromParameters":true,"outputs":[{"name":"ROCK","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"}],"shading":"yellow"},{"name":"RES","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"},{"id":"Phi Cutoff"}],"shading":"green"},{"name":"PAY","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"},{"id":"Phi Cutoff"},{"id":"SW Cutoff"}],"shading":"red"}],"outputTemplate":{"name":"CUSTOM_FL","family":"Net Flag","unit":"UNITLESS","parameters":[],"shading":"red"}}</t>
   </si>
   <si>
     <t>Multi-Mineral Solver</t>
@@ -319,25 +322,25 @@
     <t>Coal Flag</t>
   </si>
   <si>
-    <t>{ "icon": "badhole-coal-salt-16x16", "function": "coalFlag", "inputs": [ { "name": "Bulk Density", "family": "Bulk Density", "unit": "g/cm3", "allowNull": true }, { "name": "Neutron Porosity", "family": "Neutron Porosity", "unit": "v/v", "allowNull": true }, { "name": "Compressional Slowness", "family": "Compressional Slowness", "unit": "US/FT", "allowNull": true }, { "name": "Photoelectric Factor", "family": "Photoelectric Factor","unit": "UNITLESS", "allowNull": true }, { "name": "Resistivity", "family": "Resistivity", "allowNull": true } ], "outputs": [ { "name": "COAL_FL", "family": "Coal Flag", "unit": "UNITLESS" } ], "parameters": [ { "name": "Bulk Density Cutoff", "id": "Bulk Density Cutoff", "type": "handsontable", "tableType": "condition", "value": [ { "method": "Min &lt;= Value &lt; Max", "min": 1.2, "max": 2.2 } ] }, { "name": "Neutron Porosity Cutoff", "id": "Neutron Porosity Cutoff", "type": "handsontable", "tableType": "condition", "value": [ { "method": "Min &lt;= Value &lt; Max", "min": 0.3, "max": 0.6 } ] }, { "name": "Compressional Slowness Cutoff", "id": "Compressional Slowness Cutoff", "type": "handsontable", "tableType": "condition", "value": [{ "method": "Min &lt;= Value &lt; Max", "min": 90, "max": 150 }] }, { "name": "Photoelectric Factor Cutoff", "id": "Photoelectric Factor Cutoff", "type": "handsontable", "tableType": "condition", "value": [ { "method": "Min &lt;= Value &lt; Max", "min": 0.16, "max": 0.2 } ] }, { "name": "Resistivity Cutoff", "id": "Resistivity Cutoff", "type": "handsontable", "tableType": "condition", "value": [ { "method": "Min &lt;= Value &lt; Max", "min": 900, "max": 1000 } ] } ] }</t>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"coalFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Neutron Porosity","family":"Neutron Porosity","unit":"v/v","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true},{"name":"Resistivity","family":"Resistivity","allowNull":true}],"outputs":[{"name":"COAL_FL","family":"Coal Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":1.2,"max":2.2}]},{"name":"Neutron Porosity Cutoff","id":"Neutron Porosity Cutoff","type":"handsontable","tableType":"condition","unit":"v/v","value":[{"method":"Min &lt;= Value &lt; Max","min":0.3,"max":0.6}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":90,"max":150}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":0.16,"max":0.2}]},{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":900,"max":1000}]}]}</t>
   </si>
   <si>
     <t>Carbonate Flag</t>
   </si>
   <si>
-    <t>{ "icon": "badhole-coal-salt-16x16", "function": "carbonateFlag", "inputs": [ { "name": "Bulk Density", "family": "Bulk Density", "unit": "g/cm3", "allowNull": true }, { "name": "Neutron Porosity", "family": "Neutron Porosity", "unit": "v/v", "allowNull": true }, { "name": "Compressional Slowness", "family": "Compressional Slowness", "unit": "US/FT", "allowNull": true }, { "name": "Photoelectric Factor", "family": "Photoelectric Factor", "unit": "UNITLESS", "allowNull": true } ], "outputs": [ { "name": "CARBONATE_FL", "family": "General Flag", "unit": "UNITLESS" } ], "parameters": [ { "name": "Bulk Density Cutoff", "id": "Bulk Density Cutoff", "type": "handsontable", "tableType": "condition", "value": [{ "method": "Min &lt;= Value &lt; Max", "min": 2.85, "max": 3 }] }, { "name": "Neutron Porosity Cutoff", "id": "Neutron Porosity Cutoff", "type": "handsontable", "tableType": "condition", "value": [{ "method": "Min &lt;= Value &lt; Max", "min": 0, "max": 1 }] }, { "name": "Compressional Slowness Cutoff", "id": "Compressional Slowness Cutoff", "type": "handsontable", "tableType": "condition", "value": [{ "method": "Min &lt;= Value &lt; Max", "min": 45, "max": 55 }] }, { "name": "Photoelectric Factor Cutoff", "id": "Photoelectric Factor Cutoff", "type": "handsontable", "tableType": "condition", "value": [{ "method": "Min &lt;= Value &lt; Max", "min": 5, "max": 7 }] } ] }</t>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"carbonateFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Neutron Porosity","family":"Neutron Porosity","unit":"v/v","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true}],"outputs":[{"name":"CARBONATE_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.85,"max":3}]},{"name":"Neutron Porosity Cutoff","id":"Neutron Porosity Cutoff","type":"handsontable","tableType":"condition","unit":"v/v","value":[{"method":"Min &lt;= Value &lt; Max","min":0,"max":1}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":45,"max":55}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":5,"max":7}]}]}</t>
   </si>
   <si>
     <t>Halite Flag</t>
   </si>
   <si>
-    <t>{ "icon": "badhole-coal-salt-16x16", "function": "haliteFlag", "inputs": [ { "name": "Bulk Density", "family": "Bulk Density", "unit": "g/cm3", "allowNull": true }, { "name": "Resistivity", "family": "Resistivity", "unit": "ohm.m", "allowNull": true }, { "name": "Compressional Slowness", "family": "Compressional Slowness", "unit": "US/FT", "allowNull": true }, { "name": "Photoelectric Factor", "family": "Photoelectric Factor", "unit": "UNITLESS", "allowNull": true } ], "outputs": [ { "name": "HALITE_FL", "family": "Halite Flag", "unit": "UNITLESS" } ], "parameters": [ { "name": "Bulk Density Cutoff", "id": "Bulk Density Cutoff", "type": "handsontable", "tableType": "condition", "value": [ { "method": "Min &lt;= Value &lt; Max", "min": 2.05, "max": 2.15 } ] }, { "name": "Resistivity Cutoff", "id": "Resistivity Cutoff", "type": "handsontable", "tableType": "condition", "value": [ { "method": "Min &lt;= Value &lt; Max", "min": 10000, "max": 100000 } ] }, { "name": "Compressional Slowness Cutoff", "id": "Compressional Slowness Cutoff", "type": "handsontable", "tableType": "condition", "value": [ { "method": "Min &lt;= Value &lt; Max", "min": 60, "max": 70 } ] }, { "name": "Photoelectric Factor Cutoff", "id": "Photoelectric Factor Cutoff", "type": "handsontable", "tableType": "condition", "value": [ { "method": "Min &lt;= Value &lt; Max", "min": 4.5, "max": 5 } ] } ] }</t>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"haliteFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true}],"outputs":[{"name":"HALITE_FL","family":"Halite Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.05,"max":2.15}]},{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":10000,"max":100000}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":60,"max":70}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":4.5,"max":5}]}]}</t>
   </si>
   <si>
     <t>Anhydrite Flag</t>
   </si>
   <si>
-    <t>{ "icon": "badhole-coal-salt-16x16", "function": "anhydriteFlag", "inputs": [ { "name": "Bulk Density", "family": "Bulk Density", "unit": "g/cm3", "allowNull": true }, { "name": "Resistivity", "family": "Resistivity", "unit": "ohm.m", "allowNull": true }, { "name": "Compressional Slowness", "family": "Compressional Slowness", "unit": "US/FT", "allowNull": true }, { "name": "Photoelectric Factor", "family": "Photoelectric Factor", "unit": "UNITLESS", "allowNull": true } ], "outputs": [ { "name": "ANHYDRITE_FL", "family": "General Flag", "unit": "UNITLESS" } ], "parameters": [ { "name": "Bulk Density Cutoff", "id": "Bulk Density Cutoff", "type": "handsontable", "tableType": "condition", "value": [{ "method":"Min &lt;= Value &lt; Max", "min": 2.85, "max": 3}] }, { "name": "Resistivity Cutoff", "id": "Resistivity Cutoff", "type": "handsontable", "tableType": "condition", "value": [{ "method":"Min &lt;= Value &lt; Max", "min": 10000, "max": 100000}] }, { "name": "Compressional Slowness Cutoff", "id": "Compressional Slowness Cutoff", "type": "handsontable", "tableType": "condition", "value": [{ "method":"Min &lt;= Value &lt; Max", "min": 55, "max": 60}] }, { "name": "Photoelectric Factor Cutoff", "id": "Photoelectric Factor Cutoff", "type": "handsontable", "tableType": "condition", "value": [{ "method":"Min &lt;= Value &lt; Max", "min": 4.5, "max": 5}] } ] }</t>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"anhydriteFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true}],"outputs":[{"name":"ANHYDRITE_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.85,"max":3}]},{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":10000,"max":100000}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":55,"max":60}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":4.5,"max":5}]}]}</t>
   </si>
   <si>
     <t>Custom Flag</t>
@@ -682,8 +685,8 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1358,13 +1361,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527770E9-A67F-41C5-8874-9050F541FE81}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{A0EC88C7-20CC-5964-AA6B-D565D2EB5D70}">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1379,15 +1387,43 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>31</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1048576" xr:uid="{36FC2A2A-37AD-4152-8699-5637EC548D72}">
+    <sortState ref="A2:C1048576">
+      <sortCondition ref="A1:A1048576"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A1:C1048576">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="364" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{4205459E-73C8-4663-9F2E-ED1A9BF7D4C0}"/>
+  <xr:revisionPtr revIDLastSave="436" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{EDB709A5-5F94-48A7-9F18-417C60B67CFE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task-spec" sheetId="1" r:id="rId1"/>
-    <sheet name="Trang_tính1" sheetId="2" r:id="rId2"/>
+    <sheet name="changes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Trang_tính1!$A:$C</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">changes!$A:$C</definedName>
   </definedNames>
   <calcPr calcId="179020"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="154">
   <si>
     <t>id</t>
   </si>
@@ -353,6 +353,135 @@
   </si>
   <si>
     <t>{"icon":"true-vertical-depth-16x16","function":"tvdConvserion","allowZone":false,"inputs":[{"name":"Deviation","family":"Hole Deviation","unit":"Deg"},{"name":"Azimuth","family":"Hole Azimuth","unit":"Deg"}],"outputs":[{"name":"TVD","family":"True Vertical Depth","unit":"m"},{"name":"TVDSS","family":"True Vertical Depth Sub Sea","unit":"m"},{"name":"X_OFFSET","family":"X Offset","unit":"m"},{"name":"Y_OFFSET","family":"Y Offset","unit":"m"}],"parameters":[{"name":"TVD Mode","type":"select","choices":["On Shore","Off Shore"],"value":"Off Shore"},{"name":"Elevator","type":"number","value":0},{"name":"X reference at","type":"number","value":0},{"name":"Y reference at","type":"number","value":0},{"name":"Method","type":"select","choices":["Average Angle","Balanced Tangential","Radius Curvature","Minimum Curvature"],"value":"Minimum Curvature"}]}</t>
+  </si>
+  <si>
+    <t>Basic Operations</t>
+  </si>
+  <si>
+    <t>Scalar Operations</t>
+  </si>
+  <si>
+    <t>{"icon":"cureve-splice-16x16","function":"basicOperations","transform":true,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_OUT"}],"allowZone":false,"parameters":[{"name":"Method","type":"select","value":"+","choices":["+","-","*","/"]},{"name":"Constant","type":"number","value":3.141592653589793}]}</t>
+  </si>
+  <si>
+    <t>Pow</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-splice-interactive-16x16","transform":true,"function":"pow","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_POW"}],"allowZone":false,"parameters":[{"name":"Exponent","type":"number","value":3.141592653589793}]}</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-rescale-16x16","transform":true,"function":"round","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_ROUND"}],"allowZone":false,"parameters":[{"name":"Precision","type":"number","value":2}]}</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-splice-interactive-16x16","transform":true,"function":"limit","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_LIMIT"}],"allowZone":false,"parameters":[{"name":"Min","type":"number","value":0},{"name":"Max","type":"number","value":1}]}</t>
+  </si>
+  <si>
+    <t>Functional Transforms</t>
+  </si>
+  <si>
+    <t>Curve Transforms</t>
+  </si>
+  <si>
+    <t>{"icon":"cureve-splice-16x16","transform":true,"function":"functionalTransforms","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_OUT"}],"parameters":[{"name":"Method","type":"select","value":"pow10","choices":["pow10","sqrt","loge","log10","abs","inv","acos","asin","atan","cos","sin","tan","exp","exp10"]}]}</t>
+  </si>
+  <si>
+    <t>Curve Derivation</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-splice-interactive-16x16","transform":true,"function":"curveDerivation","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"name":"First Derivation","suffix":"_1ST_DERIVATION","use":true},{"name":"Second Derivation","suffix":"_2ND_DERIVATION","use":true}],"allowZone":false,"parameters":[]}</t>
+  </si>
+  <si>
+    <t>Curve Rescaling</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-rescale-16x16","transform":true,"function":"curveRescaling","multiple":true,"minInputs":1,"inputs":[{"name":"Rescale curve"}],"outputs":[],"outputConfigs":[{"suffix":"_RESCALING"}],"allowZone":false,"parameters":[{"name":"Input left scale","type":"number","value":0},{"name":"Input right scale","type":"number","value":1},{"name":"Output left scale","type":"number","value":0},{"name":"Output right scale","type":"number","value":1}],"parameterActions":[{"name":"myFunc","icon":"ti-check","label":"some Action"},{"name":"myFunc1","icon":"ti-close","label":"some Action1"}]}</t>
+  </si>
+  <si>
+    <t>Curve Splitting</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-splice-interactive-16x16","transform":true,"function":"curveSplitting","inputs":[{"name":"Input curve"}],"outputs":[{"name":"Curve 1","family":"Compressional Slowness","unit":"us/ft"},{"name":"Curve 2","family":"Compressional Slowness","unit":"us/ft"},{"name":"Curve 3","family":"Compressional Slowness","unit":"us/ft"}],"paramMultiple":true,"parameters":[{"name":"Cut Point 1","type":"number","value":2,"removeable":false,"onRemove":"removeOutput"},{"name":"Cut Point 2","type":"number","value":2,"removeable":true,"onRemove":"removeOutput"}],"parameterActions":[{"name":["addParam","addOutput"],"icon":"ti-plus","label":"Add parameter"}]}</t>
+  </si>
+  <si>
+    <t>Curve Filling</t>
+  </si>
+  <si>
+    <t>Curve Interpolation</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-fill-data-gaps-16x16","transform":true,"function":"curveFilling","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_FILLED"}],"parameters":[{"name":"Gaps Maximum Width","type":"number","value":13},{"name":"Width Type","type":"select","value":"In samples","choices":["In samples","In reference"]}]}</t>
+  </si>
+  <si>
+    <t>Curve Resampling</t>
+  </si>
+  <si>
+    <t>{"forceSave":true,"icon":"curve-fill-data-gaps-16x16","transform":true,"function":"curveResampling","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_RESAMPLED"}],"parameters":[]}</t>
+  </si>
+  <si>
+    <t>Basic Combinations</t>
+  </si>
+  <si>
+    <t>Curve Combinations</t>
+  </si>
+  <si>
+    <t>{"icon":"caculation-multilinerregression-16x16","transform":true,"multiple":true,"function":"basicCombinations","inputs":[{"name":"Input curve"},{"name":"Input curve"}],"outputs":[{"name":"Combination curve","family":"Compressional Slowness","unit":"us/ft"}],"allowZone":false,"parameters":[{"name":"Method","type":"select","value":"+","choices":["+","-","*","/","min","max","average","median"]}]}</t>
+  </si>
+  <si>
+    <t>Linear Combinations</t>
+  </si>
+  <si>
+    <t>{"icon":"caculation-multilinerregression-16x16","multiple":true,"transform":true,"addParamFlag":true,"function":"linearCombinations","inputs":[{"name":"Input curve"},{"name":"Input curve"}],"outputs":[{"name":"Combination curve","family":"Compressional Slowness","unit":"us/ft"}],"allowZone":false,"parameters":[{"name":"Coefficient 1","type":"number","value":1},{"name":"Coefficient 2","type":"number","value":1}]}</t>
+  </si>
+  <si>
+    <t>Median Filter</t>
+  </si>
+  <si>
+    <t>Curve Filters</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-filter-16x16","function":"curveMedianFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_MED_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
+  </si>
+  <si>
+    <t>Square Filter</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-filter-16x16","function":"curveSquareFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_SQUARE_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
+  </si>
+  <si>
+    <t>Bell Filter</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-filter-16x16","function":"curveBellFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_BELL_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
+  </si>
+  <si>
+    <t>Savitsky Golay Filter</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-filter-16x16","function":"curveSavGolFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_SAVGOL_FILTERED"}],"parameters":[{"name":"Derivative Order","type":"number","value":0},{"name":"Polynomial Order","type":"number","value":2},{"name":"Number Of Points","type":"number","value":5}]}</t>
+  </si>
+  <si>
+    <t>Fast Fourie transform Filter</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-filter-16x16","function":"curveFFTFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_FFT_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Cutoff","type":"number","value":100}]}</t>
+  </si>
+  <si>
+    <t>Curve Convolution</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-convolution-16x16","function":"curveConvolution","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_CONV_FILTERED"}],"allowZone":false,"paramMultiple":true,"parameters":[{"name":"Coefficient 1","type":"number","value":0.33,"removeable":false},{"name":"Coefficient 2","type":"number","value":0.33,"removeable":false},{"name":"Coefficient 3","type":"number","value":0.33,"removeable":false}],"parameterActions":[{"name":"addParam","icon":"ti-plus","label":"Add parameter"}]}</t>
+  </si>
+  <si>
+    <t>Curve Deconvolution</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-deconvolution-16x16","function":"curveDeconvolution","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_DECONV_FILTERED"}],"allowZone":false,"paramMultiple":true,"parameters":[{"name":"Coefficient 1","type":"number","value":1,"removeable":false},{"name":"Coefficient 2","type":"number","value":0,"removeable":false},{"name":"Coefficient 3","type":"number","value":1,"removeable":false}],"parameterActions":[{"name":"addParam","icon":"ti-plus","label":"Add parameter"}]}</t>
   </si>
   <si>
     <t>update</t>
@@ -682,11 +811,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1353,6 +1482,272 @@
         <v>107</v>
       </c>
     </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" t="s">
+        <v>137</v>
+      </c>
+      <c r="D64" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1361,10 +1756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527770E9-A67F-41C5-8874-9050F541FE81}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{A0EC88C7-20CC-5964-AA6B-D565D2EB5D70}">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1376,43 +1771,126 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
         <v>27</v>
       </c>
+      <c r="B2">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
         <v>32</v>
       </c>
+      <c r="B3">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
         <v>42</v>
       </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
         <v>43</v>
       </c>
+      <c r="B5">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
         <v>44</v>
       </c>
+      <c r="B6">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
         <v>45</v>
+      </c>
+      <c r="B7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="436" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{EDB709A5-5F94-48A7-9F18-417C60B67CFE}"/>
+  <xr:revisionPtr revIDLastSave="450" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{9C684646-5EAE-47BA-8559-AED2301AADDC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task-spec" sheetId="1" r:id="rId1"/>
@@ -67,13 +67,13 @@
     <t>Neutron-Sonic</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16","function": "calVSHfromNS", "inputs": [ { "name": "Neutron Porosity", "unit": "v/v", "family": "Neutron Porosity" }, { "name": "Compressional Slowness", "unit": "us/ft", "family": "Compressional Slowness" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "unit": "v/v", "value": -0.01 }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "g/cm3" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "g/cm3", "color": "pink" }, { "name": "DT_clean_1", "type": "number", "value": 55, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_NS", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "clay-volume-16x16","function": "calVSHfromNS", "inputs": [ { "name": "Neutron Porosity", "unit": "v/v", "family": "Neutron Porosity" }, { "name": "Compressional Slowness", "unit": "us/ft", "family": "Compressional Slowness" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "unit": "v/v", "value": -0.01 }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "g/cm3" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "g/cm3", "color": "#F0F" }, { "name": "DT_clean_1", "type": "number", "value": 55, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_NS", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Density-Sonic</t>
   </si>
   <si>
-    <t>{ "icon": "clay-volume-16x16","function": "calVSHfromDS", "inputs": [ { "name": "Bulk Density", "unit": "v/v", "family": "Bulk Density" }, { "name": "Compressional Slowness", "unit": "us/ft", "family": "Compressional Slowness" } ], "parameters": [ { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "pink" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "us/ft" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "us/ft", "color": "red" }, { "name": "DT_clean_1", "type": "number", "value": 50, "unit": "us/ft" } ], "outputs": [ { "name": "VSH_SD", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{ "icon": "clay-volume-16x16","function": "calVSHfromDS", "inputs": [ { "name": "Bulk Density", "unit": "v/v", "family": "Bulk Density" }, { "name": "Compressional Slowness", "unit": "us/ft", "family": "Compressional Slowness" } ], "parameters": [ { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "#F0F" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "us/ft" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "us/ft", "color": "red" }, { "name": "DT_clean_1", "type": "number", "value": 50, "unit": "us/ft" } ], "outputs": [ { "name": "VSH_SD", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Resistivity</t>
@@ -130,10 +130,10 @@
     <t>Sonic</t>
   </si>
   <si>
-    <t>{ "icon": "calculate-open-porosity-16x16", "function": "calPorosityFromSonic", "inputs": [ { "name": "Compressional Slowness", "family": "Compressional Slowness", "unit": "us/ft" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "Sonic Matrix", "type": "number", "value": 55, "unit": "us/ft", "color": "red" }, { "name": "Sonic Fluid", "type": "number", "value": 189, "unit": "us/ft" }, { "name": "Sonic Shale", "type": "number", "value": 110, "unit": "us/ft", "color": "green" }, { "name": "Sonic Method", "type": "select", "value": "Wyliie", "choices": [ "Wyliie", "Raymer-Hunt-Gardner" ] }, { "name": "Cp", "type": "number", "value": 1 } ], "outputs": [ { "name": "PHIT_S", "family": "Total Porosity", "unit": "v/v" }, { "name": "PHIE_S", "family": "Effective Porosity", "unit": "v/v" } ] }</t>
-  </si>
-  <si>
-    <t>{ "icon": "calculate-open-porosity-16x16", "function": "calPorosityFromNeutronSonic", "inputs": [ { "name": "Compressional Slowness", "family": "Compressional Slowness", "unit": "us/ft" }, { "name": "Neutron", "family": "Neutron Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "Sonic Matrix", "type": "number", "value": 55, "unit": "us/ft", "color": "red" }, { "name": "Sonic Fluid", "type": "number", "value": 189, "unit": "us/ft" }, { "name": "Sonic Shale", "type": "number", "value": 110, "unit": "us/ft", "color": "green" }, { "name": "Neutron Matrix", "type": "number", "value": -0.01, "unit": "v/v", "color": "red" }, { "name": "Neutron Fluid", "type": "number", "value": 0.991, "unit": "v/v" }, { "name": "Neutron Shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "Sonic Method", "type": "select", "value": "Wyliie", "choices": [ "Wyliie", "Raymer-Hunt-Gardner" ] }, { "name": "Cp", "type": "number", "value": 1 } ], "outputs": [ { "name": "PHIT_NS", "family": "Total Porosity", "unit": "v/v" }, { "name": "PHIE_NS", "family": "Effective Porosity", "unit": "v/v" }, { "name": "DTMAA", "family": "Apparent Matrix Compressional Slowness", "unit": "us/ft" } ] }</t>
+    <t>{ "icon": "calculate-open-porosity-16x16", "function": "calPorosityFromSonic", "inputs": [ { "name": "Compressional Slowness", "family": "Compressional Slowness", "unit": "us/ft" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "Sonic Matrix", "type": "number", "value": 55, "unit": "us/ft", "color": "#F0F" }, { "name": "Sonic Fluid", "type": "number", "value": 189, "unit": "us/ft" }, { "name": "Sonic Shale", "type": "number", "value": 110, "unit": "us/ft", "color": "green" }, { "name": "Sonic Method", "type": "select", "value": "Wyliie", "choices": [ "Wyliie", "Raymer-Hunt-Gardner" ] }, { "name": "Cp", "type": "number", "value": 1 } ], "outputs": [ { "name": "PHIT_S", "family": "Total Porosity", "unit": "v/v" }, { "name": "PHIE_S", "family": "Effective Porosity", "unit": "v/v" } ] }</t>
+  </si>
+  <si>
+    <t>{ "icon": "calculate-open-porosity-16x16", "function": "calPorosityFromNeutronSonic", "inputs": [ { "name": "Compressional Slowness", "family": "Compressional Slowness", "unit": "us/ft" }, { "name": "Neutron", "family": "Neutron Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "Sonic Matrix", "type": "number", "value": 55, "unit": "us/ft", "color": "#F0F" }, { "name": "Sonic Fluid", "type": "number", "value": 189, "unit": "us/ft" }, { "name": "Sonic Shale", "type": "number", "value": 110, "unit": "us/ft", "color": "green" }, { "name": "Neutron Matrix", "type": "number", "value": -0.01, "unit": "v/v", "color": "red" }, { "name": "Neutron Fluid", "type": "number", "value": 0.991, "unit": "v/v" }, { "name": "Neutron Shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "Sonic Method", "type": "select", "value": "Wyliie", "choices": [ "Wyliie", "Raymer-Hunt-Gardner" ] }, { "name": "Cp", "type": "number", "value": 1 } ], "outputs": [ { "name": "PHIT_NS", "family": "Total Porosity", "unit": "v/v" }, { "name": "PHIE_NS", "family": "Effective Porosity", "unit": "v/v" }, { "name": "DTMAA", "family": "Apparent Matrix Compressional Slowness", "unit": "us/ft" } ] }</t>
   </si>
   <si>
     <t>Density-Neutron</t>
@@ -352,7 +352,7 @@
     <t>TVD Conversion</t>
   </si>
   <si>
-    <t>{"icon":"true-vertical-depth-16x16","function":"tvdConvserion","allowZone":false,"inputs":[{"name":"Deviation","family":"Hole Deviation","unit":"Deg"},{"name":"Azimuth","family":"Hole Azimuth","unit":"Deg"}],"outputs":[{"name":"TVD","family":"True Vertical Depth","unit":"m"},{"name":"TVDSS","family":"True Vertical Depth Sub Sea","unit":"m"},{"name":"X_OFFSET","family":"X Offset","unit":"m"},{"name":"Y_OFFSET","family":"Y Offset","unit":"m"}],"parameters":[{"name":"TVD Mode","type":"select","choices":["On Shore","Off Shore"],"value":"Off Shore"},{"name":"Elevator","type":"number","value":0},{"name":"X reference at","type":"number","value":0},{"name":"Y reference at","type":"number","value":0},{"name":"Method","type":"select","choices":["Average Angle","Balanced Tangential","Radius Curvature","Minimum Curvature"],"value":"Minimum Curvature"}]}</t>
+    <t>{"icon":"true-vertical-depth-16x16","function":"tvdConvserion","allowZone":false,"inputs":[{"name":"Deviation","family":"Hole Deviation","unit":"Deg"},{"name":"Azimuth","family":"Hole Azimuth","unit":"Deg"}],"outputs":[{"name":"TVD","family":"True Vertical Depth","unit":"m", "disableEditing":"familyunit"},{"name":"TVDSS","family":"True Vertical Depth Sub Sea","unit":"m", "disableEditing":"familyunit"},{"name":"X_OFFSET","family":"X Offset","unit":"m", "disableEditing":"familyunit"},{"name":"Y_OFFSET","family":"Y Offset","unit":"m", "disableEditing":"familyunit"}],"parameters":[{"name":"TVD Mode","type":"select","choices":["On Shore","Off Shore"],"value":"Off Shore"},{"name":"Elevator","type":"number","value":0},{"name":"X reference at","type":"number","value":0},{"name":"Y reference at","type":"number","value":0},{"name":"Method","type":"select","choices":["Average Angle","Balanced Tangential","Radius Curvature","Minimum Curvature"],"value":"Minimum Curvature"}]}</t>
   </si>
   <si>
     <t>Basic Operations</t>
@@ -463,7 +463,7 @@
     <t>Savitsky Golay Filter</t>
   </si>
   <si>
-    <t>{"icon":"curve-filter-16x16","function":"curveSavGolFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_SAVGOL_FILTERED"}],"parameters":[{"name":"Derivative Order","type":"number","value":0},{"name":"Polynomial Order","type":"number","value":2},{"name":"Number Of Points","type":"number","value":5}]}</t>
+    <t>{"icon":"curve-filter-16x16","function":"curveSavGolFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_SAVGOL_FILTERED"}],"allowZone":false,"parameters":[{"name":"Derivative Order","type":"number","value":0},{"name":"Polynomial Order","type":"number","value":2},{"name":"Number Of Points","type":"number","value":5}]}</t>
   </si>
   <si>
     <t>Fast Fourie transform Filter</t>
@@ -813,9 +813,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="C30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1756,10 +1756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527770E9-A67F-41C5-8874-9050F541FE81}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{A0EC88C7-20CC-5964-AA6B-D565D2EB5D70}">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0" xr3:uid="{A0EC88C7-20CC-5964-AA6B-D565D2EB5D70}">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1782,115 +1782,27 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>27</v>
-      </c>
-      <c r="B2">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>32</v>
-      </c>
-      <c r="B3">
-        <v>49</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>42</v>
-      </c>
-      <c r="B4">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>43</v>
-      </c>
-      <c r="B5">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>44</v>
-      </c>
-      <c r="B6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>45</v>
-      </c>
-      <c r="B7">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20">
-        <v>66</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="450" documentId="11_98C23F058148A1FA596EF2C9C748F11B43E4A511" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{9C684646-5EAE-47BA-8559-AED2301AADDC}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_D1D6CC9175F0C5647023B20AD3903188B00E6F80" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{10BEF976-3E6D-4EC0-81A6-EC2A06B05313}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task-spec" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
     <t>Density-Sonic</t>
   </si>
   <si>
-    <t>{ "icon": "clay-volume-16x16","function": "calVSHfromDS", "inputs": [ { "name": "Bulk Density", "unit": "v/v", "family": "Bulk Density" }, { "name": "Compressional Slowness", "unit": "us/ft", "family": "Compressional Slowness" } ], "parameters": [ { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "#F0F" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "us/ft" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "us/ft", "color": "red" }, { "name": "DT_clean_1", "type": "number", "value": 50, "unit": "us/ft" } ], "outputs": [ { "name": "VSH_SD", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{ "icon": "clay-volume-16x16","function": "calVSHfromDS", "inputs": [ { "name": "Bulk Density", "unit": "g/cm3", "family": "Bulk Density" }, { "name": "Compressional Slowness", "unit": "us/ft", "family": "Compressional Slowness" } ], "parameters": [ { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "#F0F" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "us/ft" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "us/ft", "color": "red" }, { "name": "DT_clean_1", "type": "number", "value": 50, "unit": "us/ft" } ], "outputs": [ { "name": "VSH_SD", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Resistivity</t>
@@ -274,7 +274,7 @@
     <t>Qv Water Bearing Shaly Sands</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"qvWaterBearingShalySands","inputs":[{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"},{"name":"B","family":"Waxman B","unit":"L.S/eq.m"},{"name":"BQv","family":"Waxman BQv","unit":"S/m"}],"parameters":[{"name":"B method","type":"select","value":"Use B from formula","choices":["Use B from formula","Use B value"]},{"name":"B value","type":"number","value":0,"unit":"degF"},{"name":"Temperature","type":"number","value":0,"unit":"degF"},{"name":"Water Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"a*","type":"number","value":0},{"name":"m*","type":"number","value":0}]}</t>
+    <t>{"icon":"formation-resistivity-16x16","function":"qvWaterBearingShalySands","inputs":[{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"},{"name":"B","family":"Waxman B","unit":"L.S/eq.m"},{"name":"BQv","family":"Waxman BQv","unit":"S/m"}],"parameters":[{"name":"B method","type":"select","value":"Use B from formula","choices":["Use B from formula","Use B value"]},{"name":"B value","type":"number","value":0,"unit":"degF"},{"name":"Temperature","type":"number","value":25,"unit":"degF"},{"name":"Water Resistivity","type":"number","value":0.03,"unit":"ohm.m"},{"name":"a*","type":"number","value":1},{"name":"m*","type":"number","value":2}]}</t>
   </si>
   <si>
     <t>RW from SAL and FTemp</t>
@@ -310,7 +310,7 @@
     <t>Bad Hole</t>
   </si>
   <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"badHoleFromCaliper","inputs":[{"name":"Caliper","family":"Caliper","unit": "in"}],"outputs":[{"name":"BH_FL_BS","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Cutoff","type":"number","value":0,"unit":"in","color":"red"},{"name":"Bit Size","type":"number","value":0,"unit":"in","color":"green"}],"options":[{"name":"Bit Size"}]}</t>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"badHoleFromCaliper","inputs":[{"name":"Caliper","family":"Caliper","unit":"in"}],"outputs":[{"name":"BH_FL_BS","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Cutoff","type":"number","value":12.5,"unit":"in","color":"red"},{"name":"Bit Size","type":"number","value":0,"unit":"in","color":"green"}],"options":[{"name":"Bit Size"}]}</t>
   </si>
   <si>
     <t>Bad Hole From DRHO</t>
@@ -813,12 +813,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="C30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="38.85546875" customWidth="1"/>
@@ -1755,11 +1755,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527770E9-A67F-41C5-8874-9050F541FE81}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{A0EC88C7-20CC-5964-AA6B-D565D2EB5D70}">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1782,12 +1782,12 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1795,18 +1795,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C1048576" xr:uid="{36FC2A2A-37AD-4152-8699-5637EC548D72}">
+  <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState ref="A2:C1048576">
       <sortCondition ref="A1:A1048576"/>
     </sortState>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_D1D6CC9175F0C5647023B20AD3903188B00E6F80" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{10BEF976-3E6D-4EC0-81A6-EC2A06B05313}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_D1D6CC9175F0C5647023B20AD3903188B00E6F80" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{C91A279B-EB13-4764-915C-0740BD5E5A31}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task-spec" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
     <t>Mud Density FPress</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"mudDensityFPress","inputs":[{"name":"Depth","family":"Measured Depth","unit": "m"}],"outputs":[{"name":"FPRESS","family":"Formation Pressure","unit":"kPa"}],"parameters":[{"name":"Drilling Fluid Density","type":"number","value":1,"unit":"g/cm3"}]}</t>
+    <t>{"icon":"formation-resistivity-16x16","function":"mudDensityFPress","inputs":[{"name":"Depth","family":"Measured Depth","unit":"m"}],"outputs":[{"name":"FPRESS","family":"Formation Pressure","unit":"kPa"}],"parameters":[{"name":"Drilling Fluid Density","type":"number","value":1,"unit":"lbm/galUS"}]}</t>
   </si>
   <si>
     <t>Normalize Qv</t>
@@ -814,8 +814,8 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1756,10 +1756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1782,17 +1782,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_D1D6CC9175F0C5647023B20AD3903188B00E6F80" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{C91A279B-EB13-4764-915C-0740BD5E5A31}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_D1D6CC9175F0C5647023B20AD3903188B00E6F80" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{F7854989-713F-420D-B6FE-7567AAAF4E61}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -310,7 +310,7 @@
     <t>Bad Hole</t>
   </si>
   <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"badHoleFromCaliper","inputs":[{"name":"Caliper","family":"Caliper","unit":"in"}],"outputs":[{"name":"BH_FL_BS","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Cutoff","type":"number","value":12.5,"unit":"in","color":"red"},{"name":"Bit Size","type":"number","value":0,"unit":"in","color":"green"}],"options":[{"name":"Bit Size"}]}</t>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"badHoleFromCaliper","inputs":[{"name":"Caliper","family":"Caliper","unit":"in"}],"outputs":[{"name":"BH_FL_BS","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Cutoff","type":"number","value":0.5,"unit":"in","color":"red"},{"name":"Bit Size","type":"number","value":12.5,"unit":"in","color":"green"}],"options":[{"name":"Bit Size"}]}</t>
   </si>
   <si>
     <t>Bad Hole From DRHO</t>
@@ -815,7 +815,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1756,10 +1756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1780,9 +1780,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>32</v>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_D1D6CC9175F0C5647023B20AD3903188B00E6F80" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{F7854989-713F-420D-B6FE-7567AAAF4E61}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_D1D6CC9175F0C5647023B20AD3903188B00E6F80" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{8124D665-D979-4AB0-B0BA-E932FEE9B1DC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task-spec" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
     <t>Clastic</t>
   </si>
   <si>
-    <t>{"icon":"summation-16x16","function":"calClasticfSummation","summation":true,"multiple":true,"addParamFlag":true,"inputs":[{"name":"Shale Volume","unit":"v/v","family":"Shale Volume"},{"name":"Porosity","unit":"v/v","family":"Porosity"},{"name":"Water Saturation","unit":"v/v","family":"Water Saturation"}],"inputTemplate":{"name":"Curve","allowNull":true},"parameters":[{"id":"Vshale Cutoff","name":"Vshale Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt; Value &lt;= Max","min":0,"max":0.4}]},{"id":"Phi Cutoff","name":"Phi Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Value &lt; Min or Value &gt;= Max","min":0,"max":0.15}]},{"id":"SW Cutoff","name":"SW Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt; Value &lt;= Max","min":0,"max":0.6}]}],"paramTemplate":{"name":"Custom Cutoff 4","type":"handsontable","tableType":"condition","value":[{"method":"Value &lt;= Min","min":0.5}],"nameEditable":true},"outputsMultiple":true,"outputFromParameters":true,"outputs":[{"name":"ROCK","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"}],"shading":"yellow"},{"name":"RES","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"},{"id":"Phi Cutoff"}],"shading":"green"},{"name":"PAY","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"},{"id":"Phi Cutoff"},{"id":"SW Cutoff"}],"shading":"red"}],"outputTemplate":{"name":"CUSTOM_FL","family":"Net Flag","unit":"UNITLESS","parameters":[],"shading":"red"}}</t>
+    <t>{"icon":"summation-16x16","function":"calClasticfSummation","summation":true,"multiple":true,"addParamFlag":true,"inputs":[{"name":"Shale Volume","unit":"v/v","family":"Shale Volume"},{"name":"Porosity","unit":"v/v","family":"Porosity"},{"name":"Water Saturation","unit":"v/v","family":"Water Saturation"}],"options":[{"name":"Reference","type":"1","value":"__MD"}],"inputTemplate":{"name":"Curve","allowNull":true},"parameters":[{"id":"Vshale Cutoff","name":"Vshale Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt; Value &lt;= Max","min":0,"max":0.4}]},{"id":"Phi Cutoff","name":"Phi Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Value &lt; Min or Value &gt;= Max","min":0,"max":0.15}]},{"id":"SW Cutoff","name":"SW Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt; Value &lt;= Max","min":0,"max":0.6}]}],"paramTemplate":{"name":"Custom Cutoff 4","type":"handsontable","tableType":"condition","value":[{"method":"Value &lt;= Min","min":0.5}],"nameEditable":true},"outputsMultiple":true,"outputFromParameters":true,"outputs":[{"name":"ROCK","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"}],"shading":"yellow"},{"name":"RES","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"},{"id":"Phi Cutoff"}],"shading":"green"},{"name":"PAY","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"},{"id":"Phi Cutoff"},{"id":"SW Cutoff"}],"shading":"red"}],"outputTemplate":{"name":"CUSTOM_FL","family":"Net Flag","unit":"UNITLESS","parameters":[],"shading":"red"}}</t>
   </si>
   <si>
     <t>Multi-Mineral Solver</t>
@@ -813,9 +813,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1756,9 +1756,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1780,9 +1780,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>40</v>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_D1D6CC9175F0C5647023B20AD3903188B00E6F80" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{8124D665-D979-4AB0-B0BA-E932FEE9B1DC}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_E147876DF4F4C5647023B20AD3F2A19A06B3052D" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{A1F25632-7825-471B-A8E7-9068F9F250A8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task-spec" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
     <t>Clastic</t>
   </si>
   <si>
-    <t>{"icon":"summation-16x16","function":"calClasticfSummation","summation":true,"multiple":true,"addParamFlag":true,"inputs":[{"name":"Shale Volume","unit":"v/v","family":"Shale Volume"},{"name":"Porosity","unit":"v/v","family":"Porosity"},{"name":"Water Saturation","unit":"v/v","family":"Water Saturation"}],"options":[{"name":"Reference","type":"1","value":"__MD"}],"inputTemplate":{"name":"Curve","allowNull":true},"parameters":[{"id":"Vshale Cutoff","name":"Vshale Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt; Value &lt;= Max","min":0,"max":0.4}]},{"id":"Phi Cutoff","name":"Phi Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Value &lt; Min or Value &gt;= Max","min":0,"max":0.15}]},{"id":"SW Cutoff","name":"SW Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt; Value &lt;= Max","min":0,"max":0.6}]}],"paramTemplate":{"name":"Custom Cutoff 4","type":"handsontable","tableType":"condition","value":[{"method":"Value &lt;= Min","min":0.5}],"nameEditable":true},"outputsMultiple":true,"outputFromParameters":true,"outputs":[{"name":"ROCK","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"}],"shading":"yellow"},{"name":"RES","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"},{"id":"Phi Cutoff"}],"shading":"green"},{"name":"PAY","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"},{"id":"Phi Cutoff"},{"id":"SW Cutoff"}],"shading":"red"}],"outputTemplate":{"name":"CUSTOM_FL","family":"Net Flag","unit":"UNITLESS","parameters":[],"shading":"red"}}</t>
+    <t>{"icon":"summation-16x16","function":"calClasticfSummation","summation":true,"multiple":true,"addParamFlag":true,"inputs":[{"name":"Shale Volume","unit":"v/v","family":"Shale Volume"},{"name":"Porosity","unit":"v/v","family":"Porosity"},{"name":"Water Saturation","unit":"v/v","family":"Water Saturation"}],"options":[{"name":"TVD"},{"name":"TVDSS"}],"inputTemplate":{"name":"Curve","allowNull":true},"parameters":[{"id":"Vshale Cutoff","name":"Vshale Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt; Value &lt;= Max","min":0,"max":0.4}]},{"id":"Phi Cutoff","name":"Phi Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Value &lt; Min or Value &gt;= Max","min":0,"max":0.15}]},{"id":"SW Cutoff","name":"SW Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt; Value &lt;= Max","min":0,"max":0.6}]}],"paramTemplate":{"name":"Custom Cutoff 4","type":"handsontable","tableType":"condition","value":[{"method":"Value &lt;= Min","min":0.5}],"nameEditable":true},"outputsMultiple":true,"outputFromParameters":true,"outputs":[{"name":"ROCK","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"}],"shading":"yellow"},{"name":"RES","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"},{"id":"Phi Cutoff"}],"shading":"green"},{"name":"PAY","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"},{"id":"Phi Cutoff"},{"id":"SW Cutoff"}],"shading":"red"}],"outputTemplate":{"name":"CUSTOM_FL","family":"Net Flag","unit":"UNITLESS","parameters":[],"shading":"red"}}</t>
   </si>
   <si>
     <t>Multi-Mineral Solver</t>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -1758,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_E147876DF4F4C5647023B20AD3F2A19A06B3052D" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{A1F25632-7825-471B-A8E7-9068F9F250A8}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_E147876DF4F4C5647023B20AD3F2A19A06B3052D" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{33A61BD3-3AE9-4B4D-906B-37AC35167D67}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task-spec" sheetId="1" r:id="rId1"/>
@@ -274,7 +274,7 @@
     <t>Qv Water Bearing Shaly Sands</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"qvWaterBearingShalySands","inputs":[{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"},{"name":"B","family":"Waxman B","unit":"L.S/eq.m"},{"name":"BQv","family":"Waxman BQv","unit":"S/m"}],"parameters":[{"name":"B method","type":"select","value":"Use B from formula","choices":["Use B from formula","Use B value"]},{"name":"B value","type":"number","value":0,"unit":"degF"},{"name":"Temperature","type":"number","value":25,"unit":"degF"},{"name":"Water Resistivity","type":"number","value":0.03,"unit":"ohm.m"},{"name":"a*","type":"number","value":1},{"name":"m*","type":"number","value":2}]}</t>
+    <t>{"icon":"formation-resistivity-16x16","function":"qvWaterBearingShalySands","inputs":[{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"},{"name":"B","family":"Waxman B","unit":"L.S/eq.m"},{"name":"BQv","family":"Waxman BQv","unit":"S/m"}],"parameters":[{"name":"B method","type":"select","value":"Use B from formula","choices":["Use B from formula","Use B value"]},{"name":"B value","type":"number","value":0,"unit":"L.S/m"},{"name":"Temperature","type":"number","value":25,"unit":"degF"},{"name":"Water Resistivity","type":"number","value":0.03,"unit":"ohm.m"},{"name":"a*","type":"number","value":1},{"name":"m*","type":"number","value":2}]}</t>
   </si>
   <si>
     <t>RW from SAL and FTemp</t>
@@ -814,8 +814,8 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_E147876DF4F4C5647023B20AD3F2A19A06B3052D" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{33A61BD3-3AE9-4B4D-906B-37AC35167D67}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{E0AA312C-C6C9-4924-8E3B-6CE62BFDE493}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task-spec" sheetId="1" r:id="rId1"/>
@@ -274,7 +274,7 @@
     <t>Qv Water Bearing Shaly Sands</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"qvWaterBearingShalySands","inputs":[{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"},{"name":"B","family":"Waxman B","unit":"L.S/eq.m"},{"name":"BQv","family":"Waxman BQv","unit":"S/m"}],"parameters":[{"name":"B method","type":"select","value":"Use B from formula","choices":["Use B from formula","Use B value"]},{"name":"B value","type":"number","value":0,"unit":"L.S/m"},{"name":"Temperature","type":"number","value":25,"unit":"degF"},{"name":"Water Resistivity","type":"number","value":0.03,"unit":"ohm.m"},{"name":"a*","type":"number","value":1},{"name":"m*","type":"number","value":2}]}</t>
+    <t>{"icon":"formation-resistivity-16x16","function":"qvWaterBearingShalySands","inputs":[{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"},{"name":"B","family":"Waxman B","unit":"L.S/eq.m"},{"name":"BQv","family":"Waxman BQv","unit":"S/m"}],"parameters":[{"name":"B method","type":"select","value":"Use B from formula","choices":["Use B from formula","Use B value"]},{"name":"B value","type":"number","value":0,"unit":"L.S/m"},{"name":"Temperature","type":"number","value":25,"unit":"degC"},{"name":"Water Resistivity","type":"number","value":0.03,"unit":"ohm.m"},{"name":"a*","type":"number","value":1},{"name":"m*","type":"number","value":2}]}</t>
   </si>
   <si>
     <t>RW from SAL and FTemp</t>
@@ -283,7 +283,7 @@
     <t>Fluid/Water Property</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"RWfromSALandFTemp","inputs":[{"name":"Formation Temperature","family":"Formation Temperature","unit": "degF"},{"name":"Salinity","family":"Salinity","unit": "ppk"}],"outputs":[{"name":"RwX","family":"Formation Water Resistivity","unit":"ohm.m"}],"parameters":[]}</t>
+    <t>{"icon":"formation-resistivity-16x16","function":"RWfromSALandFTemp","inputs":[{"name":"Formation Temperature","family":"Formation Temperature","unit":"degF"},{"name":"Salinity","family":"Salinity","unit":"ppm"}],"outputs":[{"name":"RwX","family":"Formation Water Resistivity","unit":"ohm.m"}],"parameters":[]}</t>
   </si>
   <si>
     <t>U from Salinity</t>
@@ -814,8 +814,8 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1756,10 +1756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1785,6 +1785,11 @@
         <v>35</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState ref="A2:C1048576">

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{E0AA312C-C6C9-4924-8E3B-6CE62BFDE493}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{0DF45FE0-240B-4ACB-A603-2133A23ED914}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task-spec" sheetId="1" r:id="rId1"/>
@@ -61,19 +61,19 @@
     <t>Neutron-Density</t>
   </si>
   <si>
-    <t>{ "icon": "clay-volume-16x16","function": "calVSHfromND", "inputs": [ { "name": "Neutron Porosity", "unit": "v/v","family": "Neutron Porosity" }, { "name": "Bulk Density", "unit": "g/cm3", "family": "Bulk Density" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "value": -0.01, "unit": "v/v" }, { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "red" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_ND", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{ "icon": "clay-volume-16x16", "function": "calVSHfromND", "overlay_line": "Schlumberger Den/Neut Corr. Rhof 1.0", "inputs": [ { "name": "Neutron Porosity", "unit": "v/v", "family": "Neutron Porosity" }, { "name": "Bulk Density", "unit": "g/cm3", "family": "Bulk Density" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "value": -0.01, "unit": "v/v" }, { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "red" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" } ], "outputs": [{ "name": "VSH_ND", "family": "Shale Volume", "unit": "v/v" }] }</t>
   </si>
   <si>
     <t>Neutron-Sonic</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16","function": "calVSHfromNS", "inputs": [ { "name": "Neutron Porosity", "unit": "v/v", "family": "Neutron Porosity" }, { "name": "Compressional Slowness", "unit": "us/ft", "family": "Compressional Slowness" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "unit": "v/v", "value": -0.01 }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "g/cm3" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "g/cm3", "color": "#F0F" }, { "name": "DT_clean_1", "type": "number", "value": 55, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_NS", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "clay-volume-16x16","function": "calVSHfromNS", "overlay_line": "Schlumberger Neut/Sonic Wylie Dtf 189", "inputs": [ { "name": "Neutron Porosity", "unit": "v/v", "family": "Neutron Porosity" }, { "name": "Compressional Slowness", "unit": "us/ft", "family": "Compressional Slowness" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "unit": "v/v", "value": -0.01 }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "g/cm3" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "g/cm3", "color": "#F0F" }, { "name": "DT_clean_1", "type": "number", "value": 55, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_NS", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Density-Sonic</t>
   </si>
   <si>
-    <t>{ "icon": "clay-volume-16x16","function": "calVSHfromDS", "inputs": [ { "name": "Bulk Density", "unit": "g/cm3", "family": "Bulk Density" }, { "name": "Compressional Slowness", "unit": "us/ft", "family": "Compressional Slowness" } ], "parameters": [ { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "#F0F" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "us/ft" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "us/ft", "color": "red" }, { "name": "DT_clean_1", "type": "number", "value": 50, "unit": "us/ft" } ], "outputs": [ { "name": "VSH_SD", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{ "icon": "clay-volume-16x16","function": "calVSHfromDS", "overlay_line": "Den/Sonic Wylie Rhof 1.0", "inputs": [ { "name": "Bulk Density", "unit": "g/cm3", "family": "Bulk Density" }, { "name": "Compressional Slowness", "unit": "us/ft", "family": "Compressional Slowness" } ], "parameters": [ { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "#F0F" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "us/ft" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "us/ft", "color": "red" }, { "name": "DT_clean_1", "type": "number", "value": 50, "unit": "us/ft" } ], "outputs": [ { "name": "VSH_SD", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Resistivity</t>
@@ -533,7 +533,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -813,9 +813,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1756,10 +1756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1782,12 +1782,17 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>36</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21030"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{0DF45FE0-240B-4ACB-A603-2133A23ED914}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{65ACCA1B-D3B1-4176-8AB4-F1A8CA11826D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task-spec" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
     <t>Density-Sonic</t>
   </si>
   <si>
-    <t>{ "icon": "clay-volume-16x16","function": "calVSHfromDS", "overlay_line": "Den/Sonic Wylie Rhof 1.0", "inputs": [ { "name": "Bulk Density", "unit": "g/cm3", "family": "Bulk Density" }, { "name": "Compressional Slowness", "unit": "us/ft", "family": "Compressional Slowness" } ], "parameters": [ { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "#F0F" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "us/ft" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "us/ft", "color": "red" }, { "name": "DT_clean_1", "type": "number", "value": 50, "unit": "us/ft" } ], "outputs": [ { "name": "VSH_SD", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{ "icon": "clay-volume-16x16","function": "calVSHfromDS", "overlay_line": "Den/Sonic Wylie Rhof 1.0", "inputs": [ { "name": "Bulk Density", "unit": "g/cm3", "family": "Bulk Density" }, { "name": "Compressional Slowness", "unit": "us/ft", "family": "Compressional Slowness" } ], "parameters": [ { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "red" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "us/ft" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "us/ft", "color": "#F0F" }, { "name": "DT_clean_1", "type": "number", "value": 50, "unit": "us/ft" } ], "outputs": [ { "name": "VSH_SD", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Resistivity</t>
@@ -813,9 +813,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1756,10 +1756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1782,16 +1782,6 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
         <v>4</v>
       </c>
     </row>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21030"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{65ACCA1B-D3B1-4176-8AB4-F1A8CA11826D}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{42660B75-68B0-4C59-86F7-FBBB94A9982C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,16 +244,16 @@
     <t>Gradient FPress</t>
   </si>
   <si>
-    <t>Formation Pressure</t>
-  </si>
-  <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"gradientFPress","inputs":[{"name":"Depth","family":"Measured Depth","unit": "m"}],"outputs":[{"name":"FPRESS","family":"Formation Pressure","unit":"kPa"}],"parameters":[{"name":"Pressure Gradient","type":"number","value":9.792,"unit":"kPa/m"}]}</t>
+    <t>Hydrostatic Fressure</t>
+  </si>
+  <si>
+    <t>{"icon":"formation-resistivity-16x16","function":"gradientFPress","inputs":[{"name":"True Vertical Depth","family":"True Vertical Depth","unit":"m"}],"outputs":[{"name":"FPRESS","family":"Hydrostatic Pressure","unit":"kPa"}],"parameters":[{"name":"Pressure Gradient","type":"number","value":9.792,"unit":"kPa/m"}]}</t>
   </si>
   <si>
     <t>Mud Density FPress</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"mudDensityFPress","inputs":[{"name":"Depth","family":"Measured Depth","unit":"m"}],"outputs":[{"name":"FPRESS","family":"Formation Pressure","unit":"kPa"}],"parameters":[{"name":"Drilling Fluid Density","type":"number","value":1,"unit":"lbm/galUS"}]}</t>
+    <t>{"icon":"formation-resistivity-16x16","function":"mudDensityFPress","inputs":[{"name":"True Vertical Depth","family":"True Vertical Depth","unit":"m"}],"outputs":[{"name":"FPRESS","family":"Hydrostatic Pressure","unit":"kPa"}],"parameters":[{"name":"Drilling Fluid Density","type":"number","value":1,"unit":"kg/m3"}]}</t>
   </si>
   <si>
     <t>Normalize Qv</t>
@@ -533,7 +533,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -814,8 +814,8 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1756,10 +1756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1782,7 +1782,12 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>4</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21030"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{42660B75-68B0-4C59-86F7-FBBB94A9982C}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{3D970398-592B-46C8-A14A-EFA9D3A4ACE9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task-spec" sheetId="1" r:id="rId1"/>
@@ -244,7 +244,7 @@
     <t>Gradient FPress</t>
   </si>
   <si>
-    <t>Hydrostatic Fressure</t>
+    <t>Hydrostatic Pressure</t>
   </si>
   <si>
     <t>{"icon":"formation-resistivity-16x16","function":"gradientFPress","inputs":[{"name":"True Vertical Depth","family":"True Vertical Depth","unit":"m"}],"outputs":[{"name":"FPRESS","family":"Hydrostatic Pressure","unit":"kPa"}],"parameters":[{"name":"Pressure Gradient","type":"number","value":9.792,"unit":"kPa/m"}]}</t>
@@ -813,9 +813,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1758,7 +1758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21107"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{3D970398-592B-46C8-A14A-EFA9D3A4ACE9}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{74972D4F-4816-42CE-AA77-BBDD0B77DE01}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task-spec" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
     <t>Density-Sonic</t>
   </si>
   <si>
-    <t>{ "icon": "clay-volume-16x16","function": "calVSHfromDS", "overlay_line": "Den/Sonic Wylie Rhof 1.0", "inputs": [ { "name": "Bulk Density", "unit": "g/cm3", "family": "Bulk Density" }, { "name": "Compressional Slowness", "unit": "us/ft", "family": "Compressional Slowness" } ], "parameters": [ { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "red" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "us/ft" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "us/ft", "color": "#F0F" }, { "name": "DT_clean_1", "type": "number", "value": 50, "unit": "us/ft" } ], "outputs": [ { "name": "VSH_SD", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon":"clay-volume-16x16","function":"calVSHfromDS","overlay_line":"Den/Sonic Wylie Rhof 1.0","inputs":[{"name":"Compressional Slowness","unit":"us/ft","family":"Compressional Slowness"},{"name":"Bulk Density","unit":"g/cm3","family":"Bulk Density"}],"parameters":[{"name":"DT_clean_2","type":"number","value":90,"unit":"us/ft"},{"name":"DT_shale","type":"number","value":100,"unit":"us/ft","color":"#F0F"},{"name":"DT_clean_1","type":"number","value":50,"unit":"us/ft"},{"name":"RHOB_clean_2","type":"number","value":2.2,"unit":"g/cm3"},{"name":"RHOB_shale","type":"number","value":2.4,"unit":"g/cm3","color":"red"},{"name":"RHOB_clean_1","type":"number","value":2.65,"unit":"g/cm3"}],"outputs":[{"name":"VSH_SD","family":"Shale Volume","unit":"v/v"}],"scaleLeft":40,"scaleRight":140,"scaleBottom":3,"scaleTop":2}</t>
   </si>
   <si>
     <t>Resistivity</t>
@@ -533,7 +533,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -813,9 +813,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1756,10 +1756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1782,12 +1782,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21107"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{7D0A6333-6141-487E-B6F6-AA5969B95EE1}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{245351BA-AFE7-4B09-B043-86AB752D9FE1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,7 +361,7 @@
     <t>TVD Conversion</t>
   </si>
   <si>
-    <t>{"icon":"true-vertical-depth-16x16","function":"tvdConvserion","allowZone":false,"inputs":[{"name":"Deviation","family":"Hole Deviation","unit":"Deg"},{"name":"Azimuth","family":"Hole Azimuth","unit":"Deg"}],"outputs":[{"name":"TVD","family":"True Vertical Depth","unit":"m", "disableEditing":"familyunit"},{"name":"TVDSS","family":"True Vertical Depth Sub Sea","unit":"m", "disableEditing":"familyunit"},{"name":"XOFFSET","family":"X Offset","unit":"m", "disableEditing":"familyunit"},{"name":"YOFFSET","family":"Y Offset","unit":"m", "disableEditing":"familyunit"}],"parameters":[{"name":"TVD Mode","type":"select","choices":["On Shore","Off Shore"],"value":"Off Shore"},{"name":"Elevator","type":"number","value":0, "unit": "m"},{"name":"X reference at","type":"number","value":0, "unit": "m"},{"name":"Y reference at","type":"number","value":0, "unit": "m"},{"name":"Method","type":"select","choices":["Average Angle","Balanced Tangential","Radius Curvature","Minimum Curvature"],"value":"Minimum Curvature"}]}</t>
+    <t>{"icon":"true-vertical-depth-16x16","function":"tvdConvserion","allowZone":false,"inputs":[{"name":"Deviation","family":"Hole Deviation","unit":"Deg"},{"name":"Azimuth","family":"Hole Azimuth","unit":"Deg"}],"outputs":[{"name":"TVD","family":"True Vertical Depth","unit":"m", "disableEditing":"namefamilyunit"},{"name":"TVDSS","family":"True Vertical Depth Sub Sea","unit":"m", "disableEditing":"namefamilyunit"},{"name":"XOFFSET","family":"X Offset","unit":"m", "disableEditing":"namefamilyunit"},{"name":"YOFFSET","family":"Y Offset","unit":"m", "disableEditing":"namefamilyunit"}],"parameters":[{"name":"TVD Mode","type":"select","choices":["On Shore","Off Shore"],"value":"Off Shore"},{"name":"Elevator","type":"number","value":0, "unit": "m"},{"name":"X reference at","type":"number","value":0, "unit": "m"},{"name":"Y reference at","type":"number","value":0, "unit": "m"},{"name":"Method","type":"select","choices":["Average Angle","Balanced Tangential","Radius Curvature","Minimum Curvature"],"value":"Minimum Curvature"}]}</t>
   </si>
   <si>
     <t>Basic Operations</t>
@@ -858,8 +858,8 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <pane ySplit="1" topLeftCell="C30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21107"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{245351BA-AFE7-4B09-B043-86AB752D9FE1}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{88495811-8B6D-4F16-80BC-B9430DFDB82A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,13 +70,13 @@
     <t>Neutron-Density</t>
   </si>
   <si>
-    <t>{ "icon": "clay-volume-16x16", "function": "calVSHfromND", "overlay_line": "Schlumberger Den/Neut Corr. Rhof 1.0", "inputs": [ { "name": "Neutron Porosity", "unit": "v/v", "family": "Neutron Porosity" }, { "name": "Bulk Density", "unit": "g/cm3", "family": "Bulk Density" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "value": -0.01, "unit": "v/v" }, { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "red" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" } ], "outputs": [{ "name": "VSH_ND", "family": "Shale Volume", "unit": "v/v" }] }</t>
+    <t>{ "icon": "clay-volume-16x16", "function": "calVSHfromND", "overlay_line": "Schlumberger Den/Neut Corr. Rhof 1.0", "inputs": [ { "name": "Neutron Porosity", "unit": "v/v", "family": "Neutron Porosity" }, { "name": "Bulk Density", "unit": "g/cm3", "family": "Bulk Density" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "value": -0.01, "unit": "v/v" }, { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "red" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" } ], "outputs": [{ "name": "VSH_ND", "family": "Shale Volume", "unit": "v/v" }],"scaleLeft":-0.15,"scaleRight":0.45,"scaleBottom":3,"scaleTop":2}</t>
   </si>
   <si>
     <t>Neutron-Sonic</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16","function": "calVSHfromNS", "overlay_line": "Schlumberger Neut/Sonic Wylie Dtf 189", "inputs": [ { "name": "Neutron Porosity", "unit": "v/v", "family": "Neutron Porosity" }, { "name": "Compressional Slowness", "unit": "us/ft", "family": "Compressional Slowness" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "unit": "v/v", "value": -0.01 }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "g/cm3" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "g/cm3", "color": "#F0F" }, { "name": "DT_clean_1", "type": "number", "value": 55, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_NS", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "clay-volume-16x16","function": "calVSHfromNS", "overlay_line": "Schlumberger Neut/Sonic Wylie Dtf 189", "inputs": [ { "name": "Neutron Porosity", "unit": "v/v", "family": "Neutron Porosity" }, { "name": "Compressional Slowness", "unit": "us/ft", "family": "Compressional Slowness" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "unit": "v/v", "value": -0.01 }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "g/cm3" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "g/cm3", "color": "#F0F" }, { "name": "DT_clean_1", "type": "number", "value": 55, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_NS", "family": "Shale Volume", "unit": "v/v" } ] ,"scaleLeft":-0.15,"scaleRight":0.45,"scaleBottom":40,"scaleTop":140}</t>
   </si>
   <si>
     <t>Density-Sonic</t>
@@ -811,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -833,11 +833,6 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -858,8 +853,8 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="C30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21107"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{88495811-8B6D-4F16-80BC-B9430DFDB82A}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{5C2D9D99-83D4-4ED5-B847-BD66E6109482}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="changes" sheetId="2" r:id="rId1"/>
@@ -76,7 +76,7 @@
     <t>Neutron-Sonic</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16","function": "calVSHfromNS", "overlay_line": "Schlumberger Neut/Sonic Wylie Dtf 189", "inputs": [ { "name": "Neutron Porosity", "unit": "v/v", "family": "Neutron Porosity" }, { "name": "Compressional Slowness", "unit": "us/ft", "family": "Compressional Slowness" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "unit": "v/v", "value": -0.01 }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "g/cm3" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "g/cm3", "color": "#F0F" }, { "name": "DT_clean_1", "type": "number", "value": 55, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_NS", "family": "Shale Volume", "unit": "v/v" } ] ,"scaleLeft":-0.15,"scaleRight":0.45,"scaleBottom":40,"scaleTop":140}</t>
+    <t>{"icon": "clay-volume-16x16","function": "calVSHfromNS", "overlay_line": "Schlumberger Neut/Sonic Wylie Dtf 189", "inputs": [ { "name": "Neutron Porosity", "unit": "v/v", "family": "Neutron Porosity" }, { "name": "Compressional Slowness", "unit": "us/ft", "family": "Compressional Slowness" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NPHI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NPHI_clean_1", "type": "number", "unit": "v/v", "value": -0.01 }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "g/cm3" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "g/cm3", "color": "#F0F" }, { "name": "DT_clean_1", "type": "number", "value": 55, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_NS", "family": "Shale Volume", "unit": "v/v" } ] ,"scaleLeft":-0.15,"scaleRight":0.45,"scaleBottom":40,"scaleTop":140}</t>
   </si>
   <si>
     <t>Density-Sonic</t>
@@ -811,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -833,6 +833,11 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21107"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{5C2D9D99-83D4-4ED5-B847-BD66E6109482}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{ED93FFCA-01B1-4415-A6DB-A29572EED2AC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="changes" sheetId="2" r:id="rId1"/>
-    <sheet name="task-spec" sheetId="1" r:id="rId2"/>
+    <sheet name="task-spec" sheetId="1" r:id="rId1"/>
+    <sheet name="changes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">changes!$A:$C</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">changes!$A:$C</definedName>
   </definedNames>
   <calcPr calcId="179020"/>
   <extLst>
@@ -31,6 +31,459 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="154">
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Gamma Ray</t>
+  </si>
+  <si>
+    <t>Shale Volume</t>
+  </si>
+  <si>
+    <t>{ "icon": "clay-volume-16x16","function": "calVSHfromGR", "inputs": [ { "name": "Gamma Ray", "unit": "gAPI","family": "Gamma Ray" } ], "parameters": [ { "name": "GR clean", "type": "number", "value": 10, "unit": "gAPI", "color": "red" }, { "name": "GR shale", "type": "number", "value": 120, "unit": "gAPI", "color": "green" }, { "name": "Method", "type": "select", "value": "Linear", "choices": [ "Linear", "Clavier", "Larionov Tertiary rocks", "Larionov older rocks", "Stieber variation I", "Stieber - Miocene and Pliocene", "Stieber variation II" ] } ], "outputs": [ { "name": "VSH_GR", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+  </si>
+  <si>
+    <t>Neutron-Density</t>
+  </si>
+  <si>
+    <t>{ "icon": "clay-volume-16x16", "function": "calVSHfromND", "overlay_line": "Schlumberger Den/Neut Corr. Rhof 1.0", "inputs": [ { "name": "Neutron Porosity", "unit": "v/v", "family": "Neutron Porosity" }, { "name": "Bulk Density", "unit": "g/cm3", "family": "Bulk Density" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NPHI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NPHI_clean_1", "type": "number", "value": -0.01, "unit": "v/v" }, { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "red" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" } ], "outputs": [{ "name": "VSH_ND", "family": "Shale Volume", "unit": "v/v" }],"scaleLeft":-0.15,"scaleRight":0.45,"scaleBottom":3,"scaleTop":2}</t>
+  </si>
+  <si>
+    <t>Neutron-Sonic</t>
+  </si>
+  <si>
+    <t>{"icon": "clay-volume-16x16","function": "calVSHfromNS", "overlay_line": "Schlumberger Neut/Sonic Wylie Dtf 189", "inputs": [ { "name": "Neutron Porosity", "unit": "v/v", "family": "Neutron Porosity" }, { "name": "Compressional Slowness", "unit": "us/ft", "family": "Compressional Slowness" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NPHI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NPHI_clean_1", "type": "number", "unit": "v/v", "value": -0.01 }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "g/cm3" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "g/cm3", "color": "#F0F" }, { "name": "DT_clean_1", "type": "number", "value": 55, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_NS", "family": "Shale Volume", "unit": "v/v" } ] ,"scaleLeft":-0.15,"scaleRight":0.45,"scaleBottom":40,"scaleTop":140}</t>
+  </si>
+  <si>
+    <t>Density-Sonic</t>
+  </si>
+  <si>
+    <t>{"icon":"clay-volume-16x16","function":"calVSHfromDS","overlay_line":"Den/Sonic Wylie Rhof 1.0","inputs":[{"name":"Compressional Slowness","unit":"us/ft","family":"Compressional Slowness"},{"name":"Bulk Density","unit":"g/cm3","family":"Bulk Density"}],"parameters":[{"name":"DT_clean_2","type":"number","value":90,"unit":"us/ft"},{"name":"DT_shale","type":"number","value":100,"unit":"us/ft","color":"#F0F"},{"name":"DT_clean_1","type":"number","value":50,"unit":"us/ft"},{"name":"RHOB_clean_2","type":"number","value":2.2,"unit":"g/cm3"},{"name":"RHOB_shale","type":"number","value":2.4,"unit":"g/cm3","color":"red"},{"name":"RHOB_clean_1","type":"number","value":2.65,"unit":"g/cm3"}],"outputs":[{"name":"VSH_SD","family":"Shale Volume","unit":"v/v"}],"scaleLeft":40,"scaleRight":140,"scaleBottom":3,"scaleTop":2}</t>
+  </si>
+  <si>
+    <t>Resistivity</t>
+  </si>
+  <si>
+    <t>{"icon": "clay-volume-16x16","function": "calVSHfromR", "inputs": [ { "name": "Resistivity", "unit": "ohm.m", "family": "Resistivity" } ], "parameters": [ { "name": "Resistivity_clean", "type": "number", "value": 10, "unit": "ohm.m", "color": "red" }, { "name": "Resistivity_shale", "type": "number", "value": 120, "unit": "ohm.m", "color": "green" }, { "name": "B exponent", "type": "number", "value": 1 }, { "name": "Equation", "type": "select", "value": "Resistivity Log", "choices": [ "Resistivity Log", "Gaymard" ] } ], "outputs": [ { "name": "VSH_RES", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+  </si>
+  <si>
+    <t>Spontaneous potential</t>
+  </si>
+  <si>
+    <t>{"icon": "clay-volume-16x16","function": "calVSHfromSP", "inputs": [ { "name": "Spontaneous Potential", "unit": "mV", "family": "Spontaneous Potential" } ], "parameters": [ { "name": "SP_clean", "type": "number", "value": 0, "unit": "mV", "color": "red" }, { "name": "SP_shale", "type": "number", "value": 100, "unit": "mV", "color": "green" } ], "outputs": [ { "name": "VSH_SP", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+  </si>
+  <si>
+    <t>Thermal Neutron</t>
+  </si>
+  <si>
+    <t>{"icon": "clay-volume-16x16","function": "calVSHfromNEU", "inputs": [ { "name": "Thermal Neutron", "unit": "v/v", "family": "Thermal Neutron Porosity" } ], "parameters": [ { "name": "Neutron_clean", "type": "number", "value": 0.1, "unit": "v/v", "color": "red" }, { "name": "Neutron_shale", "type": "number", "value": 0.3, "unit": "v/v", "color": "green" } ], "outputs": [ { "name": "VSH_NEU", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+  </si>
+  <si>
+    <t>Potassium</t>
+  </si>
+  <si>
+    <t>{"icon": "clay-volume-16x16","function": "calVSHfromPOTA", "inputs": [ { "name": "Potassium", "unit": "%", "family": "Potassium Concentration" } ], "parameters": [ { "name": "POTA matrix", "type": "number", "value": 10, "unit": "%", "color": "red" }, { "name": "POTA shale", "type": "number", "value": 100, "unit": "%", "color": "green" }, { "name": "POTA method", "type": "select", "value": "Linear", "choices": [ "Linear", "Larionov Tertiary rocks", "Larionov older rocks" ] } ], "outputs": [ { "name": "VSH_POTA", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+  </si>
+  <si>
+    <t>Thorium</t>
+  </si>
+  <si>
+    <t>{"icon": "clay-volume-16x16","function": "calVSHfromThori", "inputs": [ { "name": "Thorium", "unit": "ppm", "family": "Thorium Concentration" } ], "parameters": [ { "name": "Thorium matrix", "type": "number", "value": 10, "unit": "ppm", "color": "red" }, { "name": "Thorium shale", "type": "number", "value": 100, "unit": "ppm", "color": "green" }, { "name": "TH method", "type": "select", "value": "Linear", "choices": [ "Linear", "Larionov Tertiary rocks", "Larionov older rocks" ] } ], "outputs": [ { "name": "VSH_Thori", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>{"icon": "clay-volume-16x16","function": "calVSHFinal", "multiple": true, "use_inputs": "multiple", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Shale Volume", "unit": "v/v", "family": "Shale Volume" }, { "name": "Shale Volume", "unit": "v/v", "family": "Shale Volume" } ], "parameters": [ { "name": "Merge Method", "type": "select", "value": "Minimum", "choices": [ "Minimum", "Average", "Arithmetic mean", "Geometric mean", "Harmonic mean", "Median", "Maximum", "Sum" ] } ], "outputs": [ { "name": "VSH_Final", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_MIN", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_AVG", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Porosity</t>
+  </si>
+  <si>
+    <t>{"icon":"calculate-open-porosity-16x16","function":"calPorosityFromDensity","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Density Matrix","type":"number","value":2.65,"unit":"g/cm3","color":"red"},{"name":"Density Fluid","type":"number","value":1,"unit":"g/cm3"},{"name":"Density Shale","type":"number","value":2.4,"unit":"d/cm3","color":"green"}],"outputs":[{"name":"PHIT_D","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_D","family":"Effective Porosity","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>Neutron</t>
+  </si>
+  <si>
+    <t>{"icon":"calculate-open-porosity-16x16","function":"calPorosityFromNeutron","inputs":[{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"}],"outputs":[{"name":"PHIT_N","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_N","family":"Effective Porosity","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>Sonic</t>
+  </si>
+  <si>
+    <t>{ "icon": "calculate-open-porosity-16x16", "function": "calPorosityFromSonic", "inputs": [ { "name": "Compressional Slowness", "family": "Compressional Slowness", "unit": "us/ft" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "Sonic Matrix", "type": "number", "value": 55, "unit": "us/ft", "color": "#F0F" }, { "name": "Sonic Fluid", "type": "number", "value": 189, "unit": "us/ft" }, { "name": "Sonic Shale", "type": "number", "value": 110, "unit": "us/ft", "color": "green" }, { "name": "Sonic Method", "type": "select", "value": "Wyliie", "choices": [ "Wyliie", "Raymer-Hunt-Gardner" ] }, { "name": "Cp", "type": "number", "value": 1 } ], "outputs": [ { "name": "PHIT_S", "family": "Total Porosity", "unit": "v/v" }, { "name": "PHIE_S", "family": "Effective Porosity", "unit": "v/v" } ] }</t>
+  </si>
+  <si>
+    <t>{ "icon": "calculate-open-porosity-16x16", "function": "calPorosityFromNeutronSonic", "inputs": [ { "name": "Compressional Slowness", "family": "Compressional Slowness", "unit": "us/ft" }, { "name": "Neutron", "family": "Neutron Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "Sonic Matrix", "type": "number", "value": 55, "unit": "us/ft", "color": "#F0F" }, { "name": "Sonic Fluid", "type": "number", "value": 189, "unit": "us/ft" }, { "name": "Sonic Shale", "type": "number", "value": 110, "unit": "us/ft", "color": "green" }, { "name": "Neutron Matrix", "type": "number", "value": -0.01, "unit": "v/v", "color": "red" }, { "name": "Neutron Fluid", "type": "number", "value": 0.991, "unit": "v/v" }, { "name": "Neutron Shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "Sonic Method", "type": "select", "value": "Wyliie", "choices": [ "Wyliie", "Raymer-Hunt-Gardner" ] }, { "name": "Cp", "type": "number", "value": 1 } ], "outputs": [ { "name": "PHIT_NS", "family": "Total Porosity", "unit": "v/v" }, { "name": "PHIE_NS", "family": "Effective Porosity", "unit": "v/v" }, { "name": "DTMAA", "family": "Apparent Matrix Compressional Slowness", "unit": "us/ft" } ] }</t>
+  </si>
+  <si>
+    <t>Density-Neutron</t>
+  </si>
+  <si>
+    <t>{ "icon": "calculate-open-porosity-16x16", "function": "calPorosityFromDensityNeutron", "inputs": [ { "name": "Bulk Density", "family": "Bulk Density", "unit": "g/cm3" }, { "name": "Neutron", "family": "Neutron Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "Density Matrix", "type": "number", "value": 2.65, "unit": "g/cm3", "color": "red" }, { "name": "Density Fluid", "type": "number", "value": 1, "unit": "g/cm3" }, { "name": "Density Shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "green" }, { "name": "Neutron Matrix", "type": "number", "value": -0.01, "unit": "v/v", "color": "red" }, { "name": "Neutron Fluid", "type": "number", "value": 0.991, "unit": "v/v" }, { "name": "Neutron Shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" } ], "outputs": [ { "name": "PHIT_ND", "family": "Total Porosity", "unit": "v/v" }, { "name": "PHIE_ND", "family": "Effective Porosity", "unit": "v/v" }, { "name": "RHOMAA", "family": "Apparent Matrix Density", "unit": "g/cm3" } ] }</t>
+  </si>
+  <si>
+    <t>Total Final</t>
+  </si>
+  <si>
+    <t>{"icon":"calculate-open-porosity-16x16","function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Total Porosity", "unit": "v/v", "family": "Total Porosity" }, { "name": "Total Porosity", "unit": "v/v", "family": "Total Porosity" } ], "parameters": [], "outputs": [ { "name": "PHIT_Final", "family": "Total Porosity", "unit": "v/v" } ] }</t>
+  </si>
+  <si>
+    <t>Effective Final</t>
+  </si>
+  <si>
+    <t>{"icon":"calculate-open-porosity-16x16","function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Effective Porosity", "unit": "v/v", "family": "Effective Porosity" }, { "name": "Effective Porosity", "unit": "v/v", "family": "Effective Porosity" } ], "parameters": [], "outputs": [ { "name": "PHIE_Final", "family": "Effective Porosity", "unit": "v/v" } ] }</t>
+  </si>
+  <si>
+    <t>Archie</t>
+  </si>
+  <si>
+    <t>Water Saturation</t>
+  </si>
+  <si>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationArchie", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1, "unit": "unitless" }, { "name": "m", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Ar", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Ar", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Ar", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Ar", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationIndonesia", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1, "unit": "unitless" }, { "name": "m", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Ind", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Ind", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Ind", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Ind", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
+  </si>
+  <si>
+    <t>Modified Indonesia</t>
+  </si>
+  <si>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationModifiedIndonesia", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1, "unit": "unitless" }, { "name": "m", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Imo", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Imo", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Imo", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Imo", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
+  </si>
+  <si>
+    <t>Simandoux</t>
+  </si>
+  <si>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationSimandoux", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1, "unit": "unitless" }, { "name": "m", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Sim", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Sim", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Sim", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Sim", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
+  </si>
+  <si>
+    <t>Modified Simandoux</t>
+  </si>
+  <si>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationModifiedSimandoux", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1, "unit": "unitless" }, { "name": "m", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Smo", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Smo", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Smo", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Smo", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
+  </si>
+  <si>
+    <t>Juhasz</t>
+  </si>
+  <si>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationJuhasz", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "m*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Juh", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Juh", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qvn", "family": "Volumetric CEC", "unit": "eq/L" } ] }</t>
+  </si>
+  <si>
+    <t>Waxman-Smits</t>
+  </si>
+  <si>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationWaxmanSmits", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Formation Temperature", "family": "Formation Temperature", "unit": "degF", "allowNull": true }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "m*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "B", "type": "number", "value": 4, "unit": "L.S/eq.m" }, { "name": "Qv", "type": "number", "value": 1, "unit": "eq/L" } ], "outputs": [ { "name": "Sw_Wax", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Wax", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
+  </si>
+  <si>
+    <t>Dual Water</t>
+  </si>
+  <si>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationDualWater", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Total Porosity", "family": "Total Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1, "unit": "unitless"}, { "name": "m*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.125, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Dua", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Dua", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Dua", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Dua", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qv", "family": "Volumetric CEC", "unit": "eq/L" } ] }</t>
+  </si>
+  <si>
+    <t>Effective Water Saturation</t>
+  </si>
+  <si>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationEffective", "inputs": [ { "name": "Total Porosity", "family": "Total Porosity", "unit": "v/v" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Total Saturation", "family": "Water Saturation", "unit": "v/v" } ], "parameters": [], "outputs": [ { "name": "Sw_E", "family": "Water Saturation", "unit": "v/v" }, { "name": "Bvw_E", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
+  </si>
+  <si>
+    <t>Cutoff and Summation</t>
+  </si>
+  <si>
+    <t>Clastic</t>
+  </si>
+  <si>
+    <t>{"icon":"summation-16x16","function":"calClasticfSummation","summation":true,"multiple":true,"addParamFlag":true,"inputs":[{"name":"Shale Volume","unit":"v/v","family":"Shale Volume"},{"name":"Porosity","unit":"v/v","family":"Porosity"},{"name":"Water Saturation","unit":"v/v","family":"Water Saturation"}],"options":[{"name":"TVD"},{"name":"TVDSS"}],"inputTemplate":{"name":"Curve","allowNull":true},"parameters":[{"id":"Vshale Cutoff","name":"Vshale Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt; Value &lt;= Max","min":0,"max":0.4}]},{"id":"Phi Cutoff","name":"Phi Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Value &lt; Min or Value &gt;= Max","min":0,"max":0.15}]},{"id":"SW Cutoff","name":"SW Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt; Value &lt;= Max","min":0,"max":0.6}]}],"paramTemplate":{"name":"Custom Cutoff 4","type":"handsontable","tableType":"condition","value":[{"method":"Value &lt;= Min","min":0.5}],"nameEditable":true},"outputsMultiple":true,"outputFromParameters":true,"outputs":[{"name":"ROCK","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"}],"shading":"yellow"},{"name":"RES","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"},{"id":"Phi Cutoff"}],"shading":"green"},{"name":"PAY","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"},{"id":"Phi Cutoff"},{"id":"SW Cutoff"}],"shading":"red"}],"outputTemplate":{"name":"CUSTOM_FL","family":"Net Flag","unit":"UNITLESS","parameters":[],"shading":"red"}}</t>
+  </si>
+  <si>
+    <t>Multi-Mineral Solver</t>
+  </si>
+  <si>
+    <t>{"icon":"multi-mineral-solver-16x16","function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":189,"NPHI":0.991,"RHOB":1.03,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.3,"min":0}},{"name":"Fluid","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"DT":["Peak Slowness","Peak Travel Time","Travel Time","Compressional Slowness","DTC.*","DT","SON.*","AC","DTTP.*","Acoustic"],"RHOB":["Bulk Density","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Corrected ZDL Density","DEN.*","RHOB","RHOZ","ZDEN.*","RHOZ","LDEN","Density"],"GR":["Gamma Ray","Gamma Ray 1","Gamma Ray Normalised","Gamma Ray Shale","Gamma Ray Squared","Russian Gamma Ray","PLT Gamma Ray","GR.*","ECGR.*","SGRC.*","GAM.*","HGR","EGR","SGR"],"NPHI":["Thermal Neutron Near Far Ratio","Compensated Neutron Porosity","Epithermal Neutron Porosity","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Russian Thermal Neutron Porosity","Thermal Neutron Porosity","NEU.*","TNP.*","NPHI.*","CNL.*","CNT.*","Porosity"],"POT":["Potassium Capture Relative Yield","Potassium Concentration","Potassium Radio Nuclide Activity","POT.*","Weight Fraction - Element"],"THOR":["Thorium Concentration","Thorium Radio Nuclide Activity","THOR.*"],"URAN":["Uranium Concentration","Uranium Radio Nuclide Activity","URA.*"],"PAI":[".*"]},"outputs":[],"outputConfigs":[{"name":"Minerals","family":"Mineral Volume","unit":"v/v","prefix":"V_"},{"name":"Synthetic Curves","suffix":"_SYN"}]}</t>
+  </si>
+  <si>
+    <t>Gradient FTemp</t>
+  </si>
+  <si>
+    <t>Formation Temperature</t>
+  </si>
+  <si>
+    <t>{"icon":"formation-resistivity-16x16","function":"gradientFTemp","inputs":[{"name":"Depth","family":"Measured Depth","unit":"m"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"Temperature Gradient","type":"number","value":0.03,"unit":"degC/m"},{"name":"TLI","type":"number","value":0,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"}]}</t>
+  </si>
+  <si>
+    <t>Log Interval FTemp</t>
+  </si>
+  <si>
+    <t>{"icon":"formation-resistivity-16x16","function":"logIntervalFTemp","inputs":[{"name":"Depth","family":"Measured Depth","unit":"m"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"TLI","type":"number","value":0,"unit":"m"},{"name":"BLI","type":"number","value":0,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"},{"name":"Bottom Log Temperature","type":"number","value":120,"unit":"degC"}]}</t>
+  </si>
+  <si>
+    <t>Gradient FPress</t>
+  </si>
+  <si>
+    <t>Hydrostatic Pressure</t>
+  </si>
+  <si>
+    <t>{"icon":"formation-resistivity-16x16","function":"gradientFPress","inputs":[{"name":"True Vertical Depth","family":"True Vertical Depth","unit":"m"}],"outputs":[{"name":"FPRESS","family":"Hydrostatic Pressure","unit":"kPa"}],"parameters":[{"name":"Pressure Gradient","type":"number","value":9.792,"unit":"kPa/m"}]}</t>
+  </si>
+  <si>
+    <t>Mud Density FPress</t>
+  </si>
+  <si>
+    <t>{"icon":"formation-resistivity-16x16","function":"mudDensityFPress","inputs":[{"name":"True Vertical Depth","family":"True Vertical Depth","unit":"m"}],"outputs":[{"name":"FPRESS","family":"Hydrostatic Pressure","unit":"kPa"}],"parameters":[{"name":"Drilling Fluid Density","type":"number","value":1,"unit":"kg/m3"}]}</t>
+  </si>
+  <si>
+    <t>Normalize Qv</t>
+  </si>
+  <si>
+    <t>Qv Function</t>
+  </si>
+  <si>
+    <t>{"icon":"formation-resistivity-16x16","function":"normalizeQv","inputs":[{"name":"Porosity","family":"Porosity","unit": "v/v"},{"name":"Shale Volume","family":"Shale Volume","unit": "v/v"}],"outputs":[{"name":"QVn","family":"Normalised Qv","unit":"v/v"}],"parameters":[{"name":"Porosity Shale","type":"number","value":0.4,"unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>CEC Qv</t>
+  </si>
+  <si>
+    <t>{"icon":"formation-resistivity-16x16","function":"cecQv","inputs":[{"name":"Porosity","family":"Porosity","unit": "v/v"},{"name":"CEC","family":"Volumetric CEC","unit": "meq/g"},{"name":"Grain Density","family":"Grain Density","unit": "g/cm3"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"}],"parameters":[]}</t>
+  </si>
+  <si>
+    <t>Qv Water Bearing Shaly Sands</t>
+  </si>
+  <si>
+    <t>{"icon":"formation-resistivity-16x16","function":"qvWaterBearingShalySands","inputs":[{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"},{"name":"B","family":"Waxman B","unit":"L.S/eq.m"},{"name":"BQv","family":"Waxman BQv","unit":"S/m"}],"parameters":[{"name":"B method","type":"select","value":"Use B from formula","choices":["Use B from formula","Use B value"]},{"name":"B value","type":"number","value":0,"unit":"L.S/m"},{"name":"Temperature","type":"number","value":25,"unit":"degC"},{"name":"Water Resistivity","type":"number","value":0.03,"unit":"ohm.m"},{"name":"a*","type":"number","value":1},{"name":"m*","type":"number","value":2}]}</t>
+  </si>
+  <si>
+    <t>RW from SAL and FTemp</t>
+  </si>
+  <si>
+    <t>Fluid/Water Property</t>
+  </si>
+  <si>
+    <t>{"icon":"formation-resistivity-16x16","function":"RWfromSALandFTemp","inputs":[{"name":"Formation Temperature","family":"Formation Temperature","unit":"degF"},{"name":"Salinity","family":"Salinity","unit":"ppm"}],"outputs":[{"name":"RwX","family":"Formation Water Resistivity","unit":"ohm.m"}],"parameters":[]}</t>
+  </si>
+  <si>
+    <t>U from Salinity</t>
+  </si>
+  <si>
+    <t>{"icon":"formation-resistivity-16x16","function":"UfromSalinity","inputs":[{"name":"Salinity","family":"Salinity","unit": "ppk"}],"outputs":[{"name":"U","family":"Volumetric Photoelectric Effect","unit":"barns/cm3"}],"parameters":[]}</t>
+  </si>
+  <si>
+    <t>Saturated Salinity Concentration from FTemp</t>
+  </si>
+  <si>
+    <t>{"icon":"formation-resistivity-16x16","function":"saturatedSalinityConcentrationfromFTemp","inputs":[{"name":"Formation Temperature","family":"Formation Temperature","unit": "degF"}],"outputs":[{"name":"SAL_SAT","family":"Formation Water Salinity","unit":"ppk"}],"parameters":[]}</t>
+  </si>
+  <si>
+    <t>Mud Salinity and Resistivity</t>
+  </si>
+  <si>
+    <t>{"icon":"formation-resistivity-16x16","function":"mudSalinityAndResistivity","inputs":[{"name":"Formation Temperature","family":"Formation Temperature","unit": "degC"}],"outputs":[{"name":"RM","family":"Mud Resistivity","unit":"ohm.m"},{"name":"RMF","family":"Mud Filtrate Resistivity","unit":"ohm.m"},{"name":"RMC","family":"Mudcake Resistivity","unit":"ohm.m"},{"name":"SALM","family":"Mud Salinity","unit":"ppm"},{"name":"SALMF","family":"Mud Filtrate Salinity","unit":"ppm"}],"parameters":[{"name":"Mud Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mud Sample Temperature","type":"number","value":0,"unit":"degC"},{"name":"Mud Filtrate Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mud Filtrate Sample Temperature","type":"number","value":0,"unit":"degC"},{"name":"Mudcake Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mudcake Sample Temperature","type":"number","value":0,"unit":"degC"}]}</t>
+  </si>
+  <si>
+    <t>Bad Hole From Caliper</t>
+  </si>
+  <si>
+    <t>Bad Hole</t>
+  </si>
+  <si>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"badHoleFromCaliper","inputs":[{"name":"Caliper","family":"Caliper","unit":"in"}],"outputs":[{"name":"BH_FL_BS","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Cutoff","type":"number","value":0.5,"unit":"in","color":"red"},{"name":"Bit Size","type":"number","value":12.5,"unit":"in","color":"green"}],"options":[{"name":"Bit Size"}]}</t>
+  </si>
+  <si>
+    <t>Bad Hole From DRHO</t>
+  </si>
+  <si>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"badHoleFromDRHO","inputs":[{"name":"DENC","family":"Bulk Density Correction","unit":"g/cm3"}],"outputs":[{"name":"BH_FL_DRHO","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Correction Min","type":"number","value":0.1,"unit":"g/cm3","color":"red"},{"name":"Bulk Density Correction Max","type":"number","value":0.6,"unit":"g/cm3","color":"green"}]}</t>
+  </si>
+  <si>
+    <t>Coal Flag</t>
+  </si>
+  <si>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"coalFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Neutron Porosity","family":"Neutron Porosity","unit":"v/v","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true},{"name":"Resistivity","family":"Resistivity","allowNull":true}],"outputs":[{"name":"COAL_FL","family":"Coal Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":1.2,"max":2.2}]},{"name":"Neutron Porosity Cutoff","id":"Neutron Porosity Cutoff","type":"handsontable","tableType":"condition","unit":"v/v","value":[{"method":"Min &lt;= Value &lt; Max","min":0.3,"max":0.6}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":90,"max":150}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":0.16,"max":0.2}]},{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":900,"max":1000}]}]}</t>
+  </si>
+  <si>
+    <t>Carbonate Flag</t>
+  </si>
+  <si>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"carbonateFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Neutron Porosity","family":"Neutron Porosity","unit":"v/v","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true}],"outputs":[{"name":"CARBONATE_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.85,"max":3}]},{"name":"Neutron Porosity Cutoff","id":"Neutron Porosity Cutoff","type":"handsontable","tableType":"condition","unit":"v/v","value":[{"method":"Min &lt;= Value &lt; Max","min":0,"max":1}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":45,"max":55}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":5,"max":7}]}]}</t>
+  </si>
+  <si>
+    <t>Halite Flag</t>
+  </si>
+  <si>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"haliteFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true}],"outputs":[{"name":"HALITE_FL","family":"Halite Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.05,"max":2.15}]},{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":10000,"max":100000}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":60,"max":70}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":4.5,"max":5}]}]}</t>
+  </si>
+  <si>
+    <t>Anhydrite Flag</t>
+  </si>
+  <si>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"anhydriteFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true}],"outputs":[{"name":"ANHYDRITE_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.85,"max":3}]},{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":10000,"max":100000}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":55,"max":60}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":4.5,"max":5}]}]}</t>
+  </si>
+  <si>
+    <t>Custom Flag</t>
+  </si>
+  <si>
+    <t>{"icon":"badhole-coal-salt-16x16","function":"customFlag","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"outputs":[{"name":"CUSTOM_FL_1","family":"General Flag","unit":"UNITLESS","parameters":[{"id":"Condition 1"}]}],"outputTemplate":{"name":"CUSTOM_FL","family":"General Flag","unit":"UNITLESS","parameters":[]},"outputsMultiple":true,"outputFromParameters":true,"parameters":[{"id":"Condition 1","name":"Condition 1","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt;= Value &lt; Max"}],"nameEditable":true}],"addParamFlag":true}</t>
+  </si>
+  <si>
+    <t>TVD Conversion</t>
+  </si>
+  <si>
+    <t>{"icon":"true-vertical-depth-16x16","function":"tvdConvserion","allowZone":false,"inputs":[{"name":"Deviation","family":"Hole Deviation","unit":"Deg"},{"name":"Azimuth","family":"Hole Azimuth","unit":"Deg"}],"outputs":[{"name":"TVD","family":"True Vertical Depth","unit":"m", "disableEditing":"namefamilyunit"},{"name":"TVDSS","family":"True Vertical Depth Sub Sea","unit":"m", "disableEditing":"namefamilyunit"},{"name":"XOFFSET","family":"X Offset","unit":"m", "disableEditing":"namefamilyunit"},{"name":"YOFFSET","family":"Y Offset","unit":"m", "disableEditing":"namefamilyunit"}],"parameters":[{"name":"TVD Mode","type":"select","choices":["On Shore","Off Shore"],"value":"Off Shore"},{"name":"Elevator","type":"number","value":0, "unit": "m"},{"name":"X reference at","type":"number","value":0, "unit": "m"},{"name":"Y reference at","type":"number","value":0, "unit": "m"},{"name":"Method","type":"select","choices":["Average Angle","Balanced Tangential","Radius Curvature","Minimum Curvature"],"value":"Minimum Curvature"}]}</t>
+  </si>
+  <si>
+    <t>Basic Operations</t>
+  </si>
+  <si>
+    <t>Scalar Operations</t>
+  </si>
+  <si>
+    <t>{"icon":"cureve-splice-16x16","function":"basicOperations","transform":true,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_OUT"}],"allowZone":false,"parameters":[{"name":"Method","type":"select","value":"+","choices":["+","-","*","/"]},{"name":"Constant","type":"number","value":3.141592653589793}]}</t>
+  </si>
+  <si>
+    <t>Pow</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-splice-interactive-16x16","transform":true,"function":"pow","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_POW"}],"allowZone":false,"parameters":[{"name":"Exponent","type":"number","value":3.141592653589793}]}</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-rescale-16x16","transform":true,"function":"round","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_ROUND"}],"allowZone":false,"parameters":[{"name":"Precision","type":"number","value":2}]}</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-splice-interactive-16x16","transform":true,"function":"limit","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_LIMIT"}],"allowZone":false,"parameters":[{"name":"Min","type":"number","value":0},{"name":"Max","type":"number","value":1}]}</t>
+  </si>
+  <si>
+    <t>Functional Transforms</t>
+  </si>
+  <si>
+    <t>Curve Transforms</t>
+  </si>
+  <si>
+    <t>{"icon":"cureve-splice-16x16","transform":true,"function":"functionalTransforms","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_OUT"}],"parameters":[{"name":"Method","type":"select","value":"pow10","choices":["pow10","sqrt","loge","log10","abs","inv","acos","asin","atan","cos","sin","tan","exp","exp10"]}]}</t>
+  </si>
+  <si>
+    <t>Curve Derivation</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-splice-interactive-16x16","transform":true,"function":"curveDerivation","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"name":"First Derivation","suffix":"_1ST_DERIVATION","use":true},{"name":"Second Derivation","suffix":"_2ND_DERIVATION","use":true}],"allowZone":false,"parameters":[]}</t>
+  </si>
+  <si>
+    <t>Curve Rescaling</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-rescale-16x16","transform":true,"function":"curveRescaling","multiple":true,"minInputs":1,"inputs":[{"name":"Rescale curve"}],"outputs":[],"outputConfigs":[{"suffix":"_RESCALING"}],"allowZone":false,"parameters":[{"name":"Input left scale","type":"number","value":0},{"name":"Input right scale","type":"number","value":1},{"name":"Output left scale","type":"number","value":0},{"name":"Output right scale","type":"number","value":1}],"parameterActions":[{"name":"myFunc","icon":"ti-check","label":"some Action"},{"name":"myFunc1","icon":"ti-close","label":"some Action1"}]}</t>
+  </si>
+  <si>
+    <t>Curve Splitting</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-splice-interactive-16x16","transform":true,"function":"curveSplitting","inputs":[{"name":"Input curve"}],"outputs":[{"name":"Curve 1","family":"Compressional Slowness","unit":"us/ft"},{"name":"Curve 2","family":"Compressional Slowness","unit":"us/ft"},{"name":"Curve 3","family":"Compressional Slowness","unit":"us/ft"}],"paramMultiple":true,"parameters":[{"name":"Cut Point 1","type":"number","value":2,"removeable":false,"onRemove":"removeOutput"},{"name":"Cut Point 2","type":"number","value":2,"removeable":true,"onRemove":"removeOutput"}],"parameterActions":[{"name":["addParam","addOutput"],"icon":"ti-plus","label":"Add parameter"}]}</t>
+  </si>
+  <si>
+    <t>Curve Filling</t>
+  </si>
+  <si>
+    <t>Curve Interpolation</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-fill-data-gaps-16x16","transform":true,"function":"curveFilling","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_FILLED"}],"parameters":[{"name":"Gaps Maximum Width","type":"number","value":13},{"name":"Width Type","type":"select","value":"In samples","choices":["In samples","In reference"]}]}</t>
+  </si>
+  <si>
+    <t>Curve Resampling</t>
+  </si>
+  <si>
+    <t>{"forceSave":true,"icon":"curve-fill-data-gaps-16x16","transform":true,"function":"curveResampling","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_RESAMPLED"}],"parameters":[]}</t>
+  </si>
+  <si>
+    <t>Basic Combinations</t>
+  </si>
+  <si>
+    <t>Curve Combinations</t>
+  </si>
+  <si>
+    <t>{"icon":"caculation-multilinerregression-16x16","transform":true,"multiple":true,"function":"basicCombinations","inputs":[{"name":"Input curve"},{"name":"Input curve"}],"outputs":[{"name":"Combination curve","family":"Compressional Slowness","unit":"us/ft"}],"allowZone":false,"parameters":[{"name":"Method","type":"select","value":"+","choices":["+","-","*","/","min","max","average","median"]}]}</t>
+  </si>
+  <si>
+    <t>Linear Combinations</t>
+  </si>
+  <si>
+    <t>{"icon":"caculation-multilinerregression-16x16","multiple":true,"transform":true,"addParamFlag":true,"function":"linearCombinations","inputs":[{"name":"Input curve"},{"name":"Input curve"}],"outputs":[{"name":"Combination curve","family":"Compressional Slowness","unit":"us/ft"}],"allowZone":false,"parameters":[{"name":"Coefficient 1","type":"number","value":1},{"name":"Coefficient 2","type":"number","value":1}]}</t>
+  </si>
+  <si>
+    <t>Median Filter</t>
+  </si>
+  <si>
+    <t>Curve Filters</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-filter-16x16","function":"curveMedianFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_MED_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
+  </si>
+  <si>
+    <t>Square Filter</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-filter-16x16","function":"curveSquareFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_SQUARE_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
+  </si>
+  <si>
+    <t>Bell Filter</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-filter-16x16","function":"curveBellFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_BELL_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
+  </si>
+  <si>
+    <t>Savitsky Golay Filter</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-filter-16x16","function":"curveSavGolFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_SAVGOL_FILTERED"}],"allowZone":false,"parameters":[{"name":"Derivative Order","type":"number","value":0},{"name":"Polynomial Order","type":"number","value":2},{"name":"Number Of Points","type":"number","value":5}]}</t>
+  </si>
+  <si>
+    <t>Fast Fourie transform Filter</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-filter-16x16","function":"curveFFTFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_FFT_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Cutoff","type":"number","value":100}]}</t>
+  </si>
+  <si>
+    <t>Curve Convolution</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-convolution-16x16","function":"curveConvolution","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_CONV_FILTERED"}],"allowZone":false,"paramMultiple":true,"parameters":[{"name":"Coefficient 1","type":"number","value":0.33,"removeable":false},{"name":"Coefficient 2","type":"number","value":0.33,"removeable":false},{"name":"Coefficient 3","type":"number","value":0.33,"removeable":false}],"parameterActions":[{"name":"addParam","icon":"ti-plus","label":"Add parameter"}]}</t>
+  </si>
+  <si>
+    <t>Curve Deconvolution</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-deconvolution-16x16","function":"curveDeconvolution","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_DECONV_FILTERED"}],"allowZone":false,"paramMultiple":true,"parameters":[{"name":"Coefficient 1","type":"number","value":1,"removeable":false},{"name":"Coefficient 2","type":"number","value":0,"removeable":false},{"name":"Coefficient 3","type":"number","value":1,"removeable":false}],"parameterActions":[{"name":"addParam","icon":"ti-plus","label":"Add parameter"}]}</t>
+  </si>
+  <si>
     <t>update</t>
   </si>
   <si>
@@ -38,459 +491,6 @@
   </si>
   <si>
     <t>delete</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>Gamma Ray</t>
-  </si>
-  <si>
-    <t>Shale Volume</t>
-  </si>
-  <si>
-    <t>{ "icon": "clay-volume-16x16","function": "calVSHfromGR", "inputs": [ { "name": "Gamma Ray", "unit": "gAPI","family": "Gamma Ray" } ], "parameters": [ { "name": "GR clean", "type": "number", "value": 10, "unit": "gAPI", "color": "red" }, { "name": "GR shale", "type": "number", "value": 120, "unit": "gAPI", "color": "green" }, { "name": "Method", "type": "select", "value": "Linear", "choices": [ "Linear", "Clavier", "Larionov Tertiary rocks", "Larionov older rocks", "Stieber variation I", "Stieber - Miocene and Pliocene", "Stieber variation II" ] } ], "outputs": [ { "name": "VSH_GR", "family": "Shale Volume", "unit": "v/v" } ] }</t>
-  </si>
-  <si>
-    <t>Neutron-Density</t>
-  </si>
-  <si>
-    <t>{ "icon": "clay-volume-16x16", "function": "calVSHfromND", "overlay_line": "Schlumberger Den/Neut Corr. Rhof 1.0", "inputs": [ { "name": "Neutron Porosity", "unit": "v/v", "family": "Neutron Porosity" }, { "name": "Bulk Density", "unit": "g/cm3", "family": "Bulk Density" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NHPI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NHPI_clean_1", "type": "number", "value": -0.01, "unit": "v/v" }, { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "red" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" } ], "outputs": [{ "name": "VSH_ND", "family": "Shale Volume", "unit": "v/v" }],"scaleLeft":-0.15,"scaleRight":0.45,"scaleBottom":3,"scaleTop":2}</t>
-  </si>
-  <si>
-    <t>Neutron-Sonic</t>
-  </si>
-  <si>
-    <t>{"icon": "clay-volume-16x16","function": "calVSHfromNS", "overlay_line": "Schlumberger Neut/Sonic Wylie Dtf 189", "inputs": [ { "name": "Neutron Porosity", "unit": "v/v", "family": "Neutron Porosity" }, { "name": "Compressional Slowness", "unit": "us/ft", "family": "Compressional Slowness" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NPHI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NPHI_clean_1", "type": "number", "unit": "v/v", "value": -0.01 }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "g/cm3" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "g/cm3", "color": "#F0F" }, { "name": "DT_clean_1", "type": "number", "value": 55, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_NS", "family": "Shale Volume", "unit": "v/v" } ] ,"scaleLeft":-0.15,"scaleRight":0.45,"scaleBottom":40,"scaleTop":140}</t>
-  </si>
-  <si>
-    <t>Density-Sonic</t>
-  </si>
-  <si>
-    <t>{"icon":"clay-volume-16x16","function":"calVSHfromDS","overlay_line":"Den/Sonic Wylie Rhof 1.0","inputs":[{"name":"Compressional Slowness","unit":"us/ft","family":"Compressional Slowness"},{"name":"Bulk Density","unit":"g/cm3","family":"Bulk Density"}],"parameters":[{"name":"DT_clean_2","type":"number","value":90,"unit":"us/ft"},{"name":"DT_shale","type":"number","value":100,"unit":"us/ft","color":"#F0F"},{"name":"DT_clean_1","type":"number","value":50,"unit":"us/ft"},{"name":"RHOB_clean_2","type":"number","value":2.2,"unit":"g/cm3"},{"name":"RHOB_shale","type":"number","value":2.4,"unit":"g/cm3","color":"red"},{"name":"RHOB_clean_1","type":"number","value":2.65,"unit":"g/cm3"}],"outputs":[{"name":"VSH_SD","family":"Shale Volume","unit":"v/v"}],"scaleLeft":40,"scaleRight":140,"scaleBottom":3,"scaleTop":2}</t>
-  </si>
-  <si>
-    <t>Resistivity</t>
-  </si>
-  <si>
-    <t>{"icon": "clay-volume-16x16","function": "calVSHfromR", "inputs": [ { "name": "Resistivity", "unit": "ohm.m", "family": "Resistivity" } ], "parameters": [ { "name": "Resistivity_clean", "type": "number", "value": 10, "unit": "ohm.m", "color": "red" }, { "name": "Resistivity_shale", "type": "number", "value": 120, "unit": "ohm.m", "color": "green" }, { "name": "B exponent", "type": "number", "value": 1 }, { "name": "Equation", "type": "select", "value": "Resistivity Log", "choices": [ "Resistivity Log", "Gaymard" ] } ], "outputs": [ { "name": "VSH_RES", "family": "Shale Volume", "unit": "v/v" } ] }</t>
-  </si>
-  <si>
-    <t>Spontaneous potential</t>
-  </si>
-  <si>
-    <t>{"icon": "clay-volume-16x16","function": "calVSHfromSP", "inputs": [ { "name": "Spontaneous Potential", "unit": "mV", "family": "Spontaneous Potential" } ], "parameters": [ { "name": "SP_clean", "type": "number", "value": 0, "unit": "mV", "color": "red" }, { "name": "SP_shale", "type": "number", "value": 100, "unit": "mV", "color": "green" } ], "outputs": [ { "name": "VSH_SP", "family": "Shale Volume", "unit": "v/v" } ] }</t>
-  </si>
-  <si>
-    <t>Thermal Neutron</t>
-  </si>
-  <si>
-    <t>{"icon": "clay-volume-16x16","function": "calVSHfromNEU", "inputs": [ { "name": "Thermal Neutron", "unit": "v/v", "family": "Thermal Neutron Porosity" } ], "parameters": [ { "name": "Neutron_clean", "type": "number", "value": 0.1, "unit": "v/v", "color": "red" }, { "name": "Neutron_shale", "type": "number", "value": 0.3, "unit": "v/v", "color": "green" } ], "outputs": [ { "name": "VSH_NEU", "family": "Shale Volume", "unit": "v/v" } ] }</t>
-  </si>
-  <si>
-    <t>Potassium</t>
-  </si>
-  <si>
-    <t>{"icon": "clay-volume-16x16","function": "calVSHfromPOTA", "inputs": [ { "name": "Potassium", "unit": "%", "family": "Potassium Concentration" } ], "parameters": [ { "name": "POTA matrix", "type": "number", "value": 10, "unit": "%", "color": "red" }, { "name": "POTA shale", "type": "number", "value": 100, "unit": "%", "color": "green" }, { "name": "POTA method", "type": "select", "value": "Linear", "choices": [ "Linear", "Larionov Tertiary rocks", "Larionov older rocks" ] } ], "outputs": [ { "name": "VSH_POTA", "family": "Shale Volume", "unit": "v/v" } ] }</t>
-  </si>
-  <si>
-    <t>Thorium</t>
-  </si>
-  <si>
-    <t>{"icon": "clay-volume-16x16","function": "calVSHfromThori", "inputs": [ { "name": "Thorium", "unit": "ppm", "family": "Thorium Concentration" } ], "parameters": [ { "name": "Thorium matrix", "type": "number", "value": 10, "unit": "ppm", "color": "red" }, { "name": "Thorium shale", "type": "number", "value": 100, "unit": "ppm", "color": "green" }, { "name": "TH method", "type": "select", "value": "Linear", "choices": [ "Linear", "Larionov Tertiary rocks", "Larionov older rocks" ] } ], "outputs": [ { "name": "VSH_Thori", "family": "Shale Volume", "unit": "v/v" } ] }</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>{"icon": "clay-volume-16x16","function": "calVSHFinal", "multiple": true, "use_inputs": "multiple", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Shale Volume", "unit": "v/v", "family": "Shale Volume" }, { "name": "Shale Volume", "unit": "v/v", "family": "Shale Volume" } ], "parameters": [ { "name": "Merge Method", "type": "select", "value": "Minimum", "choices": [ "Minimum", "Average", "Arithmetic mean", "Geometric mean", "Harmonic mean", "Median", "Maximum", "Sum" ] } ], "outputs": [ { "name": "VSH_Final", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_MIN", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_AVG", "family": "Shale Volume", "unit": "v/v" } ] }</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Porosity</t>
-  </si>
-  <si>
-    <t>{"icon":"calculate-open-porosity-16x16","function":"calPorosityFromDensity","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Density Matrix","type":"number","value":2.65,"unit":"g/cm3","color":"red"},{"name":"Density Fluid","type":"number","value":1,"unit":"g/cm3"},{"name":"Density Shale","type":"number","value":2.4,"unit":"d/cm3","color":"green"}],"outputs":[{"name":"PHIT_D","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_D","family":"Effective Porosity","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>Neutron</t>
-  </si>
-  <si>
-    <t>{"icon":"calculate-open-porosity-16x16","function":"calPorosityFromNeutron","inputs":[{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"}],"outputs":[{"name":"PHIT_N","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_N","family":"Effective Porosity","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>Sonic</t>
-  </si>
-  <si>
-    <t>{ "icon": "calculate-open-porosity-16x16", "function": "calPorosityFromSonic", "inputs": [ { "name": "Compressional Slowness", "family": "Compressional Slowness", "unit": "us/ft" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "Sonic Matrix", "type": "number", "value": 55, "unit": "us/ft", "color": "#F0F" }, { "name": "Sonic Fluid", "type": "number", "value": 189, "unit": "us/ft" }, { "name": "Sonic Shale", "type": "number", "value": 110, "unit": "us/ft", "color": "green" }, { "name": "Sonic Method", "type": "select", "value": "Wyliie", "choices": [ "Wyliie", "Raymer-Hunt-Gardner" ] }, { "name": "Cp", "type": "number", "value": 1 } ], "outputs": [ { "name": "PHIT_S", "family": "Total Porosity", "unit": "v/v" }, { "name": "PHIE_S", "family": "Effective Porosity", "unit": "v/v" } ] }</t>
-  </si>
-  <si>
-    <t>{ "icon": "calculate-open-porosity-16x16", "function": "calPorosityFromNeutronSonic", "inputs": [ { "name": "Compressional Slowness", "family": "Compressional Slowness", "unit": "us/ft" }, { "name": "Neutron", "family": "Neutron Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "Sonic Matrix", "type": "number", "value": 55, "unit": "us/ft", "color": "#F0F" }, { "name": "Sonic Fluid", "type": "number", "value": 189, "unit": "us/ft" }, { "name": "Sonic Shale", "type": "number", "value": 110, "unit": "us/ft", "color": "green" }, { "name": "Neutron Matrix", "type": "number", "value": -0.01, "unit": "v/v", "color": "red" }, { "name": "Neutron Fluid", "type": "number", "value": 0.991, "unit": "v/v" }, { "name": "Neutron Shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "Sonic Method", "type": "select", "value": "Wyliie", "choices": [ "Wyliie", "Raymer-Hunt-Gardner" ] }, { "name": "Cp", "type": "number", "value": 1 } ], "outputs": [ { "name": "PHIT_NS", "family": "Total Porosity", "unit": "v/v" }, { "name": "PHIE_NS", "family": "Effective Porosity", "unit": "v/v" }, { "name": "DTMAA", "family": "Apparent Matrix Compressional Slowness", "unit": "us/ft" } ] }</t>
-  </si>
-  <si>
-    <t>Density-Neutron</t>
-  </si>
-  <si>
-    <t>{ "icon": "calculate-open-porosity-16x16", "function": "calPorosityFromDensityNeutron", "inputs": [ { "name": "Bulk Density", "family": "Bulk Density", "unit": "g/cm3" }, { "name": "Neutron", "family": "Neutron Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "Density Matrix", "type": "number", "value": 2.65, "unit": "g/cm3", "color": "red" }, { "name": "Density Fluid", "type": "number", "value": 1, "unit": "g/cm3" }, { "name": "Density Shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "green" }, { "name": "Neutron Matrix", "type": "number", "value": -0.01, "unit": "v/v", "color": "red" }, { "name": "Neutron Fluid", "type": "number", "value": 0.991, "unit": "v/v" }, { "name": "Neutron Shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" } ], "outputs": [ { "name": "PHIT_ND", "family": "Total Porosity", "unit": "v/v" }, { "name": "PHIE_ND", "family": "Effective Porosity", "unit": "v/v" }, { "name": "RHOMAA", "family": "Apparent Matrix Density", "unit": "g/cm3" } ] }</t>
-  </si>
-  <si>
-    <t>Total Final</t>
-  </si>
-  <si>
-    <t>{"icon":"calculate-open-porosity-16x16","function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Total Porosity", "unit": "v/v", "family": "Total Porosity" }, { "name": "Total Porosity", "unit": "v/v", "family": "Total Porosity" } ], "parameters": [], "outputs": [ { "name": "PHIT_Final", "family": "Total Porosity", "unit": "v/v" } ] }</t>
-  </si>
-  <si>
-    <t>Effective Final</t>
-  </si>
-  <si>
-    <t>{"icon":"calculate-open-porosity-16x16","function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Effective Porosity", "unit": "v/v", "family": "Effective Porosity" }, { "name": "Effective Porosity", "unit": "v/v", "family": "Effective Porosity" } ], "parameters": [], "outputs": [ { "name": "PHIE_Final", "family": "Effective Porosity", "unit": "v/v" } ] }</t>
-  </si>
-  <si>
-    <t>Archie</t>
-  </si>
-  <si>
-    <t>Water Saturation</t>
-  </si>
-  <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationArchie", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1, "unit": "unitless" }, { "name": "m", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Ar", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Ar", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Ar", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Ar", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationIndonesia", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1, "unit": "unitless" }, { "name": "m", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Ind", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Ind", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Ind", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Ind", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
-  </si>
-  <si>
-    <t>Modified Indonesia</t>
-  </si>
-  <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationModifiedIndonesia", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1, "unit": "unitless" }, { "name": "m", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Imo", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Imo", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Imo", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Imo", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
-  </si>
-  <si>
-    <t>Simandoux</t>
-  </si>
-  <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationSimandoux", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1, "unit": "unitless" }, { "name": "m", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Sim", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Sim", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Sim", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Sim", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
-  </si>
-  <si>
-    <t>Modified Simandoux</t>
-  </si>
-  <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationModifiedSimandoux", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1, "unit": "unitless" }, { "name": "m", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Smo", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Smo", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Smo", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Smo", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
-  </si>
-  <si>
-    <t>Juhasz</t>
-  </si>
-  <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationJuhasz", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "m*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Juh", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Juh", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qvn", "family": "Volumetric CEC", "unit": "eq/L" } ] }</t>
-  </si>
-  <si>
-    <t>Waxman-Smits</t>
-  </si>
-  <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationWaxmanSmits", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Formation Temperature", "family": "Formation Temperature", "unit": "degF", "allowNull": true }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "m*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "B", "type": "number", "value": 4, "unit": "L.S/eq.m" }, { "name": "Qv", "type": "number", "value": 1, "unit": "eq/L" } ], "outputs": [ { "name": "Sw_Wax", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Wax", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
-  </si>
-  <si>
-    <t>Dual Water</t>
-  </si>
-  <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationDualWater", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Total Porosity", "family": "Total Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1, "unit": "unitless"}, { "name": "m*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.125, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Dua", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Dua", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Dua", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Dua", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qv", "family": "Volumetric CEC", "unit": "eq/L" } ] }</t>
-  </si>
-  <si>
-    <t>Effective Water Saturation</t>
-  </si>
-  <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationEffective", "inputs": [ { "name": "Total Porosity", "family": "Total Porosity", "unit": "v/v" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Total Saturation", "family": "Water Saturation", "unit": "v/v" } ], "parameters": [], "outputs": [ { "name": "Sw_E", "family": "Water Saturation", "unit": "v/v" }, { "name": "Bvw_E", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
-  </si>
-  <si>
-    <t>Cutoff and Summation</t>
-  </si>
-  <si>
-    <t>Clastic</t>
-  </si>
-  <si>
-    <t>{"icon":"summation-16x16","function":"calClasticfSummation","summation":true,"multiple":true,"addParamFlag":true,"inputs":[{"name":"Shale Volume","unit":"v/v","family":"Shale Volume"},{"name":"Porosity","unit":"v/v","family":"Porosity"},{"name":"Water Saturation","unit":"v/v","family":"Water Saturation"}],"options":[{"name":"TVD"},{"name":"TVDSS"}],"inputTemplate":{"name":"Curve","allowNull":true},"parameters":[{"id":"Vshale Cutoff","name":"Vshale Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt; Value &lt;= Max","min":0,"max":0.4}]},{"id":"Phi Cutoff","name":"Phi Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Value &lt; Min or Value &gt;= Max","min":0,"max":0.15}]},{"id":"SW Cutoff","name":"SW Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt; Value &lt;= Max","min":0,"max":0.6}]}],"paramTemplate":{"name":"Custom Cutoff 4","type":"handsontable","tableType":"condition","value":[{"method":"Value &lt;= Min","min":0.5}],"nameEditable":true},"outputsMultiple":true,"outputFromParameters":true,"outputs":[{"name":"ROCK","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"}],"shading":"yellow"},{"name":"RES","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"},{"id":"Phi Cutoff"}],"shading":"green"},{"name":"PAY","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"},{"id":"Phi Cutoff"},{"id":"SW Cutoff"}],"shading":"red"}],"outputTemplate":{"name":"CUSTOM_FL","family":"Net Flag","unit":"UNITLESS","parameters":[],"shading":"red"}}</t>
-  </si>
-  <si>
-    <t>Multi-Mineral Solver</t>
-  </si>
-  <si>
-    <t>{"icon":"multi-mineral-solver-16x16","function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":189,"NPHI":0.991,"RHOB":1.03,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.3,"min":0}},{"name":"Fluid","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"DT":["Peak Slowness","Peak Travel Time","Travel Time","Compressional Slowness","DTC.*","DT","SON.*","AC","DTTP.*","Acoustic"],"RHOB":["Bulk Density","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Corrected ZDL Density","DEN.*","RHOB","RHOZ","ZDEN.*","RHOZ","LDEN","Density"],"GR":["Gamma Ray","Gamma Ray 1","Gamma Ray Normalised","Gamma Ray Shale","Gamma Ray Squared","Russian Gamma Ray","PLT Gamma Ray","GR.*","ECGR.*","SGRC.*","GAM.*","HGR","EGR","SGR"],"NPHI":["Thermal Neutron Near Far Ratio","Compensated Neutron Porosity","Epithermal Neutron Porosity","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Russian Thermal Neutron Porosity","Thermal Neutron Porosity","NEU.*","TNP.*","NPHI.*","CNL.*","CNT.*","Porosity"],"POT":["Potassium Capture Relative Yield","Potassium Concentration","Potassium Radio Nuclide Activity","POT.*","Weight Fraction - Element"],"THOR":["Thorium Concentration","Thorium Radio Nuclide Activity","THOR.*"],"URAN":["Uranium Concentration","Uranium Radio Nuclide Activity","URA.*"],"PAI":[".*"]},"outputs":[],"outputConfigs":[{"name":"Minerals","family":"Mineral Volume","unit":"v/v","prefix":"V_"},{"name":"Synthetic Curves","suffix":"_SYN"}]}</t>
-  </si>
-  <si>
-    <t>Gradient FTemp</t>
-  </si>
-  <si>
-    <t>Formation Temperature</t>
-  </si>
-  <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"gradientFTemp","inputs":[{"name":"Depth","family":"Measured Depth","unit":"m"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"Temperature Gradient","type":"number","value":0.03,"unit":"degC/m"},{"name":"TLI","type":"number","value":0,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"}]}</t>
-  </si>
-  <si>
-    <t>Log Interval FTemp</t>
-  </si>
-  <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"logIntervalFTemp","inputs":[{"name":"Depth","family":"Measured Depth","unit":"m"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"TLI","type":"number","value":0,"unit":"m"},{"name":"BLI","type":"number","value":0,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"},{"name":"Bottom Log Temperature","type":"number","value":120,"unit":"degC"}]}</t>
-  </si>
-  <si>
-    <t>Gradient FPress</t>
-  </si>
-  <si>
-    <t>Hydrostatic Pressure</t>
-  </si>
-  <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"gradientFPress","inputs":[{"name":"True Vertical Depth","family":"True Vertical Depth","unit":"m"}],"outputs":[{"name":"FPRESS","family":"Hydrostatic Pressure","unit":"kPa"}],"parameters":[{"name":"Pressure Gradient","type":"number","value":9.792,"unit":"kPa/m"}]}</t>
-  </si>
-  <si>
-    <t>Mud Density FPress</t>
-  </si>
-  <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"mudDensityFPress","inputs":[{"name":"True Vertical Depth","family":"True Vertical Depth","unit":"m"}],"outputs":[{"name":"FPRESS","family":"Hydrostatic Pressure","unit":"kPa"}],"parameters":[{"name":"Drilling Fluid Density","type":"number","value":1,"unit":"kg/m3"}]}</t>
-  </si>
-  <si>
-    <t>Normalize Qv</t>
-  </si>
-  <si>
-    <t>Qv Function</t>
-  </si>
-  <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"normalizeQv","inputs":[{"name":"Porosity","family":"Porosity","unit": "v/v"},{"name":"Shale Volume","family":"Shale Volume","unit": "v/v"}],"outputs":[{"name":"QVn","family":"Normalised Qv","unit":"v/v"}],"parameters":[{"name":"Porosity Shale","type":"number","value":0.4,"unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>CEC Qv</t>
-  </si>
-  <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"cecQv","inputs":[{"name":"Porosity","family":"Porosity","unit": "v/v"},{"name":"CEC","family":"Volumetric CEC","unit": "meq/g"},{"name":"Grain Density","family":"Grain Density","unit": "g/cm3"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"}],"parameters":[]}</t>
-  </si>
-  <si>
-    <t>Qv Water Bearing Shaly Sands</t>
-  </si>
-  <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"qvWaterBearingShalySands","inputs":[{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"},{"name":"B","family":"Waxman B","unit":"L.S/eq.m"},{"name":"BQv","family":"Waxman BQv","unit":"S/m"}],"parameters":[{"name":"B method","type":"select","value":"Use B from formula","choices":["Use B from formula","Use B value"]},{"name":"B value","type":"number","value":0,"unit":"L.S/m"},{"name":"Temperature","type":"number","value":25,"unit":"degC"},{"name":"Water Resistivity","type":"number","value":0.03,"unit":"ohm.m"},{"name":"a*","type":"number","value":1},{"name":"m*","type":"number","value":2}]}</t>
-  </si>
-  <si>
-    <t>RW from SAL and FTemp</t>
-  </si>
-  <si>
-    <t>Fluid/Water Property</t>
-  </si>
-  <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"RWfromSALandFTemp","inputs":[{"name":"Formation Temperature","family":"Formation Temperature","unit":"degF"},{"name":"Salinity","family":"Salinity","unit":"ppm"}],"outputs":[{"name":"RwX","family":"Formation Water Resistivity","unit":"ohm.m"}],"parameters":[]}</t>
-  </si>
-  <si>
-    <t>U from Salinity</t>
-  </si>
-  <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"UfromSalinity","inputs":[{"name":"Salinity","family":"Salinity","unit": "ppk"}],"outputs":[{"name":"U","family":"Volumetric Photoelectric Effect","unit":"barns/cm3"}],"parameters":[]}</t>
-  </si>
-  <si>
-    <t>Saturated Salinity Concentration from FTemp</t>
-  </si>
-  <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"saturatedSalinityConcentrationfromFTemp","inputs":[{"name":"Formation Temperature","family":"Formation Temperature","unit": "degF"}],"outputs":[{"name":"SAL_SAT","family":"Formation Water Salinity","unit":"ppk"}],"parameters":[]}</t>
-  </si>
-  <si>
-    <t>Mud Salinity and Resistivity</t>
-  </si>
-  <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"mudSalinityAndResistivity","inputs":[{"name":"Formation Temperature","family":"Formation Temperature","unit": "degC"}],"outputs":[{"name":"RM","family":"Mud Resistivity","unit":"ohm.m"},{"name":"RMF","family":"Mud Filtrate Resistivity","unit":"ohm.m"},{"name":"RMC","family":"Mudcake Resistivity","unit":"ohm.m"},{"name":"SALM","family":"Mud Salinity","unit":"ppm"},{"name":"SALMF","family":"Mud Filtrate Salinity","unit":"ppm"}],"parameters":[{"name":"Mud Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mud Sample Temperature","type":"number","value":0,"unit":"degC"},{"name":"Mud Filtrate Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mud Filtrate Sample Temperature","type":"number","value":0,"unit":"degC"},{"name":"Mudcake Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mudcake Sample Temperature","type":"number","value":0,"unit":"degC"}]}</t>
-  </si>
-  <si>
-    <t>Bad Hole From Caliper</t>
-  </si>
-  <si>
-    <t>Bad Hole</t>
-  </si>
-  <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"badHoleFromCaliper","inputs":[{"name":"Caliper","family":"Caliper","unit":"in"}],"outputs":[{"name":"BH_FL_BS","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Cutoff","type":"number","value":0.5,"unit":"in","color":"red"},{"name":"Bit Size","type":"number","value":12.5,"unit":"in","color":"green"}],"options":[{"name":"Bit Size"}]}</t>
-  </si>
-  <si>
-    <t>Bad Hole From DRHO</t>
-  </si>
-  <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"badHoleFromDRHO","inputs":[{"name":"DENC","family":"Bulk Density Correction","unit":"g/cm3"}],"outputs":[{"name":"BH_FL_DRHO","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Correction Min","type":"number","value":0.1,"unit":"g/cm3","color":"red"},{"name":"Bulk Density Correction Max","type":"number","value":0.6,"unit":"g/cm3","color":"green"}]}</t>
-  </si>
-  <si>
-    <t>Coal Flag</t>
-  </si>
-  <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"coalFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Neutron Porosity","family":"Neutron Porosity","unit":"v/v","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true},{"name":"Resistivity","family":"Resistivity","allowNull":true}],"outputs":[{"name":"COAL_FL","family":"Coal Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":1.2,"max":2.2}]},{"name":"Neutron Porosity Cutoff","id":"Neutron Porosity Cutoff","type":"handsontable","tableType":"condition","unit":"v/v","value":[{"method":"Min &lt;= Value &lt; Max","min":0.3,"max":0.6}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":90,"max":150}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":0.16,"max":0.2}]},{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":900,"max":1000}]}]}</t>
-  </si>
-  <si>
-    <t>Carbonate Flag</t>
-  </si>
-  <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"carbonateFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Neutron Porosity","family":"Neutron Porosity","unit":"v/v","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true}],"outputs":[{"name":"CARBONATE_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.85,"max":3}]},{"name":"Neutron Porosity Cutoff","id":"Neutron Porosity Cutoff","type":"handsontable","tableType":"condition","unit":"v/v","value":[{"method":"Min &lt;= Value &lt; Max","min":0,"max":1}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":45,"max":55}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":5,"max":7}]}]}</t>
-  </si>
-  <si>
-    <t>Halite Flag</t>
-  </si>
-  <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"haliteFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true}],"outputs":[{"name":"HALITE_FL","family":"Halite Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.05,"max":2.15}]},{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":10000,"max":100000}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":60,"max":70}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":4.5,"max":5}]}]}</t>
-  </si>
-  <si>
-    <t>Anhydrite Flag</t>
-  </si>
-  <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"anhydriteFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true}],"outputs":[{"name":"ANHYDRITE_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.85,"max":3}]},{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":10000,"max":100000}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":55,"max":60}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":4.5,"max":5}]}]}</t>
-  </si>
-  <si>
-    <t>Custom Flag</t>
-  </si>
-  <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"customFlag","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"outputs":[{"name":"CUSTOM_FL_1","family":"General Flag","unit":"UNITLESS","parameters":[{"id":"Condition 1"}]}],"outputTemplate":{"name":"CUSTOM_FL","family":"General Flag","unit":"UNITLESS","parameters":[]},"outputsMultiple":true,"outputFromParameters":true,"parameters":[{"id":"Condition 1","name":"Condition 1","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt;= Value &lt; Max"}],"nameEditable":true}],"addParamFlag":true}</t>
-  </si>
-  <si>
-    <t>TVD Conversion</t>
-  </si>
-  <si>
-    <t>{"icon":"true-vertical-depth-16x16","function":"tvdConvserion","allowZone":false,"inputs":[{"name":"Deviation","family":"Hole Deviation","unit":"Deg"},{"name":"Azimuth","family":"Hole Azimuth","unit":"Deg"}],"outputs":[{"name":"TVD","family":"True Vertical Depth","unit":"m", "disableEditing":"namefamilyunit"},{"name":"TVDSS","family":"True Vertical Depth Sub Sea","unit":"m", "disableEditing":"namefamilyunit"},{"name":"XOFFSET","family":"X Offset","unit":"m", "disableEditing":"namefamilyunit"},{"name":"YOFFSET","family":"Y Offset","unit":"m", "disableEditing":"namefamilyunit"}],"parameters":[{"name":"TVD Mode","type":"select","choices":["On Shore","Off Shore"],"value":"Off Shore"},{"name":"Elevator","type":"number","value":0, "unit": "m"},{"name":"X reference at","type":"number","value":0, "unit": "m"},{"name":"Y reference at","type":"number","value":0, "unit": "m"},{"name":"Method","type":"select","choices":["Average Angle","Balanced Tangential","Radius Curvature","Minimum Curvature"],"value":"Minimum Curvature"}]}</t>
-  </si>
-  <si>
-    <t>Basic Operations</t>
-  </si>
-  <si>
-    <t>Scalar Operations</t>
-  </si>
-  <si>
-    <t>{"icon":"cureve-splice-16x16","function":"basicOperations","transform":true,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_OUT"}],"allowZone":false,"parameters":[{"name":"Method","type":"select","value":"+","choices":["+","-","*","/"]},{"name":"Constant","type":"number","value":3.141592653589793}]}</t>
-  </si>
-  <si>
-    <t>Pow</t>
-  </si>
-  <si>
-    <t>{"icon":"curve-splice-interactive-16x16","transform":true,"function":"pow","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_POW"}],"allowZone":false,"parameters":[{"name":"Exponent","type":"number","value":3.141592653589793}]}</t>
-  </si>
-  <si>
-    <t>Round</t>
-  </si>
-  <si>
-    <t>{"icon":"curve-rescale-16x16","transform":true,"function":"round","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_ROUND"}],"allowZone":false,"parameters":[{"name":"Precision","type":"number","value":2}]}</t>
-  </si>
-  <si>
-    <t>Limit</t>
-  </si>
-  <si>
-    <t>{"icon":"curve-splice-interactive-16x16","transform":true,"function":"limit","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_LIMIT"}],"allowZone":false,"parameters":[{"name":"Min","type":"number","value":0},{"name":"Max","type":"number","value":1}]}</t>
-  </si>
-  <si>
-    <t>Functional Transforms</t>
-  </si>
-  <si>
-    <t>Curve Transforms</t>
-  </si>
-  <si>
-    <t>{"icon":"cureve-splice-16x16","transform":true,"function":"functionalTransforms","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_OUT"}],"parameters":[{"name":"Method","type":"select","value":"pow10","choices":["pow10","sqrt","loge","log10","abs","inv","acos","asin","atan","cos","sin","tan","exp","exp10"]}]}</t>
-  </si>
-  <si>
-    <t>Curve Derivation</t>
-  </si>
-  <si>
-    <t>{"icon":"curve-splice-interactive-16x16","transform":true,"function":"curveDerivation","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"name":"First Derivation","suffix":"_1ST_DERIVATION","use":true},{"name":"Second Derivation","suffix":"_2ND_DERIVATION","use":true}],"allowZone":false,"parameters":[]}</t>
-  </si>
-  <si>
-    <t>Curve Rescaling</t>
-  </si>
-  <si>
-    <t>{"icon":"curve-rescale-16x16","transform":true,"function":"curveRescaling","multiple":true,"minInputs":1,"inputs":[{"name":"Rescale curve"}],"outputs":[],"outputConfigs":[{"suffix":"_RESCALING"}],"allowZone":false,"parameters":[{"name":"Input left scale","type":"number","value":0},{"name":"Input right scale","type":"number","value":1},{"name":"Output left scale","type":"number","value":0},{"name":"Output right scale","type":"number","value":1}],"parameterActions":[{"name":"myFunc","icon":"ti-check","label":"some Action"},{"name":"myFunc1","icon":"ti-close","label":"some Action1"}]}</t>
-  </si>
-  <si>
-    <t>Curve Splitting</t>
-  </si>
-  <si>
-    <t>{"icon":"curve-splice-interactive-16x16","transform":true,"function":"curveSplitting","inputs":[{"name":"Input curve"}],"outputs":[{"name":"Curve 1","family":"Compressional Slowness","unit":"us/ft"},{"name":"Curve 2","family":"Compressional Slowness","unit":"us/ft"},{"name":"Curve 3","family":"Compressional Slowness","unit":"us/ft"}],"paramMultiple":true,"parameters":[{"name":"Cut Point 1","type":"number","value":2,"removeable":false,"onRemove":"removeOutput"},{"name":"Cut Point 2","type":"number","value":2,"removeable":true,"onRemove":"removeOutput"}],"parameterActions":[{"name":["addParam","addOutput"],"icon":"ti-plus","label":"Add parameter"}]}</t>
-  </si>
-  <si>
-    <t>Curve Filling</t>
-  </si>
-  <si>
-    <t>Curve Interpolation</t>
-  </si>
-  <si>
-    <t>{"icon":"curve-fill-data-gaps-16x16","transform":true,"function":"curveFilling","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_FILLED"}],"parameters":[{"name":"Gaps Maximum Width","type":"number","value":13},{"name":"Width Type","type":"select","value":"In samples","choices":["In samples","In reference"]}]}</t>
-  </si>
-  <si>
-    <t>Curve Resampling</t>
-  </si>
-  <si>
-    <t>{"forceSave":true,"icon":"curve-fill-data-gaps-16x16","transform":true,"function":"curveResampling","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_RESAMPLED"}],"parameters":[]}</t>
-  </si>
-  <si>
-    <t>Basic Combinations</t>
-  </si>
-  <si>
-    <t>Curve Combinations</t>
-  </si>
-  <si>
-    <t>{"icon":"caculation-multilinerregression-16x16","transform":true,"multiple":true,"function":"basicCombinations","inputs":[{"name":"Input curve"},{"name":"Input curve"}],"outputs":[{"name":"Combination curve","family":"Compressional Slowness","unit":"us/ft"}],"allowZone":false,"parameters":[{"name":"Method","type":"select","value":"+","choices":["+","-","*","/","min","max","average","median"]}]}</t>
-  </si>
-  <si>
-    <t>Linear Combinations</t>
-  </si>
-  <si>
-    <t>{"icon":"caculation-multilinerregression-16x16","multiple":true,"transform":true,"addParamFlag":true,"function":"linearCombinations","inputs":[{"name":"Input curve"},{"name":"Input curve"}],"outputs":[{"name":"Combination curve","family":"Compressional Slowness","unit":"us/ft"}],"allowZone":false,"parameters":[{"name":"Coefficient 1","type":"number","value":1},{"name":"Coefficient 2","type":"number","value":1}]}</t>
-  </si>
-  <si>
-    <t>Median Filter</t>
-  </si>
-  <si>
-    <t>Curve Filters</t>
-  </si>
-  <si>
-    <t>{"icon":"curve-filter-16x16","function":"curveMedianFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_MED_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
-  </si>
-  <si>
-    <t>Square Filter</t>
-  </si>
-  <si>
-    <t>{"icon":"curve-filter-16x16","function":"curveSquareFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_SQUARE_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
-  </si>
-  <si>
-    <t>Bell Filter</t>
-  </si>
-  <si>
-    <t>{"icon":"curve-filter-16x16","function":"curveBellFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_BELL_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
-  </si>
-  <si>
-    <t>Savitsky Golay Filter</t>
-  </si>
-  <si>
-    <t>{"icon":"curve-filter-16x16","function":"curveSavGolFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_SAVGOL_FILTERED"}],"allowZone":false,"parameters":[{"name":"Derivative Order","type":"number","value":0},{"name":"Polynomial Order","type":"number","value":2},{"name":"Number Of Points","type":"number","value":5}]}</t>
-  </si>
-  <si>
-    <t>Fast Fourie transform Filter</t>
-  </si>
-  <si>
-    <t>{"icon":"curve-filter-16x16","function":"curveFFTFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_FFT_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Cutoff","type":"number","value":100}]}</t>
-  </si>
-  <si>
-    <t>Curve Convolution</t>
-  </si>
-  <si>
-    <t>{"icon":"curve-convolution-16x16","function":"curveConvolution","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_CONV_FILTERED"}],"allowZone":false,"paramMultiple":true,"parameters":[{"name":"Coefficient 1","type":"number","value":0.33,"removeable":false},{"name":"Coefficient 2","type":"number","value":0.33,"removeable":false},{"name":"Coefficient 3","type":"number","value":0.33,"removeable":false}],"parameterActions":[{"name":"addParam","icon":"ti-plus","label":"Add parameter"}]}</t>
-  </si>
-  <si>
-    <t>Curve Deconvolution</t>
-  </si>
-  <si>
-    <t>{"icon":"curve-deconvolution-16x16","function":"curveDeconvolution","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_DECONV_FILTERED"}],"allowZone":false,"paramMultiple":true,"parameters":[{"name":"Coefficient 1","type":"number","value":1,"removeable":false},{"name":"Coefficient 2","type":"number","value":0,"removeable":false},{"name":"Coefficient 3","type":"number","value":1,"removeable":false}],"parameterActions":[{"name":"addParam","icon":"ti-plus","label":"Add parameter"}]}</t>
   </si>
 </sst>
 </file>
@@ -810,56 +810,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState ref="A2:C1048576">
-      <sortCondition ref="A1:A1048576"/>
-    </sortState>
-  </autoFilter>
-  <sortState ref="A1:C1048576">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -874,22 +830,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -897,13 +853,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -911,13 +867,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -925,13 +881,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -939,13 +895,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -953,13 +909,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -967,13 +923,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -981,13 +937,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -995,13 +951,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1009,13 +965,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1023,13 +979,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1037,13 +993,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1051,13 +1007,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
         <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1065,13 +1021,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1079,13 +1035,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1093,13 +1049,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="13.5" customHeight="1">
@@ -1107,13 +1063,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
@@ -1121,13 +1077,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1135,13 +1091,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1149,13 +1105,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
         <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1163,13 +1119,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1177,13 +1133,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1191,13 +1147,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1205,13 +1161,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1219,13 +1175,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1233,13 +1189,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1247,13 +1203,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1261,13 +1217,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1275,10 +1231,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1286,13 +1242,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1300,13 +1256,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
         <v>69</v>
-      </c>
-      <c r="D31" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1314,13 +1270,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1328,13 +1284,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
         <v>74</v>
-      </c>
-      <c r="D33" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1342,13 +1298,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1356,13 +1312,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
         <v>79</v>
-      </c>
-      <c r="D35" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1370,13 +1326,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1384,13 +1340,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1398,13 +1354,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
         <v>86</v>
-      </c>
-      <c r="D38" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1412,13 +1368,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1426,10 +1382,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1437,13 +1393,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1451,13 +1407,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" t="s">
         <v>95</v>
-      </c>
-      <c r="D42" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1465,10 +1421,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1476,10 +1432,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1487,10 +1443,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1498,10 +1454,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1509,10 +1465,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1520,10 +1476,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1531,13 +1487,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D49" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1545,13 +1501,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" t="s">
         <v>112</v>
-      </c>
-      <c r="D50" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1559,13 +1515,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1573,13 +1529,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D52" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1587,13 +1543,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D53" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1601,13 +1557,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C54" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" t="s">
         <v>121</v>
-      </c>
-      <c r="D54" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1615,13 +1571,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D55" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1629,13 +1585,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D56" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1643,13 +1599,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D57" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1657,13 +1613,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C58" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" t="s">
         <v>130</v>
-      </c>
-      <c r="D58" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1671,13 +1627,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D59" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1685,13 +1641,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" t="s">
         <v>135</v>
-      </c>
-      <c r="D60" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1699,13 +1655,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D61" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1713,13 +1669,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C62" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" t="s">
         <v>140</v>
-      </c>
-      <c r="D62" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1727,13 +1683,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C63" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D63" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1741,13 +1697,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C64" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D64" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1755,13 +1711,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C65" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D65" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1769,13 +1725,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D66" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1783,17 +1739,61 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D67" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState ref="A2:C1048576">
+      <sortCondition ref="A1:A1048576"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A1:C1048576">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21101"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="58" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{ED93FFCA-01B1-4415-A6DB-A29572EED2AC}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{D38D52D3-7193-4D2E-9DA8-98B4A7B36DC0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12317" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task-spec" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">changes!$A:$C</definedName>
   </definedNames>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,6 +22,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -232,123 +235,69 @@
     <t>Formation Temperature</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"gradientFTemp","inputs":[{"name":"Depth","family":"Measured Depth","unit":"m"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"Temperature Gradient","type":"number","value":0.03,"unit":"degC/m"},{"name":"TLI","type":"number","value":0,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"}]}</t>
-  </si>
-  <si>
     <t>Log Interval FTemp</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"logIntervalFTemp","inputs":[{"name":"Depth","family":"Measured Depth","unit":"m"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"TLI","type":"number","value":0,"unit":"m"},{"name":"BLI","type":"number","value":0,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"},{"name":"Bottom Log Temperature","type":"number","value":120,"unit":"degC"}]}</t>
-  </si>
-  <si>
     <t>Gradient FPress</t>
   </si>
   <si>
     <t>Hydrostatic Pressure</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"gradientFPress","inputs":[{"name":"True Vertical Depth","family":"True Vertical Depth","unit":"m"}],"outputs":[{"name":"FPRESS","family":"Hydrostatic Pressure","unit":"kPa"}],"parameters":[{"name":"Pressure Gradient","type":"number","value":9.792,"unit":"kPa/m"}]}</t>
-  </si>
-  <si>
     <t>Mud Density FPress</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"mudDensityFPress","inputs":[{"name":"True Vertical Depth","family":"True Vertical Depth","unit":"m"}],"outputs":[{"name":"FPRESS","family":"Hydrostatic Pressure","unit":"kPa"}],"parameters":[{"name":"Drilling Fluid Density","type":"number","value":1,"unit":"kg/m3"}]}</t>
-  </si>
-  <si>
     <t>Normalize Qv</t>
   </si>
   <si>
     <t>Qv Function</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"normalizeQv","inputs":[{"name":"Porosity","family":"Porosity","unit": "v/v"},{"name":"Shale Volume","family":"Shale Volume","unit": "v/v"}],"outputs":[{"name":"QVn","family":"Normalised Qv","unit":"v/v"}],"parameters":[{"name":"Porosity Shale","type":"number","value":0.4,"unit":"v/v"}]}</t>
-  </si>
-  <si>
     <t>CEC Qv</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"cecQv","inputs":[{"name":"Porosity","family":"Porosity","unit": "v/v"},{"name":"CEC","family":"Volumetric CEC","unit": "meq/g"},{"name":"Grain Density","family":"Grain Density","unit": "g/cm3"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"}],"parameters":[]}</t>
-  </si>
-  <si>
     <t>Qv Water Bearing Shaly Sands</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"qvWaterBearingShalySands","inputs":[{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"},{"name":"B","family":"Waxman B","unit":"L.S/eq.m"},{"name":"BQv","family":"Waxman BQv","unit":"S/m"}],"parameters":[{"name":"B method","type":"select","value":"Use B from formula","choices":["Use B from formula","Use B value"]},{"name":"B value","type":"number","value":0,"unit":"L.S/m"},{"name":"Temperature","type":"number","value":25,"unit":"degC"},{"name":"Water Resistivity","type":"number","value":0.03,"unit":"ohm.m"},{"name":"a*","type":"number","value":1},{"name":"m*","type":"number","value":2}]}</t>
-  </si>
-  <si>
     <t>RW from SAL and FTemp</t>
   </si>
   <si>
     <t>Fluid/Water Property</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"RWfromSALandFTemp","inputs":[{"name":"Formation Temperature","family":"Formation Temperature","unit":"degF"},{"name":"Salinity","family":"Salinity","unit":"ppm"}],"outputs":[{"name":"RwX","family":"Formation Water Resistivity","unit":"ohm.m"}],"parameters":[]}</t>
-  </si>
-  <si>
     <t>U from Salinity</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"UfromSalinity","inputs":[{"name":"Salinity","family":"Salinity","unit": "ppk"}],"outputs":[{"name":"U","family":"Volumetric Photoelectric Effect","unit":"barns/cm3"}],"parameters":[]}</t>
-  </si>
-  <si>
     <t>Saturated Salinity Concentration from FTemp</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"saturatedSalinityConcentrationfromFTemp","inputs":[{"name":"Formation Temperature","family":"Formation Temperature","unit": "degF"}],"outputs":[{"name":"SAL_SAT","family":"Formation Water Salinity","unit":"ppk"}],"parameters":[]}</t>
-  </si>
-  <si>
     <t>Mud Salinity and Resistivity</t>
   </si>
   <si>
-    <t>{"icon":"formation-resistivity-16x16","function":"mudSalinityAndResistivity","inputs":[{"name":"Formation Temperature","family":"Formation Temperature","unit": "degC"}],"outputs":[{"name":"RM","family":"Mud Resistivity","unit":"ohm.m"},{"name":"RMF","family":"Mud Filtrate Resistivity","unit":"ohm.m"},{"name":"RMC","family":"Mudcake Resistivity","unit":"ohm.m"},{"name":"SALM","family":"Mud Salinity","unit":"ppm"},{"name":"SALMF","family":"Mud Filtrate Salinity","unit":"ppm"}],"parameters":[{"name":"Mud Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mud Sample Temperature","type":"number","value":0,"unit":"degC"},{"name":"Mud Filtrate Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mud Filtrate Sample Temperature","type":"number","value":0,"unit":"degC"},{"name":"Mudcake Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mudcake Sample Temperature","type":"number","value":0,"unit":"degC"}]}</t>
-  </si>
-  <si>
     <t>Bad Hole From Caliper</t>
   </si>
   <si>
     <t>Bad Hole</t>
   </si>
   <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"badHoleFromCaliper","inputs":[{"name":"Caliper","family":"Caliper","unit":"in"}],"outputs":[{"name":"BH_FL_BS","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Cutoff","type":"number","value":0.5,"unit":"in","color":"red"},{"name":"Bit Size","type":"number","value":12.5,"unit":"in","color":"green"}],"options":[{"name":"Bit Size"}]}</t>
-  </si>
-  <si>
     <t>Bad Hole From DRHO</t>
   </si>
   <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"badHoleFromDRHO","inputs":[{"name":"DENC","family":"Bulk Density Correction","unit":"g/cm3"}],"outputs":[{"name":"BH_FL_DRHO","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Correction Min","type":"number","value":0.1,"unit":"g/cm3","color":"red"},{"name":"Bulk Density Correction Max","type":"number","value":0.6,"unit":"g/cm3","color":"green"}]}</t>
-  </si>
-  <si>
     <t>Coal Flag</t>
   </si>
   <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"coalFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Neutron Porosity","family":"Neutron Porosity","unit":"v/v","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true},{"name":"Resistivity","family":"Resistivity","allowNull":true}],"outputs":[{"name":"COAL_FL","family":"Coal Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":1.2,"max":2.2}]},{"name":"Neutron Porosity Cutoff","id":"Neutron Porosity Cutoff","type":"handsontable","tableType":"condition","unit":"v/v","value":[{"method":"Min &lt;= Value &lt; Max","min":0.3,"max":0.6}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":90,"max":150}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":0.16,"max":0.2}]},{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":900,"max":1000}]}]}</t>
-  </si>
-  <si>
     <t>Carbonate Flag</t>
   </si>
   <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"carbonateFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Neutron Porosity","family":"Neutron Porosity","unit":"v/v","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true}],"outputs":[{"name":"CARBONATE_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.85,"max":3}]},{"name":"Neutron Porosity Cutoff","id":"Neutron Porosity Cutoff","type":"handsontable","tableType":"condition","unit":"v/v","value":[{"method":"Min &lt;= Value &lt; Max","min":0,"max":1}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":45,"max":55}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":5,"max":7}]}]}</t>
-  </si>
-  <si>
     <t>Halite Flag</t>
   </si>
   <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"haliteFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true}],"outputs":[{"name":"HALITE_FL","family":"Halite Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.05,"max":2.15}]},{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":10000,"max":100000}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":60,"max":70}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":4.5,"max":5}]}]}</t>
-  </si>
-  <si>
     <t>Anhydrite Flag</t>
   </si>
   <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"anhydriteFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true}],"outputs":[{"name":"ANHYDRITE_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.85,"max":3}]},{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":10000,"max":100000}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":55,"max":60}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":4.5,"max":5}]}]}</t>
-  </si>
-  <si>
     <t>Custom Flag</t>
   </si>
   <si>
-    <t>{"icon":"badhole-coal-salt-16x16","function":"customFlag","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"outputs":[{"name":"CUSTOM_FL_1","family":"General Flag","unit":"UNITLESS","parameters":[{"id":"Condition 1"}]}],"outputTemplate":{"name":"CUSTOM_FL","family":"General Flag","unit":"UNITLESS","parameters":[]},"outputsMultiple":true,"outputFromParameters":true,"parameters":[{"id":"Condition 1","name":"Condition 1","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt;= Value &lt; Max"}],"nameEditable":true}],"addParamFlag":true}</t>
-  </si>
-  <si>
     <t>TVD Conversion</t>
   </si>
   <si>
@@ -361,42 +310,24 @@
     <t>Scalar Operations</t>
   </si>
   <si>
-    <t>{"icon":"cureve-splice-16x16","function":"basicOperations","transform":true,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_OUT"}],"allowZone":false,"parameters":[{"name":"Method","type":"select","value":"+","choices":["+","-","*","/"]},{"name":"Constant","type":"number","value":3.141592653589793}]}</t>
-  </si>
-  <si>
     <t>Pow</t>
   </si>
   <si>
-    <t>{"icon":"curve-splice-interactive-16x16","transform":true,"function":"pow","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_POW"}],"allowZone":false,"parameters":[{"name":"Exponent","type":"number","value":3.141592653589793}]}</t>
-  </si>
-  <si>
     <t>Round</t>
   </si>
   <si>
-    <t>{"icon":"curve-rescale-16x16","transform":true,"function":"round","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_ROUND"}],"allowZone":false,"parameters":[{"name":"Precision","type":"number","value":2}]}</t>
-  </si>
-  <si>
     <t>Limit</t>
   </si>
   <si>
-    <t>{"icon":"curve-splice-interactive-16x16","transform":true,"function":"limit","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_LIMIT"}],"allowZone":false,"parameters":[{"name":"Min","type":"number","value":0},{"name":"Max","type":"number","value":1}]}</t>
-  </si>
-  <si>
     <t>Functional Transforms</t>
   </si>
   <si>
     <t>Curve Transforms</t>
   </si>
   <si>
-    <t>{"icon":"cureve-splice-16x16","transform":true,"function":"functionalTransforms","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_OUT"}],"parameters":[{"name":"Method","type":"select","value":"pow10","choices":["pow10","sqrt","loge","log10","abs","inv","acos","asin","atan","cos","sin","tan","exp","exp10"]}]}</t>
-  </si>
-  <si>
     <t>Curve Derivation</t>
   </si>
   <si>
-    <t>{"icon":"curve-splice-interactive-16x16","transform":true,"function":"curveDerivation","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"name":"First Derivation","suffix":"_1ST_DERIVATION","use":true},{"name":"Second Derivation","suffix":"_2ND_DERIVATION","use":true}],"allowZone":false,"parameters":[]}</t>
-  </si>
-  <si>
     <t>Curve Rescaling</t>
   </si>
   <si>
@@ -421,57 +352,33 @@
     <t>Curve Resampling</t>
   </si>
   <si>
-    <t>{"forceSave":true,"icon":"curve-fill-data-gaps-16x16","transform":true,"function":"curveResampling","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_RESAMPLED"}],"parameters":[]}</t>
-  </si>
-  <si>
     <t>Basic Combinations</t>
   </si>
   <si>
     <t>Curve Combinations</t>
   </si>
   <si>
-    <t>{"icon":"caculation-multilinerregression-16x16","transform":true,"multiple":true,"function":"basicCombinations","inputs":[{"name":"Input curve"},{"name":"Input curve"}],"outputs":[{"name":"Combination curve","family":"Compressional Slowness","unit":"us/ft"}],"allowZone":false,"parameters":[{"name":"Method","type":"select","value":"+","choices":["+","-","*","/","min","max","average","median"]}]}</t>
-  </si>
-  <si>
     <t>Linear Combinations</t>
   </si>
   <si>
-    <t>{"icon":"caculation-multilinerregression-16x16","multiple":true,"transform":true,"addParamFlag":true,"function":"linearCombinations","inputs":[{"name":"Input curve"},{"name":"Input curve"}],"outputs":[{"name":"Combination curve","family":"Compressional Slowness","unit":"us/ft"}],"allowZone":false,"parameters":[{"name":"Coefficient 1","type":"number","value":1},{"name":"Coefficient 2","type":"number","value":1}]}</t>
-  </si>
-  <si>
     <t>Median Filter</t>
   </si>
   <si>
     <t>Curve Filters</t>
   </si>
   <si>
-    <t>{"icon":"curve-filter-16x16","function":"curveMedianFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_MED_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
-  </si>
-  <si>
     <t>Square Filter</t>
   </si>
   <si>
-    <t>{"icon":"curve-filter-16x16","function":"curveSquareFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_SQUARE_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
-  </si>
-  <si>
     <t>Bell Filter</t>
   </si>
   <si>
-    <t>{"icon":"curve-filter-16x16","function":"curveBellFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_BELL_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
-  </si>
-  <si>
     <t>Savitsky Golay Filter</t>
   </si>
   <si>
-    <t>{"icon":"curve-filter-16x16","function":"curveSavGolFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_SAVGOL_FILTERED"}],"allowZone":false,"parameters":[{"name":"Derivative Order","type":"number","value":0},{"name":"Polynomial Order","type":"number","value":2},{"name":"Number Of Points","type":"number","value":5}]}</t>
-  </si>
-  <si>
     <t>Fast Fourie transform Filter</t>
   </si>
   <si>
-    <t>{"icon":"curve-filter-16x16","function":"curveFFTFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_FFT_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Cutoff","type":"number","value":100}]}</t>
-  </si>
-  <si>
     <t>Curve Convolution</t>
   </si>
   <si>
@@ -491,17 +398,113 @@
   </si>
   <si>
     <t>delete</t>
+  </si>
+  <si>
+    <t>{"icon":"basic-operations-16x16","function":"basicOperations","transform":true,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_OUT"}],"allowZone":false,"parameters":[{"name":"Method","type":"select","value":"+","choices":["+","-","*","/"]},{"name":"Constant","type":"number","value":3.141592653589793}]}</t>
+  </si>
+  <si>
+    <t>{"icon":"pow-16x16","transform":true,"function":"pow","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_POW"}],"allowZone":false,"parameters":[{"name":"Exponent","type":"number","value":3.141592653589793}]}</t>
+  </si>
+  <si>
+    <t>{"icon":"round-16x16","transform":true,"function":"round","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_ROUND"}],"allowZone":false,"parameters":[{"name":"Precision","type":"number","value":2}]}</t>
+  </si>
+  <si>
+    <t>{"icon":"limit-16x16","transform":true,"function":"limit","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_LIMIT"}],"allowZone":false,"parameters":[{"name":"Min","type":"number","value":0},{"name":"Max","type":"number","value":1}]}</t>
+  </si>
+  <si>
+    <t>{"icon":"functional-transformations-16x16","transform":true,"function":"functionalTransforms","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_OUT"}],"parameters":[{"name":"Method","type":"select","value":"pow10","choices":["pow10","sqrt","loge","log10","abs","inv","acos","asin","atan","cos","sin","tan","exp","exp10"]}]}</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-derivation-16x16","transform":true,"function":"curveDerivation","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"name":"First Derivation","suffix":"_1ST_DERIVATION","use":true},{"name":"Second Derivation","suffix":"_2ND_DERIVATION","use":true}],"allowZone":false,"parameters":[]}</t>
+  </si>
+  <si>
+    <t>{"icon":"gradient-ftemp-16x16","function":"gradientFTemp","inputs":[{"name":"Depth","family":"Measured Depth","unit":"m"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"Temperature Gradient","type":"number","value":0.03,"unit":"degC/m"},{"name":"TLI","type":"number","value":0,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"}]}</t>
+  </si>
+  <si>
+    <t>{"icon":"log-interval-ftemp-16x16","function":"logIntervalFTemp","inputs":[{"name":"Depth","family":"Measured Depth","unit":"m"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"TLI","type":"number","value":0,"unit":"m"},{"name":"BLI","type":"number","value":0,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"},{"name":"Bottom Log Temperature","type":"number","value":120,"unit":"degC"}]}</t>
+  </si>
+  <si>
+    <t>{"icon":"gradient-fpress-16x16","function":"gradientFPress","inputs":[{"name":"True Vertical Depth","family":"True Vertical Depth","unit":"m"}],"outputs":[{"name":"FPRESS","family":"Hydrostatic Pressure","unit":"kPa"}],"parameters":[{"name":"Pressure Gradient","type":"number","value":9.792,"unit":"kPa/m"}]}</t>
+  </si>
+  <si>
+    <t>{"icon":"mud-density-fpress-16x16","function":"mudDensityFPress","inputs":[{"name":"True Vertical Depth","family":"True Vertical Depth","unit":"m"}],"outputs":[{"name":"FPRESS","family":"Hydrostatic Pressure","unit":"kPa"}],"parameters":[{"name":"Drilling Fluid Density","type":"number","value":1,"unit":"kg/m3"}]}</t>
+  </si>
+  <si>
+    <t>{"icon":"normalized-qv-16x16","function":"normalizeQv","inputs":[{"name":"Porosity","family":"Porosity","unit": "v/v"},{"name":"Shale Volume","family":"Shale Volume","unit": "v/v"}],"outputs":[{"name":"QVn","family":"Normalised Qv","unit":"v/v"}],"parameters":[{"name":"Porosity Shale","type":"number","value":0.4,"unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"icon":"cec-qv-16x16","function":"cecQv","inputs":[{"name":"Porosity","family":"Porosity","unit": "v/v"},{"name":"CEC","family":"Volumetric CEC","unit": "meq/g"},{"name":"Grain Density","family":"Grain Density","unit": "g/cm3"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"}],"parameters":[]}</t>
+  </si>
+  <si>
+    <t>{"icon":"water-bearing-shaly-sands-16x16","function":"qvWaterBearingShalySands","inputs":[{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"},{"name":"B","family":"Waxman B","unit":"L.S/eq.m"},{"name":"BQv","family":"Waxman BQv","unit":"S/m"}],"parameters":[{"name":"B method","type":"select","value":"Use B from formula","choices":["Use B from formula","Use B value"]},{"name":"B value","type":"number","value":0,"unit":"L.S/m"},{"name":"Temperature","type":"number","value":25,"unit":"degC"},{"name":"Water Resistivity","type":"number","value":0.03,"unit":"ohm.m"},{"name":"a*","type":"number","value":1},{"name":"m*","type":"number","value":2}]}</t>
+  </si>
+  <si>
+    <t>{"icon":"rw-from-sanlinity-temp-16x16","function":"RWfromSALandFTemp","inputs":[{"name":"Formation Temperature","family":"Formation Temperature","unit":"degF"},{"name":"Salinity","family":"Salinity","unit":"ppm"}],"outputs":[{"name":"RwX","family":"Formation Water Resistivity","unit":"ohm.m"}],"parameters":[]}</t>
+  </si>
+  <si>
+    <t>{"icon":"saturated-nacl-from-temp-16x16","function":"UfromSalinity","inputs":[{"name":"Salinity","family":"Salinity","unit": "ppk"}],"outputs":[{"name":"U","family":"Volumetric Photoelectric Effect","unit":"barns/cm3"}],"parameters":[]}</t>
+  </si>
+  <si>
+    <t>{"icon":"u-from-salinity-16x16","function":"saturatedSalinityConcentrationfromFTemp","inputs":[{"name":"Formation Temperature","family":"Formation Temperature","unit": "degF"}],"outputs":[{"name":"SAL_SAT","family":"Formation Water Salinity","unit":"ppk"}],"parameters":[]}</t>
+  </si>
+  <si>
+    <t>{"icon":"bad-hole-from-caliper-16x16","function":"badHoleFromCaliper","inputs":[{"name":"Caliper","family":"Caliper","unit":"in"}],"outputs":[{"name":"BH_FL_BS","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Cutoff","type":"number","value":0.5,"unit":"in"},{"name":"Bit Size","type":"number","value":12.5,"unit":"in"}],"options":[{"name":"Bit Size"}]}</t>
+  </si>
+  <si>
+    <t>{"icon":"bad-hole-from-drho-16x16","function":"badHoleFromDRHO","inputs":[{"name":"DENC","family":"Bulk Density Correction","unit":"g/cm3"}],"outputs":[{"name":"BH_FL_DRHO","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Correction Min","type":"number","value":0.1,"unit":"g/cm3"},{"name":"Bulk Density Correction Max","type":"number","value":0.6,"unit":"g/cm3"}]}</t>
+  </si>
+  <si>
+    <t>{"icon":"coal-flag-16x16","function":"coalFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Neutron Porosity","family":"Neutron Porosity","unit":"v/v","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true},{"name":"Resistivity","family":"Resistivity","allowNull":true}],"outputs":[{"name":"COAL_FL","family":"Coal Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":1.2,"max":2.2}]},{"name":"Neutron Porosity Cutoff","id":"Neutron Porosity Cutoff","type":"handsontable","tableType":"condition","unit":"v/v","value":[{"method":"Min &lt;= Value &lt; Max","min":0.3,"max":0.6}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":90,"max":150}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":0.16,"max":0.2}]},{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":900,"max":1000}]}]}</t>
+  </si>
+  <si>
+    <t>{"icon":"mud-salinity-and-resistivity-16x16","function":"mudSalinityAndResistivity","inputs":[{"name":"Formation Temperature","family":"Formation Temperature","unit": "degC"}],"outputs":[{"name":"RM","family":"Mud Resistivity","unit":"ohm.m"},{"name":"RMF","family":"Mud Filtrate Resistivity","unit":"ohm.m"},{"name":"RMC","family":"Mudcake Resistivity","unit":"ohm.m"},{"name":"SALM","family":"Mud Salinity","unit":"ppm"},{"name":"SALMF","family":"Mud Filtrate Salinity","unit":"ppm"}],"parameters":[{"name":"Mud Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mud Sample Temperature","type":"number","value":0,"unit":"degC"},{"name":"Mud Filtrate Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mud Filtrate Sample Temperature","type":"number","value":0,"unit":"degC"},{"name":"Mudcake Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mudcake Sample Temperature","type":"number","value":0,"unit":"degC"}]}</t>
+  </si>
+  <si>
+    <t>{"icon":"carbonate-flag-16x16","function":"carbonateFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Neutron Porosity","family":"Neutron Porosity","unit":"v/v","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true}],"outputs":[{"name":"CARBONATE_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.85,"max":3}]},{"name":"Neutron Porosity Cutoff","id":"Neutron Porosity Cutoff","type":"handsontable","tableType":"condition","unit":"v/v","value":[{"method":"Min &lt;= Value &lt; Max","min":0,"max":1}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":45,"max":55}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":5,"max":7}]}]}</t>
+  </si>
+  <si>
+    <t>{"icon":"halite-flag-16x16","function":"haliteFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true}],"outputs":[{"name":"HALITE_FL","family":"Halite Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.05,"max":2.15}]},{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":10000,"max":100000}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":60,"max":70}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":4.5,"max":5}]}]}</t>
+  </si>
+  <si>
+    <t>{"icon":"anhydrite-flag-16x16","function":"anhydriteFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true}],"outputs":[{"name":"ANHYDRITE_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.85,"max":3}]},{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":10000,"max":100000}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":55,"max":60}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":4.5,"max":5}]}]}</t>
+  </si>
+  <si>
+    <t>{"icon":"custom-flag-16x16","function":"customFlag","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"outputs":[{"name":"CUSTOM_FL_1","family":"General Flag","unit":"UNITLESS","parameters":[{"id":"Condition 1"}]}],"outputTemplate":{"name":"CUSTOM_FL","family":"General Flag","unit":"UNITLESS","parameters":[]},"outputsMultiple":true,"outputFromParameters":true,"parameters":[{"id":"Condition 1","name":"Condition 1","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt;= Value &lt; Max"}],"nameEditable":true}],"addParamFlag":true}</t>
+  </si>
+  <si>
+    <t>{"icon":"curve-resampling-16x16","transform":true,"function":"curveResampling","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_RESAMPLED"}],"parameters":[]}</t>
+  </si>
+  <si>
+    <t>{"icon":"basic-combination-16x16","transform":true,"multiple":true,"function":"basicCombinations","inputs":[{"name":"Input curve"},{"name":"Input curve"}],"outputs":[{"name":"Combination curve","family":"Compressional Slowness","unit":"us/ft"}],"allowZone":false,"parameters":[{"name":"Method","type":"select","value":"+","choices":["+","-","*","/","min","max","average","median"]}]}</t>
+  </si>
+  <si>
+    <t>{"icon":"linear-combination-16x16","multiple":true,"transform":true,"addParamFlag":true,"function":"linearCombinations","inputs":[{"name":"Input curve"},{"name":"Input curve"}],"outputs":[{"name":"Combination curve","family":"Compressional Slowness","unit":"us/ft"}],"allowZone":false,"parameters":[{"name":"Coefficient 1","type":"number","value":1},{"name":"Coefficient 2","type":"number","value":1}]}</t>
+  </si>
+  <si>
+    <t>{"icon":"median-filter-16x16","function":"curveMedianFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_MED_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
+  </si>
+  <si>
+    <t>{"icon":"square-filter-16x16","function":"curveSquareFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_SQUARE_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
+  </si>
+  <si>
+    <t>{"icon":"bell-filter-16x16","function":"curveBellFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_BELL_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
+  </si>
+  <si>
+    <t>{"icon":"savisky-golay-filter-16x16","function":"curveSavGolFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_SAVGOL_FILTERED"}],"allowZone":false,"parameters":[{"name":"Derivative Order","type":"number","value":0},{"name":"Polynomial Order","type":"number","value":2},{"name":"Number Of Points","type":"number","value":5}]}</t>
+  </si>
+  <si>
+    <t>{"icon":"fft-filter-16x16","function":"curveFFTFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_FFT_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Cutoff","type":"number","value":100}]}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -528,9 +531,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -813,22 +814,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="38.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100.640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -848,7 +849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -858,11 +859,11 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -872,11 +873,11 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -886,11 +887,11 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -900,11 +901,11 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -914,11 +915,11 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -928,11 +929,11 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -942,11 +943,11 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -956,11 +957,11 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -970,11 +971,11 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -984,11 +985,11 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -998,11 +999,11 @@
       <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1012,11 +1013,11 @@
       <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1026,11 +1027,11 @@
       <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1040,11 +1041,11 @@
       <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1054,11 +1055,11 @@
       <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.5" customHeight="1">
+    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1068,11 +1069,11 @@
       <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1086,7 +1087,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1096,11 +1097,11 @@
       <c r="C19" t="s">
         <v>42</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1110,11 +1111,11 @@
       <c r="C20" t="s">
         <v>42</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1124,11 +1125,11 @@
       <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1138,11 +1139,11 @@
       <c r="C22" t="s">
         <v>42</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1152,11 +1153,11 @@
       <c r="C23" t="s">
         <v>42</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1166,11 +1167,11 @@
       <c r="C24" t="s">
         <v>42</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1180,11 +1181,11 @@
       <c r="C25" t="s">
         <v>42</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1194,11 +1195,11 @@
       <c r="C26" t="s">
         <v>42</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1208,11 +1209,11 @@
       <c r="C27" t="s">
         <v>42</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1222,22 +1223,22 @@
       <c r="C28" t="s">
         <v>61</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1247,505 +1248,505 @@
       <c r="C30" t="s">
         <v>66</v>
       </c>
-      <c r="D30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="D30" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
         <v>66</v>
       </c>
-      <c r="D31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="D31" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>69</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>69</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>76</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>76</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>76</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>79</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>81</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>81</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>83</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>84</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>85</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>86</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>87</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>88</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>96</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C54" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>96</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>96</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>118</v>
-      </c>
-      <c r="D56" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>96</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
-      </c>
-      <c r="D57" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
-        <v>127</v>
-      </c>
-      <c r="D58" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="C59" t="s">
-        <v>132</v>
-      </c>
-      <c r="D59" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>132</v>
-      </c>
-      <c r="D60" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
-      </c>
-      <c r="D61" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>110</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
-      </c>
-      <c r="D62" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>110</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C63" t="s">
-        <v>137</v>
-      </c>
-      <c r="D63" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>110</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
-      </c>
-      <c r="D64" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>110</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
-      </c>
-      <c r="D65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>110</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
-      </c>
-      <c r="D66" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>110</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
-      </c>
-      <c r="D67" t="s">
-        <v>150</v>
+        <v>110</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1756,42 +1757,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>2</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState ref="A2:C1048576">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C1048576">
       <sortCondition ref="A1:A1048576"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A1:C1048576">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C1048576">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21101"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21107"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="107" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{D38D52D3-7193-4D2E-9DA8-98B4A7B36DC0}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{E25D3B57-1072-4318-AC51-543AA33A85C1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12317" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12317" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="task-spec" sheetId="1" r:id="rId1"/>
-    <sheet name="changes" sheetId="2" r:id="rId2"/>
+    <sheet name="changes" sheetId="2" r:id="rId1"/>
+    <sheet name="task-spec" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">changes!$A:$C</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">changes!$A:$C</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179020"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,9 +22,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +29,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="155">
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
   <si>
     <t>id</t>
   </si>
@@ -112,7 +118,7 @@
     <t>Final</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16","function": "calVSHFinal", "multiple": true, "use_inputs": "multiple", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Shale Volume", "unit": "v/v", "family": "Shale Volume" }, { "name": "Shale Volume", "unit": "v/v", "family": "Shale Volume" } ], "parameters": [ { "name": "Merge Method", "type": "select", "value": "Minimum", "choices": [ "Minimum", "Average", "Arithmetic mean", "Geometric mean", "Harmonic mean", "Median", "Maximum", "Sum" ] } ], "outputs": [ { "name": "VSH_Final", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_MIN", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_AVG", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{"icon": "final-clay-volume-16x16","function": "calVSHFinal", "multiple": true, "use_inputs": "multiple", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Shale Volume", "unit": "v/v", "family": "Shale Volume" }, { "name": "Shale Volume", "unit": "v/v", "family": "Shale Volume" } ], "parameters": [ { "name": "Merge Method", "type": "select", "value": "Minimum", "choices": [ "Minimum", "Average", "Arithmetic mean", "Geometric mean", "Harmonic mean", "Median", "Maximum", "Sum" ] } ], "outputs": [ { "name": "VSH_Final", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_MIN", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_AVG", "family": "Shale Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Density</t>
@@ -148,13 +154,13 @@
     <t>Total Final</t>
   </si>
   <si>
-    <t>{"icon":"calculate-open-porosity-16x16","function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Total Porosity", "unit": "v/v", "family": "Total Porosity" }, { "name": "Total Porosity", "unit": "v/v", "family": "Total Porosity" } ], "parameters": [], "outputs": [ { "name": "PHIT_Final", "family": "Total Porosity", "unit": "v/v" } ] }</t>
+    <t>{"icon":"final-total-porosity-16x16","function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Total Porosity", "unit": "v/v", "family": "Total Porosity" }, { "name": "Total Porosity", "unit": "v/v", "family": "Total Porosity" } ], "parameters": [], "outputs": [ { "name": "PHIT_Final", "family": "Total Porosity", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Effective Final</t>
   </si>
   <si>
-    <t>{"icon":"calculate-open-porosity-16x16","function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Effective Porosity", "unit": "v/v", "family": "Effective Porosity" }, { "name": "Effective Porosity", "unit": "v/v", "family": "Effective Porosity" } ], "parameters": [], "outputs": [ { "name": "PHIE_Final", "family": "Effective Porosity", "unit": "v/v" } ] }</t>
+    <t>{"icon":"final-effective-porosity-16x16","function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Effective Porosity", "unit": "v/v", "family": "Effective Porosity" }, { "name": "Effective Porosity", "unit": "v/v", "family": "Effective Porosity" } ], "parameters": [], "outputs": [ { "name": "PHIE_Final", "family": "Effective Porosity", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>Archie</t>
@@ -214,7 +220,7 @@
     <t>{ "icon": "water-saturation-16x16", "function": "calSaturationEffective", "inputs": [ { "name": "Total Porosity", "family": "Total Porosity", "unit": "v/v" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Total Saturation", "family": "Water Saturation", "unit": "v/v" } ], "parameters": [], "outputs": [ { "name": "Sw_E", "family": "Water Saturation", "unit": "v/v" }, { "name": "Bvw_E", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
   </si>
   <si>
-    <t>Cutoff and Summation</t>
+    <t>Summaries</t>
   </si>
   <si>
     <t>Clastic</t>
@@ -235,69 +241,126 @@
     <t>Formation Temperature</t>
   </si>
   <si>
+    <t>{"icon":"gradient-ftemp-16x16","function":"gradientFTemp","inputs":[{"name":"Depth","family":"Measured Depth","unit":"m"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"Temperature Gradient","type":"number","value":0.03,"unit":"degC/m"},{"name":"TLI","type":"number","value":0,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"}]}</t>
+  </si>
+  <si>
     <t>Log Interval FTemp</t>
   </si>
   <si>
+    <t>{"icon":"log-interval-ftemp-16x16","function":"logIntervalFTemp","inputs":[{"name":"Depth","family":"Measured Depth","unit":"m"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"TLI","type":"number","value":0,"unit":"m"},{"name":"BLI","type":"number","value":0,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"},{"name":"Bottom Log Temperature","type":"number","value":120,"unit":"degC"}]}</t>
+  </si>
+  <si>
     <t>Gradient FPress</t>
   </si>
   <si>
     <t>Hydrostatic Pressure</t>
   </si>
   <si>
+    <t>{"icon":"gradient-fpress-16x16","function":"gradientFPress","inputs":[{"name":"True Vertical Depth","family":"True Vertical Depth","unit":"m"}],"outputs":[{"name":"FPRESS","family":"Hydrostatic Pressure","unit":"kPa"}],"parameters":[{"name":"Pressure Gradient","type":"number","value":9.792,"unit":"kPa/m"}]}</t>
+  </si>
+  <si>
     <t>Mud Density FPress</t>
   </si>
   <si>
+    <t>{"icon":"mud-density-fpress-16x16","function":"mudDensityFPress","inputs":[{"name":"True Vertical Depth","family":"True Vertical Depth","unit":"m"}],"outputs":[{"name":"FPRESS","family":"Hydrostatic Pressure","unit":"kPa"}],"parameters":[{"name":"Drilling Fluid Density","type":"number","value":1,"unit":"kg/m3"}]}</t>
+  </si>
+  <si>
     <t>Normalize Qv</t>
   </si>
   <si>
-    <t>Qv Function</t>
+    <t>Qv</t>
+  </si>
+  <si>
+    <t>{"icon":"normalized-qv-16x16","function":"normalizeQv","inputs":[{"name":"Porosity","family":"Porosity","unit": "v/v"},{"name":"Shale Volume","family":"Shale Volume","unit": "v/v"}],"outputs":[{"name":"QVn","family":"Normalised Qv","unit":"v/v"}],"parameters":[{"name":"Porosity Shale","type":"number","value":0.4,"unit":"v/v"}]}</t>
   </si>
   <si>
     <t>CEC Qv</t>
   </si>
   <si>
-    <t>Qv Water Bearing Shaly Sands</t>
-  </si>
-  <si>
-    <t>RW from SAL and FTemp</t>
-  </si>
-  <si>
-    <t>Fluid/Water Property</t>
+    <t>{"icon":"cec-qv-16x16","function":"cecQv","inputs":[{"name":"Porosity","family":"Porosity","unit": "v/v"},{"name":"CEC","family":"Volumetric CEC","unit": "meq/g"},{"name":"Grain Density","family":"Grain Density","unit": "g/cm3"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"}],"parameters":[]}</t>
+  </si>
+  <si>
+    <t>Water Bearing Shaly Sands</t>
+  </si>
+  <si>
+    <t>{"icon":"water-bearing-shaly-sands-16x16","function":"qvWaterBearingShalySands","inputs":[{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"},{"name":"B","family":"Waxman B","unit":"L.S/eq.m"},{"name":"BQv","family":"Waxman BQv","unit":"S/m"}],"parameters":[{"name":"B method","type":"select","value":"Use B from formula","choices":["Use B from formula","Use B value"]},{"name":"B value","type":"number","value":0,"unit":"L.S/m"},{"name":"Temperature","type":"number","value":25,"unit":"degC"},{"name":"Water Resistivity","type":"number","value":0.03,"unit":"ohm.m"},{"name":"a*","type":"number","value":1},{"name":"m*","type":"number","value":2}]}</t>
+  </si>
+  <si>
+    <t>Water Resistivity from Temperature and Salinity</t>
+  </si>
+  <si>
+    <t>Water Properties</t>
+  </si>
+  <si>
+    <t>{"icon":"rw-from-sanlinity-temp-16x16","function":"RWfromSALandFTemp","inputs":[{"name":"Formation Temperature","family":"Formation Temperature","unit":"degF"},{"name":"Salinity","family":"Salinity","unit":"ppm"}],"outputs":[{"name":"RwX","family":"Formation Water Resistivity","unit":"ohm.m"}],"parameters":[]}</t>
   </si>
   <si>
     <t>U from Salinity</t>
   </si>
   <si>
-    <t>Saturated Salinity Concentration from FTemp</t>
+    <t>{"icon":"saturated-nacl-from-temp-16x16","function":"UfromSalinity","inputs":[{"name":"Salinity","family":"Salinity","unit": "ppk"}],"outputs":[{"name":"U","family":"Volumetric Photoelectric Effect","unit":"barns/cm3"}],"parameters":[]}</t>
+  </si>
+  <si>
+    <t>Saturated Salinity Concentration from Temperature</t>
+  </si>
+  <si>
+    <t>{"icon":"u-from-salinity-16x16","function":"saturatedSalinityConcentrationfromFTemp","inputs":[{"name":"Formation Temperature","family":"Formation Temperature","unit": "degF"}],"outputs":[{"name":"SAL_SAT","family":"Formation Water Salinity","unit":"ppk"}],"parameters":[]}</t>
   </si>
   <si>
     <t>Mud Salinity and Resistivity</t>
   </si>
   <si>
+    <t>{"icon":"mud-salinity-and-resistivity-16x16","function":"mudSalinityAndResistivity","inputs":[{"name":"Formation Temperature","family":"Formation Temperature","unit": "degC"}],"outputs":[{"name":"RM","family":"Mud Resistivity","unit":"ohm.m"},{"name":"RMF","family":"Mud Filtrate Resistivity","unit":"ohm.m"},{"name":"RMC","family":"Mudcake Resistivity","unit":"ohm.m"},{"name":"SALM","family":"Mud Salinity","unit":"ppm"},{"name":"SALMF","family":"Mud Filtrate Salinity","unit":"ppm"}],"parameters":[{"name":"Mud Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mud Sample Temperature","type":"number","value":0,"unit":"degC"},{"name":"Mud Filtrate Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mud Filtrate Sample Temperature","type":"number","value":0,"unit":"degC"},{"name":"Mudcake Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mudcake Sample Temperature","type":"number","value":0,"unit":"degC"}]}</t>
+  </si>
+  <si>
     <t>Bad Hole From Caliper</t>
   </si>
   <si>
-    <t>Bad Hole</t>
+    <t>Quality Flag</t>
+  </si>
+  <si>
+    <t>{"icon":"bad-hole-from-caliper-16x16","function":"badHoleFromCaliper","inputs":[{"name":"Caliper","family":"Caliper","unit":"in"}],"outputs":[{"name":"BH_FL_BS","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Cutoff","type":"number","value":0.5,"unit":"in"},{"name":"Bit Size","type":"number","value":12.5,"unit":"in"}],"options":[{"name":"Bit Size"}]}</t>
   </si>
   <si>
     <t>Bad Hole From DRHO</t>
   </si>
   <si>
+    <t>{"icon":"bad-hole-from-drho-16x16","function":"badHoleFromDRHO","inputs":[{"name":"DENC","family":"Bulk Density Correction","unit":"g/cm3"}],"outputs":[{"name":"BH_FL_DRHO","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Correction Min","type":"number","value":0.1,"unit":"g/cm3"},{"name":"Bulk Density Correction Max","type":"number","value":0.6,"unit":"g/cm3"}]}</t>
+  </si>
+  <si>
     <t>Coal Flag</t>
   </si>
   <si>
+    <t>Pure Mineral Flag</t>
+  </si>
+  <si>
+    <t>{"icon":"coal-flag-16x16","function":"coalFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Neutron Porosity","family":"Neutron Porosity","unit":"v/v","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true},{"name":"Resistivity","family":"Resistivity","allowNull":true}],"outputs":[{"name":"COAL_FL","family":"Coal Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":1.2,"max":2.2}]},{"name":"Neutron Porosity Cutoff","id":"Neutron Porosity Cutoff","type":"handsontable","tableType":"condition","unit":"v/v","value":[{"method":"Min &lt;= Value &lt; Max","min":0.3,"max":0.6}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":90,"max":150}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":0.16,"max":0.2}]},{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":900,"max":1000}]}]}</t>
+  </si>
+  <si>
     <t>Carbonate Flag</t>
   </si>
   <si>
+    <t>{"icon":"carbonate-flag-16x16","function":"carbonateFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Neutron Porosity","family":"Neutron Porosity","unit":"v/v","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true}],"outputs":[{"name":"CARBONATE_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.85,"max":3}]},{"name":"Neutron Porosity Cutoff","id":"Neutron Porosity Cutoff","type":"handsontable","tableType":"condition","unit":"v/v","value":[{"method":"Min &lt;= Value &lt; Max","min":0,"max":1}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":45,"max":55}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":5,"max":7}]}]}</t>
+  </si>
+  <si>
     <t>Halite Flag</t>
   </si>
   <si>
+    <t>{"icon":"halite-flag-16x16","function":"haliteFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true}],"outputs":[{"name":"HALITE_FL","family":"Halite Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.05,"max":2.15}]},{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":10000,"max":100000}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":60,"max":70}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":4.5,"max":5}]}]}</t>
+  </si>
+  <si>
     <t>Anhydrite Flag</t>
   </si>
   <si>
+    <t>{"icon":"anhydrite-flag-16x16","function":"anhydriteFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true}],"outputs":[{"name":"ANHYDRITE_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.85,"max":3}]},{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":10000,"max":100000}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":55,"max":60}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":4.5,"max":5}]}]}</t>
+  </si>
+  <si>
     <t>Custom Flag</t>
   </si>
   <si>
+    <t>{"icon":"custom-flag-16x16","function":"customFlag","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"outputs":[{"name":"CUSTOM_FL_1","family":"General Flag","unit":"UNITLESS","parameters":[{"id":"Condition 1"}]}],"outputTemplate":{"name":"CUSTOM_FL","family":"General Flag","unit":"UNITLESS","parameters":[]},"outputsMultiple":true,"outputFromParameters":true,"parameters":[{"id":"Condition 1","name":"Condition 1","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt;= Value &lt; Max"}],"nameEditable":true}],"addParamFlag":true}</t>
+  </si>
+  <si>
     <t>TVD Conversion</t>
   </si>
   <si>
@@ -310,24 +373,42 @@
     <t>Scalar Operations</t>
   </si>
   <si>
+    <t>{"icon":"basic-operations-16x16","function":"basicOperations","transform":true,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_OUT"}],"allowZone":false,"parameters":[{"name":"Method","type":"select","value":"+","choices":["+","-","*","/"]},{"name":"Constant","type":"number","value":3.141592653589793}]}</t>
+  </si>
+  <si>
     <t>Pow</t>
   </si>
   <si>
+    <t>{"icon":"pow-16x16","transform":true,"function":"pow","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_POW"}],"allowZone":false,"parameters":[{"name":"Exponent","type":"number","value":3.141592653589793}]}</t>
+  </si>
+  <si>
     <t>Round</t>
   </si>
   <si>
+    <t>{"icon":"round-16x16","transform":true,"function":"round","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_ROUND"}],"allowZone":false,"parameters":[{"name":"Precision","type":"number","value":2}]}</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
+    <t>{"icon":"limit-16x16","transform":true,"function":"limit","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_LIMIT"}],"allowZone":false,"parameters":[{"name":"Min","type":"number","value":0},{"name":"Max","type":"number","value":1}]}</t>
+  </si>
+  <si>
     <t>Functional Transforms</t>
   </si>
   <si>
     <t>Curve Transforms</t>
   </si>
   <si>
+    <t>{"icon":"functional-transformations-16x16","transform":true,"function":"functionalTransforms","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_OUT"}],"parameters":[{"name":"Method","type":"select","value":"pow10","choices":["pow10","sqrt","loge","log10","abs","inv","acos","asin","atan","cos","sin","tan","exp","exp10"]}]}</t>
+  </si>
+  <si>
     <t>Curve Derivation</t>
   </si>
   <si>
+    <t>{"icon":"curve-derivation-16x16","transform":true,"function":"curveDerivation","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"name":"First Derivation","suffix":"_1ST_DERIVATION","use":true},{"name":"Second Derivation","suffix":"_2ND_DERIVATION","use":true}],"allowZone":false,"parameters":[]}</t>
+  </si>
+  <si>
     <t>Curve Rescaling</t>
   </si>
   <si>
@@ -352,33 +433,57 @@
     <t>Curve Resampling</t>
   </si>
   <si>
+    <t>{"icon":"curve-resampling-16x16","transform":true,"function":"curveResampling","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_RESAMPLED"}],"parameters":[]}</t>
+  </si>
+  <si>
     <t>Basic Combinations</t>
   </si>
   <si>
     <t>Curve Combinations</t>
   </si>
   <si>
+    <t>{"icon":"basic-combination-16x16","transform":true,"multiple":true,"function":"basicCombinations","inputs":[{"name":"Input curve"},{"name":"Input curve"}],"outputs":[{"name":"Combination curve","family":"Compressional Slowness","unit":"us/ft"}],"allowZone":false,"parameters":[{"name":"Method","type":"select","value":"+","choices":["+","-","*","/","min","max","average","median"]}]}</t>
+  </si>
+  <si>
     <t>Linear Combinations</t>
   </si>
   <si>
+    <t>{"icon":"linear-combination-16x16","multiple":true,"transform":true,"addParamFlag":true,"function":"linearCombinations","inputs":[{"name":"Input curve"},{"name":"Input curve"}],"outputs":[{"name":"Combination curve","family":"Compressional Slowness","unit":"us/ft"}],"allowZone":false,"parameters":[{"name":"Coefficient 1","type":"number","value":1},{"name":"Coefficient 2","type":"number","value":1}]}</t>
+  </si>
+  <si>
     <t>Median Filter</t>
   </si>
   <si>
     <t>Curve Filters</t>
   </si>
   <si>
+    <t>{"icon":"median-filter-16x16","function":"curveMedianFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_MED_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
+  </si>
+  <si>
     <t>Square Filter</t>
   </si>
   <si>
+    <t>{"icon":"square-filter-16x16","function":"curveSquareFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_SQUARE_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
+  </si>
+  <si>
     <t>Bell Filter</t>
   </si>
   <si>
+    <t>{"icon":"bell-filter-16x16","function":"curveBellFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_BELL_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
+  </si>
+  <si>
     <t>Savitsky Golay Filter</t>
   </si>
   <si>
+    <t>{"icon":"savisky-golay-filter-16x16","function":"curveSavGolFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_SAVGOL_FILTERED"}],"allowZone":false,"parameters":[{"name":"Derivative Order","type":"number","value":0},{"name":"Polynomial Order","type":"number","value":2},{"name":"Number Of Points","type":"number","value":5}]}</t>
+  </si>
+  <si>
     <t>Fast Fourie transform Filter</t>
   </si>
   <si>
+    <t>{"icon":"fft-filter-16x16","function":"curveFFTFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_FFT_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Cutoff","type":"number","value":100}]}</t>
+  </si>
+  <si>
     <t>Curve Convolution</t>
   </si>
   <si>
@@ -389,118 +494,13 @@
   </si>
   <si>
     <t>{"icon":"curve-deconvolution-16x16","function":"curveDeconvolution","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_DECONV_FILTERED"}],"allowZone":false,"paramMultiple":true,"parameters":[{"name":"Coefficient 1","type":"number","value":1,"removeable":false},{"name":"Coefficient 2","type":"number","value":0,"removeable":false},{"name":"Coefficient 3","type":"number","value":1,"removeable":false}],"parameterActions":[{"name":"addParam","icon":"ti-plus","label":"Add parameter"}]}</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>{"icon":"basic-operations-16x16","function":"basicOperations","transform":true,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_OUT"}],"allowZone":false,"parameters":[{"name":"Method","type":"select","value":"+","choices":["+","-","*","/"]},{"name":"Constant","type":"number","value":3.141592653589793}]}</t>
-  </si>
-  <si>
-    <t>{"icon":"pow-16x16","transform":true,"function":"pow","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_POW"}],"allowZone":false,"parameters":[{"name":"Exponent","type":"number","value":3.141592653589793}]}</t>
-  </si>
-  <si>
-    <t>{"icon":"round-16x16","transform":true,"function":"round","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_ROUND"}],"allowZone":false,"parameters":[{"name":"Precision","type":"number","value":2}]}</t>
-  </si>
-  <si>
-    <t>{"icon":"limit-16x16","transform":true,"function":"limit","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_LIMIT"}],"allowZone":false,"parameters":[{"name":"Min","type":"number","value":0},{"name":"Max","type":"number","value":1}]}</t>
-  </si>
-  <si>
-    <t>{"icon":"functional-transformations-16x16","transform":true,"function":"functionalTransforms","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_OUT"}],"parameters":[{"name":"Method","type":"select","value":"pow10","choices":["pow10","sqrt","loge","log10","abs","inv","acos","asin","atan","cos","sin","tan","exp","exp10"]}]}</t>
-  </si>
-  <si>
-    <t>{"icon":"curve-derivation-16x16","transform":true,"function":"curveDerivation","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"name":"First Derivation","suffix":"_1ST_DERIVATION","use":true},{"name":"Second Derivation","suffix":"_2ND_DERIVATION","use":true}],"allowZone":false,"parameters":[]}</t>
-  </si>
-  <si>
-    <t>{"icon":"gradient-ftemp-16x16","function":"gradientFTemp","inputs":[{"name":"Depth","family":"Measured Depth","unit":"m"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"Temperature Gradient","type":"number","value":0.03,"unit":"degC/m"},{"name":"TLI","type":"number","value":0,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"}]}</t>
-  </si>
-  <si>
-    <t>{"icon":"log-interval-ftemp-16x16","function":"logIntervalFTemp","inputs":[{"name":"Depth","family":"Measured Depth","unit":"m"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"TLI","type":"number","value":0,"unit":"m"},{"name":"BLI","type":"number","value":0,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"},{"name":"Bottom Log Temperature","type":"number","value":120,"unit":"degC"}]}</t>
-  </si>
-  <si>
-    <t>{"icon":"gradient-fpress-16x16","function":"gradientFPress","inputs":[{"name":"True Vertical Depth","family":"True Vertical Depth","unit":"m"}],"outputs":[{"name":"FPRESS","family":"Hydrostatic Pressure","unit":"kPa"}],"parameters":[{"name":"Pressure Gradient","type":"number","value":9.792,"unit":"kPa/m"}]}</t>
-  </si>
-  <si>
-    <t>{"icon":"mud-density-fpress-16x16","function":"mudDensityFPress","inputs":[{"name":"True Vertical Depth","family":"True Vertical Depth","unit":"m"}],"outputs":[{"name":"FPRESS","family":"Hydrostatic Pressure","unit":"kPa"}],"parameters":[{"name":"Drilling Fluid Density","type":"number","value":1,"unit":"kg/m3"}]}</t>
-  </si>
-  <si>
-    <t>{"icon":"normalized-qv-16x16","function":"normalizeQv","inputs":[{"name":"Porosity","family":"Porosity","unit": "v/v"},{"name":"Shale Volume","family":"Shale Volume","unit": "v/v"}],"outputs":[{"name":"QVn","family":"Normalised Qv","unit":"v/v"}],"parameters":[{"name":"Porosity Shale","type":"number","value":0.4,"unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"icon":"cec-qv-16x16","function":"cecQv","inputs":[{"name":"Porosity","family":"Porosity","unit": "v/v"},{"name":"CEC","family":"Volumetric CEC","unit": "meq/g"},{"name":"Grain Density","family":"Grain Density","unit": "g/cm3"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"}],"parameters":[]}</t>
-  </si>
-  <si>
-    <t>{"icon":"water-bearing-shaly-sands-16x16","function":"qvWaterBearingShalySands","inputs":[{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"},{"name":"B","family":"Waxman B","unit":"L.S/eq.m"},{"name":"BQv","family":"Waxman BQv","unit":"S/m"}],"parameters":[{"name":"B method","type":"select","value":"Use B from formula","choices":["Use B from formula","Use B value"]},{"name":"B value","type":"number","value":0,"unit":"L.S/m"},{"name":"Temperature","type":"number","value":25,"unit":"degC"},{"name":"Water Resistivity","type":"number","value":0.03,"unit":"ohm.m"},{"name":"a*","type":"number","value":1},{"name":"m*","type":"number","value":2}]}</t>
-  </si>
-  <si>
-    <t>{"icon":"rw-from-sanlinity-temp-16x16","function":"RWfromSALandFTemp","inputs":[{"name":"Formation Temperature","family":"Formation Temperature","unit":"degF"},{"name":"Salinity","family":"Salinity","unit":"ppm"}],"outputs":[{"name":"RwX","family":"Formation Water Resistivity","unit":"ohm.m"}],"parameters":[]}</t>
-  </si>
-  <si>
-    <t>{"icon":"saturated-nacl-from-temp-16x16","function":"UfromSalinity","inputs":[{"name":"Salinity","family":"Salinity","unit": "ppk"}],"outputs":[{"name":"U","family":"Volumetric Photoelectric Effect","unit":"barns/cm3"}],"parameters":[]}</t>
-  </si>
-  <si>
-    <t>{"icon":"u-from-salinity-16x16","function":"saturatedSalinityConcentrationfromFTemp","inputs":[{"name":"Formation Temperature","family":"Formation Temperature","unit": "degF"}],"outputs":[{"name":"SAL_SAT","family":"Formation Water Salinity","unit":"ppk"}],"parameters":[]}</t>
-  </si>
-  <si>
-    <t>{"icon":"bad-hole-from-caliper-16x16","function":"badHoleFromCaliper","inputs":[{"name":"Caliper","family":"Caliper","unit":"in"}],"outputs":[{"name":"BH_FL_BS","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Cutoff","type":"number","value":0.5,"unit":"in"},{"name":"Bit Size","type":"number","value":12.5,"unit":"in"}],"options":[{"name":"Bit Size"}]}</t>
-  </si>
-  <si>
-    <t>{"icon":"bad-hole-from-drho-16x16","function":"badHoleFromDRHO","inputs":[{"name":"DENC","family":"Bulk Density Correction","unit":"g/cm3"}],"outputs":[{"name":"BH_FL_DRHO","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Correction Min","type":"number","value":0.1,"unit":"g/cm3"},{"name":"Bulk Density Correction Max","type":"number","value":0.6,"unit":"g/cm3"}]}</t>
-  </si>
-  <si>
-    <t>{"icon":"coal-flag-16x16","function":"coalFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Neutron Porosity","family":"Neutron Porosity","unit":"v/v","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true},{"name":"Resistivity","family":"Resistivity","allowNull":true}],"outputs":[{"name":"COAL_FL","family":"Coal Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":1.2,"max":2.2}]},{"name":"Neutron Porosity Cutoff","id":"Neutron Porosity Cutoff","type":"handsontable","tableType":"condition","unit":"v/v","value":[{"method":"Min &lt;= Value &lt; Max","min":0.3,"max":0.6}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":90,"max":150}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":0.16,"max":0.2}]},{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":900,"max":1000}]}]}</t>
-  </si>
-  <si>
-    <t>{"icon":"mud-salinity-and-resistivity-16x16","function":"mudSalinityAndResistivity","inputs":[{"name":"Formation Temperature","family":"Formation Temperature","unit": "degC"}],"outputs":[{"name":"RM","family":"Mud Resistivity","unit":"ohm.m"},{"name":"RMF","family":"Mud Filtrate Resistivity","unit":"ohm.m"},{"name":"RMC","family":"Mudcake Resistivity","unit":"ohm.m"},{"name":"SALM","family":"Mud Salinity","unit":"ppm"},{"name":"SALMF","family":"Mud Filtrate Salinity","unit":"ppm"}],"parameters":[{"name":"Mud Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mud Sample Temperature","type":"number","value":0,"unit":"degC"},{"name":"Mud Filtrate Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mud Filtrate Sample Temperature","type":"number","value":0,"unit":"degC"},{"name":"Mudcake Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mudcake Sample Temperature","type":"number","value":0,"unit":"degC"}]}</t>
-  </si>
-  <si>
-    <t>{"icon":"carbonate-flag-16x16","function":"carbonateFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Neutron Porosity","family":"Neutron Porosity","unit":"v/v","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true}],"outputs":[{"name":"CARBONATE_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.85,"max":3}]},{"name":"Neutron Porosity Cutoff","id":"Neutron Porosity Cutoff","type":"handsontable","tableType":"condition","unit":"v/v","value":[{"method":"Min &lt;= Value &lt; Max","min":0,"max":1}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":45,"max":55}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":5,"max":7}]}]}</t>
-  </si>
-  <si>
-    <t>{"icon":"halite-flag-16x16","function":"haliteFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true}],"outputs":[{"name":"HALITE_FL","family":"Halite Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.05,"max":2.15}]},{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":10000,"max":100000}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":60,"max":70}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":4.5,"max":5}]}]}</t>
-  </si>
-  <si>
-    <t>{"icon":"anhydrite-flag-16x16","function":"anhydriteFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true}],"outputs":[{"name":"ANHYDRITE_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.85,"max":3}]},{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":10000,"max":100000}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":55,"max":60}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":4.5,"max":5}]}]}</t>
-  </si>
-  <si>
-    <t>{"icon":"custom-flag-16x16","function":"customFlag","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"outputs":[{"name":"CUSTOM_FL_1","family":"General Flag","unit":"UNITLESS","parameters":[{"id":"Condition 1"}]}],"outputTemplate":{"name":"CUSTOM_FL","family":"General Flag","unit":"UNITLESS","parameters":[]},"outputsMultiple":true,"outputFromParameters":true,"parameters":[{"id":"Condition 1","name":"Condition 1","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt;= Value &lt; Max"}],"nameEditable":true}],"addParamFlag":true}</t>
-  </si>
-  <si>
-    <t>{"icon":"curve-resampling-16x16","transform":true,"function":"curveResampling","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_RESAMPLED"}],"parameters":[]}</t>
-  </si>
-  <si>
-    <t>{"icon":"basic-combination-16x16","transform":true,"multiple":true,"function":"basicCombinations","inputs":[{"name":"Input curve"},{"name":"Input curve"}],"outputs":[{"name":"Combination curve","family":"Compressional Slowness","unit":"us/ft"}],"allowZone":false,"parameters":[{"name":"Method","type":"select","value":"+","choices":["+","-","*","/","min","max","average","median"]}]}</t>
-  </si>
-  <si>
-    <t>{"icon":"linear-combination-16x16","multiple":true,"transform":true,"addParamFlag":true,"function":"linearCombinations","inputs":[{"name":"Input curve"},{"name":"Input curve"}],"outputs":[{"name":"Combination curve","family":"Compressional Slowness","unit":"us/ft"}],"allowZone":false,"parameters":[{"name":"Coefficient 1","type":"number","value":1},{"name":"Coefficient 2","type":"number","value":1}]}</t>
-  </si>
-  <si>
-    <t>{"icon":"median-filter-16x16","function":"curveMedianFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_MED_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
-  </si>
-  <si>
-    <t>{"icon":"square-filter-16x16","function":"curveSquareFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_SQUARE_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
-  </si>
-  <si>
-    <t>{"icon":"bell-filter-16x16","function":"curveBellFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_BELL_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
-  </si>
-  <si>
-    <t>{"icon":"savisky-golay-filter-16x16","function":"curveSavGolFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_SAVGOL_FILTERED"}],"allowZone":false,"parameters":[{"name":"Derivative Order","type":"number","value":0},{"name":"Polynomial Order","type":"number","value":2},{"name":"Number Of Points","type":"number","value":5}]}</t>
-  </si>
-  <si>
-    <t>{"icon":"fft-filter-16x16","function":"curveFFTFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_FFT_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Cutoff","type":"number","value":100}]}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -811,985 +811,997 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.1"/>
+  <cols>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState ref="A2:C1048576">
+      <sortCondition ref="A1:A1048576"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A1:C1048576">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="100.640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="38.875" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="100.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.5" customHeight="1">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>99</v>
+      </c>
+      <c r="C43" t="s">
+        <v>100</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>102</v>
+      </c>
+      <c r="C44" t="s">
+        <v>100</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>104</v>
+      </c>
+      <c r="C45" t="s">
+        <v>100</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>106</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C50" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="C52" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C54" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C56" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C58" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="C61" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="C62" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="C63" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="C64" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="C65" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="C67" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C1048576">
-      <sortCondition ref="A1:A1048576"/>
-    </sortState>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C1048576">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21107"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="141" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{E25D3B57-1072-4318-AC51-543AA33A85C1}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{CDB374C5-DEE8-49B5-97C9-FE2669A89005}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12317" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12317" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="changes" sheetId="2" r:id="rId1"/>
@@ -214,7 +214,7 @@
     <t>{ "icon": "water-saturation-16x16", "function": "calSaturationDualWater", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Total Porosity", "family": "Total Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1, "unit": "unitless"}, { "name": "m*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.125, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Dua", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Dua", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Dua", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Dua", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qv", "family": "Volumetric CEC", "unit": "eq/L" } ] }</t>
   </si>
   <si>
-    <t>Effective Water Saturation</t>
+    <t>Equivalent Effective Sw</t>
   </si>
   <si>
     <t>{ "icon": "water-saturation-16x16", "function": "calSaturationEffective", "inputs": [ { "name": "Total Porosity", "family": "Total Porosity", "unit": "v/v" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Total Saturation", "family": "Water Saturation", "unit": "v/v" } ], "parameters": [], "outputs": [ { "name": "Sw_E", "family": "Water Saturation", "unit": "v/v" }, { "name": "Bvw_E", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
@@ -812,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1"/>
@@ -834,6 +834,11 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -853,9 +858,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21107"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="144" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{CDB374C5-DEE8-49B5-97C9-FE2669A89005}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{4038527E-CBFD-41F0-8935-CA8D63564E62}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12317" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12317" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="changes" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="154">
   <si>
     <t>update</t>
   </si>
@@ -235,7 +235,7 @@
     <t>{"icon":"multi-mineral-solver-16x16","function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":189,"NPHI":0.991,"RHOB":1.03,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.3,"min":0}},{"name":"Fluid","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"DT":["Peak Slowness","Peak Travel Time","Travel Time","Compressional Slowness","DTC.*","DT","SON.*","AC","DTTP.*","Acoustic"],"RHOB":["Bulk Density","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Corrected ZDL Density","DEN.*","RHOB","RHOZ","ZDEN.*","RHOZ","LDEN","Density"],"GR":["Gamma Ray","Gamma Ray 1","Gamma Ray Normalised","Gamma Ray Shale","Gamma Ray Squared","Russian Gamma Ray","PLT Gamma Ray","GR.*","ECGR.*","SGRC.*","GAM.*","HGR","EGR","SGR"],"NPHI":["Thermal Neutron Near Far Ratio","Compensated Neutron Porosity","Epithermal Neutron Porosity","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Russian Thermal Neutron Porosity","Thermal Neutron Porosity","NEU.*","TNP.*","NPHI.*","CNL.*","CNT.*","Porosity"],"POT":["Potassium Capture Relative Yield","Potassium Concentration","Potassium Radio Nuclide Activity","POT.*","Weight Fraction - Element"],"THOR":["Thorium Concentration","Thorium Radio Nuclide Activity","THOR.*"],"URAN":["Uranium Concentration","Uranium Radio Nuclide Activity","URA.*"],"PAI":[".*"]},"outputs":[],"outputConfigs":[{"name":"Minerals","family":"Mineral Volume","unit":"v/v","prefix":"V_"},{"name":"Synthetic Curves","suffix":"_SYN"}]}</t>
   </si>
   <si>
-    <t>Gradient FTemp</t>
+    <t>Gradient</t>
   </si>
   <si>
     <t>Formation Temperature</t>
@@ -244,28 +244,25 @@
     <t>{"icon":"gradient-ftemp-16x16","function":"gradientFTemp","inputs":[{"name":"Depth","family":"Measured Depth","unit":"m"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"Temperature Gradient","type":"number","value":0.03,"unit":"degC/m"},{"name":"TLI","type":"number","value":0,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"}]}</t>
   </si>
   <si>
-    <t>Log Interval FTemp</t>
+    <t>Log Interval</t>
   </si>
   <si>
     <t>{"icon":"log-interval-ftemp-16x16","function":"logIntervalFTemp","inputs":[{"name":"Depth","family":"Measured Depth","unit":"m"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"TLI","type":"number","value":0,"unit":"m"},{"name":"BLI","type":"number","value":0,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"},{"name":"Bottom Log Temperature","type":"number","value":120,"unit":"degC"}]}</t>
   </si>
   <si>
-    <t>Gradient FPress</t>
-  </si>
-  <si>
     <t>Hydrostatic Pressure</t>
   </si>
   <si>
     <t>{"icon":"gradient-fpress-16x16","function":"gradientFPress","inputs":[{"name":"True Vertical Depth","family":"True Vertical Depth","unit":"m"}],"outputs":[{"name":"FPRESS","family":"Hydrostatic Pressure","unit":"kPa"}],"parameters":[{"name":"Pressure Gradient","type":"number","value":9.792,"unit":"kPa/m"}]}</t>
   </si>
   <si>
-    <t>Mud Density FPress</t>
+    <t>Mud Density</t>
   </si>
   <si>
     <t>{"icon":"mud-density-fpress-16x16","function":"mudDensityFPress","inputs":[{"name":"True Vertical Depth","family":"True Vertical Depth","unit":"m"}],"outputs":[{"name":"FPRESS","family":"Hydrostatic Pressure","unit":"kPa"}],"parameters":[{"name":"Drilling Fluid Density","type":"number","value":1,"unit":"kg/m3"}]}</t>
   </si>
   <si>
-    <t>Normalize Qv</t>
+    <t>Normalized</t>
   </si>
   <si>
     <t>Qv</t>
@@ -274,13 +271,13 @@
     <t>{"icon":"normalized-qv-16x16","function":"normalizeQv","inputs":[{"name":"Porosity","family":"Porosity","unit": "v/v"},{"name":"Shale Volume","family":"Shale Volume","unit": "v/v"}],"outputs":[{"name":"QVn","family":"Normalised Qv","unit":"v/v"}],"parameters":[{"name":"Porosity Shale","type":"number","value":0.4,"unit":"v/v"}]}</t>
   </si>
   <si>
-    <t>CEC Qv</t>
+    <t>Function of CEC</t>
   </si>
   <si>
     <t>{"icon":"cec-qv-16x16","function":"cecQv","inputs":[{"name":"Porosity","family":"Porosity","unit": "v/v"},{"name":"CEC","family":"Volumetric CEC","unit": "meq/g"},{"name":"Grain Density","family":"Grain Density","unit": "g/cm3"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"}],"parameters":[]}</t>
   </si>
   <si>
-    <t>Water Bearing Shaly Sands</t>
+    <t>Water-Bearing Shaly Sand</t>
   </si>
   <si>
     <t>{"icon":"water-bearing-shaly-sands-16x16","function":"qvWaterBearingShalySands","inputs":[{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"},{"name":"B","family":"Waxman B","unit":"L.S/eq.m"},{"name":"BQv","family":"Waxman BQv","unit":"S/m"}],"parameters":[{"name":"B method","type":"select","value":"Use B from formula","choices":["Use B from formula","Use B value"]},{"name":"B value","type":"number","value":0,"unit":"L.S/m"},{"name":"Temperature","type":"number","value":25,"unit":"degC"},{"name":"Water Resistivity","type":"number","value":0.03,"unit":"ohm.m"},{"name":"a*","type":"number","value":1},{"name":"m*","type":"number","value":2}]}</t>
@@ -361,7 +358,7 @@
     <t>{"icon":"custom-flag-16x16","function":"customFlag","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"outputs":[{"name":"CUSTOM_FL_1","family":"General Flag","unit":"UNITLESS","parameters":[{"id":"Condition 1"}]}],"outputTemplate":{"name":"CUSTOM_FL","family":"General Flag","unit":"UNITLESS","parameters":[]},"outputsMultiple":true,"outputFromParameters":true,"parameters":[{"id":"Condition 1","name":"Condition 1","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt;= Value &lt; Max"}],"nameEditable":true}],"addParamFlag":true}</t>
   </si>
   <si>
-    <t>TVD Conversion</t>
+    <t>TVD Conputation</t>
   </si>
   <si>
     <t>{"icon":"true-vertical-depth-16x16","function":"tvdConvserion","allowZone":false,"inputs":[{"name":"Deviation","family":"Hole Deviation","unit":"Deg"},{"name":"Azimuth","family":"Hole Azimuth","unit":"Deg"}],"outputs":[{"name":"TVD","family":"True Vertical Depth","unit":"m", "disableEditing":"namefamilyunit"},{"name":"TVDSS","family":"True Vertical Depth Sub Sea","unit":"m", "disableEditing":"namefamilyunit"},{"name":"XOFFSET","family":"X Offset","unit":"m", "disableEditing":"namefamilyunit"},{"name":"YOFFSET","family":"Y Offset","unit":"m", "disableEditing":"namefamilyunit"}],"parameters":[{"name":"TVD Mode","type":"select","choices":["On Shore","Off Shore"],"value":"Off Shore"},{"name":"Elevator","type":"number","value":0, "unit": "m"},{"name":"X reference at","type":"number","value":0, "unit": "m"},{"name":"Y reference at","type":"number","value":0, "unit": "m"},{"name":"Method","type":"select","choices":["Average Angle","Balanced Tangential","Radius Curvature","Minimum Curvature"],"value":"Minimum Curvature"}]}</t>
@@ -409,7 +406,7 @@
     <t>{"icon":"curve-derivation-16x16","transform":true,"function":"curveDerivation","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"name":"First Derivation","suffix":"_1ST_DERIVATION","use":true},{"name":"Second Derivation","suffix":"_2ND_DERIVATION","use":true}],"allowZone":false,"parameters":[]}</t>
   </si>
   <si>
-    <t>Curve Rescaling</t>
+    <t>Curve Rescale</t>
   </si>
   <si>
     <t>{"icon":"curve-rescale-16x16","transform":true,"function":"curveRescaling","multiple":true,"minInputs":1,"inputs":[{"name":"Rescale curve"}],"outputs":[],"outputConfigs":[{"suffix":"_RESCALING"}],"allowZone":false,"parameters":[{"name":"Input left scale","type":"number","value":0},{"name":"Input right scale","type":"number","value":1},{"name":"Output left scale","type":"number","value":0},{"name":"Output right scale","type":"number","value":1}],"parameterActions":[{"name":"myFunc","icon":"ti-check","label":"some Action"},{"name":"myFunc1","icon":"ti-close","label":"some Action1"}]}</t>
@@ -812,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1"/>
@@ -838,7 +835,42 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>26</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -859,8 +891,8 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1"/>
@@ -1315,13 +1347,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
         <v>73</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1329,13 +1361,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1343,13 +1375,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
         <v>78</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1357,13 +1389,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1371,13 +1403,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1385,13 +1417,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" t="s">
         <v>85</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1399,13 +1431,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1413,13 +1445,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1427,10 +1459,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1438,13 +1470,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" t="s">
         <v>94</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1452,13 +1484,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C42" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1466,13 +1498,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" t="s">
         <v>99</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1480,13 +1512,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C44" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1494,13 +1526,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C45" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1508,13 +1540,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C46" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1522,10 +1554,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1533,10 +1565,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1544,13 +1576,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s">
         <v>112</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1558,13 +1590,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1572,13 +1604,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C51" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1586,13 +1618,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C52" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1600,13 +1632,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" t="s">
         <v>121</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1614,13 +1646,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C54" t="s">
-        <v>122</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1628,13 +1660,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C55" t="s">
-        <v>122</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1642,13 +1674,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C56" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1656,13 +1688,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" t="s">
         <v>130</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1670,13 +1702,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C58" t="s">
-        <v>131</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1684,13 +1716,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" t="s">
         <v>135</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1698,13 +1730,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1712,13 +1744,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" t="s">
         <v>140</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1726,13 +1758,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C62" t="s">
-        <v>141</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1740,13 +1772,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C63" t="s">
-        <v>141</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1754,13 +1786,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C64" t="s">
-        <v>141</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1768,13 +1800,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C65" t="s">
-        <v>141</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1782,13 +1814,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C66" t="s">
-        <v>141</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1796,13 +1828,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C67" t="s">
-        <v>141</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="162" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{4038527E-CBFD-41F0-8935-CA8D63564E62}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{B957F566-0F07-46C1-A322-3F436971694D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12317" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12323" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="changes" sheetId="2" r:id="rId1"/>
@@ -364,18 +364,9 @@
     <t>{"icon":"true-vertical-depth-16x16","function":"tvdConvserion","allowZone":false,"inputs":[{"name":"Deviation","family":"Hole Deviation","unit":"Deg"},{"name":"Azimuth","family":"Hole Azimuth","unit":"Deg"}],"outputs":[{"name":"TVD","family":"True Vertical Depth","unit":"m", "disableEditing":"namefamilyunit"},{"name":"TVDSS","family":"True Vertical Depth Sub Sea","unit":"m", "disableEditing":"namefamilyunit"},{"name":"XOFFSET","family":"X Offset","unit":"m", "disableEditing":"namefamilyunit"},{"name":"YOFFSET","family":"Y Offset","unit":"m", "disableEditing":"namefamilyunit"}],"parameters":[{"name":"TVD Mode","type":"select","choices":["On Shore","Off Shore"],"value":"Off Shore"},{"name":"Elevator","type":"number","value":0, "unit": "m"},{"name":"X reference at","type":"number","value":0, "unit": "m"},{"name":"Y reference at","type":"number","value":0, "unit": "m"},{"name":"Method","type":"select","choices":["Average Angle","Balanced Tangential","Radius Curvature","Minimum Curvature"],"value":"Minimum Curvature"}]}</t>
   </si>
   <si>
-    <t>Basic Operations</t>
-  </si>
-  <si>
-    <t>Scalar Operations</t>
-  </si>
-  <si>
     <t>{"icon":"basic-operations-16x16","function":"basicOperations","transform":true,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_OUT"}],"allowZone":false,"parameters":[{"name":"Method","type":"select","value":"+","choices":["+","-","*","/"]},{"name":"Constant","type":"number","value":3.141592653589793}]}</t>
   </si>
   <si>
-    <t>Pow</t>
-  </si>
-  <si>
     <t>{"icon":"pow-16x16","transform":true,"function":"pow","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_POW"}],"allowZone":false,"parameters":[{"name":"Exponent","type":"number","value":3.141592653589793}]}</t>
   </si>
   <si>
@@ -391,12 +382,6 @@
     <t>{"icon":"limit-16x16","transform":true,"function":"limit","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_LIMIT"}],"allowZone":false,"parameters":[{"name":"Min","type":"number","value":0},{"name":"Max","type":"number","value":1}]}</t>
   </si>
   <si>
-    <t>Functional Transforms</t>
-  </si>
-  <si>
-    <t>Curve Transforms</t>
-  </si>
-  <si>
     <t>{"icon":"functional-transformations-16x16","transform":true,"function":"functionalTransforms","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_OUT"}],"parameters":[{"name":"Method","type":"select","value":"pow10","choices":["pow10","sqrt","loge","log10","abs","inv","acos","asin","atan","cos","sin","tan","exp","exp10"]}]}</t>
   </si>
   <si>
@@ -406,9 +391,6 @@
     <t>{"icon":"curve-derivation-16x16","transform":true,"function":"curveDerivation","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"name":"First Derivation","suffix":"_1ST_DERIVATION","use":true},{"name":"Second Derivation","suffix":"_2ND_DERIVATION","use":true}],"allowZone":false,"parameters":[]}</t>
   </si>
   <si>
-    <t>Curve Rescale</t>
-  </si>
-  <si>
     <t>{"icon":"curve-rescale-16x16","transform":true,"function":"curveRescaling","multiple":true,"minInputs":1,"inputs":[{"name":"Rescale curve"}],"outputs":[],"outputConfigs":[{"suffix":"_RESCALING"}],"allowZone":false,"parameters":[{"name":"Input left scale","type":"number","value":0},{"name":"Input right scale","type":"number","value":1},{"name":"Output left scale","type":"number","value":0},{"name":"Output right scale","type":"number","value":1}],"parameterActions":[{"name":"myFunc","icon":"ti-check","label":"some Action"},{"name":"myFunc1","icon":"ti-close","label":"some Action1"}]}</t>
   </si>
   <si>
@@ -433,27 +415,15 @@
     <t>{"icon":"curve-resampling-16x16","transform":true,"function":"curveResampling","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_RESAMPLED"}],"parameters":[]}</t>
   </si>
   <si>
-    <t>Basic Combinations</t>
-  </si>
-  <si>
-    <t>Curve Combinations</t>
-  </si>
-  <si>
     <t>{"icon":"basic-combination-16x16","transform":true,"multiple":true,"function":"basicCombinations","inputs":[{"name":"Input curve"},{"name":"Input curve"}],"outputs":[{"name":"Combination curve","family":"Compressional Slowness","unit":"us/ft"}],"allowZone":false,"parameters":[{"name":"Method","type":"select","value":"+","choices":["+","-","*","/","min","max","average","median"]}]}</t>
   </si>
   <si>
-    <t>Linear Combinations</t>
-  </si>
-  <si>
     <t>{"icon":"linear-combination-16x16","multiple":true,"transform":true,"addParamFlag":true,"function":"linearCombinations","inputs":[{"name":"Input curve"},{"name":"Input curve"}],"outputs":[{"name":"Combination curve","family":"Compressional Slowness","unit":"us/ft"}],"allowZone":false,"parameters":[{"name":"Coefficient 1","type":"number","value":1},{"name":"Coefficient 2","type":"number","value":1}]}</t>
   </si>
   <si>
     <t>Median Filter</t>
   </si>
   <si>
-    <t>Curve Filters</t>
-  </si>
-  <si>
     <t>{"icon":"median-filter-16x16","function":"curveMedianFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_MED_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
   </si>
   <si>
@@ -469,9 +439,6 @@
     <t>{"icon":"bell-filter-16x16","function":"curveBellFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_BELL_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
   </si>
   <si>
-    <t>Savitsky Golay Filter</t>
-  </si>
-  <si>
     <t>{"icon":"savisky-golay-filter-16x16","function":"curveSavGolFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_SAVGOL_FILTERED"}],"allowZone":false,"parameters":[{"name":"Derivative Order","type":"number","value":0},{"name":"Polynomial Order","type":"number","value":2},{"name":"Number Of Points","type":"number","value":5}]}</t>
   </si>
   <si>
@@ -491,17 +458,50 @@
   </si>
   <si>
     <t>{"icon":"curve-deconvolution-16x16","function":"curveDeconvolution","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_DECONV_FILTERED"}],"allowZone":false,"paramMultiple":true,"parameters":[{"name":"Coefficient 1","type":"number","value":1,"removeable":false},{"name":"Coefficient 2","type":"number","value":0,"removeable":false},{"name":"Coefficient 3","type":"number","value":1,"removeable":false}],"parameterActions":[{"name":"addParam","icon":"ti-plus","label":"Add parameter"}]}</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Basic Operation</t>
+  </si>
+  <si>
+    <t>Scalar Operation</t>
+  </si>
+  <si>
+    <t>Curve Combination</t>
+  </si>
+  <si>
+    <t>Basic Combination</t>
+  </si>
+  <si>
+    <t>Linear Combination</t>
+  </si>
+  <si>
+    <t>Curve Transformation</t>
+  </si>
+  <si>
+    <t>Functional Transformation</t>
+  </si>
+  <si>
+    <t>Curve Rescaling</t>
+  </si>
+  <si>
+    <t>Curve Filter</t>
+  </si>
+  <si>
+    <t>Savitsky-Golay Filter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -811,18 +811,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -833,42 +833,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>35</v>
       </c>
@@ -890,22 +890,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="38.875" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="100.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" customWidth="1"/>
+    <col min="2" max="2" width="38.86328125" customWidth="1"/>
+    <col min="3" max="3" width="23.86328125" customWidth="1"/>
+    <col min="4" max="4" width="100.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -925,7 +925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -939,7 +939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -953,7 +953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -967,7 +967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -981,7 +981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -995,7 +995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.5" customHeight="1">
+    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1571,270 +1571,270 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C49" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="C50" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C58" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C61" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C63" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C64" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C65" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C66" t="s">
+        <v>152</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" t="s">
         <v>152</v>
       </c>
-      <c r="C67" t="s">
-        <v>140</v>
-      </c>
       <c r="D67" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="177" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{B957F566-0F07-46C1-A322-3F436971694D}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{C124310D-77F8-4BFB-9BDE-FE396D8FE6E5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12323" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12323" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="changes" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">changes!$A:$C</definedName>
   </definedNames>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -361,12 +361,21 @@
     <t>TVD Conputation</t>
   </si>
   <si>
-    <t>{"icon":"true-vertical-depth-16x16","function":"tvdConvserion","allowZone":false,"inputs":[{"name":"Deviation","family":"Hole Deviation","unit":"Deg"},{"name":"Azimuth","family":"Hole Azimuth","unit":"Deg"}],"outputs":[{"name":"TVD","family":"True Vertical Depth","unit":"m", "disableEditing":"namefamilyunit"},{"name":"TVDSS","family":"True Vertical Depth Sub Sea","unit":"m", "disableEditing":"namefamilyunit"},{"name":"XOFFSET","family":"X Offset","unit":"m", "disableEditing":"namefamilyunit"},{"name":"YOFFSET","family":"Y Offset","unit":"m", "disableEditing":"namefamilyunit"}],"parameters":[{"name":"TVD Mode","type":"select","choices":["On Shore","Off Shore"],"value":"Off Shore"},{"name":"Elevator","type":"number","value":0, "unit": "m"},{"name":"X reference at","type":"number","value":0, "unit": "m"},{"name":"Y reference at","type":"number","value":0, "unit": "m"},{"name":"Method","type":"select","choices":["Average Angle","Balanced Tangential","Radius Curvature","Minimum Curvature"],"value":"Minimum Curvature"}]}</t>
+    <t>{"icon":"true-vertical-depth-16x16","function":"tvdConvserion","allowZone":false,"inputs":[{"name":"Deviation","family":"Hole Deviation","unit":"Deg"},{"name":"Azimuth","family":"Hole Azimuth","unit":"Deg"}],"outputs":[{"name":"TVD","family":"True Vertical Depth","unit":"m", "disableEditing":"namefamilyunit"},{"name":"TVDSS","family":"True Vertical Depth Sub Sea","unit":"m", "disableEditing":"namefamilyunit"},{"name":"XOFFSET","family":"X Offset","unit":"m", "disableEditing":"namefamilyunit"},{"name":"YOFFSET","family":"Y Offset","unit":"m", "disableEditing":"namefamilyunit"}],"parameters":[{"name":"TVD Mode","type":"select","choices":["On Shore","Off Shore"],"value":"Off Shore"},{"name":"Elevator","type":"number","value":0, "unit": "m"},{"name":"X reference at","type":"number","value":0, "unit": "m"},{"name":"Y reference at","type":"number","value":0, "unit": "m"},{"name":"Method","type":"select","choices":["Average Angle","Balanced Tangential","Radius Curvature","Minimum Curvature"],"value":"Minimum Curvature"}], "outputDataset": "INDEX"}</t>
+  </si>
+  <si>
+    <t>Basic Operation</t>
+  </si>
+  <si>
+    <t>Scalar Operation</t>
   </si>
   <si>
     <t>{"icon":"basic-operations-16x16","function":"basicOperations","transform":true,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_OUT"}],"allowZone":false,"parameters":[{"name":"Method","type":"select","value":"+","choices":["+","-","*","/"]},{"name":"Constant","type":"number","value":3.141592653589793}]}</t>
   </si>
   <si>
+    <t>Power</t>
+  </si>
+  <si>
     <t>{"icon":"pow-16x16","transform":true,"function":"pow","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_POW"}],"allowZone":false,"parameters":[{"name":"Exponent","type":"number","value":3.141592653589793}]}</t>
   </si>
   <si>
@@ -382,6 +391,12 @@
     <t>{"icon":"limit-16x16","transform":true,"function":"limit","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_LIMIT"}],"allowZone":false,"parameters":[{"name":"Min","type":"number","value":0},{"name":"Max","type":"number","value":1}]}</t>
   </si>
   <si>
+    <t>Functional Transformation</t>
+  </si>
+  <si>
+    <t>Curve Transformation</t>
+  </si>
+  <si>
     <t>{"icon":"functional-transformations-16x16","transform":true,"function":"functionalTransforms","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_OUT"}],"parameters":[{"name":"Method","type":"select","value":"pow10","choices":["pow10","sqrt","loge","log10","abs","inv","acos","asin","atan","cos","sin","tan","exp","exp10"]}]}</t>
   </si>
   <si>
@@ -391,6 +406,9 @@
     <t>{"icon":"curve-derivation-16x16","transform":true,"function":"curveDerivation","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"name":"First Derivation","suffix":"_1ST_DERIVATION","use":true},{"name":"Second Derivation","suffix":"_2ND_DERIVATION","use":true}],"allowZone":false,"parameters":[]}</t>
   </si>
   <si>
+    <t>Curve Rescaling</t>
+  </si>
+  <si>
     <t>{"icon":"curve-rescale-16x16","transform":true,"function":"curveRescaling","multiple":true,"minInputs":1,"inputs":[{"name":"Rescale curve"}],"outputs":[],"outputConfigs":[{"suffix":"_RESCALING"}],"allowZone":false,"parameters":[{"name":"Input left scale","type":"number","value":0},{"name":"Input right scale","type":"number","value":1},{"name":"Output left scale","type":"number","value":0},{"name":"Output right scale","type":"number","value":1}],"parameterActions":[{"name":"myFunc","icon":"ti-check","label":"some Action"},{"name":"myFunc1","icon":"ti-close","label":"some Action1"}]}</t>
   </si>
   <si>
@@ -415,15 +433,27 @@
     <t>{"icon":"curve-resampling-16x16","transform":true,"function":"curveResampling","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_RESAMPLED"}],"parameters":[]}</t>
   </si>
   <si>
+    <t>Basic Combination</t>
+  </si>
+  <si>
+    <t>Curve Combination</t>
+  </si>
+  <si>
     <t>{"icon":"basic-combination-16x16","transform":true,"multiple":true,"function":"basicCombinations","inputs":[{"name":"Input curve"},{"name":"Input curve"}],"outputs":[{"name":"Combination curve","family":"Compressional Slowness","unit":"us/ft"}],"allowZone":false,"parameters":[{"name":"Method","type":"select","value":"+","choices":["+","-","*","/","min","max","average","median"]}]}</t>
   </si>
   <si>
+    <t>Linear Combination</t>
+  </si>
+  <si>
     <t>{"icon":"linear-combination-16x16","multiple":true,"transform":true,"addParamFlag":true,"function":"linearCombinations","inputs":[{"name":"Input curve"},{"name":"Input curve"}],"outputs":[{"name":"Combination curve","family":"Compressional Slowness","unit":"us/ft"}],"allowZone":false,"parameters":[{"name":"Coefficient 1","type":"number","value":1},{"name":"Coefficient 2","type":"number","value":1}]}</t>
   </si>
   <si>
     <t>Median Filter</t>
   </si>
   <si>
+    <t>Curve Filter</t>
+  </si>
+  <si>
     <t>{"icon":"median-filter-16x16","function":"curveMedianFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_MED_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
   </si>
   <si>
@@ -439,6 +469,9 @@
     <t>{"icon":"bell-filter-16x16","function":"curveBellFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_BELL_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
   </si>
   <si>
+    <t>Savitsky-Golay Filter</t>
+  </si>
+  <si>
     <t>{"icon":"savisky-golay-filter-16x16","function":"curveSavGolFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_SAVGOL_FILTERED"}],"allowZone":false,"parameters":[{"name":"Derivative Order","type":"number","value":0},{"name":"Polynomial Order","type":"number","value":2},{"name":"Number Of Points","type":"number","value":5}]}</t>
   </si>
   <si>
@@ -458,46 +491,13 @@
   </si>
   <si>
     <t>{"icon":"curve-deconvolution-16x16","function":"curveDeconvolution","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_DECONV_FILTERED"}],"allowZone":false,"paramMultiple":true,"parameters":[{"name":"Coefficient 1","type":"number","value":1,"removeable":false},{"name":"Coefficient 2","type":"number","value":0,"removeable":false},{"name":"Coefficient 3","type":"number","value":1,"removeable":false}],"parameterActions":[{"name":"addParam","icon":"ti-plus","label":"Add parameter"}]}</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>Basic Operation</t>
-  </si>
-  <si>
-    <t>Scalar Operation</t>
-  </si>
-  <si>
-    <t>Curve Combination</t>
-  </si>
-  <si>
-    <t>Basic Combination</t>
-  </si>
-  <si>
-    <t>Linear Combination</t>
-  </si>
-  <si>
-    <t>Curve Transformation</t>
-  </si>
-  <si>
-    <t>Functional Transformation</t>
-  </si>
-  <si>
-    <t>Curve Rescaling</t>
-  </si>
-  <si>
-    <t>Curve Filter</t>
-  </si>
-  <si>
-    <t>Savitsky-Golay Filter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -809,20 +809,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -833,44 +833,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3">
         <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -890,22 +855,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" customWidth="1"/>
-    <col min="2" max="2" width="38.86328125" customWidth="1"/>
-    <col min="3" max="3" width="23.86328125" customWidth="1"/>
-    <col min="4" max="4" width="100.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="100.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -925,7 +890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -939,7 +904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -953,7 +918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -967,7 +932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -981,7 +946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -995,7 +960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1009,7 +974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1023,7 +988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1037,7 +1002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1051,7 +1016,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1065,7 +1030,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1079,7 +1044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1093,7 +1058,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1107,7 +1072,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1121,7 +1086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1135,7 +1100,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="13.5" customHeight="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1149,7 +1114,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1163,7 +1128,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1177,7 +1142,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1191,7 +1156,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1205,7 +1170,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1219,7 +1184,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1233,7 +1198,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1247,7 +1212,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1261,7 +1226,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1275,7 +1240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1289,7 +1254,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1303,7 +1268,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1314,7 +1279,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1328,7 +1293,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1342,7 +1307,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1356,7 +1321,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1370,7 +1335,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1384,7 +1349,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1398,7 +1363,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1412,7 +1377,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1426,7 +1391,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1440,7 +1405,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1454,7 +1419,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1465,7 +1430,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1479,7 +1444,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1493,7 +1458,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1507,7 +1472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1521,7 +1486,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1535,7 +1500,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1549,7 +1514,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1560,7 +1525,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1571,270 +1536,270 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C54" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" t="s">
         <v>121</v>
       </c>
-      <c r="C56" t="s">
-        <v>149</v>
-      </c>
       <c r="D56" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C57" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C58" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C59" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C60" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C62" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C64" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="180" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{C124310D-77F8-4BFB-9BDE-FE396D8FE6E5}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{24CD2692-0538-4B3F-95EF-F555E848FE86}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12323" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12323" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="changes" sheetId="2" r:id="rId1"/>
@@ -424,9 +424,6 @@
     <t>Curve Interpolation</t>
   </si>
   <si>
-    <t>{"icon":"curve-fill-data-gaps-16x16","transform":true,"function":"curveFilling","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_FILLED"}],"parameters":[{"name":"Gaps Maximum Width","type":"number","value":13},{"name":"Width Type","type":"select","value":"In samples","choices":["In samples","In reference"]}]}</t>
-  </si>
-  <si>
     <t>Curve Resampling</t>
   </si>
   <si>
@@ -491,13 +488,16 @@
   </si>
   <si>
     <t>{"icon":"curve-deconvolution-16x16","function":"curveDeconvolution","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_DECONV_FILTERED"}],"allowZone":false,"paramMultiple":true,"parameters":[{"name":"Coefficient 1","type":"number","value":1,"removeable":false},{"name":"Coefficient 2","type":"number","value":0,"removeable":false},{"name":"Coefficient 3","type":"number","value":1,"removeable":false}],"parameterActions":[{"name":"addParam","icon":"ti-plus","label":"Add parameter"}]}</t>
+  </si>
+  <si>
+    <t>{ "icon": "curve-fill-data-gaps-16x16", "transform": true, "function": "curveFilling", "multiple": true, "minInputs": 1, "inputs": [ { "name": "Input curve" } ], "outputs": [], "outputConfigs": [ { "suffix": "_FILLED" } ], "parameters": [ { "name": "Gaps Maximum Width", "type": "number", "value": 13 }, { "name": "Width Type", "type": "select", "value": "In samples", "choices": [ "In samples", "In reference" ] }, { "name": "Mode", "type": "select", "value": "linear interpolation", "choices": [ "top value", "bottom value", "linear interpolation", "constant" ] }, { "name": "Constant", "type": "number", "value": 100 } ] }</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -811,18 +811,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -833,18 +833,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState ref="A2:C1048576">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C1048576">
       <sortCondition ref="A1:A1048576"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A1:C1048576">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C1048576">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -855,22 +855,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="100.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" customWidth="1"/>
+    <col min="2" max="2" width="38.86328125" customWidth="1"/>
+    <col min="3" max="3" width="23.86328125" customWidth="1"/>
+    <col min="4" max="4" width="100.73046875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -890,7 +890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -904,7 +904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -918,7 +918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -932,7 +932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -946,7 +946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -960,7 +960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -974,7 +974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -988,7 +988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.5" customHeight="1">
+    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1659,147 +1659,147 @@
         <v>130</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C58" t="s">
         <v>130</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" t="s">
         <v>134</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C60" t="s">
-        <v>135</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" t="s">
         <v>139</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C62" t="s">
-        <v>140</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C63" t="s">
-        <v>140</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C64" t="s">
-        <v>140</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C65" t="s">
-        <v>140</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C66" t="s">
-        <v>140</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" t="s">
+        <v>139</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C67" t="s">
-        <v>140</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="184" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{24CD2692-0538-4B3F-95EF-F555E848FE86}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{FC9A667F-6615-4414-9D76-06A6C0D90649}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12323" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="changes" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="158">
   <si>
     <t>update</t>
   </si>
@@ -491,6 +491,18 @@
   </si>
   <si>
     <t>{ "icon": "curve-fill-data-gaps-16x16", "transform": true, "function": "curveFilling", "multiple": true, "minInputs": 1, "inputs": [ { "name": "Input curve" } ], "outputs": [], "outputConfigs": [ { "suffix": "_FILLED" } ], "parameters": [ { "name": "Gaps Maximum Width", "type": "number", "value": 13 }, { "name": "Width Type", "type": "select", "value": "In samples", "choices": [ "In samples", "In reference" ] }, { "name": "Mode", "type": "select", "value": "linear interpolation", "choices": [ "top value", "bottom value", "linear interpolation", "constant" ] }, { "name": "Constant", "type": "number", "value": 100 } ] }</t>
+  </si>
+  <si>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationQuickLook", "inputs": [ { "name": "Micro Resistivity", "family": "Micro Resistivity", "unit": "ohm.m" }, { "name": "Resistivity", "family": "Resistivity", "unit": "ohm.m" } ], "parameters": [ { "name": "Rw", "type": "number", "value": 0.03 }, { "name": "Rmf", "type": "number", "value": 0.1 } ], "outputs": [ { "name": "Sw_QL", "family": "Water Saturation", "unit": "v/v" } ] }</t>
+  </si>
+  <si>
+    <t>Quick Look Sw</t>
+  </si>
+  <si>
+    <t>Merge Curve</t>
+  </si>
+  <si>
+    <t>{ "icon": "linear-combination-16x16", "multiple": true, "function": "mergedCurve", "inputs": [ { "name": "Input curve" }, { "name": "Input curve" } ], "parameters": [ { "name": "overlap", "type": "select", "choices": ["position","mean"], "value": "position" } ], "outputs": [], "outputConfigs": [ { "suffix": "_MERGED" } ], "allowZone": false }</t>
   </si>
 </sst>
 </file>
@@ -809,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -834,8 +846,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>56</v>
+      <c r="B2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -853,11 +870,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1802,6 +1819,34 @@
         <v>152</v>
       </c>
     </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" t="s">
+        <v>134</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="198" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{FC9A667F-6615-4414-9D76-06A6C0D90649}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{429A65C0-7555-49B6-AEA2-A634D2300405}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="changes" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="156">
   <si>
     <t>update</t>
   </si>
@@ -397,9 +397,6 @@
     <t>Curve Transformation</t>
   </si>
   <si>
-    <t>{"icon":"functional-transformations-16x16","transform":true,"function":"functionalTransforms","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_OUT"}],"parameters":[{"name":"Method","type":"select","value":"pow10","choices":["pow10","sqrt","loge","log10","abs","inv","acos","asin","atan","cos","sin","tan","exp","exp10"]}]}</t>
-  </si>
-  <si>
     <t>Curve Derivation</t>
   </si>
   <si>
@@ -412,12 +409,6 @@
     <t>{"icon":"curve-rescale-16x16","transform":true,"function":"curveRescaling","multiple":true,"minInputs":1,"inputs":[{"name":"Rescale curve"}],"outputs":[],"outputConfigs":[{"suffix":"_RESCALING"}],"allowZone":false,"parameters":[{"name":"Input left scale","type":"number","value":0},{"name":"Input right scale","type":"number","value":1},{"name":"Output left scale","type":"number","value":0},{"name":"Output right scale","type":"number","value":1}],"parameterActions":[{"name":"myFunc","icon":"ti-check","label":"some Action"},{"name":"myFunc1","icon":"ti-close","label":"some Action1"}]}</t>
   </si>
   <si>
-    <t>Curve Splitting</t>
-  </si>
-  <si>
-    <t>{"icon":"curve-splice-interactive-16x16","transform":true,"function":"curveSplitting","inputs":[{"name":"Input curve"}],"outputs":[{"name":"Curve 1","family":"Compressional Slowness","unit":"us/ft"},{"name":"Curve 2","family":"Compressional Slowness","unit":"us/ft"},{"name":"Curve 3","family":"Compressional Slowness","unit":"us/ft"}],"paramMultiple":true,"parameters":[{"name":"Cut Point 1","type":"number","value":2,"removeable":false,"onRemove":"removeOutput"},{"name":"Cut Point 2","type":"number","value":2,"removeable":true,"onRemove":"removeOutput"}],"parameterActions":[{"name":["addParam","addOutput"],"icon":"ti-plus","label":"Add parameter"}]}</t>
-  </si>
-  <si>
     <t>Curve Filling</t>
   </si>
   <si>
@@ -427,9 +418,6 @@
     <t>Curve Resampling</t>
   </si>
   <si>
-    <t>{"icon":"curve-resampling-16x16","transform":true,"function":"curveResampling","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_RESAMPLED"}],"parameters":[]}</t>
-  </si>
-  <si>
     <t>Basic Combination</t>
   </si>
   <si>
@@ -490,9 +478,6 @@
     <t>{"icon":"curve-deconvolution-16x16","function":"curveDeconvolution","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_DECONV_FILTERED"}],"allowZone":false,"paramMultiple":true,"parameters":[{"name":"Coefficient 1","type":"number","value":1,"removeable":false},{"name":"Coefficient 2","type":"number","value":0,"removeable":false},{"name":"Coefficient 3","type":"number","value":1,"removeable":false}],"parameterActions":[{"name":"addParam","icon":"ti-plus","label":"Add parameter"}]}</t>
   </si>
   <si>
-    <t>{ "icon": "curve-fill-data-gaps-16x16", "transform": true, "function": "curveFilling", "multiple": true, "minInputs": 1, "inputs": [ { "name": "Input curve" } ], "outputs": [], "outputConfigs": [ { "suffix": "_FILLED" } ], "parameters": [ { "name": "Gaps Maximum Width", "type": "number", "value": 13 }, { "name": "Width Type", "type": "select", "value": "In samples", "choices": [ "In samples", "In reference" ] }, { "name": "Mode", "type": "select", "value": "linear interpolation", "choices": [ "top value", "bottom value", "linear interpolation", "constant" ] }, { "name": "Constant", "type": "number", "value": 100 } ] }</t>
-  </si>
-  <si>
     <t>{ "icon": "water-saturation-16x16", "function": "calSaturationQuickLook", "inputs": [ { "name": "Micro Resistivity", "family": "Micro Resistivity", "unit": "ohm.m" }, { "name": "Resistivity", "family": "Resistivity", "unit": "ohm.m" } ], "parameters": [ { "name": "Rw", "type": "number", "value": 0.03 }, { "name": "Rmf", "type": "number", "value": 0.1 } ], "outputs": [ { "name": "Sw_QL", "family": "Water Saturation", "unit": "v/v" } ] }</t>
   </si>
   <si>
@@ -503,6 +488,15 @@
   </si>
   <si>
     <t>{ "icon": "linear-combination-16x16", "multiple": true, "function": "mergedCurve", "inputs": [ { "name": "Input curve" }, { "name": "Input curve" } ], "parameters": [ { "name": "overlap", "type": "select", "choices": ["position","mean"], "value": "position" } ], "outputs": [], "outputConfigs": [ { "suffix": "_MERGED" } ], "allowZone": false }</t>
+  </si>
+  <si>
+    <t>{"icon":"functional-transformations-16x16","transform":true,"function":"functionalTransforms","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_OUT"}],"allowZone":false,"parameters":[{"name":"Method","type":"select","value":"pow10","choices":["pow10","sqrt","loge","log10","abs","inv","acos","asin","atan","cos","sin","tan","exp","exp10"]}]}</t>
+  </si>
+  <si>
+    <t>{ "icon": "curve-fill-data-gaps-16x16", "transform": true, "function": "curveFilling", "multiple": true, "minInputs": 1, "inputs": [ { "name": "Input curve" } ], "outputs": [], "outputConfigs": [ { "suffix": "_FILLED" } ],"allowZone":false, "parameters": [ { "name": "Gaps Maximum Width", "type": "number", "value": 13 }, { "name": "Width Type", "type": "select", "value": "In samples", "choices": [ "In samples", "In reference" ] }, { "name": "Mode", "type": "select", "value": "linear interpolation", "choices": [ "top value", "bottom value", "linear interpolation", "constant" ] }, { "name": "Constant", "type": "number", "value": 100 } ] }</t>
+  </si>
+  <si>
+    <t>{ "icon": "curve-resampling-16x16", "transform": true, "function": "curveResampling", "multiple": true, "minInputs": 1, "inputs": [ { "name": "Input curve" } ], "outputs": [], "outputConfigs": [ { "suffix": "_RESAMPLED" } ],"allowZone":false, "parameters": [ { "name": "Mode", "type": "select", "choices": ["Linear Interpolate", "Depth Shift (core)", "Block (core)"], "value": "Linear Interpolate" } ] }</t>
   </si>
 </sst>
 </file>
@@ -821,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -846,13 +840,21 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B2">
-        <v>67</v>
+      <c r="A2">
+        <v>52</v>
+      </c>
+      <c r="C2">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3">
-        <v>68</v>
+      <c r="A3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -870,11 +872,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1620,7 +1622,7 @@
         <v>121</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
@@ -1628,13 +1630,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C54" t="s">
         <v>121</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
@@ -1642,209 +1644,195 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C55" t="s">
         <v>121</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" t="s">
         <v>127</v>
       </c>
-      <c r="C56" t="s">
-        <v>121</v>
-      </c>
       <c r="D56" s="1" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C58" t="s">
         <v>130</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C59" t="s">
-        <v>134</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C60" t="s">
-        <v>134</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C61" t="s">
-        <v>139</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C62" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C63" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C64" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C65" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C66" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C67" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>156</v>
-      </c>
-      <c r="C69" t="s">
-        <v>134</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="212" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{429A65C0-7555-49B6-AEA2-A634D2300405}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{F335ABB5-0B3A-4F4C-B38E-7262B45B6CF5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,12 +478,6 @@
     <t>{"icon":"curve-deconvolution-16x16","function":"curveDeconvolution","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_DECONV_FILTERED"}],"allowZone":false,"paramMultiple":true,"parameters":[{"name":"Coefficient 1","type":"number","value":1,"removeable":false},{"name":"Coefficient 2","type":"number","value":0,"removeable":false},{"name":"Coefficient 3","type":"number","value":1,"removeable":false}],"parameterActions":[{"name":"addParam","icon":"ti-plus","label":"Add parameter"}]}</t>
   </si>
   <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationQuickLook", "inputs": [ { "name": "Micro Resistivity", "family": "Micro Resistivity", "unit": "ohm.m" }, { "name": "Resistivity", "family": "Resistivity", "unit": "ohm.m" } ], "parameters": [ { "name": "Rw", "type": "number", "value": 0.03 }, { "name": "Rmf", "type": "number", "value": 0.1 } ], "outputs": [ { "name": "Sw_QL", "family": "Water Saturation", "unit": "v/v" } ] }</t>
-  </si>
-  <si>
-    <t>Quick Look Sw</t>
-  </si>
-  <si>
     <t>Merge Curve</t>
   </si>
   <si>
@@ -494,6 +488,12 @@
   </si>
   <si>
     <t>{ "icon": "curve-fill-data-gaps-16x16", "transform": true, "function": "curveFilling", "multiple": true, "minInputs": 1, "inputs": [ { "name": "Input curve" } ], "outputs": [], "outputConfigs": [ { "suffix": "_FILLED" } ],"allowZone":false, "parameters": [ { "name": "Gaps Maximum Width", "type": "number", "value": 13 }, { "name": "Width Type", "type": "select", "value": "In samples", "choices": [ "In samples", "In reference" ] }, { "name": "Mode", "type": "select", "value": "linear interpolation", "choices": [ "top value", "bottom value", "linear interpolation", "constant" ] }, { "name": "Constant", "type": "number", "value": 100 } ] }</t>
+  </si>
+  <si>
+    <t>Non-poro Sw</t>
+  </si>
+  <si>
+    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationNonPoro", "inputs": [ { "name": "Micro Resistivity", "family": "Micro Resistivity", "unit": "ohm.m" }, { "name": "Resistivity", "family": "Resistivity", "unit": "ohm.m" } ], "parameters": [ { "name": "Rw", "type": "number", "value": 0.03 }, { "name": "Rmf", "type": "number", "value": 0.1 } ], "outputs": [ { "name": "Sw_QL", "family": "Water Saturation", "unit": "v/v" } ] }</t>
   </si>
   <si>
     <t>{ "icon": "curve-resampling-16x16", "transform": true, "function": "curveResampling", "multiple": true, "minInputs": 1, "inputs": [ { "name": "Input curve" } ], "outputs": [], "outputConfigs": [ { "suffix": "_RESAMPLED" } ],"allowZone":false, "parameters": [ { "name": "Mode", "type": "select", "choices": ["Linear Interpolate", "Depth Shift (core)", "Block (core)"], "value": "Linear Interpolate" } ] }</t>
@@ -815,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -841,20 +841,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>52</v>
-      </c>
-      <c r="C2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -876,7 +863,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1622,7 +1609,7 @@
         <v>121</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
@@ -1664,7 +1651,7 @@
         <v>127</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
@@ -1812,13 +1799,13 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C67" t="s">
         <v>45</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
@@ -1826,13 +1813,13 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C68" t="s">
         <v>130</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21406"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="230" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="42" xr6:coauthVersionMax="42" xr10:uidLastSave="{D597E1DC-C3AE-4E36-82B3-415CC5C2C05B}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="42" xr6:coauthVersionMax="42" xr10:uidLastSave="{4CF4034F-CB0E-48DB-B855-FD224FC7AFC2}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="changes" sheetId="2" r:id="rId1"/>
@@ -496,7 +496,7 @@
     <t>{ "icon": "curve-resampling-16x16", "transform": true, "function": "curveResampling", "multiple": true, "minInputs": 1, "inputs": [ { "name": "Input curve" } ], "outputs": [], "outputConfigs": [ { "suffix": "_RESAMPLED" } ],"allowZone":false, "parameters": [ { "name": "Mode", "type": "select", "choices": ["Linear Interpolate", "Depth Shift (core)", "Block (core)"], "value": "Linear Interpolate" } ] }</t>
   </si>
   <si>
-    <t>{"icon":"multi-mineral-solver-16x16","function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":189,"NPHI":0.991,"RHOB":1.03,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.3,"min":0}},{"name":"Fluid","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Gas","default":{"DT":265,"NPHI":0.2,"RHOB":0.1,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oil","default":{"DT":210,"NPHI":0.95,"RHOB":0.7,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Water","default":{"DT":189,"NPHI":1,"RHOB":1.05,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"DT":["Peak Slowness","Peak Travel Time","Travel Time","Compressional Slowness","DTC.*","DT","SON.*","AC","DTTP.*","Acoustic"],"RHOB":["Bulk Density","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Corrected ZDL Density","DEN.*","RHOB","RHOZ","ZDEN.*","RHOZ","LDEN","Density"],"GR":["Gamma Ray","Gamma Ray 1","Gamma Ray Normalised","Gamma Ray Shale","Gamma Ray Squared","Russian Gamma Ray","PLT Gamma Ray","GR.*","ECGR.*","SGRC.*","GAM.*","HGR","EGR","SGR"],"NPHI":["Thermal Neutron Near Far Ratio","Compensated Neutron Porosity","Epithermal Neutron Porosity","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Russian Thermal Neutron Porosity","Thermal Neutron Porosity","NEU.*","TNP.*","NPHI.*","CNL.*","CNT.*","Porosity"],"POT":["Potassium Capture Relative Yield","Potassium Concentration","Potassium Radio Nuclide Activity","POT.*","Weight Fraction - Element"],"THOR":["Thorium Concentration","Thorium Radio Nuclide Activity","THOR.*"],"URAN":["Uranium Concentration","Uranium Radio Nuclide Activity","URA.*"],"PAI":[".*"]},"outputs":[],"outputConfigs":[{"name":"Minerals","family":"Mineral Volume","unit":"v/v","prefix":"V_"},{"name":"Synthetic Curves","suffix":"_SYN","disableEditing":["family","unit"]}]}</t>
+    <t>{"icon":"multi-mineral-solver-16x16","function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":189,"NPHI":0.991,"RHOB":1.03,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.3,"min":0}},{"name":"Fluid","type":"Fluid","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Gas","default":{"DT":265,"NPHI":0.2,"RHOB":0.1,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oil","default":{"DT":210,"NPHI":0.95,"RHOB":0.7,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Water","default":{"DT":189,"NPHI":1,"RHOB":1.05,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"DT":["Peak Slowness","Peak Travel Time","Travel Time","Compressional Slowness","DTC.*","DT","SON.*","AC","DTTP.*","Acoustic"],"RHOB":["Bulk Density","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Corrected ZDL Density","DEN.*","RHOB","RHOZ","ZDEN.*","RHOZ","LDEN","Density"],"GR":["Gamma Ray","Gamma Ray 1","Gamma Ray Normalised","Gamma Ray Shale","Gamma Ray Squared","Russian Gamma Ray","PLT Gamma Ray","GR.*","ECGR.*","SGRC.*","GAM.*","HGR","EGR","SGR"],"NPHI":["Thermal Neutron Near Far Ratio","Compensated Neutron Porosity","Epithermal Neutron Porosity","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Russian Thermal Neutron Porosity","Thermal Neutron Porosity","NEU.*","TNP.*","NPHI.*","CNL.*","CNT.*","Porosity"],"POT":["Potassium Capture Relative Yield","Potassium Concentration","Potassium Radio Nuclide Activity","POT.*","Weight Fraction - Element"],"THOR":["Thorium Concentration","Thorium Radio Nuclide Activity","THOR.*"],"URAN":["Uranium Concentration","Uranium Radio Nuclide Activity","URA.*"],"PAI":[".*"]},"outputs":[],"outputConfigs":[{"name":"Minerals","family":"Mineral Volume","unit":"v/v","prefix":"V_"},{"name":"Synthetic Curves","suffix":"_SYN","disableEditing":["family","unit"]}]}</t>
   </si>
 </sst>
 </file>
@@ -816,7 +816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="235" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="42" xr6:coauthVersionMax="42" xr10:uidLastSave="{4CF4034F-CB0E-48DB-B855-FD224FC7AFC2}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="41" xr6:coauthVersionMax="42" xr10:uidLastSave="{E5FF68F0-667E-4AD8-8C5E-93280B8011D3}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="changes" sheetId="2" r:id="rId1"/>
@@ -496,7 +496,7 @@
     <t>{ "icon": "curve-resampling-16x16", "transform": true, "function": "curveResampling", "multiple": true, "minInputs": 1, "inputs": [ { "name": "Input curve" } ], "outputs": [], "outputConfigs": [ { "suffix": "_RESAMPLED" } ],"allowZone":false, "parameters": [ { "name": "Mode", "type": "select", "choices": ["Linear Interpolate", "Depth Shift (core)", "Block (core)"], "value": "Linear Interpolate" } ] }</t>
   </si>
   <si>
-    <t>{"icon":"multi-mineral-solver-16x16","function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":189,"NPHI":0.991,"RHOB":1.03,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.3,"min":0}},{"name":"Fluid","type":"Fluid","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Gas","default":{"DT":265,"NPHI":0.2,"RHOB":0.1,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oil","default":{"DT":210,"NPHI":0.95,"RHOB":0.7,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Water","default":{"DT":189,"NPHI":1,"RHOB":1.05,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"DT":["Peak Slowness","Peak Travel Time","Travel Time","Compressional Slowness","DTC.*","DT","SON.*","AC","DTTP.*","Acoustic"],"RHOB":["Bulk Density","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Corrected ZDL Density","DEN.*","RHOB","RHOZ","ZDEN.*","RHOZ","LDEN","Density"],"GR":["Gamma Ray","Gamma Ray 1","Gamma Ray Normalised","Gamma Ray Shale","Gamma Ray Squared","Russian Gamma Ray","PLT Gamma Ray","GR.*","ECGR.*","SGRC.*","GAM.*","HGR","EGR","SGR"],"NPHI":["Thermal Neutron Near Far Ratio","Compensated Neutron Porosity","Epithermal Neutron Porosity","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Russian Thermal Neutron Porosity","Thermal Neutron Porosity","NEU.*","TNP.*","NPHI.*","CNL.*","CNT.*","Porosity"],"POT":["Potassium Capture Relative Yield","Potassium Concentration","Potassium Radio Nuclide Activity","POT.*","Weight Fraction - Element"],"THOR":["Thorium Concentration","Thorium Radio Nuclide Activity","THOR.*"],"URAN":["Uranium Concentration","Uranium Radio Nuclide Activity","URA.*"],"PAI":[".*"]},"outputs":[],"outputConfigs":[{"name":"Minerals","family":"Mineral Volume","unit":"v/v","prefix":"V_"},{"name":"Synthetic Curves","suffix":"_SYN","disableEditing":["family","unit"]}]}</t>
+    <t>{"icon":"multi-mineral-solver-16x16","function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Fluid","type":"Fluid","default":{"DT":189,"NPHI":0.991,"RHOB":1.03,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.3,"min":0}},{"name":"Gas","default":{"DT":265,"NPHI":0.2,"RHOB":0.1,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oil","default":{"DT":210,"NPHI":0.95,"RHOB":0.7,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Water","default":{"DT":189,"NPHI":1,"RHOB":1.05,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"DT":["Peak Slowness","Peak Travel Time","Travel Time","Compressional Slowness","DTC.*","DT","SON.*","AC","DTTP.*","Acoustic"],"RHOB":["Bulk Density","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Corrected ZDL Density","DEN.*","RHOB","RHOZ","ZDEN.*","RHOZ","LDEN","Density"],"GR":["Gamma Ray","Gamma Ray 1","Gamma Ray Normalised","Gamma Ray Shale","Gamma Ray Squared","Russian Gamma Ray","PLT Gamma Ray","GR.*","ECGR.*","SGRC.*","GAM.*","HGR","EGR","SGR"],"NPHI":["Thermal Neutron Near Far Ratio","Compensated Neutron Porosity","Epithermal Neutron Porosity","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Russian Thermal Neutron Porosity","Thermal Neutron Porosity","NEU.*","TNP.*","NPHI.*","CNL.*","CNT.*","Porosity"],"POT":["Potassium Capture Relative Yield","Potassium Concentration","Potassium Radio Nuclide Activity","POT.*","Weight Fraction - Element"],"THOR":["Thorium Concentration","Thorium Radio Nuclide Activity","THOR.*"],"URAN":["Uranium Concentration","Uranium Radio Nuclide Activity","URA.*"],"PAI":[".*"]},"outputs":[],"outputConfigs":[{"name":"Minerals","family":"Mineral Volume","unit":"v/v","prefix":"V_"},{"name":"Synthetic Curves","suffix":"_SYN","disableEditing":["family","unit"]}]}</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -814,20 +814,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -836,11 +836,6 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -860,12 +855,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="38.85546875" customWidth="1"/>
@@ -875,7 +870,7 @@
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -895,7 +890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -909,7 +904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -923,7 +918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -937,7 +932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -951,7 +946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -965,7 +960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -979,7 +974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -993,7 +988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1007,7 +1002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1021,7 +1016,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1035,7 +1030,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1049,7 +1044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1063,7 +1058,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1077,7 +1072,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1091,7 +1086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1105,7 +1100,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1119,7 +1114,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1133,7 +1128,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1147,7 +1142,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1161,7 +1156,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1175,7 +1170,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1189,7 +1184,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1203,7 +1198,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1217,7 +1212,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1231,7 +1226,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1245,7 +1240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1259,7 +1254,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1273,7 +1268,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1284,7 +1279,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1298,7 +1293,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1312,7 +1307,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1326,7 +1321,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1340,7 +1335,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1354,7 +1349,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1368,7 +1363,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1382,7 +1377,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1396,7 +1391,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1410,7 +1405,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1424,7 +1419,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1435,7 +1430,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1449,7 +1444,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1463,7 +1458,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1477,7 +1472,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1491,7 +1486,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1505,7 +1500,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1519,7 +1514,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1530,7 +1525,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1541,7 +1536,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1555,7 +1550,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1569,7 +1564,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1583,7 +1578,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1597,7 +1592,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1611,7 +1606,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1625,7 +1620,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1639,7 +1634,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
@@ -1653,7 +1648,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
@@ -1667,7 +1662,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
@@ -1681,7 +1676,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
@@ -1695,7 +1690,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
@@ -1709,7 +1704,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>61</v>
       </c>
@@ -1723,7 +1718,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>62</v>
       </c>
@@ -1737,7 +1732,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
@@ -1751,7 +1746,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>64</v>
       </c>
@@ -1765,7 +1760,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>65</v>
       </c>
@@ -1779,7 +1774,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>66</v>
       </c>
@@ -1793,7 +1788,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>67</v>
       </c>
@@ -1807,7 +1802,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68</v>
       </c>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="239" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="41" xr6:coauthVersionMax="42" xr10:uidLastSave="{E5FF68F0-667E-4AD8-8C5E-93280B8011D3}"/>
+  <xr:revisionPtr revIDLastSave="250" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{392CA6A1-47E0-4AEE-8ECA-518DF6FB8373}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12060" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="changes" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="284">
   <si>
     <t>update</t>
   </si>
@@ -64,61 +65,61 @@
     <t>Shale Volume</t>
   </si>
   <si>
-    <t>{ "icon": "clay-volume-16x16","function": "calVSHfromGR", "inputs": [ { "name": "Gamma Ray", "unit": "gAPI","family": "Gamma Ray" } ], "parameters": [ { "name": "GR clean", "type": "number", "value": 10, "unit": "gAPI", "color": "red" }, { "name": "GR shale", "type": "number", "value": 120, "unit": "gAPI", "color": "green" }, { "name": "Method", "type": "select", "value": "Linear", "choices": [ "Linear", "Clavier", "Larionov Tertiary rocks", "Larionov older rocks", "Stieber variation I", "Stieber - Miocene and Pliocene", "Stieber variation II" ] } ], "outputs": [ { "name": "VSH_GR", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{'other':{},'icon':'clay-volume-16x16','function':'calVSHfromGR','inputs':{'_0':{'name':'Gamma Ray','unit':'gAPI','family':'Gamma Ray'},'last':0},'parameters':{'_0':{'name':'GR clean','type':'number','value':10,'unit':'gAPI','color':'red'},'_1':{'name':'GR shale','type':'number','value':120,'unit':'gAPI','color':'green'},'_2':{'name':'Method','type':'select','value':'Linear','choices':['Linear','Clavier','Larionov Tertiary rocks','Larionov older rocks','Stieber variation I','Stieber - Miocene and Pliocene','Stieber variation II']},'last':2},'outputs':[{'name':'VSH_GR','family':'Shale Volume','unit':'v/v'}]}</t>
   </si>
   <si>
     <t>Neutron-Density</t>
   </si>
   <si>
-    <t>{ "icon": "clay-volume-16x16", "function": "calVSHfromND", "overlay_line": "Schlumberger Den/Neut Corr. Rhof 1.0", "inputs": [ { "name": "Neutron Porosity", "unit": "v/v", "family": "Neutron Porosity" }, { "name": "Bulk Density", "unit": "g/cm3", "family": "Bulk Density" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NPHI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NPHI_clean_1", "type": "number", "value": -0.01, "unit": "v/v" }, { "name": "RHOB_clean_2", "type": "number", "value": 2.2, "unit": "g/cm3" }, { "name": "RHOB_shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "red" }, { "name": "RHOB_clean_1", "type": "number", "value": 2.65, "unit": "g/cm3" } ], "outputs": [{ "name": "VSH_ND", "family": "Shale Volume", "unit": "v/v" }],"scaleLeft":-0.15,"scaleRight":0.45,"scaleBottom":3,"scaleTop":2}</t>
+    <t>{'other':{'overlay_line':'Schlumberger Den/Neut Corr. Rhof 1.0','scaleLeft':-0.15,'scaleRight':0.45,'scaleBottom':3,'scaleTop':2},'icon':'clay-volume-16x16','function':'calVSHfromND','inputs':{'_0':{'name':'Neutron Porosity','unit':'v/v','family':'Neutron Porosity'},'_1':{'name':'Bulk Density','unit':'g/cm3','family':'Bulk Density'},'last':1},'parameters':{'_0':{'name':'NPHI_clean_2','type':'number','value':0.25,'unit':'v/v'},'_1':{'name':'NPHI_shale','type':'number','value':0.4,'unit':'v/v','color':'green'},'_2':{'name':'NPHI_clean_1','type':'number','value':-0.01,'unit':'v/v'},'_3':{'name':'RHOB_clean_2','type':'number','value':2.2,'unit':'g/cm3'},'_4':{'name':'RHOB_shale','type':'number','value':2.4,'unit':'g/cm3','color':'red'},'_5':{'name':'RHOB_clean_1','type':'number','value':2.65,'unit':'g/cm3'},'last':5},'outputs':[{'name':'VSH_ND','family':'Shale Volume','unit':'v/v'}]}</t>
   </si>
   <si>
     <t>Neutron-Sonic</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16","function": "calVSHfromNS", "overlay_line": "Schlumberger Neut/Sonic Wylie Dtf 189", "inputs": [ { "name": "Neutron Porosity", "unit": "v/v", "family": "Neutron Porosity" }, { "name": "Compressional Slowness", "unit": "us/ft", "family": "Compressional Slowness" } ], "parameters": [ { "name": "NPHI_clean_2", "type": "number", "value": 0.25, "unit": "v/v" }, { "name": "NPHI_shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "NPHI_clean_1", "type": "number", "unit": "v/v", "value": -0.01 }, { "name": "DT_clean_2", "type": "number", "value": 90, "unit": "g/cm3" }, { "name": "DT_shale", "type": "number", "value": 100, "unit": "g/cm3", "color": "#F0F" }, { "name": "DT_clean_1", "type": "number", "value": 55, "unit": "g/cm3" } ], "outputs": [ { "name": "VSH_NS", "family": "Shale Volume", "unit": "v/v" } ] ,"scaleLeft":-0.15,"scaleRight":0.45,"scaleBottom":40,"scaleTop":140}</t>
+    <t>{'other':{'overlay_line':'Schlumberger Neut/Sonic Wylie Dtf 189','scaleLeft':-0.15,'scaleRight':0.45,'scaleBottom':40,'scaleTop':140},'icon':'clay-volume-16x16','function':'calVSHfromNS','inputs':{'_0':{'name':'Neutron Porosity','unit':'v/v','family':'Neutron Porosity'},'_1':{'name':'Compressional Slowness','unit':'us/ft','family':'Compressional Slowness'},'last':1},'parameters':{'_0':{'name':'NPHI_clean_2','type':'number','value':0.25,'unit':'v/v'},'_1':{'name':'NPHI_shale','type':'number','value':0.4,'unit':'v/v','color':'green'},'_2':{'name':'NPHI_clean_1','type':'number','unit':'v/v','value':-0.01},'_3':{'name':'DT_clean_2','type':'number','value':90,'unit':'g/cm3'},'_4':{'name':'DT_shale','type':'number','value':100,'unit':'g/cm3','color':'#F0F'},'_5':{'name':'DT_clean_1','type':'number','value':55,'unit':'g/cm3'},'last':5},'outputs':[{'name':'VSH_NS','family':'Shale Volume','unit':'v/v'}]}</t>
   </si>
   <si>
     <t>Density-Sonic</t>
   </si>
   <si>
-    <t>{"icon":"clay-volume-16x16","function":"calVSHfromDS","overlay_line":"Den/Sonic Wylie Rhof 1.0","inputs":[{"name":"Compressional Slowness","unit":"us/ft","family":"Compressional Slowness"},{"name":"Bulk Density","unit":"g/cm3","family":"Bulk Density"}],"parameters":[{"name":"DT_clean_2","type":"number","value":90,"unit":"us/ft"},{"name":"DT_shale","type":"number","value":100,"unit":"us/ft","color":"#F0F"},{"name":"DT_clean_1","type":"number","value":50,"unit":"us/ft"},{"name":"RHOB_clean_2","type":"number","value":2.2,"unit":"g/cm3"},{"name":"RHOB_shale","type":"number","value":2.4,"unit":"g/cm3","color":"red"},{"name":"RHOB_clean_1","type":"number","value":2.65,"unit":"g/cm3"}],"outputs":[{"name":"VSH_SD","family":"Shale Volume","unit":"v/v"}],"scaleLeft":40,"scaleRight":140,"scaleBottom":3,"scaleTop":2}</t>
+    <t>{'other':{'overlay_line':'Den/Sonic Wylie Rhof 1.0','scaleLeft':40,'scaleRight':140,'scaleBottom':3,'scaleTop':2},'icon':'clay-volume-16x16','function':'calVSHfromDS','inputs':{'_0':{'name':'Compressional Slowness','unit':'us/ft','family':'Compressional Slowness'},'_1':{'name':'Bulk Density','unit':'g/cm3','family':'Bulk Density'},'last':1},'parameters':{'_0':{'name':'DT_clean_2','type':'number','value':90,'unit':'us/ft'},'_1':{'name':'DT_shale','type':'number','value':100,'unit':'us/ft','color':'#F0F'},'_2':{'name':'DT_clean_1','type':'number','value':50,'unit':'us/ft'},'_3':{'name':'RHOB_clean_2','type':'number','value':2.2,'unit':'g/cm3'},'_4':{'name':'RHOB_shale','type':'number','value':2.4,'unit':'g/cm3','color':'red'},'_5':{'name':'RHOB_clean_1','type':'number','value':2.65,'unit':'g/cm3'},'last':5},'outputs':[{'name':'VSH_SD','family':'Shale Volume','unit':'v/v'}]}</t>
   </si>
   <si>
     <t>Resistivity</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16","function": "calVSHfromR", "inputs": [ { "name": "Resistivity", "unit": "ohm.m", "family": "Resistivity" } ], "parameters": [ { "name": "Resistivity_clean", "type": "number", "value": 10, "unit": "ohm.m", "color": "red" }, { "name": "Resistivity_shale", "type": "number", "value": 120, "unit": "ohm.m", "color": "green" }, { "name": "B exponent", "type": "number", "value": 1 }, { "name": "Equation", "type": "select", "value": "Resistivity Log", "choices": [ "Resistivity Log", "Gaymard" ] } ], "outputs": [ { "name": "VSH_RES", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{'other':{},'icon':'clay-volume-16x16','function':'calVSHfromR','inputs':{'_0':{'name':'Resistivity','unit':'ohm.m','family':'Resistivity'},'last':0},'parameters':{'_0':{'name':'Resistivity_clean','type':'number','value':10,'unit':'ohm.m','color':'red'},'_1':{'name':'Resistivity_shale','type':'number','value':120,'unit':'ohm.m','color':'green'},'_2':{'name':'B exponent','type':'number','value':1},'_3':{'name':'Equation','type':'select','value':'Resistivity Log','choices':['Resistivity Log','Gaymard']},'last':3},'outputs':[{'name':'VSH_RES','family':'Shale Volume','unit':'v/v'}]}</t>
   </si>
   <si>
     <t>Spontaneous potential</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16","function": "calVSHfromSP", "inputs": [ { "name": "Spontaneous Potential", "unit": "mV", "family": "Spontaneous Potential" } ], "parameters": [ { "name": "SP_clean", "type": "number", "value": 0, "unit": "mV", "color": "red" }, { "name": "SP_shale", "type": "number", "value": 100, "unit": "mV", "color": "green" } ], "outputs": [ { "name": "VSH_SP", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{'other':{},'icon':'clay-volume-16x16','function':'calVSHfromSP','inputs':{'_0':{'name':'Spontaneous Potential','unit':'mV','family':'Spontaneous Potential'},'last':0},'parameters':{'_0':{'name':'SP_clean','type':'number','value':0,'unit':'mV','color':'red'},'_1':{'name':'SP_shale','type':'number','value':100,'unit':'mV','color':'green'},'last':1},'outputs':[{'name':'VSH_SP','family':'Shale Volume','unit':'v/v'}]}</t>
   </si>
   <si>
     <t>Thermal Neutron</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16","function": "calVSHfromNEU", "inputs": [ { "name": "Thermal Neutron", "unit": "v/v", "family": "Thermal Neutron Porosity" } ], "parameters": [ { "name": "Neutron_clean", "type": "number", "value": 0.1, "unit": "v/v", "color": "red" }, { "name": "Neutron_shale", "type": "number", "value": 0.3, "unit": "v/v", "color": "green" } ], "outputs": [ { "name": "VSH_NEU", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{'other':{},'icon':'clay-volume-16x16','function':'calVSHfromNEU','inputs':{'_0':{'name':'Thermal Neutron','unit':'v/v','family':'Thermal Neutron Porosity'},'last':0},'parameters':{'_0':{'name':'Neutron_clean','type':'number','value':0.1,'unit':'v/v','color':'red'},'_1':{'name':'Neutron_shale','type':'number','value':0.3,'unit':'v/v','color':'green'},'last':1},'outputs':[{'name':'VSH_NEU','family':'Shale Volume','unit':'v/v'}]}</t>
   </si>
   <si>
     <t>Potassium</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16","function": "calVSHfromPOTA", "inputs": [ { "name": "Potassium", "unit": "%", "family": "Potassium Concentration" } ], "parameters": [ { "name": "POTA matrix", "type": "number", "value": 10, "unit": "%", "color": "red" }, { "name": "POTA shale", "type": "number", "value": 100, "unit": "%", "color": "green" }, { "name": "POTA method", "type": "select", "value": "Linear", "choices": [ "Linear", "Larionov Tertiary rocks", "Larionov older rocks" ] } ], "outputs": [ { "name": "VSH_POTA", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{'other':{},'icon':'clay-volume-16x16','function':'calVSHfromPOTA','inputs':{'_0':{'name':'Potassium','unit':'%','family':'Potassium Concentration'},'last':0},'parameters':{'_0':{'name':'POTA matrix','type':'number','value':10,'unit':'%','color':'red'},'_1':{'name':'POTA shale','type':'number','value':100,'unit':'%','color':'green'},'_2':{'name':'POTA method','type':'select','value':'Linear','choices':['Linear','Larionov Tertiary rocks','Larionov older rocks']},'last':2},'outputs':[{'name':'VSH_POTA','family':'Shale Volume','unit':'v/v'}]}</t>
   </si>
   <si>
     <t>Thorium</t>
   </si>
   <si>
-    <t>{"icon": "clay-volume-16x16","function": "calVSHfromThori", "inputs": [ { "name": "Thorium", "unit": "ppm", "family": "Thorium Concentration" } ], "parameters": [ { "name": "Thorium matrix", "type": "number", "value": 10, "unit": "ppm", "color": "red" }, { "name": "Thorium shale", "type": "number", "value": 100, "unit": "ppm", "color": "green" }, { "name": "TH method", "type": "select", "value": "Linear", "choices": [ "Linear", "Larionov Tertiary rocks", "Larionov older rocks" ] } ], "outputs": [ { "name": "VSH_Thori", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{'other':{},'icon':'clay-volume-16x16','function':'calVSHfromThori','inputs':{'_0':{'name':'Thorium','unit':'ppm','family':'Thorium Concentration'},'last':0},'parameters':{'_0':{'name':'Thorium matrix','type':'number','value':10,'unit':'ppm','color':'red'},'_1':{'name':'Thorium shale','type':'number','value':100,'unit':'ppm','color':'green'},'_2':{'name':'TH method','type':'select','value':'Linear','choices':['Linear','Larionov Tertiary rocks','Larionov older rocks']},'last':2},'outputs':[{'name':'VSH_Thori','family':'Shale Volume','unit':'v/v'}]}</t>
   </si>
   <si>
     <t>Final</t>
   </si>
   <si>
-    <t>{"icon": "final-clay-volume-16x16","function": "calVSHFinal", "multiple": true, "use_inputs": "multiple", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Shale Volume", "unit": "v/v", "family": "Shale Volume" }, { "name": "Shale Volume", "unit": "v/v", "family": "Shale Volume" } ], "parameters": [ { "name": "Merge Method", "type": "select", "value": "Minimum", "choices": [ "Minimum", "Average", "Arithmetic mean", "Geometric mean", "Harmonic mean", "Median", "Maximum", "Sum" ] } ], "outputs": [ { "name": "VSH_Final", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_MIN", "family": "Shale Volume", "unit": "v/v" }, { "name": "VSH_AVG", "family": "Shale Volume", "unit": "v/v" } ] }</t>
+    <t>{'other':{'multiple':true,'use_inputs':'multiple','inputTemplate':{'name':'Shale Volume','unit':'v/v','family':'Shale Volume'}},'icon':'final-clay-volume-16x16','function':'calVSHFinal','options':{'_0':{'name':'Bad Hole','family':'Bad Hole Flag','unit':'unitless'},'last':0},'inputs':{'_0':{'name':'Shale Volume 1','unit':'v/v','family':'Shale Volume'},'_1':{'name':'Shale Volume 2','unit':'v/v','family':'Shale Volume'},'last':1},'parameters':{'_0':{'name':'Merge Method','type':'select','value':'Minimum','choices':['Minimum','Average','Arithmetic mean','Geometric mean','Harmonic mean','Median','Maximum','Sum']},'last':0},'outputs':[{'name':'VSH_Final','family':'Shale Volume','unit':'v/v'},{'name':'VSH_MIN','family':'Shale Volume','unit':'v/v'},{'name':'VSH_AVG','family':'Shale Volume','unit':'v/v'}]}</t>
   </si>
   <si>
     <t>Density</t>
@@ -127,40 +128,40 @@
     <t>Porosity</t>
   </si>
   <si>
-    <t>{"icon":"calculate-open-porosity-16x16","function":"calPorosityFromDensity","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Density Matrix","type":"number","value":2.65,"unit":"g/cm3","color":"red"},{"name":"Density Fluid","type":"number","value":1,"unit":"g/cm3"},{"name":"Density Shale","type":"number","value":2.4,"unit":"d/cm3","color":"green"}],"outputs":[{"name":"PHIT_D","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_D","family":"Effective Porosity","unit":"v/v"}]}</t>
+    <t>{'other':{},'icon':'calculate-open-porosity-16x16','function':'calPorosityFromDensity','inputs':{'_0':{'name':'Bulk Density','family':'Bulk Density','unit':'g/cm3'},'_1':{'name':'Shale Volume','family':'Shale Volume','unit':'v/v'},'last':1},'parameters':{'_0':{'name':'Density Matrix','type':'number','value':2.65,'unit':'g/cm3','color':'red'},'_1':{'name':'Density Fluid','type':'number','value':1,'unit':'g/cm3'},'_2':{'name':'Density Shale','type':'number','value':2.4,'unit':'d/cm3','color':'green'},'last':2},'outputs':[{'name':'PHIT_D','family':'Total Porosity','unit':'v/v'},{'name':'PHIE_D','family':'Effective Porosity','unit':'v/v'}]}</t>
   </si>
   <si>
     <t>Neutron</t>
   </si>
   <si>
-    <t>{"icon":"calculate-open-porosity-16x16","function":"calPorosityFromNeutron","inputs":[{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"}],"parameters":[{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"}],"outputs":[{"name":"PHIT_N","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_N","family":"Effective Porosity","unit":"v/v"}]}</t>
+    <t>{'other':{},'icon':'calculate-open-porosity-16x16','function':'calPorosityFromNeutron','inputs':{'_0':{'name':'Neutron','family':'Neutron Porosity','unit':'v/v'},'_1':{'name':'Shale Volume','family':'Shale Volume','unit':'v/v'},'last':1},'parameters':{'_0':{'name':'Neutron Matrix','type':'number','value':-0.01,'unit':'v/v','color':'red'},'_1':{'name':'Neutron Fluid','type':'number','value':0.991,'unit':'v/v'},'_2':{'name':'Neutron Shale','type':'number','value':0.4,'unit':'v/v','color':'green'},'last':2},'outputs':[{'name':'PHIT_N','family':'Total Porosity','unit':'v/v'},{'name':'PHIE_N','family':'Effective Porosity','unit':'v/v'}]}</t>
   </si>
   <si>
     <t>Sonic</t>
   </si>
   <si>
-    <t>{ "icon": "calculate-open-porosity-16x16", "function": "calPorosityFromSonic", "inputs": [ { "name": "Compressional Slowness", "family": "Compressional Slowness", "unit": "us/ft" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "Sonic Matrix", "type": "number", "value": 55, "unit": "us/ft", "color": "#F0F" }, { "name": "Sonic Fluid", "type": "number", "value": 189, "unit": "us/ft" }, { "name": "Sonic Shale", "type": "number", "value": 110, "unit": "us/ft", "color": "green" }, { "name": "Sonic Method", "type": "select", "value": "Wyliie", "choices": [ "Wyliie", "Raymer-Hunt-Gardner" ] }, { "name": "Cp", "type": "number", "value": 1 } ], "outputs": [ { "name": "PHIT_S", "family": "Total Porosity", "unit": "v/v" }, { "name": "PHIE_S", "family": "Effective Porosity", "unit": "v/v" } ] }</t>
-  </si>
-  <si>
-    <t>{ "icon": "calculate-open-porosity-16x16", "function": "calPorosityFromNeutronSonic", "inputs": [ { "name": "Compressional Slowness", "family": "Compressional Slowness", "unit": "us/ft" }, { "name": "Neutron", "family": "Neutron Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "Sonic Matrix", "type": "number", "value": 55, "unit": "us/ft", "color": "#F0F" }, { "name": "Sonic Fluid", "type": "number", "value": 189, "unit": "us/ft" }, { "name": "Sonic Shale", "type": "number", "value": 110, "unit": "us/ft", "color": "green" }, { "name": "Neutron Matrix", "type": "number", "value": -0.01, "unit": "v/v", "color": "red" }, { "name": "Neutron Fluid", "type": "number", "value": 0.991, "unit": "v/v" }, { "name": "Neutron Shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" }, { "name": "Sonic Method", "type": "select", "value": "Wyliie", "choices": [ "Wyliie", "Raymer-Hunt-Gardner" ] }, { "name": "Cp", "type": "number", "value": 1 } ], "outputs": [ { "name": "PHIT_NS", "family": "Total Porosity", "unit": "v/v" }, { "name": "PHIE_NS", "family": "Effective Porosity", "unit": "v/v" }, { "name": "DTMAA", "family": "Apparent Matrix Compressional Slowness", "unit": "us/ft" } ] }</t>
+    <t>{'other':{},'icon':'calculate-open-porosity-16x16','function':'calPorosityFromSonic','inputs':{'_0':{'name':'Compressional Slowness','family':'Compressional Slowness','unit':'us/ft'},'_1':{'name':'Shale Volume','family':'Shale Volume','unit':'v/v'},'last':1},'parameters':{'_0':{'name':'Sonic Matrix','type':'number','value':55,'unit':'us/ft','color':'#F0F'},'_1':{'name':'Sonic Fluid','type':'number','value':189,'unit':'us/ft'},'_2':{'name':'Sonic Shale','type':'number','value':110,'unit':'us/ft','color':'green'},'_3':{'name':'Sonic Method','type':'select','value':'Wyliie','choices':['Wyliie','Raymer-Hunt-Gardner']},'_4':{'name':'Cp','type':'number','value':1},'last':4},'outputs':[{'name':'PHIT_S','family':'Total Porosity','unit':'v/v'},{'name':'PHIE_S','family':'Effective Porosity','unit':'v/v'}]}</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'calculate-open-porosity-16x16','function':'calPorosityFromNeutronSonic','inputs':{'_0':{'name':'Compressional Slowness','family':'Compressional Slowness','unit':'us/ft'},'_1':{'name':'Neutron','family':'Neutron Porosity','unit':'v/v'},'_2':{'name':'Shale Volume','family':'Shale Volume','unit':'v/v'},'last':2},'parameters':{'_0':{'name':'Sonic Matrix','type':'number','value':55,'unit':'us/ft','color':'#F0F'},'_1':{'name':'Sonic Fluid','type':'number','value':189,'unit':'us/ft'},'_2':{'name':'Sonic Shale','type':'number','value':110,'unit':'us/ft','color':'green'},'_3':{'name':'Neutron Matrix','type':'number','value':-0.01,'unit':'v/v','color':'red'},'_4':{'name':'Neutron Fluid','type':'number','value':0.991,'unit':'v/v'},'_5':{'name':'Neutron Shale','type':'number','value':0.4,'unit':'v/v','color':'green'},'_6':{'name':'Sonic Method','type':'select','value':'Wyliie','choices':['Wyliie','Raymer-Hunt-Gardner']},'_7':{'name':'Cp','type':'number','value':1},'last':7},'outputs':[{'name':'PHIT_NS','family':'Total Porosity','unit':'v/v'},{'name':'PHIE_NS','family':'Effective Porosity','unit':'v/v'},{'name':'DTMAA','family':'Apparent Matrix Compressional Slowness','unit':'us/ft'}]}</t>
   </si>
   <si>
     <t>Density-Neutron</t>
   </si>
   <si>
-    <t>{ "icon": "calculate-open-porosity-16x16", "function": "calPorosityFromDensityNeutron", "inputs": [ { "name": "Bulk Density", "family": "Bulk Density", "unit": "g/cm3" }, { "name": "Neutron", "family": "Neutron Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" } ], "parameters": [ { "name": "Density Matrix", "type": "number", "value": 2.65, "unit": "g/cm3", "color": "red" }, { "name": "Density Fluid", "type": "number", "value": 1, "unit": "g/cm3" }, { "name": "Density Shale", "type": "number", "value": 2.4, "unit": "g/cm3", "color": "green" }, { "name": "Neutron Matrix", "type": "number", "value": -0.01, "unit": "v/v", "color": "red" }, { "name": "Neutron Fluid", "type": "number", "value": 0.991, "unit": "v/v" }, { "name": "Neutron Shale", "type": "number", "value": 0.4, "unit": "v/v", "color": "green" } ], "outputs": [ { "name": "PHIT_ND", "family": "Total Porosity", "unit": "v/v" }, { "name": "PHIE_ND", "family": "Effective Porosity", "unit": "v/v" }, { "name": "RHOMAA", "family": "Apparent Matrix Density", "unit": "g/cm3" } ] }</t>
+    <t>{'other':{},'icon':'calculate-open-porosity-16x16','function':'calPorosityFromDensityNeutron','inputs':{'_0':{'name':'Bulk Density','family':'Bulk Density','unit':'g/cm3'},'_1':{'name':'Neutron','family':'Neutron Porosity','unit':'v/v'},'_2':{'name':'Shale Volume','family':'Shale Volume','unit':'v/v'},'last':2},'parameters':{'_0':{'name':'Density Matrix','type':'number','value':2.65,'unit':'g/cm3','color':'red'},'_1':{'name':'Density Fluid','type':'number','value':1,'unit':'g/cm3'},'_2':{'name':'Density Shale','type':'number','value':2.4,'unit':'g/cm3','color':'green'},'_3':{'name':'Neutron Matrix','type':'number','value':-0.01,'unit':'v/v','color':'red'},'_4':{'name':'Neutron Fluid','type':'number','value':0.991,'unit':'v/v'},'_5':{'name':'Neutron Shale','type':'number','value':0.4,'unit':'v/v','color':'green'},'last':5},'outputs':[{'name':'PHIT_ND','family':'Total Porosity','unit':'v/v'},{'name':'PHIE_ND','family':'Effective Porosity','unit':'v/v'},{'name':'RHOMAA','family':'Apparent Matrix Density','unit':'g/cm3'}]}</t>
   </si>
   <si>
     <t>Total Final</t>
   </si>
   <si>
-    <t>{"icon":"final-total-porosity-16x16","function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Total Porosity", "unit": "v/v", "family": "Total Porosity" }, { "name": "Total Porosity", "unit": "v/v", "family": "Total Porosity" } ], "parameters": [], "outputs": [ { "name": "PHIT_Final", "family": "Total Porosity", "unit": "v/v" } ] }</t>
+    <t>{'other':{'multiple':true,'inputTemplate':{'name':'Total Porosity','unit':'v/v','family':'Total Porosity'},'use_inputs':'single'},'icon':'final-total-porosity-16x16','function':'calPorosityFinal','options':{'_0':{'name':'Bad Hole','family':'Bad Hole Flag','unit':'unitless'},'last':0},'inputs':{'_0':{'name':'Total Porosity 1','unit':'v/v','family':'Total Porosity'},'_1':{'name':'Total Porosity 2','unit':'v/v','family':'Total Porosity'},'last':1},'parameters':{'last':-1},'outputs':[{'name':'PHIT_Final','family':'Total Porosity','unit':'v/v'}]}</t>
   </si>
   <si>
     <t>Effective Final</t>
   </si>
   <si>
-    <t>{"icon":"final-effective-porosity-16x16","function": "calPorosityFinal", "multiple": true, "use_inputs": "single", "options": [ { "name": "Bad Hole" } ], "inputs": [ { "name": "Effective Porosity", "unit": "v/v", "family": "Effective Porosity" }, { "name": "Effective Porosity", "unit": "v/v", "family": "Effective Porosity" } ], "parameters": [], "outputs": [ { "name": "PHIE_Final", "family": "Effective Porosity", "unit": "v/v" } ] }</t>
+    <t>{'other':{'multiple':true,'inputTemplate':{'name':'Effective Porosity','unit':'v/v','family':'Effective Porosity'},'use_inputs':'single'},'icon':'final-effective-porosity-16x16','function':'calPorosityFinal','options':{'_0':{'name':'Bad Hole','family':'Bad Hole Flag','unit':'unitless'},'last':0},'inputs':{'_0':{'name':'Effective Porosity 1','unit':'v/v','family':'Effective Porosity'},'_1':{'name':'Effective Porosity 2','unit':'v/v','family':'Effective Porosity'},'last':1},'parameters':{'last':-1},'outputs':[{'name':'PHIE_Final','family':'Effective Porosity','unit':'v/v'}]}</t>
   </si>
   <si>
     <t>Archie</t>
@@ -169,55 +170,55 @@
     <t>Water Saturation</t>
   </si>
   <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationArchie", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1, "unit": "unitless" }, { "name": "m", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Ar", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Ar", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Ar", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Ar", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
+    <t>{'other':{},'icon':'water-saturation-16x16','function':'calSaturationArchie','inputs':{'_0':{'name':'Formation Resistivity','family':'Formation Resistivity','unit':'ohm.m'},'_1':{'name':'Porosity','family':'Porosity','unit':'v/v'},'_2':{'name':'Invaded Resistivity','family':'Invaded Zone Resistivity','unit':'ohm.m','allowNull':true},'last':2},'parameters':{'_0':{'name':'a','type':'number','value':1,'unit':'unitless'},'_1':{'name':'m','type':'number','value':2,'unit':'unitless'},'_2':{'name':'n','type':'number','value':2,'unit':'unitless'},'_3':{'name':'Rw','type':'number','value':0.03,'unit':'ohm.m'},'_4':{'name':'Rmf','type':'number','value':0.1,'unit':'ohm.m'},'last':4},'outputs':[{'name':'Sw_Ar','family':'Water Saturation','unit':'v/v'},{'name':'Sxo_Ar','family':'Flushed Zone Water Saturation','unit':'v/v'},{'name':'Bvw_Ar','family':'Bulk Fluid Volume','unit':'v/v'},{'name':'BvwSxo_Ar','family':'Bulk Fluid Volume','unit':'v/v'}]}</t>
   </si>
   <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationIndonesia", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1, "unit": "unitless" }, { "name": "m", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Ind", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Ind", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Ind", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Ind", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
+    <t>{'other':{},'icon':'water-saturation-16x16','function':'calSaturationIndonesia','inputs':{'_0':{'name':'Formation Resistivity','family':'Formation Resistivity','unit':'ohm.m'},'_1':{'name':'Effective Porosity','family':'Effective Porosity','unit':'v/v'},'_2':{'name':'Shale Volume','family':'Shale Volume','unit':'v/v'},'_3':{'name':'Invaded Resistivity','family':'Invaded Zone Resistivity','unit':'ohm.m','allowNull':true},'last':3},'parameters':{'_0':{'name':'a','type':'number','value':1,'unit':'unitless'},'_1':{'name':'m','type':'number','value':2,'unit':'unitless'},'_2':{'name':'n','type':'number','value':2,'unit':'unitless'},'_3':{'name':'Rw','type':'number','value':0.03,'unit':'ohm.m'},'_4':{'name':'Rsh','type':'number','value':4.5,'unit':'ohm.m'},'_5':{'name':'Rmf','type':'number','value':0.1,'unit':'ohm.m'},'last':5},'outputs':[{'name':'Sw_Ind','family':'Water Saturation','unit':'v/v'},{'name':'Sxo_Ind','family':'Flushed Zone Water Saturation','unit':'v/v'},{'name':'Bvw_Ind','family':'Bulk Fluid Volume','unit':'v/v'},{'name':'BvwSxo_Ind','family':'Bulk Fluid Volume','unit':'v/v'}]}</t>
   </si>
   <si>
     <t>Modified Indonesia</t>
   </si>
   <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationModifiedIndonesia", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1, "unit": "unitless" }, { "name": "m", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Imo", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Imo", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Imo", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Imo", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
+    <t>{'other':{},'icon':'water-saturation-16x16','function':'calSaturationModifiedIndonesia','inputs':{'_0':{'name':'Formation Resistivity','family':'Formation Resistivity','unit':'ohm.m'},'_1':{'name':'Effective Porosity','family':'Effective Porosity','unit':'v/v'},'_2':{'name':'Shale Volume','family':'Shale Volume','unit':'v/v'},'_3':{'name':'Invaded Resistivity','family':'Invaded Zone Resistivity','unit':'ohm.m','allowNull':true},'last':3},'parameters':{'_0':{'name':'a','type':'number','value':1,'unit':'unitless'},'_1':{'name':'m','type':'number','value':2,'unit':'unitless'},'_2':{'name':'n','type':'number','value':2,'unit':'unitless'},'_3':{'name':'Rw','type':'number','value':0.03,'unit':'ohm.m'},'_4':{'name':'Rsh','type':'number','value':4.5,'unit':'ohm.m'},'_5':{'name':'Rmf','type':'number','value':0.1,'unit':'ohm.m'},'last':5},'outputs':[{'name':'Sw_Imo','family':'Water Saturation','unit':'v/v'},{'name':'Sxo_Imo','family':'Flushed Zone Water Saturation','unit':'v/v'},{'name':'Bvw_Imo','family':'Bulk Fluid Volume','unit':'v/v'},{'name':'BvwSxo_Imo','family':'Bulk Fluid Volume','unit':'v/v'}]}</t>
   </si>
   <si>
     <t>Simandoux</t>
   </si>
   <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationSimandoux", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1, "unit": "unitless" }, { "name": "m", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Sim", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Sim", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Sim", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Sim", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
+    <t>{'other':{},'icon':'water-saturation-16x16','function':'calSaturationSimandoux','inputs':{'_0':{'name':'Formation Resistivity','family':'Formation Resistivity','unit':'ohm.m'},'_1':{'name':'Effective Porosity','family':'Effective Porosity','unit':'v/v'},'_2':{'name':'Shale Volume','family':'Shale Volume','unit':'v/v'},'_3':{'name':'Invaded Resistivity','family':'Invaded Zone Resistivity','unit':'ohm.m','allowNull':true},'last':3},'parameters':{'_0':{'name':'a','type':'number','value':1,'unit':'unitless'},'_1':{'name':'m','type':'number','value':2,'unit':'unitless'},'_2':{'name':'n','type':'number','value':2,'unit':'unitless'},'_3':{'name':'Rw','type':'number','value':0.03,'unit':'ohm.m'},'_4':{'name':'Rsh','type':'number','value':4.5,'unit':'ohm.m'},'_5':{'name':'Rmf','type':'number','value':0.1,'unit':'ohm.m'},'last':5},'outputs':[{'name':'Sw_Sim','family':'Water Saturation','unit':'v/v'},{'name':'Sxo_Sim','family':'Flushed Zone Water Saturation','unit':'v/v'},{'name':'Bvw_Sim','family':'Bulk Fluid Volume','unit':'v/v'},{'name':'BvwSxo_Sim','family':'Bulk Fluid Volume','unit':'v/v'}]}</t>
   </si>
   <si>
     <t>Modified Simandoux</t>
   </si>
   <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationModifiedSimandoux", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1, "unit": "unitless" }, { "name": "m", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" } ], "outputs": [ { "name": "Sw_Smo", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Smo", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Smo", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Smo", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
+    <t>{'other':{},'icon':'water-saturation-16x16','function':'calSaturationModifiedSimandoux','inputs':{'_0':{'name':'Formation Resistivity','family':'Formation Resistivity','unit':'ohm.m'},'_1':{'name':'Effective Porosity','family':'Effective Porosity','unit':'v/v'},'_2':{'name':'Shale Volume','family':'Shale Volume','unit':'v/v'},'_3':{'name':'Invaded Resistivity','family':'Invaded Zone Resistivity','unit':'ohm.m','allowNull':true},'last':3},'parameters':{'_0':{'name':'a','type':'number','value':1,'unit':'unitless'},'_1':{'name':'m','type':'number','value':2,'unit':'unitless'},'_2':{'name':'n','type':'number','value':2,'unit':'unitless'},'_3':{'name':'Rw','type':'number','value':0.03,'unit':'ohm.m'},'_4':{'name':'Rsh','type':'number','value':4.5,'unit':'ohm.m'},'_5':{'name':'Rmf','type':'number','value':0.1,'unit':'ohm.m'},'last':5},'outputs':[{'name':'Sw_Smo','family':'Water Saturation','unit':'v/v'},{'name':'Sxo_Smo','family':'Flushed Zone Water Saturation','unit':'v/v'},{'name':'Bvw_Smo','family':'Bulk Fluid Volume','unit':'v/v'},{'name':'BvwSxo_Smo','family':'Bulk Fluid Volume','unit':'v/v'}]}</t>
   </si>
   <si>
     <t>Juhasz</t>
   </si>
   <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationJuhasz", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "m*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Juh", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Juh", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Juh", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qvn", "family": "Volumetric CEC", "unit": "eq/L" } ] }</t>
+    <t>{'other':{},'icon':'water-saturation-16x16','function':'calSaturationJuhasz','inputs':{'_0':{'name':'Formation Resistivity','family':'Formation Resistivity','unit':'ohm.m'},'_1':{'name':'Porosity','family':'Porosity','unit':'v/v'},'_2':{'name':'Shale Volume','family':'Shale Volume','unit':'v/v'},'_3':{'name':'Invaded Resistivity','family':'Invaded Zone Resistivity','unit':'ohm.m','allowNull':true},'last':3},'parameters':{'_0':{'name':'m*','type':'number','value':2,'unit':'unitless'},'_1':{'name':'n*','type':'number','value':2,'unit':'unitless'},'_2':{'name':'Rw','type':'number','value':0.03,'unit':'ohm.m'},'_3':{'name':'Rsh','type':'number','value':4.5,'unit':'ohm.m'},'_4':{'name':'Rmf','type':'number','value':0.1,'unit':'ohm.m'},'_5':{'name':'PHITsh','type':'number','value':0.35,'unit':'v/v'},'last':5},'outputs':[{'name':'Sw_Juh','family':'Water Saturation','unit':'v/v'},{'name':'Sxo_Juh','family':'Flushed Zone Water Saturation','unit':'v/v'},{'name':'Bvw_Juh','family':'Bulk Fluid Volume','unit':'v/v'},{'name':'BvwSxo_Juh','family':'Bulk Fluid Volume','unit':'v/v'},{'name':'Qvn','family':'Volumetric CEC','unit':'eq/L'}]}</t>
   </si>
   <si>
     <t>Waxman-Smits</t>
   </si>
   <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationWaxmanSmits", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Porosity", "family": "Porosity", "unit": "v/v" }, { "name": "Formation Temperature", "family": "Formation Temperature", "unit": "degF", "allowNull": true }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "m*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.1, "unit": "ohm.m" }, { "name": "B", "type": "number", "value": 4, "unit": "L.S/eq.m" }, { "name": "Qv", "type": "number", "value": 1, "unit": "eq/L" } ], "outputs": [ { "name": "Sw_Wax", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Wax", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Wax", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
+    <t>{'other':{},'icon':'water-saturation-16x16','function':'calSaturationWaxmanSmits','inputs':{'_0':{'name':'Formation Resistivity','family':'Formation Resistivity','unit':'ohm.m'},'_1':{'name':'Porosity','family':'Porosity','unit':'v/v'},'_2':{'name':'Formation Temperature','family':'Formation Temperature','unit':'degF','allowNull':true},'_3':{'name':'Invaded Resistivity','family':'Invaded Zone Resistivity','unit':'ohm.m','allowNull':true},'last':3},'parameters':{'_0':{'name':'m*','type':'number','value':2,'unit':'unitless'},'_1':{'name':'n*','type':'number','value':2,'unit':'unitless'},'_2':{'name':'Rw','type':'number','value':0.03,'unit':'ohm.m'},'_3':{'name':'Rmf','type':'number','value':0.1,'unit':'ohm.m'},'_4':{'name':'B','type':'number','value':4,'unit':'L.S/eq.m'},'_5':{'name':'Qv','type':'number','value':1,'unit':'eq/L'},'last':5},'outputs':[{'name':'Sw_Wax','family':'Water Saturation','unit':'v/v'},{'name':'Sxo_Wax','family':'Flushed Zone Water Saturation','unit':'v/v'},{'name':'Bvw_Wax','family':'Bulk Fluid Volume','unit':'v/v'},{'name':'BvwSxo_Wax','family':'Bulk Fluid Volume','unit':'v/v'}]}</t>
   </si>
   <si>
     <t>Dual Water</t>
   </si>
   <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationDualWater", "inputs": [ { "name": "Formation Resistivity", "family": "Formation Resistivity", "unit": "ohm.m" }, { "name": "Total Porosity", "family": "Total Porosity", "unit": "v/v" }, { "name": "Shale Volume", "family": "Shale Volume", "unit": "v/v" }, { "name": "Invaded Resistivity", "family": "Invaded Zone Resistivity", "unit": "ohm.m", "allowNull": true } ], "parameters": [ { "name": "a", "type": "number", "value": 1, "unit": "unitless"}, { "name": "m*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "n*", "type": "number", "value": 2, "unit": "unitless" }, { "name": "Rw", "type": "number", "value": 0.03, "unit": "ohm.m" }, { "name": "Rmf", "type": "number", "value": 0.125, "unit": "ohm.m" }, { "name": "Rsh", "type": "number", "value": 4.5, "unit": "ohm.m" }, { "name": "PHITsh", "type": "number", "value": 0.35, "unit": "v/v" } ], "outputs": [ { "name": "Sw_Dua", "family": "Water Saturation", "unit": "v/v" }, { "name": "Sxo_Dua", "family": "Flushed Zone Water Saturation", "unit": "v/v" }, { "name": "Bvw_Dua", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "BvwSxo_Dua", "family": "Bulk Fluid Volume", "unit": "v/v" }, { "name": "Qv", "family": "Volumetric CEC", "unit": "eq/L" } ] }</t>
+    <t>{'other':{},'icon':'water-saturation-16x16','function':'calSaturationDualWater','inputs':{'_0':{'name':'Formation Resistivity','family':'Formation Resistivity','unit':'ohm.m'},'_1':{'name':'Total Porosity','family':'Total Porosity','unit':'v/v'},'_2':{'name':'Shale Volume','family':'Shale Volume','unit':'v/v'},'_3':{'name':'Invaded Resistivity','family':'Invaded Zone Resistivity','unit':'ohm.m','allowNull':true},'last':3},'parameters':{'_0':{'name':'a','type':'number','value':1,'unit':'unitless'},'_1':{'name':'m*','type':'number','value':2,'unit':'unitless'},'_2':{'name':'n*','type':'number','value':2,'unit':'unitless'},'_3':{'name':'Rw','type':'number','value':0.03,'unit':'ohm.m'},'_4':{'name':'Rmf','type':'number','value':0.125,'unit':'ohm.m'},'_5':{'name':'Rsh','type':'number','value':4.5,'unit':'ohm.m'},'_6':{'name':'PHITsh','type':'number','value':0.35,'unit':'v/v'},'last':6},'outputs':[{'name':'Sw_Dua','family':'Water Saturation','unit':'v/v'},{'name':'Sxo_Dua','family':'Flushed Zone Water Saturation','unit':'v/v'},{'name':'Bvw_Dua','family':'Bulk Fluid Volume','unit':'v/v'},{'name':'BvwSxo_Dua','family':'Bulk Fluid Volume','unit':'v/v'},{'name':'Qv','family':'Volumetric CEC','unit':'eq/L'}]}</t>
   </si>
   <si>
     <t>Equivalent Effective Sw</t>
   </si>
   <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationEffective", "inputs": [ { "name": "Total Porosity", "family": "Total Porosity", "unit": "v/v" }, { "name": "Effective Porosity", "family": "Effective Porosity", "unit": "v/v" }, { "name": "Total Saturation", "family": "Water Saturation", "unit": "v/v" } ], "parameters": [], "outputs": [ { "name": "Sw_E", "family": "Water Saturation", "unit": "v/v" }, { "name": "Bvw_E", "family": "Bulk Fluid Volume", "unit": "v/v" } ] }</t>
+    <t>{'other':{},'icon':'water-saturation-16x16','function':'calSaturationEffective','inputs':{'_0':{'name':'Total Porosity','family':'Total Porosity','unit':'v/v'},'_1':{'name':'Effective Porosity','family':'Effective Porosity','unit':'v/v'},'_2':{'name':'Total Saturation','family':'Water Saturation','unit':'v/v'},'last':2},'parameters':{'last':-1},'outputs':[{'name':'Sw_E','family':'Water Saturation','unit':'v/v'},{'name':'Bvw_E','family':'Bulk Fluid Volume','unit':'v/v'}]}</t>
   </si>
   <si>
     <t>Summaries</t>
@@ -226,37 +227,40 @@
     <t>Clastic</t>
   </si>
   <si>
-    <t>{"icon":"summation-16x16","function":"calClasticfSummation","summation":true,"multiple":true,"addParamFlag":true,"inputs":[{"name":"Shale Volume","unit":"v/v","family":"Shale Volume"},{"name":"Porosity","unit":"v/v","family":"Porosity"},{"name":"Water Saturation","unit":"v/v","family":"Water Saturation"}],"options":[{"name":"TVD"},{"name":"TVDSS"}],"inputTemplate":{"name":"Curve","allowNull":true},"parameters":[{"id":"Vshale Cutoff","name":"Vshale Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt; Value &lt;= Max","min":0,"max":0.4}]},{"id":"Phi Cutoff","name":"Phi Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Value &lt; Min or Value &gt;= Max","min":0,"max":0.15}]},{"id":"SW Cutoff","name":"SW Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt; Value &lt;= Max","min":0,"max":0.6}]}],"paramTemplate":{"name":"Custom Cutoff 4","type":"handsontable","tableType":"condition","value":[{"method":"Value &lt;= Min","min":0.5}],"nameEditable":true},"outputsMultiple":true,"outputFromParameters":true,"outputs":[{"name":"ROCK","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"}],"shading":"yellow"},{"name":"RES","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"},{"id":"Phi Cutoff"}],"shading":"green"},{"name":"PAY","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"},{"id":"Phi Cutoff"},{"id":"SW Cutoff"}],"shading":"red"}],"outputTemplate":{"name":"CUSTOM_FL","family":"Net Flag","unit":"UNITLESS","parameters":[],"shading":"red"}}</t>
+    <t>{'other':{'summation':true,'multiple':true,'addParamFlag':true,'inputTemplate':{'name':'Curve','allowNull':true},'paramTemplate':{'name':'Custom Cutoff 4','type':'handsontable','tableType':'condition','value':[{'method':'Value &lt;= Min','min':0.5}],'nameEditable':true},'outputsMultiple':true,'outputFromParameters':true,'outputTemplate':{'name':'CUSTOM_FL','family':'Net Flag','unit':'UNITLESS','parameters':[],'shading':'red'}},'icon':'summation-16x16','function':'calClasticfSummation','inputs':{'_0':{'name':'Shale Volume','unit':'v/v','family':'Shale Volume'},'_1':{'name':'Porosity','unit':'v/v','family':'Porosity'},'_2':{'name':'Water Saturation','unit':'v/v','family':'Water Saturation'},'last':2},'options':{'_0':{'name':'TVD','family':'True Vertical Depth','unit':'m'},'_1':{'name':'TVDSS','family':'True Vertical Depth Sub Sea','unit':'m'},'last':1},'parameters':{'_0':{'id':'Vshale Cutoff','name':'Vshale Cutoff','type':'handsontable','tableType':'condition','value':[{'method':'Min &lt; Value &lt;= Max','min':0,'max':0.4}]},'_1':{'id':'Phi Cutoff','name':'Phi Cutoff','type':'handsontable','tableType':'condition','value':[{'method':'Value &lt; Min or Value &gt;= Max','min':0,'max':0.15}]},'_2':{'id':'SW Cutoff','name':'SW Cutoff','type':'handsontable','tableType':'condition','value':[{'method':'Min &lt; Value &lt;= Max','min':0,'max':0.6}]},'last':2},'outputs':[{'name':'ROCK','family':'Net Flag','unit':'UNITLESS','parameters':[{'id':'Vshale Cutoff'}],'shading':'yellow'},{'name':'RES','family':'Net Flag','unit':'UNITLESS','parameters':[{'id':'Vshale Cutoff'},{'id':'Phi Cutoff'}],'shading':'green'},{'name':'PAY','family':'Net Flag','unit':'UNITLESS','parameters':[{'id':'Vshale Cutoff'},{'id':'Phi Cutoff'},{'id':'SW Cutoff'}],'shading':'red'}]}</t>
   </si>
   <si>
     <t>Multi-Mineral Solver</t>
   </si>
   <si>
+    <t>{'other':{'multiple':true,'modelConfigs':[{'name':'Aegyrine','default':{'DT':80,'NPHI':0.05,'RHOB':3.53,'GR':3,'PAI':111.37,'URAN':12.5,'POT':0.15,'THOR':5},'output':{'max':0.2,'min':0}},{'name':'Albite','default':{'DT':48,'NPHI':-0.013,'RHOB':2.58,'GR':20,'PAI':4.35,'URAN':5,'POT':1,'THOR':1},'output':{'max':0.4,'min':0}},{'name':'Andesine','default':{'DT':54.7,'NPHI':-0.013,'RHOB':2.63,'GR':75,'PAI':4.35,'URAN':5,'POT':1,'THOR':1},'output':{'max':0.4,'min':0}},{'name':'Anhydrite','default':{'DT':50,'NPHI':0.01,'RHOB':2.9,'GR':3,'PAI':9.32,'URAN':0,'POT':0.3,'THOR':0},'output':{'max':0.5,'min':0}},{'name':'Anorthslase','default':{'DT':69,'NPHI':-0.012,'RHOB':2.56,'GR':100,'PAI':7.12,'URAN':2,'POT':4,'THOR':7},'output':{'max':0.5,'min':0}},{'name':'Another','default':{'DT':58,'NPHI':0.105,'RHOB':2.13,'GR':10,'PAI':3.79,'URAN':0,'POT':0,'THOR':0},'output':{'max':0.1,'min':0}},{'name':'Augite','default':{'DT':80,'NPHI':0.02,'RHOB':3.08,'GR':15,'PAI':111.37,'URAN':12.5,'POT':0.1,'THOR':5},'output':{'max':0.2,'min':0}},{'name':'Biotite','default':{'DT':51,'NPHI':0.21,'RHOB':3.22,'GR':275,'PAI':18.75,'URAN':20,'POT':7.5,'THOR':10},'output':{'max':0.4,'min':0}},{'name':'Calcite','default':{'DT':47.5,'NPHI':0,'RHOB':2.71,'GR':3,'PAI':5.08,'URAN':0,'POT':0.3,'THOR':0},'output':{'max':0.5,'min':0}},{'name':'Chlorite','default':{'DT':72.5,'NPHI':0.44,'RHOB':3.1,'GR':215,'PAI':3.48,'URAN':0,'POT':0.057,'THOR':0},'output':{'max':0.9,'min':0}},{'name':'Clays','default':{'DT':72.5,'NPHI':0.36,'RHOB':2.75,'GR':190,'PAI':3.48,'URAN':0,'POT':0.055,'THOR':0},'output':{'max':0.9,'min':0}},{'name':'Diopside','default':{'DT':40,'NPHI':0.05,'RHOB':3.33,'GR':15,'PAI':111.37,'URAN':12.5,'POT':0.1,'THOR':5},'output':{'max':0.2,'min':0}},{'name':'Dolomite','default':{'DT':43.5,'NPHI':0,'RHOB':2.88,'GR':3,'PAI':3.14,'URAN':0,'POT':0.3,'THOR':0},'output':{'max':0.5,'min':0}},{'name':'Enstatite','default':{'DT':46.8,'NPHI':0.03,'RHOB':3.23,'GR':15,'PAI':111.37,'URAN':12.5,'POT':0,'THOR':5},'output':{'max':0.2,'min':0}},{'name':'Fluid','type':'Fluid','default':{'DT':189,'NPHI':0.991,'RHOB':1.03,'GR':0,'PAI':0,'URAN':0,'POT':0,'THOR':0},'output':{'max':0.3,'min':0}},{'name':'Gas','default':{'DT':265,'NPHI':0.2,'RHOB':0.1,'GR':0,'PAI':0,'URAN':0,'POT':0,'THOR':0},'output':{'min':0,'max':0.35}},{'name':'Glauconite','default':{'DT':49,'NPHI':0.38,'RHOB':2.45,'GR':200,'PAI':18.75,'URAN':8.1,'POT':8.7,'THOR':10},'output':{'max':0.4,'min':0}},{'name':'Haematite','default':{'DT':46.8,'NPHI':0.13,'RHOB':5.16,'GR':10,'PAI':111.37,'URAN':12.5,'POT':0,'THOR':5},'output':{'max':0.2,'min':0}},{'name':'HeavyMin','default':{'DT':45.04,'NPHI':0.145,'RHOB':3.05,'GR':445,'PAI':18.75,'URAN':0,'POT':3.75,'THOR':15},'output':{'max':0.2,'min':0}},{'name':'Hedenbergite','default':{'DT':57,'NPHI':0.027,'RHOB':3.55,'GR':15,'PAI':111.37,'URAN':12.5,'POT':0.016,'THOR':5},'output':{'max':0.2,'min':0}},{'name':'Hornblends','default':{'DT':44,'NPHI':0.08,'RHOB':3.2,'GR':275,'PAI':18.75,'URAN':20,'POT':0.8,'THOR':13.5},'output':{'max':0.4,'min':0}},{'name':'Igneous','default':{'DT':54.7,'NPHI':0.15,'RHOB':2.78,'GR':45,'PAI':9.99,'URAN':0,'POT':1.45,'THOR':2.7},'output':{'max':0.8,'min':0}},{'name':'Illite','default':{'DT':72.5,'NPHI':0.25,'RHOB':2.715,'GR':275,'PAI':3.48,'URAN':0,'POT':0.01,'THOR':0},'output':{'max':0.9,'min':0}},{'name':'K_Feldsp','default':{'DT':53.5,'NPHI':-0.03,'RHOB':2.54,'GR':70,'PAI':7.297,'URAN':1.5,'POT':6,'THOR':7},'output':{'max':0.7,'min':0}},{'name':'Kaolinite','default':{'DT':72.5,'NPHI':0.35,'RHOB':2.69,'GR':105,'PAI':3.48,'URAN':0,'POT':0.04,'THOR':0},'output':{'max':0.9,'min':0}},{'name':'Labradorite','default':{'DT':54.7,'NPHI':-0.014,'RHOB':2.68,'GR':25,'PAI':4.35,'URAN':5,'POT':1,'THOR':1},'output':{'max':0.4,'min':0}},{'name':'Magnetit','default':{'DT':41,'NPHI':0.11,'RHOB':5.08,'GR':50,'PAI':111.37,'URAN':12.5,'POT':0,'THOR':5},'output':{'max':0.2,'min':0}},{'name':'Microline','default':{'DT':51,'NPHI':-0.011,'RHOB':2.54,'GR':250,'PAI':7.12,'URAN':2,'POT':12.5,'THOR':7},'output':{'max':0.5,'min':0}},{'name':'Montmoriolite','default':{'DT':41,'NPHI':0.41,'RHOB':2.88,'GR':150,'PAI':2.04,'URAN':0,'POT':1,'THOR':0},'output':{'max':0.5,'min':0}},{'name':'Muscovite','default':{'DT':49,'NPHI':0.2,'RHOB':2.82,'GR':270,'PAI':18.75,'URAN':8.1,'POT':8.7,'THOR':10},'output':{'max':0.4,'min':0}},{'name':'Oil','default':{'DT':210,'NPHI':0.95,'RHOB':0.7,'GR':0,'PAI':0,'URAN':0,'POT':0,'THOR':0},'output':{'min':0,'max':0.35}},{'name':'Oligoclase','default':{'DT':48,'NPHI':-0.012,'RHOB':2.65,'GR':20,'PAI':4.35,'URAN':5,'POT':1,'THOR':1},'output':{'max':0.4,'min':0}},{'name':'Olivine','default':{'DT':36,'NPHI':0.05,'RHOB':3.3,'GR':10,'PAI':18.75,'URAN':0.01,'POT':0,'THOR':0},'output':{'max':0.4,'min':0}},{'name':'Opal','default':{'DT':50,'NPHI':0.1,'RHOB':2.13,'GR':10,'PAI':3.79,'URAN':0,'POT':0,'THOR':0},'output':{'max':0.5,'min':0}},{'name':'Orthocla','default':{'DT':53.5,'NPHI':-0.011,'RHOB':2.54,'GR':250,'PAI':7.12,'URAN':2,'POT':10.5,'THOR':7},'output':{'max':0.5,'min':0}},{'name':'Plagioclase','default':{'DT':49,'NPHI':-0.013,'RHOB':2.582,'GR':100,'PAI':4.35,'URAN':0,'POT':1.5,'THOR':0},'output':{'max':0.9,'min':0}},{'name':'Quartz','default':{'DT':50,'NPHI':-0.02,'RHOB':2.65,'GR':5,'PAI':4.77,'URAN':2,'POT':0,'THOR':3},'output':{'max':0.5,'min':0}},{'name':'Salt','default':{'DT':40,'NPHI':0,'RHOB':1.026,'GR':0,'PAI':4.6,'URAN':0,'POT':0,'THOR':0},'output':{'max':0.5,'min':0}},{'name':'Siderite','default':{'DT':47,'NPHI':0.12,'RHOB':3.89,'GR':0,'PAI':14.69,'URAN':0,'POT':0,'THOR':0},'output':{'max':0.5,'min':0}},{'name':'Water','default':{'DT':189,'NPHI':1,'RHOB':1.05,'GR':0,'PAI':0,'URAN':0,'POT':0,'THOR':0},'output':{'min':0,'max':0.35}},{'name':'Zeolit','default':{'DT':53.35,'NPHI':0.2,'RHOB':2.25,'GR':30,'PAI':3.48,'URAN':0,'POT':1,'THOR':0},'output':{'max':0.4,'min':0}}],'familyMap':{'DT':['Peak Slowness','Peak Travel Time','Travel Time','Compressional Slowness','DTC.*','DT','SON.*','AC','DTTP.*','Acoustic'],'RHOB':['Bulk Density','Bulk Density Correction','Bulk Density Hydrocarbon Corrected','Corrected ZDL Density','DEN.*','RHOB','RHOZ','ZDEN.*','RHOZ','LDEN','Density'],'GR':['Gamma Ray','Gamma Ray 1','Gamma Ray Normalised','Gamma Ray Shale','Gamma Ray Squared','Russian Gamma Ray','PLT Gamma Ray','GR.*','ECGR.*','SGRC.*','GAM.*','HGR','EGR','SGR'],'NPHI':['Thermal Neutron Near Far Ratio','Compensated Neutron Porosity','Epithermal Neutron Porosity','Neutron Porosity','Neutron Porosity Correction','Neutron Porosity Hydrocarbon Corrected','Neutron Porosity Lime','Neutron Porosity Sand','Russian Thermal Neutron Porosity','Thermal Neutron Porosity','NEU.*','TNP.*','NPHI.*','CNL.*','CNT.*','Porosity'],'POT':['Potassium Capture Relative Yield','Potassium Concentration','Potassium Radio Nuclide Activity','POT.*','Weight Fraction - Element'],'THOR':['Thorium Concentration','Thorium Radio Nuclide Activity','THOR.*'],'URAN':['Uranium Concentration','Uranium Radio Nuclide Activity','URA.*'],'PAI':['.*']},'outputConfigs':[{'name':'Minerals','family':'Mineral Volume','unit':'v/v','prefix':'V_'},{'name':'Synthetic Curves','suffix':'_SYN','disableEditing':['family','unit']}]},'icon':'multi-mineral-solver-16x16','function':'multiMineralSolver','inputs':{'_0':{'name':'Curve'},'last':0},'parameters':{'last':-1},'outputs':[]}</t>
+  </si>
+  <si>
     <t>Gradient</t>
   </si>
   <si>
     <t>Formation Temperature</t>
   </si>
   <si>
-    <t>{"icon":"gradient-ftemp-16x16","function":"gradientFTemp","inputs":[{"name":"Depth","family":"Measured Depth","unit":"m"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"Temperature Gradient","type":"number","value":0.03,"unit":"degC/m"},{"name":"TLI","type":"number","value":0,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"}]}</t>
+    <t>{'other':{},'icon':'gradient-ftemp-16x16','function':'gradientFTemp','inputs':{'_0':{'name':'Depth','family':'Measured Depth','unit':'m'},'last':0},'outputs':[{'name':'FTEMP','family':'Formation Temperature','unit':'degC'}],'parameters':{'_0':{'name':'Temperature Gradient','type':'number','value':0.03,'unit':'degC/m'},'_1':{'name':'TLI','type':'number','value':0,'unit':'m'},'_2':{'name':'Top Log Temperature','type':'number','value':25,'unit':'degC'},'last':2}}</t>
   </si>
   <si>
     <t>Log Interval</t>
   </si>
   <si>
-    <t>{"icon":"log-interval-ftemp-16x16","function":"logIntervalFTemp","inputs":[{"name":"Depth","family":"Measured Depth","unit":"m"}],"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":[{"name":"TLI","type":"number","value":0,"unit":"m"},{"name":"BLI","type":"number","value":0,"unit":"m"},{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"},{"name":"Bottom Log Temperature","type":"number","value":120,"unit":"degC"}]}</t>
+    <t>{'other':{},'icon':'log-interval-ftemp-16x16','function':'logIntervalFTemp','inputs':{'_0':{'name':'Depth','family':'Measured Depth','unit':'m'},'last':0},'outputs':[{'name':'FTEMP','family':'Formation Temperature','unit':'degC'}],'parameters':{'_0':{'name':'TLI','type':'number','value':0,'unit':'m'},'_1':{'name':'BLI','type':'number','value':0,'unit':'m'},'_2':{'name':'Top Log Temperature','type':'number','value':25,'unit':'degC'},'_3':{'name':'Bottom Log Temperature','type':'number','value':120,'unit':'degC'},'last':3}}</t>
   </si>
   <si>
     <t>Hydrostatic Pressure</t>
   </si>
   <si>
-    <t>{"icon":"gradient-fpress-16x16","function":"gradientFPress","inputs":[{"name":"True Vertical Depth","family":"True Vertical Depth","unit":"m"}],"outputs":[{"name":"FPRESS","family":"Hydrostatic Pressure","unit":"kPa"}],"parameters":[{"name":"Pressure Gradient","type":"number","value":9.792,"unit":"kPa/m"}]}</t>
+    <t>{'other':{},'icon':'gradient-fpress-16x16','function':'gradientFPress','inputs':{'_0':{'name':'True Vertical Depth','family':'True Vertical Depth','unit':'m'},'last':0},'outputs':[{'name':'FPRESS','family':'Hydrostatic Pressure','unit':'kPa'}],'parameters':{'_0':{'name':'Pressure Gradient','type':'number','value':9.792,'unit':'kPa/m'},'last':0}}</t>
   </si>
   <si>
     <t>Mud Density</t>
   </si>
   <si>
-    <t>{"icon":"mud-density-fpress-16x16","function":"mudDensityFPress","inputs":[{"name":"True Vertical Depth","family":"True Vertical Depth","unit":"m"}],"outputs":[{"name":"FPRESS","family":"Hydrostatic Pressure","unit":"kPa"}],"parameters":[{"name":"Drilling Fluid Density","type":"number","value":1,"unit":"kg/m3"}]}</t>
+    <t>{'other':{},'icon':'mud-density-fpress-16x16','function':'mudDensityFPress','inputs':{'_0':{'name':'True Vertical Depth','family':'True Vertical Depth','unit':'m'},'last':0},'outputs':[{'name':'FPRESS','family':'Hydrostatic Pressure','unit':'kPa'}],'parameters':{'_0':{'name':'Drilling Fluid Density','type':'number','value':1,'unit':'kg/m3'},'last':0}}</t>
   </si>
   <si>
     <t>Normalized</t>
@@ -265,19 +269,19 @@
     <t>Qv</t>
   </si>
   <si>
-    <t>{"icon":"normalized-qv-16x16","function":"normalizeQv","inputs":[{"name":"Porosity","family":"Porosity","unit": "v/v"},{"name":"Shale Volume","family":"Shale Volume","unit": "v/v"}],"outputs":[{"name":"QVn","family":"Normalised Qv","unit":"v/v"}],"parameters":[{"name":"Porosity Shale","type":"number","value":0.4,"unit":"v/v"}]}</t>
+    <t>{'other':{},'icon':'normalized-qv-16x16','function':'normalizeQv','inputs':{'_0':{'name':'Porosity','family':'Porosity','unit':'v/v'},'_1':{'name':'Shale Volume','family':'Shale Volume','unit':'v/v'},'last':1},'outputs':[{'name':'QVn','family':'Normalised Qv','unit':'v/v'}],'parameters':{'_0':{'name':'Porosity Shale','type':'number','value':0.4,'unit':'v/v'},'last':0}}</t>
   </si>
   <si>
     <t>Function of CEC</t>
   </si>
   <si>
-    <t>{"icon":"cec-qv-16x16","function":"cecQv","inputs":[{"name":"Porosity","family":"Porosity","unit": "v/v"},{"name":"CEC","family":"Volumetric CEC","unit": "meq/g"},{"name":"Grain Density","family":"Grain Density","unit": "g/cm3"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"}],"parameters":[]}</t>
+    <t>{'other':{},'icon':'cec-qv-16x16','function':'cecQv','inputs':{'_0':{'name':'Porosity','family':'Porosity','unit':'v/v'},'_1':{'name':'CEC','family':'Volumetric CEC','unit':'meq/g'},'_2':{'name':'Grain Density','family':'Grain Density','unit':'g/cm3'},'last':2},'outputs':[{'name':'QV','family':'Volumetric CEC','unit':'1/L'}],'parameters':{'last':-1}}</t>
   </si>
   <si>
     <t>Water-Bearing Shaly Sand</t>
   </si>
   <si>
-    <t>{"icon":"water-bearing-shaly-sands-16x16","function":"qvWaterBearingShalySands","inputs":[{"name":"Porosity","family":"Porosity","unit":"v/v"},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m"}],"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"},{"name":"B","family":"Waxman B","unit":"L.S/eq.m"},{"name":"BQv","family":"Waxman BQv","unit":"S/m"}],"parameters":[{"name":"B method","type":"select","value":"Use B from formula","choices":["Use B from formula","Use B value"]},{"name":"B value","type":"number","value":0,"unit":"L.S/m"},{"name":"Temperature","type":"number","value":25,"unit":"degC"},{"name":"Water Resistivity","type":"number","value":0.03,"unit":"ohm.m"},{"name":"a*","type":"number","value":1},{"name":"m*","type":"number","value":2}]}</t>
+    <t>{'other':{},'icon':'water-bearing-shaly-sands-16x16','function':'qvWaterBearingShalySands','inputs':{'_0':{'name':'Porosity','family':'Porosity','unit':'v/v'},'_1':{'name':'Resistivity','family':'Resistivity','unit':'ohm.m'},'last':1},'outputs':[{'name':'QV','family':'Volumetric CEC','unit':'1/L'},{'name':'B','family':'Waxman B','unit':'L.S/eq.m'},{'name':'BQv','family':'Waxman BQv','unit':'S/m'}],'parameters':{'_0':{'name':'B method','type':'select','value':'Use B from formula','choices':['Use B from formula','Use B value']},'_1':{'name':'B value','type':'number','value':0,'unit':'L.S/m'},'_2':{'name':'Temperature','type':'number','value':25,'unit':'degC'},'_3':{'name':'Water Resistivity','type':'number','value':0.03,'unit':'ohm.m'},'_4':{'name':'a*','type':'number','value':1},'_5':{'name':'m*','type':'number','value':2},'last':5}}</t>
   </si>
   <si>
     <t>Water Resistivity from Temperature and Salinity</t>
@@ -286,25 +290,25 @@
     <t>Water Properties</t>
   </si>
   <si>
-    <t>{"icon":"rw-from-sanlinity-temp-16x16","function":"RWfromSALandFTemp","inputs":[{"name":"Formation Temperature","family":"Formation Temperature","unit":"degF"},{"name":"Salinity","family":"Salinity","unit":"ppm"}],"outputs":[{"name":"RwX","family":"Formation Water Resistivity","unit":"ohm.m"}],"parameters":[]}</t>
+    <t>{'other':{},'icon':'rw-from-sanlinity-temp-16x16','function':'RWfromSALandFTemp','inputs':{'_0':{'name':'Formation Temperature','family':'Formation Temperature','unit':'degF'},'_1':{'name':'Salinity','family':'Salinity','unit':'ppm'},'last':1},'outputs':[{'name':'RwX','family':'Formation Water Resistivity','unit':'ohm.m'}],'parameters':{'last':-1}}</t>
   </si>
   <si>
     <t>U from Salinity</t>
   </si>
   <si>
-    <t>{"icon":"saturated-nacl-from-temp-16x16","function":"UfromSalinity","inputs":[{"name":"Salinity","family":"Salinity","unit": "ppk"}],"outputs":[{"name":"U","family":"Volumetric Photoelectric Effect","unit":"barns/cm3"}],"parameters":[]}</t>
+    <t>{'other':{},'icon':'saturated-nacl-from-temp-16x16','function':'UfromSalinity','inputs':{'_0':{'name':'Salinity','family':'Salinity','unit':'ppk'},'last':0},'outputs':[{'name':'U','family':'Volumetric Photoelectric Effect','unit':'barns/cm3'}],'parameters':{'last':-1}}</t>
   </si>
   <si>
     <t>Saturated Salinity Concentration from Temperature</t>
   </si>
   <si>
-    <t>{"icon":"u-from-salinity-16x16","function":"saturatedSalinityConcentrationfromFTemp","inputs":[{"name":"Formation Temperature","family":"Formation Temperature","unit": "degF"}],"outputs":[{"name":"SAL_SAT","family":"Formation Water Salinity","unit":"ppk"}],"parameters":[]}</t>
+    <t>{'other':{},'icon':'u-from-salinity-16x16','function':'saturatedSalinityConcentrationfromFTemp','inputs':{'_0':{'name':'Formation Temperature','family':'Formation Temperature','unit':'degF'},'last':0},'outputs':[{'name':'SAL_SAT','family':'Formation Water Salinity','unit':'ppk'}],'parameters':{'last':-1}}</t>
   </si>
   <si>
     <t>Mud Salinity and Resistivity</t>
   </si>
   <si>
-    <t>{"icon":"mud-salinity-and-resistivity-16x16","function":"mudSalinityAndResistivity","inputs":[{"name":"Formation Temperature","family":"Formation Temperature","unit": "degC"}],"outputs":[{"name":"RM","family":"Mud Resistivity","unit":"ohm.m"},{"name":"RMF","family":"Mud Filtrate Resistivity","unit":"ohm.m"},{"name":"RMC","family":"Mudcake Resistivity","unit":"ohm.m"},{"name":"SALM","family":"Mud Salinity","unit":"ppm"},{"name":"SALMF","family":"Mud Filtrate Salinity","unit":"ppm"}],"parameters":[{"name":"Mud Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mud Sample Temperature","type":"number","value":0,"unit":"degC"},{"name":"Mud Filtrate Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mud Filtrate Sample Temperature","type":"number","value":0,"unit":"degC"},{"name":"Mudcake Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},{"name":"Mudcake Sample Temperature","type":"number","value":0,"unit":"degC"}]}</t>
+    <t>{'other':{},'icon':'mud-salinity-and-resistivity-16x16','function':'mudSalinityAndResistivity','inputs':{'_0':{'name':'Formation Temperature','family':'Formation Temperature','unit':'degC'},'last':0},'outputs':[{'name':'RM','family':'Mud Resistivity','unit':'ohm.m'},{'name':'RMF','family':'Mud Filtrate Resistivity','unit':'ohm.m'},{'name':'RMC','family':'Mudcake Resistivity','unit':'ohm.m'},{'name':'SALM','family':'Mud Salinity','unit':'ppm'},{'name':'SALMF','family':'Mud Filtrate Salinity','unit':'ppm'}],'parameters':{'_0':{'name':'Mud Sample Resistivity','type':'number','value':0,'unit':'ohm.m'},'_1':{'name':'Mud Sample Temperature','type':'number','value':0,'unit':'degC'},'_2':{'name':'Mud Filtrate Sample Resistivity','type':'number','value':0,'unit':'ohm.m'},'_3':{'name':'Mud Filtrate Sample Temperature','type':'number','value':0,'unit':'degC'},'_4':{'name':'Mudcake Sample Resistivity','type':'number','value':0,'unit':'ohm.m'},'_5':{'name':'Mudcake Sample Temperature','type':'number','value':0,'unit':'degC'},'last':5}}</t>
   </si>
   <si>
     <t>Bad Hole From Caliper</t>
@@ -313,13 +317,13 @@
     <t>Quality Flag</t>
   </si>
   <si>
-    <t>{"icon":"bad-hole-from-caliper-16x16","function":"badHoleFromCaliper","inputs":[{"name":"Caliper","family":"Caliper","unit":"in"}],"outputs":[{"name":"BH_FL_BS","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Cutoff","type":"number","value":0.5,"unit":"in"},{"name":"Bit Size","type":"number","value":12.5,"unit":"in"}],"options":[{"name":"Bit Size"}]}</t>
+    <t>{'other':{},'icon':'bad-hole-from-caliper-16x16','function':'badHoleFromCaliper','inputs':{'_0':{'name':'Caliper','family':'Caliper','unit':'in'},'_1':{'name':'Bit Size','family':'Bit Size','unit':'in','allowNull':true},'last':1},'outputs':[{'name':'BH_FL_BS','family':'Bad Hole Flag','unit':'UNITLESS'}],'parameters':{'_0':{'name':'Cutoff','type':'number','value':0.5,'unit':'in'},'_1':{'name':'Bit Size','type':'number','value':12.5,'unit':'in'},'last':1}}</t>
   </si>
   <si>
     <t>Bad Hole From DRHO</t>
   </si>
   <si>
-    <t>{"icon":"bad-hole-from-drho-16x16","function":"badHoleFromDRHO","inputs":[{"name":"DENC","family":"Bulk Density Correction","unit":"g/cm3"}],"outputs":[{"name":"BH_FL_DRHO","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Correction Min","type":"number","value":0.1,"unit":"g/cm3"},{"name":"Bulk Density Correction Max","type":"number","value":0.6,"unit":"g/cm3"}]}</t>
+    <t>{'other':{},'icon':'bad-hole-from-drho-16x16','function':'badHoleFromDRHO','inputs':{'_0':{'name':'DENC','family':'Bulk Density Correction','unit':'g/cm3'},'last':0},'outputs':[{'name':'BH_FL_DRHO','family':'Bad Hole Flag','unit':'UNITLESS'}],'parameters':{'_0':{'name':'Bulk Density Correction Min','type':'number','value':0.1,'unit':'g/cm3'},'_1':{'name':'Bulk Density Correction Max','type':'number','value':0.6,'unit':'g/cm3'},'last':1}}</t>
   </si>
   <si>
     <t>Coal Flag</t>
@@ -328,37 +332,37 @@
     <t>Pure Mineral Flag</t>
   </si>
   <si>
-    <t>{"icon":"coal-flag-16x16","function":"coalFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Neutron Porosity","family":"Neutron Porosity","unit":"v/v","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true},{"name":"Resistivity","family":"Resistivity","allowNull":true}],"outputs":[{"name":"COAL_FL","family":"Coal Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":1.2,"max":2.2}]},{"name":"Neutron Porosity Cutoff","id":"Neutron Porosity Cutoff","type":"handsontable","tableType":"condition","unit":"v/v","value":[{"method":"Min &lt;= Value &lt; Max","min":0.3,"max":0.6}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":90,"max":150}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":0.16,"max":0.2}]},{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":900,"max":1000}]}]}</t>
+    <t>{'other':{},'icon':'coal-flag-16x16','function':'coalFlag','inputs':{'_0':{'name':'Bulk Density','family':'Bulk Density','unit':'g/cm3','allowNull':true},'_1':{'name':'Neutron Porosity','family':'Neutron Porosity','unit':'v/v','allowNull':true},'_2':{'name':'Compressional Slowness','family':'Compressional Slowness','unit':'US/FT','allowNull':true},'_3':{'name':'Photoelectric Factor','family':'Photoelectric Factor','unit':'UNITLESS','allowNull':true},'_4':{'name':'Resistivity','family':'Resistivity','allowNull':true},'last':4},'outputs':[{'name':'COAL_FL','family':'Coal Flag','unit':'UNITLESS'}],'parameters':{'_0':{'name':'Bulk Density Cutoff','id':'Bulk Density Cutoff','type':'handsontable','tableType':'condition','unit':'g/cm3','value':[{'method':'Min &lt;= Value &lt; Max','min':1.2,'max':2.2}]},'_1':{'name':'Neutron Porosity Cutoff','id':'Neutron Porosity Cutoff','type':'handsontable','tableType':'condition','unit':'v/v','value':[{'method':'Min &lt;= Value &lt; Max','min':0.3,'max':0.6}]},'_2':{'name':'Compressional Slowness Cutoff','id':'Compressional Slowness Cutoff','type':'handsontable','tableType':'condition','unit':'us/ft','value':[{'method':'Min &lt;= Value &lt; Max','min':90,'max':150}]},'_3':{'name':'Photoelectric Factor Cutoff','id':'Photoelectric Factor Cutoff','type':'handsontable','tableType':'condition','unit':'unitless','value':[{'method':'Min &lt;= Value &lt; Max','min':0.16,'max':0.2}]},'_4':{'name':'Resistivity Cutoff','id':'Resistivity Cutoff','type':'handsontable','tableType':'condition','unit':'ohm.m','value':[{'method':'Min &lt;= Value &lt; Max','min':900,'max':1000}]},'last':4}}</t>
   </si>
   <si>
     <t>Carbonate Flag</t>
   </si>
   <si>
-    <t>{"icon":"carbonate-flag-16x16","function":"carbonateFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Neutron Porosity","family":"Neutron Porosity","unit":"v/v","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true}],"outputs":[{"name":"CARBONATE_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.85,"max":3}]},{"name":"Neutron Porosity Cutoff","id":"Neutron Porosity Cutoff","type":"handsontable","tableType":"condition","unit":"v/v","value":[{"method":"Min &lt;= Value &lt; Max","min":0,"max":1}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":45,"max":55}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":5,"max":7}]}]}</t>
+    <t>{'other':{},'icon':'carbonate-flag-16x16','function':'carbonateFlag','inputs':{'_0':{'name':'Bulk Density','family':'Bulk Density','unit':'g/cm3','allowNull':true},'_1':{'name':'Neutron Porosity','family':'Neutron Porosity','unit':'v/v','allowNull':true},'_2':{'name':'Compressional Slowness','family':'Compressional Slowness','unit':'US/FT','allowNull':true},'_3':{'name':'Photoelectric Factor','family':'Photoelectric Factor','unit':'UNITLESS','allowNull':true},'last':3},'outputs':[{'name':'CARBONATE_FL','family':'General Flag','unit':'UNITLESS'}],'parameters':{'_0':{'name':'Bulk Density Cutoff','id':'Bulk Density Cutoff','type':'handsontable','tableType':'condition','unit':'g/cm3','value':[{'method':'Min &lt;= Value &lt; Max','min':2.85,'max':3}]},'_1':{'name':'Neutron Porosity Cutoff','id':'Neutron Porosity Cutoff','type':'handsontable','tableType':'condition','unit':'v/v','value':[{'method':'Min &lt;= Value &lt; Max','min':0,'max':1}]},'_2':{'name':'Compressional Slowness Cutoff','id':'Compressional Slowness Cutoff','type':'handsontable','tableType':'condition','unit':'us/ft','value':[{'method':'Min &lt;= Value &lt; Max','min':45,'max':55}]},'_3':{'name':'Photoelectric Factor Cutoff','id':'Photoelectric Factor Cutoff','type':'handsontable','tableType':'condition','unit':'unitless','value':[{'method':'Min &lt;= Value &lt; Max','min':5,'max':7}]},'last':3}}</t>
   </si>
   <si>
     <t>Halite Flag</t>
   </si>
   <si>
-    <t>{"icon":"halite-flag-16x16","function":"haliteFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true}],"outputs":[{"name":"HALITE_FL","family":"Halite Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.05,"max":2.15}]},{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":10000,"max":100000}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":60,"max":70}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":4.5,"max":5}]}]}</t>
+    <t>{'other':{},'icon':'halite-flag-16x16','function':'haliteFlag','inputs':{'_0':{'name':'Bulk Density','family':'Bulk Density','unit':'g/cm3','allowNull':true},'_1':{'name':'Resistivity','family':'Resistivity','unit':'ohm.m','allowNull':true},'_2':{'name':'Compressional Slowness','family':'Compressional Slowness','unit':'US/FT','allowNull':true},'_3':{'name':'Photoelectric Factor','family':'Photoelectric Factor','unit':'UNITLESS','allowNull':true},'last':3},'outputs':[{'name':'HALITE_FL','family':'Halite Flag','unit':'UNITLESS'}],'parameters':{'_0':{'name':'Bulk Density Cutoff','id':'Bulk Density Cutoff','type':'handsontable','tableType':'condition','unit':'g/cm3','value':[{'method':'Min &lt;= Value &lt; Max','min':2.05,'max':2.15}]},'_1':{'name':'Resistivity Cutoff','id':'Resistivity Cutoff','type':'handsontable','tableType':'condition','unit':'ohm.m','value':[{'method':'Min &lt;= Value &lt; Max','min':10000,'max':100000}]},'_2':{'name':'Compressional Slowness Cutoff','id':'Compressional Slowness Cutoff','type':'handsontable','tableType':'condition','unit':'us/ft','value':[{'method':'Min &lt;= Value &lt; Max','min':60,'max':70}]},'_3':{'name':'Photoelectric Factor Cutoff','id':'Photoelectric Factor Cutoff','type':'handsontable','tableType':'condition','unit':'unitless','value':[{'method':'Min &lt;= Value &lt; Max','min':4.5,'max':5}]},'last':3}}</t>
   </si>
   <si>
     <t>Anhydrite Flag</t>
   </si>
   <si>
-    <t>{"icon":"anhydrite-flag-16x16","function":"anhydriteFlag","inputs":[{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},{"name":"Resistivity","family":"Resistivity","unit":"ohm.m","allowNull":true},{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true}],"outputs":[{"name":"ANHYDRITE_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":[{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.85,"max":3}]},{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":10000,"max":100000}]},{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":55,"max":60}]},{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":4.5,"max":5}]}]}</t>
+    <t>{'other':{},'icon':'anhydrite-flag-16x16','function':'anhydriteFlag','inputs':{'_0':{'name':'Bulk Density','family':'Bulk Density','unit':'g/cm3','allowNull':true},'_1':{'name':'Resistivity','family':'Resistivity','unit':'ohm.m','allowNull':true},'_2':{'name':'Compressional Slowness','family':'Compressional Slowness','unit':'US/FT','allowNull':true},'_3':{'name':'Photoelectric Factor','family':'Photoelectric Factor','unit':'UNITLESS','allowNull':true},'last':3},'outputs':[{'name':'ANHYDRITE_FL','family':'General Flag','unit':'UNITLESS'}],'parameters':{'_0':{'name':'Bulk Density Cutoff','id':'Bulk Density Cutoff','type':'handsontable','tableType':'condition','unit':'g/cm3','value':[{'method':'Min &lt;= Value &lt; Max','min':2.85,'max':3}]},'_1':{'name':'Resistivity Cutoff','id':'Resistivity Cutoff','type':'handsontable','tableType':'condition','unit':'ohm.m','value':[{'method':'Min &lt;= Value &lt; Max','min':10000,'max':100000}]},'_2':{'name':'Compressional Slowness Cutoff','id':'Compressional Slowness Cutoff','type':'handsontable','tableType':'condition','unit':'us/ft','value':[{'method':'Min &lt;= Value &lt; Max','min':55,'max':60}]},'_3':{'name':'Photoelectric Factor Cutoff','id':'Photoelectric Factor Cutoff','type':'handsontable','tableType':'condition','unit':'unitless','value':[{'method':'Min &lt;= Value &lt; Max','min':4.5,'max':5}]},'last':3}}</t>
   </si>
   <si>
     <t>Custom Flag</t>
   </si>
   <si>
-    <t>{"icon":"custom-flag-16x16","function":"customFlag","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"outputs":[{"name":"CUSTOM_FL_1","family":"General Flag","unit":"UNITLESS","parameters":[{"id":"Condition 1"}]}],"outputTemplate":{"name":"CUSTOM_FL","family":"General Flag","unit":"UNITLESS","parameters":[]},"outputsMultiple":true,"outputFromParameters":true,"parameters":[{"id":"Condition 1","name":"Condition 1","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt;= Value &lt; Max"}],"nameEditable":true}],"addParamFlag":true}</t>
+    <t>{'other':{'multiple':true,'outputTemplate':{'name':'CUSTOM_FL','family':'General Flag','unit':'UNITLESS','parameters':[]},'outputsMultiple':true,'outputFromParameters':true,'addParamFlag':true},'icon':'custom-flag-16x16','function':'customFlag','inputs':{'_0':{'name':'Curve'},'last':0},'outputs':[{'name':'CUSTOM_FL_1','family':'General Flag','unit':'UNITLESS','parameters':[{'id':'Condition 1'}]}],'parameters':{'_0':{'id':'Condition 1','name':'Condition 1','type':'handsontable','tableType':'condition','value':[{'method':'Min &lt;= Value &lt; Max'}],'nameEditable':true},'last':0}}</t>
   </si>
   <si>
     <t>TVD Conputation</t>
   </si>
   <si>
-    <t>{"icon":"true-vertical-depth-16x16","function":"tvdConvserion","allowZone":false,"inputs":[{"name":"Deviation","family":"Hole Deviation","unit":"Deg"},{"name":"Azimuth","family":"Hole Azimuth","unit":"Deg"}],"outputs":[{"name":"TVD","family":"True Vertical Depth","unit":"m", "disableEditing":"namefamilyunit"},{"name":"TVDSS","family":"True Vertical Depth Sub Sea","unit":"m", "disableEditing":"namefamilyunit"},{"name":"XOFFSET","family":"X Offset","unit":"m", "disableEditing":"namefamilyunit"},{"name":"YOFFSET","family":"Y Offset","unit":"m", "disableEditing":"namefamilyunit"}],"parameters":[{"name":"TVD Mode","type":"select","choices":["On Shore","Off Shore"],"value":"Off Shore"},{"name":"Elevator","type":"number","value":0, "unit": "m"},{"name":"X reference at","type":"number","value":0, "unit": "m"},{"name":"Y reference at","type":"number","value":0, "unit": "m"},{"name":"Method","type":"select","choices":["Average Angle","Balanced Tangential","Radius Curvature","Minimum Curvature"],"value":"Minimum Curvature"}], "outputDataset": "INDEX"}</t>
+    <t>{'other':{'allowZone':false,'outputDataset':'INDEX'},'icon':'true-vertical-depth-16x16','function':'tvdConvserion','inputs':{'_0':{'name':'Deviation','family':'Hole Deviation','unit':'Deg'},'_1':{'name':'Azimuth','family':'Hole Azimuth','unit':'Deg'},'last':1},'outputs':[{'name':'TVD','family':'True Vertical Depth','unit':'m','disableEditing':'namefamilyunit'},{'name':'TVDSS','family':'True Vertical Depth Sub Sea','unit':'m','disableEditing':'namefamilyunit'},{'name':'XOFFSET','family':'X Offset','unit':'m','disableEditing':'namefamilyunit'},{'name':'YOFFSET','family':'Y Offset','unit':'m','disableEditing':'namefamilyunit'}],'parameters':{'_0':{'name':'TVD Mode','type':'select','choices':['On Shore','Off Shore'],'value':'Off Shore'},'_1':{'name':'Elevator','type':'number','value':0,'unit':'m'},'_2':{'name':'X reference at','type':'number','value':0,'unit':'m'},'_3':{'name':'Y reference at','type':'number','value':0,'unit':'m'},'_4':{'name':'Method','type':'select','choices':['Average Angle','Balanced Tangential','Radius Curvature','Minimum Curvature'],'value':'Minimum Curvature'},'last':4}}</t>
   </si>
   <si>
     <t>Basic Operation</t>
@@ -367,25 +371,25 @@
     <t>Scalar Operation</t>
   </si>
   <si>
-    <t>{"icon":"basic-operations-16x16","function":"basicOperations","transform":true,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_OUT"}],"allowZone":false,"parameters":[{"name":"Method","type":"select","value":"+","choices":["+","-","*","/"]},{"name":"Constant","type":"number","value":3.141592653589793}]}</t>
+    <t>{'other':{'transform':true,'outputConfigs':[{'suffix':'_OUT'}],'allowZone':false},'icon':'basic-operations-16x16','function':'basicOperations','inputs':{'_0':{'name':'Input curve'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Method','type':'select','value':'+','choices':['+','-','*','/']},'_1':{'name':'Constant','type':'number','value':3.141592653589793},'last':1}}</t>
   </si>
   <si>
     <t>Power</t>
   </si>
   <si>
-    <t>{"icon":"pow-16x16","transform":true,"function":"pow","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_POW"}],"allowZone":false,"parameters":[{"name":"Exponent","type":"number","value":3.141592653589793}]}</t>
+    <t>{'other':{'transform':true,'outputConfigs':[{'suffix':'_POW'}],'allowZone':false},'icon':'pow-16x16','function':'pow','inputs':{'_0':{'name':'Input curve'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Exponent','type':'number','value':3.141592653589793},'last':0}}</t>
   </si>
   <si>
     <t>Round</t>
   </si>
   <si>
-    <t>{"icon":"round-16x16","transform":true,"function":"round","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_ROUND"}],"allowZone":false,"parameters":[{"name":"Precision","type":"number","value":2}]}</t>
+    <t>{'other':{'transform':true,'outputConfigs':[{'suffix':'_ROUND'}],'allowZone':false},'icon':'round-16x16','function':'round','inputs':{'_0':{'name':'Input curve'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Precision','type':'number','value':2},'last':0}}</t>
   </si>
   <si>
     <t>Limit</t>
   </si>
   <si>
-    <t>{"icon":"limit-16x16","transform":true,"function":"limit","inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_LIMIT"}],"allowZone":false,"parameters":[{"name":"Min","type":"number","value":0},{"name":"Max","type":"number","value":1}]}</t>
+    <t>{'other':{'transform':true,'outputConfigs':[{'suffix':'_LIMIT'}],'allowZone':false},'icon':'limit-16x16','function':'limit','inputs':{'_0':{'name':'Input curve'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Min','type':'number','value':0},'_1':{'name':'Max','type':'number','value':1},'last':1}}</t>
   </si>
   <si>
     <t>Functional Transformation</t>
@@ -394,16 +398,19 @@
     <t>Curve Transformation</t>
   </si>
   <si>
+    <t>{'other':{'transform':true,'multiple':true,'inputTemplate':{'name':'Curve'},'outputConfigs':[{'suffix':'_OUT'}],'allowZone':false},'icon':'functional-transformations-16x16','function':'functionalTransforms','inputs':{'_0':{'name':'Curve 1'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Method','type':'select','value':'pow10','choices':['pow10','sqrt','loge','log10','abs','inv','acos','asin','atan','cos','sin','tan','exp','exp10']},'last':0}}</t>
+  </si>
+  <si>
     <t>Curve Derivation</t>
   </si>
   <si>
-    <t>{"icon":"curve-derivation-16x16","transform":true,"function":"curveDerivation","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"name":"First Derivation","suffix":"_1ST_DERIVATION","use":true},{"name":"Second Derivation","suffix":"_2ND_DERIVATION","use":true}],"allowZone":false,"parameters":[]}</t>
+    <t>{'other':{'transform':true,'multiple':true,'inputTemplate':{'name':'Curve'},'outputConfigs':[{'name':'First Derivation','suffix':'_1ST_DERIVATION','use':true},{'name':'Second Derivation','suffix':'_2ND_DERIVATION','use':true}],'allowZone':false},'icon':'curve-derivation-16x16','function':'curveDerivation','inputs':{'_0':{'name':'Curve 1'},'last':0},'outputs':[],'parameters':{'last':-1}}</t>
   </si>
   <si>
     <t>Curve Rescaling</t>
   </si>
   <si>
-    <t>{"icon":"curve-rescale-16x16","transform":true,"function":"curveRescaling","multiple":true,"minInputs":1,"inputs":[{"name":"Rescale curve"}],"outputs":[],"outputConfigs":[{"suffix":"_RESCALING"}],"allowZone":false,"parameters":[{"name":"Input left scale","type":"number","value":0},{"name":"Input right scale","type":"number","value":1},{"name":"Output left scale","type":"number","value":0},{"name":"Output right scale","type":"number","value":1}],"parameterActions":[{"name":"myFunc","icon":"ti-check","label":"some Action"},{"name":"myFunc1","icon":"ti-close","label":"some Action1"}]}</t>
+    <t>{'other':{'transform':true,'multiple':true,'inputTemplate':{'name':'Curve'},'outputConfigs':[{'suffix':'_RESCALING'}],'allowZone':false},'icon':'curve-rescale-16x16','function':'curveRescaling','inputs':{'_0':{'name':'Curve 1'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Input left scale','type':'number','value':0},'_1':{'name':'Input right scale','type':'number','value':1},'_2':{'name':'Output left scale','type':'number','value':0},'_3':{'name':'Output right scale','type':'number','value':1},'last':3}}</t>
   </si>
   <si>
     <t>Curve Filling</t>
@@ -412,91 +419,469 @@
     <t>Curve Interpolation</t>
   </si>
   <si>
+    <t>{'other':{'transform':true,'multiple':true,'inputTemplate':{'name':'Curve'},'outputConfigs':[{'suffix':'_FILLED'}],'allowZone':false},'icon':'curve-fill-data-gaps-16x16','function':'curveFilling','inputs':{'_0':{'name':'Curve 1'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Gaps Maximum Width','type':'number','value':13},'_1':{'name':'Width Type','type':'select','value':'In samples','choices':['In samples','In reference']},'_2':{'name':'Mode','type':'select','value':'linear interpolation','choices':['top value','bottom value','linear interpolation','constant']},'_3':{'name':'Constant','type':'number','value':100},'last':3}}</t>
+  </si>
+  <si>
     <t>Curve Resampling</t>
   </si>
   <si>
+    <t>{'other':{'transform':true,'multiple':true,'inputTemplate':{'name':'Curve'},'outputConfigs':[{'suffix':'_RESAMPLED'}],'allowZone':false},'icon':'curve-resampling-16x16','function':'curveResampling','inputs':{'_0':{'name':'Curve 1'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Mode','type':'select','choices':['Linear Interpolate','Depth Shift (core)','Block (core)'],'value':'Linear Interpolate'},'last':0}}</t>
+  </si>
+  <si>
     <t>Basic Combination</t>
   </si>
   <si>
     <t>Curve Combination</t>
   </si>
   <si>
-    <t>{"icon":"basic-combination-16x16","transform":true,"multiple":true,"function":"basicCombinations","inputs":[{"name":"Input curve"},{"name":"Input curve"}],"outputs":[{"name":"Combination curve","family":"Compressional Slowness","unit":"us/ft"}],"allowZone":false,"parameters":[{"name":"Method","type":"select","value":"+","choices":["+","-","*","/","min","max","average","median"]}]}</t>
+    <t>{'other':{'transform':true,'multiple':true,'inputTemplate':{'name':'Curve'},'allowZone':false},'icon':'basic-combination-16x16','function':'basicCombinations','inputs':{'_0':{'name':'Curve 1'},'_1':{'name':'Curve 2'},'last':1},'outputs':[{'name':'Combination curve','family':'Compressional Slowness','unit':'us/ft'}],'parameters':{'_0':{'name':'Method','type':'select','value':'+','choices':['+','-','*','/','min','max','average','median']},'last':0}}</t>
   </si>
   <si>
     <t>Linear Combination</t>
   </si>
   <si>
-    <t>{"icon":"linear-combination-16x16","multiple":true,"transform":true,"addParamFlag":true,"function":"linearCombinations","inputs":[{"name":"Input curve"},{"name":"Input curve"}],"outputs":[{"name":"Combination curve","family":"Compressional Slowness","unit":"us/ft"}],"allowZone":false,"parameters":[{"name":"Coefficient 1","type":"number","value":1},{"name":"Coefficient 2","type":"number","value":1}]}</t>
-  </si>
-  <si>
-    <t>Median Filter</t>
-  </si>
-  <si>
-    <t>Curve Filter</t>
-  </si>
-  <si>
-    <t>{"icon":"median-filter-16x16","function":"curveMedianFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_MED_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
-  </si>
-  <si>
-    <t>Square Filter</t>
-  </si>
-  <si>
-    <t>{"icon":"square-filter-16x16","function":"curveSquareFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_SQUARE_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
-  </si>
-  <si>
-    <t>Bell Filter</t>
-  </si>
-  <si>
-    <t>{"icon":"bell-filter-16x16","function":"curveBellFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_BELL_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Levels","type":"number","value":5}]}</t>
-  </si>
-  <si>
-    <t>Savitsky-Golay Filter</t>
-  </si>
-  <si>
-    <t>{"icon":"savisky-golay-filter-16x16","function":"curveSavGolFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_SAVGOL_FILTERED"}],"allowZone":false,"parameters":[{"name":"Derivative Order","type":"number","value":0},{"name":"Polynomial Order","type":"number","value":2},{"name":"Number Of Points","type":"number","value":5}]}</t>
-  </si>
-  <si>
-    <t>Fast Fourie transform Filter</t>
-  </si>
-  <si>
-    <t>{"icon":"fft-filter-16x16","function":"curveFFTFilter","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_FFT_FILTERED"}],"allowZone":false,"parameters":[{"name":"Number Of Cutoff","type":"number","value":100}]}</t>
+    <t>{'other':{'multiple':true,'inputTemplate':{'name':'Curve'},'transform':true,'addParamFlag':true,'allowZone':false},'icon':'linear-combination-16x16','function':'linearCombinations','inputs':{'_0':{'name':'Curve 1'},'_1':{'name':'Curve 2'},'last':1},'outputs':[{'name':'Combination curve','family':'Compressional Slowness','unit':'us/ft'}],'parameters':{'_0':{'name':'Coefficient 1','type':'number','value':1},'_1':{'name':'Coefficient 2','type':'number','value':1},'last':1}}</t>
+  </si>
+  <si>
+    <t>Median Smoothing</t>
+  </si>
+  <si>
+    <t>Curve Smoothing</t>
+  </si>
+  <si>
+    <t>{'other':{'transform':true,'multiple':true,'inputTemplate':{'name':'Curve'},'outputConfigs':[{'suffix':'_MED_SM'}],'allowZone':false},'icon':'median-filter-16x16','function':'curveMedianFilter','inputs':{'_0':{'name':'Curve 1'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Number Of Levels','type':'number','value':5},'last':0}}</t>
+  </si>
+  <si>
+    <t>Square Smoothing</t>
+  </si>
+  <si>
+    <t>{'other':{'transform':true,'multiple':true,'inputTemplate':{'name':'Curve'},'outputConfigs':[{'suffix':'_SQUARE_SM'}],'allowZone':false},'icon':'square-filter-16x16','function':'curveSquareFilter','inputs':{'_0':{'name':'Curve 1'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Number Of Levels','type':'number','value':5},'last':0}}</t>
+  </si>
+  <si>
+    <t>Bell Smoothing</t>
+  </si>
+  <si>
+    <t>{'other':{'transform':true,'multiple':true,'inputTemplate':{'name':'Curve'},'outputConfigs':[{'suffix':'_BELL_SM'}],'allowZone':false},'icon':'bell-filter-16x16','function':'curveBellFilter','inputs':{'_0':{'name':'Curve 1'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Number Of Levels','type':'number','value':5},'last':0}}</t>
+  </si>
+  <si>
+    <t>Savitsky-Golay Smoothing</t>
+  </si>
+  <si>
+    <t>{'other':{'transform':true,'multiple':true,'inputTemplate':{'name':'Curve'},'outputConfigs':[{'suffix':'_SAVGOL_SM'}],'allowZone':false},'icon':'savisky-golay-filter-16x16','function':'curveSavGolFilter','inputs':{'_0':{'name':'Curve 1'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Derivative Order','type':'number','value':0},'_1':{'name':'Polynomial Order','type':'number','value':2},'_2':{'name':'Number Of Points','type':'number','value':5},'last':2}}</t>
+  </si>
+  <si>
+    <t>Fast Fourie transform Smoothing</t>
+  </si>
+  <si>
+    <t>{'other':{'transform':true,'multiple':true,'inputTemplate':{'name':'Curve'},'outputConfigs':[{'suffix':'_FFT_SM'}],'allowZone':false},'icon':'fft-filter-16x16','function':'curveFFTFilter','inputs':{'_0':{'name':'Curve 1'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Number Of Cutoff','type':'number','value':100},'last':0}}</t>
   </si>
   <si>
     <t>Curve Convolution</t>
   </si>
   <si>
-    <t>{"icon":"curve-convolution-16x16","function":"curveConvolution","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_CONV_FILTERED"}],"allowZone":false,"paramMultiple":true,"parameters":[{"name":"Coefficient 1","type":"number","value":0.33,"removeable":false},{"name":"Coefficient 2","type":"number","value":0.33,"removeable":false},{"name":"Coefficient 3","type":"number","value":0.33,"removeable":false}],"parameterActions":[{"name":"addParam","icon":"ti-plus","label":"Add parameter"}]}</t>
+    <t>{'other':{'transform':true,'multiple':true,'inputTemplate':{'name':'Curve'},'outputConfigs':[{'suffix':'_CONV_SM'}],'allowZone':false,'paramMultiple':true},'icon':'curve-convolution-16x16','function':'curveConvolution','inputs':{'_0':{'name':'Curve 1'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Coefficient 1','type':'number','value':0.33,'removeable':false},'_1':{'name':'Coefficient 2','type':'number','value':0.33,'removeable':false},'_2':{'name':'Coefficient 3','type':'number','value':0.33,'removeable':false},'last':2}}</t>
   </si>
   <si>
     <t>Curve Deconvolution</t>
   </si>
   <si>
-    <t>{"icon":"curve-deconvolution-16x16","function":"curveDeconvolution","transform":true,"multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_DECONV_FILTERED"}],"allowZone":false,"paramMultiple":true,"parameters":[{"name":"Coefficient 1","type":"number","value":1,"removeable":false},{"name":"Coefficient 2","type":"number","value":0,"removeable":false},{"name":"Coefficient 3","type":"number","value":1,"removeable":false}],"parameterActions":[{"name":"addParam","icon":"ti-plus","label":"Add parameter"}]}</t>
+    <t>{'other':{'transform':true,'multiple':true,'inputTemplate':{'name':'Curve'},'outputConfigs':[{'suffix':'_DECONV_SM'}],'allowZone':false,'paramMultiple':true},'icon':'curve-deconvolution-16x16','function':'curveDeconvolution','inputs':{'_0':{'name':'Curve 1'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Coefficient 1','type':'number','value':1,'removeable':false},'_1':{'name':'Coefficient 2','type':'number','value':0,'removeable':false},'_2':{'name':'Coefficient 3','type':'number','value':1,'removeable':false},'last':2}}</t>
+  </si>
+  <si>
+    <t>Non-poro Sw</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'water-saturation-16x16','function':'calSaturationNonPoro','inputs':{'_0':{'name':'Micro Resistivity','family':'Micro Resistivity','unit':'ohm.m'},'_1':{'name':'Resistivity','family':'Resistivity','unit':'ohm.m'},'last':1},'parameters':{'_0':{'name':'Rw','type':'number','value':0.03},'_1':{'name':'Rmf','type':'number','value':0.1},'last':1},'outputs':[{'name':'Sw_QL','family':'Water Saturation','unit':'v/v'}]}</t>
   </si>
   <si>
     <t>Merge Curve</t>
   </si>
   <si>
-    <t>{ "icon": "linear-combination-16x16", "multiple": true, "function": "mergedCurve", "inputs": [ { "name": "Input curve" }, { "name": "Input curve" } ], "parameters": [ { "name": "overlap", "type": "select", "choices": ["position","mean"], "value": "position" } ], "outputs": [], "outputConfigs": [ { "suffix": "_MERGED" } ], "allowZone": false }</t>
-  </si>
-  <si>
-    <t>{"icon":"functional-transformations-16x16","transform":true,"function":"functionalTransforms","multiple":true,"minInputs":1,"inputs":[{"name":"Input curve"}],"outputs":[],"outputConfigs":[{"suffix":"_OUT"}],"allowZone":false,"parameters":[{"name":"Method","type":"select","value":"pow10","choices":["pow10","sqrt","loge","log10","abs","inv","acos","asin","atan","cos","sin","tan","exp","exp10"]}]}</t>
-  </si>
-  <si>
-    <t>{ "icon": "curve-fill-data-gaps-16x16", "transform": true, "function": "curveFilling", "multiple": true, "minInputs": 1, "inputs": [ { "name": "Input curve" } ], "outputs": [], "outputConfigs": [ { "suffix": "_FILLED" } ],"allowZone":false, "parameters": [ { "name": "Gaps Maximum Width", "type": "number", "value": 13 }, { "name": "Width Type", "type": "select", "value": "In samples", "choices": [ "In samples", "In reference" ] }, { "name": "Mode", "type": "select", "value": "linear interpolation", "choices": [ "top value", "bottom value", "linear interpolation", "constant" ] }, { "name": "Constant", "type": "number", "value": 100 } ] }</t>
-  </si>
-  <si>
-    <t>Non-poro Sw</t>
-  </si>
-  <si>
-    <t>{ "icon": "water-saturation-16x16", "function": "calSaturationNonPoro", "inputs": [ { "name": "Micro Resistivity", "family": "Micro Resistivity", "unit": "ohm.m" }, { "name": "Resistivity", "family": "Resistivity", "unit": "ohm.m" } ], "parameters": [ { "name": "Rw", "type": "number", "value": 0.03 }, { "name": "Rmf", "type": "number", "value": 0.1 } ], "outputs": [ { "name": "Sw_QL", "family": "Water Saturation", "unit": "v/v" } ] }</t>
-  </si>
-  <si>
-    <t>{ "icon": "curve-resampling-16x16", "transform": true, "function": "curveResampling", "multiple": true, "minInputs": 1, "inputs": [ { "name": "Input curve" } ], "outputs": [], "outputConfigs": [ { "suffix": "_RESAMPLED" } ],"allowZone":false, "parameters": [ { "name": "Mode", "type": "select", "choices": ["Linear Interpolate", "Depth Shift (core)", "Block (core)"], "value": "Linear Interpolate" } ] }</t>
-  </si>
-  <si>
-    <t>{"icon":"multi-mineral-solver-16x16","function":"multiMineralSolver","multiple":true,"minInputs":1,"inputs":[{"name":"Curve"}],"parameters":[],"hideParameterConfig":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Fluid","type":"Fluid","default":{"DT":189,"NPHI":0.991,"RHOB":1.03,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.3,"min":0}},{"name":"Gas","default":{"DT":265,"NPHI":0.2,"RHOB":0.1,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oil","default":{"DT":210,"NPHI":0.95,"RHOB":0.7,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Water","default":{"DT":189,"NPHI":1,"RHOB":1.05,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"DT":["Peak Slowness","Peak Travel Time","Travel Time","Compressional Slowness","DTC.*","DT","SON.*","AC","DTTP.*","Acoustic"],"RHOB":["Bulk Density","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Corrected ZDL Density","DEN.*","RHOB","RHOZ","ZDEN.*","RHOZ","LDEN","Density"],"GR":["Gamma Ray","Gamma Ray 1","Gamma Ray Normalised","Gamma Ray Shale","Gamma Ray Squared","Russian Gamma Ray","PLT Gamma Ray","GR.*","ECGR.*","SGRC.*","GAM.*","HGR","EGR","SGR"],"NPHI":["Thermal Neutron Near Far Ratio","Compensated Neutron Porosity","Epithermal Neutron Porosity","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Russian Thermal Neutron Porosity","Thermal Neutron Porosity","NEU.*","TNP.*","NPHI.*","CNL.*","CNT.*","Porosity"],"POT":["Potassium Capture Relative Yield","Potassium Concentration","Potassium Radio Nuclide Activity","POT.*","Weight Fraction - Element"],"THOR":["Thorium Concentration","Thorium Radio Nuclide Activity","THOR.*"],"URAN":["Uranium Concentration","Uranium Radio Nuclide Activity","URA.*"],"PAI":[".*"]},"outputs":[],"outputConfigs":[{"name":"Minerals","family":"Mineral Volume","unit":"v/v","prefix":"V_"},{"name":"Synthetic Curves","suffix":"_SYN","disableEditing":["family","unit"]}]}</t>
+    <t>{'other':{'multiple':true,'inputTemplate':{'name':'Curve'},'outputConfigs':[{'suffix':'_MERGED'}],'allowZone':false},'icon':'linear-combination-16x16','function':'mergedCurve','inputs':{'_0':{'name':'Curve 1'},'_1':{'name':'Curve 2'},'last':1},'parameters':{'_0':{'name':'overlap','type':'select','choices':['position','mean'],'value':'position'},'last':0},'outputs':[]}</t>
+  </si>
+  <si>
+    <t>Block Parameter - Secondary Porosity</t>
+  </si>
+  <si>
+    <t>Basement</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'block-value-16x16','function':'calBlockParameter','inputs':{'_0':{'name':'Total Porosity','unit':'v/v','family':'Total Porosity'},'_1':{'name':'Compressional Slowness','unit':'us/ft','family':'Compressional Slowness'},'_2':{'name':'Resistivity','unit':'ohm.m','family':'Resistivity','allowNull':true},'last':2},'parameters':{'_0':{'name':'Block Porosity','type':'number','value':0.003,'unit':'v/v','color':'red'},'_1':{'name':'Block Sonic','type':'number','value':54,'unit':'us/ft','color':'green'},'_2':{'name':'Macro Sonic','type':'number','value':62,'unit':'us/ft','color':'#F0F'},'_3':{'name':'Block Resistivity','type':'number','value':2000,'unit':'ohm.m'},'_4':{'name':'Macro Resistivity','type':'number','value':200,'unit':'ohm.m'},'last':4},'outputs':[{'name':'PHI_BLK','family':'Block Porosity','unit':'v/v'},{'name':'DT_BLK','family':'Compressional Slowness','unit':'us/ft'},{'name':'DT_MAC','family':'Compressional Slowness','unit':'us/ft'},{'name':'RES_BLK','family':'Resistivity','unit':'ohm.m'},{'name':'RES_MAC','family':'Resistivity','unit':'ohm.m'},{'name':'PHI_2','family':'Secondary Porosity','unit':'v/v'}]}</t>
+  </si>
+  <si>
+    <t>Fracture and vug Porosity</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'fracture-porosity-16x16','function':'calFracturenVugPorosity','inputs':{'_0':{'name':'Shallow Resistivity','unit':'ohm.m','family':'Shallow Resistivity'},'_1':{'name':'Secondary Porosity','unit':'v/v','family':'Secondary Porosity'},'_4':{'name':'Formation Temperature','unit':'degC','family':'Formation Temperature'},'last':4},'parameters':{'_1':{'name':'Mud Filtrate Sample Resistivity','type':'number','value':0,'unit':'ohm.m'},'_2':{'name':'Mud Filtrate Sample Temperature','type':'number','value':0,'unit':'degC'},'last':2},'outputs':[{'name':'PHI_V','family':'Vug Porosity','unit':'v/v'},{'name':'PHI_FR','family':'Fracture Porosity','unit':'v/v'}]}</t>
+  </si>
+  <si>
+    <t>Macro and micro zone</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'fft-mmp-16x16','function':'calMacronMicroZone','inputs':{'_0':{'name':'Secondary Porosity','unit':'v/v','family':'Secondary Porosity'},'_1':{'name':'Fracture Porosity','unit':'v/v','family':'Fracture Porosity'},'_2':{'name':'Compressional Slowness','unit':'us/ft','family':'Compressional Slowness'},'_3':{'name':'Block Sonic','unit':'us/ft','family':'Compressional Slowness'},'_4':{'name':'Macro Sonic','unit':'us/ft','family':'Compressional Slowness'},'_5':{'name':'Resistivity','unit':'ohm.m','family':'Resistivity'},'_6':{'name':'Block Resistivity','unit':'ohm.m','family':'Resistivity','allowNull':true},'_7':{'name':'Macro Resistivity','unit':'ohm.m','family':'Resistivity','allowNull':true},'last':7},'parameters':{'_0':{'name':'Block Resistivity','type':'number','value':null,'unit':'ohm.m'},'_1':{'name':'Macro Resistivity','type':'number','value':null,'unit':'ohm.m'},'_2':{'name':'Fracture Porosity Cutoff','type':'number','value':null,'unit':'v/v'},'last':2},'outputs':[{'name':'F_MAC','family':'General Flag','unit':'unitless'},{'name':'F_MIC','family':'General Flag','unit':'unitless'},{'name':'PHI_2_MAC','family':'Macro Secondary Porosity','unit':'v/v'},{'name':'PHI_2_MIC','family':'Micro Secondary Porosity','unit':'v/v'},{'name':'PHI_FR_MAC','family':'Macro Fracture Porosity','unit':'v/v'},{'name':'PHI_FR_MIC','family':'Micro Fracture Porosity','unit':'v/v'},{'name':'PHI_2_FIL','family':'Secondary Porosity','unit':'v/v'},{'name':'PHI_FR_FIL','family':'Fracture Porosity','unit':'v/v'}]}</t>
+  </si>
+  <si>
+    <t>Residue Water Saturation</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'residual-water-saturation-16x16','function':'calResidueWaterSaturation','inputs':{'_0':{'name':'Macro Flag','unit':'unitless','family':'General Flag'},'_1':{'name':'Micro Flag','unit':'unitless','family':'General Flag'},'last':1},'parameters':{'_0':{'name':'A','type':'number','value':-1.8475},'_1':{'name':'B','type':'number','value':0.1415},'_2':{'name':'C','type':'number','value':1.8862},'_3':{'name':'Swr_cutoff','type':'number','value':0.76,'unit':'v/v'},'last':3},'outputs':[{'name':'SWR','family':'Residual Water Saturation','unit':'v/v'}]}</t>
+  </si>
+  <si>
+    <t>Permeability</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'permeability-16x16','function':'calPermeability','inputs':{'_0':{'name':'Compressional Slowness','unit':'us/ft','family':'Compressional Slowness'},'_1':{'name':'Block Sonic','unit':'us/ft','family':'Compressional Slowness'},'_2':{'name':'Secondary Porosity','unit':'v/v','family':'Secondary Porosity'},'_3':{'name':'Residual Water Saturation','unit':'v/v','family':'Residual Water Saturation','allowNull':true},'last':3},'parameters':{'_0':{'name':'Residual Water Saturation','type':'number','value':0.85,'unit':'v/v'},'_1':{'name':'a','type':'number','value':264},'_2':{'name':'b','type':'number','value':0.689},'last':2},'outputs':[{'name':'PERM','family':'Permeability','unit':'mD'}]}</t>
+  </si>
+  <si>
+    <t>Cutoff and Summation</t>
+  </si>
+  <si>
+    <t>{'other':{'summation':true},'icon':'cutoff-and-summation-16x16','function':'calBasementSummation','inputs':{'_0':{'name':'Secondary Porosity','unit':'v/v','family':'Secondary Porosity'},'_1':{'name':'Fracture Porosity','unit':'v/v','family':'Fracture Porosity'},'_2':{'name':'Macro Flag','unit':'unitless','family':'General Flag'},'_3':{'name':'Micro Flag','unit':'unitless','family':'General Flag'},'_4':{'name':'Permeability','unit':'mD','family':'Permeability'},'_5':{'name':'Residual Water Saturation','unit':'v/v','family':'Residual Water Saturation'},'last':5},'options':{'_0':{'name':'TVD'},'_1':{'name':'TVDSS'},'last':1},'parameters':{'_0':{'name':'Secondary Porosity Cutoff','type':'number','value':0.003,'unit':'v/v'},'_1':{'name':'Fracture Porosity Cutoff','type':'number','value':0.0005,'unit':'v/v'},'_2':{'name':'Perm Cutoff','type':'number','value':0,'unit':'mD'},'last':2},'outputs':[{'name':'F_PAY','family':'General Flag','unit':'unitless'},{'name':'FINDEX','family':'Flow Index','unit':'unitless'}]}</t>
+  </si>
+  <si>
+    <t>Mechanical stratigraphy flag from GR</t>
+  </si>
+  <si>
+    <t>Geomechanic</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'mechanical-stratigraphy-flag-form-gr-16x16','function':'calMechanicalStratigralyFlagFormGR','inputs':{'_0':{'name':'Gamma Ray','unit':'gAPI','family':'Gamma Ray'},'last':0},'parameters':{'_0':{'name':'Threshold','type':'number','value':75,'unit':'gAPI'},'last':0},'outputs':[{'name':'SHALE_FLAG','family':'Mechanical Stratigraphy Flag','unit':'unitless'}]}</t>
+  </si>
+  <si>
+    <t>Dynamic Properties</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calDynamicProperties','inputs':{'_0':{'name':'Bulk Density','unit':'gAPI','family':'Bulk Density'},'_1':{'name':'Compressional Slowness','unit':'us/ft','family':'Compressional Slowness'},'_2':{'name':'Shear Slowness','unit':'us/ft','family':'Shear Slowness'},'last':2},'parameters':{},'outputs':[{'name':'VELC','family':'Compressional Velocity','unit':'ft/s'},{'name':'VELS','family':'Shear Velocity','unit':'ft/s'},{'name':'PR_DYN','family':'Poisson Ratio (Dynamic)','unit':'unitless'},{'name':'YM_DYN','family':'Young's Modulus (Dynamic)','unit':'Mpsi'}]}</t>
+  </si>
+  <si>
+    <t>Bradford et al. (1998) for Sand</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'static-young-modulus-16x16','function':'calMethodBradfordEtAlForSand','inputs':{'_0':{'name':'Young's Modulus (Dynamic)','unit':'Mpsi','family':'Young's Modulus (Dynamic)'},'_1':{'name':'Mechanical Stratigraphy Flag','unit':'unitless','family':'Mechanical Stratigraphy Flag','allowNull':true},'last':1},'parameters':{'_0':{'name':'Apply for flag =','type':'select','choices':[0,1,null,'Any'],'value':0},'last':0},'outputs':[{'name':'YM_STA_BRAD','family':'Young's Modulus (Static)','unit':'Mpsi'}]}</t>
+  </si>
+  <si>
+    <t>Horsrud (2001) for Shale</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'static-young-modulus-16x16','function':'calHorsrudForSale','inputs':{'_0':{'name':'Compressional slowness','unit':'us/ft','family':'Compressional slowness'},'_1':{'name':'Mechanical Stratigraphy Flag','unit':'unitless','family':'Mechanical Stratigraphy Flag','allowNull':true},'last':1},'parameters':{'_0':{'name':'Apply for flag =','type':'select','choices':[0,1,null,'Any'],'value':0},'last':0},'outputs':[{'name':'YM_STA_HORS','family':'Young's Modulus (Static)','unit':'Mpsi'}]}</t>
+  </si>
+  <si>
+    <t>Lacy (1997)</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'static-young-modulus-16x16','function':'calLacy','inputs':{'_0':{'name':'Young's Modulus (Dynamic)','family':'Young's Modulus (Dynamic)','unit':'Mpsi'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless'},'last':1},'parameters':{'_0':{'name':'Sand with flag ','type':'select','choices':[0,1],'value':0},'_1':{'name':'Shale with flag ','type':'select','choices':[0,1],'value':0},'last':1},'outputs':[{'name':'YM_STA_LACY','family':'Young's Modulus (Static)','unit':'Mpsi'}]}</t>
+  </si>
+  <si>
+    <t>SYM Combiner</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'','function':'','inputs':{'_0':{'name':'Young's Modulus (Static)','family':'Young's Modulus (Static)','unit':'Mpsi'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless'},'last':1},'parameters':{'_0':{'name':'','type':'select','choices':[0,1],'value':0},'_1':{'name':'','type':'select','choices':[0,1],'value':0},'_2':{'name':'','type':'select','choices':[0,1],'value':0},'_3':{'name':'','type':'select','choices':[0,1],'value':0},'last':3},'outputs':[{'name':'','family':'','unit':''}]}</t>
+  </si>
+  <si>
+    <t>Static Poisson's Ratio</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'static-poisson-ratio-16x16','function':'calDynamicPoissonRatio','inputs':{'_0':{'name':'Poisson Ratio (Dynamic)','family':'Poisson Ratio (Dynamic)','unit':'unitless'},'last':0},'parameters':{'_0':{'name':'PR multiplier','type':'number','value':1,'unit':'unitless'},'last':0},'outputs':[{'name':'PR_STA','family':'Poisson Ratio (Static)','unit':'unitless'}]}</t>
+  </si>
+  <si>
+    <t>Static Bulk and Shear Modulus</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'static-bulk-and-shear-modulus-16x16','function':'calStaticBulkShearModulus','inputs':{'_0':{'name':'Young's Modulus (Static)','family':'Young's Modulus (Static)','unit':'Mpsi'},'_1':{'name':'Poisson Ratio (Static)','family':'Poisson Ratio (Static)','unit':'unitless'},'last':1},'parameters':{},'outputs':[{'name':'SM_STA','family':'Shear Modulus (Static)','unit':'Mpsi'},{'name':'BM_STA','family':'Bulk Modulus (Static)','unit':'Mpsi'}]}</t>
+  </si>
+  <si>
+    <t>Mepro Alpha Model</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calMeproAlphaModel','inputs':{'_0':{'name':'Bulk Modulus (Static)','family':'Bulk Modulus (Static)','unit':'Mpsi'},'_1':{'name':'Grain Bulk Modulus','family':'Grain Bulk Modulus','unit':'Mpsi','allowNull':true},'_2':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':2},'parameters':{'_0':{'name':'Grain Bulk Modulus','type':'number','value':5.37,'unit':'Mpsi'},'_1':{'name':'Apply for flag =','type':'select','choices':[0,1,null,'Any'],'value':0},'last':1},'outputs':[{'name':'ALPHA','family':'Biot Coefficient','unit':'unitless'}]}</t>
+  </si>
+  <si>
+    <t>Alpha combiner</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calAlphaCombinerWFlagOrZone','inputs':{'_0':{'name':'Biot Coefficient','family':'Biot Coefficient','unit':'unitless'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Alpha when Flag = 1','type':'','value':0},'_1':{'name':'','type':'','value':0},'_2':{'name':'','type':'','value':0},'_3':{'name':'','type':'','value':0},'last':3},'outputs':[{'name':'','family':'','unit':''}]}</t>
+  </si>
+  <si>
+    <t>Asadi et al. (2016) for Sand</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calAsadiEtAlForSand','inputs':{'_0':{'name':'Neutron Porosity','family':'Neutron Porosity','unit':'v/v'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Sand with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_ASADI','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calBradFordEtAlForSand','inputs':{'_0':{'name':'Young's Modulus (Static)','family':'Young's Modulus (Static)','unit':'psi'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Sand with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_Brad','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Chang et al. (2006) #3 for Sand</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calChangEtAl3ForSand','inputs':{'_0':{'name':'Compressional slowness','family':'Compressional slowness','unit':'us/ft'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Sand with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_Chang3','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Chang et al. (2006) #6 for Sand</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calChangEtAl6ForSand','inputs':{'_0':{'name':'Bulk Density','family':'Bulk Density','unit':'g/cc'},'_1':{'name':'Compressional velocity','family':'Compressional velocity','unit':'ft/s'},'_2':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':2},'parameters':{'_0':{'name':'Sand with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_Chang6','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Chang et al. (2006) #7 for Sand</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calChangEtAl7ForSand','inputs':{'_0':{'name':'Bulk Density','family':'Bulk Density','unit':'g/cc'},'_1':{'name':'Compressional velocity','family':'Compressional velocity','unit':'ft/s'},'_2':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':2},'parameters':{'_0':{'name':'Sand with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_Chang7','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Chang et al. (2006) #8 for Sand</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calChangEtAl8ForSand','inputs':{'_0':{'name':'Young's Modulus (Static)','family':'Young's Modulus (Static)','unit':'Mpsi'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Sand with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_Chang8','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Chang et al. (2006) #11 for Sand</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calChangEtAl11ForSand','inputs':{'_0':{'name':'Neutron porosity','family':'Neutron porosity','unit':'v/v'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Sand with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_Chang11','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Freyburg (1972) for Sand</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calFreyburgForSand','inputs':{'_0':{'name':'Compressional Velocity','family':'Compressional Velocity','unit':'ft/s'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Sand with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_FREY','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Lacy (1997) for Sand</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calLacyForSand','inputs':{'_0':{'name':'Young's Modulus (Static)','family':'Young's Modulus (Static)','unit':'Mpsi'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Sand with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_LACY','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>McNally (1987) for Sand</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calMcNallyForSandInputs','inputs':{'_0':{'name':'Compressional slowness','family':'Compressional slowness','unit':'us/ft'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Sand with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_MC','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Moos et al. (1999) for Sand</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calMoosEtAlForSand','inputs':{'_0':{'name':'Bulk Density','family':'Bulk Density','unit':'g/cc'},'_1':{'name':'Compressional velocity','family':'Compressional velocity','unit':'ft/s'},'_2':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':2},'parameters':{'_0':{'name':'Sand with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_MOOS','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Plumb (1994) for Sand</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calPlumbForSand','inputs':{'_0':{'name':'Young's Modulus (Static)','family':'Young's Modulus (Static)','unit':'Mpsi'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Sand with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_PLUMB','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Vernik et al. (1993) for Sand</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calVernikEtAlForSand','inputs':{'_0':{'name':'Neutron porosity','family':'Neutron porosity','unit':'v/v'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Sand with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_VER','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Chang et al. (2006) #13 for Shale</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calChangEtAl13ForShale','inputs':{'_0':{'name':'Compressional slowness','family':'Compressional slowness','unit':'us/ft'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_CHANG13','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Chang et al. (2006) #14 for Shale</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calChangEtAl14ForShale','inputs':{'_0':{'name':'Compressional slowness','family':'Compressional slowness','unit':'us/ft'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_CHANG14','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Chang et al. (2006) #15 for Shale</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calChangEtAl15ForShale','inputs':{'_0':{'name':'Compressional slowness','family':'Compressional slowness','unit':'us/ft'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_CHANG15','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Chang et al. (2006) #18 for Shale</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calChangEtAl18ForShale','inputs':{'_0':{'name':'Young's Modulus (Static)','family':'Young's Modulus (Static)','unit':'Mpsi'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_CHANG18','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Chang et al. (2006) #21 for Shale</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calChangEtAl21ForShale','inputs':{'_0':{'name':'Neutron porosity','family':'Neutron porosity','unit':'v/v'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_CHANG21','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Horsrud (2001) DT for Shale</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calHorsrudDTForShale','inputs':{'_0':{'name':'Compressional slowness','family':'Compressional slowness','unit':'us/ft'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_HOR_DT','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Horsrud (2001) Es for Shale</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calHorsrudEsForShale','inputs':{'_0':{'name':'Young's Modulus (Static)','family':'Young's Modulus (Static)','unit':'Mpsi'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_HOR_ES','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Horsrud (2001) PHI for Shale</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calHorsrudPhiForShale','inputs':{'_0':{'name':'Neutron porosity','family':'Neutron porosity','unit':'v/v'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_HOR_PHI','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Khaksar et al. (2009) for Shale</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calKhaksarEtAlForShale','inputs':{'_0':{'name':'Bulk Density','family':'Bulk Density','unit':'g/cc'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_KHA','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Lal (1999) for Shale</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calLalForShaleUCS','inputs':{'_0':{'name':'Compressional slowness','family':'Compressional slowness','unit':'us/ft'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_LAL','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Lashkaripour and Dusseault (1993) for Shale</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calLashkaripourDusseaultForShale','inputs':{'_0':{'name':'Neutron porosity','family':'Neutron porosity','unit':'v/v'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_LASH','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCS combiner </t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calUCSCombinerWFlagOrZone','inputs':{'_0':{'name':'Unconfined Compressive Strength','family':'Unconfined Compressive Strength','unit':'psi'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'','type':'','value':0},'last':0},'outputs':[{'name':'USC_COM','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calLalForShaleIFA','inputs':{'_0':{'name':'Compressional Velocity','family':'Compressional Velocity','unit':'ft/s'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'IFA_LAL','family':'Internal Friction Angle','unit':'deg'}]}</t>
+  </si>
+  <si>
+    <t>Weingarten and Perkins (1995) for Sand</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calWeingartenPerkinsForSand','inputs':{'_0':{'name':'Neutron porosity','family':'Neutron porosity','unit':'v/v'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'IFA_WEI','family':'Internal Friction Angle','unit':'deg'}]}</t>
+  </si>
+  <si>
+    <t>IFA combiner</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calIFACombinerWFlagOrZone','inputs':{'_0':{'name':'Internal Friction Angle','family':'Internal Friction Angle','unit':'deg'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'IFA_COM','family':'Internal Friction Angle','unit':'deg'}]}</t>
+  </si>
+  <si>
+    <t>Cohesion from UCS and IFA</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'cohension-from-ucs-ifa-16x16','function':'calCohesionFromUCSAndIFA','inputs':{'_0':{'name':'Internal Friction Angle','family':'Internal Friction Angle','unit':'deg'},'_1':{'name':'Unconfined Compressive Strength','family':'Unconfined Compressive Strengpsith','unit':'psi'},'last':1},'parameters':{},'outputs':[{'name':'COHESION','family':'Cohesion Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Tensile Strength from UCS</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'tensile-strength-from-ucs-16x16','function':'calTensileStrengthFromUCS','inputs':{'_0':{'name':'Unconfined Compressive Strength','family':'Unconfined Compressive Strength','unit':'psi'},'last':0},'parameters':{'_0':{'name':'UCS multiplier','type':'number','unit':'unitless','value':0.1},'last':0},'outputs':[{'name':'TSTR','family':'Tensile Strength','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Gardner</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calGardner','inputs':{'_0':{'name':'Compressional Velocity','family':'Compressional Velocity','unit':'ft/s'},'last':0},'parameters':{'_0':{'name':'a','type':'number','unit':'unitless','value':0.23},'_1':{'name':'b','type':'number','unit':'unitless','value':0.25},'last':1},'outputs':[{'name':'DEN_GARD','family':'Bulk Density','unit':'g/cc'}]}</t>
+  </si>
+  <si>
+    <t>Bellotti for Consolidated Soil</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calBellottiConsolidated','inputs':{'_0':{'name':'Compressional Velocity','family':'Compressional Velocity','unit':'ft/s'},'last':0},'parameters':{},'outputs':[{'name':'DEN_BEL_CONSOLID','family':'Bulk Density','unit':'g/cc'}]}</t>
+  </si>
+  <si>
+    <t>Bellotti for Unconsolidated Soil</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calBellottiUnconsolidated','inputs':{'_0':{'name':'Compressional Slowness','family':'Compressional Slowness','unit':'us/ft'},'last':0},'parameters':{},'outputs':[{'name':'DEN_BEL_UNCOSOLID','family':'Bulk Density','unit':'g/cc'}]}</t>
+  </si>
+  <si>
+    <t>Lindseth</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calLindseth','inputs':{'_0':{'name':'Compressional Velocity','family':'Compressional Velocity','unit':'ft/s'},'last':0},'parameters':{},'outputs':[{'name':'DEN_LIND','family':'Bulk Density','unit':'g/cc'}]}</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calLinear','inputs':{'_0':{'name':'True vertical depth','family':'True vertical depth','unit':'m'},'last':0},'parameters':{'_0':{'name':'KB height','type':'number','unit':'m','value':0},'_1':{'name':'Water depth','type':'number','unit':'m','value':0},'_2':{'name':'Top RHOB','type':'number','unit':'g/cc','value':1.88},'_3':{'name':'Bottom depth','type':'number','unit':'m','value':4000},'_4':{'name':'Bottom RHOB','type':'number','unit':'g/cc','value':2.55},'last':4},'outputs':[{'name':'DEN_LINEAR','family':'Bulk Density','unit':'g/cc'}]}</t>
+  </si>
+  <si>
+    <t>Power Law</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calPowerLaw','inputs':{'_0':{'name':'True vertical depth','family':'True vertical depth','unit':'m'},'last':0},'parameters':{'_0':{'name':'KB height','type':'number','unit':'m','value':0},'_1':{'name':'Water depth','type':'number','unit':'m','value':0},'_2':{'name':'Top RHOB','type':'number','unit':'g/cc','value':1.88},'_3':{'name':'Bottom depth','type':'number','unit':'m','value':4000},'_4':{'name':'Bottom RHOB','type':'number','unit':'g/cc','value':2.55},'last':4},'outputs':[{'name':'DEN_POWER','family':'Bulk Density','unit':'g/cc'}]}</t>
+  </si>
+  <si>
+    <t>Hubbert and Willis</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calHubbertWillis','inputs':{'_0':{'name':'Vertical Stress','family':'Vertical Stress','unit':'psi'},'_1':{'name':'Pore Pressure','family':'Pore Pressure','unit':'psi'},'last':1},'parameters':{},'outputs':[{'name':'SHMIN_HUB','family':'Minimum Horizontal Stress','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Eaton</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calEaton','inputs':{'_0':{'name':'Vertical Stress','family':'Vertical Stress','unit':'psi'},'_1':{'name':'Pore Pressure','family':'Pore Pressure','unit':'psi'},'_2':{'name':'Poisson Ratio (Static)','family':'Poisson Ratio (Static)','unit':'unitless'},'last':2},'parameters':{},'outputs':[{'name':'SHMIN_EATON','family':'Minimum Horizontal Stress','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>ESR and Terzaghi Effective Stress</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calMinESRTerzaghiEffectiveStress','inputs':{'_0':{'name':'Vertical Stress','family':'Vertical Stress','unit':'psi'},'_1':{'name':'Pore Pressure','family':'Pore Pressure','unit':'psi'},'_2':{'name':'Minimum Horizontal Effective Stress Ratio','family':'Minimum Horizontal Effective Stress Ratio','unit':'unitless','allowNull':true},'last':2},'parameters':{'_0':{'name':'Minimum Horizontal Effective Stress Ratio','type':'number','unit':'unitless','value':0.7},'last':0},'outputs':[{'name':'SHMIN_TER','family':'Minimum Horizontal Stress','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>ESR and Biot Coefficient</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calMinESRBiotCoefficient','inputs':{'_0':{'name':'Vertical Stress','family':'Vertical Stress','unit':'psi'},'_1':{'name':'Pore Pressure','family':'Pore Pressure','unit':'psi'},'_2':{'name':'Biot Coefficient','family':'Biot Coefficient','unit':'unitless'},'_3':{'name':'Minimum Horizontal Effective Stress Ratio','family':'Minimum Horizontal Effective Stress Ratio','unit':'unitless','allowNull':true},'last':3},'parameters':{'_0':{'name':'Minimum Horizontal Effective Stress Ratio','type':'number','unit':'unitless','value':0.7},'last':0},'outputs':[{'name':'SHMIN_BIOT','family':'Minimum Horizontal Stress','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Poro-Elastic Uniaxial Strain Model</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calPoroElasticUniaxialStrainModel','inputs':{'_0':{'name':'Vertical Stress','family':'Vertical Stress','unit':'psi'},'_1':{'name':'Pore Pressure','family':'Pore Pressure','unit':'psi'},'_2':{'name':'Biot Coefficient','family':'Biot Coefficient','unit':'unitless'},'_3':{'name':'Poisson Ratio (Static)','family':'Poisson Ratio (Static)','unit':'unitless'},'last':3},'parameters':{},'outputs':[{'name':'SHMIN_UNIAXIAL','family':'Minimum Horizontal Stress','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Function of Shmin</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calFunctionOfShmin','inputs':{'_0':{'name':'Minimum Horizontal Stress','family':'Minimum Horizontal Stress','unit':'psi'},'last':0},'parameters':{'_0':{'name':'Multiplier','type':'number','unit':'unitless','value':1},'last':0},'outputs':[{'name':'SHMAX_SHMIN','family':'Maximum Horizontal Stress','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calFunctionOfShmin','inputs':{'_0':{'name':'Vertical Stress','family':'Vertical Stress','unit':'psi'},'_1':{'name':'Pore Pressure','family':'Pore Pressure','unit':'psi'},'_2':{'name':'Maximum Horizontal Effective Stress Ratio','family':'Maximum Horizontal Effective Stress Ratio','unit':'unitless','allowNull':true},'last':2},'parameters':{'_0':{'name':'Maximum Horizontal Effective Stress Ratio','type':'number','unit':'unitless','value':0.8},'last':0},'outputs':[{'name':'SHMAX_TER','family':'Maximum Horizontal Stress','unit':'psi'}]}</t>
+  </si>
+  <si>
+    <t>Stress Correction</t>
+  </si>
+  <si>
+    <t>Pc Modeling</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calStressCorrection','inputs':{'_0':{'name':'Sw_lab','family':'Core Water Saturation (Array)','unit':'v/v'},'_1':{'name':'Pc_lab','family':'Capillary Pressure Laboratory (Array)','unit':'bar'},'last':1},'parameters':{'_0':{'name':'PhiRes/PhiLab','type':'number','value':0.95},'last':0},'outputs':[{'name':'PC_STRESS_CORR','family':'Capillary Pressure Laboratory (Array)','unit':'bar'},{'name':'SW_STRESS_CORR','family':'Core Water Saturation (Array)','unit':'v/v'}]}</t>
+  </si>
+  <si>
+    <t>Clay Bound Correction</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calClayBoundCorrection','inputs':{'_0':{'name':'Sw_lab','family':'Core Water Saturation (Array)','unit':'v/v'},'_1':{'name':'Pc_lab','family':'Capillary Pressure Laboratory (Array)','unit':'bar'},'_2':{'name':'Qv','family':'Normalized Qv','unit':'1/L'},'last':2},'parameters':{'_0':{'name':'Salinity','type':'number','unit':'ppm','value':35},'last':0},'outputs':[{'name':'PC_CB_CORR','family':'Capillary Pressure Laboratory (Array)','unit':'bar'},{'name':'SW_CB_CORR','family':'Core Water Saturation (Array)','unit':'v/v'}]}</t>
+  </si>
+  <si>
+    <t>Pore Size Distribution</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calPoreSizeDistribution','inputs':{'_0':{'name':'Pc_lab','family':'Capillary Pressure Laboratory (Array)','unit':'bar'},'last':0},'parameters':{'_0':{'name':'Sigma_Lab*CosTheta_Lab (Lab)','type':'select','choices':['Pre-defined','Custom value'],'value':'Pre-defined'},'_1':{'name':'Pre-defined Lab','type':'select','choices':['Air - Brine','Air - Mercury','Air - Oil','Oil - Brine'],'value':'Air - Brine'},'_2':{'name':'Custom Lab','type':'number','value':1},'last':2},'outputs':[{'name':'PORE_THROAT_RADIUS','family':'Pore Throat Radius Distribution (Array)','unit':'um'}]}</t>
+  </si>
+  <si>
+    <t>Transformation Data</t>
+  </si>
+  <si>
+    <t>{'other':{},'icon':'toolbox-16x16','function':'calTransformationDataPcModeling','inputs':{'_0':{'name':'Pc_lab','family':'Capillary Pressure Laboratory (Array)','unit':'bar'},'last':0},'parameters':{'_0':{'name':'Sigma_Res*CosTheta_Res (Res)','type':'select','choices':['Pre-defined','Custom value'],'value':'Pre-defined'},'_1':{'name':'Pre-defined Res','type':'select','choices':['Brine - Oil','Brine - Gas'],'value':'Brine - Oil'},'_2':{'name':'Custom Res','type':'number','value':1},'_3':{'name':'Sigma_Lab*CosTheta_Lab (Lab)','type':'select','choices':['Pre-defined','Custom value'],'value':'Pre-defined'},'_4':{'name':'Pre-defined Lab','type':'select','choices':['Air - Brine','Air - Mercury','Air - Oil','Oil - Brine'],'value':'Air - Brine'},'_5':{'name':'Custom Lab','type':'number','value':1},'last':5},'outputs':[{'name':'PC_RES','family':'Capillary Pressure Reservoir (Array)','unit':'bar'}]}</t>
+  </si>
+  <si>
+    <t>Saturation Height Function</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calSaturationHeightFunction","inputs":{"_0":{"name":"True Vertical Depth Sub Sea","family":"True Vertical Depth Sub Sea","unit":"m"},"_1":{"name":"Porosity","family":"Porosity","unit":"v/v"},"_2":{"name":"Permeability","family":"Permeability","unit":"mD"},"_3":{"name":"Saturation","family":"Saturation","unit":"v/v","allowNull":true},"last":3},"parameters":{"_0":{"name":"FWL(TVDSS)","type":"number"},"_1":{"name":"Hydro Carbon density","type":"number","value":0.7},"_2":{"name":"Water density","type":"number","value":1},"_3":{"name":"Sigma*CosTheta","type":"number","value":1},"_4":{"name":"Function","type":"select","choices":["J Lambda","J Hyperbola","J Exponential","J Modified Lambda","J Modified Hyperbola","J Modified Exponential","Corey - Brooks"],"value":"J Lambda"},"_5":{"name":"m","type":"number"},"_6":{"name":"a","type":"number"},"_7":{"name":"lambda","type":"number"},"_8":{"name":"b","type":"number"},"last":8},"outputs":[{"name":"SW","family":"Saturation","unit":"v/v"}]}</t>
   </si>
 </sst>
 </file>
@@ -507,7 +892,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -820,14 +1205,14 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -853,14 +1238,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="38.85546875" customWidth="1"/>
@@ -870,7 +1255,7 @@
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -890,7 +1275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -904,7 +1289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -918,7 +1303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -932,7 +1317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -946,7 +1331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -960,7 +1345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -974,7 +1359,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -988,7 +1373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1002,7 +1387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1016,7 +1401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1030,7 +1415,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1044,7 +1429,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1058,7 +1443,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1072,7 +1457,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1086,7 +1471,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1100,7 +1485,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1114,7 +1499,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1128,7 +1513,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1142,7 +1527,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1156,7 +1541,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1170,7 +1555,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1184,7 +1569,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1198,7 +1583,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1212,7 +1597,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1226,7 +1611,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1240,7 +1625,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1254,7 +1639,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1268,7 +1653,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1276,519 +1661,519 @@
         <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D49" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D51" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D52" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" t="s">
         <v>121</v>
       </c>
-      <c r="C54" t="s">
-        <v>120</v>
-      </c>
       <c r="D54" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D55" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D56" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D57" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C58" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D58" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D59" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C60" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D60" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C61" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D61" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>62</v>
       </c>
       <c r="B62" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" t="s">
         <v>138</v>
       </c>
-      <c r="C62" t="s">
-        <v>134</v>
-      </c>
       <c r="D62" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C63" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D63" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C64" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D64" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C65" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D65" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D66" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>67</v>
       </c>
@@ -1802,18 +2187,914 @@
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C68" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" t="s">
+        <v>157</v>
+      </c>
+      <c r="D70" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" t="s">
+        <v>157</v>
+      </c>
+      <c r="D71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" t="s">
+        <v>157</v>
+      </c>
+      <c r="D73" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>167</v>
+      </c>
+      <c r="C74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>169</v>
+      </c>
+      <c r="C75" t="s">
+        <v>170</v>
+      </c>
+      <c r="D75" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" t="s">
+        <v>170</v>
+      </c>
+      <c r="D76" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>174</v>
+      </c>
+      <c r="C77" t="s">
+        <v>170</v>
+      </c>
+      <c r="D77" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" t="s">
+        <v>170</v>
+      </c>
+      <c r="D78" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>178</v>
+      </c>
+      <c r="C79" t="s">
+        <v>170</v>
+      </c>
+      <c r="D79" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>180</v>
+      </c>
+      <c r="C80" t="s">
+        <v>170</v>
+      </c>
+      <c r="D80" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81" t="s">
+        <v>170</v>
+      </c>
+      <c r="D81" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>184</v>
+      </c>
+      <c r="C82" t="s">
+        <v>170</v>
+      </c>
+      <c r="D82" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" t="s">
+        <v>170</v>
+      </c>
+      <c r="D83" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84" t="s">
+        <v>170</v>
+      </c>
+      <c r="D84" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>190</v>
+      </c>
+      <c r="C85" t="s">
+        <v>170</v>
+      </c>
+      <c r="D85" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" t="s">
+        <v>170</v>
+      </c>
+      <c r="D86" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" t="s">
+        <v>170</v>
+      </c>
+      <c r="D87" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>195</v>
+      </c>
+      <c r="C88" t="s">
+        <v>170</v>
+      </c>
+      <c r="D88" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" t="s">
+        <v>170</v>
+      </c>
+      <c r="D89" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>199</v>
+      </c>
+      <c r="C90" t="s">
+        <v>170</v>
+      </c>
+      <c r="D90" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" t="s">
+        <v>170</v>
+      </c>
+      <c r="D91" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>203</v>
+      </c>
+      <c r="C92" t="s">
+        <v>170</v>
+      </c>
+      <c r="D92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C93" t="s">
+        <v>170</v>
+      </c>
+      <c r="D93" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>207</v>
+      </c>
+      <c r="C94" t="s">
+        <v>170</v>
+      </c>
+      <c r="D94" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>209</v>
+      </c>
+      <c r="C95" t="s">
+        <v>170</v>
+      </c>
+      <c r="D95" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>211</v>
+      </c>
+      <c r="C96" t="s">
+        <v>170</v>
+      </c>
+      <c r="D96" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>213</v>
+      </c>
+      <c r="C97" t="s">
+        <v>170</v>
+      </c>
+      <c r="D97" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>215</v>
+      </c>
+      <c r="C98" t="s">
+        <v>170</v>
+      </c>
+      <c r="D98" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>217</v>
+      </c>
+      <c r="C99" t="s">
+        <v>170</v>
+      </c>
+      <c r="D99" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>219</v>
+      </c>
+      <c r="C100" t="s">
+        <v>170</v>
+      </c>
+      <c r="D100" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>221</v>
+      </c>
+      <c r="C101" t="s">
+        <v>170</v>
+      </c>
+      <c r="D101" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>223</v>
+      </c>
+      <c r="C102" t="s">
+        <v>170</v>
+      </c>
+      <c r="D102" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>225</v>
+      </c>
+      <c r="C103" t="s">
+        <v>170</v>
+      </c>
+      <c r="D103" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>105</v>
+      </c>
+      <c r="B104" t="s">
+        <v>227</v>
+      </c>
+      <c r="C104" t="s">
+        <v>170</v>
+      </c>
+      <c r="D104" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>229</v>
+      </c>
+      <c r="C105" t="s">
+        <v>170</v>
+      </c>
+      <c r="D105" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>231</v>
+      </c>
+      <c r="C106" t="s">
+        <v>170</v>
+      </c>
+      <c r="D106" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>108</v>
+      </c>
+      <c r="B107" t="s">
+        <v>233</v>
+      </c>
+      <c r="C107" t="s">
+        <v>170</v>
+      </c>
+      <c r="D107" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s">
+        <v>235</v>
+      </c>
+      <c r="C108" t="s">
+        <v>170</v>
+      </c>
+      <c r="D108" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>237</v>
+      </c>
+      <c r="C109" t="s">
+        <v>170</v>
+      </c>
+      <c r="D109" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>233</v>
+      </c>
+      <c r="C110" t="s">
+        <v>170</v>
+      </c>
+      <c r="D110" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>240</v>
+      </c>
+      <c r="C111" t="s">
+        <v>170</v>
+      </c>
+      <c r="D111" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>113</v>
+      </c>
+      <c r="B112" t="s">
+        <v>242</v>
+      </c>
+      <c r="C112" t="s">
+        <v>170</v>
+      </c>
+      <c r="D112" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>114</v>
+      </c>
+      <c r="B113" t="s">
+        <v>244</v>
+      </c>
+      <c r="C113" t="s">
+        <v>170</v>
+      </c>
+      <c r="D113" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>246</v>
+      </c>
+      <c r="C114" t="s">
+        <v>170</v>
+      </c>
+      <c r="D114" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>116</v>
+      </c>
+      <c r="B115" t="s">
+        <v>248</v>
+      </c>
+      <c r="C115" t="s">
+        <v>170</v>
+      </c>
+      <c r="D115" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>250</v>
+      </c>
+      <c r="C116" t="s">
+        <v>170</v>
+      </c>
+      <c r="D116" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>118</v>
+      </c>
+      <c r="B117" t="s">
+        <v>252</v>
+      </c>
+      <c r="C117" t="s">
+        <v>170</v>
+      </c>
+      <c r="D117" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s">
+        <v>254</v>
+      </c>
+      <c r="C118" t="s">
+        <v>170</v>
+      </c>
+      <c r="D118" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s">
+        <v>256</v>
+      </c>
+      <c r="C119" t="s">
+        <v>170</v>
+      </c>
+      <c r="D119" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>121</v>
+      </c>
+      <c r="B120" t="s">
+        <v>258</v>
+      </c>
+      <c r="C120" t="s">
+        <v>170</v>
+      </c>
+      <c r="D120" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s">
+        <v>260</v>
+      </c>
+      <c r="C121" t="s">
+        <v>170</v>
+      </c>
+      <c r="D121" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s">
+        <v>262</v>
+      </c>
+      <c r="C122" t="s">
+        <v>170</v>
+      </c>
+      <c r="D122" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>124</v>
+      </c>
+      <c r="B123" t="s">
+        <v>264</v>
+      </c>
+      <c r="C123" t="s">
+        <v>170</v>
+      </c>
+      <c r="D123" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>125</v>
+      </c>
+      <c r="B124" t="s">
+        <v>266</v>
+      </c>
+      <c r="C124" t="s">
+        <v>170</v>
+      </c>
+      <c r="D124" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>126</v>
+      </c>
+      <c r="B125" t="s">
+        <v>268</v>
+      </c>
+      <c r="C125" t="s">
+        <v>170</v>
+      </c>
+      <c r="D125" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>127</v>
+      </c>
+      <c r="B126" t="s">
+        <v>270</v>
+      </c>
+      <c r="C126" t="s">
+        <v>170</v>
+      </c>
+      <c r="D126" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>128</v>
+      </c>
+      <c r="B127" t="s">
+        <v>264</v>
+      </c>
+      <c r="C127" t="s">
+        <v>170</v>
+      </c>
+      <c r="D127" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128">
         <v>129</v>
       </c>
-      <c r="D68" t="s">
-        <v>149</v>
+      <c r="B128" t="s">
+        <v>273</v>
+      </c>
+      <c r="C128" t="s">
+        <v>274</v>
+      </c>
+      <c r="D128" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>130</v>
+      </c>
+      <c r="B129" t="s">
+        <v>276</v>
+      </c>
+      <c r="C129" t="s">
+        <v>274</v>
+      </c>
+      <c r="D129" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>131</v>
+      </c>
+      <c r="B130" t="s">
+        <v>278</v>
+      </c>
+      <c r="C130" t="s">
+        <v>274</v>
+      </c>
+      <c r="D130" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>132</v>
+      </c>
+      <c r="B131" t="s">
+        <v>280</v>
+      </c>
+      <c r="C131" t="s">
+        <v>274</v>
+      </c>
+      <c r="D131" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>133</v>
+      </c>
+      <c r="B132" t="s">
+        <v>282</v>
+      </c>
+      <c r="C132" t="s">
+        <v>274</v>
+      </c>
+      <c r="D132" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="250" documentId="11_4C469AEA55F9C5647023B20AD3ECE9D9F426EE5A" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{392CA6A1-47E0-4AEE-8ECA-518DF6FB8373}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6464B0-6C30-4EDC-ACCE-8A0308759B64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="changes" sheetId="2" r:id="rId1"/>
@@ -892,7 +892,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1205,14 +1205,14 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1241,11 +1241,11 @@
   <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D132" sqref="D132"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="38.85546875" customWidth="1"/>
@@ -1255,7 +1255,7 @@
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>61</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>62</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>64</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>65</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>66</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>67</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>69</v>
       </c>
@@ -2215,9 +2215,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
         <v>159</v>
@@ -2229,9 +2229,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
         <v>161</v>
@@ -2243,9 +2243,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
         <v>163</v>
@@ -2257,9 +2257,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
         <v>165</v>
@@ -2271,9 +2271,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
         <v>167</v>
@@ -2285,9 +2285,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
         <v>169</v>
@@ -2299,9 +2299,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
         <v>172</v>
@@ -2313,9 +2313,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
         <v>174</v>
@@ -2327,9 +2327,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
         <v>176</v>
@@ -2341,9 +2341,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
         <v>178</v>
@@ -2355,9 +2355,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
         <v>180</v>
@@ -2369,9 +2369,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
         <v>182</v>
@@ -2383,9 +2383,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
         <v>184</v>
@@ -2397,9 +2397,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
         <v>186</v>
@@ -2411,9 +2411,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
         <v>188</v>
@@ -2425,9 +2425,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
         <v>190</v>
@@ -2439,9 +2439,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
         <v>174</v>
@@ -2453,9 +2453,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
         <v>193</v>
@@ -2467,9 +2467,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
         <v>195</v>
@@ -2481,9 +2481,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
         <v>197</v>
@@ -2495,9 +2495,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
         <v>199</v>
@@ -2509,9 +2509,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
         <v>201</v>
@@ -2523,9 +2523,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
         <v>203</v>
@@ -2537,9 +2537,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
         <v>205</v>
@@ -2551,9 +2551,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" t="s">
         <v>207</v>
@@ -2565,9 +2565,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
         <v>209</v>
@@ -2579,9 +2579,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
         <v>211</v>
@@ -2593,9 +2593,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
         <v>213</v>
@@ -2607,9 +2607,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
         <v>215</v>
@@ -2621,9 +2621,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
         <v>217</v>
@@ -2635,9 +2635,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
         <v>219</v>
@@ -2649,9 +2649,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
         <v>221</v>
@@ -2663,9 +2663,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102" t="s">
         <v>223</v>
@@ -2677,9 +2677,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" t="s">
         <v>225</v>
@@ -2691,9 +2691,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104" t="s">
         <v>227</v>
@@ -2705,9 +2705,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" t="s">
         <v>229</v>
@@ -2719,9 +2719,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" t="s">
         <v>231</v>
@@ -2733,9 +2733,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107" t="s">
         <v>233</v>
@@ -2747,9 +2747,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108" t="s">
         <v>235</v>
@@ -2761,9 +2761,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109" t="s">
         <v>237</v>
@@ -2775,9 +2775,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110" t="s">
         <v>233</v>
@@ -2789,9 +2789,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111" t="s">
         <v>240</v>
@@ -2803,9 +2803,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112" t="s">
         <v>242</v>
@@ -2817,9 +2817,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113" t="s">
         <v>244</v>
@@ -2831,9 +2831,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B114" t="s">
         <v>246</v>
@@ -2845,9 +2845,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B115" t="s">
         <v>248</v>
@@ -2859,9 +2859,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116" t="s">
         <v>250</v>
@@ -2873,9 +2873,9 @@
         <v>251</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117" t="s">
         <v>252</v>
@@ -2887,9 +2887,9 @@
         <v>253</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B118" t="s">
         <v>254</v>
@@ -2901,9 +2901,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B119" t="s">
         <v>256</v>
@@ -2915,9 +2915,9 @@
         <v>257</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B120" t="s">
         <v>258</v>
@@ -2929,9 +2929,9 @@
         <v>259</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121" t="s">
         <v>260</v>
@@ -2943,9 +2943,9 @@
         <v>261</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122" t="s">
         <v>262</v>
@@ -2957,9 +2957,9 @@
         <v>263</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123" t="s">
         <v>264</v>
@@ -2971,9 +2971,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B124" t="s">
         <v>266</v>
@@ -2985,9 +2985,9 @@
         <v>267</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B125" t="s">
         <v>268</v>
@@ -2999,9 +2999,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B126" t="s">
         <v>270</v>
@@ -3013,9 +3013,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B127" t="s">
         <v>264</v>
@@ -3027,9 +3027,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B128" t="s">
         <v>273</v>
@@ -3041,9 +3041,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B129" t="s">
         <v>276</v>
@@ -3055,9 +3055,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B130" t="s">
         <v>278</v>
@@ -3069,9 +3069,9 @@
         <v>279</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B131" t="s">
         <v>280</v>
@@ -3083,9 +3083,9 @@
         <v>281</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B132" t="s">
         <v>282</v>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6464B0-6C30-4EDC-ACCE-8A0308759B64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="5_{AF981194-C169-4667-B254-29B6B0109D08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{D2017396-0BC2-4D48-8E27-BE0D69532B9C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12060" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="changes" sheetId="2" r:id="rId1"/>
@@ -65,823 +65,823 @@
     <t>Shale Volume</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'clay-volume-16x16','function':'calVSHfromGR','inputs':{'_0':{'name':'Gamma Ray','unit':'gAPI','family':'Gamma Ray'},'last':0},'parameters':{'_0':{'name':'GR clean','type':'number','value':10,'unit':'gAPI','color':'red'},'_1':{'name':'GR shale','type':'number','value':120,'unit':'gAPI','color':'green'},'_2':{'name':'Method','type':'select','value':'Linear','choices':['Linear','Clavier','Larionov Tertiary rocks','Larionov older rocks','Stieber variation I','Stieber - Miocene and Pliocene','Stieber variation II']},'last':2},'outputs':[{'name':'VSH_GR','family':'Shale Volume','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Neutron-Density</t>
   </si>
   <si>
-    <t>{'other':{'overlay_line':'Schlumberger Den/Neut Corr. Rhof 1.0','scaleLeft':-0.15,'scaleRight':0.45,'scaleBottom':3,'scaleTop':2},'icon':'clay-volume-16x16','function':'calVSHfromND','inputs':{'_0':{'name':'Neutron Porosity','unit':'v/v','family':'Neutron Porosity'},'_1':{'name':'Bulk Density','unit':'g/cm3','family':'Bulk Density'},'last':1},'parameters':{'_0':{'name':'NPHI_clean_2','type':'number','value':0.25,'unit':'v/v'},'_1':{'name':'NPHI_shale','type':'number','value':0.4,'unit':'v/v','color':'green'},'_2':{'name':'NPHI_clean_1','type':'number','value':-0.01,'unit':'v/v'},'_3':{'name':'RHOB_clean_2','type':'number','value':2.2,'unit':'g/cm3'},'_4':{'name':'RHOB_shale','type':'number','value':2.4,'unit':'g/cm3','color':'red'},'_5':{'name':'RHOB_clean_1','type':'number','value':2.65,'unit':'g/cm3'},'last':5},'outputs':[{'name':'VSH_ND','family':'Shale Volume','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Neutron-Sonic</t>
   </si>
   <si>
-    <t>{'other':{'overlay_line':'Schlumberger Neut/Sonic Wylie Dtf 189','scaleLeft':-0.15,'scaleRight':0.45,'scaleBottom':40,'scaleTop':140},'icon':'clay-volume-16x16','function':'calVSHfromNS','inputs':{'_0':{'name':'Neutron Porosity','unit':'v/v','family':'Neutron Porosity'},'_1':{'name':'Compressional Slowness','unit':'us/ft','family':'Compressional Slowness'},'last':1},'parameters':{'_0':{'name':'NPHI_clean_2','type':'number','value':0.25,'unit':'v/v'},'_1':{'name':'NPHI_shale','type':'number','value':0.4,'unit':'v/v','color':'green'},'_2':{'name':'NPHI_clean_1','type':'number','unit':'v/v','value':-0.01},'_3':{'name':'DT_clean_2','type':'number','value':90,'unit':'g/cm3'},'_4':{'name':'DT_shale','type':'number','value':100,'unit':'g/cm3','color':'#F0F'},'_5':{'name':'DT_clean_1','type':'number','value':55,'unit':'g/cm3'},'last':5},'outputs':[{'name':'VSH_NS','family':'Shale Volume','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Density-Sonic</t>
   </si>
   <si>
-    <t>{'other':{'overlay_line':'Den/Sonic Wylie Rhof 1.0','scaleLeft':40,'scaleRight':140,'scaleBottom':3,'scaleTop':2},'icon':'clay-volume-16x16','function':'calVSHfromDS','inputs':{'_0':{'name':'Compressional Slowness','unit':'us/ft','family':'Compressional Slowness'},'_1':{'name':'Bulk Density','unit':'g/cm3','family':'Bulk Density'},'last':1},'parameters':{'_0':{'name':'DT_clean_2','type':'number','value':90,'unit':'us/ft'},'_1':{'name':'DT_shale','type':'number','value':100,'unit':'us/ft','color':'#F0F'},'_2':{'name':'DT_clean_1','type':'number','value':50,'unit':'us/ft'},'_3':{'name':'RHOB_clean_2','type':'number','value':2.2,'unit':'g/cm3'},'_4':{'name':'RHOB_shale','type':'number','value':2.4,'unit':'g/cm3','color':'red'},'_5':{'name':'RHOB_clean_1','type':'number','value':2.65,'unit':'g/cm3'},'last':5},'outputs':[{'name':'VSH_SD','family':'Shale Volume','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Resistivity</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'clay-volume-16x16','function':'calVSHfromR','inputs':{'_0':{'name':'Resistivity','unit':'ohm.m','family':'Resistivity'},'last':0},'parameters':{'_0':{'name':'Resistivity_clean','type':'number','value':10,'unit':'ohm.m','color':'red'},'_1':{'name':'Resistivity_shale','type':'number','value':120,'unit':'ohm.m','color':'green'},'_2':{'name':'B exponent','type':'number','value':1},'_3':{'name':'Equation','type':'select','value':'Resistivity Log','choices':['Resistivity Log','Gaymard']},'last':3},'outputs':[{'name':'VSH_RES','family':'Shale Volume','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Spontaneous potential</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'clay-volume-16x16','function':'calVSHfromSP','inputs':{'_0':{'name':'Spontaneous Potential','unit':'mV','family':'Spontaneous Potential'},'last':0},'parameters':{'_0':{'name':'SP_clean','type':'number','value':0,'unit':'mV','color':'red'},'_1':{'name':'SP_shale','type':'number','value':100,'unit':'mV','color':'green'},'last':1},'outputs':[{'name':'VSH_SP','family':'Shale Volume','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Thermal Neutron</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'clay-volume-16x16','function':'calVSHfromNEU','inputs':{'_0':{'name':'Thermal Neutron','unit':'v/v','family':'Thermal Neutron Porosity'},'last':0},'parameters':{'_0':{'name':'Neutron_clean','type':'number','value':0.1,'unit':'v/v','color':'red'},'_1':{'name':'Neutron_shale','type':'number','value':0.3,'unit':'v/v','color':'green'},'last':1},'outputs':[{'name':'VSH_NEU','family':'Shale Volume','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Potassium</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'clay-volume-16x16','function':'calVSHfromPOTA','inputs':{'_0':{'name':'Potassium','unit':'%','family':'Potassium Concentration'},'last':0},'parameters':{'_0':{'name':'POTA matrix','type':'number','value':10,'unit':'%','color':'red'},'_1':{'name':'POTA shale','type':'number','value':100,'unit':'%','color':'green'},'_2':{'name':'POTA method','type':'select','value':'Linear','choices':['Linear','Larionov Tertiary rocks','Larionov older rocks']},'last':2},'outputs':[{'name':'VSH_POTA','family':'Shale Volume','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Thorium</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'clay-volume-16x16','function':'calVSHfromThori','inputs':{'_0':{'name':'Thorium','unit':'ppm','family':'Thorium Concentration'},'last':0},'parameters':{'_0':{'name':'Thorium matrix','type':'number','value':10,'unit':'ppm','color':'red'},'_1':{'name':'Thorium shale','type':'number','value':100,'unit':'ppm','color':'green'},'_2':{'name':'TH method','type':'select','value':'Linear','choices':['Linear','Larionov Tertiary rocks','Larionov older rocks']},'last':2},'outputs':[{'name':'VSH_Thori','family':'Shale Volume','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Final</t>
   </si>
   <si>
-    <t>{'other':{'multiple':true,'use_inputs':'multiple','inputTemplate':{'name':'Shale Volume','unit':'v/v','family':'Shale Volume'}},'icon':'final-clay-volume-16x16','function':'calVSHFinal','options':{'_0':{'name':'Bad Hole','family':'Bad Hole Flag','unit':'unitless'},'last':0},'inputs':{'_0':{'name':'Shale Volume 1','unit':'v/v','family':'Shale Volume'},'_1':{'name':'Shale Volume 2','unit':'v/v','family':'Shale Volume'},'last':1},'parameters':{'_0':{'name':'Merge Method','type':'select','value':'Minimum','choices':['Minimum','Average','Arithmetic mean','Geometric mean','Harmonic mean','Median','Maximum','Sum']},'last':0},'outputs':[{'name':'VSH_Final','family':'Shale Volume','unit':'v/v'},{'name':'VSH_MIN','family':'Shale Volume','unit':'v/v'},{'name':'VSH_AVG','family':'Shale Volume','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Density</t>
   </si>
   <si>
     <t>Porosity</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'calculate-open-porosity-16x16','function':'calPorosityFromDensity','inputs':{'_0':{'name':'Bulk Density','family':'Bulk Density','unit':'g/cm3'},'_1':{'name':'Shale Volume','family':'Shale Volume','unit':'v/v'},'last':1},'parameters':{'_0':{'name':'Density Matrix','type':'number','value':2.65,'unit':'g/cm3','color':'red'},'_1':{'name':'Density Fluid','type':'number','value':1,'unit':'g/cm3'},'_2':{'name':'Density Shale','type':'number','value':2.4,'unit':'d/cm3','color':'green'},'last':2},'outputs':[{'name':'PHIT_D','family':'Total Porosity','unit':'v/v'},{'name':'PHIE_D','family':'Effective Porosity','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Neutron</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'calculate-open-porosity-16x16','function':'calPorosityFromNeutron','inputs':{'_0':{'name':'Neutron','family':'Neutron Porosity','unit':'v/v'},'_1':{'name':'Shale Volume','family':'Shale Volume','unit':'v/v'},'last':1},'parameters':{'_0':{'name':'Neutron Matrix','type':'number','value':-0.01,'unit':'v/v','color':'red'},'_1':{'name':'Neutron Fluid','type':'number','value':0.991,'unit':'v/v'},'_2':{'name':'Neutron Shale','type':'number','value':0.4,'unit':'v/v','color':'green'},'last':2},'outputs':[{'name':'PHIT_N','family':'Total Porosity','unit':'v/v'},{'name':'PHIE_N','family':'Effective Porosity','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Sonic</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'calculate-open-porosity-16x16','function':'calPorosityFromSonic','inputs':{'_0':{'name':'Compressional Slowness','family':'Compressional Slowness','unit':'us/ft'},'_1':{'name':'Shale Volume','family':'Shale Volume','unit':'v/v'},'last':1},'parameters':{'_0':{'name':'Sonic Matrix','type':'number','value':55,'unit':'us/ft','color':'#F0F'},'_1':{'name':'Sonic Fluid','type':'number','value':189,'unit':'us/ft'},'_2':{'name':'Sonic Shale','type':'number','value':110,'unit':'us/ft','color':'green'},'_3':{'name':'Sonic Method','type':'select','value':'Wyliie','choices':['Wyliie','Raymer-Hunt-Gardner']},'_4':{'name':'Cp','type':'number','value':1},'last':4},'outputs':[{'name':'PHIT_S','family':'Total Porosity','unit':'v/v'},{'name':'PHIE_S','family':'Effective Porosity','unit':'v/v'}]}</t>
-  </si>
-  <si>
-    <t>{'other':{},'icon':'calculate-open-porosity-16x16','function':'calPorosityFromNeutronSonic','inputs':{'_0':{'name':'Compressional Slowness','family':'Compressional Slowness','unit':'us/ft'},'_1':{'name':'Neutron','family':'Neutron Porosity','unit':'v/v'},'_2':{'name':'Shale Volume','family':'Shale Volume','unit':'v/v'},'last':2},'parameters':{'_0':{'name':'Sonic Matrix','type':'number','value':55,'unit':'us/ft','color':'#F0F'},'_1':{'name':'Sonic Fluid','type':'number','value':189,'unit':'us/ft'},'_2':{'name':'Sonic Shale','type':'number','value':110,'unit':'us/ft','color':'green'},'_3':{'name':'Neutron Matrix','type':'number','value':-0.01,'unit':'v/v','color':'red'},'_4':{'name':'Neutron Fluid','type':'number','value':0.991,'unit':'v/v'},'_5':{'name':'Neutron Shale','type':'number','value':0.4,'unit':'v/v','color':'green'},'_6':{'name':'Sonic Method','type':'select','value':'Wyliie','choices':['Wyliie','Raymer-Hunt-Gardner']},'_7':{'name':'Cp','type':'number','value':1},'last':7},'outputs':[{'name':'PHIT_NS','family':'Total Porosity','unit':'v/v'},{'name':'PHIE_NS','family':'Effective Porosity','unit':'v/v'},{'name':'DTMAA','family':'Apparent Matrix Compressional Slowness','unit':'us/ft'}]}</t>
-  </si>
-  <si>
     <t>Density-Neutron</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'calculate-open-porosity-16x16','function':'calPorosityFromDensityNeutron','inputs':{'_0':{'name':'Bulk Density','family':'Bulk Density','unit':'g/cm3'},'_1':{'name':'Neutron','family':'Neutron Porosity','unit':'v/v'},'_2':{'name':'Shale Volume','family':'Shale Volume','unit':'v/v'},'last':2},'parameters':{'_0':{'name':'Density Matrix','type':'number','value':2.65,'unit':'g/cm3','color':'red'},'_1':{'name':'Density Fluid','type':'number','value':1,'unit':'g/cm3'},'_2':{'name':'Density Shale','type':'number','value':2.4,'unit':'g/cm3','color':'green'},'_3':{'name':'Neutron Matrix','type':'number','value':-0.01,'unit':'v/v','color':'red'},'_4':{'name':'Neutron Fluid','type':'number','value':0.991,'unit':'v/v'},'_5':{'name':'Neutron Shale','type':'number','value':0.4,'unit':'v/v','color':'green'},'last':5},'outputs':[{'name':'PHIT_ND','family':'Total Porosity','unit':'v/v'},{'name':'PHIE_ND','family':'Effective Porosity','unit':'v/v'},{'name':'RHOMAA','family':'Apparent Matrix Density','unit':'g/cm3'}]}</t>
-  </si>
-  <si>
     <t>Total Final</t>
   </si>
   <si>
-    <t>{'other':{'multiple':true,'inputTemplate':{'name':'Total Porosity','unit':'v/v','family':'Total Porosity'},'use_inputs':'single'},'icon':'final-total-porosity-16x16','function':'calPorosityFinal','options':{'_0':{'name':'Bad Hole','family':'Bad Hole Flag','unit':'unitless'},'last':0},'inputs':{'_0':{'name':'Total Porosity 1','unit':'v/v','family':'Total Porosity'},'_1':{'name':'Total Porosity 2','unit':'v/v','family':'Total Porosity'},'last':1},'parameters':{'last':-1},'outputs':[{'name':'PHIT_Final','family':'Total Porosity','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Effective Final</t>
   </si>
   <si>
-    <t>{'other':{'multiple':true,'inputTemplate':{'name':'Effective Porosity','unit':'v/v','family':'Effective Porosity'},'use_inputs':'single'},'icon':'final-effective-porosity-16x16','function':'calPorosityFinal','options':{'_0':{'name':'Bad Hole','family':'Bad Hole Flag','unit':'unitless'},'last':0},'inputs':{'_0':{'name':'Effective Porosity 1','unit':'v/v','family':'Effective Porosity'},'_1':{'name':'Effective Porosity 2','unit':'v/v','family':'Effective Porosity'},'last':1},'parameters':{'last':-1},'outputs':[{'name':'PHIE_Final','family':'Effective Porosity','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Archie</t>
   </si>
   <si>
     <t>Water Saturation</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'water-saturation-16x16','function':'calSaturationArchie','inputs':{'_0':{'name':'Formation Resistivity','family':'Formation Resistivity','unit':'ohm.m'},'_1':{'name':'Porosity','family':'Porosity','unit':'v/v'},'_2':{'name':'Invaded Resistivity','family':'Invaded Zone Resistivity','unit':'ohm.m','allowNull':true},'last':2},'parameters':{'_0':{'name':'a','type':'number','value':1,'unit':'unitless'},'_1':{'name':'m','type':'number','value':2,'unit':'unitless'},'_2':{'name':'n','type':'number','value':2,'unit':'unitless'},'_3':{'name':'Rw','type':'number','value':0.03,'unit':'ohm.m'},'_4':{'name':'Rmf','type':'number','value':0.1,'unit':'ohm.m'},'last':4},'outputs':[{'name':'Sw_Ar','family':'Water Saturation','unit':'v/v'},{'name':'Sxo_Ar','family':'Flushed Zone Water Saturation','unit':'v/v'},{'name':'Bvw_Ar','family':'Bulk Fluid Volume','unit':'v/v'},{'name':'BvwSxo_Ar','family':'Bulk Fluid Volume','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'water-saturation-16x16','function':'calSaturationIndonesia','inputs':{'_0':{'name':'Formation Resistivity','family':'Formation Resistivity','unit':'ohm.m'},'_1':{'name':'Effective Porosity','family':'Effective Porosity','unit':'v/v'},'_2':{'name':'Shale Volume','family':'Shale Volume','unit':'v/v'},'_3':{'name':'Invaded Resistivity','family':'Invaded Zone Resistivity','unit':'ohm.m','allowNull':true},'last':3},'parameters':{'_0':{'name':'a','type':'number','value':1,'unit':'unitless'},'_1':{'name':'m','type':'number','value':2,'unit':'unitless'},'_2':{'name':'n','type':'number','value':2,'unit':'unitless'},'_3':{'name':'Rw','type':'number','value':0.03,'unit':'ohm.m'},'_4':{'name':'Rsh','type':'number','value':4.5,'unit':'ohm.m'},'_5':{'name':'Rmf','type':'number','value':0.1,'unit':'ohm.m'},'last':5},'outputs':[{'name':'Sw_Ind','family':'Water Saturation','unit':'v/v'},{'name':'Sxo_Ind','family':'Flushed Zone Water Saturation','unit':'v/v'},{'name':'Bvw_Ind','family':'Bulk Fluid Volume','unit':'v/v'},{'name':'BvwSxo_Ind','family':'Bulk Fluid Volume','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Modified Indonesia</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'water-saturation-16x16','function':'calSaturationModifiedIndonesia','inputs':{'_0':{'name':'Formation Resistivity','family':'Formation Resistivity','unit':'ohm.m'},'_1':{'name':'Effective Porosity','family':'Effective Porosity','unit':'v/v'},'_2':{'name':'Shale Volume','family':'Shale Volume','unit':'v/v'},'_3':{'name':'Invaded Resistivity','family':'Invaded Zone Resistivity','unit':'ohm.m','allowNull':true},'last':3},'parameters':{'_0':{'name':'a','type':'number','value':1,'unit':'unitless'},'_1':{'name':'m','type':'number','value':2,'unit':'unitless'},'_2':{'name':'n','type':'number','value':2,'unit':'unitless'},'_3':{'name':'Rw','type':'number','value':0.03,'unit':'ohm.m'},'_4':{'name':'Rsh','type':'number','value':4.5,'unit':'ohm.m'},'_5':{'name':'Rmf','type':'number','value':0.1,'unit':'ohm.m'},'last':5},'outputs':[{'name':'Sw_Imo','family':'Water Saturation','unit':'v/v'},{'name':'Sxo_Imo','family':'Flushed Zone Water Saturation','unit':'v/v'},{'name':'Bvw_Imo','family':'Bulk Fluid Volume','unit':'v/v'},{'name':'BvwSxo_Imo','family':'Bulk Fluid Volume','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Simandoux</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'water-saturation-16x16','function':'calSaturationSimandoux','inputs':{'_0':{'name':'Formation Resistivity','family':'Formation Resistivity','unit':'ohm.m'},'_1':{'name':'Effective Porosity','family':'Effective Porosity','unit':'v/v'},'_2':{'name':'Shale Volume','family':'Shale Volume','unit':'v/v'},'_3':{'name':'Invaded Resistivity','family':'Invaded Zone Resistivity','unit':'ohm.m','allowNull':true},'last':3},'parameters':{'_0':{'name':'a','type':'number','value':1,'unit':'unitless'},'_1':{'name':'m','type':'number','value':2,'unit':'unitless'},'_2':{'name':'n','type':'number','value':2,'unit':'unitless'},'_3':{'name':'Rw','type':'number','value':0.03,'unit':'ohm.m'},'_4':{'name':'Rsh','type':'number','value':4.5,'unit':'ohm.m'},'_5':{'name':'Rmf','type':'number','value':0.1,'unit':'ohm.m'},'last':5},'outputs':[{'name':'Sw_Sim','family':'Water Saturation','unit':'v/v'},{'name':'Sxo_Sim','family':'Flushed Zone Water Saturation','unit':'v/v'},{'name':'Bvw_Sim','family':'Bulk Fluid Volume','unit':'v/v'},{'name':'BvwSxo_Sim','family':'Bulk Fluid Volume','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Modified Simandoux</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'water-saturation-16x16','function':'calSaturationModifiedSimandoux','inputs':{'_0':{'name':'Formation Resistivity','family':'Formation Resistivity','unit':'ohm.m'},'_1':{'name':'Effective Porosity','family':'Effective Porosity','unit':'v/v'},'_2':{'name':'Shale Volume','family':'Shale Volume','unit':'v/v'},'_3':{'name':'Invaded Resistivity','family':'Invaded Zone Resistivity','unit':'ohm.m','allowNull':true},'last':3},'parameters':{'_0':{'name':'a','type':'number','value':1,'unit':'unitless'},'_1':{'name':'m','type':'number','value':2,'unit':'unitless'},'_2':{'name':'n','type':'number','value':2,'unit':'unitless'},'_3':{'name':'Rw','type':'number','value':0.03,'unit':'ohm.m'},'_4':{'name':'Rsh','type':'number','value':4.5,'unit':'ohm.m'},'_5':{'name':'Rmf','type':'number','value':0.1,'unit':'ohm.m'},'last':5},'outputs':[{'name':'Sw_Smo','family':'Water Saturation','unit':'v/v'},{'name':'Sxo_Smo','family':'Flushed Zone Water Saturation','unit':'v/v'},{'name':'Bvw_Smo','family':'Bulk Fluid Volume','unit':'v/v'},{'name':'BvwSxo_Smo','family':'Bulk Fluid Volume','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Juhasz</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'water-saturation-16x16','function':'calSaturationJuhasz','inputs':{'_0':{'name':'Formation Resistivity','family':'Formation Resistivity','unit':'ohm.m'},'_1':{'name':'Porosity','family':'Porosity','unit':'v/v'},'_2':{'name':'Shale Volume','family':'Shale Volume','unit':'v/v'},'_3':{'name':'Invaded Resistivity','family':'Invaded Zone Resistivity','unit':'ohm.m','allowNull':true},'last':3},'parameters':{'_0':{'name':'m*','type':'number','value':2,'unit':'unitless'},'_1':{'name':'n*','type':'number','value':2,'unit':'unitless'},'_2':{'name':'Rw','type':'number','value':0.03,'unit':'ohm.m'},'_3':{'name':'Rsh','type':'number','value':4.5,'unit':'ohm.m'},'_4':{'name':'Rmf','type':'number','value':0.1,'unit':'ohm.m'},'_5':{'name':'PHITsh','type':'number','value':0.35,'unit':'v/v'},'last':5},'outputs':[{'name':'Sw_Juh','family':'Water Saturation','unit':'v/v'},{'name':'Sxo_Juh','family':'Flushed Zone Water Saturation','unit':'v/v'},{'name':'Bvw_Juh','family':'Bulk Fluid Volume','unit':'v/v'},{'name':'BvwSxo_Juh','family':'Bulk Fluid Volume','unit':'v/v'},{'name':'Qvn','family':'Volumetric CEC','unit':'eq/L'}]}</t>
-  </si>
-  <si>
     <t>Waxman-Smits</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'water-saturation-16x16','function':'calSaturationWaxmanSmits','inputs':{'_0':{'name':'Formation Resistivity','family':'Formation Resistivity','unit':'ohm.m'},'_1':{'name':'Porosity','family':'Porosity','unit':'v/v'},'_2':{'name':'Formation Temperature','family':'Formation Temperature','unit':'degF','allowNull':true},'_3':{'name':'Invaded Resistivity','family':'Invaded Zone Resistivity','unit':'ohm.m','allowNull':true},'last':3},'parameters':{'_0':{'name':'m*','type':'number','value':2,'unit':'unitless'},'_1':{'name':'n*','type':'number','value':2,'unit':'unitless'},'_2':{'name':'Rw','type':'number','value':0.03,'unit':'ohm.m'},'_3':{'name':'Rmf','type':'number','value':0.1,'unit':'ohm.m'},'_4':{'name':'B','type':'number','value':4,'unit':'L.S/eq.m'},'_5':{'name':'Qv','type':'number','value':1,'unit':'eq/L'},'last':5},'outputs':[{'name':'Sw_Wax','family':'Water Saturation','unit':'v/v'},{'name':'Sxo_Wax','family':'Flushed Zone Water Saturation','unit':'v/v'},{'name':'Bvw_Wax','family':'Bulk Fluid Volume','unit':'v/v'},{'name':'BvwSxo_Wax','family':'Bulk Fluid Volume','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Dual Water</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'water-saturation-16x16','function':'calSaturationDualWater','inputs':{'_0':{'name':'Formation Resistivity','family':'Formation Resistivity','unit':'ohm.m'},'_1':{'name':'Total Porosity','family':'Total Porosity','unit':'v/v'},'_2':{'name':'Shale Volume','family':'Shale Volume','unit':'v/v'},'_3':{'name':'Invaded Resistivity','family':'Invaded Zone Resistivity','unit':'ohm.m','allowNull':true},'last':3},'parameters':{'_0':{'name':'a','type':'number','value':1,'unit':'unitless'},'_1':{'name':'m*','type':'number','value':2,'unit':'unitless'},'_2':{'name':'n*','type':'number','value':2,'unit':'unitless'},'_3':{'name':'Rw','type':'number','value':0.03,'unit':'ohm.m'},'_4':{'name':'Rmf','type':'number','value':0.125,'unit':'ohm.m'},'_5':{'name':'Rsh','type':'number','value':4.5,'unit':'ohm.m'},'_6':{'name':'PHITsh','type':'number','value':0.35,'unit':'v/v'},'last':6},'outputs':[{'name':'Sw_Dua','family':'Water Saturation','unit':'v/v'},{'name':'Sxo_Dua','family':'Flushed Zone Water Saturation','unit':'v/v'},{'name':'Bvw_Dua','family':'Bulk Fluid Volume','unit':'v/v'},{'name':'BvwSxo_Dua','family':'Bulk Fluid Volume','unit':'v/v'},{'name':'Qv','family':'Volumetric CEC','unit':'eq/L'}]}</t>
-  </si>
-  <si>
     <t>Equivalent Effective Sw</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'water-saturation-16x16','function':'calSaturationEffective','inputs':{'_0':{'name':'Total Porosity','family':'Total Porosity','unit':'v/v'},'_1':{'name':'Effective Porosity','family':'Effective Porosity','unit':'v/v'},'_2':{'name':'Total Saturation','family':'Water Saturation','unit':'v/v'},'last':2},'parameters':{'last':-1},'outputs':[{'name':'Sw_E','family':'Water Saturation','unit':'v/v'},{'name':'Bvw_E','family':'Bulk Fluid Volume','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Summaries</t>
   </si>
   <si>
     <t>Clastic</t>
   </si>
   <si>
-    <t>{'other':{'summation':true,'multiple':true,'addParamFlag':true,'inputTemplate':{'name':'Curve','allowNull':true},'paramTemplate':{'name':'Custom Cutoff 4','type':'handsontable','tableType':'condition','value':[{'method':'Value &lt;= Min','min':0.5}],'nameEditable':true},'outputsMultiple':true,'outputFromParameters':true,'outputTemplate':{'name':'CUSTOM_FL','family':'Net Flag','unit':'UNITLESS','parameters':[],'shading':'red'}},'icon':'summation-16x16','function':'calClasticfSummation','inputs':{'_0':{'name':'Shale Volume','unit':'v/v','family':'Shale Volume'},'_1':{'name':'Porosity','unit':'v/v','family':'Porosity'},'_2':{'name':'Water Saturation','unit':'v/v','family':'Water Saturation'},'last':2},'options':{'_0':{'name':'TVD','family':'True Vertical Depth','unit':'m'},'_1':{'name':'TVDSS','family':'True Vertical Depth Sub Sea','unit':'m'},'last':1},'parameters':{'_0':{'id':'Vshale Cutoff','name':'Vshale Cutoff','type':'handsontable','tableType':'condition','value':[{'method':'Min &lt; Value &lt;= Max','min':0,'max':0.4}]},'_1':{'id':'Phi Cutoff','name':'Phi Cutoff','type':'handsontable','tableType':'condition','value':[{'method':'Value &lt; Min or Value &gt;= Max','min':0,'max':0.15}]},'_2':{'id':'SW Cutoff','name':'SW Cutoff','type':'handsontable','tableType':'condition','value':[{'method':'Min &lt; Value &lt;= Max','min':0,'max':0.6}]},'last':2},'outputs':[{'name':'ROCK','family':'Net Flag','unit':'UNITLESS','parameters':[{'id':'Vshale Cutoff'}],'shading':'yellow'},{'name':'RES','family':'Net Flag','unit':'UNITLESS','parameters':[{'id':'Vshale Cutoff'},{'id':'Phi Cutoff'}],'shading':'green'},{'name':'PAY','family':'Net Flag','unit':'UNITLESS','parameters':[{'id':'Vshale Cutoff'},{'id':'Phi Cutoff'},{'id':'SW Cutoff'}],'shading':'red'}]}</t>
-  </si>
-  <si>
     <t>Multi-Mineral Solver</t>
   </si>
   <si>
-    <t>{'other':{'multiple':true,'modelConfigs':[{'name':'Aegyrine','default':{'DT':80,'NPHI':0.05,'RHOB':3.53,'GR':3,'PAI':111.37,'URAN':12.5,'POT':0.15,'THOR':5},'output':{'max':0.2,'min':0}},{'name':'Albite','default':{'DT':48,'NPHI':-0.013,'RHOB':2.58,'GR':20,'PAI':4.35,'URAN':5,'POT':1,'THOR':1},'output':{'max':0.4,'min':0}},{'name':'Andesine','default':{'DT':54.7,'NPHI':-0.013,'RHOB':2.63,'GR':75,'PAI':4.35,'URAN':5,'POT':1,'THOR':1},'output':{'max':0.4,'min':0}},{'name':'Anhydrite','default':{'DT':50,'NPHI':0.01,'RHOB':2.9,'GR':3,'PAI':9.32,'URAN':0,'POT':0.3,'THOR':0},'output':{'max':0.5,'min':0}},{'name':'Anorthslase','default':{'DT':69,'NPHI':-0.012,'RHOB':2.56,'GR':100,'PAI':7.12,'URAN':2,'POT':4,'THOR':7},'output':{'max':0.5,'min':0}},{'name':'Another','default':{'DT':58,'NPHI':0.105,'RHOB':2.13,'GR':10,'PAI':3.79,'URAN':0,'POT':0,'THOR':0},'output':{'max':0.1,'min':0}},{'name':'Augite','default':{'DT':80,'NPHI':0.02,'RHOB':3.08,'GR':15,'PAI':111.37,'URAN':12.5,'POT':0.1,'THOR':5},'output':{'max':0.2,'min':0}},{'name':'Biotite','default':{'DT':51,'NPHI':0.21,'RHOB':3.22,'GR':275,'PAI':18.75,'URAN':20,'POT':7.5,'THOR':10},'output':{'max':0.4,'min':0}},{'name':'Calcite','default':{'DT':47.5,'NPHI':0,'RHOB':2.71,'GR':3,'PAI':5.08,'URAN':0,'POT':0.3,'THOR':0},'output':{'max':0.5,'min':0}},{'name':'Chlorite','default':{'DT':72.5,'NPHI':0.44,'RHOB':3.1,'GR':215,'PAI':3.48,'URAN':0,'POT':0.057,'THOR':0},'output':{'max':0.9,'min':0}},{'name':'Clays','default':{'DT':72.5,'NPHI':0.36,'RHOB':2.75,'GR':190,'PAI':3.48,'URAN':0,'POT':0.055,'THOR':0},'output':{'max':0.9,'min':0}},{'name':'Diopside','default':{'DT':40,'NPHI':0.05,'RHOB':3.33,'GR':15,'PAI':111.37,'URAN':12.5,'POT':0.1,'THOR':5},'output':{'max':0.2,'min':0}},{'name':'Dolomite','default':{'DT':43.5,'NPHI':0,'RHOB':2.88,'GR':3,'PAI':3.14,'URAN':0,'POT':0.3,'THOR':0},'output':{'max':0.5,'min':0}},{'name':'Enstatite','default':{'DT':46.8,'NPHI':0.03,'RHOB':3.23,'GR':15,'PAI':111.37,'URAN':12.5,'POT':0,'THOR':5},'output':{'max':0.2,'min':0}},{'name':'Fluid','type':'Fluid','default':{'DT':189,'NPHI':0.991,'RHOB':1.03,'GR':0,'PAI':0,'URAN':0,'POT':0,'THOR':0},'output':{'max':0.3,'min':0}},{'name':'Gas','default':{'DT':265,'NPHI':0.2,'RHOB':0.1,'GR':0,'PAI':0,'URAN':0,'POT':0,'THOR':0},'output':{'min':0,'max':0.35}},{'name':'Glauconite','default':{'DT':49,'NPHI':0.38,'RHOB':2.45,'GR':200,'PAI':18.75,'URAN':8.1,'POT':8.7,'THOR':10},'output':{'max':0.4,'min':0}},{'name':'Haematite','default':{'DT':46.8,'NPHI':0.13,'RHOB':5.16,'GR':10,'PAI':111.37,'URAN':12.5,'POT':0,'THOR':5},'output':{'max':0.2,'min':0}},{'name':'HeavyMin','default':{'DT':45.04,'NPHI':0.145,'RHOB':3.05,'GR':445,'PAI':18.75,'URAN':0,'POT':3.75,'THOR':15},'output':{'max':0.2,'min':0}},{'name':'Hedenbergite','default':{'DT':57,'NPHI':0.027,'RHOB':3.55,'GR':15,'PAI':111.37,'URAN':12.5,'POT':0.016,'THOR':5},'output':{'max':0.2,'min':0}},{'name':'Hornblends','default':{'DT':44,'NPHI':0.08,'RHOB':3.2,'GR':275,'PAI':18.75,'URAN':20,'POT':0.8,'THOR':13.5},'output':{'max':0.4,'min':0}},{'name':'Igneous','default':{'DT':54.7,'NPHI':0.15,'RHOB':2.78,'GR':45,'PAI':9.99,'URAN':0,'POT':1.45,'THOR':2.7},'output':{'max':0.8,'min':0}},{'name':'Illite','default':{'DT':72.5,'NPHI':0.25,'RHOB':2.715,'GR':275,'PAI':3.48,'URAN':0,'POT':0.01,'THOR':0},'output':{'max':0.9,'min':0}},{'name':'K_Feldsp','default':{'DT':53.5,'NPHI':-0.03,'RHOB':2.54,'GR':70,'PAI':7.297,'URAN':1.5,'POT':6,'THOR':7},'output':{'max':0.7,'min':0}},{'name':'Kaolinite','default':{'DT':72.5,'NPHI':0.35,'RHOB':2.69,'GR':105,'PAI':3.48,'URAN':0,'POT':0.04,'THOR':0},'output':{'max':0.9,'min':0}},{'name':'Labradorite','default':{'DT':54.7,'NPHI':-0.014,'RHOB':2.68,'GR':25,'PAI':4.35,'URAN':5,'POT':1,'THOR':1},'output':{'max':0.4,'min':0}},{'name':'Magnetit','default':{'DT':41,'NPHI':0.11,'RHOB':5.08,'GR':50,'PAI':111.37,'URAN':12.5,'POT':0,'THOR':5},'output':{'max':0.2,'min':0}},{'name':'Microline','default':{'DT':51,'NPHI':-0.011,'RHOB':2.54,'GR':250,'PAI':7.12,'URAN':2,'POT':12.5,'THOR':7},'output':{'max':0.5,'min':0}},{'name':'Montmoriolite','default':{'DT':41,'NPHI':0.41,'RHOB':2.88,'GR':150,'PAI':2.04,'URAN':0,'POT':1,'THOR':0},'output':{'max':0.5,'min':0}},{'name':'Muscovite','default':{'DT':49,'NPHI':0.2,'RHOB':2.82,'GR':270,'PAI':18.75,'URAN':8.1,'POT':8.7,'THOR':10},'output':{'max':0.4,'min':0}},{'name':'Oil','default':{'DT':210,'NPHI':0.95,'RHOB':0.7,'GR':0,'PAI':0,'URAN':0,'POT':0,'THOR':0},'output':{'min':0,'max':0.35}},{'name':'Oligoclase','default':{'DT':48,'NPHI':-0.012,'RHOB':2.65,'GR':20,'PAI':4.35,'URAN':5,'POT':1,'THOR':1},'output':{'max':0.4,'min':0}},{'name':'Olivine','default':{'DT':36,'NPHI':0.05,'RHOB':3.3,'GR':10,'PAI':18.75,'URAN':0.01,'POT':0,'THOR':0},'output':{'max':0.4,'min':0}},{'name':'Opal','default':{'DT':50,'NPHI':0.1,'RHOB':2.13,'GR':10,'PAI':3.79,'URAN':0,'POT':0,'THOR':0},'output':{'max':0.5,'min':0}},{'name':'Orthocla','default':{'DT':53.5,'NPHI':-0.011,'RHOB':2.54,'GR':250,'PAI':7.12,'URAN':2,'POT':10.5,'THOR':7},'output':{'max':0.5,'min':0}},{'name':'Plagioclase','default':{'DT':49,'NPHI':-0.013,'RHOB':2.582,'GR':100,'PAI':4.35,'URAN':0,'POT':1.5,'THOR':0},'output':{'max':0.9,'min':0}},{'name':'Quartz','default':{'DT':50,'NPHI':-0.02,'RHOB':2.65,'GR':5,'PAI':4.77,'URAN':2,'POT':0,'THOR':3},'output':{'max':0.5,'min':0}},{'name':'Salt','default':{'DT':40,'NPHI':0,'RHOB':1.026,'GR':0,'PAI':4.6,'URAN':0,'POT':0,'THOR':0},'output':{'max':0.5,'min':0}},{'name':'Siderite','default':{'DT':47,'NPHI':0.12,'RHOB':3.89,'GR':0,'PAI':14.69,'URAN':0,'POT':0,'THOR':0},'output':{'max':0.5,'min':0}},{'name':'Water','default':{'DT':189,'NPHI':1,'RHOB':1.05,'GR':0,'PAI':0,'URAN':0,'POT':0,'THOR':0},'output':{'min':0,'max':0.35}},{'name':'Zeolit','default':{'DT':53.35,'NPHI':0.2,'RHOB':2.25,'GR':30,'PAI':3.48,'URAN':0,'POT':1,'THOR':0},'output':{'max':0.4,'min':0}}],'familyMap':{'DT':['Peak Slowness','Peak Travel Time','Travel Time','Compressional Slowness','DTC.*','DT','SON.*','AC','DTTP.*','Acoustic'],'RHOB':['Bulk Density','Bulk Density Correction','Bulk Density Hydrocarbon Corrected','Corrected ZDL Density','DEN.*','RHOB','RHOZ','ZDEN.*','RHOZ','LDEN','Density'],'GR':['Gamma Ray','Gamma Ray 1','Gamma Ray Normalised','Gamma Ray Shale','Gamma Ray Squared','Russian Gamma Ray','PLT Gamma Ray','GR.*','ECGR.*','SGRC.*','GAM.*','HGR','EGR','SGR'],'NPHI':['Thermal Neutron Near Far Ratio','Compensated Neutron Porosity','Epithermal Neutron Porosity','Neutron Porosity','Neutron Porosity Correction','Neutron Porosity Hydrocarbon Corrected','Neutron Porosity Lime','Neutron Porosity Sand','Russian Thermal Neutron Porosity','Thermal Neutron Porosity','NEU.*','TNP.*','NPHI.*','CNL.*','CNT.*','Porosity'],'POT':['Potassium Capture Relative Yield','Potassium Concentration','Potassium Radio Nuclide Activity','POT.*','Weight Fraction - Element'],'THOR':['Thorium Concentration','Thorium Radio Nuclide Activity','THOR.*'],'URAN':['Uranium Concentration','Uranium Radio Nuclide Activity','URA.*'],'PAI':['.*']},'outputConfigs':[{'name':'Minerals','family':'Mineral Volume','unit':'v/v','prefix':'V_'},{'name':'Synthetic Curves','suffix':'_SYN','disableEditing':['family','unit']}]},'icon':'multi-mineral-solver-16x16','function':'multiMineralSolver','inputs':{'_0':{'name':'Curve'},'last':0},'parameters':{'last':-1},'outputs':[]}</t>
-  </si>
-  <si>
     <t>Gradient</t>
   </si>
   <si>
     <t>Formation Temperature</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'gradient-ftemp-16x16','function':'gradientFTemp','inputs':{'_0':{'name':'Depth','family':'Measured Depth','unit':'m'},'last':0},'outputs':[{'name':'FTEMP','family':'Formation Temperature','unit':'degC'}],'parameters':{'_0':{'name':'Temperature Gradient','type':'number','value':0.03,'unit':'degC/m'},'_1':{'name':'TLI','type':'number','value':0,'unit':'m'},'_2':{'name':'Top Log Temperature','type':'number','value':25,'unit':'degC'},'last':2}}</t>
-  </si>
-  <si>
     <t>Log Interval</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'log-interval-ftemp-16x16','function':'logIntervalFTemp','inputs':{'_0':{'name':'Depth','family':'Measured Depth','unit':'m'},'last':0},'outputs':[{'name':'FTEMP','family':'Formation Temperature','unit':'degC'}],'parameters':{'_0':{'name':'TLI','type':'number','value':0,'unit':'m'},'_1':{'name':'BLI','type':'number','value':0,'unit':'m'},'_2':{'name':'Top Log Temperature','type':'number','value':25,'unit':'degC'},'_3':{'name':'Bottom Log Temperature','type':'number','value':120,'unit':'degC'},'last':3}}</t>
-  </si>
-  <si>
     <t>Hydrostatic Pressure</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'gradient-fpress-16x16','function':'gradientFPress','inputs':{'_0':{'name':'True Vertical Depth','family':'True Vertical Depth','unit':'m'},'last':0},'outputs':[{'name':'FPRESS','family':'Hydrostatic Pressure','unit':'kPa'}],'parameters':{'_0':{'name':'Pressure Gradient','type':'number','value':9.792,'unit':'kPa/m'},'last':0}}</t>
-  </si>
-  <si>
     <t>Mud Density</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'mud-density-fpress-16x16','function':'mudDensityFPress','inputs':{'_0':{'name':'True Vertical Depth','family':'True Vertical Depth','unit':'m'},'last':0},'outputs':[{'name':'FPRESS','family':'Hydrostatic Pressure','unit':'kPa'}],'parameters':{'_0':{'name':'Drilling Fluid Density','type':'number','value':1,'unit':'kg/m3'},'last':0}}</t>
-  </si>
-  <si>
     <t>Normalized</t>
   </si>
   <si>
     <t>Qv</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'normalized-qv-16x16','function':'normalizeQv','inputs':{'_0':{'name':'Porosity','family':'Porosity','unit':'v/v'},'_1':{'name':'Shale Volume','family':'Shale Volume','unit':'v/v'},'last':1},'outputs':[{'name':'QVn','family':'Normalised Qv','unit':'v/v'}],'parameters':{'_0':{'name':'Porosity Shale','type':'number','value':0.4,'unit':'v/v'},'last':0}}</t>
-  </si>
-  <si>
     <t>Function of CEC</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'cec-qv-16x16','function':'cecQv','inputs':{'_0':{'name':'Porosity','family':'Porosity','unit':'v/v'},'_1':{'name':'CEC','family':'Volumetric CEC','unit':'meq/g'},'_2':{'name':'Grain Density','family':'Grain Density','unit':'g/cm3'},'last':2},'outputs':[{'name':'QV','family':'Volumetric CEC','unit':'1/L'}],'parameters':{'last':-1}}</t>
-  </si>
-  <si>
     <t>Water-Bearing Shaly Sand</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'water-bearing-shaly-sands-16x16','function':'qvWaterBearingShalySands','inputs':{'_0':{'name':'Porosity','family':'Porosity','unit':'v/v'},'_1':{'name':'Resistivity','family':'Resistivity','unit':'ohm.m'},'last':1},'outputs':[{'name':'QV','family':'Volumetric CEC','unit':'1/L'},{'name':'B','family':'Waxman B','unit':'L.S/eq.m'},{'name':'BQv','family':'Waxman BQv','unit':'S/m'}],'parameters':{'_0':{'name':'B method','type':'select','value':'Use B from formula','choices':['Use B from formula','Use B value']},'_1':{'name':'B value','type':'number','value':0,'unit':'L.S/m'},'_2':{'name':'Temperature','type':'number','value':25,'unit':'degC'},'_3':{'name':'Water Resistivity','type':'number','value':0.03,'unit':'ohm.m'},'_4':{'name':'a*','type':'number','value':1},'_5':{'name':'m*','type':'number','value':2},'last':5}}</t>
-  </si>
-  <si>
     <t>Water Resistivity from Temperature and Salinity</t>
   </si>
   <si>
     <t>Water Properties</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'rw-from-sanlinity-temp-16x16','function':'RWfromSALandFTemp','inputs':{'_0':{'name':'Formation Temperature','family':'Formation Temperature','unit':'degF'},'_1':{'name':'Salinity','family':'Salinity','unit':'ppm'},'last':1},'outputs':[{'name':'RwX','family':'Formation Water Resistivity','unit':'ohm.m'}],'parameters':{'last':-1}}</t>
-  </si>
-  <si>
     <t>U from Salinity</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'saturated-nacl-from-temp-16x16','function':'UfromSalinity','inputs':{'_0':{'name':'Salinity','family':'Salinity','unit':'ppk'},'last':0},'outputs':[{'name':'U','family':'Volumetric Photoelectric Effect','unit':'barns/cm3'}],'parameters':{'last':-1}}</t>
-  </si>
-  <si>
     <t>Saturated Salinity Concentration from Temperature</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'u-from-salinity-16x16','function':'saturatedSalinityConcentrationfromFTemp','inputs':{'_0':{'name':'Formation Temperature','family':'Formation Temperature','unit':'degF'},'last':0},'outputs':[{'name':'SAL_SAT','family':'Formation Water Salinity','unit':'ppk'}],'parameters':{'last':-1}}</t>
-  </si>
-  <si>
     <t>Mud Salinity and Resistivity</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'mud-salinity-and-resistivity-16x16','function':'mudSalinityAndResistivity','inputs':{'_0':{'name':'Formation Temperature','family':'Formation Temperature','unit':'degC'},'last':0},'outputs':[{'name':'RM','family':'Mud Resistivity','unit':'ohm.m'},{'name':'RMF','family':'Mud Filtrate Resistivity','unit':'ohm.m'},{'name':'RMC','family':'Mudcake Resistivity','unit':'ohm.m'},{'name':'SALM','family':'Mud Salinity','unit':'ppm'},{'name':'SALMF','family':'Mud Filtrate Salinity','unit':'ppm'}],'parameters':{'_0':{'name':'Mud Sample Resistivity','type':'number','value':0,'unit':'ohm.m'},'_1':{'name':'Mud Sample Temperature','type':'number','value':0,'unit':'degC'},'_2':{'name':'Mud Filtrate Sample Resistivity','type':'number','value':0,'unit':'ohm.m'},'_3':{'name':'Mud Filtrate Sample Temperature','type':'number','value':0,'unit':'degC'},'_4':{'name':'Mudcake Sample Resistivity','type':'number','value':0,'unit':'ohm.m'},'_5':{'name':'Mudcake Sample Temperature','type':'number','value':0,'unit':'degC'},'last':5}}</t>
-  </si>
-  <si>
     <t>Bad Hole From Caliper</t>
   </si>
   <si>
     <t>Quality Flag</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'bad-hole-from-caliper-16x16','function':'badHoleFromCaliper','inputs':{'_0':{'name':'Caliper','family':'Caliper','unit':'in'},'_1':{'name':'Bit Size','family':'Bit Size','unit':'in','allowNull':true},'last':1},'outputs':[{'name':'BH_FL_BS','family':'Bad Hole Flag','unit':'UNITLESS'}],'parameters':{'_0':{'name':'Cutoff','type':'number','value':0.5,'unit':'in'},'_1':{'name':'Bit Size','type':'number','value':12.5,'unit':'in'},'last':1}}</t>
-  </si>
-  <si>
     <t>Bad Hole From DRHO</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'bad-hole-from-drho-16x16','function':'badHoleFromDRHO','inputs':{'_0':{'name':'DENC','family':'Bulk Density Correction','unit':'g/cm3'},'last':0},'outputs':[{'name':'BH_FL_DRHO','family':'Bad Hole Flag','unit':'UNITLESS'}],'parameters':{'_0':{'name':'Bulk Density Correction Min','type':'number','value':0.1,'unit':'g/cm3'},'_1':{'name':'Bulk Density Correction Max','type':'number','value':0.6,'unit':'g/cm3'},'last':1}}</t>
-  </si>
-  <si>
     <t>Coal Flag</t>
   </si>
   <si>
     <t>Pure Mineral Flag</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'coal-flag-16x16','function':'coalFlag','inputs':{'_0':{'name':'Bulk Density','family':'Bulk Density','unit':'g/cm3','allowNull':true},'_1':{'name':'Neutron Porosity','family':'Neutron Porosity','unit':'v/v','allowNull':true},'_2':{'name':'Compressional Slowness','family':'Compressional Slowness','unit':'US/FT','allowNull':true},'_3':{'name':'Photoelectric Factor','family':'Photoelectric Factor','unit':'UNITLESS','allowNull':true},'_4':{'name':'Resistivity','family':'Resistivity','allowNull':true},'last':4},'outputs':[{'name':'COAL_FL','family':'Coal Flag','unit':'UNITLESS'}],'parameters':{'_0':{'name':'Bulk Density Cutoff','id':'Bulk Density Cutoff','type':'handsontable','tableType':'condition','unit':'g/cm3','value':[{'method':'Min &lt;= Value &lt; Max','min':1.2,'max':2.2}]},'_1':{'name':'Neutron Porosity Cutoff','id':'Neutron Porosity Cutoff','type':'handsontable','tableType':'condition','unit':'v/v','value':[{'method':'Min &lt;= Value &lt; Max','min':0.3,'max':0.6}]},'_2':{'name':'Compressional Slowness Cutoff','id':'Compressional Slowness Cutoff','type':'handsontable','tableType':'condition','unit':'us/ft','value':[{'method':'Min &lt;= Value &lt; Max','min':90,'max':150}]},'_3':{'name':'Photoelectric Factor Cutoff','id':'Photoelectric Factor Cutoff','type':'handsontable','tableType':'condition','unit':'unitless','value':[{'method':'Min &lt;= Value &lt; Max','min':0.16,'max':0.2}]},'_4':{'name':'Resistivity Cutoff','id':'Resistivity Cutoff','type':'handsontable','tableType':'condition','unit':'ohm.m','value':[{'method':'Min &lt;= Value &lt; Max','min':900,'max':1000}]},'last':4}}</t>
-  </si>
-  <si>
     <t>Carbonate Flag</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'carbonate-flag-16x16','function':'carbonateFlag','inputs':{'_0':{'name':'Bulk Density','family':'Bulk Density','unit':'g/cm3','allowNull':true},'_1':{'name':'Neutron Porosity','family':'Neutron Porosity','unit':'v/v','allowNull':true},'_2':{'name':'Compressional Slowness','family':'Compressional Slowness','unit':'US/FT','allowNull':true},'_3':{'name':'Photoelectric Factor','family':'Photoelectric Factor','unit':'UNITLESS','allowNull':true},'last':3},'outputs':[{'name':'CARBONATE_FL','family':'General Flag','unit':'UNITLESS'}],'parameters':{'_0':{'name':'Bulk Density Cutoff','id':'Bulk Density Cutoff','type':'handsontable','tableType':'condition','unit':'g/cm3','value':[{'method':'Min &lt;= Value &lt; Max','min':2.85,'max':3}]},'_1':{'name':'Neutron Porosity Cutoff','id':'Neutron Porosity Cutoff','type':'handsontable','tableType':'condition','unit':'v/v','value':[{'method':'Min &lt;= Value &lt; Max','min':0,'max':1}]},'_2':{'name':'Compressional Slowness Cutoff','id':'Compressional Slowness Cutoff','type':'handsontable','tableType':'condition','unit':'us/ft','value':[{'method':'Min &lt;= Value &lt; Max','min':45,'max':55}]},'_3':{'name':'Photoelectric Factor Cutoff','id':'Photoelectric Factor Cutoff','type':'handsontable','tableType':'condition','unit':'unitless','value':[{'method':'Min &lt;= Value &lt; Max','min':5,'max':7}]},'last':3}}</t>
-  </si>
-  <si>
     <t>Halite Flag</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'halite-flag-16x16','function':'haliteFlag','inputs':{'_0':{'name':'Bulk Density','family':'Bulk Density','unit':'g/cm3','allowNull':true},'_1':{'name':'Resistivity','family':'Resistivity','unit':'ohm.m','allowNull':true},'_2':{'name':'Compressional Slowness','family':'Compressional Slowness','unit':'US/FT','allowNull':true},'_3':{'name':'Photoelectric Factor','family':'Photoelectric Factor','unit':'UNITLESS','allowNull':true},'last':3},'outputs':[{'name':'HALITE_FL','family':'Halite Flag','unit':'UNITLESS'}],'parameters':{'_0':{'name':'Bulk Density Cutoff','id':'Bulk Density Cutoff','type':'handsontable','tableType':'condition','unit':'g/cm3','value':[{'method':'Min &lt;= Value &lt; Max','min':2.05,'max':2.15}]},'_1':{'name':'Resistivity Cutoff','id':'Resistivity Cutoff','type':'handsontable','tableType':'condition','unit':'ohm.m','value':[{'method':'Min &lt;= Value &lt; Max','min':10000,'max':100000}]},'_2':{'name':'Compressional Slowness Cutoff','id':'Compressional Slowness Cutoff','type':'handsontable','tableType':'condition','unit':'us/ft','value':[{'method':'Min &lt;= Value &lt; Max','min':60,'max':70}]},'_3':{'name':'Photoelectric Factor Cutoff','id':'Photoelectric Factor Cutoff','type':'handsontable','tableType':'condition','unit':'unitless','value':[{'method':'Min &lt;= Value &lt; Max','min':4.5,'max':5}]},'last':3}}</t>
-  </si>
-  <si>
     <t>Anhydrite Flag</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'anhydrite-flag-16x16','function':'anhydriteFlag','inputs':{'_0':{'name':'Bulk Density','family':'Bulk Density','unit':'g/cm3','allowNull':true},'_1':{'name':'Resistivity','family':'Resistivity','unit':'ohm.m','allowNull':true},'_2':{'name':'Compressional Slowness','family':'Compressional Slowness','unit':'US/FT','allowNull':true},'_3':{'name':'Photoelectric Factor','family':'Photoelectric Factor','unit':'UNITLESS','allowNull':true},'last':3},'outputs':[{'name':'ANHYDRITE_FL','family':'General Flag','unit':'UNITLESS'}],'parameters':{'_0':{'name':'Bulk Density Cutoff','id':'Bulk Density Cutoff','type':'handsontable','tableType':'condition','unit':'g/cm3','value':[{'method':'Min &lt;= Value &lt; Max','min':2.85,'max':3}]},'_1':{'name':'Resistivity Cutoff','id':'Resistivity Cutoff','type':'handsontable','tableType':'condition','unit':'ohm.m','value':[{'method':'Min &lt;= Value &lt; Max','min':10000,'max':100000}]},'_2':{'name':'Compressional Slowness Cutoff','id':'Compressional Slowness Cutoff','type':'handsontable','tableType':'condition','unit':'us/ft','value':[{'method':'Min &lt;= Value &lt; Max','min':55,'max':60}]},'_3':{'name':'Photoelectric Factor Cutoff','id':'Photoelectric Factor Cutoff','type':'handsontable','tableType':'condition','unit':'unitless','value':[{'method':'Min &lt;= Value &lt; Max','min':4.5,'max':5}]},'last':3}}</t>
-  </si>
-  <si>
     <t>Custom Flag</t>
   </si>
   <si>
-    <t>{'other':{'multiple':true,'outputTemplate':{'name':'CUSTOM_FL','family':'General Flag','unit':'UNITLESS','parameters':[]},'outputsMultiple':true,'outputFromParameters':true,'addParamFlag':true},'icon':'custom-flag-16x16','function':'customFlag','inputs':{'_0':{'name':'Curve'},'last':0},'outputs':[{'name':'CUSTOM_FL_1','family':'General Flag','unit':'UNITLESS','parameters':[{'id':'Condition 1'}]}],'parameters':{'_0':{'id':'Condition 1','name':'Condition 1','type':'handsontable','tableType':'condition','value':[{'method':'Min &lt;= Value &lt; Max'}],'nameEditable':true},'last':0}}</t>
-  </si>
-  <si>
     <t>TVD Conputation</t>
   </si>
   <si>
-    <t>{'other':{'allowZone':false,'outputDataset':'INDEX'},'icon':'true-vertical-depth-16x16','function':'tvdConvserion','inputs':{'_0':{'name':'Deviation','family':'Hole Deviation','unit':'Deg'},'_1':{'name':'Azimuth','family':'Hole Azimuth','unit':'Deg'},'last':1},'outputs':[{'name':'TVD','family':'True Vertical Depth','unit':'m','disableEditing':'namefamilyunit'},{'name':'TVDSS','family':'True Vertical Depth Sub Sea','unit':'m','disableEditing':'namefamilyunit'},{'name':'XOFFSET','family':'X Offset','unit':'m','disableEditing':'namefamilyunit'},{'name':'YOFFSET','family':'Y Offset','unit':'m','disableEditing':'namefamilyunit'}],'parameters':{'_0':{'name':'TVD Mode','type':'select','choices':['On Shore','Off Shore'],'value':'Off Shore'},'_1':{'name':'Elevator','type':'number','value':0,'unit':'m'},'_2':{'name':'X reference at','type':'number','value':0,'unit':'m'},'_3':{'name':'Y reference at','type':'number','value':0,'unit':'m'},'_4':{'name':'Method','type':'select','choices':['Average Angle','Balanced Tangential','Radius Curvature','Minimum Curvature'],'value':'Minimum Curvature'},'last':4}}</t>
-  </si>
-  <si>
     <t>Basic Operation</t>
   </si>
   <si>
     <t>Scalar Operation</t>
   </si>
   <si>
-    <t>{'other':{'transform':true,'outputConfigs':[{'suffix':'_OUT'}],'allowZone':false},'icon':'basic-operations-16x16','function':'basicOperations','inputs':{'_0':{'name':'Input curve'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Method','type':'select','value':'+','choices':['+','-','*','/']},'_1':{'name':'Constant','type':'number','value':3.141592653589793},'last':1}}</t>
-  </si>
-  <si>
     <t>Power</t>
   </si>
   <si>
-    <t>{'other':{'transform':true,'outputConfigs':[{'suffix':'_POW'}],'allowZone':false},'icon':'pow-16x16','function':'pow','inputs':{'_0':{'name':'Input curve'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Exponent','type':'number','value':3.141592653589793},'last':0}}</t>
-  </si>
-  <si>
     <t>Round</t>
   </si>
   <si>
-    <t>{'other':{'transform':true,'outputConfigs':[{'suffix':'_ROUND'}],'allowZone':false},'icon':'round-16x16','function':'round','inputs':{'_0':{'name':'Input curve'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Precision','type':'number','value':2},'last':0}}</t>
-  </si>
-  <si>
     <t>Limit</t>
   </si>
   <si>
-    <t>{'other':{'transform':true,'outputConfigs':[{'suffix':'_LIMIT'}],'allowZone':false},'icon':'limit-16x16','function':'limit','inputs':{'_0':{'name':'Input curve'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Min','type':'number','value':0},'_1':{'name':'Max','type':'number','value':1},'last':1}}</t>
-  </si>
-  <si>
     <t>Functional Transformation</t>
   </si>
   <si>
     <t>Curve Transformation</t>
   </si>
   <si>
-    <t>{'other':{'transform':true,'multiple':true,'inputTemplate':{'name':'Curve'},'outputConfigs':[{'suffix':'_OUT'}],'allowZone':false},'icon':'functional-transformations-16x16','function':'functionalTransforms','inputs':{'_0':{'name':'Curve 1'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Method','type':'select','value':'pow10','choices':['pow10','sqrt','loge','log10','abs','inv','acos','asin','atan','cos','sin','tan','exp','exp10']},'last':0}}</t>
-  </si>
-  <si>
     <t>Curve Derivation</t>
   </si>
   <si>
-    <t>{'other':{'transform':true,'multiple':true,'inputTemplate':{'name':'Curve'},'outputConfigs':[{'name':'First Derivation','suffix':'_1ST_DERIVATION','use':true},{'name':'Second Derivation','suffix':'_2ND_DERIVATION','use':true}],'allowZone':false},'icon':'curve-derivation-16x16','function':'curveDerivation','inputs':{'_0':{'name':'Curve 1'},'last':0},'outputs':[],'parameters':{'last':-1}}</t>
-  </si>
-  <si>
     <t>Curve Rescaling</t>
   </si>
   <si>
-    <t>{'other':{'transform':true,'multiple':true,'inputTemplate':{'name':'Curve'},'outputConfigs':[{'suffix':'_RESCALING'}],'allowZone':false},'icon':'curve-rescale-16x16','function':'curveRescaling','inputs':{'_0':{'name':'Curve 1'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Input left scale','type':'number','value':0},'_1':{'name':'Input right scale','type':'number','value':1},'_2':{'name':'Output left scale','type':'number','value':0},'_3':{'name':'Output right scale','type':'number','value':1},'last':3}}</t>
-  </si>
-  <si>
     <t>Curve Filling</t>
   </si>
   <si>
     <t>Curve Interpolation</t>
   </si>
   <si>
-    <t>{'other':{'transform':true,'multiple':true,'inputTemplate':{'name':'Curve'},'outputConfigs':[{'suffix':'_FILLED'}],'allowZone':false},'icon':'curve-fill-data-gaps-16x16','function':'curveFilling','inputs':{'_0':{'name':'Curve 1'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Gaps Maximum Width','type':'number','value':13},'_1':{'name':'Width Type','type':'select','value':'In samples','choices':['In samples','In reference']},'_2':{'name':'Mode','type':'select','value':'linear interpolation','choices':['top value','bottom value','linear interpolation','constant']},'_3':{'name':'Constant','type':'number','value':100},'last':3}}</t>
-  </si>
-  <si>
     <t>Curve Resampling</t>
   </si>
   <si>
-    <t>{'other':{'transform':true,'multiple':true,'inputTemplate':{'name':'Curve'},'outputConfigs':[{'suffix':'_RESAMPLED'}],'allowZone':false},'icon':'curve-resampling-16x16','function':'curveResampling','inputs':{'_0':{'name':'Curve 1'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Mode','type':'select','choices':['Linear Interpolate','Depth Shift (core)','Block (core)'],'value':'Linear Interpolate'},'last':0}}</t>
-  </si>
-  <si>
     <t>Basic Combination</t>
   </si>
   <si>
     <t>Curve Combination</t>
   </si>
   <si>
-    <t>{'other':{'transform':true,'multiple':true,'inputTemplate':{'name':'Curve'},'allowZone':false},'icon':'basic-combination-16x16','function':'basicCombinations','inputs':{'_0':{'name':'Curve 1'},'_1':{'name':'Curve 2'},'last':1},'outputs':[{'name':'Combination curve','family':'Compressional Slowness','unit':'us/ft'}],'parameters':{'_0':{'name':'Method','type':'select','value':'+','choices':['+','-','*','/','min','max','average','median']},'last':0}}</t>
-  </si>
-  <si>
     <t>Linear Combination</t>
   </si>
   <si>
-    <t>{'other':{'multiple':true,'inputTemplate':{'name':'Curve'},'transform':true,'addParamFlag':true,'allowZone':false},'icon':'linear-combination-16x16','function':'linearCombinations','inputs':{'_0':{'name':'Curve 1'},'_1':{'name':'Curve 2'},'last':1},'outputs':[{'name':'Combination curve','family':'Compressional Slowness','unit':'us/ft'}],'parameters':{'_0':{'name':'Coefficient 1','type':'number','value':1},'_1':{'name':'Coefficient 2','type':'number','value':1},'last':1}}</t>
-  </si>
-  <si>
     <t>Median Smoothing</t>
   </si>
   <si>
     <t>Curve Smoothing</t>
   </si>
   <si>
-    <t>{'other':{'transform':true,'multiple':true,'inputTemplate':{'name':'Curve'},'outputConfigs':[{'suffix':'_MED_SM'}],'allowZone':false},'icon':'median-filter-16x16','function':'curveMedianFilter','inputs':{'_0':{'name':'Curve 1'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Number Of Levels','type':'number','value':5},'last':0}}</t>
-  </si>
-  <si>
     <t>Square Smoothing</t>
   </si>
   <si>
-    <t>{'other':{'transform':true,'multiple':true,'inputTemplate':{'name':'Curve'},'outputConfigs':[{'suffix':'_SQUARE_SM'}],'allowZone':false},'icon':'square-filter-16x16','function':'curveSquareFilter','inputs':{'_0':{'name':'Curve 1'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Number Of Levels','type':'number','value':5},'last':0}}</t>
-  </si>
-  <si>
     <t>Bell Smoothing</t>
   </si>
   <si>
-    <t>{'other':{'transform':true,'multiple':true,'inputTemplate':{'name':'Curve'},'outputConfigs':[{'suffix':'_BELL_SM'}],'allowZone':false},'icon':'bell-filter-16x16','function':'curveBellFilter','inputs':{'_0':{'name':'Curve 1'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Number Of Levels','type':'number','value':5},'last':0}}</t>
-  </si>
-  <si>
     <t>Savitsky-Golay Smoothing</t>
   </si>
   <si>
-    <t>{'other':{'transform':true,'multiple':true,'inputTemplate':{'name':'Curve'},'outputConfigs':[{'suffix':'_SAVGOL_SM'}],'allowZone':false},'icon':'savisky-golay-filter-16x16','function':'curveSavGolFilter','inputs':{'_0':{'name':'Curve 1'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Derivative Order','type':'number','value':0},'_1':{'name':'Polynomial Order','type':'number','value':2},'_2':{'name':'Number Of Points','type':'number','value':5},'last':2}}</t>
-  </si>
-  <si>
     <t>Fast Fourie transform Smoothing</t>
   </si>
   <si>
-    <t>{'other':{'transform':true,'multiple':true,'inputTemplate':{'name':'Curve'},'outputConfigs':[{'suffix':'_FFT_SM'}],'allowZone':false},'icon':'fft-filter-16x16','function':'curveFFTFilter','inputs':{'_0':{'name':'Curve 1'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Number Of Cutoff','type':'number','value':100},'last':0}}</t>
-  </si>
-  <si>
     <t>Curve Convolution</t>
   </si>
   <si>
-    <t>{'other':{'transform':true,'multiple':true,'inputTemplate':{'name':'Curve'},'outputConfigs':[{'suffix':'_CONV_SM'}],'allowZone':false,'paramMultiple':true},'icon':'curve-convolution-16x16','function':'curveConvolution','inputs':{'_0':{'name':'Curve 1'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Coefficient 1','type':'number','value':0.33,'removeable':false},'_1':{'name':'Coefficient 2','type':'number','value':0.33,'removeable':false},'_2':{'name':'Coefficient 3','type':'number','value':0.33,'removeable':false},'last':2}}</t>
-  </si>
-  <si>
     <t>Curve Deconvolution</t>
   </si>
   <si>
-    <t>{'other':{'transform':true,'multiple':true,'inputTemplate':{'name':'Curve'},'outputConfigs':[{'suffix':'_DECONV_SM'}],'allowZone':false,'paramMultiple':true},'icon':'curve-deconvolution-16x16','function':'curveDeconvolution','inputs':{'_0':{'name':'Curve 1'},'last':0},'outputs':[],'parameters':{'_0':{'name':'Coefficient 1','type':'number','value':1,'removeable':false},'_1':{'name':'Coefficient 2','type':'number','value':0,'removeable':false},'_2':{'name':'Coefficient 3','type':'number','value':1,'removeable':false},'last':2}}</t>
-  </si>
-  <si>
     <t>Non-poro Sw</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'water-saturation-16x16','function':'calSaturationNonPoro','inputs':{'_0':{'name':'Micro Resistivity','family':'Micro Resistivity','unit':'ohm.m'},'_1':{'name':'Resistivity','family':'Resistivity','unit':'ohm.m'},'last':1},'parameters':{'_0':{'name':'Rw','type':'number','value':0.03},'_1':{'name':'Rmf','type':'number','value':0.1},'last':1},'outputs':[{'name':'Sw_QL','family':'Water Saturation','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Merge Curve</t>
   </si>
   <si>
-    <t>{'other':{'multiple':true,'inputTemplate':{'name':'Curve'},'outputConfigs':[{'suffix':'_MERGED'}],'allowZone':false},'icon':'linear-combination-16x16','function':'mergedCurve','inputs':{'_0':{'name':'Curve 1'},'_1':{'name':'Curve 2'},'last':1},'parameters':{'_0':{'name':'overlap','type':'select','choices':['position','mean'],'value':'position'},'last':0},'outputs':[]}</t>
-  </si>
-  <si>
     <t>Block Parameter - Secondary Porosity</t>
   </si>
   <si>
     <t>Basement</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'block-value-16x16','function':'calBlockParameter','inputs':{'_0':{'name':'Total Porosity','unit':'v/v','family':'Total Porosity'},'_1':{'name':'Compressional Slowness','unit':'us/ft','family':'Compressional Slowness'},'_2':{'name':'Resistivity','unit':'ohm.m','family':'Resistivity','allowNull':true},'last':2},'parameters':{'_0':{'name':'Block Porosity','type':'number','value':0.003,'unit':'v/v','color':'red'},'_1':{'name':'Block Sonic','type':'number','value':54,'unit':'us/ft','color':'green'},'_2':{'name':'Macro Sonic','type':'number','value':62,'unit':'us/ft','color':'#F0F'},'_3':{'name':'Block Resistivity','type':'number','value':2000,'unit':'ohm.m'},'_4':{'name':'Macro Resistivity','type':'number','value':200,'unit':'ohm.m'},'last':4},'outputs':[{'name':'PHI_BLK','family':'Block Porosity','unit':'v/v'},{'name':'DT_BLK','family':'Compressional Slowness','unit':'us/ft'},{'name':'DT_MAC','family':'Compressional Slowness','unit':'us/ft'},{'name':'RES_BLK','family':'Resistivity','unit':'ohm.m'},{'name':'RES_MAC','family':'Resistivity','unit':'ohm.m'},{'name':'PHI_2','family':'Secondary Porosity','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Fracture and vug Porosity</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'fracture-porosity-16x16','function':'calFracturenVugPorosity','inputs':{'_0':{'name':'Shallow Resistivity','unit':'ohm.m','family':'Shallow Resistivity'},'_1':{'name':'Secondary Porosity','unit':'v/v','family':'Secondary Porosity'},'_4':{'name':'Formation Temperature','unit':'degC','family':'Formation Temperature'},'last':4},'parameters':{'_1':{'name':'Mud Filtrate Sample Resistivity','type':'number','value':0,'unit':'ohm.m'},'_2':{'name':'Mud Filtrate Sample Temperature','type':'number','value':0,'unit':'degC'},'last':2},'outputs':[{'name':'PHI_V','family':'Vug Porosity','unit':'v/v'},{'name':'PHI_FR','family':'Fracture Porosity','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Macro and micro zone</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'fft-mmp-16x16','function':'calMacronMicroZone','inputs':{'_0':{'name':'Secondary Porosity','unit':'v/v','family':'Secondary Porosity'},'_1':{'name':'Fracture Porosity','unit':'v/v','family':'Fracture Porosity'},'_2':{'name':'Compressional Slowness','unit':'us/ft','family':'Compressional Slowness'},'_3':{'name':'Block Sonic','unit':'us/ft','family':'Compressional Slowness'},'_4':{'name':'Macro Sonic','unit':'us/ft','family':'Compressional Slowness'},'_5':{'name':'Resistivity','unit':'ohm.m','family':'Resistivity'},'_6':{'name':'Block Resistivity','unit':'ohm.m','family':'Resistivity','allowNull':true},'_7':{'name':'Macro Resistivity','unit':'ohm.m','family':'Resistivity','allowNull':true},'last':7},'parameters':{'_0':{'name':'Block Resistivity','type':'number','value':null,'unit':'ohm.m'},'_1':{'name':'Macro Resistivity','type':'number','value':null,'unit':'ohm.m'},'_2':{'name':'Fracture Porosity Cutoff','type':'number','value':null,'unit':'v/v'},'last':2},'outputs':[{'name':'F_MAC','family':'General Flag','unit':'unitless'},{'name':'F_MIC','family':'General Flag','unit':'unitless'},{'name':'PHI_2_MAC','family':'Macro Secondary Porosity','unit':'v/v'},{'name':'PHI_2_MIC','family':'Micro Secondary Porosity','unit':'v/v'},{'name':'PHI_FR_MAC','family':'Macro Fracture Porosity','unit':'v/v'},{'name':'PHI_FR_MIC','family':'Micro Fracture Porosity','unit':'v/v'},{'name':'PHI_2_FIL','family':'Secondary Porosity','unit':'v/v'},{'name':'PHI_FR_FIL','family':'Fracture Porosity','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Residue Water Saturation</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'residual-water-saturation-16x16','function':'calResidueWaterSaturation','inputs':{'_0':{'name':'Macro Flag','unit':'unitless','family':'General Flag'},'_1':{'name':'Micro Flag','unit':'unitless','family':'General Flag'},'last':1},'parameters':{'_0':{'name':'A','type':'number','value':-1.8475},'_1':{'name':'B','type':'number','value':0.1415},'_2':{'name':'C','type':'number','value':1.8862},'_3':{'name':'Swr_cutoff','type':'number','value':0.76,'unit':'v/v'},'last':3},'outputs':[{'name':'SWR','family':'Residual Water Saturation','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Permeability</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'permeability-16x16','function':'calPermeability','inputs':{'_0':{'name':'Compressional Slowness','unit':'us/ft','family':'Compressional Slowness'},'_1':{'name':'Block Sonic','unit':'us/ft','family':'Compressional Slowness'},'_2':{'name':'Secondary Porosity','unit':'v/v','family':'Secondary Porosity'},'_3':{'name':'Residual Water Saturation','unit':'v/v','family':'Residual Water Saturation','allowNull':true},'last':3},'parameters':{'_0':{'name':'Residual Water Saturation','type':'number','value':0.85,'unit':'v/v'},'_1':{'name':'a','type':'number','value':264},'_2':{'name':'b','type':'number','value':0.689},'last':2},'outputs':[{'name':'PERM','family':'Permeability','unit':'mD'}]}</t>
-  </si>
-  <si>
     <t>Cutoff and Summation</t>
   </si>
   <si>
-    <t>{'other':{'summation':true},'icon':'cutoff-and-summation-16x16','function':'calBasementSummation','inputs':{'_0':{'name':'Secondary Porosity','unit':'v/v','family':'Secondary Porosity'},'_1':{'name':'Fracture Porosity','unit':'v/v','family':'Fracture Porosity'},'_2':{'name':'Macro Flag','unit':'unitless','family':'General Flag'},'_3':{'name':'Micro Flag','unit':'unitless','family':'General Flag'},'_4':{'name':'Permeability','unit':'mD','family':'Permeability'},'_5':{'name':'Residual Water Saturation','unit':'v/v','family':'Residual Water Saturation'},'last':5},'options':{'_0':{'name':'TVD'},'_1':{'name':'TVDSS'},'last':1},'parameters':{'_0':{'name':'Secondary Porosity Cutoff','type':'number','value':0.003,'unit':'v/v'},'_1':{'name':'Fracture Porosity Cutoff','type':'number','value':0.0005,'unit':'v/v'},'_2':{'name':'Perm Cutoff','type':'number','value':0,'unit':'mD'},'last':2},'outputs':[{'name':'F_PAY','family':'General Flag','unit':'unitless'},{'name':'FINDEX','family':'Flow Index','unit':'unitless'}]}</t>
-  </si>
-  <si>
     <t>Mechanical stratigraphy flag from GR</t>
   </si>
   <si>
     <t>Geomechanic</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'mechanical-stratigraphy-flag-form-gr-16x16','function':'calMechanicalStratigralyFlagFormGR','inputs':{'_0':{'name':'Gamma Ray','unit':'gAPI','family':'Gamma Ray'},'last':0},'parameters':{'_0':{'name':'Threshold','type':'number','value':75,'unit':'gAPI'},'last':0},'outputs':[{'name':'SHALE_FLAG','family':'Mechanical Stratigraphy Flag','unit':'unitless'}]}</t>
-  </si>
-  <si>
     <t>Dynamic Properties</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calDynamicProperties','inputs':{'_0':{'name':'Bulk Density','unit':'gAPI','family':'Bulk Density'},'_1':{'name':'Compressional Slowness','unit':'us/ft','family':'Compressional Slowness'},'_2':{'name':'Shear Slowness','unit':'us/ft','family':'Shear Slowness'},'last':2},'parameters':{},'outputs':[{'name':'VELC','family':'Compressional Velocity','unit':'ft/s'},{'name':'VELS','family':'Shear Velocity','unit':'ft/s'},{'name':'PR_DYN','family':'Poisson Ratio (Dynamic)','unit':'unitless'},{'name':'YM_DYN','family':'Young's Modulus (Dynamic)','unit':'Mpsi'}]}</t>
-  </si>
-  <si>
     <t>Bradford et al. (1998) for Sand</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'static-young-modulus-16x16','function':'calMethodBradfordEtAlForSand','inputs':{'_0':{'name':'Young's Modulus (Dynamic)','unit':'Mpsi','family':'Young's Modulus (Dynamic)'},'_1':{'name':'Mechanical Stratigraphy Flag','unit':'unitless','family':'Mechanical Stratigraphy Flag','allowNull':true},'last':1},'parameters':{'_0':{'name':'Apply for flag =','type':'select','choices':[0,1,null,'Any'],'value':0},'last':0},'outputs':[{'name':'YM_STA_BRAD','family':'Young's Modulus (Static)','unit':'Mpsi'}]}</t>
-  </si>
-  <si>
     <t>Horsrud (2001) for Shale</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'static-young-modulus-16x16','function':'calHorsrudForSale','inputs':{'_0':{'name':'Compressional slowness','unit':'us/ft','family':'Compressional slowness'},'_1':{'name':'Mechanical Stratigraphy Flag','unit':'unitless','family':'Mechanical Stratigraphy Flag','allowNull':true},'last':1},'parameters':{'_0':{'name':'Apply for flag =','type':'select','choices':[0,1,null,'Any'],'value':0},'last':0},'outputs':[{'name':'YM_STA_HORS','family':'Young's Modulus (Static)','unit':'Mpsi'}]}</t>
-  </si>
-  <si>
     <t>Lacy (1997)</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'static-young-modulus-16x16','function':'calLacy','inputs':{'_0':{'name':'Young's Modulus (Dynamic)','family':'Young's Modulus (Dynamic)','unit':'Mpsi'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless'},'last':1},'parameters':{'_0':{'name':'Sand with flag ','type':'select','choices':[0,1],'value':0},'_1':{'name':'Shale with flag ','type':'select','choices':[0,1],'value':0},'last':1},'outputs':[{'name':'YM_STA_LACY','family':'Young's Modulus (Static)','unit':'Mpsi'}]}</t>
-  </si>
-  <si>
     <t>SYM Combiner</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'','function':'','inputs':{'_0':{'name':'Young's Modulus (Static)','family':'Young's Modulus (Static)','unit':'Mpsi'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless'},'last':1},'parameters':{'_0':{'name':'','type':'select','choices':[0,1],'value':0},'_1':{'name':'','type':'select','choices':[0,1],'value':0},'_2':{'name':'','type':'select','choices':[0,1],'value':0},'_3':{'name':'','type':'select','choices':[0,1],'value':0},'last':3},'outputs':[{'name':'','family':'','unit':''}]}</t>
-  </si>
-  <si>
     <t>Static Poisson's Ratio</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'static-poisson-ratio-16x16','function':'calDynamicPoissonRatio','inputs':{'_0':{'name':'Poisson Ratio (Dynamic)','family':'Poisson Ratio (Dynamic)','unit':'unitless'},'last':0},'parameters':{'_0':{'name':'PR multiplier','type':'number','value':1,'unit':'unitless'},'last':0},'outputs':[{'name':'PR_STA','family':'Poisson Ratio (Static)','unit':'unitless'}]}</t>
-  </si>
-  <si>
     <t>Static Bulk and Shear Modulus</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'static-bulk-and-shear-modulus-16x16','function':'calStaticBulkShearModulus','inputs':{'_0':{'name':'Young's Modulus (Static)','family':'Young's Modulus (Static)','unit':'Mpsi'},'_1':{'name':'Poisson Ratio (Static)','family':'Poisson Ratio (Static)','unit':'unitless'},'last':1},'parameters':{},'outputs':[{'name':'SM_STA','family':'Shear Modulus (Static)','unit':'Mpsi'},{'name':'BM_STA','family':'Bulk Modulus (Static)','unit':'Mpsi'}]}</t>
-  </si>
-  <si>
     <t>Mepro Alpha Model</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calMeproAlphaModel','inputs':{'_0':{'name':'Bulk Modulus (Static)','family':'Bulk Modulus (Static)','unit':'Mpsi'},'_1':{'name':'Grain Bulk Modulus','family':'Grain Bulk Modulus','unit':'Mpsi','allowNull':true},'_2':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':2},'parameters':{'_0':{'name':'Grain Bulk Modulus','type':'number','value':5.37,'unit':'Mpsi'},'_1':{'name':'Apply for flag =','type':'select','choices':[0,1,null,'Any'],'value':0},'last':1},'outputs':[{'name':'ALPHA','family':'Biot Coefficient','unit':'unitless'}]}</t>
-  </si>
-  <si>
     <t>Alpha combiner</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calAlphaCombinerWFlagOrZone','inputs':{'_0':{'name':'Biot Coefficient','family':'Biot Coefficient','unit':'unitless'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Alpha when Flag = 1','type':'','value':0},'_1':{'name':'','type':'','value':0},'_2':{'name':'','type':'','value':0},'_3':{'name':'','type':'','value':0},'last':3},'outputs':[{'name':'','family':'','unit':''}]}</t>
-  </si>
-  <si>
     <t>Asadi et al. (2016) for Sand</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calAsadiEtAlForSand','inputs':{'_0':{'name':'Neutron Porosity','family':'Neutron Porosity','unit':'v/v'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Sand with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_ASADI','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calBradFordEtAlForSand','inputs':{'_0':{'name':'Young's Modulus (Static)','family':'Young's Modulus (Static)','unit':'psi'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Sand with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_Brad','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Chang et al. (2006) #3 for Sand</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calChangEtAl3ForSand','inputs':{'_0':{'name':'Compressional slowness','family':'Compressional slowness','unit':'us/ft'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Sand with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_Chang3','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Chang et al. (2006) #6 for Sand</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calChangEtAl6ForSand','inputs':{'_0':{'name':'Bulk Density','family':'Bulk Density','unit':'g/cc'},'_1':{'name':'Compressional velocity','family':'Compressional velocity','unit':'ft/s'},'_2':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':2},'parameters':{'_0':{'name':'Sand with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_Chang6','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Chang et al. (2006) #7 for Sand</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calChangEtAl7ForSand','inputs':{'_0':{'name':'Bulk Density','family':'Bulk Density','unit':'g/cc'},'_1':{'name':'Compressional velocity','family':'Compressional velocity','unit':'ft/s'},'_2':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':2},'parameters':{'_0':{'name':'Sand with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_Chang7','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Chang et al. (2006) #8 for Sand</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calChangEtAl8ForSand','inputs':{'_0':{'name':'Young's Modulus (Static)','family':'Young's Modulus (Static)','unit':'Mpsi'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Sand with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_Chang8','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Chang et al. (2006) #11 for Sand</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calChangEtAl11ForSand','inputs':{'_0':{'name':'Neutron porosity','family':'Neutron porosity','unit':'v/v'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Sand with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_Chang11','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Freyburg (1972) for Sand</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calFreyburgForSand','inputs':{'_0':{'name':'Compressional Velocity','family':'Compressional Velocity','unit':'ft/s'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Sand with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_FREY','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Lacy (1997) for Sand</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calLacyForSand','inputs':{'_0':{'name':'Young's Modulus (Static)','family':'Young's Modulus (Static)','unit':'Mpsi'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Sand with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_LACY','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>McNally (1987) for Sand</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calMcNallyForSandInputs','inputs':{'_0':{'name':'Compressional slowness','family':'Compressional slowness','unit':'us/ft'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Sand with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_MC','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Moos et al. (1999) for Sand</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calMoosEtAlForSand','inputs':{'_0':{'name':'Bulk Density','family':'Bulk Density','unit':'g/cc'},'_1':{'name':'Compressional velocity','family':'Compressional velocity','unit':'ft/s'},'_2':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':2},'parameters':{'_0':{'name':'Sand with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_MOOS','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Plumb (1994) for Sand</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calPlumbForSand','inputs':{'_0':{'name':'Young's Modulus (Static)','family':'Young's Modulus (Static)','unit':'Mpsi'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Sand with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_PLUMB','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Vernik et al. (1993) for Sand</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calVernikEtAlForSand','inputs':{'_0':{'name':'Neutron porosity','family':'Neutron porosity','unit':'v/v'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Sand with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_VER','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Chang et al. (2006) #13 for Shale</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calChangEtAl13ForShale','inputs':{'_0':{'name':'Compressional slowness','family':'Compressional slowness','unit':'us/ft'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_CHANG13','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Chang et al. (2006) #14 for Shale</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calChangEtAl14ForShale','inputs':{'_0':{'name':'Compressional slowness','family':'Compressional slowness','unit':'us/ft'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_CHANG14','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Chang et al. (2006) #15 for Shale</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calChangEtAl15ForShale','inputs':{'_0':{'name':'Compressional slowness','family':'Compressional slowness','unit':'us/ft'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_CHANG15','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Chang et al. (2006) #18 for Shale</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calChangEtAl18ForShale','inputs':{'_0':{'name':'Young's Modulus (Static)','family':'Young's Modulus (Static)','unit':'Mpsi'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_CHANG18','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Chang et al. (2006) #21 for Shale</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calChangEtAl21ForShale','inputs':{'_0':{'name':'Neutron porosity','family':'Neutron porosity','unit':'v/v'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_CHANG21','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Horsrud (2001) DT for Shale</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calHorsrudDTForShale','inputs':{'_0':{'name':'Compressional slowness','family':'Compressional slowness','unit':'us/ft'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_HOR_DT','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Horsrud (2001) Es for Shale</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calHorsrudEsForShale','inputs':{'_0':{'name':'Young's Modulus (Static)','family':'Young's Modulus (Static)','unit':'Mpsi'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_HOR_ES','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Horsrud (2001) PHI for Shale</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calHorsrudPhiForShale','inputs':{'_0':{'name':'Neutron porosity','family':'Neutron porosity','unit':'v/v'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_HOR_PHI','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Khaksar et al. (2009) for Shale</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calKhaksarEtAlForShale','inputs':{'_0':{'name':'Bulk Density','family':'Bulk Density','unit':'g/cc'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_KHA','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Lal (1999) for Shale</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calLalForShaleUCS','inputs':{'_0':{'name':'Compressional slowness','family':'Compressional slowness','unit':'us/ft'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_LAL','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Lashkaripour and Dusseault (1993) for Shale</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calLashkaripourDusseaultForShale','inputs':{'_0':{'name':'Neutron porosity','family':'Neutron porosity','unit':'v/v'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'UCS_LASH','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t xml:space="preserve">UCS combiner </t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calUCSCombinerWFlagOrZone','inputs':{'_0':{'name':'Unconfined Compressive Strength','family':'Unconfined Compressive Strength','unit':'psi'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'','type':'','value':0},'last':0},'outputs':[{'name':'USC_COM','family':'Unconfined Compressive Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calLalForShaleIFA','inputs':{'_0':{'name':'Compressional Velocity','family':'Compressional Velocity','unit':'ft/s'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'IFA_LAL','family':'Internal Friction Angle','unit':'deg'}]}</t>
-  </si>
-  <si>
     <t>Weingarten and Perkins (1995) for Sand</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calWeingartenPerkinsForSand','inputs':{'_0':{'name':'Neutron porosity','family':'Neutron porosity','unit':'v/v'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'IFA_WEI','family':'Internal Friction Angle','unit':'deg'}]}</t>
-  </si>
-  <si>
     <t>IFA combiner</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calIFACombinerWFlagOrZone','inputs':{'_0':{'name':'Internal Friction Angle','family':'Internal Friction Angle','unit':'deg'},'_1':{'name':'Mechanical Stratigraphy Flag','family':'Mechanical Stratigraphy Flag','unit':'unitless','allowNull':true},'last':1},'parameters':{'_0':{'name':'Shale with flag =','type':'select','choices':[0,1],'value':0},'last':0},'outputs':[{'name':'IFA_COM','family':'Internal Friction Angle','unit':'deg'}]}</t>
-  </si>
-  <si>
     <t>Cohesion from UCS and IFA</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'cohension-from-ucs-ifa-16x16','function':'calCohesionFromUCSAndIFA','inputs':{'_0':{'name':'Internal Friction Angle','family':'Internal Friction Angle','unit':'deg'},'_1':{'name':'Unconfined Compressive Strength','family':'Unconfined Compressive Strengpsith','unit':'psi'},'last':1},'parameters':{},'outputs':[{'name':'COHESION','family':'Cohesion Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Tensile Strength from UCS</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'tensile-strength-from-ucs-16x16','function':'calTensileStrengthFromUCS','inputs':{'_0':{'name':'Unconfined Compressive Strength','family':'Unconfined Compressive Strength','unit':'psi'},'last':0},'parameters':{'_0':{'name':'UCS multiplier','type':'number','unit':'unitless','value':0.1},'last':0},'outputs':[{'name':'TSTR','family':'Tensile Strength','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Gardner</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calGardner','inputs':{'_0':{'name':'Compressional Velocity','family':'Compressional Velocity','unit':'ft/s'},'last':0},'parameters':{'_0':{'name':'a','type':'number','unit':'unitless','value':0.23},'_1':{'name':'b','type':'number','unit':'unitless','value':0.25},'last':1},'outputs':[{'name':'DEN_GARD','family':'Bulk Density','unit':'g/cc'}]}</t>
-  </si>
-  <si>
     <t>Bellotti for Consolidated Soil</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calBellottiConsolidated','inputs':{'_0':{'name':'Compressional Velocity','family':'Compressional Velocity','unit':'ft/s'},'last':0},'parameters':{},'outputs':[{'name':'DEN_BEL_CONSOLID','family':'Bulk Density','unit':'g/cc'}]}</t>
-  </si>
-  <si>
     <t>Bellotti for Unconsolidated Soil</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calBellottiUnconsolidated','inputs':{'_0':{'name':'Compressional Slowness','family':'Compressional Slowness','unit':'us/ft'},'last':0},'parameters':{},'outputs':[{'name':'DEN_BEL_UNCOSOLID','family':'Bulk Density','unit':'g/cc'}]}</t>
-  </si>
-  <si>
     <t>Lindseth</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calLindseth','inputs':{'_0':{'name':'Compressional Velocity','family':'Compressional Velocity','unit':'ft/s'},'last':0},'parameters':{},'outputs':[{'name':'DEN_LIND','family':'Bulk Density','unit':'g/cc'}]}</t>
-  </si>
-  <si>
     <t>Linear</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calLinear','inputs':{'_0':{'name':'True vertical depth','family':'True vertical depth','unit':'m'},'last':0},'parameters':{'_0':{'name':'KB height','type':'number','unit':'m','value':0},'_1':{'name':'Water depth','type':'number','unit':'m','value':0},'_2':{'name':'Top RHOB','type':'number','unit':'g/cc','value':1.88},'_3':{'name':'Bottom depth','type':'number','unit':'m','value':4000},'_4':{'name':'Bottom RHOB','type':'number','unit':'g/cc','value':2.55},'last':4},'outputs':[{'name':'DEN_LINEAR','family':'Bulk Density','unit':'g/cc'}]}</t>
-  </si>
-  <si>
     <t>Power Law</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calPowerLaw','inputs':{'_0':{'name':'True vertical depth','family':'True vertical depth','unit':'m'},'last':0},'parameters':{'_0':{'name':'KB height','type':'number','unit':'m','value':0},'_1':{'name':'Water depth','type':'number','unit':'m','value':0},'_2':{'name':'Top RHOB','type':'number','unit':'g/cc','value':1.88},'_3':{'name':'Bottom depth','type':'number','unit':'m','value':4000},'_4':{'name':'Bottom RHOB','type':'number','unit':'g/cc','value':2.55},'last':4},'outputs':[{'name':'DEN_POWER','family':'Bulk Density','unit':'g/cc'}]}</t>
-  </si>
-  <si>
     <t>Hubbert and Willis</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calHubbertWillis','inputs':{'_0':{'name':'Vertical Stress','family':'Vertical Stress','unit':'psi'},'_1':{'name':'Pore Pressure','family':'Pore Pressure','unit':'psi'},'last':1},'parameters':{},'outputs':[{'name':'SHMIN_HUB','family':'Minimum Horizontal Stress','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Eaton</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calEaton','inputs':{'_0':{'name':'Vertical Stress','family':'Vertical Stress','unit':'psi'},'_1':{'name':'Pore Pressure','family':'Pore Pressure','unit':'psi'},'_2':{'name':'Poisson Ratio (Static)','family':'Poisson Ratio (Static)','unit':'unitless'},'last':2},'parameters':{},'outputs':[{'name':'SHMIN_EATON','family':'Minimum Horizontal Stress','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>ESR and Terzaghi Effective Stress</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calMinESRTerzaghiEffectiveStress','inputs':{'_0':{'name':'Vertical Stress','family':'Vertical Stress','unit':'psi'},'_1':{'name':'Pore Pressure','family':'Pore Pressure','unit':'psi'},'_2':{'name':'Minimum Horizontal Effective Stress Ratio','family':'Minimum Horizontal Effective Stress Ratio','unit':'unitless','allowNull':true},'last':2},'parameters':{'_0':{'name':'Minimum Horizontal Effective Stress Ratio','type':'number','unit':'unitless','value':0.7},'last':0},'outputs':[{'name':'SHMIN_TER','family':'Minimum Horizontal Stress','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>ESR and Biot Coefficient</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calMinESRBiotCoefficient','inputs':{'_0':{'name':'Vertical Stress','family':'Vertical Stress','unit':'psi'},'_1':{'name':'Pore Pressure','family':'Pore Pressure','unit':'psi'},'_2':{'name':'Biot Coefficient','family':'Biot Coefficient','unit':'unitless'},'_3':{'name':'Minimum Horizontal Effective Stress Ratio','family':'Minimum Horizontal Effective Stress Ratio','unit':'unitless','allowNull':true},'last':3},'parameters':{'_0':{'name':'Minimum Horizontal Effective Stress Ratio','type':'number','unit':'unitless','value':0.7},'last':0},'outputs':[{'name':'SHMIN_BIOT','family':'Minimum Horizontal Stress','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Poro-Elastic Uniaxial Strain Model</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calPoroElasticUniaxialStrainModel','inputs':{'_0':{'name':'Vertical Stress','family':'Vertical Stress','unit':'psi'},'_1':{'name':'Pore Pressure','family':'Pore Pressure','unit':'psi'},'_2':{'name':'Biot Coefficient','family':'Biot Coefficient','unit':'unitless'},'_3':{'name':'Poisson Ratio (Static)','family':'Poisson Ratio (Static)','unit':'unitless'},'last':3},'parameters':{},'outputs':[{'name':'SHMIN_UNIAXIAL','family':'Minimum Horizontal Stress','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Function of Shmin</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calFunctionOfShmin','inputs':{'_0':{'name':'Minimum Horizontal Stress','family':'Minimum Horizontal Stress','unit':'psi'},'last':0},'parameters':{'_0':{'name':'Multiplier','type':'number','unit':'unitless','value':1},'last':0},'outputs':[{'name':'SHMAX_SHMIN','family':'Maximum Horizontal Stress','unit':'psi'}]}</t>
-  </si>
-  <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calFunctionOfShmin','inputs':{'_0':{'name':'Vertical Stress','family':'Vertical Stress','unit':'psi'},'_1':{'name':'Pore Pressure','family':'Pore Pressure','unit':'psi'},'_2':{'name':'Maximum Horizontal Effective Stress Ratio','family':'Maximum Horizontal Effective Stress Ratio','unit':'unitless','allowNull':true},'last':2},'parameters':{'_0':{'name':'Maximum Horizontal Effective Stress Ratio','type':'number','unit':'unitless','value':0.8},'last':0},'outputs':[{'name':'SHMAX_TER','family':'Maximum Horizontal Stress','unit':'psi'}]}</t>
-  </si>
-  <si>
     <t>Stress Correction</t>
   </si>
   <si>
     <t>Pc Modeling</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calStressCorrection','inputs':{'_0':{'name':'Sw_lab','family':'Core Water Saturation (Array)','unit':'v/v'},'_1':{'name':'Pc_lab','family':'Capillary Pressure Laboratory (Array)','unit':'bar'},'last':1},'parameters':{'_0':{'name':'PhiRes/PhiLab','type':'number','value':0.95},'last':0},'outputs':[{'name':'PC_STRESS_CORR','family':'Capillary Pressure Laboratory (Array)','unit':'bar'},{'name':'SW_STRESS_CORR','family':'Core Water Saturation (Array)','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Clay Bound Correction</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calClayBoundCorrection','inputs':{'_0':{'name':'Sw_lab','family':'Core Water Saturation (Array)','unit':'v/v'},'_1':{'name':'Pc_lab','family':'Capillary Pressure Laboratory (Array)','unit':'bar'},'_2':{'name':'Qv','family':'Normalized Qv','unit':'1/L'},'last':2},'parameters':{'_0':{'name':'Salinity','type':'number','unit':'ppm','value':35},'last':0},'outputs':[{'name':'PC_CB_CORR','family':'Capillary Pressure Laboratory (Array)','unit':'bar'},{'name':'SW_CB_CORR','family':'Core Water Saturation (Array)','unit':'v/v'}]}</t>
-  </si>
-  <si>
     <t>Pore Size Distribution</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calPoreSizeDistribution','inputs':{'_0':{'name':'Pc_lab','family':'Capillary Pressure Laboratory (Array)','unit':'bar'},'last':0},'parameters':{'_0':{'name':'Sigma_Lab*CosTheta_Lab (Lab)','type':'select','choices':['Pre-defined','Custom value'],'value':'Pre-defined'},'_1':{'name':'Pre-defined Lab','type':'select','choices':['Air - Brine','Air - Mercury','Air - Oil','Oil - Brine'],'value':'Air - Brine'},'_2':{'name':'Custom Lab','type':'number','value':1},'last':2},'outputs':[{'name':'PORE_THROAT_RADIUS','family':'Pore Throat Radius Distribution (Array)','unit':'um'}]}</t>
-  </si>
-  <si>
     <t>Transformation Data</t>
   </si>
   <si>
-    <t>{'other':{},'icon':'toolbox-16x16','function':'calTransformationDataPcModeling','inputs':{'_0':{'name':'Pc_lab','family':'Capillary Pressure Laboratory (Array)','unit':'bar'},'last':0},'parameters':{'_0':{'name':'Sigma_Res*CosTheta_Res (Res)','type':'select','choices':['Pre-defined','Custom value'],'value':'Pre-defined'},'_1':{'name':'Pre-defined Res','type':'select','choices':['Brine - Oil','Brine - Gas'],'value':'Brine - Oil'},'_2':{'name':'Custom Res','type':'number','value':1},'_3':{'name':'Sigma_Lab*CosTheta_Lab (Lab)','type':'select','choices':['Pre-defined','Custom value'],'value':'Pre-defined'},'_4':{'name':'Pre-defined Lab','type':'select','choices':['Air - Brine','Air - Mercury','Air - Oil','Oil - Brine'],'value':'Air - Brine'},'_5':{'name':'Custom Lab','type':'number','value':1},'last':5},'outputs':[{'name':'PC_RES','family':'Capillary Pressure Reservoir (Array)','unit':'bar'}]}</t>
-  </si>
-  <si>
     <t>Saturation Height Function</t>
   </si>
   <si>
     <t>{"other":{},"icon":"toolbox-16x16","function":"calSaturationHeightFunction","inputs":{"_0":{"name":"True Vertical Depth Sub Sea","family":"True Vertical Depth Sub Sea","unit":"m"},"_1":{"name":"Porosity","family":"Porosity","unit":"v/v"},"_2":{"name":"Permeability","family":"Permeability","unit":"mD"},"_3":{"name":"Saturation","family":"Saturation","unit":"v/v","allowNull":true},"last":3},"parameters":{"_0":{"name":"FWL(TVDSS)","type":"number"},"_1":{"name":"Hydro Carbon density","type":"number","value":0.7},"_2":{"name":"Water density","type":"number","value":1},"_3":{"name":"Sigma*CosTheta","type":"number","value":1},"_4":{"name":"Function","type":"select","choices":["J Lambda","J Hyperbola","J Exponential","J Modified Lambda","J Modified Hyperbola","J Modified Exponential","Corey - Brooks"],"value":"J Lambda"},"_5":{"name":"m","type":"number"},"_6":{"name":"a","type":"number"},"_7":{"name":"lambda","type":"number"},"_8":{"name":"b","type":"number"},"last":8},"outputs":[{"name":"SW","family":"Saturation","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"clay-volume-16x16","function":"calVSHfromGR","inputs":{"_0":{"name":"Gamma Ray","unit":"gAPI","family":"Gamma Ray"},"last":0},"parameters":{"_0":{"name":"GR clean","type":"number","value":10,"unit":"gAPI","color":"red"},"_1":{"name":"GR shale","type":"number","value":120,"unit":"gAPI","color":"green"},"_2":{"name":"Method","type":"select","value":"Linear","choices":["Linear","Clavier","Larionov Tertiary rocks","Larionov older rocks","Stieber variation I","Stieber - Miocene and Pliocene","Stieber variation II"]},"last":2},"outputs":[{"name":"VSH_GR","family":"Shale Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{"overlay_line":"Schlumberger Den/Neut Corr. Rhof 1.0","scaleLeft":-0.15,"scaleRight":0.45,"scaleBottom":3,"scaleTop":2},"icon":"clay-volume-16x16","function":"calVSHfromND","inputs":{"_0":{"name":"Neutron Porosity","unit":"v/v","family":"Neutron Porosity"},"_1":{"name":"Bulk Density","unit":"g/cm3","family":"Bulk Density"},"last":1},"parameters":{"_0":{"name":"NPHI_clean_2","type":"number","value":0.25,"unit":"v/v"},"_1":{"name":"NPHI_shale","type":"number","value":0.4,"unit":"v/v","color":"green"},"_2":{"name":"NPHI_clean_1","type":"number","value":-0.01,"unit":"v/v"},"_3":{"name":"RHOB_clean_2","type":"number","value":2.2,"unit":"g/cm3"},"_4":{"name":"RHOB_shale","type":"number","value":2.4,"unit":"g/cm3","color":"red"},"_5":{"name":"RHOB_clean_1","type":"number","value":2.65,"unit":"g/cm3"},"last":5},"outputs":[{"name":"VSH_ND","family":"Shale Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{"overlay_line":"Schlumberger Neut/Sonic Wylie Dtf 189","scaleLeft":-0.15,"scaleRight":0.45,"scaleBottom":40,"scaleTop":140},"icon":"clay-volume-16x16","function":"calVSHfromNS","inputs":{"_0":{"name":"Neutron Porosity","unit":"v/v","family":"Neutron Porosity"},"_1":{"name":"Compressional Slowness","unit":"us/ft","family":"Compressional Slowness"},"last":1},"parameters":{"_0":{"name":"NPHI_clean_2","type":"number","value":0.25,"unit":"v/v"},"_1":{"name":"NPHI_shale","type":"number","value":0.4,"unit":"v/v","color":"green"},"_2":{"name":"NPHI_clean_1","type":"number","unit":"v/v","value":-0.01},"_3":{"name":"DT_clean_2","type":"number","value":90,"unit":"g/cm3"},"_4":{"name":"DT_shale","type":"number","value":100,"unit":"g/cm3","color":"#F0F"},"_5":{"name":"DT_clean_1","type":"number","value":55,"unit":"g/cm3"},"last":5},"outputs":[{"name":"VSH_NS","family":"Shale Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{"overlay_line":"Den/Sonic Wylie Rhof 1.0","scaleLeft":40,"scaleRight":140,"scaleBottom":3,"scaleTop":2},"icon":"clay-volume-16x16","function":"calVSHfromDS","inputs":{"_0":{"name":"Compressional Slowness","unit":"us/ft","family":"Compressional Slowness"},"_1":{"name":"Bulk Density","unit":"g/cm3","family":"Bulk Density"},"last":1},"parameters":{"_0":{"name":"DT_clean_2","type":"number","value":90,"unit":"us/ft"},"_1":{"name":"DT_shale","type":"number","value":100,"unit":"us/ft","color":"#F0F"},"_2":{"name":"DT_clean_1","type":"number","value":50,"unit":"us/ft"},"_3":{"name":"RHOB_clean_2","type":"number","value":2.2,"unit":"g/cm3"},"_4":{"name":"RHOB_shale","type":"number","value":2.4,"unit":"g/cm3","color":"red"},"_5":{"name":"RHOB_clean_1","type":"number","value":2.65,"unit":"g/cm3"},"last":5},"outputs":[{"name":"VSH_SD","family":"Shale Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"clay-volume-16x16","function":"calVSHfromR","inputs":{"_0":{"name":"Resistivity","unit":"ohm.m","family":"Resistivity"},"last":0},"parameters":{"_0":{"name":"Resistivity_clean","type":"number","value":10,"unit":"ohm.m","color":"red"},"_1":{"name":"Resistivity_shale","type":"number","value":120,"unit":"ohm.m","color":"green"},"_2":{"name":"B exponent","type":"number","value":1},"_3":{"name":"Equation","type":"select","value":"Resistivity Log","choices":["Resistivity Log","Gaymard"]},"last":3},"outputs":[{"name":"VSH_RES","family":"Shale Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"clay-volume-16x16","function":"calVSHfromSP","inputs":{"_0":{"name":"Spontaneous Potential","unit":"mV","family":"Spontaneous Potential"},"last":0},"parameters":{"_0":{"name":"SP_clean","type":"number","value":0,"unit":"mV","color":"red"},"_1":{"name":"SP_shale","type":"number","value":100,"unit":"mV","color":"green"},"last":1},"outputs":[{"name":"VSH_SP","family":"Shale Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"clay-volume-16x16","function":"calVSHfromNEU","inputs":{"_0":{"name":"Thermal Neutron","unit":"v/v","family":"Thermal Neutron Porosity"},"last":0},"parameters":{"_0":{"name":"Neutron_clean","type":"number","value":0.1,"unit":"v/v","color":"red"},"_1":{"name":"Neutron_shale","type":"number","value":0.3,"unit":"v/v","color":"green"},"last":1},"outputs":[{"name":"VSH_NEU","family":"Shale Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"clay-volume-16x16","function":"calVSHfromPOTA","inputs":{"_0":{"name":"Potassium","unit":"%","family":"Potassium Concentration"},"last":0},"parameters":{"_0":{"name":"POTA matrix","type":"number","value":10,"unit":"%","color":"red"},"_1":{"name":"POTA shale","type":"number","value":100,"unit":"%","color":"green"},"_2":{"name":"POTA method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]},"last":2},"outputs":[{"name":"VSH_POTA","family":"Shale Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"clay-volume-16x16","function":"calVSHfromThori","inputs":{"_0":{"name":"Thorium","unit":"ppm","family":"Thorium Concentration"},"last":0},"parameters":{"_0":{"name":"Thorium matrix","type":"number","value":10,"unit":"ppm","color":"red"},"_1":{"name":"Thorium shale","type":"number","value":100,"unit":"ppm","color":"green"},"_2":{"name":"TH method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]},"last":2},"outputs":[{"name":"VSH_Thori","family":"Shale Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{"multiple":true,"use_inputs":"multiple","inputTemplate":{"name":"Shale Volume","unit":"v/v","family":"Shale Volume"}},"icon":"final-clay-volume-16x16","function":"calVSHFinal","options":{"_0":{"name":"Bad Hole","family":"Bad Hole Flag","unit":"unitless"},"last":0},"inputs":{"_0":{"name":"Shale Volume 1","unit":"v/v","family":"Shale Volume"},"_1":{"name":"Shale Volume 2","unit":"v/v","family":"Shale Volume"},"last":1},"parameters":{"_0":{"name":"Merge Method","type":"select","value":"Minimum","choices":["Minimum","Average","Arithmetic mean","Geometric mean","Harmonic mean","Median","Maximum","Sum"]},"last":0},"outputs":[{"name":"VSH_Final","family":"Shale Volume","unit":"v/v"},{"name":"VSH_MIN","family":"Shale Volume","unit":"v/v"},{"name":"VSH_AVG","family":"Shale Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"calculate-open-porosity-16x16","function":"calPorosityFromDensity","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3"},"_1":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"last":1},"parameters":{"_0":{"name":"Density Matrix","type":"number","value":2.65,"unit":"g/cm3","color":"red"},"_1":{"name":"Density Fluid","type":"number","value":1,"unit":"g/cm3"},"_2":{"name":"Density Shale","type":"number","value":2.4,"unit":"d/cm3","color":"green"},"last":2},"outputs":[{"name":"PHIT_D","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_D","family":"Effective Porosity","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"calculate-open-porosity-16x16","function":"calPorosityFromNeutron","inputs":{"_0":{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},"_1":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"last":1},"parameters":{"_0":{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},"_1":{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},"_2":{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"},"last":2},"outputs":[{"name":"PHIT_N","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_N","family":"Effective Porosity","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"calculate-open-porosity-16x16","function":"calPorosityFromSonic","inputs":{"_0":{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"us/ft"},"_1":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"last":1},"parameters":{"_0":{"name":"Sonic Matrix","type":"number","value":55,"unit":"us/ft","color":"#F0F"},"_1":{"name":"Sonic Fluid","type":"number","value":189,"unit":"us/ft"},"_2":{"name":"Sonic Shale","type":"number","value":110,"unit":"us/ft","color":"green"},"_3":{"name":"Sonic Method","type":"select","value":"Wyliie","choices":["Wyliie","Raymer-Hunt-Gardner"]},"_4":{"name":"Cp","type":"number","value":1},"last":4},"outputs":[{"name":"PHIT_S","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_S","family":"Effective Porosity","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"calculate-open-porosity-16x16","function":"calPorosityFromNeutronSonic","inputs":{"_0":{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"us/ft"},"_1":{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},"_2":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"last":2},"parameters":{"_0":{"name":"Sonic Matrix","type":"number","value":55,"unit":"us/ft","color":"#F0F"},"_1":{"name":"Sonic Fluid","type":"number","value":189,"unit":"us/ft"},"_2":{"name":"Sonic Shale","type":"number","value":110,"unit":"us/ft","color":"green"},"_3":{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},"_4":{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},"_5":{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"},"_6":{"name":"Sonic Method","type":"select","value":"Wyliie","choices":["Wyliie","Raymer-Hunt-Gardner"]},"_7":{"name":"Cp","type":"number","value":1},"last":7},"outputs":[{"name":"PHIT_NS","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_NS","family":"Effective Porosity","unit":"v/v"},{"name":"DTMAA","family":"Apparent Matrix Compressional Slowness","unit":"us/ft"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"calculate-open-porosity-16x16","function":"calPorosityFromDensityNeutron","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3"},"_1":{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},"_2":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"last":2},"parameters":{"_0":{"name":"Density Matrix","type":"number","value":2.65,"unit":"g/cm3","color":"red"},"_1":{"name":"Density Fluid","type":"number","value":1,"unit":"g/cm3"},"_2":{"name":"Density Shale","type":"number","value":2.4,"unit":"g/cm3","color":"green"},"_3":{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},"_4":{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},"_5":{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"},"last":5},"outputs":[{"name":"PHIT_ND","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_ND","family":"Effective Porosity","unit":"v/v"},{"name":"RHOMAA","family":"Apparent Matrix Density","unit":"g/cm3"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{"multiple":true,"inputTemplate":{"name":"Total Porosity","unit":"v/v","family":"Total Porosity"},"use_inputs":"single"},"icon":"final-total-porosity-16x16","function":"calPorosityFinal","options":{"_0":{"name":"Bad Hole","family":"Bad Hole Flag","unit":"unitless"},"last":0},"inputs":{"_0":{"name":"Total Porosity 1","unit":"v/v","family":"Total Porosity"},"_1":{"name":"Total Porosity 2","unit":"v/v","family":"Total Porosity"},"last":1},"parameters":{"last":-1},"outputs":[{"name":"PHIT_Final","family":"Total Porosity","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{"multiple":true,"inputTemplate":{"name":"Effective Porosity","unit":"v/v","family":"Effective Porosity"},"use_inputs":"single"},"icon":"final-effective-porosity-16x16","function":"calPorosityFinal","options":{"_0":{"name":"Bad Hole","family":"Bad Hole Flag","unit":"unitless"},"last":0},"inputs":{"_0":{"name":"Effective Porosity 1","unit":"v/v","family":"Effective Porosity"},"_1":{"name":"Effective Porosity 2","unit":"v/v","family":"Effective Porosity"},"last":1},"parameters":{"last":-1},"outputs":[{"name":"PHIE_Final","family":"Effective Porosity","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationArchie","inputs":{"_0":{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},"_1":{"name":"Porosity","family":"Porosity","unit":"v/v"},"_2":{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m","allowNull":true},"last":2},"parameters":{"_0":{"name":"a","type":"number","value":1,"unit":"unitless"},"_1":{"name":"m","type":"number","value":2,"unit":"unitless"},"_2":{"name":"n","type":"number","value":2,"unit":"unitless"},"_3":{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},"_4":{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"},"last":4},"outputs":[{"name":"Sw_Ar","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Ar","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Ar","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Ar","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationIndonesia","inputs":{"_0":{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},"_1":{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},"_2":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"_3":{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m","allowNull":true},"last":3},"parameters":{"_0":{"name":"a","type":"number","value":1,"unit":"unitless"},"_1":{"name":"m","type":"number","value":2,"unit":"unitless"},"_2":{"name":"n","type":"number","value":2,"unit":"unitless"},"_3":{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},"_4":{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},"_5":{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"},"last":5},"outputs":[{"name":"Sw_Ind","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Ind","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Ind","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Ind","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationModifiedIndonesia","inputs":{"_0":{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},"_1":{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},"_2":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"_3":{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m","allowNull":true},"last":3},"parameters":{"_0":{"name":"a","type":"number","value":1,"unit":"unitless"},"_1":{"name":"m","type":"number","value":2,"unit":"unitless"},"_2":{"name":"n","type":"number","value":2,"unit":"unitless"},"_3":{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},"_4":{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},"_5":{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"},"last":5},"outputs":[{"name":"Sw_Imo","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Imo","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Imo","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Imo","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationSimandoux","inputs":{"_0":{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},"_1":{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},"_2":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"_3":{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m","allowNull":true},"last":3},"parameters":{"_0":{"name":"a","type":"number","value":1,"unit":"unitless"},"_1":{"name":"m","type":"number","value":2,"unit":"unitless"},"_2":{"name":"n","type":"number","value":2,"unit":"unitless"},"_3":{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},"_4":{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},"_5":{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"},"last":5},"outputs":[{"name":"Sw_Sim","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Sim","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Sim","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Sim","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationModifiedSimandoux","inputs":{"_0":{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},"_1":{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},"_2":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"_3":{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m","allowNull":true},"last":3},"parameters":{"_0":{"name":"a","type":"number","value":1,"unit":"unitless"},"_1":{"name":"m","type":"number","value":2,"unit":"unitless"},"_2":{"name":"n","type":"number","value":2,"unit":"unitless"},"_3":{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},"_4":{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},"_5":{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"},"last":5},"outputs":[{"name":"Sw_Smo","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Smo","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Smo","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Smo","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationJuhasz","inputs":{"_0":{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},"_1":{"name":"Porosity","family":"Porosity","unit":"v/v"},"_2":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"_3":{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m","allowNull":true},"last":3},"parameters":{"_0":{"name":"m*","type":"number","value":2,"unit":"unitless"},"_1":{"name":"n*","type":"number","value":2,"unit":"unitless"},"_2":{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},"_3":{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},"_4":{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"},"_5":{"name":"PHITsh","type":"number","value":0.35,"unit":"v/v"},"last":5},"outputs":[{"name":"Sw_Juh","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Juh","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Juh","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Juh","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"Qvn","family":"Volumetric CEC","unit":"eq/L"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationWaxmanSmits","inputs":{"_0":{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},"_1":{"name":"Porosity","family":"Porosity","unit":"v/v"},"_2":{"name":"Formation Temperature","family":"Formation Temperature","unit":"degF","allowNull":true},"_3":{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m","allowNull":true},"last":3},"parameters":{"_0":{"name":"m*","type":"number","value":2,"unit":"unitless"},"_1":{"name":"n*","type":"number","value":2,"unit":"unitless"},"_2":{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},"_3":{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"},"_4":{"name":"B","type":"number","value":4,"unit":"L.S/eq.m"},"_5":{"name":"Qv","type":"number","value":1,"unit":"eq/L"},"last":5},"outputs":[{"name":"Sw_Wax","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Wax","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Wax","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Wax","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationDualWater","inputs":{"_0":{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},"_1":{"name":"Total Porosity","family":"Total Porosity","unit":"v/v"},"_2":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"_3":{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m","allowNull":true},"last":3},"parameters":{"_0":{"name":"a","type":"number","value":1,"unit":"unitless"},"_1":{"name":"m*","type":"number","value":2,"unit":"unitless"},"_2":{"name":"n*","type":"number","value":2,"unit":"unitless"},"_3":{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},"_4":{"name":"Rmf","type":"number","value":0.125,"unit":"ohm.m"},"_5":{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},"_6":{"name":"PHITsh","type":"number","value":0.35,"unit":"v/v"},"last":6},"outputs":[{"name":"Sw_Dua","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Dua","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Dua","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Dua","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"Qv","family":"Volumetric CEC","unit":"eq/L"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationEffective","inputs":{"_0":{"name":"Total Porosity","family":"Total Porosity","unit":"v/v"},"_1":{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},"_2":{"name":"Total Saturation","family":"Water Saturation","unit":"v/v"},"last":2},"parameters":{"last":-1},"outputs":[{"name":"Sw_E","family":"Water Saturation","unit":"v/v"},{"name":"Bvw_E","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{"summation":true,"multiple":true,"addParamFlag":true,"inputTemplate":{"name":"Curve","allowNull":true},"paramTemplate":{"name":"Custom Cutoff 4","type":"handsontable","tableType":"condition","value":[{"method":"Value &lt;= Min","min":0.5}],"nameEditable":true},"outputsMultiple":true,"outputFromParameters":true,"outputTemplate":{"name":"CUSTOM_FL","family":"Net Flag","unit":"UNITLESS","parameters":[],"shading":"red"}},"icon":"summation-16x16","function":"calClasticfSummation","inputs":{"_0":{"name":"Shale Volume","unit":"v/v","family":"Shale Volume"},"_1":{"name":"Porosity","unit":"v/v","family":"Porosity"},"_2":{"name":"Water Saturation","unit":"v/v","family":"Water Saturation"},"last":2},"options":{"_0":{"name":"TVD","family":"True Vertical Depth","unit":"m"},"_1":{"name":"TVDSS","family":"True Vertical Depth Sub Sea","unit":"m"},"last":1},"parameters":{"_0":{"id":"Vshale Cutoff","name":"Vshale Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt; Value &lt;= Max","min":0,"max":0.4}]},"_1":{"id":"Phi Cutoff","name":"Phi Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Value &lt; Min or Value &gt;= Max","min":0,"max":0.15}]},"_2":{"id":"SW Cutoff","name":"SW Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt; Value &lt;= Max","min":0,"max":0.6}]},"last":2},"outputs":[{"name":"ROCK","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"}],"shading":"yellow"},{"name":"RES","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"},{"id":"Phi Cutoff"}],"shading":"green"},{"name":"PAY","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"},{"id":"Phi Cutoff"},{"id":"SW Cutoff"}],"shading":"red"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{"multiple":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Fluid","type":"Fluid","default":{"DT":189,"NPHI":0.991,"RHOB":1.03,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.3,"min":0}},{"name":"Gas","default":{"DT":265,"NPHI":0.2,"RHOB":0.1,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oil","default":{"DT":210,"NPHI":0.95,"RHOB":0.7,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Water","default":{"DT":189,"NPHI":1,"RHOB":1.05,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"DT":["Peak Slowness","Peak Travel Time","Travel Time","Compressional Slowness","DTC.*","DT","SON.*","AC","DTTP.*","Acoustic"],"RHOB":["Bulk Density","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Corrected ZDL Density","DEN.*","RHOB","RHOZ","ZDEN.*","RHOZ","LDEN","Density"],"GR":["Gamma Ray","Gamma Ray 1","Gamma Ray Normalised","Gamma Ray Shale","Gamma Ray Squared","Russian Gamma Ray","PLT Gamma Ray","GR.*","ECGR.*","SGRC.*","GAM.*","HGR","EGR","SGR"],"NPHI":["Thermal Neutron Near Far Ratio","Compensated Neutron Porosity","Epithermal Neutron Porosity","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Russian Thermal Neutron Porosity","Thermal Neutron Porosity","NEU.*","TNP.*","NPHI.*","CNL.*","CNT.*","Porosity"],"POT":["Potassium Capture Relative Yield","Potassium Concentration","Potassium Radio Nuclide Activity","POT.*","Weight Fraction - Element"],"THOR":["Thorium Concentration","Thorium Radio Nuclide Activity","THOR.*"],"URAN":["Uranium Concentration","Uranium Radio Nuclide Activity","URA.*"],"PAI":[".*"]},"outputConfigs":[{"name":"Minerals","family":"Mineral Volume","unit":"v/v","prefix":"V_"},{"name":"Synthetic Curves","suffix":"_SYN","disableEditing":["family","unit"]}]},"icon":"multi-mineral-solver-16x16","function":"multiMineralSolver","inputs":{"_0":{"name":"Curve"},"last":0},"parameters":{"last":-1},"outputs":[]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"gradient-ftemp-16x16","function":"gradientFTemp","inputs":{"_0":{"name":"Depth","family":"Measured Depth","unit":"m"},"last":0},"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":{"_0":{"name":"Temperature Gradient","type":"number","value":0.03,"unit":"degC/m"},"_1":{"name":"TLI","type":"number","value":0,"unit":"m"},"_2":{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"},"last":2}}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"log-interval-ftemp-16x16","function":"logIntervalFTemp","inputs":{"_0":{"name":"Depth","family":"Measured Depth","unit":"m"},"last":0},"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":{"_0":{"name":"TLI","type":"number","value":0,"unit":"m"},"_1":{"name":"BLI","type":"number","value":0,"unit":"m"},"_2":{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"},"_3":{"name":"Bottom Log Temperature","type":"number","value":120,"unit":"degC"},"last":3}}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"gradient-fpress-16x16","function":"gradientFPress","inputs":{"_0":{"name":"True Vertical Depth","family":"True Vertical Depth","unit":"m"},"last":0},"outputs":[{"name":"FPRESS","family":"Hydrostatic Pressure","unit":"kPa"}],"parameters":{"_0":{"name":"Pressure Gradient","type":"number","value":9.792,"unit":"kPa/m"},"last":0}}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"mud-density-fpress-16x16","function":"mudDensityFPress","inputs":{"_0":{"name":"True Vertical Depth","family":"True Vertical Depth","unit":"m"},"last":0},"outputs":[{"name":"FPRESS","family":"Hydrostatic Pressure","unit":"kPa"}],"parameters":{"_0":{"name":"Drilling Fluid Density","type":"number","value":1,"unit":"kg/m3"},"last":0}}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"normalized-qv-16x16","function":"normalizeQv","inputs":{"_0":{"name":"Porosity","family":"Porosity","unit":"v/v"},"_1":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"last":1},"outputs":[{"name":"QVn","family":"Normalised Qv","unit":"v/v"}],"parameters":{"_0":{"name":"Porosity Shale","type":"number","value":0.4,"unit":"v/v"},"last":0}}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"cec-qv-16x16","function":"cecQv","inputs":{"_0":{"name":"Porosity","family":"Porosity","unit":"v/v"},"_1":{"name":"CEC","family":"Volumetric CEC","unit":"meq/g"},"_2":{"name":"Grain Density","family":"Grain Density","unit":"g/cm3"},"last":2},"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"}],"parameters":{"last":-1}}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"water-bearing-shaly-sands-16x16","function":"qvWaterBearingShalySands","inputs":{"_0":{"name":"Porosity","family":"Porosity","unit":"v/v"},"_1":{"name":"Resistivity","family":"Resistivity","unit":"ohm.m"},"last":1},"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"},{"name":"B","family":"Waxman B","unit":"L.S/eq.m"},{"name":"BQv","family":"Waxman BQv","unit":"S/m"}],"parameters":{"_0":{"name":"B method","type":"select","value":"Use B from formula","choices":["Use B from formula","Use B value"]},"_1":{"name":"B value","type":"number","value":0,"unit":"L.S/m"},"_2":{"name":"Temperature","type":"number","value":25,"unit":"degC"},"_3":{"name":"Water Resistivity","type":"number","value":0.03,"unit":"ohm.m"},"_4":{"name":"a*","type":"number","value":1},"_5":{"name":"m*","type":"number","value":2},"last":5}}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"rw-from-sanlinity-temp-16x16","function":"RWfromSALandFTemp","inputs":{"_0":{"name":"Formation Temperature","family":"Formation Temperature","unit":"degF"},"_1":{"name":"Salinity","family":"Salinity","unit":"ppm"},"last":1},"outputs":[{"name":"RwX","family":"Formation Water Resistivity","unit":"ohm.m"}],"parameters":{"last":-1}}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"saturated-nacl-from-temp-16x16","function":"UfromSalinity","inputs":{"_0":{"name":"Salinity","family":"Salinity","unit":"ppk"},"last":0},"outputs":[{"name":"U","family":"Volumetric Photoelectric Effect","unit":"barns/cm3"}],"parameters":{"last":-1}}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"u-from-salinity-16x16","function":"saturatedSalinityConcentrationfromFTemp","inputs":{"_0":{"name":"Formation Temperature","family":"Formation Temperature","unit":"degF"},"last":0},"outputs":[{"name":"SAL_SAT","family":"Formation Water Salinity","unit":"ppk"}],"parameters":{"last":-1}}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"mud-salinity-and-resistivity-16x16","function":"mudSalinityAndResistivity","inputs":{"_0":{"name":"Formation Temperature","family":"Formation Temperature","unit":"degC"},"last":0},"outputs":[{"name":"RM","family":"Mud Resistivity","unit":"ohm.m"},{"name":"RMF","family":"Mud Filtrate Resistivity","unit":"ohm.m"},{"name":"RMC","family":"Mudcake Resistivity","unit":"ohm.m"},{"name":"SALM","family":"Mud Salinity","unit":"ppm"},{"name":"SALMF","family":"Mud Filtrate Salinity","unit":"ppm"}],"parameters":{"_0":{"name":"Mud Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},"_1":{"name":"Mud Sample Temperature","type":"number","value":0,"unit":"degC"},"_2":{"name":"Mud Filtrate Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},"_3":{"name":"Mud Filtrate Sample Temperature","type":"number","value":0,"unit":"degC"},"_4":{"name":"Mudcake Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},"_5":{"name":"Mudcake Sample Temperature","type":"number","value":0,"unit":"degC"},"last":5}}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"bad-hole-from-caliper-16x16","function":"badHoleFromCaliper","inputs":{"_0":{"name":"Caliper","family":"Caliper","unit":"in"},"_1":{"name":"Bit Size","family":"Bit Size","unit":"in","allowNull":true},"last":1},"outputs":[{"name":"BH_FL_BS","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":{"_0":{"name":"Cutoff","type":"number","value":0.5,"unit":"in"},"_1":{"name":"Bit Size","type":"number","value":12.5,"unit":"in"},"last":1}}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"bad-hole-from-drho-16x16","function":"badHoleFromDRHO","inputs":{"_0":{"name":"DENC","family":"Bulk Density Correction","unit":"g/cm3"},"last":0},"outputs":[{"name":"BH_FL_DRHO","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":{"_0":{"name":"Bulk Density Correction Min","type":"number","value":0.1,"unit":"g/cm3"},"_1":{"name":"Bulk Density Correction Max","type":"number","value":0.6,"unit":"g/cm3"},"last":1}}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"coal-flag-16x16","function":"coalFlag","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},"_1":{"name":"Neutron Porosity","family":"Neutron Porosity","unit":"v/v","allowNull":true},"_2":{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},"_3":{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true},"_4":{"name":"Resistivity","family":"Resistivity","allowNull":true},"last":4},"outputs":[{"name":"COAL_FL","family":"Coal Flag","unit":"UNITLESS"}],"parameters":{"_0":{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":1.2,"max":2.2}]},"_1":{"name":"Neutron Porosity Cutoff","id":"Neutron Porosity Cutoff","type":"handsontable","tableType":"condition","unit":"v/v","value":[{"method":"Min &lt;= Value &lt; Max","min":0.3,"max":0.6}]},"_2":{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":90,"max":150}]},"_3":{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":0.16,"max":0.2}]},"_4":{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":900,"max":1000}]},"last":4}}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"carbonate-flag-16x16","function":"carbonateFlag","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},"_1":{"name":"Neutron Porosity","family":"Neutron Porosity","unit":"v/v","allowNull":true},"_2":{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},"_3":{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true},"last":3},"outputs":[{"name":"CARBONATE_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":{"_0":{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.85,"max":3}]},"_1":{"name":"Neutron Porosity Cutoff","id":"Neutron Porosity Cutoff","type":"handsontable","tableType":"condition","unit":"v/v","value":[{"method":"Min &lt;= Value &lt; Max","min":0,"max":1}]},"_2":{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":45,"max":55}]},"_3":{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":5,"max":7}]},"last":3}}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"halite-flag-16x16","function":"haliteFlag","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},"_1":{"name":"Resistivity","family":"Resistivity","unit":"ohm.m","allowNull":true},"_2":{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},"_3":{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true},"last":3},"outputs":[{"name":"HALITE_FL","family":"Halite Flag","unit":"UNITLESS"}],"parameters":{"_0":{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.05,"max":2.15}]},"_1":{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":10000,"max":100000}]},"_2":{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":60,"max":70}]},"_3":{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":4.5,"max":5}]},"last":3}}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"anhydrite-flag-16x16","function":"anhydriteFlag","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},"_1":{"name":"Resistivity","family":"Resistivity","unit":"ohm.m","allowNull":true},"_2":{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},"_3":{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true},"last":3},"outputs":[{"name":"ANHYDRITE_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":{"_0":{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.85,"max":3}]},"_1":{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":10000,"max":100000}]},"_2":{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":55,"max":60}]},"_3":{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":4.5,"max":5}]},"last":3}}</t>
+  </si>
+  <si>
+    <t>{"other":{"multiple":true,"outputTemplate":{"name":"CUSTOM_FL","family":"General Flag","unit":"UNITLESS","parameters":[]},"outputsMultiple":true,"outputFromParameters":true,"addParamFlag":true},"icon":"custom-flag-16x16","function":"customFlag","inputs":{"_0":{"name":"Curve"},"last":0},"outputs":[{"name":"CUSTOM_FL_1","family":"General Flag","unit":"UNITLESS","parameters":[{"id":"Condition 1"}]}],"parameters":{"_0":{"id":"Condition 1","name":"Condition 1","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt;= Value &lt; Max"}],"nameEditable":true},"last":0}}</t>
+  </si>
+  <si>
+    <t>{"other":{"allowZone":false,"outputDataset":"INDEX"},"icon":"true-vertical-depth-16x16","function":"tvdConvserion","inputs":{"_0":{"name":"Deviation","family":"Hole Deviation","unit":"Deg"},"_1":{"name":"Azimuth","family":"Hole Azimuth","unit":"Deg"},"last":1},"outputs":[{"name":"TVD","family":"True Vertical Depth","unit":"m","disableEditing":"namefamilyunit"},{"name":"TVDSS","family":"True Vertical Depth Sub Sea","unit":"m","disableEditing":"namefamilyunit"},{"name":"XOFFSET","family":"X Offset","unit":"m","disableEditing":"namefamilyunit"},{"name":"YOFFSET","family":"Y Offset","unit":"m","disableEditing":"namefamilyunit"}],"parameters":{"_0":{"name":"TVD Mode","type":"select","choices":["On Shore","Off Shore"],"value":"Off Shore"},"_1":{"name":"Elevator","type":"number","value":0,"unit":"m"},"_2":{"name":"X reference at","type":"number","value":0,"unit":"m"},"_3":{"name":"Y reference at","type":"number","value":0,"unit":"m"},"_4":{"name":"Method","type":"select","choices":["Average Angle","Balanced Tangential","Radius Curvature","Minimum Curvature"],"value":"Minimum Curvature"},"last":4}}</t>
+  </si>
+  <si>
+    <t>{"other":{"transform":true,"outputConfigs":[{"suffix":"_OUT"}],"allowZone":false},"icon":"basic-operations-16x16","function":"basicOperations","inputs":{"_0":{"name":"Input curve"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Method","type":"select","value":"+","choices":["+","-","*","/"]},"_1":{"name":"Constant","type":"number","value":3.141592653589793},"last":1}}</t>
+  </si>
+  <si>
+    <t>{"other":{"transform":true,"outputConfigs":[{"suffix":"_POW"}],"allowZone":false},"icon":"pow-16x16","function":"pow","inputs":{"_0":{"name":"Input curve"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Exponent","type":"number","value":3.141592653589793},"last":0}}</t>
+  </si>
+  <si>
+    <t>{"other":{"transform":true,"outputConfigs":[{"suffix":"_ROUND"}],"allowZone":false},"icon":"round-16x16","function":"round","inputs":{"_0":{"name":"Input curve"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Precision","type":"number","value":2},"last":0}}</t>
+  </si>
+  <si>
+    <t>{"other":{"transform":true,"outputConfigs":[{"suffix":"_LIMIT"}],"allowZone":false},"icon":"limit-16x16","function":"limit","inputs":{"_0":{"name":"Input curve"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Min","type":"number","value":0},"_1":{"name":"Max","type":"number","value":1},"last":1}}</t>
+  </si>
+  <si>
+    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_OUT"}],"allowZone":false},"icon":"functional-transformations-16x16","function":"functionalTransforms","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Method","type":"select","value":"pow10","choices":["pow10","sqrt","loge","log10","abs","inv","acos","asin","atan","cos","sin","tan","exp","exp10"]},"last":0}}</t>
+  </si>
+  <si>
+    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"name":"First Derivation","suffix":"_1ST_DERIVATION","use":true},{"name":"Second Derivation","suffix":"_2ND_DERIVATION","use":true}],"allowZone":false},"icon":"curve-derivation-16x16","function":"curveDerivation","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"last":-1}}</t>
+  </si>
+  <si>
+    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_RESCALING"}],"allowZone":false},"icon":"curve-rescale-16x16","function":"curveRescaling","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Input left scale","type":"number","value":0},"_1":{"name":"Input right scale","type":"number","value":1},"_2":{"name":"Output left scale","type":"number","value":0},"_3":{"name":"Output right scale","type":"number","value":1},"last":3}}</t>
+  </si>
+  <si>
+    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_FILLED"}],"allowZone":false},"icon":"curve-fill-data-gaps-16x16","function":"curveFilling","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Gaps Maximum Width","type":"number","value":13},"_1":{"name":"Width Type","type":"select","value":"In samples","choices":["In samples","In reference"]},"_2":{"name":"Mode","type":"select","value":"linear interpolation","choices":["top value","bottom value","linear interpolation","constant"]},"_3":{"name":"Constant","type":"number","value":100},"last":3}}</t>
+  </si>
+  <si>
+    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_RESAMPLED"}],"allowZone":false},"icon":"curve-resampling-16x16","function":"curveResampling","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Mode","type":"select","choices":["Linear Interpolate","Depth Shift (core)","Block (core)"],"value":"Linear Interpolate"},"last":0}}</t>
+  </si>
+  <si>
+    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"allowZone":false},"icon":"basic-combination-16x16","function":"basicCombinations","inputs":{"_0":{"name":"Curve 1"},"_1":{"name":"Curve 2"},"last":1},"outputs":[{"name":"Combination curve","family":"Compressional Slowness","unit":"us/ft"}],"parameters":{"_0":{"name":"Method","type":"select","value":"+","choices":["+","-","*","/","min","max","average","median"]},"last":0}}</t>
+  </si>
+  <si>
+    <t>{"other":{"multiple":true,"inputTemplate":{"name":"Curve"},"transform":true,"addParamFlag":true,"allowZone":false},"icon":"linear-combination-16x16","function":"linearCombinations","inputs":{"_0":{"name":"Curve 1"},"_1":{"name":"Curve 2"},"last":1},"outputs":[{"name":"Combination curve","family":"Compressional Slowness","unit":"us/ft"}],"parameters":{"_0":{"name":"Coefficient 1","type":"number","value":1},"_1":{"name":"Coefficient 2","type":"number","value":1},"last":1}}</t>
+  </si>
+  <si>
+    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_MED_SM"}],"allowZone":false},"icon":"median-filter-16x16","function":"curveMedianFilter","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Number Of Levels","type":"number","value":5},"last":0}}</t>
+  </si>
+  <si>
+    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_SQUARE_SM"}],"allowZone":false},"icon":"square-filter-16x16","function":"curveSquareFilter","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Number Of Levels","type":"number","value":5},"last":0}}</t>
+  </si>
+  <si>
+    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_BELL_SM"}],"allowZone":false},"icon":"bell-filter-16x16","function":"curveBellFilter","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Number Of Levels","type":"number","value":5},"last":0}}</t>
+  </si>
+  <si>
+    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_SAVGOL_SM"}],"allowZone":false},"icon":"savisky-golay-filter-16x16","function":"curveSavGolFilter","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Derivative Order","type":"number","value":0},"_1":{"name":"Polynomial Order","type":"number","value":2},"_2":{"name":"Number Of Points","type":"number","value":5},"last":2}}</t>
+  </si>
+  <si>
+    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_FFT_SM"}],"allowZone":false},"icon":"fft-filter-16x16","function":"curveFFTFilter","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Number Of Cutoff","type":"number","value":100},"last":0}}</t>
+  </si>
+  <si>
+    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_CONV_SM"}],"allowZone":false,"paramMultiple":true},"icon":"curve-convolution-16x16","function":"curveConvolution","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Coefficient 1","type":"number","value":0.33,"removeable":false},"_1":{"name":"Coefficient 2","type":"number","value":0.33,"removeable":false},"_2":{"name":"Coefficient 3","type":"number","value":0.33,"removeable":false},"last":2}}</t>
+  </si>
+  <si>
+    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_DECONV_SM"}],"allowZone":false,"paramMultiple":true},"icon":"curve-deconvolution-16x16","function":"curveDeconvolution","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Coefficient 1","type":"number","value":1,"removeable":false},"_1":{"name":"Coefficient 2","type":"number","value":0,"removeable":false},"_2":{"name":"Coefficient 3","type":"number","value":1,"removeable":false},"last":2}}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationNonPoro","inputs":{"_0":{"name":"Micro Resistivity","family":"Micro Resistivity","unit":"ohm.m"},"_1":{"name":"Resistivity","family":"Resistivity","unit":"ohm.m"},"last":1},"parameters":{"_0":{"name":"Rw","type":"number","value":0.03},"_1":{"name":"Rmf","type":"number","value":0.1},"last":1},"outputs":[{"name":"Sw_QL","family":"Water Saturation","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_MERGED"}],"allowZone":false},"icon":"linear-combination-16x16","function":"mergedCurve","inputs":{"_0":{"name":"Curve 1"},"_1":{"name":"Curve 2"},"last":1},"parameters":{"_0":{"name":"overlap","type":"select","choices":["position","mean"],"value":"position"},"last":0},"outputs":[]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"block-value-16x16","function":"calBlockParameter","inputs":{"_0":{"name":"Total Porosity","unit":"v/v","family":"Total Porosity"},"_1":{"name":"Compressional Slowness","unit":"us/ft","family":"Compressional Slowness"},"_2":{"name":"Resistivity","unit":"ohm.m","family":"Resistivity","allowNull":true},"last":2},"parameters":{"_0":{"name":"Block Porosity","type":"number","value":0.003,"unit":"v/v","color":"red"},"_1":{"name":"Block Sonic","type":"number","value":54,"unit":"us/ft","color":"green"},"_2":{"name":"Macro Sonic","type":"number","value":62,"unit":"us/ft","color":"#F0F"},"_3":{"name":"Block Resistivity","type":"number","value":2000,"unit":"ohm.m"},"_4":{"name":"Macro Resistivity","type":"number","value":200,"unit":"ohm.m"},"last":4},"outputs":[{"name":"PHI_BLK","family":"Block Porosity","unit":"v/v"},{"name":"DT_BLK","family":"Compressional Slowness","unit":"us/ft"},{"name":"DT_MAC","family":"Compressional Slowness","unit":"us/ft"},{"name":"RES_BLK","family":"Resistivity","unit":"ohm.m"},{"name":"RES_MAC","family":"Resistivity","unit":"ohm.m"},{"name":"PHI_2","family":"Secondary Porosity","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"fracture-porosity-16x16","function":"calFracturenVugPorosity","inputs":{"_0":{"name":"Shallow Resistivity","unit":"ohm.m","family":"Shallow Resistivity"},"_1":{"name":"Secondary Porosity","unit":"v/v","family":"Secondary Porosity"},"_4":{"name":"Formation Temperature","unit":"degC","family":"Formation Temperature"},"last":4},"parameters":{"_1":{"name":"Mud Filtrate Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},"_2":{"name":"Mud Filtrate Sample Temperature","type":"number","value":0,"unit":"degC"},"last":2},"outputs":[{"name":"PHI_V","family":"Vug Porosity","unit":"v/v"},{"name":"PHI_FR","family":"Fracture Porosity","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"fft-mmp-16x16","function":"calMacronMicroZone","inputs":{"_0":{"name":"Secondary Porosity","unit":"v/v","family":"Secondary Porosity"},"_1":{"name":"Fracture Porosity","unit":"v/v","family":"Fracture Porosity"},"_2":{"name":"Compressional Slowness","unit":"us/ft","family":"Compressional Slowness"},"_3":{"name":"Block Sonic","unit":"us/ft","family":"Compressional Slowness"},"_4":{"name":"Macro Sonic","unit":"us/ft","family":"Compressional Slowness"},"_5":{"name":"Resistivity","unit":"ohm.m","family":"Resistivity"},"_6":{"name":"Block Resistivity","unit":"ohm.m","family":"Resistivity","allowNull":true},"_7":{"name":"Macro Resistivity","unit":"ohm.m","family":"Resistivity","allowNull":true},"last":7},"parameters":{"_0":{"name":"Block Resistivity","type":"number","value":null,"unit":"ohm.m"},"_1":{"name":"Macro Resistivity","type":"number","value":null,"unit":"ohm.m"},"_2":{"name":"Fracture Porosity Cutoff","type":"number","value":null,"unit":"v/v"},"last":2},"outputs":[{"name":"F_MAC","family":"General Flag","unit":"unitless"},{"name":"F_MIC","family":"General Flag","unit":"unitless"},{"name":"PHI_2_MAC","family":"Macro Secondary Porosity","unit":"v/v"},{"name":"PHI_2_MIC","family":"Micro Secondary Porosity","unit":"v/v"},{"name":"PHI_FR_MAC","family":"Macro Fracture Porosity","unit":"v/v"},{"name":"PHI_FR_MIC","family":"Micro Fracture Porosity","unit":"v/v"},{"name":"PHI_2_FIL","family":"Secondary Porosity","unit":"v/v"},{"name":"PHI_FR_FIL","family":"Fracture Porosity","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"residual-water-saturation-16x16","function":"calResidueWaterSaturation","inputs":{"_0":{"name":"Macro Flag","unit":"unitless","family":"General Flag"},"_1":{"name":"Micro Flag","unit":"unitless","family":"General Flag"},"last":1},"parameters":{"_0":{"name":"A","type":"number","value":-1.8475},"_1":{"name":"B","type":"number","value":0.1415},"_2":{"name":"C","type":"number","value":1.8862},"_3":{"name":"Swr_cutoff","type":"number","value":0.76,"unit":"v/v"},"last":3},"outputs":[{"name":"SWR","family":"Residual Water Saturation","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"permeability-16x16","function":"calPermeability","inputs":{"_0":{"name":"Compressional Slowness","unit":"us/ft","family":"Compressional Slowness"},"_1":{"name":"Block Sonic","unit":"us/ft","family":"Compressional Slowness"},"_2":{"name":"Secondary Porosity","unit":"v/v","family":"Secondary Porosity"},"_3":{"name":"Residual Water Saturation","unit":"v/v","family":"Residual Water Saturation","allowNull":true},"last":3},"parameters":{"_0":{"name":"Residual Water Saturation","type":"number","value":0.85,"unit":"v/v"},"_1":{"name":"a","type":"number","value":264},"_2":{"name":"b","type":"number","value":0.689},"last":2},"outputs":[{"name":"PERM","family":"Permeability","unit":"mD"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{"summation":true},"icon":"cutoff-and-summation-16x16","function":"calBasementSummation","inputs":{"_0":{"name":"Secondary Porosity","unit":"v/v","family":"Secondary Porosity"},"_1":{"name":"Fracture Porosity","unit":"v/v","family":"Fracture Porosity"},"_2":{"name":"Macro Flag","unit":"unitless","family":"General Flag"},"_3":{"name":"Micro Flag","unit":"unitless","family":"General Flag"},"_4":{"name":"Permeability","unit":"mD","family":"Permeability"},"_5":{"name":"Residual Water Saturation","unit":"v/v","family":"Residual Water Saturation"},"last":5},"options":{"_0":{"name":"TVD"},"_1":{"name":"TVDSS"},"last":1},"parameters":{"_0":{"name":"Secondary Porosity Cutoff","type":"number","value":0.003,"unit":"v/v"},"_1":{"name":"Fracture Porosity Cutoff","type":"number","value":0.0005,"unit":"v/v"},"_2":{"name":"Perm Cutoff","type":"number","value":0,"unit":"mD"},"last":2},"outputs":[{"name":"F_PAY","family":"General Flag","unit":"unitless"},{"name":"FINDEX","family":"Flow Index","unit":"unitless"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"mechanical-stratigraphy-flag-form-gr-16x16","function":"calMechanicalStratigralyFlagFormGR","inputs":{"_0":{"name":"Gamma Ray","unit":"gAPI","family":"Gamma Ray"},"last":0},"parameters":{"_0":{"name":"Threshold","type":"number","value":75,"unit":"gAPI"},"last":0},"outputs":[{"name":"SHALE_FLAG","family":"Mechanical Stratigraphy Flag","unit":"unitless"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"static-poisson-ratio-16x16","function":"calDynamicPoissonRatio","inputs":{"_0":{"name":"Poisson Ratio (Dynamic)","family":"Poisson Ratio (Dynamic)","unit":"unitless"},"last":0},"parameters":{"_0":{"name":"PR multiplier","type":"number","value":1,"unit":"unitless"},"last":0},"outputs":[{"name":"PR_STA","family":"Poisson Ratio (Static)","unit":"unitless"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calMeproAlphaModel","inputs":{"_0":{"name":"Bulk Modulus (Static)","family":"Bulk Modulus (Static)","unit":"Mpsi"},"_1":{"name":"Grain Bulk Modulus","family":"Grain Bulk Modulus","unit":"Mpsi","allowNull":true},"_2":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":2},"parameters":{"_0":{"name":"Grain Bulk Modulus","type":"number","value":5.37,"unit":"Mpsi"},"_1":{"name":"Apply for flag =","type":"select","choices":[0,1,null,"Any"],"value":0},"last":1},"outputs":[{"name":"ALPHA","family":"Biot Coefficient","unit":"unitless"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calAlphaCombinerWFlagOrZone","inputs":{"_0":{"name":"Biot Coefficient","family":"Biot Coefficient","unit":"unitless"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Alpha when Flag = 1","type":"","value":0},"_1":{"name":"","type":"","value":0},"_2":{"name":"","type":"","value":0},"_3":{"name":"","type":"","value":0},"last":3},"outputs":[{"name":"","family":"","unit":""}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calAsadiEtAlForSand","inputs":{"_0":{"name":"Neutron Porosity","family":"Neutron Porosity","unit":"v/v"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_ASADI","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl3ForSand","inputs":{"_0":{"name":"Compressional slowness","family":"Compressional slowness","unit":"us/ft"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_Chang3","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl6ForSand","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cc"},"_1":{"name":"Compressional velocity","family":"Compressional velocity","unit":"ft/s"},"_2":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":2},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_Chang6","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl7ForSand","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cc"},"_1":{"name":"Compressional velocity","family":"Compressional velocity","unit":"ft/s"},"_2":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":2},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_Chang7","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl11ForSand","inputs":{"_0":{"name":"Neutron porosity","family":"Neutron porosity","unit":"v/v"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_Chang11","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calFreyburgForSand","inputs":{"_0":{"name":"Compressional Velocity","family":"Compressional Velocity","unit":"ft/s"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_FREY","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calMcNallyForSandInputs","inputs":{"_0":{"name":"Compressional slowness","family":"Compressional slowness","unit":"us/ft"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_MC","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calMoosEtAlForSand","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cc"},"_1":{"name":"Compressional velocity","family":"Compressional velocity","unit":"ft/s"},"_2":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":2},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_MOOS","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calVernikEtAlForSand","inputs":{"_0":{"name":"Neutron porosity","family":"Neutron porosity","unit":"v/v"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_VER","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl13ForShale","inputs":{"_0":{"name":"Compressional slowness","family":"Compressional slowness","unit":"us/ft"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_CHANG13","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl14ForShale","inputs":{"_0":{"name":"Compressional slowness","family":"Compressional slowness","unit":"us/ft"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_CHANG14","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl15ForShale","inputs":{"_0":{"name":"Compressional slowness","family":"Compressional slowness","unit":"us/ft"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_CHANG15","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl21ForShale","inputs":{"_0":{"name":"Neutron porosity","family":"Neutron porosity","unit":"v/v"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_CHANG21","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calHorsrudDTForShale","inputs":{"_0":{"name":"Compressional slowness","family":"Compressional slowness","unit":"us/ft"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_HOR_DT","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calHorsrudPhiForShale","inputs":{"_0":{"name":"Neutron porosity","family":"Neutron porosity","unit":"v/v"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_HOR_PHI","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calKhaksarEtAlForShale","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cc"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_KHA","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calLalForShaleUCS","inputs":{"_0":{"name":"Compressional slowness","family":"Compressional slowness","unit":"us/ft"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_LAL","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calLashkaripourDusseaultForShale","inputs":{"_0":{"name":"Neutron porosity","family":"Neutron porosity","unit":"v/v"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_LASH","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calUCSCombinerWFlagOrZone","inputs":{"_0":{"name":"Unconfined Compressive Strength","family":"Unconfined Compressive Strength","unit":"psi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"","type":"","value":0},"last":0},"outputs":[{"name":"USC_COM","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calLalForShaleIFA","inputs":{"_0":{"name":"Compressional Velocity","family":"Compressional Velocity","unit":"ft/s"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"IFA_LAL","family":"Internal Friction Angle","unit":"deg"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calWeingartenPerkinsForSand","inputs":{"_0":{"name":"Neutron porosity","family":"Neutron porosity","unit":"v/v"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"IFA_WEI","family":"Internal Friction Angle","unit":"deg"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calIFACombinerWFlagOrZone","inputs":{"_0":{"name":"Internal Friction Angle","family":"Internal Friction Angle","unit":"deg"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"IFA_COM","family":"Internal Friction Angle","unit":"deg"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"cohension-from-ucs-ifa-16x16","function":"calCohesionFromUCSAndIFA","inputs":{"_0":{"name":"Internal Friction Angle","family":"Internal Friction Angle","unit":"deg"},"_1":{"name":"Unconfined Compressive Strength","family":"Unconfined Compressive Strengpsith","unit":"psi"},"last":1},"parameters":{},"outputs":[{"name":"COHESION","family":"Cohesion Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"tensile-strength-from-ucs-16x16","function":"calTensileStrengthFromUCS","inputs":{"_0":{"name":"Unconfined Compressive Strength","family":"Unconfined Compressive Strength","unit":"psi"},"last":0},"parameters":{"_0":{"name":"UCS multiplier","type":"number","unit":"unitless","value":0.1},"last":0},"outputs":[{"name":"TSTR","family":"Tensile Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calGardner","inputs":{"_0":{"name":"Compressional Velocity","family":"Compressional Velocity","unit":"ft/s"},"last":0},"parameters":{"_0":{"name":"a","type":"number","unit":"unitless","value":0.23},"_1":{"name":"b","type":"number","unit":"unitless","value":0.25},"last":1},"outputs":[{"name":"DEN_GARD","family":"Bulk Density","unit":"g/cc"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calBellottiConsolidated","inputs":{"_0":{"name":"Compressional Velocity","family":"Compressional Velocity","unit":"ft/s"},"last":0},"parameters":{},"outputs":[{"name":"DEN_BEL_CONSOLID","family":"Bulk Density","unit":"g/cc"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calBellottiUnconsolidated","inputs":{"_0":{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"us/ft"},"last":0},"parameters":{},"outputs":[{"name":"DEN_BEL_UNCOSOLID","family":"Bulk Density","unit":"g/cc"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calLindseth","inputs":{"_0":{"name":"Compressional Velocity","family":"Compressional Velocity","unit":"ft/s"},"last":0},"parameters":{},"outputs":[{"name":"DEN_LIND","family":"Bulk Density","unit":"g/cc"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calLinear","inputs":{"_0":{"name":"True vertical depth","family":"True vertical depth","unit":"m"},"last":0},"parameters":{"_0":{"name":"KB height","type":"number","unit":"m","value":0},"_1":{"name":"Water depth","type":"number","unit":"m","value":0},"_2":{"name":"Top RHOB","type":"number","unit":"g/cc","value":1.88},"_3":{"name":"Bottom depth","type":"number","unit":"m","value":4000},"_4":{"name":"Bottom RHOB","type":"number","unit":"g/cc","value":2.55},"last":4},"outputs":[{"name":"DEN_LINEAR","family":"Bulk Density","unit":"g/cc"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calPowerLaw","inputs":{"_0":{"name":"True vertical depth","family":"True vertical depth","unit":"m"},"last":0},"parameters":{"_0":{"name":"KB height","type":"number","unit":"m","value":0},"_1":{"name":"Water depth","type":"number","unit":"m","value":0},"_2":{"name":"Top RHOB","type":"number","unit":"g/cc","value":1.88},"_3":{"name":"Bottom depth","type":"number","unit":"m","value":4000},"_4":{"name":"Bottom RHOB","type":"number","unit":"g/cc","value":2.55},"last":4},"outputs":[{"name":"DEN_POWER","family":"Bulk Density","unit":"g/cc"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calHubbertWillis","inputs":{"_0":{"name":"Vertical Stress","family":"Vertical Stress","unit":"psi"},"_1":{"name":"Pore Pressure","family":"Pore Pressure","unit":"psi"},"last":1},"parameters":{},"outputs":[{"name":"SHMIN_HUB","family":"Minimum Horizontal Stress","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calEaton","inputs":{"_0":{"name":"Vertical Stress","family":"Vertical Stress","unit":"psi"},"_1":{"name":"Pore Pressure","family":"Pore Pressure","unit":"psi"},"_2":{"name":"Poisson Ratio (Static)","family":"Poisson Ratio (Static)","unit":"unitless"},"last":2},"parameters":{},"outputs":[{"name":"SHMIN_EATON","family":"Minimum Horizontal Stress","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calMinESRTerzaghiEffectiveStress","inputs":{"_0":{"name":"Vertical Stress","family":"Vertical Stress","unit":"psi"},"_1":{"name":"Pore Pressure","family":"Pore Pressure","unit":"psi"},"_2":{"name":"Minimum Horizontal Effective Stress Ratio","family":"Minimum Horizontal Effective Stress Ratio","unit":"unitless","allowNull":true},"last":2},"parameters":{"_0":{"name":"Minimum Horizontal Effective Stress Ratio","type":"number","unit":"unitless","value":0.7},"last":0},"outputs":[{"name":"SHMIN_TER","family":"Minimum Horizontal Stress","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calMinESRBiotCoefficient","inputs":{"_0":{"name":"Vertical Stress","family":"Vertical Stress","unit":"psi"},"_1":{"name":"Pore Pressure","family":"Pore Pressure","unit":"psi"},"_2":{"name":"Biot Coefficient","family":"Biot Coefficient","unit":"unitless"},"_3":{"name":"Minimum Horizontal Effective Stress Ratio","family":"Minimum Horizontal Effective Stress Ratio","unit":"unitless","allowNull":true},"last":3},"parameters":{"_0":{"name":"Minimum Horizontal Effective Stress Ratio","type":"number","unit":"unitless","value":0.7},"last":0},"outputs":[{"name":"SHMIN_BIOT","family":"Minimum Horizontal Stress","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calPoroElasticUniaxialStrainModel","inputs":{"_0":{"name":"Vertical Stress","family":"Vertical Stress","unit":"psi"},"_1":{"name":"Pore Pressure","family":"Pore Pressure","unit":"psi"},"_2":{"name":"Biot Coefficient","family":"Biot Coefficient","unit":"unitless"},"_3":{"name":"Poisson Ratio (Static)","family":"Poisson Ratio (Static)","unit":"unitless"},"last":3},"parameters":{},"outputs":[{"name":"SHMIN_UNIAXIAL","family":"Minimum Horizontal Stress","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calFunctionOfShmin","inputs":{"_0":{"name":"Minimum Horizontal Stress","family":"Minimum Horizontal Stress","unit":"psi"},"last":0},"parameters":{"_0":{"name":"Multiplier","type":"number","unit":"unitless","value":1},"last":0},"outputs":[{"name":"SHMAX_SHMIN","family":"Maximum Horizontal Stress","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calFunctionOfShmin","inputs":{"_0":{"name":"Vertical Stress","family":"Vertical Stress","unit":"psi"},"_1":{"name":"Pore Pressure","family":"Pore Pressure","unit":"psi"},"_2":{"name":"Maximum Horizontal Effective Stress Ratio","family":"Maximum Horizontal Effective Stress Ratio","unit":"unitless","allowNull":true},"last":2},"parameters":{"_0":{"name":"Maximum Horizontal Effective Stress Ratio","type":"number","unit":"unitless","value":0.8},"last":0},"outputs":[{"name":"SHMAX_TER","family":"Maximum Horizontal Stress","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calStressCorrection","inputs":{"_0":{"name":"Sw_lab","family":"Core Water Saturation (Array)","unit":"v/v"},"_1":{"name":"Pc_lab","family":"Capillary Pressure Laboratory (Array)","unit":"bar"},"last":1},"parameters":{"_0":{"name":"PhiRes/PhiLab","type":"number","value":0.95},"last":0},"outputs":[{"name":"PC_STRESS_CORR","family":"Capillary Pressure Laboratory (Array)","unit":"bar"},{"name":"SW_STRESS_CORR","family":"Core Water Saturation (Array)","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calClayBoundCorrection","inputs":{"_0":{"name":"Sw_lab","family":"Core Water Saturation (Array)","unit":"v/v"},"_1":{"name":"Pc_lab","family":"Capillary Pressure Laboratory (Array)","unit":"bar"},"_2":{"name":"Qv","family":"Normalized Qv","unit":"1/L"},"last":2},"parameters":{"_0":{"name":"Salinity","type":"number","unit":"ppm","value":35},"last":0},"outputs":[{"name":"PC_CB_CORR","family":"Capillary Pressure Laboratory (Array)","unit":"bar"},{"name":"SW_CB_CORR","family":"Core Water Saturation (Array)","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calPoreSizeDistribution","inputs":{"_0":{"name":"Pc_lab","family":"Capillary Pressure Laboratory (Array)","unit":"bar"},"last":0},"parameters":{"_0":{"name":"Sigma_Lab*CosTheta_Lab (Lab)","type":"select","choices":["Pre-defined","Custom value"],"value":"Pre-defined"},"_1":{"name":"Pre-defined Lab","type":"select","choices":["Air - Brine","Air - Mercury","Air - Oil","Oil - Brine"],"value":"Air - Brine"},"_2":{"name":"Custom Lab","type":"number","value":1},"last":2},"outputs":[{"name":"PORE_THROAT_RADIUS","family":"Pore Throat Radius Distribution (Array)","unit":"um"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calTransformationDataPcModeling","inputs":{"_0":{"name":"Pc_lab","family":"Capillary Pressure Laboratory (Array)","unit":"bar"},"last":0},"parameters":{"_0":{"name":"Sigma_Res*CosTheta_Res (Res)","type":"select","choices":["Pre-defined","Custom value"],"value":"Pre-defined"},"_1":{"name":"Pre-defined Res","type":"select","choices":["Brine - Oil","Brine - Gas"],"value":"Brine - Oil"},"_2":{"name":"Custom Res","type":"number","value":1},"_3":{"name":"Sigma_Lab*CosTheta_Lab (Lab)","type":"select","choices":["Pre-defined","Custom value"],"value":"Pre-defined"},"_4":{"name":"Pre-defined Lab","type":"select","choices":["Air - Brine","Air - Mercury","Air - Oil","Oil - Brine"],"value":"Air - Brine"},"_5":{"name":"Custom Lab","type":"number","value":1},"last":5},"outputs":[{"name":"PC_RES","family":"Capillary Pressure Reservoir (Array)","unit":"bar"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calDynamicProperties","inputs":{"_0":{"name":"Bulk Density","unit":"gAPI","family":"Bulk Density"},"_1":{"name":"Compressional Slowness","unit":"us/ft","family":"Compressional Slowness"},"_2":{"name":"Shear Slowness","unit":"us/ft","family":"Shear Slowness"},"last":2},"parameters":{},"outputs":[{"name":"VELC","family":"Compressional Velocity","unit":"ft/s"},{"name":"VELS","family":"Shear Velocity","unit":"ft/s"},{"name":"PR_DYN","family":"Poisson Ratio (Dynamic)","unit":"unitless"},{"name":"YM_DYN","family":"Young's Modulus (Dynamic)","unit":"Mpsi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"static-young-modulus-16x16","function":"calMethodBradfordEtAlForSand","inputs":{"_0":{"name":"Young's Modulus (Dynamic)","unit":"Mpsi","family":"Young's Modulus (Dynamic)"},"_1":{"name":"Mechanical Stratigraphy Flag","unit":"unitless","family":"Mechanical Stratigraphy Flag","allowNull":true},"last":1},"parameters":{"_0":{"name":"Apply for flag =","type":"select","choices":[0,1,null,"Any"],"value":0},"last":0},"outputs":[{"name":"YM_STA_BRAD","family":"Young's Modulus (Static)","unit":"Mpsi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"static-young-modulus-16x16","function":"calHorsrudForSale","inputs":{"_0":{"name":"Compressional slowness","unit":"us/ft","family":"Compressional slowness"},"_1":{"name":"Mechanical Stratigraphy Flag","unit":"unitless","family":"Mechanical Stratigraphy Flag","allowNull":true},"last":1},"parameters":{"_0":{"name":"Apply for flag =","type":"select","choices":[0,1,null,"Any"],"value":0},"last":0},"outputs":[{"name":"YM_STA_HORS","family":"Young's Modulus (Static)","unit":"Mpsi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"static-young-modulus-16x16","function":"calLacy","inputs":{"_0":{"name":"Young's Modulus (Dynamic)","family":"Young's Modulus (Dynamic)","unit":"Mpsi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless"},"last":1},"parameters":{"_0":{"name":"Sand with flag ","type":"select","choices":[0,1],"value":0},"_1":{"name":"Shale with flag ","type":"select","choices":[0,1],"value":0},"last":1},"outputs":[{"name":"YM_STA_LACY","family":"Young's Modulus (Static)","unit":"Mpsi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"","function":"","inputs":{"_0":{"name":"Young's Modulus (Static)","family":"Young's Modulus (Static)","unit":"Mpsi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless"},"last":1},"parameters":{"_0":{"name":"","type":"select","choices":[0,1],"value":0},"_1":{"name":"","type":"select","choices":[0,1],"value":0},"_2":{"name":"","type":"select","choices":[0,1],"value":0},"_3":{"name":"","type":"select","choices":[0,1],"value":0},"last":3},"outputs":[{"name":"","family":"","unit":""}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"static-bulk-and-shear-modulus-16x16","function":"calStaticBulkShearModulus","inputs":{"_0":{"name":"Young's Modulus (Static)","family":"Young's Modulus (Static)","unit":"Mpsi"},"_1":{"name":"Poisson Ratio (Static)","family":"Poisson Ratio (Static)","unit":"unitless"},"last":1},"parameters":{},"outputs":[{"name":"SM_STA","family":"Shear Modulus (Static)","unit":"Mpsi"},{"name":"BM_STA","family":"Bulk Modulus (Static)","unit":"Mpsi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calBradFordEtAlForSand","inputs":{"_0":{"name":"Young's Modulus (Static)","family":"Young's Modulus (Static)","unit":"psi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_Brad","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl8ForSand","inputs":{"_0":{"name":"Young's Modulus (Static)","family":"Young's Modulus (Static)","unit":"Mpsi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_Chang8","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calLacyForSand","inputs":{"_0":{"name":"Young's Modulus (Static)","family":"Young's Modulus (Static)","unit":"Mpsi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_LACY","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calPlumbForSand","inputs":{"_0":{"name":"Young's Modulus (Static)","family":"Young's Modulus (Static)","unit":"Mpsi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_PLUMB","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl18ForShale","inputs":{"_0":{"name":"Young's Modulus (Static)","family":"Young's Modulus (Static)","unit":"Mpsi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_CHANG18","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calHorsrudEsForShale","inputs":{"_0":{"name":"Young's Modulus (Static)","family":"Young's Modulus (Static)","unit":"Mpsi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_HOR_ES","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
   </si>
 </sst>
 </file>
@@ -892,7 +892,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1205,14 +1205,14 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1241,11 +1241,11 @@
   <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="38.85546875" customWidth="1"/>
@@ -1255,7 +1255,7 @@
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1286,1815 +1286,1815 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="D49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="D50" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="D51" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="D53" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="D54" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="D55" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D56" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D57" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="D58" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="D59" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="C60" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="D60" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="D61" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="D62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="D63" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="D64" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="D65" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="C66" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="D66" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="C67" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D67" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="D68" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="D69" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="C70" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="D70" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="C71" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="D71" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C72" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="D72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="C73" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="D73" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="C74" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="D74" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="C75" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D75" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D76" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="C77" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D77" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="C78" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D78" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="C79" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D79" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="C80" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D80" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="C81" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D81" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="C82" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D82" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="C83" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D83" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="C84" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D84" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="C85" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="C86" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D86" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>193</v>
+        <v>108</v>
       </c>
       <c r="C87" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D87" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="C88" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D88" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="C89" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D89" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>199</v>
+        <v>111</v>
       </c>
       <c r="C90" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D90" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>201</v>
+        <v>112</v>
       </c>
       <c r="C91" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D91" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="C92" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D92" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="C93" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D93" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="C94" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D94" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>209</v>
+        <v>116</v>
       </c>
       <c r="C95" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D95" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="C96" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D96" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>213</v>
+        <v>118</v>
       </c>
       <c r="C97" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D97" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>215</v>
+        <v>119</v>
       </c>
       <c r="C98" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="C99" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D99" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="C100" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D100" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="C101" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D101" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
       <c r="C102" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D102" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>225</v>
+        <v>124</v>
       </c>
       <c r="C103" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D103" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>227</v>
+        <v>125</v>
       </c>
       <c r="C104" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D104" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>229</v>
+        <v>126</v>
       </c>
       <c r="C105" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D105" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>231</v>
+        <v>127</v>
       </c>
       <c r="C106" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D106" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>233</v>
+        <v>128</v>
       </c>
       <c r="C107" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D107" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>235</v>
+        <v>129</v>
       </c>
       <c r="C108" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D108" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>237</v>
+        <v>130</v>
       </c>
       <c r="C109" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D109" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>233</v>
+        <v>128</v>
       </c>
       <c r="C110" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D110" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="C111" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D111" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>242</v>
+        <v>132</v>
       </c>
       <c r="C112" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D112" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>244</v>
+        <v>133</v>
       </c>
       <c r="C113" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D113" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="C114" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D114" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>248</v>
+        <v>135</v>
       </c>
       <c r="C115" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D115" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>250</v>
+        <v>136</v>
       </c>
       <c r="C116" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D116" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>252</v>
+        <v>137</v>
       </c>
       <c r="C117" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D117" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>254</v>
+        <v>138</v>
       </c>
       <c r="C118" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D118" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>256</v>
+        <v>139</v>
       </c>
       <c r="C119" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D119" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>258</v>
+        <v>140</v>
       </c>
       <c r="C120" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D120" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>260</v>
+        <v>141</v>
       </c>
       <c r="C121" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D121" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>122</v>
       </c>
       <c r="B122" t="s">
+        <v>142</v>
+      </c>
+      <c r="C122" t="s">
+        <v>97</v>
+      </c>
+      <c r="D122" t="s">
         <v>262</v>
       </c>
-      <c r="C122" t="s">
-        <v>170</v>
-      </c>
-      <c r="D122" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>264</v>
+        <v>143</v>
       </c>
       <c r="C123" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D123" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>266</v>
+        <v>144</v>
       </c>
       <c r="C124" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D124" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>268</v>
+        <v>145</v>
       </c>
       <c r="C125" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D125" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>270</v>
+        <v>146</v>
       </c>
       <c r="C126" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D126" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>264</v>
+        <v>143</v>
       </c>
       <c r="C127" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D127" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>273</v>
+        <v>147</v>
       </c>
       <c r="C128" t="s">
-        <v>274</v>
+        <v>148</v>
       </c>
       <c r="D128" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>276</v>
+        <v>149</v>
       </c>
       <c r="C129" t="s">
-        <v>274</v>
+        <v>148</v>
       </c>
       <c r="D129" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>278</v>
+        <v>150</v>
       </c>
       <c r="C130" t="s">
-        <v>274</v>
+        <v>148</v>
       </c>
       <c r="D130" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>280</v>
+        <v>151</v>
       </c>
       <c r="C131" t="s">
-        <v>274</v>
+        <v>148</v>
       </c>
       <c r="D131" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>282</v>
+        <v>152</v>
       </c>
       <c r="C132" t="s">
-        <v>274</v>
+        <v>148</v>
       </c>
       <c r="D132" t="s">
-        <v>283</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/server/task/task-spec.xlsx
+++ b/server/task/task-spec.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="5_{AF981194-C169-4667-B254-29B6B0109D08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{D2017396-0BC2-4D48-8E27-BE0D69532B9C}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="5_{AF981194-C169-4667-B254-29B6B0109D08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{6E31AE5A-9925-4756-9569-3CC28EBE041C}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="changes" sheetId="2" r:id="rId1"/>
@@ -65,423 +65,807 @@
     <t>Shale Volume</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"clay-volume-16x16","function":"calVSHfromGR","inputs":{"_0":{"name":"Gamma Ray","unit":"gAPI","family":"Gamma Ray"},"last":0},"parameters":{"_0":{"name":"GR clean","type":"number","value":10,"unit":"gAPI","color":"red"},"_1":{"name":"GR shale","type":"number","value":120,"unit":"gAPI","color":"green"},"_2":{"name":"Method","type":"select","value":"Linear","choices":["Linear","Clavier","Larionov Tertiary rocks","Larionov older rocks","Stieber variation I","Stieber - Miocene and Pliocene","Stieber variation II"]},"last":2},"outputs":[{"name":"VSH_GR","family":"Shale Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Neutron-Density</t>
   </si>
   <si>
+    <t>{"other":{"overlay_line":"Schlumberger Den/Neut Corr. Rhof 1.0","scaleLeft":-0.15,"scaleRight":0.45,"scaleBottom":3,"scaleTop":2},"icon":"clay-volume-16x16","function":"calVSHfromND","inputs":{"_0":{"name":"Neutron Porosity","unit":"v/v","family":"Neutron Porosity"},"_1":{"name":"Bulk Density","unit":"g/cm3","family":"Bulk Density"},"last":1},"parameters":{"_0":{"name":"NPHI_clean_2","type":"number","value":0.25,"unit":"v/v"},"_1":{"name":"NPHI_shale","type":"number","value":0.4,"unit":"v/v","color":"green"},"_2":{"name":"NPHI_clean_1","type":"number","value":-0.01,"unit":"v/v"},"_3":{"name":"RHOB_clean_2","type":"number","value":2.2,"unit":"g/cm3"},"_4":{"name":"RHOB_shale","type":"number","value":2.4,"unit":"g/cm3","color":"red"},"_5":{"name":"RHOB_clean_1","type":"number","value":2.65,"unit":"g/cm3"},"last":5},"outputs":[{"name":"VSH_ND","family":"Shale Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Neutron-Sonic</t>
   </si>
   <si>
+    <t>{"other":{"overlay_line":"Schlumberger Neut/Sonic Wylie Dtf 189","scaleLeft":-0.15,"scaleRight":0.45,"scaleBottom":40,"scaleTop":140},"icon":"clay-volume-16x16","function":"calVSHfromNS","inputs":{"_0":{"name":"Neutron Porosity","unit":"v/v","family":"Neutron Porosity"},"_1":{"name":"Compressional Slowness","unit":"us/ft","family":"Compressional Slowness"},"last":1},"parameters":{"_0":{"name":"NPHI_clean_2","type":"number","value":0.25,"unit":"v/v"},"_1":{"name":"NPHI_shale","type":"number","value":0.4,"unit":"v/v","color":"green"},"_2":{"name":"NPHI_clean_1","type":"number","unit":"v/v","value":-0.01},"_3":{"name":"DT_clean_2","type":"number","value":90,"unit":"g/cm3"},"_4":{"name":"DT_shale","type":"number","value":100,"unit":"g/cm3","color":"#F0F"},"_5":{"name":"DT_clean_1","type":"number","value":55,"unit":"g/cm3"},"last":5},"outputs":[{"name":"VSH_NS","family":"Shale Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Density-Sonic</t>
   </si>
   <si>
+    <t>{"other":{"overlay_line":"Den/Sonic Wylie Rhof 1.0","scaleLeft":40,"scaleRight":140,"scaleBottom":3,"scaleTop":2},"icon":"clay-volume-16x16","function":"calVSHfromDS","inputs":{"_0":{"name":"Compressional Slowness","unit":"us/ft","family":"Compressional Slowness"},"_1":{"name":"Bulk Density","unit":"g/cm3","family":"Bulk Density"},"last":1},"parameters":{"_0":{"name":"DT_clean_2","type":"number","value":90,"unit":"us/ft"},"_1":{"name":"DT_shale","type":"number","value":100,"unit":"us/ft","color":"#F0F"},"_2":{"name":"DT_clean_1","type":"number","value":50,"unit":"us/ft"},"_3":{"name":"RHOB_clean_2","type":"number","value":2.2,"unit":"g/cm3"},"_4":{"name":"RHOB_shale","type":"number","value":2.4,"unit":"g/cm3","color":"red"},"_5":{"name":"RHOB_clean_1","type":"number","value":2.65,"unit":"g/cm3"},"last":5},"outputs":[{"name":"VSH_SD","family":"Shale Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Resistivity</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"clay-volume-16x16","function":"calVSHfromR","inputs":{"_0":{"name":"Resistivity","unit":"ohm.m","family":"Resistivity"},"last":0},"parameters":{"_0":{"name":"Resistivity_clean","type":"number","value":10,"unit":"ohm.m","color":"red"},"_1":{"name":"Resistivity_shale","type":"number","value":120,"unit":"ohm.m","color":"green"},"_2":{"name":"B exponent","type":"number","value":1},"_3":{"name":"Equation","type":"select","value":"Resistivity Log","choices":["Resistivity Log","Gaymard"]},"last":3},"outputs":[{"name":"VSH_RES","family":"Shale Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Spontaneous potential</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"clay-volume-16x16","function":"calVSHfromSP","inputs":{"_0":{"name":"Spontaneous Potential","unit":"mV","family":"Spontaneous Potential"},"last":0},"parameters":{"_0":{"name":"SP_clean","type":"number","value":0,"unit":"mV","color":"red"},"_1":{"name":"SP_shale","type":"number","value":100,"unit":"mV","color":"green"},"last":1},"outputs":[{"name":"VSH_SP","family":"Shale Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Thermal Neutron</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"clay-volume-16x16","function":"calVSHfromNEU","inputs":{"_0":{"name":"Thermal Neutron","unit":"v/v","family":"Thermal Neutron Porosity"},"last":0},"parameters":{"_0":{"name":"Neutron_clean","type":"number","value":0.1,"unit":"v/v","color":"red"},"_1":{"name":"Neutron_shale","type":"number","value":0.3,"unit":"v/v","color":"green"},"last":1},"outputs":[{"name":"VSH_NEU","family":"Shale Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Potassium</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"clay-volume-16x16","function":"calVSHfromPOTA","inputs":{"_0":{"name":"Potassium","unit":"%","family":"Potassium Concentration"},"last":0},"parameters":{"_0":{"name":"POTA matrix","type":"number","value":10,"unit":"%","color":"red"},"_1":{"name":"POTA shale","type":"number","value":100,"unit":"%","color":"green"},"_2":{"name":"POTA method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]},"last":2},"outputs":[{"name":"VSH_POTA","family":"Shale Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Thorium</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"clay-volume-16x16","function":"calVSHfromThori","inputs":{"_0":{"name":"Thorium","unit":"ppm","family":"Thorium Concentration"},"last":0},"parameters":{"_0":{"name":"Thorium matrix","type":"number","value":10,"unit":"ppm","color":"red"},"_1":{"name":"Thorium shale","type":"number","value":100,"unit":"ppm","color":"green"},"_2":{"name":"TH method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]},"last":2},"outputs":[{"name":"VSH_Thori","family":"Shale Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Final</t>
   </si>
   <si>
+    <t>{"other":{"multiple":true,"use_inputs":"multiple","inputTemplate":{"name":"Shale Volume","unit":"v/v","family":"Shale Volume"}},"icon":"final-clay-volume-16x16","function":"calVSHFinal","options":{"_0":{"name":"Bad Hole","family":"Bad Hole Flag","unit":"unitless"},"last":0},"inputs":{"_0":{"name":"Shale Volume 1","unit":"v/v","family":"Shale Volume"},"_1":{"name":"Shale Volume 2","unit":"v/v","family":"Shale Volume"},"last":1},"parameters":{"_0":{"name":"Merge Method","type":"select","value":"Minimum","choices":["Minimum","Average","Arithmetic mean","Geometric mean","Harmonic mean","Median","Maximum","Sum"]},"last":0},"outputs":[{"name":"VSH_Final","family":"Shale Volume","unit":"v/v"},{"name":"VSH_MIN","family":"Shale Volume","unit":"v/v"},{"name":"VSH_AVG","family":"Shale Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Density</t>
   </si>
   <si>
     <t>Porosity</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"calculate-open-porosity-16x16","function":"calPorosityFromDensity","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3"},"_1":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"last":1},"parameters":{"_0":{"name":"Density Matrix","type":"number","value":2.65,"unit":"g/cm3","color":"red"},"_1":{"name":"Density Fluid","type":"number","value":1,"unit":"g/cm3"},"_2":{"name":"Density Shale","type":"number","value":2.4,"unit":"d/cm3","color":"green"},"last":2},"outputs":[{"name":"PHIT_D","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_D","family":"Effective Porosity","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Neutron</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"calculate-open-porosity-16x16","function":"calPorosityFromNeutron","inputs":{"_0":{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},"_1":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"last":1},"parameters":{"_0":{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},"_1":{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},"_2":{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"},"last":2},"outputs":[{"name":"PHIT_N","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_N","family":"Effective Porosity","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Sonic</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"calculate-open-porosity-16x16","function":"calPorosityFromSonic","inputs":{"_0":{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"us/ft"},"_1":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"last":1},"parameters":{"_0":{"name":"Sonic Matrix","type":"number","value":55,"unit":"us/ft","color":"#F0F"},"_1":{"name":"Sonic Fluid","type":"number","value":189,"unit":"us/ft"},"_2":{"name":"Sonic Shale","type":"number","value":110,"unit":"us/ft","color":"green"},"_3":{"name":"Sonic Method","type":"select","value":"Wyliie","choices":["Wyliie","Raymer-Hunt-Gardner"]},"_4":{"name":"Cp","type":"number","value":1},"last":4},"outputs":[{"name":"PHIT_S","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_S","family":"Effective Porosity","unit":"v/v"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"calculate-open-porosity-16x16","function":"calPorosityFromNeutronSonic","inputs":{"_0":{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"us/ft"},"_1":{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},"_2":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"last":2},"parameters":{"_0":{"name":"Sonic Matrix","type":"number","value":55,"unit":"us/ft","color":"#F0F"},"_1":{"name":"Sonic Fluid","type":"number","value":189,"unit":"us/ft"},"_2":{"name":"Sonic Shale","type":"number","value":110,"unit":"us/ft","color":"green"},"_3":{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},"_4":{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},"_5":{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"},"_6":{"name":"Sonic Method","type":"select","value":"Wyliie","choices":["Wyliie","Raymer-Hunt-Gardner"]},"_7":{"name":"Cp","type":"number","value":1},"last":7},"outputs":[{"name":"PHIT_NS","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_NS","family":"Effective Porosity","unit":"v/v"},{"name":"DTMAA","family":"Apparent Matrix Compressional Slowness","unit":"us/ft"}]}</t>
+  </si>
+  <si>
     <t>Density-Neutron</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"calculate-open-porosity-16x16","function":"calPorosityFromDensityNeutron","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3"},"_1":{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},"_2":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"last":2},"parameters":{"_0":{"name":"Density Matrix","type":"number","value":2.65,"unit":"g/cm3","color":"red"},"_1":{"name":"Density Fluid","type":"number","value":1,"unit":"g/cm3"},"_2":{"name":"Density Shale","type":"number","value":2.4,"unit":"g/cm3","color":"green"},"_3":{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},"_4":{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},"_5":{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"},"last":5},"outputs":[{"name":"PHIT_ND","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_ND","family":"Effective Porosity","unit":"v/v"},{"name":"RHOMAA","family":"Apparent Matrix Density","unit":"g/cm3"}]}</t>
+  </si>
+  <si>
     <t>Total Final</t>
   </si>
   <si>
+    <t>{"other":{"multiple":true,"inputTemplate":{"name":"Total Porosity","unit":"v/v","family":"Total Porosity"},"use_inputs":"single"},"icon":"final-total-porosity-16x16","function":"calPorosityFinal","options":{"_0":{"name":"Bad Hole","family":"Bad Hole Flag","unit":"unitless"},"last":0},"inputs":{"_0":{"name":"Total Porosity 1","unit":"v/v","family":"Total Porosity"},"_1":{"name":"Total Porosity 2","unit":"v/v","family":"Total Porosity"},"last":1},"parameters":{"last":-1},"outputs":[{"name":"PHIT_Final","family":"Total Porosity","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Effective Final</t>
   </si>
   <si>
+    <t>{"other":{"multiple":true,"inputTemplate":{"name":"Effective Porosity","unit":"v/v","family":"Effective Porosity"},"use_inputs":"single"},"icon":"final-effective-porosity-16x16","function":"calPorosityFinal","options":{"_0":{"name":"Bad Hole","family":"Bad Hole Flag","unit":"unitless"},"last":0},"inputs":{"_0":{"name":"Effective Porosity 1","unit":"v/v","family":"Effective Porosity"},"_1":{"name":"Effective Porosity 2","unit":"v/v","family":"Effective Porosity"},"last":1},"parameters":{"last":-1},"outputs":[{"name":"PHIE_Final","family":"Effective Porosity","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Archie</t>
   </si>
   <si>
     <t>Water Saturation</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationArchie","inputs":{"_0":{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},"_1":{"name":"Porosity","family":"Porosity","unit":"v/v"},"_2":{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m","allowNull":true},"last":2},"parameters":{"_0":{"name":"a","type":"number","value":1,"unit":"unitless"},"_1":{"name":"m","type":"number","value":2,"unit":"unitless"},"_2":{"name":"n","type":"number","value":2,"unit":"unitless"},"_3":{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},"_4":{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"},"last":4},"outputs":[{"name":"Sw_Ar","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Ar","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Ar","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Ar","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Indonesia</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationIndonesia","inputs":{"_0":{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},"_1":{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},"_2":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"_3":{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m","allowNull":true},"last":3},"parameters":{"_0":{"name":"a","type":"number","value":1,"unit":"unitless"},"_1":{"name":"m","type":"number","value":2,"unit":"unitless"},"_2":{"name":"n","type":"number","value":2,"unit":"unitless"},"_3":{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},"_4":{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},"_5":{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"},"last":5},"outputs":[{"name":"Sw_Ind","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Ind","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Ind","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Ind","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Modified Indonesia</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationModifiedIndonesia","inputs":{"_0":{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},"_1":{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},"_2":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"_3":{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m","allowNull":true},"last":3},"parameters":{"_0":{"name":"a","type":"number","value":1,"unit":"unitless"},"_1":{"name":"m","type":"number","value":2,"unit":"unitless"},"_2":{"name":"n","type":"number","value":2,"unit":"unitless"},"_3":{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},"_4":{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},"_5":{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"},"last":5},"outputs":[{"name":"Sw_Imo","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Imo","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Imo","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Imo","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Simandoux</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationSimandoux","inputs":{"_0":{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},"_1":{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},"_2":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"_3":{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m","allowNull":true},"last":3},"parameters":{"_0":{"name":"a","type":"number","value":1,"unit":"unitless"},"_1":{"name":"m","type":"number","value":2,"unit":"unitless"},"_2":{"name":"n","type":"number","value":2,"unit":"unitless"},"_3":{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},"_4":{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},"_5":{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"},"last":5},"outputs":[{"name":"Sw_Sim","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Sim","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Sim","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Sim","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Modified Simandoux</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationModifiedSimandoux","inputs":{"_0":{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},"_1":{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},"_2":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"_3":{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m","allowNull":true},"last":3},"parameters":{"_0":{"name":"a","type":"number","value":1,"unit":"unitless"},"_1":{"name":"m","type":"number","value":2,"unit":"unitless"},"_2":{"name":"n","type":"number","value":2,"unit":"unitless"},"_3":{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},"_4":{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},"_5":{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"},"last":5},"outputs":[{"name":"Sw_Smo","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Smo","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Smo","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Smo","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Juhasz</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationJuhasz","inputs":{"_0":{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},"_1":{"name":"Porosity","family":"Porosity","unit":"v/v"},"_2":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"_3":{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m","allowNull":true},"last":3},"parameters":{"_0":{"name":"m*","type":"number","value":2,"unit":"unitless"},"_1":{"name":"n*","type":"number","value":2,"unit":"unitless"},"_2":{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},"_3":{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},"_4":{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"},"_5":{"name":"PHITsh","type":"number","value":0.35,"unit":"v/v"},"last":5},"outputs":[{"name":"Sw_Juh","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Juh","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Juh","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Juh","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"Qvn","family":"Volumetric CEC","unit":"eq/L"}]}</t>
+  </si>
+  <si>
     <t>Waxman-Smits</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationWaxmanSmits","inputs":{"_0":{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},"_1":{"name":"Porosity","family":"Porosity","unit":"v/v"},"_2":{"name":"Formation Temperature","family":"Formation Temperature","unit":"degF","allowNull":true},"_3":{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m","allowNull":true},"last":3},"parameters":{"_0":{"name":"m*","type":"number","value":2,"unit":"unitless"},"_1":{"name":"n*","type":"number","value":2,"unit":"unitless"},"_2":{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},"_3":{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"},"_4":{"name":"B","type":"number","value":4,"unit":"L.S/eq.m"},"_5":{"name":"Qv","type":"number","value":1,"unit":"eq/L"},"last":5},"outputs":[{"name":"Sw_Wax","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Wax","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Wax","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Wax","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Dual Water</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationDualWater","inputs":{"_0":{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},"_1":{"name":"Total Porosity","family":"Total Porosity","unit":"v/v"},"_2":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"_3":{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m","allowNull":true},"last":3},"parameters":{"_0":{"name":"a","type":"number","value":1,"unit":"unitless"},"_1":{"name":"m*","type":"number","value":2,"unit":"unitless"},"_2":{"name":"n*","type":"number","value":2,"unit":"unitless"},"_3":{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},"_4":{"name":"Rmf","type":"number","value":0.125,"unit":"ohm.m"},"_5":{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},"_6":{"name":"PHITsh","type":"number","value":0.35,"unit":"v/v"},"last":6},"outputs":[{"name":"Sw_Dua","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Dua","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Dua","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Dua","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"Qv","family":"Volumetric CEC","unit":"eq/L"}]}</t>
+  </si>
+  <si>
     <t>Equivalent Effective Sw</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationEffective","inputs":{"_0":{"name":"Total Porosity","family":"Total Porosity","unit":"v/v"},"_1":{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},"_2":{"name":"Total Saturation","family":"Water Saturation","unit":"v/v"},"last":2},"parameters":{"last":-1},"outputs":[{"name":"Sw_E","family":"Water Saturation","unit":"v/v"},{"name":"Bvw_E","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Summaries</t>
   </si>
   <si>
     <t>Clastic</t>
   </si>
   <si>
+    <t>{"other":{"summation":true,"multiple":true,"addParamFlag":true,"inputTemplate":{"name":"Curve","allowNull":true},"paramTemplate":{"name":"Custom Cutoff 4","type":"handsontable","tableType":"condition","value":[{"method":"Value &lt;= Min","min":0.5}],"nameEditable":true},"outputsMultiple":true,"outputFromParameters":true,"outputTemplate":{"name":"CUSTOM_FL","family":"Net Flag","unit":"UNITLESS","parameters":[],"shading":"red"}},"icon":"summation-16x16","function":"calClasticfSummation","inputs":{"_0":{"name":"Shale Volume","unit":"v/v","family":"Shale Volume"},"_1":{"name":"Porosity","unit":"v/v","family":"Porosity"},"_2":{"name":"Water Saturation","unit":"v/v","family":"Water Saturation"},"last":2},"options":{"_0":{"name":"TVD","family":"True Vertical Depth","unit":"m"},"_1":{"name":"TVDSS","family":"True Vertical Depth Sub Sea","unit":"m"},"last":1},"parameters":{"_0":{"id":"Vshale Cutoff","name":"Vshale Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt; Value &lt;= Max","min":0,"max":0.4}]},"_1":{"id":"Phi Cutoff","name":"Phi Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Value &lt; Min or Value &gt;= Max","min":0,"max":0.15}]},"_2":{"id":"SW Cutoff","name":"SW Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt; Value &lt;= Max","min":0,"max":0.6}]},"last":2},"outputs":[{"name":"ROCK","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"}],"shading":"yellow"},{"name":"RES","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"},{"id":"Phi Cutoff"}],"shading":"green"},{"name":"PAY","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"},{"id":"Phi Cutoff"},{"id":"SW Cutoff"}],"shading":"red"}]}</t>
+  </si>
+  <si>
     <t>Multi-Mineral Solver</t>
   </si>
   <si>
+    <t>{"other":{"multiple":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Fluid","type":"Fluid","default":{"DT":189,"NPHI":0.991,"RHOB":1.03,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.3,"min":0}},{"name":"Gas","default":{"DT":265,"NPHI":0.2,"RHOB":0.1,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oil","default":{"DT":210,"NPHI":0.95,"RHOB":0.7,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Water","default":{"DT":189,"NPHI":1,"RHOB":1.05,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"DT":["Peak Slowness","Peak Travel Time","Travel Time","Compressional Slowness","DTC.*","DT","SON.*","AC","DTTP.*","Acoustic"],"RHOB":["Bulk Density","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Corrected ZDL Density","DEN.*","RHOB","RHOZ","ZDEN.*","RHOZ","LDEN","Density"],"GR":["Gamma Ray","Gamma Ray 1","Gamma Ray Normalised","Gamma Ray Shale","Gamma Ray Squared","Russian Gamma Ray","PLT Gamma Ray","GR.*","ECGR.*","SGRC.*","GAM.*","HGR","EGR","SGR"],"NPHI":["Thermal Neutron Near Far Ratio","Compensated Neutron Porosity","Epithermal Neutron Porosity","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Russian Thermal Neutron Porosity","Thermal Neutron Porosity","NEU.*","TNP.*","NPHI.*","CNL.*","CNT.*","Porosity"],"POT":["Potassium Capture Relative Yield","Potassium Concentration","Potassium Radio Nuclide Activity","POT.*","Weight Fraction - Element"],"THOR":["Thorium Concentration","Thorium Radio Nuclide Activity","THOR.*"],"URAN":["Uranium Concentration","Uranium Radio Nuclide Activity","URA.*"],"PAI":[".*"]},"outputConfigs":[{"name":"Minerals","family":"Mineral Volume","unit":"v/v","prefix":"V_"},{"name":"Synthetic Curves","suffix":"_SYN","disableEditing":["family","unit"]}]},"icon":"multi-mineral-solver-16x16","function":"multiMineralSolver","inputs":{"_0":{"name":"Curve"},"last":0},"parameters":{"last":-1},"outputs":[]}</t>
+  </si>
+  <si>
     <t>Gradient</t>
   </si>
   <si>
     <t>Formation Temperature</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"gradient-ftemp-16x16","function":"gradientFTemp","inputs":{"_0":{"name":"Depth","family":"Measured Depth","unit":"m"},"last":0},"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":{"_0":{"name":"Temperature Gradient","type":"number","value":0.03,"unit":"degC/m"},"_1":{"name":"TLI","type":"number","value":0,"unit":"m"},"_2":{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"},"last":2}}</t>
+  </si>
+  <si>
     <t>Log Interval</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"log-interval-ftemp-16x16","function":"logIntervalFTemp","inputs":{"_0":{"name":"Depth","family":"Measured Depth","unit":"m"},"last":0},"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":{"_0":{"name":"TLI","type":"number","value":0,"unit":"m"},"_1":{"name":"BLI","type":"number","value":0,"unit":"m"},"_2":{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"},"_3":{"name":"Bottom Log Temperature","type":"number","value":120,"unit":"degC"},"last":3}}</t>
+  </si>
+  <si>
     <t>Hydrostatic Pressure</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"gradient-fpress-16x16","function":"gradientFPress","inputs":{"_0":{"name":"True Vertical Depth","family":"True Vertical Depth","unit":"m"},"last":0},"outputs":[{"name":"FPRESS","family":"Hydrostatic Pressure","unit":"kPa"}],"parameters":{"_0":{"name":"Pressure Gradient","type":"number","value":9.792,"unit":"kPa/m"},"last":0}}</t>
+  </si>
+  <si>
     <t>Mud Density</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"mud-density-fpress-16x16","function":"mudDensityFPress","inputs":{"_0":{"name":"True Vertical Depth","family":"True Vertical Depth","unit":"m"},"last":0},"outputs":[{"name":"FPRESS","family":"Hydrostatic Pressure","unit":"kPa"}],"parameters":{"_0":{"name":"Drilling Fluid Density","type":"number","value":1,"unit":"kg/m3"},"last":0}}</t>
+  </si>
+  <si>
     <t>Normalized</t>
   </si>
   <si>
     <t>Qv</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"normalized-qv-16x16","function":"normalizeQv","inputs":{"_0":{"name":"Porosity","family":"Porosity","unit":"v/v"},"_1":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"last":1},"outputs":[{"name":"QVn","family":"Normalised Qv","unit":"v/v"}],"parameters":{"_0":{"name":"Porosity Shale","type":"number","value":0.4,"unit":"v/v"},"last":0}}</t>
+  </si>
+  <si>
     <t>Function of CEC</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"cec-qv-16x16","function":"cecQv","inputs":{"_0":{"name":"Porosity","family":"Porosity","unit":"v/v"},"_1":{"name":"CEC","family":"Volumetric CEC","unit":"meq/g"},"_2":{"name":"Grain Density","family":"Grain Density","unit":"g/cm3"},"last":2},"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"}],"parameters":{"last":-1}}</t>
+  </si>
+  <si>
     <t>Water-Bearing Shaly Sand</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"water-bearing-shaly-sands-16x16","function":"qvWaterBearingShalySands","inputs":{"_0":{"name":"Porosity","family":"Porosity","unit":"v/v"},"_1":{"name":"Resistivity","family":"Resistivity","unit":"ohm.m"},"last":1},"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"},{"name":"B","family":"Waxman B","unit":"L.S/eq.m"},{"name":"BQv","family":"Waxman BQv","unit":"S/m"}],"parameters":{"_0":{"name":"B method","type":"select","value":"Use B from formula","choices":["Use B from formula","Use B value"]},"_1":{"name":"B value","type":"number","value":0,"unit":"L.S/m"},"_2":{"name":"Temperature","type":"number","value":25,"unit":"degC"},"_3":{"name":"Water Resistivity","type":"number","value":0.03,"unit":"ohm.m"},"_4":{"name":"a*","type":"number","value":1},"_5":{"name":"m*","type":"number","value":2},"last":5}}</t>
+  </si>
+  <si>
     <t>Water Resistivity from Temperature and Salinity</t>
   </si>
   <si>
     <t>Water Properties</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"rw-from-sanlinity-temp-16x16","function":"RWfromSALandFTemp","inputs":{"_0":{"name":"Formation Temperature","family":"Formation Temperature","unit":"degF"},"_1":{"name":"Salinity","family":"Salinity","unit":"ppm"},"last":1},"outputs":[{"name":"RwX","family":"Formation Water Resistivity","unit":"ohm.m"}],"parameters":{"last":-1}}</t>
+  </si>
+  <si>
     <t>U from Salinity</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"saturated-nacl-from-temp-16x16","function":"UfromSalinity","inputs":{"_0":{"name":"Salinity","family":"Salinity","unit":"ppk"},"last":0},"outputs":[{"name":"U","family":"Volumetric Photoelectric Effect","unit":"barns/cm3"}],"parameters":{"last":-1}}</t>
+  </si>
+  <si>
     <t>Saturated Salinity Concentration from Temperature</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"u-from-salinity-16x16","function":"saturatedSalinityConcentrationfromFTemp","inputs":{"_0":{"name":"Formation Temperature","family":"Formation Temperature","unit":"degF"},"last":0},"outputs":[{"name":"SAL_SAT","family":"Formation Water Salinity","unit":"ppk"}],"parameters":{"last":-1}}</t>
+  </si>
+  <si>
     <t>Mud Salinity and Resistivity</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"mud-salinity-and-resistivity-16x16","function":"mudSalinityAndResistivity","inputs":{"_0":{"name":"Formation Temperature","family":"Formation Temperature","unit":"degC"},"last":0},"outputs":[{"name":"RM","family":"Mud Resistivity","unit":"ohm.m"},{"name":"RMF","family":"Mud Filtrate Resistivity","unit":"ohm.m"},{"name":"RMC","family":"Mudcake Resistivity","unit":"ohm.m"},{"name":"SALM","family":"Mud Salinity","unit":"ppm"},{"name":"SALMF","family":"Mud Filtrate Salinity","unit":"ppm"}],"parameters":{"_0":{"name":"Mud Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},"_1":{"name":"Mud Sample Temperature","type":"number","value":0,"unit":"degC"},"_2":{"name":"Mud Filtrate Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},"_3":{"name":"Mud Filtrate Sample Temperature","type":"number","value":0,"unit":"degC"},"_4":{"name":"Mudcake Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},"_5":{"name":"Mudcake Sample Temperature","type":"number","value":0,"unit":"degC"},"last":5}}</t>
+  </si>
+  <si>
     <t>Bad Hole From Caliper</t>
   </si>
   <si>
     <t>Quality Flag</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"bad-hole-from-caliper-16x16","function":"badHoleFromCaliper","inputs":{"_0":{"name":"Caliper","family":"Caliper","unit":"in"},"_1":{"name":"Bit Size","family":"Bit Size","unit":"in","allowNull":true},"last":1},"outputs":[{"name":"BH_FL_BS","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":{"_0":{"name":"Cutoff","type":"number","value":0.5,"unit":"in"},"_1":{"name":"Bit Size","type":"number","value":12.5,"unit":"in"},"last":1}}</t>
+  </si>
+  <si>
     <t>Bad Hole From DRHO</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"bad-hole-from-drho-16x16","function":"badHoleFromDRHO","inputs":{"_0":{"name":"DENC","family":"Bulk Density Correction","unit":"g/cm3"},"last":0},"outputs":[{"name":"BH_FL_DRHO","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":{"_0":{"name":"Bulk Density Correction Min","type":"number","value":0.1,"unit":"g/cm3"},"_1":{"name":"Bulk Density Correction Max","type":"number","value":0.6,"unit":"g/cm3"},"last":1}}</t>
+  </si>
+  <si>
     <t>Coal Flag</t>
   </si>
   <si>
     <t>Pure Mineral Flag</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"coal-flag-16x16","function":"coalFlag","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},"_1":{"name":"Neutron Porosity","family":"Neutron Porosity","unit":"v/v","allowNull":true},"_2":{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},"_3":{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true},"_4":{"name":"Resistivity","family":"Resistivity","allowNull":true},"last":4},"outputs":[{"name":"COAL_FL","family":"Coal Flag","unit":"UNITLESS"}],"parameters":{"_0":{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":1.2,"max":2.2}]},"_1":{"name":"Neutron Porosity Cutoff","id":"Neutron Porosity Cutoff","type":"handsontable","tableType":"condition","unit":"v/v","value":[{"method":"Min &lt;= Value &lt; Max","min":0.3,"max":0.6}]},"_2":{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":90,"max":150}]},"_3":{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":0.16,"max":0.2}]},"_4":{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":900,"max":1000}]},"last":4}}</t>
+  </si>
+  <si>
     <t>Carbonate Flag</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"carbonate-flag-16x16","function":"carbonateFlag","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},"_1":{"name":"Neutron Porosity","family":"Neutron Porosity","unit":"v/v","allowNull":true},"_2":{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},"_3":{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true},"last":3},"outputs":[{"name":"CARBONATE_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":{"_0":{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.85,"max":3}]},"_1":{"name":"Neutron Porosity Cutoff","id":"Neutron Porosity Cutoff","type":"handsontable","tableType":"condition","unit":"v/v","value":[{"method":"Min &lt;= Value &lt; Max","min":0,"max":1}]},"_2":{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":45,"max":55}]},"_3":{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":5,"max":7}]},"last":3}}</t>
+  </si>
+  <si>
     <t>Halite Flag</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"halite-flag-16x16","function":"haliteFlag","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},"_1":{"name":"Resistivity","family":"Resistivity","unit":"ohm.m","allowNull":true},"_2":{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},"_3":{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true},"last":3},"outputs":[{"name":"HALITE_FL","family":"Halite Flag","unit":"UNITLESS"}],"parameters":{"_0":{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.05,"max":2.15}]},"_1":{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":10000,"max":100000}]},"_2":{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":60,"max":70}]},"_3":{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":4.5,"max":5}]},"last":3}}</t>
+  </si>
+  <si>
     <t>Anhydrite Flag</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"anhydrite-flag-16x16","function":"anhydriteFlag","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},"_1":{"name":"Resistivity","family":"Resistivity","unit":"ohm.m","allowNull":true},"_2":{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},"_3":{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true},"last":3},"outputs":[{"name":"ANHYDRITE_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":{"_0":{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.85,"max":3}]},"_1":{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":10000,"max":100000}]},"_2":{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":55,"max":60}]},"_3":{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":4.5,"max":5}]},"last":3}}</t>
+  </si>
+  <si>
     <t>Custom Flag</t>
   </si>
   <si>
+    <t>{"other":{"multiple":true,"outputTemplate":{"name":"CUSTOM_FL","family":"General Flag","unit":"UNITLESS","parameters":[]},"outputsMultiple":true,"outputFromParameters":true,"addParamFlag":true},"icon":"custom-flag-16x16","function":"customFlag","inputs":{"_0":{"name":"Curve"},"last":0},"outputs":[{"name":"CUSTOM_FL_1","family":"General Flag","unit":"UNITLESS","parameters":[{"id":"Condition 1"}]}],"parameters":{"_0":{"id":"Condition 1","name":"Condition 1","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt;= Value &lt; Max"}],"nameEditable":true},"last":0}}</t>
+  </si>
+  <si>
     <t>TVD Conputation</t>
   </si>
   <si>
+    <t>{"other":{"allowZone":false,"outputDataset":"INDEX"},"icon":"true-vertical-depth-16x16","function":"tvdConvserion","inputs":{"_0":{"name":"Deviation","family":"Hole Deviation","unit":"Deg"},"_1":{"name":"Azimuth","family":"Hole Azimuth","unit":"Deg"},"last":1},"outputs":[{"name":"TVD","family":"True Vertical Depth","unit":"m","disableEditing":"namefamilyunit"},{"name":"TVDSS","family":"True Vertical Depth Sub Sea","unit":"m","disableEditing":"namefamilyunit"},{"name":"XOFFSET","family":"X Offset","unit":"m","disableEditing":"namefamilyunit"},{"name":"YOFFSET","family":"Y Offset","unit":"m","disableEditing":"namefamilyunit"}],"parameters":{"_0":{"name":"TVD Mode","type":"select","choices":["On Shore","Off Shore"],"value":"Off Shore"},"_1":{"name":"Elevator","type":"number","value":0,"unit":"m"},"_2":{"name":"X reference at","type":"number","value":0,"unit":"m"},"_3":{"name":"Y reference at","type":"number","value":0,"unit":"m"},"_4":{"name":"Method","type":"select","choices":["Average Angle","Balanced Tangential","Radius Curvature","Minimum Curvature"],"value":"Minimum Curvature"},"last":4}}</t>
+  </si>
+  <si>
     <t>Basic Operation</t>
   </si>
   <si>
     <t>Scalar Operation</t>
   </si>
   <si>
+    <t>{"other":{"transform":true,"outputConfigs":[{"suffix":"_OUT"}],"allowZone":false},"icon":"basic-operations-16x16","function":"basicOperations","inputs":{"_0":{"name":"Input curve"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Method","type":"select","value":"+","choices":["+","-","*","/"]},"_1":{"name":"Constant","type":"number","value":3.141592653589793},"last":1}}</t>
+  </si>
+  <si>
     <t>Power</t>
   </si>
   <si>
+    <t>{"other":{"transform":true,"outputConfigs":[{"suffix":"_POW"}],"allowZone":false},"icon":"pow-16x16","function":"pow","inputs":{"_0":{"name":"Input curve"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Exponent","type":"number","value":3.141592653589793},"last":0}}</t>
+  </si>
+  <si>
     <t>Round</t>
   </si>
   <si>
+    <t>{"other":{"transform":true,"outputConfigs":[{"suffix":"_ROUND"}],"allowZone":false},"icon":"round-16x16","function":"round","inputs":{"_0":{"name":"Input curve"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Precision","type":"number","value":2},"last":0}}</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
+    <t>{"other":{"transform":true,"outputConfigs":[{"suffix":"_LIMIT"}],"allowZone":false},"icon":"limit-16x16","function":"limit","inputs":{"_0":{"name":"Input curve"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Min","type":"number","value":0},"_1":{"name":"Max","type":"number","value":1},"last":1}}</t>
+  </si>
+  <si>
     <t>Functional Transformation</t>
   </si>
   <si>
     <t>Curve Transformation</t>
   </si>
   <si>
+    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_OUT"}],"allowZone":false},"icon":"functional-transformations-16x16","function":"functionalTransforms","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Method","type":"select","value":"pow10","choices":["pow10","sqrt","loge","log10","abs","inv","acos","asin","atan","cos","sin","tan","exp","exp10"]},"last":0}}</t>
+  </si>
+  <si>
     <t>Curve Derivation</t>
   </si>
   <si>
+    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"name":"First Derivation","suffix":"_1ST_DERIVATION","use":true},{"name":"Second Derivation","suffix":"_2ND_DERIVATION","use":true}],"allowZone":false},"icon":"curve-derivation-16x16","function":"curveDerivation","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"last":-1}}</t>
+  </si>
+  <si>
     <t>Curve Rescaling</t>
   </si>
   <si>
+    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_RESCALING"}],"allowZone":false},"icon":"curve-rescale-16x16","function":"curveRescaling","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Input left scale","type":"number","value":0},"_1":{"name":"Input right scale","type":"number","value":1},"_2":{"name":"Output left scale","type":"number","value":0},"_3":{"name":"Output right scale","type":"number","value":1},"last":3}}</t>
+  </si>
+  <si>
     <t>Curve Filling</t>
   </si>
   <si>
     <t>Curve Interpolation</t>
   </si>
   <si>
+    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_FILLED"}],"allowZone":false},"icon":"curve-fill-data-gaps-16x16","function":"curveFilling","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Gaps Maximum Width","type":"number","value":13},"_1":{"name":"Width Type","type":"select","value":"In samples","choices":["In samples","In reference"]},"_2":{"name":"Mode","type":"select","value":"linear interpolation","choices":["top value","bottom value","linear interpolation","constant"]},"_3":{"name":"Constant","type":"number","value":100},"last":3}}</t>
+  </si>
+  <si>
     <t>Curve Resampling</t>
   </si>
   <si>
+    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_RESAMPLED"}],"allowZone":false},"icon":"curve-resampling-16x16","function":"curveResampling","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Mode","type":"select","choices":["Linear Interpolate","Depth Shift (core)","Block (core)"],"value":"Linear Interpolate"},"last":0}}</t>
+  </si>
+  <si>
     <t>Basic Combination</t>
   </si>
   <si>
     <t>Curve Combination</t>
   </si>
   <si>
+    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"allowZone":false},"icon":"basic-combination-16x16","function":"basicCombinations","inputs":{"_0":{"name":"Curve 1"},"_1":{"name":"Curve 2"},"last":1},"outputs":[{"name":"Combination curve","family":"Compressional Slowness","unit":"us/ft"}],"parameters":{"_0":{"name":"Method","type":"select","value":"+","choices":["+","-","*","/","min","max","average","median"]},"last":0}}</t>
+  </si>
+  <si>
     <t>Linear Combination</t>
   </si>
   <si>
+    <t>{"other":{"multiple":true,"inputTemplate":{"name":"Curve"},"transform":true,"addParamFlag":true,"allowZone":false},"icon":"linear-combination-16x16","function":"linearCombinations","inputs":{"_0":{"name":"Curve 1"},"_1":{"name":"Curve 2"},"last":1},"outputs":[{"name":"Combination curve","family":"Compressional Slowness","unit":"us/ft"}],"parameters":{"_0":{"name":"Coefficient 1","type":"number","value":1},"_1":{"name":"Coefficient 2","type":"number","value":1},"last":1}}</t>
+  </si>
+  <si>
     <t>Median Smoothing</t>
   </si>
   <si>
     <t>Curve Smoothing</t>
   </si>
   <si>
+    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_MED_SM"}],"allowZone":false},"icon":"median-filter-16x16","function":"curveMedianFilter","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Number Of Levels","type":"number","value":5},"last":0}}</t>
+  </si>
+  <si>
     <t>Square Smoothing</t>
   </si>
   <si>
+    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_SQUARE_SM"}],"allowZone":false},"icon":"square-filter-16x16","function":"curveSquareFilter","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Number Of Levels","type":"number","value":5},"last":0}}</t>
+  </si>
+  <si>
     <t>Bell Smoothing</t>
   </si>
   <si>
+    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_BELL_SM"}],"allowZone":false},"icon":"bell-filter-16x16","function":"curveBellFilter","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Number Of Levels","type":"number","value":5},"last":0}}</t>
+  </si>
+  <si>
     <t>Savitsky-Golay Smoothing</t>
   </si>
   <si>
+    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_SAVGOL_SM"}],"allowZone":false},"icon":"savisky-golay-filter-16x16","function":"curveSavGolFilter","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Derivative Order","type":"number","value":0},"_1":{"name":"Polynomial Order","type":"number","value":2},"_2":{"name":"Number Of Points","type":"number","value":5},"last":2}}</t>
+  </si>
+  <si>
     <t>Fast Fourie transform Smoothing</t>
   </si>
   <si>
+    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_FFT_SM"}],"allowZone":false},"icon":"fft-filter-16x16","function":"curveFFTFilter","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Number Of Cutoff","type":"number","value":100},"last":0}}</t>
+  </si>
+  <si>
     <t>Curve Convolution</t>
   </si>
   <si>
+    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_CONV_SM"}],"allowZone":false,"paramMultiple":true},"icon":"curve-convolution-16x16","function":"curveConvolution","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Coefficient 1","type":"number","value":0.33,"removeable":false},"_1":{"name":"Coefficient 2","type":"number","value":0.33,"removeable":false},"_2":{"name":"Coefficient 3","type":"number","value":0.33,"removeable":false},"last":2}}</t>
+  </si>
+  <si>
     <t>Curve Deconvolution</t>
   </si>
   <si>
+    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_DECONV_SM"}],"allowZone":false,"paramMultiple":true},"icon":"curve-deconvolution-16x16","function":"curveDeconvolution","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Coefficient 1","type":"number","value":1,"removeable":false},"_1":{"name":"Coefficient 2","type":"number","value":0,"removeable":false},"_2":{"name":"Coefficient 3","type":"number","value":1,"removeable":false},"last":2}}</t>
+  </si>
+  <si>
     <t>Non-poro Sw</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationNonPoro","inputs":{"_0":{"name":"Micro Resistivity","family":"Micro Resistivity","unit":"ohm.m"},"_1":{"name":"Resistivity","family":"Resistivity","unit":"ohm.m"},"last":1},"parameters":{"_0":{"name":"Rw","type":"number","value":0.03},"_1":{"name":"Rmf","type":"number","value":0.1},"last":1},"outputs":[{"name":"Sw_QL","family":"Water Saturation","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Merge Curve</t>
   </si>
   <si>
+    <t>{"other":{"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_MERGED"}],"allowZone":false},"icon":"linear-combination-16x16","function":"mergedCurve","inputs":{"_0":{"name":"Curve 1"},"_1":{"name":"Curve 2"},"last":1},"parameters":{"_0":{"name":"overlap","type":"select","choices":["position","mean"],"value":"position"},"last":0},"outputs":[]}</t>
+  </si>
+  <si>
     <t>Block Parameter - Secondary Porosity</t>
   </si>
   <si>
     <t>Basement</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"block-value-16x16","function":"calBlockParameter","inputs":{"_0":{"name":"Total Porosity","unit":"v/v","family":"Total Porosity"},"_1":{"name":"Compressional Slowness","unit":"us/ft","family":"Compressional Slowness"},"_2":{"name":"Resistivity","unit":"ohm.m","family":"Resistivity","allowNull":true},"last":2},"parameters":{"_0":{"name":"Block Porosity","type":"number","value":0.003,"unit":"v/v","color":"red"},"_1":{"name":"Block Sonic","type":"number","value":54,"unit":"us/ft","color":"green"},"_2":{"name":"Macro Sonic","type":"number","value":62,"unit":"us/ft","color":"#F0F"},"_3":{"name":"Block Resistivity","type":"number","value":2000,"unit":"ohm.m"},"_4":{"name":"Macro Resistivity","type":"number","value":200,"unit":"ohm.m"},"last":4},"outputs":[{"name":"PHI_BLK","family":"Block Porosity","unit":"v/v"},{"name":"DT_BLK","family":"Compressional Slowness","unit":"us/ft"},{"name":"DT_MAC","family":"Compressional Slowness","unit":"us/ft"},{"name":"RES_BLK","family":"Resistivity","unit":"ohm.m"},{"name":"RES_MAC","family":"Resistivity","unit":"ohm.m"},{"name":"PHI_2","family":"Secondary Porosity","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Fracture and vug Porosity</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"fracture-porosity-16x16","function":"calFracturenVugPorosity","inputs":{"_0":{"name":"Shallow Resistivity","unit":"ohm.m","family":"Shallow Resistivity"},"_1":{"name":"Secondary Porosity","unit":"v/v","family":"Secondary Porosity"},"_4":{"name":"Formation Temperature","unit":"degC","family":"Formation Temperature"},"last":4},"parameters":{"_1":{"name":"Mud Filtrate Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},"_2":{"name":"Mud Filtrate Sample Temperature","type":"number","value":0,"unit":"degC"},"last":2},"outputs":[{"name":"PHI_V","family":"Vug Porosity","unit":"v/v"},{"name":"PHI_FR","family":"Fracture Porosity","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Macro and micro zone</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"fft-mmp-16x16","function":"calMacronMicroZone","inputs":{"_0":{"name":"Secondary Porosity","unit":"v/v","family":"Secondary Porosity"},"_1":{"name":"Fracture Porosity","unit":"v/v","family":"Fracture Porosity"},"_2":{"name":"Compressional Slowness","unit":"us/ft","family":"Compressional Slowness"},"_3":{"name":"Block Sonic","unit":"us/ft","family":"Compressional Slowness"},"_4":{"name":"Macro Sonic","unit":"us/ft","family":"Compressional Slowness"},"_5":{"name":"Resistivity","unit":"ohm.m","family":"Resistivity"},"_6":{"name":"Block Resistivity","unit":"ohm.m","family":"Resistivity","allowNull":true},"_7":{"name":"Macro Resistivity","unit":"ohm.m","family":"Resistivity","allowNull":true},"last":7},"parameters":{"_0":{"name":"Block Resistivity","type":"number","value":2000,"unit":"ohm.m"},"_1":{"name":"Macro Resistivity","type":"number","value":200,"unit":"ohm.m"},"_2":{"name":"Fracture Porosity Cutoff","type":"number","value":0.0005,"unit":"v/v"},"last":2},"outputs":[{"name":"F_MAC","family":"General Flag","unit":"unitless"},{"name":"F_MIC","family":"General Flag","unit":"unitless"},{"name":"PHI_2_MAC","family":"Macro Secondary Porosity","unit":"v/v"},{"name":"PHI_2_MIC","family":"Micro Secondary Porosity","unit":"v/v"},{"name":"PHI_FR_MAC","family":"Macro Fracture Porosity","unit":"v/v"},{"name":"PHI_FR_MIC","family":"Micro Fracture Porosity","unit":"v/v"},{"name":"PHI_2_FIL","family":"Secondary Porosity","unit":"v/v"},{"name":"PHI_FR_FIL","family":"Fracture Porosity","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Residue Water Saturation</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"residual-water-saturation-16x16","function":"calResidueWaterSaturation","inputs":{"_0":{"name":"Macro Flag","unit":"unitless","family":"General Flag"},"_1":{"name":"Micro Flag","unit":"unitless","family":"General Flag"},"last":1},"parameters":{"_0":{"name":"A","type":"number","value":-1.8475},"_1":{"name":"B","type":"number","value":0.1415},"_2":{"name":"C","type":"number","value":1.8862},"_3":{"name":"Swr_cutoff","type":"number","value":0.76,"unit":"v/v"},"last":3},"outputs":[{"name":"SWR","family":"Residual Water Saturation","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Permeability</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"permeability-16x16","function":"calPermeability","inputs":{"_0":{"name":"Compressional Slowness","unit":"us/ft","family":"Compressional Slowness"},"_1":{"name":"Block Sonic","unit":"us/ft","family":"Compressional Slowness"},"_2":{"name":"Secondary Porosity","unit":"v/v","family":"Secondary Porosity"},"_3":{"name":"Residual Water Saturation","unit":"v/v","family":"Residual Water Saturation","allowNull":true},"last":3},"parameters":{"_0":{"name":"Residual Water Saturation","type":"number","value":0.85,"unit":"v/v"},"_1":{"name":"a","type":"number","value":264},"_2":{"name":"b","type":"number","value":0.689},"last":2},"outputs":[{"name":"PERM","family":"Permeability","unit":"mD"}]}</t>
+  </si>
+  <si>
     <t>Cutoff and Summation</t>
   </si>
   <si>
+    <t>{"other":{"summation":true},"icon":"cutoff-and-summation-16x16","function":"calBasementSummation","inputs":{"_0":{"name":"Secondary Porosity","unit":"v/v","family":"Secondary Porosity"},"_1":{"name":"Fracture Porosity","unit":"v/v","family":"Fracture Porosity"},"_2":{"name":"Macro Flag","unit":"unitless","family":"General Flag"},"_3":{"name":"Micro Flag","unit":"unitless","family":"General Flag"},"_4":{"name":"Permeability","unit":"mD","family":"Permeability"},"_5":{"name":"Residual Water Saturation","unit":"v/v","family":"Residual Water Saturation"},"last":5},"options":{"_0":{"name":"TVD"},"_1":{"name":"TVDSS"},"last":1},"parameters":{"_0":{"name":"Secondary Porosity Cutoff","type":"number","value":0.003,"unit":"v/v"},"_1":{"name":"Fracture Porosity Cutoff","type":"number","value":0.0005,"unit":"v/v"},"_2":{"name":"Perm Cutoff","type":"number","value":0,"unit":"mD"},"last":2},"outputs":[{"name":"F_PAY","family":"General Flag","unit":"unitless"},{"name":"FINDEX","family":"Flow Index","unit":"unitless"}]}</t>
+  </si>
+  <si>
     <t>Mechanical stratigraphy flag from GR</t>
   </si>
   <si>
     <t>Geomechanic</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"mechanical-stratigraphy-flag-form-gr-16x16","function":"calMechanicalStratigralyFlagFormGR","inputs":{"_0":{"name":"Gamma Ray","unit":"gAPI","family":"Gamma Ray"},"last":0},"parameters":{"_0":{"name":"Threshold","type":"number","value":75,"unit":"gAPI"},"last":0},"outputs":[{"name":"SHALE_FLAG","family":"Mechanical Stratigraphy Flag","unit":"unitless"}]}</t>
+  </si>
+  <si>
     <t>Dynamic Properties</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calDynamicProperties","inputs":{"_0":{"name":"Bulk Density","unit":"gAPI","family":"Bulk Density"},"_1":{"name":"Compressional Slowness","unit":"us/ft","family":"Compressional Slowness"},"_2":{"name":"Shear Slowness","unit":"us/ft","family":"Shear Slowness"},"last":2},"parameters":{},"outputs":[{"name":"VELC","family":"Compressional Velocity","unit":"ft/s"},{"name":"VELS","family":"Shear Velocity","unit":"ft/s"},{"name":"PR_DYN","family":"Poisson Ratio (Dynamic)","unit":"unitless"},{"name":"YM_DYN","family":"Young's Modulus (Dynamic)","unit":"Mpsi"}]}</t>
+  </si>
+  <si>
     <t>Bradford et al. (1998) for Sand</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"static-young-modulus-16x16","function":"calMethodBradfordEtAlForSand","inputs":{"_0":{"name":"Young's Modulus (Dynamic)","unit":"Mpsi","family":"Young's Modulus (Dynamic)"},"_1":{"name":"Mechanical Stratigraphy Flag","unit":"unitless","family":"Mechanical Stratigraphy Flag","allowNull":true},"last":1},"parameters":{"_0":{"name":"Apply for flag =","type":"select","choices":[0,1,null,"Any"],"value":0},"last":0},"outputs":[{"name":"YM_STA_BRAD","family":"Young's Modulus (Static)","unit":"Mpsi"}]}</t>
+  </si>
+  <si>
     <t>Horsrud (2001) for Shale</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"static-young-modulus-16x16","function":"calHorsrudForSale","inputs":{"_0":{"name":"Compressional slowness","unit":"us/ft","family":"Compressional slowness"},"_1":{"name":"Mechanical Stratigraphy Flag","unit":"unitless","family":"Mechanical Stratigraphy Flag","allowNull":true},"last":1},"parameters":{"_0":{"name":"Apply for flag =","type":"select","choices":[0,1,null,"Any"],"value":0},"last":0},"outputs":[{"name":"YM_STA_HORS","family":"Young's Modulus (Static)","unit":"Mpsi"}]}</t>
+  </si>
+  <si>
     <t>Lacy (1997)</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"static-young-modulus-16x16","function":"calLacy","inputs":{"_0":{"name":"Young's Modulus (Dynamic)","family":"Young's Modulus (Dynamic)","unit":"Mpsi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless"},"last":1},"parameters":{"_0":{"name":"Sand with flag ","type":"select","choices":[0,1],"value":0},"_1":{"name":"Shale with flag ","type":"select","choices":[0,1],"value":0},"last":1},"outputs":[{"name":"YM_STA_LACY","family":"Young's Modulus (Static)","unit":"Mpsi"}]}</t>
+  </si>
+  <si>
     <t>SYM Combiner</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"","function":"","inputs":{"_0":{"name":"Young's Modulus (Static)","family":"Young's Modulus (Static)","unit":"Mpsi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless"},"last":1},"parameters":{"_0":{"name":"","type":"select","choices":[0,1],"value":0},"_1":{"name":"","type":"select","choices":[0,1],"value":0},"_2":{"name":"","type":"select","choices":[0,1],"value":0},"_3":{"name":"","type":"select","choices":[0,1],"value":0},"last":3},"outputs":[{"name":"","family":"","unit":""}]}</t>
+  </si>
+  <si>
     <t>Static Poisson's Ratio</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"static-poisson-ratio-16x16","function":"calDynamicPoissonRatio","inputs":{"_0":{"name":"Poisson Ratio (Dynamic)","family":"Poisson Ratio (Dynamic)","unit":"unitless"},"last":0},"parameters":{"_0":{"name":"PR multiplier","type":"number","value":1,"unit":"unitless"},"last":0},"outputs":[{"name":"PR_STA","family":"Poisson Ratio (Static)","unit":"unitless"}]}</t>
+  </si>
+  <si>
     <t>Static Bulk and Shear Modulus</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"static-bulk-and-shear-modulus-16x16","function":"calStaticBulkShearModulus","inputs":{"_0":{"name":"Young's Modulus (Static)","family":"Young's Modulus (Static)","unit":"Mpsi"},"_1":{"name":"Poisson Ratio (Static)","family":"Poisson Ratio (Static)","unit":"unitless"},"last":1},"parameters":{},"outputs":[{"name":"SM_STA","family":"Shear Modulus (Static)","unit":"Mpsi"},{"name":"BM_STA","family":"Bulk Modulus (Static)","unit":"Mpsi"}]}</t>
+  </si>
+  <si>
     <t>Mepro Alpha Model</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calMeproAlphaModel","inputs":{"_0":{"name":"Bulk Modulus (Static)","family":"Bulk Modulus (Static)","unit":"Mpsi"},"_1":{"name":"Grain Bulk Modulus","family":"Grain Bulk Modulus","unit":"Mpsi","allowNull":true},"_2":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":2},"parameters":{"_0":{"name":"Grain Bulk Modulus","type":"number","value":5.37,"unit":"Mpsi"},"_1":{"name":"Apply for flag =","type":"select","choices":[0,1,null,"Any"],"value":0},"last":1},"outputs":[{"name":"ALPHA","family":"Biot Coefficient","unit":"unitless"}]}</t>
+  </si>
+  <si>
     <t>Alpha combiner</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calAlphaCombinerWFlagOrZone","inputs":{"_0":{"name":"Biot Coefficient","family":"Biot Coefficient","unit":"unitless"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Alpha when Flag = 1","type":"","value":0},"_1":{"name":"","type":"","value":0},"_2":{"name":"","type":"","value":0},"_3":{"name":"","type":"","value":0},"last":3},"outputs":[{"name":"","family":"","unit":""}]}</t>
+  </si>
+  <si>
     <t>Asadi et al. (2016) for Sand</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calAsadiEtAlForSand","inputs":{"_0":{"name":"Neutron Porosity","family":"Neutron Porosity","unit":"v/v"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_ASADI","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calBradFordEtAlForSand","inputs":{"_0":{"name":"Young's Modulus (Static)","family":"Young's Modulus (Static)","unit":"psi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_Brad","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Chang et al. (2006) #3 for Sand</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl3ForSand","inputs":{"_0":{"name":"Compressional slowness","family":"Compressional slowness","unit":"us/ft"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_Chang3","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Chang et al. (2006) #6 for Sand</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl6ForSand","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cc"},"_1":{"name":"Compressional velocity","family":"Compressional velocity","unit":"ft/s"},"_2":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":2},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_Chang6","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Chang et al. (2006) #7 for Sand</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl7ForSand","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cc"},"_1":{"name":"Compressional velocity","family":"Compressional velocity","unit":"ft/s"},"_2":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":2},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_Chang7","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Chang et al. (2006) #8 for Sand</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl8ForSand","inputs":{"_0":{"name":"Young's Modulus (Static)","family":"Young's Modulus (Static)","unit":"Mpsi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_Chang8","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Chang et al. (2006) #11 for Sand</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl11ForSand","inputs":{"_0":{"name":"Neutron porosity","family":"Neutron porosity","unit":"v/v"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_Chang11","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Freyburg (1972) for Sand</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calFreyburgForSand","inputs":{"_0":{"name":"Compressional Velocity","family":"Compressional Velocity","unit":"ft/s"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_FREY","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Lacy (1997) for Sand</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calLacyForSand","inputs":{"_0":{"name":"Young's Modulus (Static)","family":"Young's Modulus (Static)","unit":"Mpsi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_LACY","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>McNally (1987) for Sand</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calMcNallyForSandInputs","inputs":{"_0":{"name":"Compressional slowness","family":"Compressional slowness","unit":"us/ft"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_MC","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Moos et al. (1999) for Sand</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calMoosEtAlForSand","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cc"},"_1":{"name":"Compressional velocity","family":"Compressional velocity","unit":"ft/s"},"_2":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":2},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_MOOS","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Plumb (1994) for Sand</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calPlumbForSand","inputs":{"_0":{"name":"Young's Modulus (Static)","family":"Young's Modulus (Static)","unit":"Mpsi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_PLUMB","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Vernik et al. (1993) for Sand</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calVernikEtAlForSand","inputs":{"_0":{"name":"Neutron porosity","family":"Neutron porosity","unit":"v/v"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_VER","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Chang et al. (2006) #13 for Shale</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl13ForShale","inputs":{"_0":{"name":"Compressional slowness","family":"Compressional slowness","unit":"us/ft"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_CHANG13","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Chang et al. (2006) #14 for Shale</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl14ForShale","inputs":{"_0":{"name":"Compressional slowness","family":"Compressional slowness","unit":"us/ft"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_CHANG14","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Chang et al. (2006) #15 for Shale</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl15ForShale","inputs":{"_0":{"name":"Compressional slowness","family":"Compressional slowness","unit":"us/ft"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_CHANG15","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Chang et al. (2006) #18 for Shale</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl18ForShale","inputs":{"_0":{"name":"Young's Modulus (Static)","family":"Young's Modulus (Static)","unit":"Mpsi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_CHANG18","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Chang et al. (2006) #21 for Shale</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl21ForShale","inputs":{"_0":{"name":"Neutron porosity","family":"Neutron porosity","unit":"v/v"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_CHANG21","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Horsrud (2001) DT for Shale</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calHorsrudDTForShale","inputs":{"_0":{"name":"Compressional slowness","family":"Compressional slowness","unit":"us/ft"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_HOR_DT","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Horsrud (2001) Es for Shale</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calHorsrudEsForShale","inputs":{"_0":{"name":"Young's Modulus (Static)","family":"Young's Modulus (Static)","unit":"Mpsi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_HOR_ES","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Horsrud (2001) PHI for Shale</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calHorsrudPhiForShale","inputs":{"_0":{"name":"Neutron porosity","family":"Neutron porosity","unit":"v/v"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_HOR_PHI","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Khaksar et al. (2009) for Shale</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calKhaksarEtAlForShale","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cc"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_KHA","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Lal (1999) for Shale</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calLalForShaleUCS","inputs":{"_0":{"name":"Compressional slowness","family":"Compressional slowness","unit":"us/ft"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_LAL","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Lashkaripour and Dusseault (1993) for Shale</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calLashkaripourDusseaultForShale","inputs":{"_0":{"name":"Neutron porosity","family":"Neutron porosity","unit":"v/v"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_LASH","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t xml:space="preserve">UCS combiner </t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calUCSCombinerWFlagOrZone","inputs":{"_0":{"name":"Unconfined Compressive Strength","family":"Unconfined Compressive Strength","unit":"psi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"","type":"","value":0},"last":0},"outputs":[{"name":"USC_COM","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calLalForShaleIFA","inputs":{"_0":{"name":"Compressional Velocity","family":"Compressional Velocity","unit":"ft/s"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"IFA_LAL","family":"Internal Friction Angle","unit":"deg"}]}</t>
+  </si>
+  <si>
     <t>Weingarten and Perkins (1995) for Sand</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calWeingartenPerkinsForSand","inputs":{"_0":{"name":"Neutron porosity","family":"Neutron porosity","unit":"v/v"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"IFA_WEI","family":"Internal Friction Angle","unit":"deg"}]}</t>
+  </si>
+  <si>
     <t>IFA combiner</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calIFACombinerWFlagOrZone","inputs":{"_0":{"name":"Internal Friction Angle","family":"Internal Friction Angle","unit":"deg"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"IFA_COM","family":"Internal Friction Angle","unit":"deg"}]}</t>
+  </si>
+  <si>
     <t>Cohesion from UCS and IFA</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"cohension-from-ucs-ifa-16x16","function":"calCohesionFromUCSAndIFA","inputs":{"_0":{"name":"Internal Friction Angle","family":"Internal Friction Angle","unit":"deg"},"_1":{"name":"Unconfined Compressive Strength","family":"Unconfined Compressive Strengpsith","unit":"psi"},"last":1},"parameters":{},"outputs":[{"name":"COHESION","family":"Cohesion Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Tensile Strength from UCS</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"tensile-strength-from-ucs-16x16","function":"calTensileStrengthFromUCS","inputs":{"_0":{"name":"Unconfined Compressive Strength","family":"Unconfined Compressive Strength","unit":"psi"},"last":0},"parameters":{"_0":{"name":"UCS multiplier","type":"number","unit":"unitless","value":0.1},"last":0},"outputs":[{"name":"TSTR","family":"Tensile Strength","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Gardner</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calGardner","inputs":{"_0":{"name":"Compressional Velocity","family":"Compressional Velocity","unit":"ft/s"},"last":0},"parameters":{"_0":{"name":"a","type":"number","unit":"unitless","value":0.23},"_1":{"name":"b","type":"number","unit":"unitless","value":0.25},"last":1},"outputs":[{"name":"DEN_GARD","family":"Bulk Density","unit":"g/cc"}]}</t>
+  </si>
+  <si>
     <t>Bellotti for Consolidated Soil</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calBellottiConsolidated","inputs":{"_0":{"name":"Compressional Velocity","family":"Compressional Velocity","unit":"ft/s"},"last":0},"parameters":{},"outputs":[{"name":"DEN_BEL_CONSOLID","family":"Bulk Density","unit":"g/cc"}]}</t>
+  </si>
+  <si>
     <t>Bellotti for Unconsolidated Soil</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calBellottiUnconsolidated","inputs":{"_0":{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"us/ft"},"last":0},"parameters":{},"outputs":[{"name":"DEN_BEL_UNCOSOLID","family":"Bulk Density","unit":"g/cc"}]}</t>
+  </si>
+  <si>
     <t>Lindseth</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calLindseth","inputs":{"_0":{"name":"Compressional Velocity","family":"Compressional Velocity","unit":"ft/s"},"last":0},"parameters":{},"outputs":[{"name":"DEN_LIND","family":"Bulk Density","unit":"g/cc"}]}</t>
+  </si>
+  <si>
     <t>Linear</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calLinear","inputs":{"_0":{"name":"True vertical depth","family":"True vertical depth","unit":"m"},"last":0},"parameters":{"_0":{"name":"KB height","type":"number","unit":"m","value":0},"_1":{"name":"Water depth","type":"number","unit":"m","value":0},"_2":{"name":"Top RHOB","type":"number","unit":"g/cc","value":1.88},"_3":{"name":"Bottom depth","type":"number","unit":"m","value":4000},"_4":{"name":"Bottom RHOB","type":"number","unit":"g/cc","value":2.55},"last":4},"outputs":[{"name":"DEN_LINEAR","family":"Bulk Density","unit":"g/cc"}]}</t>
+  </si>
+  <si>
     <t>Power Law</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calPowerLaw","inputs":{"_0":{"name":"True vertical depth","family":"True vertical depth","unit":"m"},"last":0},"parameters":{"_0":{"name":"KB height","type":"number","unit":"m","value":0},"_1":{"name":"Water depth","type":"number","unit":"m","value":0},"_2":{"name":"Top RHOB","type":"number","unit":"g/cc","value":1.88},"_3":{"name":"Bottom depth","type":"number","unit":"m","value":4000},"_4":{"name":"Bottom RHOB","type":"number","unit":"g/cc","value":2.55},"last":4},"outputs":[{"name":"DEN_POWER","family":"Bulk Density","unit":"g/cc"}]}</t>
+  </si>
+  <si>
     <t>Hubbert and Willis</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calHubbertWillis","inputs":{"_0":{"name":"Vertical Stress","family":"Vertical Stress","unit":"psi"},"_1":{"name":"Pore Pressure","family":"Pore Pressure","unit":"psi"},"last":1},"parameters":{},"outputs":[{"name":"SHMIN_HUB","family":"Minimum Horizontal Stress","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Eaton</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calEaton","inputs":{"_0":{"name":"Vertical Stress","family":"Vertical Stress","unit":"psi"},"_1":{"name":"Pore Pressure","family":"Pore Pressure","unit":"psi"},"_2":{"name":"Poisson Ratio (Static)","family":"Poisson Ratio (Static)","unit":"unitless"},"last":2},"parameters":{},"outputs":[{"name":"SHMIN_EATON","family":"Minimum Horizontal Stress","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>ESR and Terzaghi Effective Stress</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calMinESRTerzaghiEffectiveStress","inputs":{"_0":{"name":"Vertical Stress","family":"Vertical Stress","unit":"psi"},"_1":{"name":"Pore Pressure","family":"Pore Pressure","unit":"psi"},"_2":{"name":"Minimum Horizontal Effective Stress Ratio","family":"Minimum Horizontal Effective Stress Ratio","unit":"unitless","allowNull":true},"last":2},"parameters":{"_0":{"name":"Minimum Horizontal Effective Stress Ratio","type":"number","unit":"unitless","value":0.7},"last":0},"outputs":[{"name":"SHMIN_TER","family":"Minimum Horizontal Stress","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>ESR and Biot Coefficient</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calMinESRBiotCoefficient","inputs":{"_0":{"name":"Vertical Stress","family":"Vertical Stress","unit":"psi"},"_1":{"name":"Pore Pressure","family":"Pore Pressure","unit":"psi"},"_2":{"name":"Biot Coefficient","family":"Biot Coefficient","unit":"unitless"},"_3":{"name":"Minimum Horizontal Effective Stress Ratio","family":"Minimum Horizontal Effective Stress Ratio","unit":"unitless","allowNull":true},"last":3},"parameters":{"_0":{"name":"Minimum Horizontal Effective Stress Ratio","type":"number","unit":"unitless","value":0.7},"last":0},"outputs":[{"name":"SHMIN_BIOT","family":"Minimum Horizontal Stress","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Poro-Elastic Uniaxial Strain Model</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calPoroElasticUniaxialStrainModel","inputs":{"_0":{"name":"Vertical Stress","family":"Vertical Stress","unit":"psi"},"_1":{"name":"Pore Pressure","family":"Pore Pressure","unit":"psi"},"_2":{"name":"Biot Coefficient","family":"Biot Coefficient","unit":"unitless"},"_3":{"name":"Poisson Ratio (Static)","family":"Poisson Ratio (Static)","unit":"unitless"},"last":3},"parameters":{},"outputs":[{"name":"SHMIN_UNIAXIAL","family":"Minimum Horizontal Stress","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Function of Shmin</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calFunctionOfShmin","inputs":{"_0":{"name":"Minimum Horizontal Stress","family":"Minimum Horizontal Stress","unit":"psi"},"last":0},"parameters":{"_0":{"name":"Multiplier","type":"number","unit":"unitless","value":1},"last":0},"outputs":[{"name":"SHMAX_SHMIN","family":"Maximum Horizontal Stress","unit":"psi"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calFunctionOfShmin","inputs":{"_0":{"name":"Vertical Stress","family":"Vertical Stress","unit":"psi"},"_1":{"name":"Pore Pressure","family":"Pore Pressure","unit":"psi"},"_2":{"name":"Maximum Horizontal Effective Stress Ratio","family":"Maximum Horizontal Effective Stress Ratio","unit":"unitless","allowNull":true},"last":2},"parameters":{"_0":{"name":"Maximum Horizontal Effective Stress Ratio","type":"number","unit":"unitless","value":0.8},"last":0},"outputs":[{"name":"SHMAX_TER","family":"Maximum Horizontal Stress","unit":"psi"}]}</t>
+  </si>
+  <si>
     <t>Stress Correction</t>
   </si>
   <si>
     <t>Pc Modeling</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calStressCorrection","inputs":{"_0":{"name":"Sw_lab","family":"Core Water Saturation (Array)","unit":"v/v"},"_1":{"name":"Pc_lab","family":"Capillary Pressure Laboratory (Array)","unit":"bar"},"last":1},"parameters":{"_0":{"name":"PhiRes/PhiLab","type":"number","value":0.95},"last":0},"outputs":[{"name":"PC_STRESS_CORR","family":"Capillary Pressure Laboratory (Array)","unit":"bar"},{"name":"SW_STRESS_CORR","family":"Core Water Saturation (Array)","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Clay Bound Correction</t>
   </si>
   <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calClayBoundCorrection","inputs":{"_0":{"name":"Sw_lab","family":"Core Water Saturation (Array)","unit":"v/v"},"_1":{"name":"Pc_lab","family":"Capillary Pressure Laboratory (Array)","unit":"bar"},"_2":{"name":"Qv","family":"Normalized Qv","unit":"1/L"},"last":2},"parameters":{"_0":{"name":"Salinity","type":"number","unit":"ppm","value":35},"last":0},"outputs":[{"name":"PC_CB_CORR","family":"Capillary Pressure Laboratory (Array)","unit":"bar"},{"name":"SW_CB_CORR","family":"Core Water Saturation (Array)","unit":"v/v"}]}</t>
+  </si>
+  <si>
     <t>Pore Size Distribution</t>
   </si>
   <si>
@@ -491,397 +875,13 @@
     <t>Saturation Height Function</t>
   </si>
   <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calSaturationHeightFunction","inputs":{"_0":{"name":"True Vertical Depth Sub Sea","family":"True Vertical Depth Sub Sea","unit":"m"},"_1":{"name":"Porosity","family":"Porosity","unit":"v/v"},"_2":{"name":"Permeability","family":"Permeability","unit":"mD"},"_3":{"name":"Saturation","family":"Saturation","unit":"v/v","allowNull":true},"last":3},"parameters":{"_0":{"name":"FWL(TVDSS)","type":"number"},"_1":{"name":"Hydro Carbon density","type":"number","value":0.7},"_2":{"name":"Water density","type":"number","value":1},"_3":{"name":"Sigma*CosTheta","type":"number","value":1},"_4":{"name":"Function","type":"select","choices":["J Lambda","J Hyperbola","J Exponential","J Modified Lambda","J Modified Hyperbola","J Modified Exponential","Corey - Brooks"],"value":"J Lambda"},"_5":{"name":"m","type":"number"},"_6":{"name":"a","type":"number"},"_7":{"name":"lambda","type":"number"},"_8":{"name":"b","type":"number"},"last":8},"outputs":[{"name":"SW","family":"Saturation","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"clay-volume-16x16","function":"calVSHfromGR","inputs":{"_0":{"name":"Gamma Ray","unit":"gAPI","family":"Gamma Ray"},"last":0},"parameters":{"_0":{"name":"GR clean","type":"number","value":10,"unit":"gAPI","color":"red"},"_1":{"name":"GR shale","type":"number","value":120,"unit":"gAPI","color":"green"},"_2":{"name":"Method","type":"select","value":"Linear","choices":["Linear","Clavier","Larionov Tertiary rocks","Larionov older rocks","Stieber variation I","Stieber - Miocene and Pliocene","Stieber variation II"]},"last":2},"outputs":[{"name":"VSH_GR","family":"Shale Volume","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{"overlay_line":"Schlumberger Den/Neut Corr. Rhof 1.0","scaleLeft":-0.15,"scaleRight":0.45,"scaleBottom":3,"scaleTop":2},"icon":"clay-volume-16x16","function":"calVSHfromND","inputs":{"_0":{"name":"Neutron Porosity","unit":"v/v","family":"Neutron Porosity"},"_1":{"name":"Bulk Density","unit":"g/cm3","family":"Bulk Density"},"last":1},"parameters":{"_0":{"name":"NPHI_clean_2","type":"number","value":0.25,"unit":"v/v"},"_1":{"name":"NPHI_shale","type":"number","value":0.4,"unit":"v/v","color":"green"},"_2":{"name":"NPHI_clean_1","type":"number","value":-0.01,"unit":"v/v"},"_3":{"name":"RHOB_clean_2","type":"number","value":2.2,"unit":"g/cm3"},"_4":{"name":"RHOB_shale","type":"number","value":2.4,"unit":"g/cm3","color":"red"},"_5":{"name":"RHOB_clean_1","type":"number","value":2.65,"unit":"g/cm3"},"last":5},"outputs":[{"name":"VSH_ND","family":"Shale Volume","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{"overlay_line":"Schlumberger Neut/Sonic Wylie Dtf 189","scaleLeft":-0.15,"scaleRight":0.45,"scaleBottom":40,"scaleTop":140},"icon":"clay-volume-16x16","function":"calVSHfromNS","inputs":{"_0":{"name":"Neutron Porosity","unit":"v/v","family":"Neutron Porosity"},"_1":{"name":"Compressional Slowness","unit":"us/ft","family":"Compressional Slowness"},"last":1},"parameters":{"_0":{"name":"NPHI_clean_2","type":"number","value":0.25,"unit":"v/v"},"_1":{"name":"NPHI_shale","type":"number","value":0.4,"unit":"v/v","color":"green"},"_2":{"name":"NPHI_clean_1","type":"number","unit":"v/v","value":-0.01},"_3":{"name":"DT_clean_2","type":"number","value":90,"unit":"g/cm3"},"_4":{"name":"DT_shale","type":"number","value":100,"unit":"g/cm3","color":"#F0F"},"_5":{"name":"DT_clean_1","type":"number","value":55,"unit":"g/cm3"},"last":5},"outputs":[{"name":"VSH_NS","family":"Shale Volume","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{"overlay_line":"Den/Sonic Wylie Rhof 1.0","scaleLeft":40,"scaleRight":140,"scaleBottom":3,"scaleTop":2},"icon":"clay-volume-16x16","function":"calVSHfromDS","inputs":{"_0":{"name":"Compressional Slowness","unit":"us/ft","family":"Compressional Slowness"},"_1":{"name":"Bulk Density","unit":"g/cm3","family":"Bulk Density"},"last":1},"parameters":{"_0":{"name":"DT_clean_2","type":"number","value":90,"unit":"us/ft"},"_1":{"name":"DT_shale","type":"number","value":100,"unit":"us/ft","color":"#F0F"},"_2":{"name":"DT_clean_1","type":"number","value":50,"unit":"us/ft"},"_3":{"name":"RHOB_clean_2","type":"number","value":2.2,"unit":"g/cm3"},"_4":{"name":"RHOB_shale","type":"number","value":2.4,"unit":"g/cm3","color":"red"},"_5":{"name":"RHOB_clean_1","type":"number","value":2.65,"unit":"g/cm3"},"last":5},"outputs":[{"name":"VSH_SD","family":"Shale Volume","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"clay-volume-16x16","function":"calVSHfromR","inputs":{"_0":{"name":"Resistivity","unit":"ohm.m","family":"Resistivity"},"last":0},"parameters":{"_0":{"name":"Resistivity_clean","type":"number","value":10,"unit":"ohm.m","color":"red"},"_1":{"name":"Resistivity_shale","type":"number","value":120,"unit":"ohm.m","color":"green"},"_2":{"name":"B exponent","type":"number","value":1},"_3":{"name":"Equation","type":"select","value":"Resistivity Log","choices":["Resistivity Log","Gaymard"]},"last":3},"outputs":[{"name":"VSH_RES","family":"Shale Volume","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"clay-volume-16x16","function":"calVSHfromSP","inputs":{"_0":{"name":"Spontaneous Potential","unit":"mV","family":"Spontaneous Potential"},"last":0},"parameters":{"_0":{"name":"SP_clean","type":"number","value":0,"unit":"mV","color":"red"},"_1":{"name":"SP_shale","type":"number","value":100,"unit":"mV","color":"green"},"last":1},"outputs":[{"name":"VSH_SP","family":"Shale Volume","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"clay-volume-16x16","function":"calVSHfromNEU","inputs":{"_0":{"name":"Thermal Neutron","unit":"v/v","family":"Thermal Neutron Porosity"},"last":0},"parameters":{"_0":{"name":"Neutron_clean","type":"number","value":0.1,"unit":"v/v","color":"red"},"_1":{"name":"Neutron_shale","type":"number","value":0.3,"unit":"v/v","color":"green"},"last":1},"outputs":[{"name":"VSH_NEU","family":"Shale Volume","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"clay-volume-16x16","function":"calVSHfromPOTA","inputs":{"_0":{"name":"Potassium","unit":"%","family":"Potassium Concentration"},"last":0},"parameters":{"_0":{"name":"POTA matrix","type":"number","value":10,"unit":"%","color":"red"},"_1":{"name":"POTA shale","type":"number","value":100,"unit":"%","color":"green"},"_2":{"name":"POTA method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]},"last":2},"outputs":[{"name":"VSH_POTA","family":"Shale Volume","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"clay-volume-16x16","function":"calVSHfromThori","inputs":{"_0":{"name":"Thorium","unit":"ppm","family":"Thorium Concentration"},"last":0},"parameters":{"_0":{"name":"Thorium matrix","type":"number","value":10,"unit":"ppm","color":"red"},"_1":{"name":"Thorium shale","type":"number","value":100,"unit":"ppm","color":"green"},"_2":{"name":"TH method","type":"select","value":"Linear","choices":["Linear","Larionov Tertiary rocks","Larionov older rocks"]},"last":2},"outputs":[{"name":"VSH_Thori","family":"Shale Volume","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{"multiple":true,"use_inputs":"multiple","inputTemplate":{"name":"Shale Volume","unit":"v/v","family":"Shale Volume"}},"icon":"final-clay-volume-16x16","function":"calVSHFinal","options":{"_0":{"name":"Bad Hole","family":"Bad Hole Flag","unit":"unitless"},"last":0},"inputs":{"_0":{"name":"Shale Volume 1","unit":"v/v","family":"Shale Volume"},"_1":{"name":"Shale Volume 2","unit":"v/v","family":"Shale Volume"},"last":1},"parameters":{"_0":{"name":"Merge Method","type":"select","value":"Minimum","choices":["Minimum","Average","Arithmetic mean","Geometric mean","Harmonic mean","Median","Maximum","Sum"]},"last":0},"outputs":[{"name":"VSH_Final","family":"Shale Volume","unit":"v/v"},{"name":"VSH_MIN","family":"Shale Volume","unit":"v/v"},{"name":"VSH_AVG","family":"Shale Volume","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"calculate-open-porosity-16x16","function":"calPorosityFromDensity","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3"},"_1":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"last":1},"parameters":{"_0":{"name":"Density Matrix","type":"number","value":2.65,"unit":"g/cm3","color":"red"},"_1":{"name":"Density Fluid","type":"number","value":1,"unit":"g/cm3"},"_2":{"name":"Density Shale","type":"number","value":2.4,"unit":"d/cm3","color":"green"},"last":2},"outputs":[{"name":"PHIT_D","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_D","family":"Effective Porosity","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"calculate-open-porosity-16x16","function":"calPorosityFromNeutron","inputs":{"_0":{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},"_1":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"last":1},"parameters":{"_0":{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},"_1":{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},"_2":{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"},"last":2},"outputs":[{"name":"PHIT_N","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_N","family":"Effective Porosity","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"calculate-open-porosity-16x16","function":"calPorosityFromSonic","inputs":{"_0":{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"us/ft"},"_1":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"last":1},"parameters":{"_0":{"name":"Sonic Matrix","type":"number","value":55,"unit":"us/ft","color":"#F0F"},"_1":{"name":"Sonic Fluid","type":"number","value":189,"unit":"us/ft"},"_2":{"name":"Sonic Shale","type":"number","value":110,"unit":"us/ft","color":"green"},"_3":{"name":"Sonic Method","type":"select","value":"Wyliie","choices":["Wyliie","Raymer-Hunt-Gardner"]},"_4":{"name":"Cp","type":"number","value":1},"last":4},"outputs":[{"name":"PHIT_S","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_S","family":"Effective Porosity","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"calculate-open-porosity-16x16","function":"calPorosityFromNeutronSonic","inputs":{"_0":{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"us/ft"},"_1":{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},"_2":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"last":2},"parameters":{"_0":{"name":"Sonic Matrix","type":"number","value":55,"unit":"us/ft","color":"#F0F"},"_1":{"name":"Sonic Fluid","type":"number","value":189,"unit":"us/ft"},"_2":{"name":"Sonic Shale","type":"number","value":110,"unit":"us/ft","color":"green"},"_3":{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},"_4":{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},"_5":{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"},"_6":{"name":"Sonic Method","type":"select","value":"Wyliie","choices":["Wyliie","Raymer-Hunt-Gardner"]},"_7":{"name":"Cp","type":"number","value":1},"last":7},"outputs":[{"name":"PHIT_NS","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_NS","family":"Effective Porosity","unit":"v/v"},{"name":"DTMAA","family":"Apparent Matrix Compressional Slowness","unit":"us/ft"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"calculate-open-porosity-16x16","function":"calPorosityFromDensityNeutron","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3"},"_1":{"name":"Neutron","family":"Neutron Porosity","unit":"v/v"},"_2":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"last":2},"parameters":{"_0":{"name":"Density Matrix","type":"number","value":2.65,"unit":"g/cm3","color":"red"},"_1":{"name":"Density Fluid","type":"number","value":1,"unit":"g/cm3"},"_2":{"name":"Density Shale","type":"number","value":2.4,"unit":"g/cm3","color":"green"},"_3":{"name":"Neutron Matrix","type":"number","value":-0.01,"unit":"v/v","color":"red"},"_4":{"name":"Neutron Fluid","type":"number","value":0.991,"unit":"v/v"},"_5":{"name":"Neutron Shale","type":"number","value":0.4,"unit":"v/v","color":"green"},"last":5},"outputs":[{"name":"PHIT_ND","family":"Total Porosity","unit":"v/v"},{"name":"PHIE_ND","family":"Effective Porosity","unit":"v/v"},{"name":"RHOMAA","family":"Apparent Matrix Density","unit":"g/cm3"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{"multiple":true,"inputTemplate":{"name":"Total Porosity","unit":"v/v","family":"Total Porosity"},"use_inputs":"single"},"icon":"final-total-porosity-16x16","function":"calPorosityFinal","options":{"_0":{"name":"Bad Hole","family":"Bad Hole Flag","unit":"unitless"},"last":0},"inputs":{"_0":{"name":"Total Porosity 1","unit":"v/v","family":"Total Porosity"},"_1":{"name":"Total Porosity 2","unit":"v/v","family":"Total Porosity"},"last":1},"parameters":{"last":-1},"outputs":[{"name":"PHIT_Final","family":"Total Porosity","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{"multiple":true,"inputTemplate":{"name":"Effective Porosity","unit":"v/v","family":"Effective Porosity"},"use_inputs":"single"},"icon":"final-effective-porosity-16x16","function":"calPorosityFinal","options":{"_0":{"name":"Bad Hole","family":"Bad Hole Flag","unit":"unitless"},"last":0},"inputs":{"_0":{"name":"Effective Porosity 1","unit":"v/v","family":"Effective Porosity"},"_1":{"name":"Effective Porosity 2","unit":"v/v","family":"Effective Porosity"},"last":1},"parameters":{"last":-1},"outputs":[{"name":"PHIE_Final","family":"Effective Porosity","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationArchie","inputs":{"_0":{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},"_1":{"name":"Porosity","family":"Porosity","unit":"v/v"},"_2":{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m","allowNull":true},"last":2},"parameters":{"_0":{"name":"a","type":"number","value":1,"unit":"unitless"},"_1":{"name":"m","type":"number","value":2,"unit":"unitless"},"_2":{"name":"n","type":"number","value":2,"unit":"unitless"},"_3":{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},"_4":{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"},"last":4},"outputs":[{"name":"Sw_Ar","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Ar","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Ar","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Ar","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationIndonesia","inputs":{"_0":{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},"_1":{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},"_2":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"_3":{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m","allowNull":true},"last":3},"parameters":{"_0":{"name":"a","type":"number","value":1,"unit":"unitless"},"_1":{"name":"m","type":"number","value":2,"unit":"unitless"},"_2":{"name":"n","type":"number","value":2,"unit":"unitless"},"_3":{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},"_4":{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},"_5":{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"},"last":5},"outputs":[{"name":"Sw_Ind","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Ind","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Ind","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Ind","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationModifiedIndonesia","inputs":{"_0":{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},"_1":{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},"_2":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"_3":{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m","allowNull":true},"last":3},"parameters":{"_0":{"name":"a","type":"number","value":1,"unit":"unitless"},"_1":{"name":"m","type":"number","value":2,"unit":"unitless"},"_2":{"name":"n","type":"number","value":2,"unit":"unitless"},"_3":{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},"_4":{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},"_5":{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"},"last":5},"outputs":[{"name":"Sw_Imo","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Imo","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Imo","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Imo","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationSimandoux","inputs":{"_0":{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},"_1":{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},"_2":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"_3":{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m","allowNull":true},"last":3},"parameters":{"_0":{"name":"a","type":"number","value":1,"unit":"unitless"},"_1":{"name":"m","type":"number","value":2,"unit":"unitless"},"_2":{"name":"n","type":"number","value":2,"unit":"unitless"},"_3":{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},"_4":{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},"_5":{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"},"last":5},"outputs":[{"name":"Sw_Sim","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Sim","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Sim","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Sim","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationModifiedSimandoux","inputs":{"_0":{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},"_1":{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},"_2":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"_3":{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m","allowNull":true},"last":3},"parameters":{"_0":{"name":"a","type":"number","value":1,"unit":"unitless"},"_1":{"name":"m","type":"number","value":2,"unit":"unitless"},"_2":{"name":"n","type":"number","value":2,"unit":"unitless"},"_3":{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},"_4":{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},"_5":{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"},"last":5},"outputs":[{"name":"Sw_Smo","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Smo","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Smo","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Smo","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationJuhasz","inputs":{"_0":{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},"_1":{"name":"Porosity","family":"Porosity","unit":"v/v"},"_2":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"_3":{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m","allowNull":true},"last":3},"parameters":{"_0":{"name":"m*","type":"number","value":2,"unit":"unitless"},"_1":{"name":"n*","type":"number","value":2,"unit":"unitless"},"_2":{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},"_3":{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},"_4":{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"},"_5":{"name":"PHITsh","type":"number","value":0.35,"unit":"v/v"},"last":5},"outputs":[{"name":"Sw_Juh","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Juh","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Juh","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Juh","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"Qvn","family":"Volumetric CEC","unit":"eq/L"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationWaxmanSmits","inputs":{"_0":{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},"_1":{"name":"Porosity","family":"Porosity","unit":"v/v"},"_2":{"name":"Formation Temperature","family":"Formation Temperature","unit":"degF","allowNull":true},"_3":{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m","allowNull":true},"last":3},"parameters":{"_0":{"name":"m*","type":"number","value":2,"unit":"unitless"},"_1":{"name":"n*","type":"number","value":2,"unit":"unitless"},"_2":{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},"_3":{"name":"Rmf","type":"number","value":0.1,"unit":"ohm.m"},"_4":{"name":"B","type":"number","value":4,"unit":"L.S/eq.m"},"_5":{"name":"Qv","type":"number","value":1,"unit":"eq/L"},"last":5},"outputs":[{"name":"Sw_Wax","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Wax","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Wax","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Wax","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationDualWater","inputs":{"_0":{"name":"Formation Resistivity","family":"Formation Resistivity","unit":"ohm.m"},"_1":{"name":"Total Porosity","family":"Total Porosity","unit":"v/v"},"_2":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"_3":{"name":"Invaded Resistivity","family":"Invaded Zone Resistivity","unit":"ohm.m","allowNull":true},"last":3},"parameters":{"_0":{"name":"a","type":"number","value":1,"unit":"unitless"},"_1":{"name":"m*","type":"number","value":2,"unit":"unitless"},"_2":{"name":"n*","type":"number","value":2,"unit":"unitless"},"_3":{"name":"Rw","type":"number","value":0.03,"unit":"ohm.m"},"_4":{"name":"Rmf","type":"number","value":0.125,"unit":"ohm.m"},"_5":{"name":"Rsh","type":"number","value":4.5,"unit":"ohm.m"},"_6":{"name":"PHITsh","type":"number","value":0.35,"unit":"v/v"},"last":6},"outputs":[{"name":"Sw_Dua","family":"Water Saturation","unit":"v/v"},{"name":"Sxo_Dua","family":"Flushed Zone Water Saturation","unit":"v/v"},{"name":"Bvw_Dua","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"BvwSxo_Dua","family":"Bulk Fluid Volume","unit":"v/v"},{"name":"Qv","family":"Volumetric CEC","unit":"eq/L"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationEffective","inputs":{"_0":{"name":"Total Porosity","family":"Total Porosity","unit":"v/v"},"_1":{"name":"Effective Porosity","family":"Effective Porosity","unit":"v/v"},"_2":{"name":"Total Saturation","family":"Water Saturation","unit":"v/v"},"last":2},"parameters":{"last":-1},"outputs":[{"name":"Sw_E","family":"Water Saturation","unit":"v/v"},{"name":"Bvw_E","family":"Bulk Fluid Volume","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{"summation":true,"multiple":true,"addParamFlag":true,"inputTemplate":{"name":"Curve","allowNull":true},"paramTemplate":{"name":"Custom Cutoff 4","type":"handsontable","tableType":"condition","value":[{"method":"Value &lt;= Min","min":0.5}],"nameEditable":true},"outputsMultiple":true,"outputFromParameters":true,"outputTemplate":{"name":"CUSTOM_FL","family":"Net Flag","unit":"UNITLESS","parameters":[],"shading":"red"}},"icon":"summation-16x16","function":"calClasticfSummation","inputs":{"_0":{"name":"Shale Volume","unit":"v/v","family":"Shale Volume"},"_1":{"name":"Porosity","unit":"v/v","family":"Porosity"},"_2":{"name":"Water Saturation","unit":"v/v","family":"Water Saturation"},"last":2},"options":{"_0":{"name":"TVD","family":"True Vertical Depth","unit":"m"},"_1":{"name":"TVDSS","family":"True Vertical Depth Sub Sea","unit":"m"},"last":1},"parameters":{"_0":{"id":"Vshale Cutoff","name":"Vshale Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt; Value &lt;= Max","min":0,"max":0.4}]},"_1":{"id":"Phi Cutoff","name":"Phi Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Value &lt; Min or Value &gt;= Max","min":0,"max":0.15}]},"_2":{"id":"SW Cutoff","name":"SW Cutoff","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt; Value &lt;= Max","min":0,"max":0.6}]},"last":2},"outputs":[{"name":"ROCK","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"}],"shading":"yellow"},{"name":"RES","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"},{"id":"Phi Cutoff"}],"shading":"green"},{"name":"PAY","family":"Net Flag","unit":"UNITLESS","parameters":[{"id":"Vshale Cutoff"},{"id":"Phi Cutoff"},{"id":"SW Cutoff"}],"shading":"red"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{"multiple":true,"modelConfigs":[{"name":"Aegyrine","default":{"DT":80,"NPHI":0.05,"RHOB":3.53,"GR":3,"PAI":111.37,"URAN":12.5,"POT":0.15,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Albite","default":{"DT":48,"NPHI":-0.013,"RHOB":2.58,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Andesine","default":{"DT":54.7,"NPHI":-0.013,"RHOB":2.63,"GR":75,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Anhydrite","default":{"DT":50,"NPHI":0.01,"RHOB":2.9,"GR":3,"PAI":9.32,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Anorthslase","default":{"DT":69,"NPHI":-0.012,"RHOB":2.56,"GR":100,"PAI":7.12,"URAN":2,"POT":4,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Another","default":{"DT":58,"NPHI":0.105,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.1,"min":0}},{"name":"Augite","default":{"DT":80,"NPHI":0.02,"RHOB":3.08,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Biotite","default":{"DT":51,"NPHI":0.21,"RHOB":3.22,"GR":275,"PAI":18.75,"URAN":20,"POT":7.5,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Calcite","default":{"DT":47.5,"NPHI":0,"RHOB":2.71,"GR":3,"PAI":5.08,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Chlorite","default":{"DT":72.5,"NPHI":0.44,"RHOB":3.1,"GR":215,"PAI":3.48,"URAN":0,"POT":0.057,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Clays","default":{"DT":72.5,"NPHI":0.36,"RHOB":2.75,"GR":190,"PAI":3.48,"URAN":0,"POT":0.055,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Diopside","default":{"DT":40,"NPHI":0.05,"RHOB":3.33,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.1,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Dolomite","default":{"DT":43.5,"NPHI":0,"RHOB":2.88,"GR":3,"PAI":3.14,"URAN":0,"POT":0.3,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Enstatite","default":{"DT":46.8,"NPHI":0.03,"RHOB":3.23,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Fluid","type":"Fluid","default":{"DT":189,"NPHI":0.991,"RHOB":1.03,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.3,"min":0}},{"name":"Gas","default":{"DT":265,"NPHI":0.2,"RHOB":0.1,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Glauconite","default":{"DT":49,"NPHI":0.38,"RHOB":2.45,"GR":200,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Haematite","default":{"DT":46.8,"NPHI":0.13,"RHOB":5.16,"GR":10,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"HeavyMin","default":{"DT":45.04,"NPHI":0.145,"RHOB":3.05,"GR":445,"PAI":18.75,"URAN":0,"POT":3.75,"THOR":15},"output":{"max":0.2,"min":0}},{"name":"Hedenbergite","default":{"DT":57,"NPHI":0.027,"RHOB":3.55,"GR":15,"PAI":111.37,"URAN":12.5,"POT":0.016,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Hornblends","default":{"DT":44,"NPHI":0.08,"RHOB":3.2,"GR":275,"PAI":18.75,"URAN":20,"POT":0.8,"THOR":13.5},"output":{"max":0.4,"min":0}},{"name":"Igneous","default":{"DT":54.7,"NPHI":0.15,"RHOB":2.78,"GR":45,"PAI":9.99,"URAN":0,"POT":1.45,"THOR":2.7},"output":{"max":0.8,"min":0}},{"name":"Illite","default":{"DT":72.5,"NPHI":0.25,"RHOB":2.715,"GR":275,"PAI":3.48,"URAN":0,"POT":0.01,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"K_Feldsp","default":{"DT":53.5,"NPHI":-0.03,"RHOB":2.54,"GR":70,"PAI":7.297,"URAN":1.5,"POT":6,"THOR":7},"output":{"max":0.7,"min":0}},{"name":"Kaolinite","default":{"DT":72.5,"NPHI":0.35,"RHOB":2.69,"GR":105,"PAI":3.48,"URAN":0,"POT":0.04,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Labradorite","default":{"DT":54.7,"NPHI":-0.014,"RHOB":2.68,"GR":25,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Magnetit","default":{"DT":41,"NPHI":0.11,"RHOB":5.08,"GR":50,"PAI":111.37,"URAN":12.5,"POT":0,"THOR":5},"output":{"max":0.2,"min":0}},{"name":"Microline","default":{"DT":51,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":12.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Montmoriolite","default":{"DT":41,"NPHI":0.41,"RHOB":2.88,"GR":150,"PAI":2.04,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Muscovite","default":{"DT":49,"NPHI":0.2,"RHOB":2.82,"GR":270,"PAI":18.75,"URAN":8.1,"POT":8.7,"THOR":10},"output":{"max":0.4,"min":0}},{"name":"Oil","default":{"DT":210,"NPHI":0.95,"RHOB":0.7,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Oligoclase","default":{"DT":48,"NPHI":-0.012,"RHOB":2.65,"GR":20,"PAI":4.35,"URAN":5,"POT":1,"THOR":1},"output":{"max":0.4,"min":0}},{"name":"Olivine","default":{"DT":36,"NPHI":0.05,"RHOB":3.3,"GR":10,"PAI":18.75,"URAN":0.01,"POT":0,"THOR":0},"output":{"max":0.4,"min":0}},{"name":"Opal","default":{"DT":50,"NPHI":0.1,"RHOB":2.13,"GR":10,"PAI":3.79,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Orthocla","default":{"DT":53.5,"NPHI":-0.011,"RHOB":2.54,"GR":250,"PAI":7.12,"URAN":2,"POT":10.5,"THOR":7},"output":{"max":0.5,"min":0}},{"name":"Plagioclase","default":{"DT":49,"NPHI":-0.013,"RHOB":2.582,"GR":100,"PAI":4.35,"URAN":0,"POT":1.5,"THOR":0},"output":{"max":0.9,"min":0}},{"name":"Quartz","default":{"DT":50,"NPHI":-0.02,"RHOB":2.65,"GR":5,"PAI":4.77,"URAN":2,"POT":0,"THOR":3},"output":{"max":0.5,"min":0}},{"name":"Salt","default":{"DT":40,"NPHI":0,"RHOB":1.026,"GR":0,"PAI":4.6,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Siderite","default":{"DT":47,"NPHI":0.12,"RHOB":3.89,"GR":0,"PAI":14.69,"URAN":0,"POT":0,"THOR":0},"output":{"max":0.5,"min":0}},{"name":"Water","default":{"DT":189,"NPHI":1,"RHOB":1.05,"GR":0,"PAI":0,"URAN":0,"POT":0,"THOR":0},"output":{"min":0,"max":0.35}},{"name":"Zeolit","default":{"DT":53.35,"NPHI":0.2,"RHOB":2.25,"GR":30,"PAI":3.48,"URAN":0,"POT":1,"THOR":0},"output":{"max":0.4,"min":0}}],"familyMap":{"DT":["Peak Slowness","Peak Travel Time","Travel Time","Compressional Slowness","DTC.*","DT","SON.*","AC","DTTP.*","Acoustic"],"RHOB":["Bulk Density","Bulk Density Correction","Bulk Density Hydrocarbon Corrected","Corrected ZDL Density","DEN.*","RHOB","RHOZ","ZDEN.*","RHOZ","LDEN","Density"],"GR":["Gamma Ray","Gamma Ray 1","Gamma Ray Normalised","Gamma Ray Shale","Gamma Ray Squared","Russian Gamma Ray","PLT Gamma Ray","GR.*","ECGR.*","SGRC.*","GAM.*","HGR","EGR","SGR"],"NPHI":["Thermal Neutron Near Far Ratio","Compensated Neutron Porosity","Epithermal Neutron Porosity","Neutron Porosity","Neutron Porosity Correction","Neutron Porosity Hydrocarbon Corrected","Neutron Porosity Lime","Neutron Porosity Sand","Russian Thermal Neutron Porosity","Thermal Neutron Porosity","NEU.*","TNP.*","NPHI.*","CNL.*","CNT.*","Porosity"],"POT":["Potassium Capture Relative Yield","Potassium Concentration","Potassium Radio Nuclide Activity","POT.*","Weight Fraction - Element"],"THOR":["Thorium Concentration","Thorium Radio Nuclide Activity","THOR.*"],"URAN":["Uranium Concentration","Uranium Radio Nuclide Activity","URA.*"],"PAI":[".*"]},"outputConfigs":[{"name":"Minerals","family":"Mineral Volume","unit":"v/v","prefix":"V_"},{"name":"Synthetic Curves","suffix":"_SYN","disableEditing":["family","unit"]}]},"icon":"multi-mineral-solver-16x16","function":"multiMineralSolver","inputs":{"_0":{"name":"Curve"},"last":0},"parameters":{"last":-1},"outputs":[]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"gradient-ftemp-16x16","function":"gradientFTemp","inputs":{"_0":{"name":"Depth","family":"Measured Depth","unit":"m"},"last":0},"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":{"_0":{"name":"Temperature Gradient","type":"number","value":0.03,"unit":"degC/m"},"_1":{"name":"TLI","type":"number","value":0,"unit":"m"},"_2":{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"},"last":2}}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"log-interval-ftemp-16x16","function":"logIntervalFTemp","inputs":{"_0":{"name":"Depth","family":"Measured Depth","unit":"m"},"last":0},"outputs":[{"name":"FTEMP","family":"Formation Temperature","unit":"degC"}],"parameters":{"_0":{"name":"TLI","type":"number","value":0,"unit":"m"},"_1":{"name":"BLI","type":"number","value":0,"unit":"m"},"_2":{"name":"Top Log Temperature","type":"number","value":25,"unit":"degC"},"_3":{"name":"Bottom Log Temperature","type":"number","value":120,"unit":"degC"},"last":3}}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"gradient-fpress-16x16","function":"gradientFPress","inputs":{"_0":{"name":"True Vertical Depth","family":"True Vertical Depth","unit":"m"},"last":0},"outputs":[{"name":"FPRESS","family":"Hydrostatic Pressure","unit":"kPa"}],"parameters":{"_0":{"name":"Pressure Gradient","type":"number","value":9.792,"unit":"kPa/m"},"last":0}}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"mud-density-fpress-16x16","function":"mudDensityFPress","inputs":{"_0":{"name":"True Vertical Depth","family":"True Vertical Depth","unit":"m"},"last":0},"outputs":[{"name":"FPRESS","family":"Hydrostatic Pressure","unit":"kPa"}],"parameters":{"_0":{"name":"Drilling Fluid Density","type":"number","value":1,"unit":"kg/m3"},"last":0}}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"normalized-qv-16x16","function":"normalizeQv","inputs":{"_0":{"name":"Porosity","family":"Porosity","unit":"v/v"},"_1":{"name":"Shale Volume","family":"Shale Volume","unit":"v/v"},"last":1},"outputs":[{"name":"QVn","family":"Normalised Qv","unit":"v/v"}],"parameters":{"_0":{"name":"Porosity Shale","type":"number","value":0.4,"unit":"v/v"},"last":0}}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"cec-qv-16x16","function":"cecQv","inputs":{"_0":{"name":"Porosity","family":"Porosity","unit":"v/v"},"_1":{"name":"CEC","family":"Volumetric CEC","unit":"meq/g"},"_2":{"name":"Grain Density","family":"Grain Density","unit":"g/cm3"},"last":2},"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"}],"parameters":{"last":-1}}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"water-bearing-shaly-sands-16x16","function":"qvWaterBearingShalySands","inputs":{"_0":{"name":"Porosity","family":"Porosity","unit":"v/v"},"_1":{"name":"Resistivity","family":"Resistivity","unit":"ohm.m"},"last":1},"outputs":[{"name":"QV","family":"Volumetric CEC","unit":"1/L"},{"name":"B","family":"Waxman B","unit":"L.S/eq.m"},{"name":"BQv","family":"Waxman BQv","unit":"S/m"}],"parameters":{"_0":{"name":"B method","type":"select","value":"Use B from formula","choices":["Use B from formula","Use B value"]},"_1":{"name":"B value","type":"number","value":0,"unit":"L.S/m"},"_2":{"name":"Temperature","type":"number","value":25,"unit":"degC"},"_3":{"name":"Water Resistivity","type":"number","value":0.03,"unit":"ohm.m"},"_4":{"name":"a*","type":"number","value":1},"_5":{"name":"m*","type":"number","value":2},"last":5}}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"rw-from-sanlinity-temp-16x16","function":"RWfromSALandFTemp","inputs":{"_0":{"name":"Formation Temperature","family":"Formation Temperature","unit":"degF"},"_1":{"name":"Salinity","family":"Salinity","unit":"ppm"},"last":1},"outputs":[{"name":"RwX","family":"Formation Water Resistivity","unit":"ohm.m"}],"parameters":{"last":-1}}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"saturated-nacl-from-temp-16x16","function":"UfromSalinity","inputs":{"_0":{"name":"Salinity","family":"Salinity","unit":"ppk"},"last":0},"outputs":[{"name":"U","family":"Volumetric Photoelectric Effect","unit":"barns/cm3"}],"parameters":{"last":-1}}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"u-from-salinity-16x16","function":"saturatedSalinityConcentrationfromFTemp","inputs":{"_0":{"name":"Formation Temperature","family":"Formation Temperature","unit":"degF"},"last":0},"outputs":[{"name":"SAL_SAT","family":"Formation Water Salinity","unit":"ppk"}],"parameters":{"last":-1}}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"mud-salinity-and-resistivity-16x16","function":"mudSalinityAndResistivity","inputs":{"_0":{"name":"Formation Temperature","family":"Formation Temperature","unit":"degC"},"last":0},"outputs":[{"name":"RM","family":"Mud Resistivity","unit":"ohm.m"},{"name":"RMF","family":"Mud Filtrate Resistivity","unit":"ohm.m"},{"name":"RMC","family":"Mudcake Resistivity","unit":"ohm.m"},{"name":"SALM","family":"Mud Salinity","unit":"ppm"},{"name":"SALMF","family":"Mud Filtrate Salinity","unit":"ppm"}],"parameters":{"_0":{"name":"Mud Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},"_1":{"name":"Mud Sample Temperature","type":"number","value":0,"unit":"degC"},"_2":{"name":"Mud Filtrate Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},"_3":{"name":"Mud Filtrate Sample Temperature","type":"number","value":0,"unit":"degC"},"_4":{"name":"Mudcake Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},"_5":{"name":"Mudcake Sample Temperature","type":"number","value":0,"unit":"degC"},"last":5}}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"bad-hole-from-caliper-16x16","function":"badHoleFromCaliper","inputs":{"_0":{"name":"Caliper","family":"Caliper","unit":"in"},"_1":{"name":"Bit Size","family":"Bit Size","unit":"in","allowNull":true},"last":1},"outputs":[{"name":"BH_FL_BS","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":{"_0":{"name":"Cutoff","type":"number","value":0.5,"unit":"in"},"_1":{"name":"Bit Size","type":"number","value":12.5,"unit":"in"},"last":1}}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"bad-hole-from-drho-16x16","function":"badHoleFromDRHO","inputs":{"_0":{"name":"DENC","family":"Bulk Density Correction","unit":"g/cm3"},"last":0},"outputs":[{"name":"BH_FL_DRHO","family":"Bad Hole Flag","unit":"UNITLESS"}],"parameters":{"_0":{"name":"Bulk Density Correction Min","type":"number","value":0.1,"unit":"g/cm3"},"_1":{"name":"Bulk Density Correction Max","type":"number","value":0.6,"unit":"g/cm3"},"last":1}}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"coal-flag-16x16","function":"coalFlag","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},"_1":{"name":"Neutron Porosity","family":"Neutron Porosity","unit":"v/v","allowNull":true},"_2":{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},"_3":{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true},"_4":{"name":"Resistivity","family":"Resistivity","allowNull":true},"last":4},"outputs":[{"name":"COAL_FL","family":"Coal Flag","unit":"UNITLESS"}],"parameters":{"_0":{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":1.2,"max":2.2}]},"_1":{"name":"Neutron Porosity Cutoff","id":"Neutron Porosity Cutoff","type":"handsontable","tableType":"condition","unit":"v/v","value":[{"method":"Min &lt;= Value &lt; Max","min":0.3,"max":0.6}]},"_2":{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":90,"max":150}]},"_3":{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":0.16,"max":0.2}]},"_4":{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":900,"max":1000}]},"last":4}}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"carbonate-flag-16x16","function":"carbonateFlag","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},"_1":{"name":"Neutron Porosity","family":"Neutron Porosity","unit":"v/v","allowNull":true},"_2":{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},"_3":{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true},"last":3},"outputs":[{"name":"CARBONATE_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":{"_0":{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.85,"max":3}]},"_1":{"name":"Neutron Porosity Cutoff","id":"Neutron Porosity Cutoff","type":"handsontable","tableType":"condition","unit":"v/v","value":[{"method":"Min &lt;= Value &lt; Max","min":0,"max":1}]},"_2":{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":45,"max":55}]},"_3":{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":5,"max":7}]},"last":3}}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"halite-flag-16x16","function":"haliteFlag","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},"_1":{"name":"Resistivity","family":"Resistivity","unit":"ohm.m","allowNull":true},"_2":{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},"_3":{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true},"last":3},"outputs":[{"name":"HALITE_FL","family":"Halite Flag","unit":"UNITLESS"}],"parameters":{"_0":{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.05,"max":2.15}]},"_1":{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":10000,"max":100000}]},"_2":{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":60,"max":70}]},"_3":{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":4.5,"max":5}]},"last":3}}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"anhydrite-flag-16x16","function":"anhydriteFlag","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cm3","allowNull":true},"_1":{"name":"Resistivity","family":"Resistivity","unit":"ohm.m","allowNull":true},"_2":{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"US/FT","allowNull":true},"_3":{"name":"Photoelectric Factor","family":"Photoelectric Factor","unit":"UNITLESS","allowNull":true},"last":3},"outputs":[{"name":"ANHYDRITE_FL","family":"General Flag","unit":"UNITLESS"}],"parameters":{"_0":{"name":"Bulk Density Cutoff","id":"Bulk Density Cutoff","type":"handsontable","tableType":"condition","unit":"g/cm3","value":[{"method":"Min &lt;= Value &lt; Max","min":2.85,"max":3}]},"_1":{"name":"Resistivity Cutoff","id":"Resistivity Cutoff","type":"handsontable","tableType":"condition","unit":"ohm.m","value":[{"method":"Min &lt;= Value &lt; Max","min":10000,"max":100000}]},"_2":{"name":"Compressional Slowness Cutoff","id":"Compressional Slowness Cutoff","type":"handsontable","tableType":"condition","unit":"us/ft","value":[{"method":"Min &lt;= Value &lt; Max","min":55,"max":60}]},"_3":{"name":"Photoelectric Factor Cutoff","id":"Photoelectric Factor Cutoff","type":"handsontable","tableType":"condition","unit":"unitless","value":[{"method":"Min &lt;= Value &lt; Max","min":4.5,"max":5}]},"last":3}}</t>
-  </si>
-  <si>
-    <t>{"other":{"multiple":true,"outputTemplate":{"name":"CUSTOM_FL","family":"General Flag","unit":"UNITLESS","parameters":[]},"outputsMultiple":true,"outputFromParameters":true,"addParamFlag":true},"icon":"custom-flag-16x16","function":"customFlag","inputs":{"_0":{"name":"Curve"},"last":0},"outputs":[{"name":"CUSTOM_FL_1","family":"General Flag","unit":"UNITLESS","parameters":[{"id":"Condition 1"}]}],"parameters":{"_0":{"id":"Condition 1","name":"Condition 1","type":"handsontable","tableType":"condition","value":[{"method":"Min &lt;= Value &lt; Max"}],"nameEditable":true},"last":0}}</t>
-  </si>
-  <si>
-    <t>{"other":{"allowZone":false,"outputDataset":"INDEX"},"icon":"true-vertical-depth-16x16","function":"tvdConvserion","inputs":{"_0":{"name":"Deviation","family":"Hole Deviation","unit":"Deg"},"_1":{"name":"Azimuth","family":"Hole Azimuth","unit":"Deg"},"last":1},"outputs":[{"name":"TVD","family":"True Vertical Depth","unit":"m","disableEditing":"namefamilyunit"},{"name":"TVDSS","family":"True Vertical Depth Sub Sea","unit":"m","disableEditing":"namefamilyunit"},{"name":"XOFFSET","family":"X Offset","unit":"m","disableEditing":"namefamilyunit"},{"name":"YOFFSET","family":"Y Offset","unit":"m","disableEditing":"namefamilyunit"}],"parameters":{"_0":{"name":"TVD Mode","type":"select","choices":["On Shore","Off Shore"],"value":"Off Shore"},"_1":{"name":"Elevator","type":"number","value":0,"unit":"m"},"_2":{"name":"X reference at","type":"number","value":0,"unit":"m"},"_3":{"name":"Y reference at","type":"number","value":0,"unit":"m"},"_4":{"name":"Method","type":"select","choices":["Average Angle","Balanced Tangential","Radius Curvature","Minimum Curvature"],"value":"Minimum Curvature"},"last":4}}</t>
-  </si>
-  <si>
-    <t>{"other":{"transform":true,"outputConfigs":[{"suffix":"_OUT"}],"allowZone":false},"icon":"basic-operations-16x16","function":"basicOperations","inputs":{"_0":{"name":"Input curve"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Method","type":"select","value":"+","choices":["+","-","*","/"]},"_1":{"name":"Constant","type":"number","value":3.141592653589793},"last":1}}</t>
-  </si>
-  <si>
-    <t>{"other":{"transform":true,"outputConfigs":[{"suffix":"_POW"}],"allowZone":false},"icon":"pow-16x16","function":"pow","inputs":{"_0":{"name":"Input curve"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Exponent","type":"number","value":3.141592653589793},"last":0}}</t>
-  </si>
-  <si>
-    <t>{"other":{"transform":true,"outputConfigs":[{"suffix":"_ROUND"}],"allowZone":false},"icon":"round-16x16","function":"round","inputs":{"_0":{"name":"Input curve"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Precision","type":"number","value":2},"last":0}}</t>
-  </si>
-  <si>
-    <t>{"other":{"transform":true,"outputConfigs":[{"suffix":"_LIMIT"}],"allowZone":false},"icon":"limit-16x16","function":"limit","inputs":{"_0":{"name":"Input curve"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Min","type":"number","value":0},"_1":{"name":"Max","type":"number","value":1},"last":1}}</t>
-  </si>
-  <si>
-    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_OUT"}],"allowZone":false},"icon":"functional-transformations-16x16","function":"functionalTransforms","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Method","type":"select","value":"pow10","choices":["pow10","sqrt","loge","log10","abs","inv","acos","asin","atan","cos","sin","tan","exp","exp10"]},"last":0}}</t>
-  </si>
-  <si>
-    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"name":"First Derivation","suffix":"_1ST_DERIVATION","use":true},{"name":"Second Derivation","suffix":"_2ND_DERIVATION","use":true}],"allowZone":false},"icon":"curve-derivation-16x16","function":"curveDerivation","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"last":-1}}</t>
-  </si>
-  <si>
-    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_RESCALING"}],"allowZone":false},"icon":"curve-rescale-16x16","function":"curveRescaling","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Input left scale","type":"number","value":0},"_1":{"name":"Input right scale","type":"number","value":1},"_2":{"name":"Output left scale","type":"number","value":0},"_3":{"name":"Output right scale","type":"number","value":1},"last":3}}</t>
-  </si>
-  <si>
-    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_FILLED"}],"allowZone":false},"icon":"curve-fill-data-gaps-16x16","function":"curveFilling","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Gaps Maximum Width","type":"number","value":13},"_1":{"name":"Width Type","type":"select","value":"In samples","choices":["In samples","In reference"]},"_2":{"name":"Mode","type":"select","value":"linear interpolation","choices":["top value","bottom value","linear interpolation","constant"]},"_3":{"name":"Constant","type":"number","value":100},"last":3}}</t>
-  </si>
-  <si>
-    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_RESAMPLED"}],"allowZone":false},"icon":"curve-resampling-16x16","function":"curveResampling","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Mode","type":"select","choices":["Linear Interpolate","Depth Shift (core)","Block (core)"],"value":"Linear Interpolate"},"last":0}}</t>
-  </si>
-  <si>
-    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"allowZone":false},"icon":"basic-combination-16x16","function":"basicCombinations","inputs":{"_0":{"name":"Curve 1"},"_1":{"name":"Curve 2"},"last":1},"outputs":[{"name":"Combination curve","family":"Compressional Slowness","unit":"us/ft"}],"parameters":{"_0":{"name":"Method","type":"select","value":"+","choices":["+","-","*","/","min","max","average","median"]},"last":0}}</t>
-  </si>
-  <si>
-    <t>{"other":{"multiple":true,"inputTemplate":{"name":"Curve"},"transform":true,"addParamFlag":true,"allowZone":false},"icon":"linear-combination-16x16","function":"linearCombinations","inputs":{"_0":{"name":"Curve 1"},"_1":{"name":"Curve 2"},"last":1},"outputs":[{"name":"Combination curve","family":"Compressional Slowness","unit":"us/ft"}],"parameters":{"_0":{"name":"Coefficient 1","type":"number","value":1},"_1":{"name":"Coefficient 2","type":"number","value":1},"last":1}}</t>
-  </si>
-  <si>
-    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_MED_SM"}],"allowZone":false},"icon":"median-filter-16x16","function":"curveMedianFilter","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Number Of Levels","type":"number","value":5},"last":0}}</t>
-  </si>
-  <si>
-    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_SQUARE_SM"}],"allowZone":false},"icon":"square-filter-16x16","function":"curveSquareFilter","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Number Of Levels","type":"number","value":5},"last":0}}</t>
-  </si>
-  <si>
-    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_BELL_SM"}],"allowZone":false},"icon":"bell-filter-16x16","function":"curveBellFilter","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Number Of Levels","type":"number","value":5},"last":0}}</t>
-  </si>
-  <si>
-    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_SAVGOL_SM"}],"allowZone":false},"icon":"savisky-golay-filter-16x16","function":"curveSavGolFilter","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Derivative Order","type":"number","value":0},"_1":{"name":"Polynomial Order","type":"number","value":2},"_2":{"name":"Number Of Points","type":"number","value":5},"last":2}}</t>
-  </si>
-  <si>
-    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_FFT_SM"}],"allowZone":false},"icon":"fft-filter-16x16","function":"curveFFTFilter","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Number Of Cutoff","type":"number","value":100},"last":0}}</t>
-  </si>
-  <si>
-    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_CONV_SM"}],"allowZone":false,"paramMultiple":true},"icon":"curve-convolution-16x16","function":"curveConvolution","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Coefficient 1","type":"number","value":0.33,"removeable":false},"_1":{"name":"Coefficient 2","type":"number","value":0.33,"removeable":false},"_2":{"name":"Coefficient 3","type":"number","value":0.33,"removeable":false},"last":2}}</t>
-  </si>
-  <si>
-    <t>{"other":{"transform":true,"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_DECONV_SM"}],"allowZone":false,"paramMultiple":true},"icon":"curve-deconvolution-16x16","function":"curveDeconvolution","inputs":{"_0":{"name":"Curve 1"},"last":0},"outputs":[],"parameters":{"_0":{"name":"Coefficient 1","type":"number","value":1,"removeable":false},"_1":{"name":"Coefficient 2","type":"number","value":0,"removeable":false},"_2":{"name":"Coefficient 3","type":"number","value":1,"removeable":false},"last":2}}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"water-saturation-16x16","function":"calSaturationNonPoro","inputs":{"_0":{"name":"Micro Resistivity","family":"Micro Resistivity","unit":"ohm.m"},"_1":{"name":"Resistivity","family":"Resistivity","unit":"ohm.m"},"last":1},"parameters":{"_0":{"name":"Rw","type":"number","value":0.03},"_1":{"name":"Rmf","type":"number","value":0.1},"last":1},"outputs":[{"name":"Sw_QL","family":"Water Saturation","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{"multiple":true,"inputTemplate":{"name":"Curve"},"outputConfigs":[{"suffix":"_MERGED"}],"allowZone":false},"icon":"linear-combination-16x16","function":"mergedCurve","inputs":{"_0":{"name":"Curve 1"},"_1":{"name":"Curve 2"},"last":1},"parameters":{"_0":{"name":"overlap","type":"select","choices":["position","mean"],"value":"position"},"last":0},"outputs":[]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"block-value-16x16","function":"calBlockParameter","inputs":{"_0":{"name":"Total Porosity","unit":"v/v","family":"Total Porosity"},"_1":{"name":"Compressional Slowness","unit":"us/ft","family":"Compressional Slowness"},"_2":{"name":"Resistivity","unit":"ohm.m","family":"Resistivity","allowNull":true},"last":2},"parameters":{"_0":{"name":"Block Porosity","type":"number","value":0.003,"unit":"v/v","color":"red"},"_1":{"name":"Block Sonic","type":"number","value":54,"unit":"us/ft","color":"green"},"_2":{"name":"Macro Sonic","type":"number","value":62,"unit":"us/ft","color":"#F0F"},"_3":{"name":"Block Resistivity","type":"number","value":2000,"unit":"ohm.m"},"_4":{"name":"Macro Resistivity","type":"number","value":200,"unit":"ohm.m"},"last":4},"outputs":[{"name":"PHI_BLK","family":"Block Porosity","unit":"v/v"},{"name":"DT_BLK","family":"Compressional Slowness","unit":"us/ft"},{"name":"DT_MAC","family":"Compressional Slowness","unit":"us/ft"},{"name":"RES_BLK","family":"Resistivity","unit":"ohm.m"},{"name":"RES_MAC","family":"Resistivity","unit":"ohm.m"},{"name":"PHI_2","family":"Secondary Porosity","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"fracture-porosity-16x16","function":"calFracturenVugPorosity","inputs":{"_0":{"name":"Shallow Resistivity","unit":"ohm.m","family":"Shallow Resistivity"},"_1":{"name":"Secondary Porosity","unit":"v/v","family":"Secondary Porosity"},"_4":{"name":"Formation Temperature","unit":"degC","family":"Formation Temperature"},"last":4},"parameters":{"_1":{"name":"Mud Filtrate Sample Resistivity","type":"number","value":0,"unit":"ohm.m"},"_2":{"name":"Mud Filtrate Sample Temperature","type":"number","value":0,"unit":"degC"},"last":2},"outputs":[{"name":"PHI_V","family":"Vug Porosity","unit":"v/v"},{"name":"PHI_FR","family":"Fracture Porosity","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"fft-mmp-16x16","function":"calMacronMicroZone","inputs":{"_0":{"name":"Secondary Porosity","unit":"v/v","family":"Secondary Porosity"},"_1":{"name":"Fracture Porosity","unit":"v/v","family":"Fracture Porosity"},"_2":{"name":"Compressional Slowness","unit":"us/ft","family":"Compressional Slowness"},"_3":{"name":"Block Sonic","unit":"us/ft","family":"Compressional Slowness"},"_4":{"name":"Macro Sonic","unit":"us/ft","family":"Compressional Slowness"},"_5":{"name":"Resistivity","unit":"ohm.m","family":"Resistivity"},"_6":{"name":"Block Resistivity","unit":"ohm.m","family":"Resistivity","allowNull":true},"_7":{"name":"Macro Resistivity","unit":"ohm.m","family":"Resistivity","allowNull":true},"last":7},"parameters":{"_0":{"name":"Block Resistivity","type":"number","value":null,"unit":"ohm.m"},"_1":{"name":"Macro Resistivity","type":"number","value":null,"unit":"ohm.m"},"_2":{"name":"Fracture Porosity Cutoff","type":"number","value":null,"unit":"v/v"},"last":2},"outputs":[{"name":"F_MAC","family":"General Flag","unit":"unitless"},{"name":"F_MIC","family":"General Flag","unit":"unitless"},{"name":"PHI_2_MAC","family":"Macro Secondary Porosity","unit":"v/v"},{"name":"PHI_2_MIC","family":"Micro Secondary Porosity","unit":"v/v"},{"name":"PHI_FR_MAC","family":"Macro Fracture Porosity","unit":"v/v"},{"name":"PHI_FR_MIC","family":"Micro Fracture Porosity","unit":"v/v"},{"name":"PHI_2_FIL","family":"Secondary Porosity","unit":"v/v"},{"name":"PHI_FR_FIL","family":"Fracture Porosity","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"residual-water-saturation-16x16","function":"calResidueWaterSaturation","inputs":{"_0":{"name":"Macro Flag","unit":"unitless","family":"General Flag"},"_1":{"name":"Micro Flag","unit":"unitless","family":"General Flag"},"last":1},"parameters":{"_0":{"name":"A","type":"number","value":-1.8475},"_1":{"name":"B","type":"number","value":0.1415},"_2":{"name":"C","type":"number","value":1.8862},"_3":{"name":"Swr_cutoff","type":"number","value":0.76,"unit":"v/v"},"last":3},"outputs":[{"name":"SWR","family":"Residual Water Saturation","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"permeability-16x16","function":"calPermeability","inputs":{"_0":{"name":"Compressional Slowness","unit":"us/ft","family":"Compressional Slowness"},"_1":{"name":"Block Sonic","unit":"us/ft","family":"Compressional Slowness"},"_2":{"name":"Secondary Porosity","unit":"v/v","family":"Secondary Porosity"},"_3":{"name":"Residual Water Saturation","unit":"v/v","family":"Residual Water Saturation","allowNull":true},"last":3},"parameters":{"_0":{"name":"Residual Water Saturation","type":"number","value":0.85,"unit":"v/v"},"_1":{"name":"a","type":"number","value":264},"_2":{"name":"b","type":"number","value":0.689},"last":2},"outputs":[{"name":"PERM","family":"Permeability","unit":"mD"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{"summation":true},"icon":"cutoff-and-summation-16x16","function":"calBasementSummation","inputs":{"_0":{"name":"Secondary Porosity","unit":"v/v","family":"Secondary Porosity"},"_1":{"name":"Fracture Porosity","unit":"v/v","family":"Fracture Porosity"},"_2":{"name":"Macro Flag","unit":"unitless","family":"General Flag"},"_3":{"name":"Micro Flag","unit":"unitless","family":"General Flag"},"_4":{"name":"Permeability","unit":"mD","family":"Permeability"},"_5":{"name":"Residual Water Saturation","unit":"v/v","family":"Residual Water Saturation"},"last":5},"options":{"_0":{"name":"TVD"},"_1":{"name":"TVDSS"},"last":1},"parameters":{"_0":{"name":"Secondary Porosity Cutoff","type":"number","value":0.003,"unit":"v/v"},"_1":{"name":"Fracture Porosity Cutoff","type":"number","value":0.0005,"unit":"v/v"},"_2":{"name":"Perm Cutoff","type":"number","value":0,"unit":"mD"},"last":2},"outputs":[{"name":"F_PAY","family":"General Flag","unit":"unitless"},{"name":"FINDEX","family":"Flow Index","unit":"unitless"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"mechanical-stratigraphy-flag-form-gr-16x16","function":"calMechanicalStratigralyFlagFormGR","inputs":{"_0":{"name":"Gamma Ray","unit":"gAPI","family":"Gamma Ray"},"last":0},"parameters":{"_0":{"name":"Threshold","type":"number","value":75,"unit":"gAPI"},"last":0},"outputs":[{"name":"SHALE_FLAG","family":"Mechanical Stratigraphy Flag","unit":"unitless"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"static-poisson-ratio-16x16","function":"calDynamicPoissonRatio","inputs":{"_0":{"name":"Poisson Ratio (Dynamic)","family":"Poisson Ratio (Dynamic)","unit":"unitless"},"last":0},"parameters":{"_0":{"name":"PR multiplier","type":"number","value":1,"unit":"unitless"},"last":0},"outputs":[{"name":"PR_STA","family":"Poisson Ratio (Static)","unit":"unitless"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calMeproAlphaModel","inputs":{"_0":{"name":"Bulk Modulus (Static)","family":"Bulk Modulus (Static)","unit":"Mpsi"},"_1":{"name":"Grain Bulk Modulus","family":"Grain Bulk Modulus","unit":"Mpsi","allowNull":true},"_2":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":2},"parameters":{"_0":{"name":"Grain Bulk Modulus","type":"number","value":5.37,"unit":"Mpsi"},"_1":{"name":"Apply for flag =","type":"select","choices":[0,1,null,"Any"],"value":0},"last":1},"outputs":[{"name":"ALPHA","family":"Biot Coefficient","unit":"unitless"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calAlphaCombinerWFlagOrZone","inputs":{"_0":{"name":"Biot Coefficient","family":"Biot Coefficient","unit":"unitless"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Alpha when Flag = 1","type":"","value":0},"_1":{"name":"","type":"","value":0},"_2":{"name":"","type":"","value":0},"_3":{"name":"","type":"","value":0},"last":3},"outputs":[{"name":"","family":"","unit":""}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calAsadiEtAlForSand","inputs":{"_0":{"name":"Neutron Porosity","family":"Neutron Porosity","unit":"v/v"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_ASADI","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl3ForSand","inputs":{"_0":{"name":"Compressional slowness","family":"Compressional slowness","unit":"us/ft"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_Chang3","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl6ForSand","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cc"},"_1":{"name":"Compressional velocity","family":"Compressional velocity","unit":"ft/s"},"_2":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":2},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_Chang6","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl7ForSand","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cc"},"_1":{"name":"Compressional velocity","family":"Compressional velocity","unit":"ft/s"},"_2":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":2},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_Chang7","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl11ForSand","inputs":{"_0":{"name":"Neutron porosity","family":"Neutron porosity","unit":"v/v"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_Chang11","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calFreyburgForSand","inputs":{"_0":{"name":"Compressional Velocity","family":"Compressional Velocity","unit":"ft/s"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_FREY","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calMcNallyForSandInputs","inputs":{"_0":{"name":"Compressional slowness","family":"Compressional slowness","unit":"us/ft"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_MC","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calMoosEtAlForSand","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cc"},"_1":{"name":"Compressional velocity","family":"Compressional velocity","unit":"ft/s"},"_2":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":2},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_MOOS","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calVernikEtAlForSand","inputs":{"_0":{"name":"Neutron porosity","family":"Neutron porosity","unit":"v/v"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_VER","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl13ForShale","inputs":{"_0":{"name":"Compressional slowness","family":"Compressional slowness","unit":"us/ft"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_CHANG13","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl14ForShale","inputs":{"_0":{"name":"Compressional slowness","family":"Compressional slowness","unit":"us/ft"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_CHANG14","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl15ForShale","inputs":{"_0":{"name":"Compressional slowness","family":"Compressional slowness","unit":"us/ft"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_CHANG15","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl21ForShale","inputs":{"_0":{"name":"Neutron porosity","family":"Neutron porosity","unit":"v/v"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_CHANG21","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calHorsrudDTForShale","inputs":{"_0":{"name":"Compressional slowness","family":"Compressional slowness","unit":"us/ft"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_HOR_DT","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calHorsrudPhiForShale","inputs":{"_0":{"name":"Neutron porosity","family":"Neutron porosity","unit":"v/v"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_HOR_PHI","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calKhaksarEtAlForShale","inputs":{"_0":{"name":"Bulk Density","family":"Bulk Density","unit":"g/cc"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_KHA","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calLalForShaleUCS","inputs":{"_0":{"name":"Compressional slowness","family":"Compressional slowness","unit":"us/ft"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_LAL","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calLashkaripourDusseaultForShale","inputs":{"_0":{"name":"Neutron porosity","family":"Neutron porosity","unit":"v/v"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_LASH","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calUCSCombinerWFlagOrZone","inputs":{"_0":{"name":"Unconfined Compressive Strength","family":"Unconfined Compressive Strength","unit":"psi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"","type":"","value":0},"last":0},"outputs":[{"name":"USC_COM","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calLalForShaleIFA","inputs":{"_0":{"name":"Compressional Velocity","family":"Compressional Velocity","unit":"ft/s"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"IFA_LAL","family":"Internal Friction Angle","unit":"deg"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calWeingartenPerkinsForSand","inputs":{"_0":{"name":"Neutron porosity","family":"Neutron porosity","unit":"v/v"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"IFA_WEI","family":"Internal Friction Angle","unit":"deg"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calIFACombinerWFlagOrZone","inputs":{"_0":{"name":"Internal Friction Angle","family":"Internal Friction Angle","unit":"deg"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"IFA_COM","family":"Internal Friction Angle","unit":"deg"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"cohension-from-ucs-ifa-16x16","function":"calCohesionFromUCSAndIFA","inputs":{"_0":{"name":"Internal Friction Angle","family":"Internal Friction Angle","unit":"deg"},"_1":{"name":"Unconfined Compressive Strength","family":"Unconfined Compressive Strengpsith","unit":"psi"},"last":1},"parameters":{},"outputs":[{"name":"COHESION","family":"Cohesion Strength","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"tensile-strength-from-ucs-16x16","function":"calTensileStrengthFromUCS","inputs":{"_0":{"name":"Unconfined Compressive Strength","family":"Unconfined Compressive Strength","unit":"psi"},"last":0},"parameters":{"_0":{"name":"UCS multiplier","type":"number","unit":"unitless","value":0.1},"last":0},"outputs":[{"name":"TSTR","family":"Tensile Strength","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calGardner","inputs":{"_0":{"name":"Compressional Velocity","family":"Compressional Velocity","unit":"ft/s"},"last":0},"parameters":{"_0":{"name":"a","type":"number","unit":"unitless","value":0.23},"_1":{"name":"b","type":"number","unit":"unitless","value":0.25},"last":1},"outputs":[{"name":"DEN_GARD","family":"Bulk Density","unit":"g/cc"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calBellottiConsolidated","inputs":{"_0":{"name":"Compressional Velocity","family":"Compressional Velocity","unit":"ft/s"},"last":0},"parameters":{},"outputs":[{"name":"DEN_BEL_CONSOLID","family":"Bulk Density","unit":"g/cc"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calBellottiUnconsolidated","inputs":{"_0":{"name":"Compressional Slowness","family":"Compressional Slowness","unit":"us/ft"},"last":0},"parameters":{},"outputs":[{"name":"DEN_BEL_UNCOSOLID","family":"Bulk Density","unit":"g/cc"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calLindseth","inputs":{"_0":{"name":"Compressional Velocity","family":"Compressional Velocity","unit":"ft/s"},"last":0},"parameters":{},"outputs":[{"name":"DEN_LIND","family":"Bulk Density","unit":"g/cc"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calLinear","inputs":{"_0":{"name":"True vertical depth","family":"True vertical depth","unit":"m"},"last":0},"parameters":{"_0":{"name":"KB height","type":"number","unit":"m","value":0},"_1":{"name":"Water depth","type":"number","unit":"m","value":0},"_2":{"name":"Top RHOB","type":"number","unit":"g/cc","value":1.88},"_3":{"name":"Bottom depth","type":"number","unit":"m","value":4000},"_4":{"name":"Bottom RHOB","type":"number","unit":"g/cc","value":2.55},"last":4},"outputs":[{"name":"DEN_LINEAR","family":"Bulk Density","unit":"g/cc"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calPowerLaw","inputs":{"_0":{"name":"True vertical depth","family":"True vertical depth","unit":"m"},"last":0},"parameters":{"_0":{"name":"KB height","type":"number","unit":"m","value":0},"_1":{"name":"Water depth","type":"number","unit":"m","value":0},"_2":{"name":"Top RHOB","type":"number","unit":"g/cc","value":1.88},"_3":{"name":"Bottom depth","type":"number","unit":"m","value":4000},"_4":{"name":"Bottom RHOB","type":"number","unit":"g/cc","value":2.55},"last":4},"outputs":[{"name":"DEN_POWER","family":"Bulk Density","unit":"g/cc"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calHubbertWillis","inputs":{"_0":{"name":"Vertical Stress","family":"Vertical Stress","unit":"psi"},"_1":{"name":"Pore Pressure","family":"Pore Pressure","unit":"psi"},"last":1},"parameters":{},"outputs":[{"name":"SHMIN_HUB","family":"Minimum Horizontal Stress","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calEaton","inputs":{"_0":{"name":"Vertical Stress","family":"Vertical Stress","unit":"psi"},"_1":{"name":"Pore Pressure","family":"Pore Pressure","unit":"psi"},"_2":{"name":"Poisson Ratio (Static)","family":"Poisson Ratio (Static)","unit":"unitless"},"last":2},"parameters":{},"outputs":[{"name":"SHMIN_EATON","family":"Minimum Horizontal Stress","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calMinESRTerzaghiEffectiveStress","inputs":{"_0":{"name":"Vertical Stress","family":"Vertical Stress","unit":"psi"},"_1":{"name":"Pore Pressure","family":"Pore Pressure","unit":"psi"},"_2":{"name":"Minimum Horizontal Effective Stress Ratio","family":"Minimum Horizontal Effective Stress Ratio","unit":"unitless","allowNull":true},"last":2},"parameters":{"_0":{"name":"Minimum Horizontal Effective Stress Ratio","type":"number","unit":"unitless","value":0.7},"last":0},"outputs":[{"name":"SHMIN_TER","family":"Minimum Horizontal Stress","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calMinESRBiotCoefficient","inputs":{"_0":{"name":"Vertical Stress","family":"Vertical Stress","unit":"psi"},"_1":{"name":"Pore Pressure","family":"Pore Pressure","unit":"psi"},"_2":{"name":"Biot Coefficient","family":"Biot Coefficient","unit":"unitless"},"_3":{"name":"Minimum Horizontal Effective Stress Ratio","family":"Minimum Horizontal Effective Stress Ratio","unit":"unitless","allowNull":true},"last":3},"parameters":{"_0":{"name":"Minimum Horizontal Effective Stress Ratio","type":"number","unit":"unitless","value":0.7},"last":0},"outputs":[{"name":"SHMIN_BIOT","family":"Minimum Horizontal Stress","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calPoroElasticUniaxialStrainModel","inputs":{"_0":{"name":"Vertical Stress","family":"Vertical Stress","unit":"psi"},"_1":{"name":"Pore Pressure","family":"Pore Pressure","unit":"psi"},"_2":{"name":"Biot Coefficient","family":"Biot Coefficient","unit":"unitless"},"_3":{"name":"Poisson Ratio (Static)","family":"Poisson Ratio (Static)","unit":"unitless"},"last":3},"parameters":{},"outputs":[{"name":"SHMIN_UNIAXIAL","family":"Minimum Horizontal Stress","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calFunctionOfShmin","inputs":{"_0":{"name":"Minimum Horizontal Stress","family":"Minimum Horizontal Stress","unit":"psi"},"last":0},"parameters":{"_0":{"name":"Multiplier","type":"number","unit":"unitless","value":1},"last":0},"outputs":[{"name":"SHMAX_SHMIN","family":"Maximum Horizontal Stress","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calFunctionOfShmin","inputs":{"_0":{"name":"Vertical Stress","family":"Vertical Stress","unit":"psi"},"_1":{"name":"Pore Pressure","family":"Pore Pressure","unit":"psi"},"_2":{"name":"Maximum Horizontal Effective Stress Ratio","family":"Maximum Horizontal Effective Stress Ratio","unit":"unitless","allowNull":true},"last":2},"parameters":{"_0":{"name":"Maximum Horizontal Effective Stress Ratio","type":"number","unit":"unitless","value":0.8},"last":0},"outputs":[{"name":"SHMAX_TER","family":"Maximum Horizontal Stress","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calStressCorrection","inputs":{"_0":{"name":"Sw_lab","family":"Core Water Saturation (Array)","unit":"v/v"},"_1":{"name":"Pc_lab","family":"Capillary Pressure Laboratory (Array)","unit":"bar"},"last":1},"parameters":{"_0":{"name":"PhiRes/PhiLab","type":"number","value":0.95},"last":0},"outputs":[{"name":"PC_STRESS_CORR","family":"Capillary Pressure Laboratory (Array)","unit":"bar"},{"name":"SW_STRESS_CORR","family":"Core Water Saturation (Array)","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calClayBoundCorrection","inputs":{"_0":{"name":"Sw_lab","family":"Core Water Saturation (Array)","unit":"v/v"},"_1":{"name":"Pc_lab","family":"Capillary Pressure Laboratory (Array)","unit":"bar"},"_2":{"name":"Qv","family":"Normalized Qv","unit":"1/L"},"last":2},"parameters":{"_0":{"name":"Salinity","type":"number","unit":"ppm","value":35},"last":0},"outputs":[{"name":"PC_CB_CORR","family":"Capillary Pressure Laboratory (Array)","unit":"bar"},{"name":"SW_CB_CORR","family":"Core Water Saturation (Array)","unit":"v/v"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calPoreSizeDistribution","inputs":{"_0":{"name":"Pc_lab","family":"Capillary Pressure Laboratory (Array)","unit":"bar"},"last":0},"parameters":{"_0":{"name":"Sigma_Lab*CosTheta_Lab (Lab)","type":"select","choices":["Pre-defined","Custom value"],"value":"Pre-defined"},"_1":{"name":"Pre-defined Lab","type":"select","choices":["Air - Brine","Air - Mercury","Air - Oil","Oil - Brine"],"value":"Air - Brine"},"_2":{"name":"Custom Lab","type":"number","value":1},"last":2},"outputs":[{"name":"PORE_THROAT_RADIUS","family":"Pore Throat Radius Distribution (Array)","unit":"um"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calTransformationDataPcModeling","inputs":{"_0":{"name":"Pc_lab","family":"Capillary Pressure Laboratory (Array)","unit":"bar"},"last":0},"parameters":{"_0":{"name":"Sigma_Res*CosTheta_Res (Res)","type":"select","choices":["Pre-defined","Custom value"],"value":"Pre-defined"},"_1":{"name":"Pre-defined Res","type":"select","choices":["Brine - Oil","Brine - Gas"],"value":"Brine - Oil"},"_2":{"name":"Custom Res","type":"number","value":1},"_3":{"name":"Sigma_Lab*CosTheta_Lab (Lab)","type":"select","choices":["Pre-defined","Custom value"],"value":"Pre-defined"},"_4":{"name":"Pre-defined Lab","type":"select","choices":["Air - Brine","Air - Mercury","Air - Oil","Oil - Brine"],"value":"Air - Brine"},"_5":{"name":"Custom Lab","type":"number","value":1},"last":5},"outputs":[{"name":"PC_RES","family":"Capillary Pressure Reservoir (Array)","unit":"bar"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calDynamicProperties","inputs":{"_0":{"name":"Bulk Density","unit":"gAPI","family":"Bulk Density"},"_1":{"name":"Compressional Slowness","unit":"us/ft","family":"Compressional Slowness"},"_2":{"name":"Shear Slowness","unit":"us/ft","family":"Shear Slowness"},"last":2},"parameters":{},"outputs":[{"name":"VELC","family":"Compressional Velocity","unit":"ft/s"},{"name":"VELS","family":"Shear Velocity","unit":"ft/s"},{"name":"PR_DYN","family":"Poisson Ratio (Dynamic)","unit":"unitless"},{"name":"YM_DYN","family":"Young's Modulus (Dynamic)","unit":"Mpsi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"static-young-modulus-16x16","function":"calMethodBradfordEtAlForSand","inputs":{"_0":{"name":"Young's Modulus (Dynamic)","unit":"Mpsi","family":"Young's Modulus (Dynamic)"},"_1":{"name":"Mechanical Stratigraphy Flag","unit":"unitless","family":"Mechanical Stratigraphy Flag","allowNull":true},"last":1},"parameters":{"_0":{"name":"Apply for flag =","type":"select","choices":[0,1,null,"Any"],"value":0},"last":0},"outputs":[{"name":"YM_STA_BRAD","family":"Young's Modulus (Static)","unit":"Mpsi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"static-young-modulus-16x16","function":"calHorsrudForSale","inputs":{"_0":{"name":"Compressional slowness","unit":"us/ft","family":"Compressional slowness"},"_1":{"name":"Mechanical Stratigraphy Flag","unit":"unitless","family":"Mechanical Stratigraphy Flag","allowNull":true},"last":1},"parameters":{"_0":{"name":"Apply for flag =","type":"select","choices":[0,1,null,"Any"],"value":0},"last":0},"outputs":[{"name":"YM_STA_HORS","family":"Young's Modulus (Static)","unit":"Mpsi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"static-young-modulus-16x16","function":"calLacy","inputs":{"_0":{"name":"Young's Modulus (Dynamic)","family":"Young's Modulus (Dynamic)","unit":"Mpsi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless"},"last":1},"parameters":{"_0":{"name":"Sand with flag ","type":"select","choices":[0,1],"value":0},"_1":{"name":"Shale with flag ","type":"select","choices":[0,1],"value":0},"last":1},"outputs":[{"name":"YM_STA_LACY","family":"Young's Modulus (Static)","unit":"Mpsi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"","function":"","inputs":{"_0":{"name":"Young's Modulus (Static)","family":"Young's Modulus (Static)","unit":"Mpsi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless"},"last":1},"parameters":{"_0":{"name":"","type":"select","choices":[0,1],"value":0},"_1":{"name":"","type":"select","choices":[0,1],"value":0},"_2":{"name":"","type":"select","choices":[0,1],"value":0},"_3":{"name":"","type":"select","choices":[0,1],"value":0},"last":3},"outputs":[{"name":"","family":"","unit":""}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"static-bulk-and-shear-modulus-16x16","function":"calStaticBulkShearModulus","inputs":{"_0":{"name":"Young's Modulus (Static)","family":"Young's Modulus (Static)","unit":"Mpsi"},"_1":{"name":"Poisson Ratio (Static)","family":"Poisson Ratio (Static)","unit":"unitless"},"last":1},"parameters":{},"outputs":[{"name":"SM_STA","family":"Shear Modulus (Static)","unit":"Mpsi"},{"name":"BM_STA","family":"Bulk Modulus (Static)","unit":"Mpsi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calBradFordEtAlForSand","inputs":{"_0":{"name":"Young's Modulus (Static)","family":"Young's Modulus (Static)","unit":"psi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_Brad","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl8ForSand","inputs":{"_0":{"name":"Young's Modulus (Static)","family":"Young's Modulus (Static)","unit":"Mpsi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_Chang8","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calLacyForSand","inputs":{"_0":{"name":"Young's Modulus (Static)","family":"Young's Modulus (Static)","unit":"Mpsi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_LACY","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calPlumbForSand","inputs":{"_0":{"name":"Young's Modulus (Static)","family":"Young's Modulus (Static)","unit":"Mpsi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Sand with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_PLUMB","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calChangEtAl18ForShale","inputs":{"_0":{"name":"Young's Modulus (Static)","family":"Young's Modulus (Static)","unit":"Mpsi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_CHANG18","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
-  </si>
-  <si>
-    <t>{"other":{},"icon":"toolbox-16x16","function":"calHorsrudEsForShale","inputs":{"_0":{"name":"Young's Modulus (Static)","family":"Young's Modulus (Static)","unit":"Mpsi"},"_1":{"name":"Mechanical Stratigraphy Flag","family":"Mechanical Stratigraphy Flag","unit":"unitless","allowNull":true},"last":1},"parameters":{"_0":{"name":"Shale with flag =","type":"select","choices":[0,1],"value":0},"last":0},"outputs":[{"name":"UCS_HOR_ES","family":"Unconfined Compressive Strength","unit":"psi"}]}</t>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calPoreSizeDistribution","inputs":{"_0":{"name":"Pc_lab","family":"Capillary Pressure Laboratory (Array)","unit":"bar"},"last":0},"parameters":{"_0":{"name":"Sigma*CosTheta (Lab)","type":"select","choices":["Pre-defined","Custom value"],"value":"Pre-defined"},"_1":{"name":"Pre-defined Lab","type":"select","choices":["Air - Brine","Air - Mercury","Air - Oil","Oil - Brine"],"value":"Air - Brine"},"_2":{"name":"Custom Lab","type":"number","value":1},"last":2},"outputs":[{"name":"PORE_THROAT_RADIUS","family":"Pore Throat Radius Distribution (Array)","unit":"um"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calTransformationDataPcModeling","inputs":{"_0":{"name":"Pc_lab","family":"Capillary Pressure Laboratory (Array)","unit":"bar"},"last":0},"parameters":{"_0":{"name":"Sigma*CosTheta (Res)","type":"select","choices":["Pre-defined","Custom value"],"value":"Pre-defined"},"_1":{"name":"Pre-defined Res","type":"select","choices":["Brine - Oil","Brine - Gas"],"value":"Brine - Oil"},"_2":{"name":"Custom Res","type":"number","value":1},"_3":{"name":"Sigma*CosTheta (Lab)","type":"select","choices":["Pre-defined","Custom value"],"value":"Pre-defined"},"_4":{"name":"Pre-defined Lab","type":"select","choices":["Air - Brine","Air - Mercury","Air - Oil","Oil - Brine"],"value":"Air - Brine"},"_5":{"name":"Custom Lab","type":"number","value":1},"last":5},"outputs":[{"name":"PC_RES","family":"Capillary Pressure Reservoir (Array)","unit":"bar"}]}</t>
+  </si>
+  <si>
+    <t>{"other":{},"icon":"toolbox-16x16","function":"calSaturationHeightFunction","inputs":{"_0":{"name":"True Vertical Depth Sub Sea","family":"True Vertical Depth Sub Sea","unit":"m"},"_1":{"name":"Porosity","family":"Porosity","unit":"v/v"},"_2":{"name":"Permeability","family":"Permeability","unit":"mD"},"_3":{"name":"Saturation","family":"Saturation","unit":"v/v","allowNull":true},"last":3},"parameters":{"_0":{"name":"FWL(TVDSS)","type":"number"},"_1":{"name":"Hydro Carbon density","type":"number","value":0.7},"_2":{"name":"Water density","type":"number","value":1},"_3":{"name":"Sigma*CosTheta","type":"number","value":1},"_4":{"name":"Function","type":"select","choices":["J Lambda","J Hyperbola","J Exponential","J Modified Lambda","J Modified Hyperbola","J Modified Exponential","Corey - Brooks"],"value":"J Lambda"},"_5":{"name":"m","type":"number"},"_6":{"name":"a","type":"number"},"_7":{"name":"lambda","type":"number"},"_8":{"name":"b","type":"number"},"last":8},"outputs":[{"name":"SW","family":"Water Saturation","unit":"v/v"}]}</t>
   </si>
 </sst>
 </file>
@@ -1199,11 +1199,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0